--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1810">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7936,6 +7936,78 @@
   </si>
   <si>
     <t>Amy.Lawrence@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregg Bakowski</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul Doyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy Hunter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Riach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paolo Bandini</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fernando Duarte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Hytner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>James Richardson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy Bull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregg.Bakowski@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul.Doyle@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy.Hunter@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>James.Riach@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paolo.Bandini@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fernando.Duarte@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David.Hytner@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>James.Richardson@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy.Bull@theguardian.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8638,8 +8710,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F430" sqref="F430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21539,13 +21611,21 @@
       <c r="Q421" s="17"/>
     </row>
     <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="20"/>
-      <c r="B422" s="13"/>
-      <c r="C422" s="45"/>
+      <c r="A422" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B422" s="35" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C422" s="35" t="s">
+        <v>1801</v>
+      </c>
       <c r="D422" s="14"/>
       <c r="E422" s="14"/>
       <c r="F422" s="14"/>
-      <c r="G422" s="14"/>
+      <c r="G422" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H422" s="15"/>
       <c r="I422" s="14"/>
       <c r="J422" s="14"/>
@@ -21558,13 +21638,21 @@
       <c r="Q422" s="17"/>
     </row>
     <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="20"/>
-      <c r="B423" s="13"/>
-      <c r="C423" s="45"/>
+      <c r="A423" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B423" s="35" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C423" s="35" t="s">
+        <v>1802</v>
+      </c>
       <c r="D423" s="14"/>
       <c r="E423" s="14"/>
       <c r="F423" s="14"/>
-      <c r="G423" s="14"/>
+      <c r="G423" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H423" s="15"/>
       <c r="I423" s="14"/>
       <c r="J423" s="14"/>
@@ -21577,13 +21665,21 @@
       <c r="Q423" s="17"/>
     </row>
     <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="20"/>
-      <c r="B424" s="13"/>
-      <c r="C424" s="45"/>
+      <c r="A424" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B424" s="35" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C424" s="35" t="s">
+        <v>1803</v>
+      </c>
       <c r="D424" s="14"/>
       <c r="E424" s="14"/>
       <c r="F424" s="14"/>
-      <c r="G424" s="14"/>
+      <c r="G424" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H424" s="15"/>
       <c r="I424" s="14"/>
       <c r="J424" s="14"/>
@@ -21596,13 +21692,21 @@
       <c r="Q424" s="17"/>
     </row>
     <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="20"/>
-      <c r="B425" s="13"/>
-      <c r="C425" s="45"/>
+      <c r="A425" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B425" s="35" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C425" s="35" t="s">
+        <v>1804</v>
+      </c>
       <c r="D425" s="14"/>
       <c r="E425" s="14"/>
       <c r="F425" s="14"/>
-      <c r="G425" s="14"/>
+      <c r="G425" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H425" s="15"/>
       <c r="I425" s="14"/>
       <c r="J425" s="14"/>
@@ -21615,13 +21719,21 @@
       <c r="Q425" s="17"/>
     </row>
     <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="20"/>
-      <c r="B426" s="13"/>
-      <c r="C426" s="45"/>
+      <c r="A426" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B426" s="35" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C426" s="35" t="s">
+        <v>1805</v>
+      </c>
       <c r="D426" s="14"/>
       <c r="E426" s="14"/>
       <c r="F426" s="14"/>
-      <c r="G426" s="14"/>
+      <c r="G426" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H426" s="15"/>
       <c r="I426" s="14"/>
       <c r="J426" s="14"/>
@@ -21634,13 +21746,21 @@
       <c r="Q426" s="17"/>
     </row>
     <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="20"/>
-      <c r="B427" s="13"/>
-      <c r="C427" s="45"/>
+      <c r="A427" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B427" s="35" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C427" s="35" t="s">
+        <v>1806</v>
+      </c>
       <c r="D427" s="14"/>
       <c r="E427" s="14"/>
       <c r="F427" s="14"/>
-      <c r="G427" s="14"/>
+      <c r="G427" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H427" s="15"/>
       <c r="I427" s="14"/>
       <c r="J427" s="14"/>
@@ -21653,13 +21773,21 @@
       <c r="Q427" s="17"/>
     </row>
     <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="20"/>
-      <c r="B428" s="13"/>
-      <c r="C428" s="45"/>
+      <c r="A428" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B428" s="35" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C428" s="35" t="s">
+        <v>1807</v>
+      </c>
       <c r="D428" s="14"/>
       <c r="E428" s="14"/>
       <c r="F428" s="14"/>
-      <c r="G428" s="14"/>
+      <c r="G428" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H428" s="15"/>
       <c r="I428" s="14"/>
       <c r="J428" s="14"/>
@@ -21672,13 +21800,21 @@
       <c r="Q428" s="17"/>
     </row>
     <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="20"/>
-      <c r="B429" s="13"/>
-      <c r="C429" s="45"/>
+      <c r="A429" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B429" s="35" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C429" s="35" t="s">
+        <v>1808</v>
+      </c>
       <c r="D429" s="14"/>
       <c r="E429" s="14"/>
       <c r="F429" s="14"/>
-      <c r="G429" s="14"/>
+      <c r="G429" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H429" s="15"/>
       <c r="I429" s="14"/>
       <c r="J429" s="14"/>
@@ -21691,13 +21827,21 @@
       <c r="Q429" s="17"/>
     </row>
     <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="20"/>
-      <c r="B430" s="13"/>
-      <c r="C430" s="45"/>
+      <c r="A430" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B430" s="35" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C430" s="35" t="s">
+        <v>1809</v>
+      </c>
       <c r="D430" s="14"/>
       <c r="E430" s="14"/>
       <c r="F430" s="14"/>
-      <c r="G430" s="14"/>
+      <c r="G430" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H430" s="15"/>
       <c r="I430" s="14"/>
       <c r="J430" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1852">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8007,7 +8007,175 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Dominic Fifield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sean Ingle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barney Ronay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Burnton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>William Fotheringham</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamie Jackson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel Taylor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddie Butler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owen Gibson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russell Jackson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Andy.Bull@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominic.Fifield@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sean.Ingle@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barney.Ronay@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon.Burnton@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>William.Fotheringham@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamie.Jackson@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel.Taylor@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddie.Butler@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owen.Gibson@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Louise Taylor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Conn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barry Glendenning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuart James</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charles Arthur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack Schofield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jemima Kiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keith Stuart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annalisa Barbieri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr Luisa Dillner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifestyle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russell.Jackson@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Louise.Taylor@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David.Conn@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barry.Glendenning@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuart.James@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charles.Arthur@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack.Schofield@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jemima.Kiss@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keith.Stuart@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annalisa.Barbieri@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luisa.Dillner@theguardian.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8710,8 +8878,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F430" sqref="F430"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21834,7 +22002,7 @@
         <v>1800</v>
       </c>
       <c r="C430" s="35" t="s">
-        <v>1809</v>
+        <v>1819</v>
       </c>
       <c r="D430" s="14"/>
       <c r="E430" s="14"/>
@@ -21854,13 +22022,21 @@
       <c r="Q430" s="17"/>
     </row>
     <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="20"/>
-      <c r="B431" s="13"/>
-      <c r="C431" s="45"/>
+      <c r="A431" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B431" s="35" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C431" s="35" t="s">
+        <v>1820</v>
+      </c>
       <c r="D431" s="14"/>
       <c r="E431" s="14"/>
       <c r="F431" s="14"/>
-      <c r="G431" s="14"/>
+      <c r="G431" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H431" s="15"/>
       <c r="I431" s="14"/>
       <c r="J431" s="14"/>
@@ -21873,13 +22049,21 @@
       <c r="Q431" s="17"/>
     </row>
     <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="20"/>
-      <c r="B432" s="13"/>
-      <c r="C432" s="45"/>
+      <c r="A432" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B432" s="35" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C432" s="35" t="s">
+        <v>1821</v>
+      </c>
       <c r="D432" s="14"/>
       <c r="E432" s="14"/>
       <c r="F432" s="14"/>
-      <c r="G432" s="14"/>
+      <c r="G432" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H432" s="15"/>
       <c r="I432" s="14"/>
       <c r="J432" s="14"/>
@@ -21892,13 +22076,21 @@
       <c r="Q432" s="17"/>
     </row>
     <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="20"/>
-      <c r="B433" s="13"/>
-      <c r="C433" s="45"/>
+      <c r="A433" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B433" s="35" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C433" s="35" t="s">
+        <v>1822</v>
+      </c>
       <c r="D433" s="14"/>
       <c r="E433" s="14"/>
       <c r="F433" s="14"/>
-      <c r="G433" s="14"/>
+      <c r="G433" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H433" s="15"/>
       <c r="I433" s="14"/>
       <c r="J433" s="14"/>
@@ -21911,13 +22103,21 @@
       <c r="Q433" s="17"/>
     </row>
     <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="20"/>
-      <c r="B434" s="13"/>
-      <c r="C434" s="45"/>
+      <c r="A434" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B434" s="35" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C434" s="35" t="s">
+        <v>1823</v>
+      </c>
       <c r="D434" s="14"/>
       <c r="E434" s="14"/>
       <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
+      <c r="G434" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H434" s="15"/>
       <c r="I434" s="14"/>
       <c r="J434" s="14"/>
@@ -21930,13 +22130,21 @@
       <c r="Q434" s="17"/>
     </row>
     <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="20"/>
-      <c r="B435" s="35"/>
-      <c r="C435" s="48"/>
+      <c r="A435" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B435" s="35" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C435" s="35" t="s">
+        <v>1824</v>
+      </c>
       <c r="D435" s="14"/>
       <c r="E435" s="14"/>
       <c r="F435" s="14"/>
-      <c r="G435" s="34"/>
+      <c r="G435" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H435" s="15"/>
       <c r="I435" s="14"/>
       <c r="J435" s="14"/>
@@ -21949,13 +22157,21 @@
       <c r="Q435" s="17"/>
     </row>
     <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="20"/>
-      <c r="B436" s="35"/>
-      <c r="C436" s="48"/>
+      <c r="A436" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B436" s="35" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C436" s="35" t="s">
+        <v>1825</v>
+      </c>
       <c r="D436" s="14"/>
       <c r="E436" s="14"/>
       <c r="F436" s="14"/>
-      <c r="G436" s="34"/>
+      <c r="G436" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H436" s="15"/>
       <c r="I436" s="14"/>
       <c r="J436" s="14"/>
@@ -21968,13 +22184,21 @@
       <c r="Q436" s="17"/>
     </row>
     <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="20"/>
-      <c r="B437" s="35"/>
-      <c r="C437" s="48"/>
+      <c r="A437" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B437" s="35" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C437" s="35" t="s">
+        <v>1826</v>
+      </c>
       <c r="D437" s="14"/>
       <c r="E437" s="14"/>
       <c r="F437" s="14"/>
-      <c r="G437" s="34"/>
+      <c r="G437" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H437" s="15"/>
       <c r="I437" s="14"/>
       <c r="J437" s="14"/>
@@ -21987,13 +22211,21 @@
       <c r="Q437" s="17"/>
     </row>
     <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="20"/>
-      <c r="B438" s="35"/>
-      <c r="C438" s="48"/>
+      <c r="A438" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B438" s="35" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C438" s="35" t="s">
+        <v>1827</v>
+      </c>
       <c r="D438" s="14"/>
       <c r="E438" s="14"/>
       <c r="F438" s="14"/>
-      <c r="G438" s="34"/>
+      <c r="G438" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H438" s="15"/>
       <c r="I438" s="14"/>
       <c r="J438" s="14"/>
@@ -22006,13 +22238,21 @@
       <c r="Q438" s="17"/>
     </row>
     <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="20"/>
-      <c r="B439" s="35"/>
-      <c r="C439" s="48"/>
+      <c r="A439" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B439" s="35" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C439" s="35" t="s">
+        <v>1828</v>
+      </c>
       <c r="D439" s="14"/>
       <c r="E439" s="14"/>
       <c r="F439" s="14"/>
-      <c r="G439" s="34"/>
+      <c r="G439" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H439" s="15"/>
       <c r="I439" s="14"/>
       <c r="J439" s="14"/>
@@ -22025,13 +22265,21 @@
       <c r="Q439" s="17"/>
     </row>
     <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="20"/>
-      <c r="B440" s="35"/>
-      <c r="C440" s="48"/>
+      <c r="A440" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B440" s="35" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C440" s="35" t="s">
+        <v>1841</v>
+      </c>
       <c r="D440" s="14"/>
       <c r="E440" s="14"/>
       <c r="F440" s="14"/>
-      <c r="G440" s="34"/>
+      <c r="G440" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H440" s="15"/>
       <c r="I440" s="14"/>
       <c r="J440" s="14"/>
@@ -22044,13 +22292,21 @@
       <c r="Q440" s="17"/>
     </row>
     <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="20"/>
-      <c r="B441" s="13"/>
-      <c r="C441" s="45"/>
+      <c r="A441" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B441" s="35" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C441" s="35" t="s">
+        <v>1842</v>
+      </c>
       <c r="D441" s="14"/>
       <c r="E441" s="14"/>
       <c r="F441" s="14"/>
-      <c r="G441" s="14"/>
+      <c r="G441" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H441" s="15"/>
       <c r="I441" s="14"/>
       <c r="J441" s="14"/>
@@ -22063,13 +22319,21 @@
       <c r="Q441" s="17"/>
     </row>
     <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="20"/>
-      <c r="B442" s="13"/>
-      <c r="C442" s="45"/>
+      <c r="A442" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B442" s="35" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C442" s="35" t="s">
+        <v>1843</v>
+      </c>
       <c r="D442" s="14"/>
       <c r="E442" s="14"/>
       <c r="F442" s="14"/>
-      <c r="G442" s="14"/>
+      <c r="G442" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H442" s="15"/>
       <c r="I442" s="14"/>
       <c r="J442" s="14"/>
@@ -22082,13 +22346,21 @@
       <c r="Q442" s="17"/>
     </row>
     <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="20"/>
-      <c r="B443" s="13"/>
-      <c r="C443" s="45"/>
+      <c r="A443" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B443" s="35" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C443" s="35" t="s">
+        <v>1844</v>
+      </c>
       <c r="D443" s="14"/>
       <c r="E443" s="14"/>
       <c r="F443" s="14"/>
-      <c r="G443" s="14"/>
+      <c r="G443" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H443" s="15"/>
       <c r="I443" s="14"/>
       <c r="J443" s="14"/>
@@ -22101,13 +22373,21 @@
       <c r="Q443" s="17"/>
     </row>
     <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="20"/>
-      <c r="B444" s="13"/>
-      <c r="C444" s="45"/>
+      <c r="A444" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B444" s="35" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C444" s="35" t="s">
+        <v>1845</v>
+      </c>
       <c r="D444" s="14"/>
       <c r="E444" s="14"/>
       <c r="F444" s="14"/>
-      <c r="G444" s="14"/>
+      <c r="G444" s="53" t="s">
+        <v>1759</v>
+      </c>
       <c r="H444" s="15"/>
       <c r="I444" s="14"/>
       <c r="J444" s="14"/>
@@ -22120,13 +22400,21 @@
       <c r="Q444" s="17"/>
     </row>
     <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="20"/>
-      <c r="B445" s="13"/>
-      <c r="C445" s="45"/>
+      <c r="A445" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B445" s="35" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C445" s="35" t="s">
+        <v>1846</v>
+      </c>
       <c r="D445" s="14"/>
       <c r="E445" s="14"/>
       <c r="F445" s="14"/>
-      <c r="G445" s="14"/>
+      <c r="G445" s="53" t="s">
+        <v>1837</v>
+      </c>
       <c r="H445" s="15"/>
       <c r="I445" s="14"/>
       <c r="J445" s="14"/>
@@ -22139,13 +22427,21 @@
       <c r="Q445" s="17"/>
     </row>
     <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="20"/>
-      <c r="B446" s="13"/>
-      <c r="C446" s="45"/>
+      <c r="A446" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B446" s="35" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C446" s="35" t="s">
+        <v>1847</v>
+      </c>
       <c r="D446" s="14"/>
       <c r="E446" s="14"/>
       <c r="F446" s="14"/>
-      <c r="G446" s="14"/>
+      <c r="G446" s="53" t="s">
+        <v>1837</v>
+      </c>
       <c r="H446" s="15"/>
       <c r="I446" s="14"/>
       <c r="J446" s="14"/>
@@ -22158,13 +22454,21 @@
       <c r="Q446" s="17"/>
     </row>
     <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="20"/>
-      <c r="B447" s="13"/>
-      <c r="C447" s="45"/>
+      <c r="A447" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B447" s="35" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C447" s="35" t="s">
+        <v>1848</v>
+      </c>
       <c r="D447" s="14"/>
       <c r="E447" s="14"/>
       <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
+      <c r="G447" s="53" t="s">
+        <v>1837</v>
+      </c>
       <c r="H447" s="15"/>
       <c r="I447" s="14"/>
       <c r="J447" s="14"/>
@@ -22177,13 +22481,21 @@
       <c r="Q447" s="17"/>
     </row>
     <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="20"/>
-      <c r="B448" s="13"/>
-      <c r="C448" s="45"/>
+      <c r="A448" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B448" s="35" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C448" s="35" t="s">
+        <v>1849</v>
+      </c>
       <c r="D448" s="14"/>
       <c r="E448" s="14"/>
       <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
+      <c r="G448" s="53" t="s">
+        <v>1837</v>
+      </c>
       <c r="H448" s="15"/>
       <c r="I448" s="14"/>
       <c r="J448" s="14"/>
@@ -22196,13 +22508,21 @@
       <c r="Q448" s="17"/>
     </row>
     <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="20"/>
-      <c r="B449" s="13"/>
-      <c r="C449" s="45"/>
+      <c r="A449" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B449" s="35" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C449" s="35" t="s">
+        <v>1850</v>
+      </c>
       <c r="D449" s="14"/>
       <c r="E449" s="14"/>
       <c r="F449" s="14"/>
-      <c r="G449" s="14"/>
+      <c r="G449" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H449" s="15"/>
       <c r="I449" s="14"/>
       <c r="J449" s="14"/>
@@ -22215,13 +22535,21 @@
       <c r="Q449" s="17"/>
     </row>
     <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="20"/>
-      <c r="B450" s="13"/>
-      <c r="C450" s="45"/>
+      <c r="A450" s="36" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B450" s="35" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C450" s="35" t="s">
+        <v>1851</v>
+      </c>
       <c r="D450" s="14"/>
       <c r="E450" s="14"/>
       <c r="F450" s="14"/>
-      <c r="G450" s="14"/>
+      <c r="G450" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H450" s="15"/>
       <c r="I450" s="14"/>
       <c r="J450" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1893">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8178,12 +8178,176 @@
     <t>Luisa.Dillner@theguardian.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Tim Lott</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pamela Stephenson Connolly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver Burkeman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mariella Frostrup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy Mangan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myf Warhurst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pascal Wyse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kate Carter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sophie Heawood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy Siegle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim Dowling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver James</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jess Cartner-Morley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imogen Fox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Fisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sali Hughes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lauren Cochrane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morwenna Ferrier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadley Freeman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hannah Marriott</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim.Lott</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pamela.Stephenson.Connolly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver.Burkeman@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mariella.Frostrup@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy.Mangan@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myf.Warhurst@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pascal.Wyse@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kate.Carter@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sophie.Heawood@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy.Siegle@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tim.Dowling@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver.James@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jess.C.Morley@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imogen.Fox@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice.Fisher@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sali.Hughes@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lauren.Cochrane@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morwenna.Ferrier@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadley.Freeman@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hannah.Marriott@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8436,7 +8600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8593,6 +8757,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8867,22 +9034,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D451" sqref="D451"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E468" sqref="E468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -8904,7 +9071,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8960,7 +9127,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -8991,7 +9158,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -9022,7 +9189,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -9053,7 +9220,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9088,7 +9255,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -9134,7 +9301,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -9167,7 +9334,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -9209,7 +9376,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -9244,7 +9411,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -9283,7 +9450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -9313,7 +9480,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -9345,7 +9512,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -9380,7 +9547,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -9404,7 +9571,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -9441,7 +9608,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -9478,7 +9645,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -9513,7 +9680,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -9544,7 +9711,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -9583,7 +9750,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -9614,7 +9781,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -9641,7 +9808,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +9841,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -9707,7 +9874,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -9738,7 +9905,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -9775,7 +9942,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -9810,7 +9977,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -9847,7 +10014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -9878,7 +10045,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -9911,7 +10078,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -9940,7 +10107,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -9967,7 +10134,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -9998,7 +10165,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -10029,7 +10196,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -10067,7 +10234,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -10100,7 +10267,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -10127,7 +10294,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -10162,7 +10329,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -10197,7 +10364,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -10234,7 +10401,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -10267,7 +10434,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -10305,7 +10472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -10340,7 +10507,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -10371,7 +10538,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -10410,7 +10577,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -10445,7 +10612,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -10480,7 +10647,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -10513,7 +10680,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -10548,7 +10715,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -10579,7 +10746,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -10604,7 +10771,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -10643,7 +10810,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -10677,7 +10844,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -10712,7 +10879,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -10749,7 +10916,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -10791,7 +10958,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -10824,7 +10991,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -10857,7 +11024,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -10888,7 +11055,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -10923,7 +11090,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -10952,7 +11119,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -10981,7 +11148,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -11012,7 +11179,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -11041,7 +11208,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -11072,7 +11239,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -11103,7 +11270,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -11136,7 +11303,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -11167,7 +11334,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -11202,7 +11369,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -11237,7 +11404,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -11270,7 +11437,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -11303,7 +11470,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -11340,7 +11507,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -11377,7 +11544,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -11412,7 +11579,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -11447,7 +11614,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -11478,7 +11645,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -11513,7 +11680,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -11548,7 +11715,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -11577,7 +11744,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -11602,7 +11769,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -11629,7 +11796,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -11656,7 +11823,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -11683,7 +11850,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -11712,7 +11879,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -11739,7 +11906,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -11776,7 +11943,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -11811,7 +11978,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -11846,7 +12013,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -11877,7 +12044,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -11908,7 +12075,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -11937,7 +12104,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -11974,7 +12141,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -12015,7 +12182,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -12052,7 +12219,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -12093,7 +12260,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -12121,7 +12288,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -12154,7 +12321,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -12187,7 +12354,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -12222,7 +12389,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -12261,7 +12428,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -12292,7 +12459,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -12323,7 +12490,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -12360,7 +12527,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -12401,7 +12568,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1">
       <c r="A105" s="20" t="s">
         <v>680</v>
       </c>
@@ -12438,7 +12605,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1">
       <c r="A106" s="20" t="s">
         <v>680</v>
       </c>
@@ -12475,7 +12642,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1">
       <c r="A107" s="20" t="s">
         <v>680</v>
       </c>
@@ -12512,7 +12679,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1">
       <c r="A108" s="20" t="s">
         <v>680</v>
       </c>
@@ -12551,7 +12718,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>680</v>
       </c>
@@ -12588,7 +12755,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>680</v>
       </c>
@@ -12619,7 +12786,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1">
       <c r="A111" s="20" t="s">
         <v>680</v>
       </c>
@@ -12650,7 +12817,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>680</v>
       </c>
@@ -12687,7 +12854,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>680</v>
       </c>
@@ -12728,7 +12895,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1">
       <c r="A114" s="20" t="s">
         <v>680</v>
       </c>
@@ -12765,7 +12932,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>680</v>
       </c>
@@ -12788,7 +12955,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>680</v>
       </c>
@@ -12827,7 +12994,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1">
       <c r="A117" s="20" t="s">
         <v>680</v>
       </c>
@@ -12864,7 +13031,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>680</v>
       </c>
@@ -12901,7 +13068,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>680</v>
       </c>
@@ -12932,7 +13099,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1">
       <c r="A120" s="20" t="s">
         <v>680</v>
       </c>
@@ -12965,7 +13132,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>680</v>
       </c>
@@ -13006,7 +13173,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1">
       <c r="A122" s="20" t="s">
         <v>680</v>
       </c>
@@ -13041,7 +13208,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1">
       <c r="A123" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13072,7 +13239,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1">
       <c r="A124" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13103,7 +13270,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>1180</v>
       </c>
@@ -13134,7 +13301,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1">
       <c r="A126" s="20" t="s">
         <v>1181</v>
       </c>
@@ -13173,7 +13340,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1">
       <c r="A127" s="20" t="s">
         <v>1181</v>
       </c>
@@ -13208,7 +13375,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1">
       <c r="A128" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13243,7 +13410,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1">
       <c r="A129" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13272,7 +13439,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A130" s="27" t="s">
         <v>793</v>
       </c>
@@ -13307,7 +13474,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A131" s="27" t="s">
         <v>792</v>
       </c>
@@ -13336,7 +13503,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1">
       <c r="A132" s="20" t="s">
         <v>1183</v>
       </c>
@@ -13369,7 +13536,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1">
       <c r="A133" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13396,7 +13563,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1">
       <c r="A134" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13433,7 +13600,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1">
       <c r="A135" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13468,7 +13635,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1">
       <c r="A136" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13511,7 +13678,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1">
       <c r="A137" s="20" t="s">
         <v>1183</v>
       </c>
@@ -13544,7 +13711,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1">
       <c r="A138" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13579,7 +13746,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A139" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13616,7 +13783,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1">
       <c r="A140" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13653,7 +13820,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1">
       <c r="A141" s="20" t="s">
         <v>1180</v>
       </c>
@@ -13690,7 +13857,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1">
       <c r="A142" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13727,7 +13894,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1">
       <c r="A143" s="20" t="s">
         <v>1181</v>
       </c>
@@ -13764,7 +13931,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1">
       <c r="A144" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13793,7 +13960,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1">
       <c r="A145" s="20" t="s">
         <v>882</v>
       </c>
@@ -13832,7 +13999,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1">
       <c r="A146" s="20" t="s">
         <v>882</v>
       </c>
@@ -13875,7 +14042,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -13898,7 +14065,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -13921,7 +14088,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1">
       <c r="A149" s="20" t="s">
         <v>931</v>
       </c>
@@ -13950,7 +14117,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1">
       <c r="A150" s="20" t="s">
         <v>931</v>
       </c>
@@ -13979,7 +14146,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1">
       <c r="A151" s="20" t="s">
         <v>931</v>
       </c>
@@ -14008,7 +14175,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1">
       <c r="A152" s="20" t="s">
         <v>931</v>
       </c>
@@ -14037,7 +14204,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1">
       <c r="A153" s="20" t="s">
         <v>931</v>
       </c>
@@ -14066,7 +14233,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1">
       <c r="A154" s="20" t="s">
         <v>931</v>
       </c>
@@ -14095,7 +14262,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1">
       <c r="A155" s="20" t="s">
         <v>931</v>
       </c>
@@ -14124,7 +14291,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1">
       <c r="A156" s="20" t="s">
         <v>931</v>
       </c>
@@ -14153,7 +14320,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1">
       <c r="A157" s="20" t="s">
         <v>931</v>
       </c>
@@ -14182,7 +14349,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1">
       <c r="A158" s="20" t="s">
         <v>931</v>
       </c>
@@ -14213,7 +14380,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1">
       <c r="A159" s="20" t="s">
         <v>931</v>
       </c>
@@ -14244,7 +14411,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1">
       <c r="A160" s="20" t="s">
         <v>931</v>
       </c>
@@ -14275,7 +14442,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1">
       <c r="A161" s="20" t="s">
         <v>931</v>
       </c>
@@ -14304,7 +14471,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1">
       <c r="A162" s="20" t="s">
         <v>931</v>
       </c>
@@ -14333,7 +14500,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1">
       <c r="A163" s="20" t="s">
         <v>931</v>
       </c>
@@ -14362,7 +14529,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1">
       <c r="A164" s="20" t="s">
         <v>931</v>
       </c>
@@ -14391,7 +14558,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1">
       <c r="A165" s="20" t="s">
         <v>931</v>
       </c>
@@ -14420,7 +14587,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1">
       <c r="A166" s="20" t="s">
         <v>931</v>
       </c>
@@ -14449,7 +14616,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1">
       <c r="A167" s="20" t="s">
         <v>931</v>
       </c>
@@ -14478,7 +14645,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1">
       <c r="A168" s="20" t="s">
         <v>931</v>
       </c>
@@ -14507,7 +14674,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1">
       <c r="A169" s="20" t="s">
         <v>931</v>
       </c>
@@ -14536,7 +14703,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1">
       <c r="A170" s="20" t="s">
         <v>931</v>
       </c>
@@ -14565,7 +14732,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1">
       <c r="A171" s="20" t="s">
         <v>931</v>
       </c>
@@ -14594,7 +14761,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1">
       <c r="A172" s="20" t="s">
         <v>931</v>
       </c>
@@ -14623,7 +14790,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1">
       <c r="A173" s="20" t="s">
         <v>931</v>
       </c>
@@ -14652,7 +14819,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1">
       <c r="A174" s="20" t="s">
         <v>931</v>
       </c>
@@ -14681,7 +14848,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1">
       <c r="A175" s="20" t="s">
         <v>931</v>
       </c>
@@ -14710,7 +14877,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1">
       <c r="A176" s="20" t="s">
         <v>931</v>
       </c>
@@ -14739,7 +14906,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1">
       <c r="A177" s="20" t="s">
         <v>931</v>
       </c>
@@ -14768,7 +14935,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1">
       <c r="A178" s="20" t="s">
         <v>931</v>
       </c>
@@ -14797,7 +14964,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1">
       <c r="A179" s="20" t="s">
         <v>931</v>
       </c>
@@ -14826,7 +14993,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1">
       <c r="A180" s="20" t="s">
         <v>931</v>
       </c>
@@ -14855,7 +15022,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1">
       <c r="A181" s="20" t="s">
         <v>931</v>
       </c>
@@ -14884,7 +15051,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1">
       <c r="A182" s="20" t="s">
         <v>931</v>
       </c>
@@ -14913,7 +15080,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1">
       <c r="A183" s="20" t="s">
         <v>931</v>
       </c>
@@ -14942,7 +15109,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1">
       <c r="A184" s="20" t="s">
         <v>931</v>
       </c>
@@ -14969,7 +15136,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1">
       <c r="A185" s="20" t="s">
         <v>931</v>
       </c>
@@ -14998,7 +15165,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1">
       <c r="A186" s="20" t="s">
         <v>931</v>
       </c>
@@ -15027,7 +15194,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1">
       <c r="A187" s="20" t="s">
         <v>931</v>
       </c>
@@ -15056,7 +15223,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1">
       <c r="A188" s="20" t="s">
         <v>931</v>
       </c>
@@ -15085,7 +15252,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1">
       <c r="A189" s="20" t="s">
         <v>931</v>
       </c>
@@ -15114,7 +15281,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1">
       <c r="A190" s="20" t="s">
         <v>931</v>
       </c>
@@ -15141,7 +15308,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1">
       <c r="A191" s="20" t="s">
         <v>931</v>
       </c>
@@ -15170,7 +15337,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1">
       <c r="A192" s="20" t="s">
         <v>931</v>
       </c>
@@ -15199,7 +15366,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1">
       <c r="A193" s="20" t="s">
         <v>931</v>
       </c>
@@ -15228,7 +15395,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1">
       <c r="A194" s="20" t="s">
         <v>931</v>
       </c>
@@ -15255,7 +15422,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1">
       <c r="A195" s="20" t="s">
         <v>931</v>
       </c>
@@ -15284,7 +15451,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1">
       <c r="A196" s="20" t="s">
         <v>931</v>
       </c>
@@ -15311,7 +15478,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1">
       <c r="A197" s="20" t="s">
         <v>931</v>
       </c>
@@ -15340,7 +15507,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1">
       <c r="A198" s="20" t="s">
         <v>931</v>
       </c>
@@ -15369,7 +15536,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1">
       <c r="A199" s="20" t="s">
         <v>931</v>
       </c>
@@ -15398,7 +15565,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1">
       <c r="A200" s="20" t="s">
         <v>931</v>
       </c>
@@ -15427,7 +15594,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1">
       <c r="A201" s="20" t="s">
         <v>931</v>
       </c>
@@ -15456,7 +15623,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1">
       <c r="A202" s="20" t="s">
         <v>931</v>
       </c>
@@ -15485,7 +15652,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1">
       <c r="A203" s="20" t="s">
         <v>931</v>
       </c>
@@ -15514,7 +15681,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1">
       <c r="A204" s="20" t="s">
         <v>931</v>
       </c>
@@ -15543,7 +15710,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1">
       <c r="A205" s="20" t="s">
         <v>931</v>
       </c>
@@ -15572,7 +15739,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1">
       <c r="A206" s="20" t="s">
         <v>931</v>
       </c>
@@ -15601,7 +15768,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1">
       <c r="A207" s="20" t="s">
         <v>931</v>
       </c>
@@ -15630,7 +15797,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1">
       <c r="A208" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15669,7 +15836,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1">
       <c r="A209" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15698,7 +15865,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1">
       <c r="A210" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15725,7 +15892,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1">
       <c r="A211" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15754,7 +15921,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1">
       <c r="A212" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15783,7 +15950,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1">
       <c r="A213" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15814,7 +15981,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1">
       <c r="A214" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15838,7 +16005,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1">
       <c r="A215" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15863,7 +16030,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1">
       <c r="A216" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15888,7 +16055,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1">
       <c r="A217" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15913,7 +16080,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1">
       <c r="A218" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15938,7 +16105,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1">
       <c r="A219" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15963,7 +16130,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1">
       <c r="A220" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15988,7 +16155,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1">
       <c r="A221" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16013,7 +16180,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1">
       <c r="A222" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16038,7 +16205,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1">
       <c r="A223" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16077,7 +16244,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1">
       <c r="A224" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16112,7 +16279,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1">
       <c r="A225" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16149,7 +16316,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1">
       <c r="A226" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16194,7 +16361,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1">
       <c r="A227" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16223,7 +16390,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1">
       <c r="A228" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16256,7 +16423,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1">
       <c r="A229" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16289,7 +16456,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1">
       <c r="A230" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16326,7 +16493,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1">
       <c r="A231" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16361,7 +16528,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1">
       <c r="A232" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16398,7 +16565,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1">
       <c r="A233" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16435,7 +16602,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1">
       <c r="A234" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16474,7 +16641,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1">
       <c r="A235" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16511,7 +16678,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1">
       <c r="A236" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16552,7 +16719,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1">
       <c r="A237" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16587,7 +16754,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1">
       <c r="A238" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16624,7 +16791,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1">
       <c r="A239" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16661,7 +16828,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1">
       <c r="A240" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16688,7 +16855,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1">
       <c r="A241" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16723,7 +16890,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1">
       <c r="A242" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16766,7 +16933,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1">
       <c r="A243" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16807,7 +16974,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1">
       <c r="A244" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16846,7 +17013,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1">
       <c r="A245" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16883,7 +17050,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1">
       <c r="A246" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16922,7 +17089,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1">
       <c r="A247" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16963,7 +17130,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1">
       <c r="A248" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17004,7 +17171,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1">
       <c r="A249" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17032,7 +17199,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1">
       <c r="A250" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17069,7 +17236,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1">
       <c r="A251" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17110,7 +17277,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1">
       <c r="A252" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17143,7 +17310,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1">
       <c r="A253" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17182,7 +17349,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1">
       <c r="A254" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17215,7 +17382,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1">
       <c r="A255" s="34" t="s">
         <v>1432</v>
       </c>
@@ -17242,7 +17409,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1">
       <c r="A256" s="34" t="s">
         <v>1432</v>
       </c>
@@ -17269,7 +17436,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1">
       <c r="A257" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17302,7 +17469,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1">
       <c r="A258" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17341,7 +17508,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1">
       <c r="A259" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17370,7 +17537,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1">
       <c r="A260" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17411,7 +17578,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1">
       <c r="A261" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17440,7 +17607,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1">
       <c r="A262" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17469,7 +17636,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1">
       <c r="A263" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17498,7 +17665,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1">
       <c r="A264" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17527,7 +17694,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1">
       <c r="A265" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17556,7 +17723,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1">
       <c r="A266" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17585,7 +17752,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1">
       <c r="A267" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17614,7 +17781,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1">
       <c r="A268" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17643,7 +17810,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1">
       <c r="A269" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17672,7 +17839,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1">
       <c r="A270" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17701,7 +17868,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1">
       <c r="A271" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17728,7 +17895,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1">
       <c r="A272" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17755,7 +17922,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1">
       <c r="A273" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17782,7 +17949,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1">
       <c r="A274" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17809,7 +17976,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1">
       <c r="A275" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17836,7 +18003,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1">
       <c r="A276" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17863,7 +18030,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1">
       <c r="A277" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17890,7 +18057,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1">
       <c r="A278" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17917,7 +18084,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1">
       <c r="A279" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17944,7 +18111,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1">
       <c r="A280" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17971,7 +18138,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1">
       <c r="A281" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17998,7 +18165,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1">
       <c r="A282" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18025,7 +18192,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1">
       <c r="A283" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18052,7 +18219,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1">
       <c r="A284" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18079,7 +18246,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1">
       <c r="A285" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18106,7 +18273,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1">
       <c r="A286" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18133,7 +18300,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1">
       <c r="A287" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18160,7 +18327,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1">
       <c r="A288" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18187,7 +18354,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1">
       <c r="A289" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18214,7 +18381,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1">
       <c r="A290" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18241,7 +18408,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1">
       <c r="A291" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18268,7 +18435,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1">
       <c r="A292" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18295,7 +18462,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1">
       <c r="A293" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18322,7 +18489,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1">
       <c r="A294" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18349,7 +18516,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1">
       <c r="A295" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18376,7 +18543,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1">
       <c r="A296" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18403,7 +18570,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1">
       <c r="A297" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18430,7 +18597,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1">
       <c r="A298" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18457,7 +18624,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1">
       <c r="A299" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18484,7 +18651,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1">
       <c r="A300" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18511,7 +18678,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1">
       <c r="A301" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18538,7 +18705,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1">
       <c r="A302" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18565,7 +18732,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1">
       <c r="A303" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18592,7 +18759,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1">
       <c r="A304" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18619,7 +18786,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1">
       <c r="A305" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18646,7 +18813,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1">
       <c r="A306" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18673,7 +18840,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1">
       <c r="A307" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18700,7 +18867,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1">
       <c r="A308" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18727,7 +18894,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1">
       <c r="A309" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18754,7 +18921,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1">
       <c r="A310" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18781,7 +18948,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1">
       <c r="A311" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18808,7 +18975,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1">
       <c r="A312" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18835,7 +19002,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1">
       <c r="A313" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18862,7 +19029,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1">
       <c r="A314" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18889,7 +19056,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1">
       <c r="A315" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18916,7 +19083,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1">
       <c r="A316" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18943,7 +19110,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1">
       <c r="A317" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18970,7 +19137,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1">
       <c r="A318" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18997,7 +19164,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1">
       <c r="A319" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19024,7 +19191,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1">
       <c r="A320" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19051,7 +19218,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1">
       <c r="A321" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19078,7 +19245,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1">
       <c r="A322" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19105,7 +19272,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1">
       <c r="A323" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19132,7 +19299,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1">
       <c r="A324" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19159,7 +19326,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1">
       <c r="A325" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19186,7 +19353,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1">
       <c r="A326" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19213,7 +19380,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1">
       <c r="A327" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19240,7 +19407,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1">
       <c r="A328" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19267,7 +19434,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1">
       <c r="A329" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19294,7 +19461,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1">
       <c r="A330" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19321,7 +19488,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1">
       <c r="A331" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19348,7 +19515,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1">
       <c r="A332" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19375,7 +19542,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1">
       <c r="A333" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19402,7 +19569,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1">
       <c r="A334" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19429,7 +19596,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1">
       <c r="A335" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19456,7 +19623,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1">
       <c r="A336" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19483,7 +19650,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1">
       <c r="A337" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19510,7 +19677,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1">
       <c r="A338" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19537,7 +19704,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1">
       <c r="A339" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19564,7 +19731,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1">
       <c r="A340" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19591,7 +19758,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1">
       <c r="A341" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19618,7 +19785,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1">
       <c r="A342" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19645,7 +19812,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1">
       <c r="A343" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19672,7 +19839,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1">
       <c r="A344" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19699,7 +19866,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1">
       <c r="A345" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19726,7 +19893,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1">
       <c r="A346" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19753,7 +19920,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1">
       <c r="A347" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19780,7 +19947,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1">
       <c r="A348" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19807,7 +19974,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1">
       <c r="A349" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19834,7 +20001,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1">
       <c r="A350" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19861,7 +20028,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1">
       <c r="A351" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19888,7 +20055,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1">
       <c r="A352" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19915,7 +20082,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1">
       <c r="A353" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19942,7 +20109,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1">
       <c r="A354" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19969,7 +20136,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1">
       <c r="A355" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19996,7 +20163,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1">
       <c r="A356" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20023,7 +20190,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1">
       <c r="A357" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20050,7 +20217,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1">
       <c r="A358" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20077,7 +20244,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1">
       <c r="A359" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20104,7 +20271,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1">
       <c r="A360" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20131,7 +20298,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1">
       <c r="A361" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20158,7 +20325,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1">
       <c r="A362" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20185,7 +20352,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1">
       <c r="A363" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20212,7 +20379,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1">
       <c r="A364" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20239,7 +20406,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1">
       <c r="A365" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20266,7 +20433,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1">
       <c r="A366" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20293,7 +20460,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1">
       <c r="A367" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20320,7 +20487,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1">
       <c r="A368" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20347,7 +20514,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1">
       <c r="A369" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20374,7 +20541,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1">
       <c r="A370" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20401,7 +20568,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1">
       <c r="A371" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20428,7 +20595,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1">
       <c r="A372" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20455,7 +20622,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1">
       <c r="A373" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20482,7 +20649,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1">
       <c r="A374" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20509,7 +20676,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1">
       <c r="A375" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20536,7 +20703,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1">
       <c r="A376" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20563,7 +20730,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1">
       <c r="A377" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20590,7 +20757,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1">
       <c r="A378" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20617,7 +20784,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1">
       <c r="A379" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20644,7 +20811,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1">
       <c r="A380" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20671,7 +20838,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1">
       <c r="A381" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20698,7 +20865,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1">
       <c r="A382" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20725,7 +20892,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1">
       <c r="A383" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20752,7 +20919,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1">
       <c r="A384" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20779,7 +20946,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1">
       <c r="A385" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20806,7 +20973,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1">
       <c r="A386" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20833,7 +21000,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1">
       <c r="A387" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20860,7 +21027,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1">
       <c r="A388" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20887,7 +21054,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1">
       <c r="A389" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20914,7 +21081,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1">
       <c r="A390" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20941,7 +21108,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1">
       <c r="A391" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20968,7 +21135,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1">
       <c r="A392" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20995,7 +21162,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1">
       <c r="A393" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21022,7 +21189,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1">
       <c r="A394" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21049,7 +21216,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1">
       <c r="A395" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21076,7 +21243,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1">
       <c r="A396" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21103,7 +21270,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1">
       <c r="A397" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21130,7 +21297,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1">
       <c r="A398" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21157,7 +21324,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1">
       <c r="A399" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21184,7 +21351,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1">
       <c r="A400" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21211,7 +21378,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1">
       <c r="A401" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21238,7 +21405,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1">
       <c r="A402" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21265,7 +21432,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1">
       <c r="A403" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21292,7 +21459,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1">
       <c r="A404" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21319,7 +21486,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1">
       <c r="A405" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21346,7 +21513,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1">
       <c r="A406" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21373,7 +21540,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1">
       <c r="A407" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21400,7 +21567,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1">
       <c r="A408" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21427,7 +21594,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1">
       <c r="A409" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21454,7 +21621,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1">
       <c r="A410" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21481,7 +21648,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1">
       <c r="A411" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21508,7 +21675,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1">
       <c r="A412" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21535,7 +21702,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1">
       <c r="A413" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21562,7 +21729,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1">
       <c r="A414" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21589,7 +21756,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1">
       <c r="A415" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21616,7 +21783,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1">
       <c r="A416" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21643,7 +21810,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1">
       <c r="A417" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21670,7 +21837,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1">
       <c r="A418" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21697,7 +21864,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1">
       <c r="A419" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21724,7 +21891,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1">
       <c r="A420" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21751,7 +21918,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1">
       <c r="A421" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21778,7 +21945,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1">
       <c r="A422" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21805,7 +21972,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1">
       <c r="A423" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21832,7 +21999,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1">
       <c r="A424" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21859,7 +22026,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1">
       <c r="A425" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21886,7 +22053,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1">
       <c r="A426" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21913,7 +22080,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1">
       <c r="A427" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21940,7 +22107,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1">
       <c r="A428" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21967,7 +22134,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1">
       <c r="A429" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21994,7 +22161,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1">
       <c r="A430" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22021,7 +22188,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1">
       <c r="A431" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22048,7 +22215,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1">
       <c r="A432" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22075,7 +22242,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1">
       <c r="A433" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22102,7 +22269,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1">
       <c r="A434" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22129,7 +22296,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1">
       <c r="A435" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22156,7 +22323,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1">
       <c r="A436" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22183,7 +22350,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1">
       <c r="A437" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22210,7 +22377,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1">
       <c r="A438" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22237,7 +22404,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1">
       <c r="A439" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22264,7 +22431,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1">
       <c r="A440" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22291,7 +22458,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1">
       <c r="A441" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22318,7 +22485,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1">
       <c r="A442" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22345,7 +22512,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1">
       <c r="A443" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22372,7 +22539,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1">
       <c r="A444" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22399,7 +22566,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1">
       <c r="A445" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22426,7 +22593,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1">
       <c r="A446" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22453,14 +22620,14 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1">
       <c r="A447" s="36" t="s">
         <v>1454</v>
       </c>
       <c r="B447" s="35" t="s">
         <v>1835</v>
       </c>
-      <c r="C447" s="35" t="s">
+      <c r="C447" s="42" t="s">
         <v>1848</v>
       </c>
       <c r="D447" s="14"/>
@@ -22480,7 +22647,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1">
       <c r="A448" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22507,7 +22674,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1">
       <c r="A449" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22534,14 +22701,14 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="36" t="s">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A450" s="54" t="s">
         <v>1454</v>
       </c>
       <c r="B450" s="35" t="s">
         <v>1839</v>
       </c>
-      <c r="C450" s="35" t="s">
+      <c r="C450" s="42" t="s">
         <v>1851</v>
       </c>
       <c r="D450" s="14"/>
@@ -22561,14 +22728,20 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" ht="45.95" customHeight="1">
       <c r="A451" s="20"/>
-      <c r="B451" s="13"/>
-      <c r="C451" s="45"/>
+      <c r="B451" s="42" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C451" s="42" t="s">
+        <v>1872</v>
+      </c>
       <c r="D451" s="14"/>
       <c r="E451" s="14"/>
       <c r="F451" s="14"/>
-      <c r="G451" s="14"/>
+      <c r="G451" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H451" s="15"/>
       <c r="I451" s="14"/>
       <c r="J451" s="14"/>
@@ -22580,14 +22753,20 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" ht="45.95" customHeight="1">
       <c r="A452" s="20"/>
-      <c r="B452" s="13"/>
-      <c r="C452" s="45"/>
+      <c r="B452" s="42" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C452" s="42" t="s">
+        <v>1873</v>
+      </c>
       <c r="D452" s="14"/>
       <c r="E452" s="14"/>
       <c r="F452" s="14"/>
-      <c r="G452" s="14"/>
+      <c r="G452" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H452" s="15"/>
       <c r="I452" s="14"/>
       <c r="J452" s="14"/>
@@ -22599,14 +22778,20 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" ht="45.95" customHeight="1">
       <c r="A453" s="20"/>
-      <c r="B453" s="13"/>
-      <c r="C453" s="45"/>
+      <c r="B453" s="42" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C453" s="42" t="s">
+        <v>1875</v>
+      </c>
       <c r="D453" s="14"/>
       <c r="E453" s="14"/>
       <c r="F453" s="14"/>
-      <c r="G453" s="14"/>
+      <c r="G453" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H453" s="15"/>
       <c r="I453" s="14"/>
       <c r="J453" s="14"/>
@@ -22618,14 +22803,20 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" ht="45.95" customHeight="1">
       <c r="A454" s="20"/>
-      <c r="B454" s="13"/>
-      <c r="C454" s="45"/>
+      <c r="B454" s="42" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C454" s="42" t="s">
+        <v>1876</v>
+      </c>
       <c r="D454" s="14"/>
       <c r="E454" s="14"/>
       <c r="F454" s="14"/>
-      <c r="G454" s="14"/>
+      <c r="G454" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H454" s="15"/>
       <c r="I454" s="14"/>
       <c r="J454" s="14"/>
@@ -22637,14 +22828,20 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" ht="45.95" customHeight="1">
       <c r="A455" s="20"/>
-      <c r="B455" s="13"/>
-      <c r="C455" s="45"/>
+      <c r="B455" s="42" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C455" s="42" t="s">
+        <v>1877</v>
+      </c>
       <c r="D455" s="14"/>
       <c r="E455" s="14"/>
       <c r="F455" s="14"/>
-      <c r="G455" s="14"/>
+      <c r="G455" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H455" s="15"/>
       <c r="I455" s="14"/>
       <c r="J455" s="14"/>
@@ -22656,14 +22853,20 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" ht="45.95" customHeight="1">
       <c r="A456" s="20"/>
-      <c r="B456" s="13"/>
-      <c r="C456" s="45"/>
+      <c r="B456" s="42" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C456" s="42" t="s">
+        <v>1878</v>
+      </c>
       <c r="D456" s="14"/>
       <c r="E456" s="14"/>
       <c r="F456" s="14"/>
-      <c r="G456" s="14"/>
+      <c r="G456" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H456" s="15"/>
       <c r="I456" s="14"/>
       <c r="J456" s="14"/>
@@ -22675,14 +22878,20 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" ht="45.95" customHeight="1">
       <c r="A457" s="20"/>
-      <c r="B457" s="13"/>
-      <c r="C457" s="45"/>
+      <c r="B457" s="42" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C457" s="42" t="s">
+        <v>1879</v>
+      </c>
       <c r="D457" s="14"/>
       <c r="E457" s="14"/>
       <c r="F457" s="14"/>
-      <c r="G457" s="14"/>
+      <c r="G457" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H457" s="15"/>
       <c r="I457" s="14"/>
       <c r="J457" s="14"/>
@@ -22694,14 +22903,20 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" ht="45.95" customHeight="1">
       <c r="A458" s="20"/>
-      <c r="B458" s="13"/>
-      <c r="C458" s="45"/>
+      <c r="B458" s="42" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C458" s="42" t="s">
+        <v>1880</v>
+      </c>
       <c r="D458" s="14"/>
       <c r="E458" s="14"/>
       <c r="F458" s="14"/>
-      <c r="G458" s="14"/>
+      <c r="G458" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H458" s="15"/>
       <c r="I458" s="14"/>
       <c r="J458" s="14"/>
@@ -22713,14 +22928,20 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" ht="45.95" customHeight="1">
       <c r="A459" s="20"/>
-      <c r="B459" s="13"/>
-      <c r="C459" s="45"/>
+      <c r="B459" s="42" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C459" s="42" t="s">
+        <v>1881</v>
+      </c>
       <c r="D459" s="14"/>
       <c r="E459" s="14"/>
       <c r="F459" s="14"/>
-      <c r="G459" s="14"/>
+      <c r="G459" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H459" s="15"/>
       <c r="I459" s="14"/>
       <c r="J459" s="14"/>
@@ -22732,14 +22953,20 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" ht="45.95" customHeight="1">
       <c r="A460" s="20"/>
-      <c r="B460" s="13"/>
-      <c r="C460" s="45"/>
+      <c r="B460" s="42" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C460" s="42" t="s">
+        <v>1882</v>
+      </c>
       <c r="D460" s="14"/>
       <c r="E460" s="14"/>
       <c r="F460" s="14"/>
-      <c r="G460" s="14"/>
+      <c r="G460" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H460" s="15"/>
       <c r="I460" s="14"/>
       <c r="J460" s="14"/>
@@ -22751,14 +22978,20 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" ht="45.95" customHeight="1">
       <c r="A461" s="20"/>
-      <c r="B461" s="13"/>
-      <c r="C461" s="45"/>
+      <c r="B461" s="42" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C461" s="42" t="s">
+        <v>1883</v>
+      </c>
       <c r="D461" s="14"/>
       <c r="E461" s="14"/>
       <c r="F461" s="14"/>
-      <c r="G461" s="14"/>
+      <c r="G461" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H461" s="15"/>
       <c r="I461" s="14"/>
       <c r="J461" s="14"/>
@@ -22770,14 +23003,20 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" ht="45.95" customHeight="1">
       <c r="A462" s="20"/>
-      <c r="B462" s="13"/>
-      <c r="C462" s="45"/>
+      <c r="B462" s="42" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C462" s="42" t="s">
+        <v>1884</v>
+      </c>
       <c r="D462" s="14"/>
       <c r="E462" s="14"/>
       <c r="F462" s="14"/>
-      <c r="G462" s="14"/>
+      <c r="G462" s="53" t="s">
+        <v>1840</v>
+      </c>
       <c r="H462" s="15"/>
       <c r="I462" s="14"/>
       <c r="J462" s="14"/>
@@ -22789,14 +23028,20 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" ht="45.95" customHeight="1">
       <c r="A463" s="20"/>
-      <c r="B463" s="13"/>
-      <c r="C463" s="45"/>
+      <c r="B463" s="42" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C463" s="42" t="s">
+        <v>1885</v>
+      </c>
       <c r="D463" s="14"/>
       <c r="E463" s="14"/>
       <c r="F463" s="14"/>
-      <c r="G463" s="14"/>
+      <c r="G463" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H463" s="15"/>
       <c r="I463" s="14"/>
       <c r="J463" s="14"/>
@@ -22808,14 +23053,20 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" ht="45.95" customHeight="1">
       <c r="A464" s="20"/>
-      <c r="B464" s="13"/>
-      <c r="C464" s="45"/>
+      <c r="B464" s="42" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C464" s="42" t="s">
+        <v>1886</v>
+      </c>
       <c r="D464" s="14"/>
       <c r="E464" s="14"/>
       <c r="F464" s="14"/>
-      <c r="G464" s="14"/>
+      <c r="G464" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H464" s="15"/>
       <c r="I464" s="14"/>
       <c r="J464" s="14"/>
@@ -22827,14 +23078,20 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" ht="45.95" customHeight="1">
       <c r="A465" s="20"/>
-      <c r="B465" s="13"/>
-      <c r="C465" s="45"/>
+      <c r="B465" s="42" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C465" s="42" t="s">
+        <v>1887</v>
+      </c>
       <c r="D465" s="14"/>
       <c r="E465" s="14"/>
       <c r="F465" s="14"/>
-      <c r="G465" s="14"/>
+      <c r="G465" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H465" s="15"/>
       <c r="I465" s="14"/>
       <c r="J465" s="14"/>
@@ -22846,14 +23103,20 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" ht="45.95" customHeight="1">
       <c r="A466" s="20"/>
-      <c r="B466" s="13"/>
-      <c r="C466" s="45"/>
+      <c r="B466" s="42" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C466" s="42" t="s">
+        <v>1888</v>
+      </c>
       <c r="D466" s="14"/>
       <c r="E466" s="14"/>
       <c r="F466" s="14"/>
-      <c r="G466" s="14"/>
+      <c r="G466" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H466" s="15"/>
       <c r="I466" s="14"/>
       <c r="J466" s="14"/>
@@ -22865,14 +23128,20 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" ht="45.95" customHeight="1">
       <c r="A467" s="20"/>
-      <c r="B467" s="13"/>
-      <c r="C467" s="45"/>
+      <c r="B467" s="42" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C467" s="42" t="s">
+        <v>1889</v>
+      </c>
       <c r="D467" s="14"/>
       <c r="E467" s="14"/>
       <c r="F467" s="14"/>
-      <c r="G467" s="14"/>
+      <c r="G467" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H467" s="15"/>
       <c r="I467" s="14"/>
       <c r="J467" s="14"/>
@@ -22884,14 +23153,20 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" ht="45.95" customHeight="1">
       <c r="A468" s="20"/>
-      <c r="B468" s="13"/>
-      <c r="C468" s="45"/>
+      <c r="B468" s="42" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C468" s="42" t="s">
+        <v>1890</v>
+      </c>
       <c r="D468" s="14"/>
       <c r="E468" s="14"/>
       <c r="F468" s="14"/>
-      <c r="G468" s="14"/>
+      <c r="G468" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H468" s="15"/>
       <c r="I468" s="14"/>
       <c r="J468" s="14"/>
@@ -22903,14 +23178,20 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" ht="45.95" customHeight="1">
       <c r="A469" s="20"/>
-      <c r="B469" s="13"/>
-      <c r="C469" s="45"/>
+      <c r="B469" s="42" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C469" s="42" t="s">
+        <v>1891</v>
+      </c>
       <c r="D469" s="14"/>
       <c r="E469" s="14"/>
       <c r="F469" s="14"/>
-      <c r="G469" s="14"/>
+      <c r="G469" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H469" s="15"/>
       <c r="I469" s="14"/>
       <c r="J469" s="14"/>
@@ -22922,14 +23203,20 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" ht="45.95" customHeight="1">
       <c r="A470" s="20"/>
-      <c r="B470" s="13"/>
-      <c r="C470" s="45"/>
+      <c r="B470" s="42" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C470" s="42" t="s">
+        <v>1892</v>
+      </c>
       <c r="D470" s="14"/>
       <c r="E470" s="14"/>
       <c r="F470" s="14"/>
-      <c r="G470" s="14"/>
+      <c r="G470" s="52" t="s">
+        <v>1874</v>
+      </c>
       <c r="H470" s="15"/>
       <c r="I470" s="14"/>
       <c r="J470" s="14"/>
@@ -22941,7 +23228,7 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" ht="45.95" customHeight="1">
       <c r="A471" s="20"/>
       <c r="B471" s="13"/>
       <c r="C471" s="45"/>
@@ -22960,7 +23247,7 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" ht="45.95" customHeight="1">
       <c r="A472" s="20"/>
       <c r="B472" s="13"/>
       <c r="C472" s="45"/>
@@ -22979,7 +23266,7 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" ht="45.95" customHeight="1">
       <c r="A473" s="20"/>
       <c r="B473" s="13"/>
       <c r="C473" s="45"/>
@@ -22998,7 +23285,7 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" ht="45.95" customHeight="1">
       <c r="A474" s="20"/>
       <c r="B474" s="13"/>
       <c r="C474" s="45"/>
@@ -23017,7 +23304,7 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" ht="45.95" customHeight="1">
       <c r="A475" s="20"/>
       <c r="B475" s="13"/>
       <c r="C475" s="45"/>
@@ -23036,7 +23323,7 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" ht="45.95" customHeight="1">
       <c r="A476" s="20"/>
       <c r="B476" s="13"/>
       <c r="C476" s="45"/>
@@ -23055,7 +23342,7 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" ht="45.95" customHeight="1">
       <c r="A477" s="20"/>
       <c r="B477" s="13"/>
       <c r="C477" s="45"/>
@@ -23074,7 +23361,7 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" ht="45.95" customHeight="1">
       <c r="A478" s="20"/>
       <c r="B478" s="13"/>
       <c r="C478" s="45"/>
@@ -23093,7 +23380,7 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" ht="45.95" customHeight="1">
       <c r="A479" s="20"/>
       <c r="B479" s="13"/>
       <c r="C479" s="45"/>
@@ -23112,7 +23399,7 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" ht="45.95" customHeight="1">
       <c r="A480" s="20"/>
       <c r="B480" s="13"/>
       <c r="C480" s="45"/>
@@ -23131,7 +23418,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1">
       <c r="A481" s="20"/>
       <c r="B481" s="13"/>
       <c r="C481" s="45"/>
@@ -23150,7 +23437,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1">
       <c r="A482" s="20"/>
       <c r="B482" s="13"/>
       <c r="C482" s="45"/>
@@ -23169,7 +23456,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1">
       <c r="A483" s="20"/>
       <c r="B483" s="13"/>
       <c r="C483" s="45"/>
@@ -23188,7 +23475,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1">
       <c r="A484" s="20"/>
       <c r="B484" s="13"/>
       <c r="C484" s="45"/>
@@ -23207,7 +23494,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1">
       <c r="A485" s="20"/>
       <c r="B485" s="13"/>
       <c r="C485" s="45"/>
@@ -23226,7 +23513,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1">
       <c r="A486" s="20"/>
       <c r="B486" s="13"/>
       <c r="C486" s="45"/>
@@ -23245,7 +23532,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1">
       <c r="A487" s="20"/>
       <c r="B487" s="13"/>
       <c r="C487" s="45"/>
@@ -23264,7 +23551,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1">
       <c r="A488" s="20"/>
       <c r="B488" s="13"/>
       <c r="C488" s="45"/>
@@ -23283,7 +23570,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1">
       <c r="A489" s="20"/>
       <c r="B489" s="13"/>
       <c r="C489" s="45"/>
@@ -23302,7 +23589,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1">
       <c r="A490" s="20"/>
       <c r="B490" s="13"/>
       <c r="C490" s="45"/>
@@ -23321,7 +23608,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1">
       <c r="A491" s="20"/>
       <c r="B491" s="13"/>
       <c r="C491" s="45"/>
@@ -23340,7 +23627,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1">
       <c r="A492" s="20"/>
       <c r="B492" s="13"/>
       <c r="C492" s="45"/>
@@ -23359,7 +23646,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1">
       <c r="A493" s="20"/>
       <c r="B493" s="13"/>
       <c r="C493" s="45"/>
@@ -23378,7 +23665,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1">
       <c r="A494" s="20"/>
       <c r="B494" s="13"/>
       <c r="C494" s="45"/>
@@ -23397,7 +23684,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1">
       <c r="A495" s="20"/>
       <c r="B495" s="13"/>
       <c r="C495" s="45"/>
@@ -23416,7 +23703,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1">
       <c r="A496" s="20"/>
       <c r="B496" s="13"/>
       <c r="C496" s="45"/>
@@ -23435,7 +23722,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1">
       <c r="A497" s="20"/>
       <c r="B497" s="13"/>
       <c r="C497" s="45"/>
@@ -23454,7 +23741,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1">
       <c r="A498" s="20"/>
       <c r="B498" s="13"/>
       <c r="C498" s="45"/>
@@ -23473,7 +23760,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1">
       <c r="A499" s="20"/>
       <c r="B499" s="13"/>
       <c r="C499" s="45"/>
@@ -23492,7 +23779,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1">
       <c r="A500" s="20"/>
       <c r="B500" s="13"/>
       <c r="C500" s="45"/>
@@ -23511,7 +23798,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1">
       <c r="A501" s="20"/>
       <c r="B501" s="13"/>
       <c r="C501" s="45"/>
@@ -23530,7 +23817,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1">
       <c r="A502" s="20"/>
       <c r="B502" s="13"/>
       <c r="C502" s="45"/>
@@ -23549,7 +23836,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1">
       <c r="A503" s="20"/>
       <c r="B503" s="13"/>
       <c r="C503" s="45"/>
@@ -23568,7 +23855,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1">
       <c r="A504" s="20"/>
       <c r="B504" s="13"/>
       <c r="C504" s="45"/>
@@ -23587,7 +23874,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1">
       <c r="A505" s="20"/>
       <c r="B505" s="13"/>
       <c r="C505" s="45"/>
@@ -23606,7 +23893,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1">
       <c r="A506" s="20"/>
       <c r="B506" s="13"/>
       <c r="C506" s="45"/>
@@ -23625,7 +23912,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1">
       <c r="A507" s="20"/>
       <c r="B507" s="35"/>
       <c r="C507" s="48"/>
@@ -23644,7 +23931,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1">
       <c r="A508" s="20"/>
       <c r="B508" s="35"/>
       <c r="C508" s="48"/>
@@ -23663,7 +23950,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1">
       <c r="A509" s="20"/>
       <c r="B509" s="35"/>
       <c r="C509" s="48"/>
@@ -23682,7 +23969,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1">
       <c r="A510" s="20"/>
       <c r="B510" s="35"/>
       <c r="C510" s="48"/>
@@ -23701,7 +23988,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1">
       <c r="A511" s="20"/>
       <c r="B511" s="13"/>
       <c r="C511" s="45"/>
@@ -23720,7 +24007,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1">
       <c r="A512" s="20"/>
       <c r="B512" s="13"/>
       <c r="C512" s="45"/>
@@ -23739,7 +24026,7 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1">
       <c r="A513" s="20"/>
       <c r="B513" s="13"/>
       <c r="C513" s="45"/>
@@ -23758,7 +24045,7 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1">
       <c r="A514" s="20"/>
       <c r="B514" s="13"/>
       <c r="C514" s="45"/>
@@ -23777,7 +24064,7 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1">
       <c r="A515" s="20"/>
       <c r="B515" s="13"/>
       <c r="C515" s="45"/>
@@ -23796,7 +24083,7 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1">
       <c r="A516" s="20"/>
       <c r="B516" s="13"/>
       <c r="C516" s="45"/>
@@ -23815,7 +24102,7 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1">
       <c r="A517" s="20"/>
       <c r="B517" s="13"/>
       <c r="C517" s="45"/>
@@ -23834,7 +24121,7 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1">
       <c r="A518" s="20"/>
       <c r="B518" s="13"/>
       <c r="C518" s="45"/>
@@ -23853,7 +24140,7 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1">
       <c r="A519" s="20"/>
       <c r="B519" s="13"/>
       <c r="C519" s="45"/>
@@ -23872,7 +24159,7 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1">
       <c r="A520" s="20"/>
       <c r="B520" s="13"/>
       <c r="C520" s="45"/>
@@ -23891,7 +24178,7 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1">
       <c r="A521" s="20"/>
       <c r="B521" s="13"/>
       <c r="C521" s="45"/>
@@ -23910,7 +24197,7 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1">
       <c r="A522" s="20"/>
       <c r="B522" s="13"/>
       <c r="C522" s="45"/>
@@ -23929,7 +24216,7 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1">
       <c r="A523" s="20"/>
       <c r="B523" s="13"/>
       <c r="C523" s="45"/>
@@ -23948,7 +24235,7 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1">
       <c r="A524" s="20"/>
       <c r="B524" s="13"/>
       <c r="C524" s="45"/>
@@ -23967,7 +24254,7 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1">
       <c r="A525" s="20"/>
       <c r="B525" s="13"/>
       <c r="C525" s="45"/>
@@ -23986,7 +24273,7 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1">
       <c r="A526" s="20"/>
       <c r="B526" s="13"/>
       <c r="C526" s="45"/>
@@ -24005,7 +24292,7 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1">
       <c r="A527" s="20"/>
       <c r="B527" s="13"/>
       <c r="C527" s="45"/>
@@ -24024,7 +24311,7 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1">
       <c r="A528" s="20"/>
       <c r="B528" s="13"/>
       <c r="C528" s="45"/>
@@ -24043,7 +24330,7 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" ht="45.95" customHeight="1">
       <c r="A529" s="20"/>
       <c r="B529" s="13"/>
       <c r="C529" s="45"/>
@@ -24062,7 +24349,7 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17" ht="45.95" customHeight="1">
       <c r="A530" s="20"/>
       <c r="B530" s="13"/>
       <c r="C530" s="45"/>
@@ -24081,7 +24368,7 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" ht="45.95" customHeight="1">
       <c r="A531" s="20"/>
       <c r="B531" s="13"/>
       <c r="C531" s="45"/>
@@ -24100,7 +24387,7 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" ht="45.95" customHeight="1">
       <c r="A532" s="20"/>
       <c r="B532" s="13"/>
       <c r="C532" s="45"/>
@@ -24119,7 +24406,7 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" ht="45.95" customHeight="1">
       <c r="A533" s="20"/>
       <c r="B533" s="13"/>
       <c r="C533" s="45"/>
@@ -24138,7 +24425,7 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" ht="45.95" customHeight="1">
       <c r="A534" s="20"/>
       <c r="B534" s="13"/>
       <c r="C534" s="45"/>
@@ -24157,7 +24444,7 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17" ht="45.95" customHeight="1">
       <c r="A535" s="20"/>
       <c r="B535" s="13"/>
       <c r="C535" s="45"/>
@@ -24176,7 +24463,7 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" ht="45.95" customHeight="1">
       <c r="A536" s="20"/>
       <c r="B536" s="13"/>
       <c r="C536" s="45"/>
@@ -24195,7 +24482,7 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" ht="45.95" customHeight="1">
       <c r="A537" s="20"/>
       <c r="B537" s="13"/>
       <c r="C537" s="45"/>
@@ -24214,7 +24501,7 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" ht="45.95" customHeight="1">
       <c r="A538" s="20"/>
       <c r="B538" s="13"/>
       <c r="C538" s="45"/>
@@ -24233,7 +24520,7 @@
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" ht="45.95" customHeight="1">
       <c r="A539" s="20"/>
       <c r="B539" s="13"/>
       <c r="C539" s="45"/>
@@ -24252,7 +24539,7 @@
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17" ht="45.95" customHeight="1">
       <c r="A540" s="20"/>
       <c r="B540" s="13"/>
       <c r="C540" s="45"/>
@@ -24271,7 +24558,7 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" ht="45.95" customHeight="1">
       <c r="A541" s="20"/>
       <c r="B541" s="13"/>
       <c r="C541" s="45"/>
@@ -24290,7 +24577,7 @@
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" ht="45.95" customHeight="1">
       <c r="A542" s="20"/>
       <c r="B542" s="13"/>
       <c r="C542" s="45"/>
@@ -24309,7 +24596,7 @@
       <c r="P542" s="16"/>
       <c r="Q542" s="17"/>
     </row>
-    <row r="543" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" ht="45.95" customHeight="1">
       <c r="A543" s="20"/>
       <c r="B543" s="13"/>
       <c r="C543" s="45"/>
@@ -24328,7 +24615,7 @@
       <c r="P543" s="16"/>
       <c r="Q543" s="17"/>
     </row>
-    <row r="544" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" ht="45.95" customHeight="1">
       <c r="A544" s="20"/>
       <c r="B544" s="13"/>
       <c r="C544" s="45"/>
@@ -24347,7 +24634,7 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" ht="45.95" customHeight="1">
       <c r="A545" s="20"/>
       <c r="B545" s="13"/>
       <c r="C545" s="45"/>
@@ -24366,7 +24653,7 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" ht="45.95" customHeight="1">
       <c r="A546" s="20"/>
       <c r="B546" s="13"/>
       <c r="C546" s="45"/>
@@ -24385,7 +24672,7 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" ht="45.95" customHeight="1">
       <c r="A547" s="20"/>
       <c r="B547" s="13"/>
       <c r="C547" s="45"/>
@@ -24404,7 +24691,7 @@
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" ht="45.95" customHeight="1">
       <c r="A548" s="20"/>
       <c r="B548" s="13"/>
       <c r="C548" s="45"/>
@@ -24423,7 +24710,7 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" ht="45.95" customHeight="1">
       <c r="A549" s="20"/>
       <c r="B549" s="13"/>
       <c r="C549" s="45"/>
@@ -24442,7 +24729,7 @@
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" ht="45.95" customHeight="1">
       <c r="A550" s="20"/>
       <c r="B550" s="13"/>
       <c r="C550" s="45"/>
@@ -24461,7 +24748,7 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" ht="45.95" customHeight="1">
       <c r="A551" s="20"/>
       <c r="B551" s="13"/>
       <c r="C551" s="45"/>
@@ -24480,7 +24767,7 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" ht="45.95" customHeight="1">
       <c r="A552" s="20"/>
       <c r="B552" s="13"/>
       <c r="C552" s="45"/>
@@ -24499,7 +24786,7 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" ht="45.95" customHeight="1">
       <c r="A553" s="20"/>
       <c r="B553" s="13"/>
       <c r="C553" s="45"/>
@@ -24518,7 +24805,7 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" ht="45.95" customHeight="1">
       <c r="A554" s="20"/>
       <c r="B554" s="13"/>
       <c r="C554" s="45"/>
@@ -24537,7 +24824,7 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" ht="45.95" customHeight="1">
       <c r="A555" s="20"/>
       <c r="B555" s="13"/>
       <c r="C555" s="45"/>
@@ -24556,7 +24843,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1">
       <c r="A556" s="20"/>
       <c r="B556" s="13"/>
       <c r="C556" s="45"/>
@@ -24575,7 +24862,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1">
       <c r="A557" s="20"/>
       <c r="B557" s="13"/>
       <c r="C557" s="45"/>
@@ -24594,7 +24881,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1">
       <c r="A558" s="20"/>
       <c r="B558" s="13"/>
       <c r="C558" s="45"/>
@@ -24613,7 +24900,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1">
       <c r="A559" s="20"/>
       <c r="B559" s="13"/>
       <c r="C559" s="45"/>
@@ -24632,7 +24919,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1">
       <c r="A560" s="20"/>
       <c r="B560" s="13"/>
       <c r="C560" s="45"/>
@@ -24651,7 +24938,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1">
       <c r="A561" s="20"/>
       <c r="B561" s="13"/>
       <c r="C561" s="45"/>
@@ -24670,7 +24957,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1">
       <c r="A562" s="20"/>
       <c r="B562" s="13"/>
       <c r="C562" s="45"/>
@@ -24689,7 +24976,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1">
       <c r="A563" s="20"/>
       <c r="B563" s="13"/>
       <c r="C563" s="45"/>
@@ -24708,7 +24995,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1">
       <c r="A564" s="20"/>
       <c r="B564" s="13"/>
       <c r="C564" s="45"/>
@@ -24727,7 +25014,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1">
       <c r="A565" s="20"/>
       <c r="B565" s="13"/>
       <c r="C565" s="45"/>
@@ -24746,7 +25033,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1">
       <c r="A566" s="20"/>
       <c r="B566" s="13"/>
       <c r="C566" s="45"/>
@@ -24765,7 +25052,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1">
       <c r="A567" s="20"/>
       <c r="B567" s="13"/>
       <c r="C567" s="45"/>
@@ -24784,7 +25071,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1">
       <c r="A568" s="20"/>
       <c r="B568" s="13"/>
       <c r="C568" s="45"/>
@@ -24803,7 +25090,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1">
       <c r="A569" s="20"/>
       <c r="B569" s="13"/>
       <c r="C569" s="45"/>
@@ -24822,7 +25109,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1">
       <c r="A570" s="20"/>
       <c r="B570" s="13"/>
       <c r="C570" s="45"/>
@@ -24841,7 +25128,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1">
       <c r="A571" s="20"/>
       <c r="B571" s="13"/>
       <c r="C571" s="45"/>
@@ -24860,7 +25147,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1">
       <c r="A572" s="20"/>
       <c r="B572" s="13"/>
       <c r="C572" s="45"/>
@@ -24879,7 +25166,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1">
       <c r="A573" s="20"/>
       <c r="B573" s="13"/>
       <c r="C573" s="45"/>
@@ -24898,7 +25185,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1">
       <c r="A574" s="20"/>
       <c r="B574" s="13"/>
       <c r="C574" s="45"/>
@@ -24917,7 +25204,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1">
       <c r="A575" s="20"/>
       <c r="B575" s="13"/>
       <c r="C575" s="45"/>
@@ -24936,7 +25223,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1">
       <c r="A576" s="20"/>
       <c r="B576" s="13"/>
       <c r="C576" s="45"/>
@@ -24955,7 +25242,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1">
       <c r="A577" s="20"/>
       <c r="B577" s="13"/>
       <c r="C577" s="45"/>
@@ -24974,7 +25261,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1">
       <c r="A578" s="20"/>
       <c r="B578" s="13"/>
       <c r="C578" s="45"/>
@@ -25001,20 +25288,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -25022,7 +25309,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -25030,7 +25317,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="33" t="s">
         <v>598</v>
       </c>
@@ -25038,7 +25325,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="33" t="s">
         <v>599</v>
       </c>
@@ -25046,7 +25333,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="33" t="s">
         <v>679</v>
       </c>
@@ -25054,7 +25341,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="33" t="s">
         <v>1185</v>
       </c>
@@ -25062,7 +25349,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
         <v>1133</v>
       </c>
@@ -25070,7 +25357,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>1150</v>
       </c>
@@ -25078,12 +25365,12 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>1166</v>
       </c>
@@ -25091,7 +25378,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
         <v>1454</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1914">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8339,15 +8339,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Felicity Cloake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thomasina Miers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yotam Ottolenghi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigel Slater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allegra McEvedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack Monroe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay Rayner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hugh Fearnley-Whittingstall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suzanne Goldenberg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damian Carrington</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food &amp; drink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Hannah.Marriott@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Felicity.Cloake@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thomasina.Miers@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yotam.Ottolenghi@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigel.Slater@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allegra.McEvedy@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack.Monroe@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay.Rayner@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hugh.F.Whittingstall@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suzanne.Goldenberg@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damian.Carrington@theguardian.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9034,22 +9118,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E468" sqref="E468"/>
+      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A451" sqref="A451:A480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -9071,7 +9155,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9127,7 +9211,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -9158,7 +9242,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -9189,7 +9273,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -9220,7 +9304,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9255,7 +9339,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -9301,7 +9385,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -9334,7 +9418,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -9376,7 +9460,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -9411,7 +9495,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -9450,7 +9534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -9480,7 +9564,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +9596,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -9547,7 +9631,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -9571,7 +9655,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -9608,7 +9692,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -9645,7 +9729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -9680,7 +9764,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -9711,7 +9795,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -9750,7 +9834,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -9781,7 +9865,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -9808,7 +9892,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -9841,7 +9925,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -9874,7 +9958,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -9905,7 +9989,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -9942,7 +10026,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -9977,7 +10061,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -10014,7 +10098,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -10045,7 +10129,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -10078,7 +10162,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -10107,7 +10191,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -10134,7 +10218,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -10165,7 +10249,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -10196,7 +10280,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -10234,7 +10318,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -10267,7 +10351,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -10294,7 +10378,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -10329,7 +10413,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -10364,7 +10448,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -10401,7 +10485,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -10434,7 +10518,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -10472,7 +10556,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -10507,7 +10591,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -10538,7 +10622,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -10577,7 +10661,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -10612,7 +10696,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -10647,7 +10731,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -10680,7 +10764,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -10715,7 +10799,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -10746,7 +10830,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -10771,7 +10855,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -10810,7 +10894,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -10844,7 +10928,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -10879,7 +10963,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -10916,7 +11000,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -10958,7 +11042,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -10991,7 +11075,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -11024,7 +11108,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -11055,7 +11139,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -11090,7 +11174,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -11119,7 +11203,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -11148,7 +11232,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -11179,7 +11263,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -11208,7 +11292,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -11239,7 +11323,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -11270,7 +11354,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -11303,7 +11387,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -11334,7 +11418,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -11369,7 +11453,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -11404,7 +11488,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -11437,7 +11521,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -11470,7 +11554,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -11507,7 +11591,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -11544,7 +11628,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -11579,7 +11663,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -11614,7 +11698,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -11645,7 +11729,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -11680,7 +11764,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -11715,7 +11799,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -11744,7 +11828,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -11769,7 +11853,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -11796,7 +11880,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -11823,7 +11907,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -11850,7 +11934,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -11879,7 +11963,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -11906,7 +11990,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -11943,7 +12027,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -11978,7 +12062,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -12013,7 +12097,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -12044,7 +12128,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -12075,7 +12159,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -12104,7 +12188,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -12141,7 +12225,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -12182,7 +12266,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -12219,7 +12303,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -12260,7 +12344,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -12288,7 +12372,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -12321,7 +12405,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -12354,7 +12438,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -12389,7 +12473,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -12428,7 +12512,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -12459,7 +12543,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -12490,7 +12574,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -12527,7 +12611,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -12568,7 +12652,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>680</v>
       </c>
@@ -12605,7 +12689,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>680</v>
       </c>
@@ -12642,7 +12726,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>680</v>
       </c>
@@ -12679,7 +12763,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>680</v>
       </c>
@@ -12718,7 +12802,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>680</v>
       </c>
@@ -12755,7 +12839,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>680</v>
       </c>
@@ -12786,7 +12870,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>680</v>
       </c>
@@ -12817,7 +12901,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>680</v>
       </c>
@@ -12854,7 +12938,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>680</v>
       </c>
@@ -12895,7 +12979,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>680</v>
       </c>
@@ -12932,7 +13016,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>680</v>
       </c>
@@ -12955,7 +13039,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>680</v>
       </c>
@@ -12994,7 +13078,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>680</v>
       </c>
@@ -13031,7 +13115,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>680</v>
       </c>
@@ -13068,7 +13152,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>680</v>
       </c>
@@ -13099,7 +13183,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>680</v>
       </c>
@@ -13132,7 +13216,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>680</v>
       </c>
@@ -13173,7 +13257,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>680</v>
       </c>
@@ -13208,7 +13292,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13239,7 +13323,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13270,7 +13354,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>1180</v>
       </c>
@@ -13301,7 +13385,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>1181</v>
       </c>
@@ -13340,7 +13424,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>1181</v>
       </c>
@@ -13375,7 +13459,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13410,7 +13494,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13439,7 +13523,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>793</v>
       </c>
@@ -13474,7 +13558,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>792</v>
       </c>
@@ -13503,7 +13587,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>1183</v>
       </c>
@@ -13536,7 +13620,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13563,7 +13647,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13600,7 +13684,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13635,7 +13719,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13678,7 +13762,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>1183</v>
       </c>
@@ -13711,7 +13795,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13746,7 +13830,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13783,7 +13867,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13820,7 +13904,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>1180</v>
       </c>
@@ -13857,7 +13941,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>1055</v>
       </c>
@@ -13894,7 +13978,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>1181</v>
       </c>
@@ -13931,7 +14015,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>1179</v>
       </c>
@@ -13960,7 +14044,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>882</v>
       </c>
@@ -13999,7 +14083,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>882</v>
       </c>
@@ -14042,7 +14126,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -14065,7 +14149,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -14088,7 +14172,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>931</v>
       </c>
@@ -14117,7 +14201,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>931</v>
       </c>
@@ -14146,7 +14230,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>931</v>
       </c>
@@ -14175,7 +14259,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>931</v>
       </c>
@@ -14204,7 +14288,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>931</v>
       </c>
@@ -14233,7 +14317,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>931</v>
       </c>
@@ -14262,7 +14346,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>931</v>
       </c>
@@ -14291,7 +14375,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>931</v>
       </c>
@@ -14320,7 +14404,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>931</v>
       </c>
@@ -14349,7 +14433,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>931</v>
       </c>
@@ -14380,7 +14464,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>931</v>
       </c>
@@ -14411,7 +14495,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>931</v>
       </c>
@@ -14442,7 +14526,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>931</v>
       </c>
@@ -14471,7 +14555,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>931</v>
       </c>
@@ -14500,7 +14584,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>931</v>
       </c>
@@ -14529,7 +14613,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>931</v>
       </c>
@@ -14558,7 +14642,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>931</v>
       </c>
@@ -14587,7 +14671,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>931</v>
       </c>
@@ -14616,7 +14700,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>931</v>
       </c>
@@ -14645,7 +14729,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>931</v>
       </c>
@@ -14674,7 +14758,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>931</v>
       </c>
@@ -14703,7 +14787,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>931</v>
       </c>
@@ -14732,7 +14816,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>931</v>
       </c>
@@ -14761,7 +14845,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>931</v>
       </c>
@@ -14790,7 +14874,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>931</v>
       </c>
@@ -14819,7 +14903,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>931</v>
       </c>
@@ -14848,7 +14932,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>931</v>
       </c>
@@ -14877,7 +14961,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>931</v>
       </c>
@@ -14906,7 +14990,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>931</v>
       </c>
@@ -14935,7 +15019,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>931</v>
       </c>
@@ -14964,7 +15048,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>931</v>
       </c>
@@ -14993,7 +15077,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>931</v>
       </c>
@@ -15022,7 +15106,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>931</v>
       </c>
@@ -15051,7 +15135,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>931</v>
       </c>
@@ -15080,7 +15164,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>931</v>
       </c>
@@ -15109,7 +15193,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>931</v>
       </c>
@@ -15136,7 +15220,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>931</v>
       </c>
@@ -15165,7 +15249,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>931</v>
       </c>
@@ -15194,7 +15278,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>931</v>
       </c>
@@ -15223,7 +15307,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>931</v>
       </c>
@@ -15252,7 +15336,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>931</v>
       </c>
@@ -15281,7 +15365,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>931</v>
       </c>
@@ -15308,7 +15392,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>931</v>
       </c>
@@ -15337,7 +15421,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>931</v>
       </c>
@@ -15366,7 +15450,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>931</v>
       </c>
@@ -15395,7 +15479,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>931</v>
       </c>
@@ -15422,7 +15506,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>931</v>
       </c>
@@ -15451,7 +15535,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>931</v>
       </c>
@@ -15478,7 +15562,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>931</v>
       </c>
@@ -15507,7 +15591,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>931</v>
       </c>
@@ -15536,7 +15620,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>931</v>
       </c>
@@ -15565,7 +15649,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>931</v>
       </c>
@@ -15594,7 +15678,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
         <v>931</v>
       </c>
@@ -15623,7 +15707,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
         <v>931</v>
       </c>
@@ -15652,7 +15736,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>931</v>
       </c>
@@ -15681,7 +15765,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>931</v>
       </c>
@@ -15710,7 +15794,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
         <v>931</v>
       </c>
@@ -15739,7 +15823,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
         <v>931</v>
       </c>
@@ -15768,7 +15852,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
         <v>931</v>
       </c>
@@ -15797,7 +15881,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15836,7 +15920,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15865,7 +15949,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15892,7 +15976,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15921,7 +16005,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
         <v>1134</v>
       </c>
@@ -15950,7 +16034,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15981,7 +16065,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
         <v>1178</v>
       </c>
@@ -16005,7 +16089,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
         <v>1178</v>
       </c>
@@ -16030,7 +16114,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="20" t="s">
         <v>1178</v>
       </c>
@@ -16055,7 +16139,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="20" t="s">
         <v>1178</v>
       </c>
@@ -16080,7 +16164,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16105,7 +16189,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16130,7 +16214,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16155,7 +16239,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16180,7 +16264,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16205,7 +16289,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16244,7 +16328,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16279,7 +16363,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16316,7 +16400,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16361,7 +16445,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16390,7 +16474,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16423,7 +16507,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16456,7 +16540,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16493,7 +16577,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16528,7 +16612,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16565,7 +16649,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16602,7 +16686,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16641,7 +16725,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16678,7 +16762,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16719,7 +16803,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16754,7 +16838,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16791,7 +16875,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16828,7 +16912,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16855,7 +16939,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16890,7 +16974,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16933,7 +17017,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="36" t="s">
         <v>1133</v>
       </c>
@@ -16974,7 +17058,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17013,7 +17097,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17050,7 +17134,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17089,7 +17173,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17130,7 +17214,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17171,7 +17255,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17199,7 +17283,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17236,7 +17320,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17277,7 +17361,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17310,7 +17394,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17349,7 +17433,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17382,7 +17466,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="34" t="s">
         <v>1432</v>
       </c>
@@ -17409,7 +17493,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="34" t="s">
         <v>1432</v>
       </c>
@@ -17436,7 +17520,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17469,7 +17553,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17508,7 +17592,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17537,7 +17621,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="36" t="s">
         <v>1133</v>
       </c>
@@ -17578,7 +17662,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17607,7 +17691,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17636,7 +17720,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17665,7 +17749,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17694,7 +17778,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17723,7 +17807,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17752,7 +17836,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17781,7 +17865,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17810,7 +17894,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17839,7 +17923,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17868,7 +17952,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17895,7 +17979,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17922,7 +18006,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17949,7 +18033,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="36" t="s">
         <v>1454</v>
       </c>
@@ -17976,7 +18060,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18003,7 +18087,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18030,7 +18114,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18057,7 +18141,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18084,7 +18168,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18111,7 +18195,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18138,7 +18222,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18165,7 +18249,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18192,7 +18276,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18219,7 +18303,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18246,7 +18330,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18273,7 +18357,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18300,7 +18384,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18327,7 +18411,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18354,7 +18438,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18381,7 +18465,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18408,7 +18492,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18435,7 +18519,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18462,7 +18546,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18489,7 +18573,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18516,7 +18600,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18543,7 +18627,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18570,7 +18654,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18597,7 +18681,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18624,7 +18708,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18651,7 +18735,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18678,7 +18762,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18705,7 +18789,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18732,7 +18816,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18759,7 +18843,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18786,7 +18870,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18813,7 +18897,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18840,7 +18924,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18867,7 +18951,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18894,7 +18978,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18921,7 +19005,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18948,7 +19032,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="36" t="s">
         <v>1454</v>
       </c>
@@ -18975,7 +19059,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19002,7 +19086,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19029,7 +19113,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19056,7 +19140,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19083,7 +19167,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19110,7 +19194,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19137,7 +19221,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19164,7 +19248,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19191,7 +19275,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19218,7 +19302,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19245,7 +19329,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19272,7 +19356,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19299,7 +19383,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19326,7 +19410,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19353,7 +19437,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19380,7 +19464,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19407,7 +19491,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19434,7 +19518,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19461,7 +19545,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19488,7 +19572,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19515,7 +19599,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19542,7 +19626,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19569,7 +19653,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19596,7 +19680,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19623,7 +19707,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19650,7 +19734,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19677,7 +19761,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19704,7 +19788,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19731,7 +19815,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19758,7 +19842,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19785,7 +19869,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19812,7 +19896,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19839,7 +19923,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19866,7 +19950,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19893,7 +19977,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19920,7 +20004,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19947,7 +20031,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="36" t="s">
         <v>1454</v>
       </c>
@@ -19974,7 +20058,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20001,7 +20085,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20028,7 +20112,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20055,7 +20139,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20082,7 +20166,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20109,7 +20193,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20136,7 +20220,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20163,7 +20247,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20190,7 +20274,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20217,7 +20301,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20244,7 +20328,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20271,7 +20355,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20298,7 +20382,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20325,7 +20409,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20352,7 +20436,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20379,7 +20463,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20406,7 +20490,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20433,7 +20517,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20460,7 +20544,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20487,7 +20571,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20514,7 +20598,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20541,7 +20625,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20568,7 +20652,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20595,7 +20679,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20622,7 +20706,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20649,7 +20733,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20676,7 +20760,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20703,7 +20787,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20730,7 +20814,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20757,7 +20841,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20784,7 +20868,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20811,7 +20895,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20838,7 +20922,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20865,7 +20949,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20892,7 +20976,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20919,7 +21003,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20946,7 +21030,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="36" t="s">
         <v>1454</v>
       </c>
@@ -20973,7 +21057,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21000,7 +21084,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21027,7 +21111,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21054,7 +21138,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21081,7 +21165,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21108,7 +21192,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21135,7 +21219,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21162,7 +21246,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21189,7 +21273,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21216,7 +21300,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21243,7 +21327,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21270,7 +21354,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21297,7 +21381,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21324,7 +21408,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21351,7 +21435,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21378,7 +21462,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21405,7 +21489,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21432,7 +21516,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21459,7 +21543,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21486,7 +21570,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21513,7 +21597,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21540,7 +21624,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21567,7 +21651,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21594,7 +21678,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21621,7 +21705,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21648,7 +21732,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21675,7 +21759,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21702,7 +21786,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21729,7 +21813,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21756,7 +21840,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21783,7 +21867,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21810,7 +21894,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21837,7 +21921,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21864,7 +21948,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21891,7 +21975,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21918,7 +22002,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21945,7 +22029,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21972,7 +22056,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="36" t="s">
         <v>1454</v>
       </c>
@@ -21999,7 +22083,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22026,7 +22110,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22053,7 +22137,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22080,7 +22164,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22107,7 +22191,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22134,7 +22218,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22161,7 +22245,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22188,7 +22272,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22215,7 +22299,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22242,7 +22326,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22269,7 +22353,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22296,7 +22380,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22323,7 +22407,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22350,7 +22434,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22377,7 +22461,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22404,7 +22488,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22431,7 +22515,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22458,7 +22542,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22485,7 +22569,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22512,7 +22596,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22539,7 +22623,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22566,7 +22650,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22593,7 +22677,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22620,7 +22704,7 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22647,7 +22731,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22674,7 +22758,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="36" t="s">
         <v>1454</v>
       </c>
@@ -22701,7 +22785,7 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="54" t="s">
         <v>1454</v>
       </c>
@@ -22728,8 +22812,10 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A451" s="20"/>
+    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B451" s="42" t="s">
         <v>1852</v>
       </c>
@@ -22753,8 +22839,10 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A452" s="20"/>
+    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B452" s="42" t="s">
         <v>1853</v>
       </c>
@@ -22778,8 +22866,10 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A453" s="20"/>
+    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B453" s="42" t="s">
         <v>1854</v>
       </c>
@@ -22803,8 +22893,10 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A454" s="20"/>
+    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B454" s="42" t="s">
         <v>1855</v>
       </c>
@@ -22828,8 +22920,10 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A455" s="20"/>
+    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B455" s="42" t="s">
         <v>1856</v>
       </c>
@@ -22853,8 +22947,10 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A456" s="20"/>
+    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B456" s="42" t="s">
         <v>1857</v>
       </c>
@@ -22878,8 +22974,10 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A457" s="20"/>
+    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B457" s="42" t="s">
         <v>1858</v>
       </c>
@@ -22903,8 +23001,10 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A458" s="20"/>
+    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B458" s="42" t="s">
         <v>1859</v>
       </c>
@@ -22928,8 +23028,10 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A459" s="20"/>
+    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B459" s="42" t="s">
         <v>1860</v>
       </c>
@@ -22953,8 +23055,10 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A460" s="20"/>
+    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B460" s="42" t="s">
         <v>1861</v>
       </c>
@@ -22978,8 +23082,10 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A461" s="20"/>
+    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B461" s="42" t="s">
         <v>1862</v>
       </c>
@@ -23003,8 +23109,10 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A462" s="20"/>
+    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B462" s="42" t="s">
         <v>1863</v>
       </c>
@@ -23028,8 +23136,10 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A463" s="20"/>
+    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B463" s="42" t="s">
         <v>1864</v>
       </c>
@@ -23053,8 +23163,10 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A464" s="20"/>
+    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B464" s="42" t="s">
         <v>1865</v>
       </c>
@@ -23078,8 +23190,10 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A465" s="20"/>
+    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B465" s="42" t="s">
         <v>1866</v>
       </c>
@@ -23103,8 +23217,10 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A466" s="20"/>
+    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B466" s="42" t="s">
         <v>1867</v>
       </c>
@@ -23128,8 +23244,10 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A467" s="20"/>
+    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B467" s="42" t="s">
         <v>1868</v>
       </c>
@@ -23153,8 +23271,10 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A468" s="20"/>
+    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B468" s="42" t="s">
         <v>1869</v>
       </c>
@@ -23178,8 +23298,10 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A469" s="20"/>
+    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B469" s="42" t="s">
         <v>1870</v>
       </c>
@@ -23203,13 +23325,15 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A470" s="20"/>
+    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="54" t="s">
+        <v>1454</v>
+      </c>
       <c r="B470" s="42" t="s">
         <v>1871</v>
       </c>
       <c r="C470" s="42" t="s">
-        <v>1892</v>
+        <v>1903</v>
       </c>
       <c r="D470" s="14"/>
       <c r="E470" s="14"/>
@@ -23228,14 +23352,22 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A471" s="20"/>
-      <c r="B471" s="13"/>
-      <c r="C471" s="45"/>
+    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B471" s="35" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C471" s="35" t="s">
+        <v>1904</v>
+      </c>
       <c r="D471" s="14"/>
       <c r="E471" s="14"/>
       <c r="F471" s="14"/>
-      <c r="G471" s="14"/>
+      <c r="G471" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H471" s="15"/>
       <c r="I471" s="14"/>
       <c r="J471" s="14"/>
@@ -23247,14 +23379,22 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A472" s="20"/>
-      <c r="B472" s="13"/>
-      <c r="C472" s="45"/>
+    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B472" s="35" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C472" s="35" t="s">
+        <v>1905</v>
+      </c>
       <c r="D472" s="14"/>
       <c r="E472" s="14"/>
       <c r="F472" s="14"/>
-      <c r="G472" s="14"/>
+      <c r="G472" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H472" s="15"/>
       <c r="I472" s="14"/>
       <c r="J472" s="14"/>
@@ -23266,14 +23406,22 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A473" s="20"/>
-      <c r="B473" s="13"/>
-      <c r="C473" s="45"/>
+    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B473" s="35" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C473" s="35" t="s">
+        <v>1906</v>
+      </c>
       <c r="D473" s="14"/>
       <c r="E473" s="14"/>
       <c r="F473" s="14"/>
-      <c r="G473" s="14"/>
+      <c r="G473" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H473" s="15"/>
       <c r="I473" s="14"/>
       <c r="J473" s="14"/>
@@ -23285,14 +23433,22 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A474" s="20"/>
-      <c r="B474" s="13"/>
-      <c r="C474" s="45"/>
+    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B474" s="35" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C474" s="35" t="s">
+        <v>1907</v>
+      </c>
       <c r="D474" s="14"/>
       <c r="E474" s="14"/>
       <c r="F474" s="14"/>
-      <c r="G474" s="14"/>
+      <c r="G474" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H474" s="15"/>
       <c r="I474" s="14"/>
       <c r="J474" s="14"/>
@@ -23304,14 +23460,22 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A475" s="20"/>
-      <c r="B475" s="13"/>
-      <c r="C475" s="45"/>
+    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B475" s="35" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C475" s="35" t="s">
+        <v>1908</v>
+      </c>
       <c r="D475" s="14"/>
       <c r="E475" s="14"/>
       <c r="F475" s="14"/>
-      <c r="G475" s="14"/>
+      <c r="G475" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H475" s="15"/>
       <c r="I475" s="14"/>
       <c r="J475" s="14"/>
@@ -23323,14 +23487,22 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A476" s="20"/>
-      <c r="B476" s="13"/>
-      <c r="C476" s="45"/>
+    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B476" s="35" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C476" s="35" t="s">
+        <v>1909</v>
+      </c>
       <c r="D476" s="14"/>
       <c r="E476" s="14"/>
       <c r="F476" s="14"/>
-      <c r="G476" s="14"/>
+      <c r="G476" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H476" s="15"/>
       <c r="I476" s="14"/>
       <c r="J476" s="14"/>
@@ -23342,14 +23514,22 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A477" s="20"/>
-      <c r="B477" s="13"/>
-      <c r="C477" s="45"/>
+    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B477" s="35" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C477" s="35" t="s">
+        <v>1910</v>
+      </c>
       <c r="D477" s="14"/>
       <c r="E477" s="14"/>
       <c r="F477" s="14"/>
-      <c r="G477" s="14"/>
+      <c r="G477" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H477" s="15"/>
       <c r="I477" s="14"/>
       <c r="J477" s="14"/>
@@ -23361,14 +23541,22 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A478" s="20"/>
-      <c r="B478" s="13"/>
-      <c r="C478" s="45"/>
+    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B478" s="35" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C478" s="35" t="s">
+        <v>1911</v>
+      </c>
       <c r="D478" s="14"/>
       <c r="E478" s="14"/>
       <c r="F478" s="14"/>
-      <c r="G478" s="14"/>
+      <c r="G478" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H478" s="15"/>
       <c r="I478" s="14"/>
       <c r="J478" s="14"/>
@@ -23380,14 +23568,22 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A479" s="20"/>
-      <c r="B479" s="13"/>
-      <c r="C479" s="45"/>
+    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B479" s="35" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C479" s="35" t="s">
+        <v>1912</v>
+      </c>
       <c r="D479" s="14"/>
       <c r="E479" s="14"/>
       <c r="F479" s="14"/>
-      <c r="G479" s="14"/>
+      <c r="G479" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H479" s="15"/>
       <c r="I479" s="14"/>
       <c r="J479" s="14"/>
@@ -23399,14 +23595,22 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A480" s="20"/>
-      <c r="B480" s="13"/>
-      <c r="C480" s="45"/>
+    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B480" s="35" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C480" s="35" t="s">
+        <v>1913</v>
+      </c>
       <c r="D480" s="14"/>
       <c r="E480" s="14"/>
       <c r="F480" s="14"/>
-      <c r="G480" s="14"/>
+      <c r="G480" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H480" s="15"/>
       <c r="I480" s="14"/>
       <c r="J480" s="14"/>
@@ -23418,7 +23622,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="20"/>
       <c r="B481" s="13"/>
       <c r="C481" s="45"/>
@@ -23437,7 +23641,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="20"/>
       <c r="B482" s="13"/>
       <c r="C482" s="45"/>
@@ -23456,7 +23660,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="20"/>
       <c r="B483" s="13"/>
       <c r="C483" s="45"/>
@@ -23475,7 +23679,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="20"/>
       <c r="B484" s="13"/>
       <c r="C484" s="45"/>
@@ -23494,7 +23698,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="20"/>
       <c r="B485" s="13"/>
       <c r="C485" s="45"/>
@@ -23513,7 +23717,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="20"/>
       <c r="B486" s="13"/>
       <c r="C486" s="45"/>
@@ -23532,7 +23736,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="20"/>
       <c r="B487" s="13"/>
       <c r="C487" s="45"/>
@@ -23551,7 +23755,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="20"/>
       <c r="B488" s="13"/>
       <c r="C488" s="45"/>
@@ -23570,7 +23774,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="20"/>
       <c r="B489" s="13"/>
       <c r="C489" s="45"/>
@@ -23589,7 +23793,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="20"/>
       <c r="B490" s="13"/>
       <c r="C490" s="45"/>
@@ -23608,7 +23812,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="20"/>
       <c r="B491" s="13"/>
       <c r="C491" s="45"/>
@@ -23627,7 +23831,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="20"/>
       <c r="B492" s="13"/>
       <c r="C492" s="45"/>
@@ -23646,7 +23850,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="20"/>
       <c r="B493" s="13"/>
       <c r="C493" s="45"/>
@@ -23665,7 +23869,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="20"/>
       <c r="B494" s="13"/>
       <c r="C494" s="45"/>
@@ -23684,7 +23888,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="20"/>
       <c r="B495" s="13"/>
       <c r="C495" s="45"/>
@@ -23703,7 +23907,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="20"/>
       <c r="B496" s="13"/>
       <c r="C496" s="45"/>
@@ -23722,7 +23926,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="20"/>
       <c r="B497" s="13"/>
       <c r="C497" s="45"/>
@@ -23741,7 +23945,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="20"/>
       <c r="B498" s="13"/>
       <c r="C498" s="45"/>
@@ -23760,7 +23964,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="20"/>
       <c r="B499" s="13"/>
       <c r="C499" s="45"/>
@@ -23779,7 +23983,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="20"/>
       <c r="B500" s="13"/>
       <c r="C500" s="45"/>
@@ -23798,7 +24002,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="20"/>
       <c r="B501" s="13"/>
       <c r="C501" s="45"/>
@@ -23817,7 +24021,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="20"/>
       <c r="B502" s="13"/>
       <c r="C502" s="45"/>
@@ -23836,7 +24040,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="20"/>
       <c r="B503" s="13"/>
       <c r="C503" s="45"/>
@@ -23855,7 +24059,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="20"/>
       <c r="B504" s="13"/>
       <c r="C504" s="45"/>
@@ -23874,7 +24078,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="20"/>
       <c r="B505" s="13"/>
       <c r="C505" s="45"/>
@@ -23893,7 +24097,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="20"/>
       <c r="B506" s="13"/>
       <c r="C506" s="45"/>
@@ -23912,7 +24116,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="20"/>
       <c r="B507" s="35"/>
       <c r="C507" s="48"/>
@@ -23931,7 +24135,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="20"/>
       <c r="B508" s="35"/>
       <c r="C508" s="48"/>
@@ -23950,7 +24154,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="20"/>
       <c r="B509" s="35"/>
       <c r="C509" s="48"/>
@@ -23969,7 +24173,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="20"/>
       <c r="B510" s="35"/>
       <c r="C510" s="48"/>
@@ -23988,7 +24192,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="20"/>
       <c r="B511" s="13"/>
       <c r="C511" s="45"/>
@@ -24007,7 +24211,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="20"/>
       <c r="B512" s="13"/>
       <c r="C512" s="45"/>
@@ -24026,7 +24230,7 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="20"/>
       <c r="B513" s="13"/>
       <c r="C513" s="45"/>
@@ -24045,7 +24249,7 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="20"/>
       <c r="B514" s="13"/>
       <c r="C514" s="45"/>
@@ -24064,7 +24268,7 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="20"/>
       <c r="B515" s="13"/>
       <c r="C515" s="45"/>
@@ -24083,7 +24287,7 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="20"/>
       <c r="B516" s="13"/>
       <c r="C516" s="45"/>
@@ -24102,7 +24306,7 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="20"/>
       <c r="B517" s="13"/>
       <c r="C517" s="45"/>
@@ -24121,7 +24325,7 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="20"/>
       <c r="B518" s="13"/>
       <c r="C518" s="45"/>
@@ -24140,7 +24344,7 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="20"/>
       <c r="B519" s="13"/>
       <c r="C519" s="45"/>
@@ -24159,7 +24363,7 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="20"/>
       <c r="B520" s="13"/>
       <c r="C520" s="45"/>
@@ -24178,7 +24382,7 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="20"/>
       <c r="B521" s="13"/>
       <c r="C521" s="45"/>
@@ -24197,7 +24401,7 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="20"/>
       <c r="B522" s="13"/>
       <c r="C522" s="45"/>
@@ -24216,7 +24420,7 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="20"/>
       <c r="B523" s="13"/>
       <c r="C523" s="45"/>
@@ -24235,7 +24439,7 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="20"/>
       <c r="B524" s="13"/>
       <c r="C524" s="45"/>
@@ -24254,7 +24458,7 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="20"/>
       <c r="B525" s="13"/>
       <c r="C525" s="45"/>
@@ -24273,7 +24477,7 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="20"/>
       <c r="B526" s="13"/>
       <c r="C526" s="45"/>
@@ -24292,7 +24496,7 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="20"/>
       <c r="B527" s="13"/>
       <c r="C527" s="45"/>
@@ -24311,7 +24515,7 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="20"/>
       <c r="B528" s="13"/>
       <c r="C528" s="45"/>
@@ -24330,7 +24534,7 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:17" ht="45.95" customHeight="1">
+    <row r="529" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="20"/>
       <c r="B529" s="13"/>
       <c r="C529" s="45"/>
@@ -24349,7 +24553,7 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:17" ht="45.95" customHeight="1">
+    <row r="530" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="20"/>
       <c r="B530" s="13"/>
       <c r="C530" s="45"/>
@@ -24368,7 +24572,7 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:17" ht="45.95" customHeight="1">
+    <row r="531" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="20"/>
       <c r="B531" s="13"/>
       <c r="C531" s="45"/>
@@ -24387,7 +24591,7 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:17" ht="45.95" customHeight="1">
+    <row r="532" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="20"/>
       <c r="B532" s="13"/>
       <c r="C532" s="45"/>
@@ -24406,7 +24610,7 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:17" ht="45.95" customHeight="1">
+    <row r="533" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="20"/>
       <c r="B533" s="13"/>
       <c r="C533" s="45"/>
@@ -24425,7 +24629,7 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:17" ht="45.95" customHeight="1">
+    <row r="534" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="20"/>
       <c r="B534" s="13"/>
       <c r="C534" s="45"/>
@@ -24444,7 +24648,7 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:17" ht="45.95" customHeight="1">
+    <row r="535" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="20"/>
       <c r="B535" s="13"/>
       <c r="C535" s="45"/>
@@ -24463,7 +24667,7 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:17" ht="45.95" customHeight="1">
+    <row r="536" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="20"/>
       <c r="B536" s="13"/>
       <c r="C536" s="45"/>
@@ -24482,7 +24686,7 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:17" ht="45.95" customHeight="1">
+    <row r="537" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="20"/>
       <c r="B537" s="13"/>
       <c r="C537" s="45"/>
@@ -24501,7 +24705,7 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:17" ht="45.95" customHeight="1">
+    <row r="538" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="20"/>
       <c r="B538" s="13"/>
       <c r="C538" s="45"/>
@@ -24520,7 +24724,7 @@
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:17" ht="45.95" customHeight="1">
+    <row r="539" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="20"/>
       <c r="B539" s="13"/>
       <c r="C539" s="45"/>
@@ -24539,7 +24743,7 @@
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:17" ht="45.95" customHeight="1">
+    <row r="540" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="20"/>
       <c r="B540" s="13"/>
       <c r="C540" s="45"/>
@@ -24558,7 +24762,7 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:17" ht="45.95" customHeight="1">
+    <row r="541" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="20"/>
       <c r="B541" s="13"/>
       <c r="C541" s="45"/>
@@ -24577,7 +24781,7 @@
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:17" ht="45.95" customHeight="1">
+    <row r="542" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="20"/>
       <c r="B542" s="13"/>
       <c r="C542" s="45"/>
@@ -24596,7 +24800,7 @@
       <c r="P542" s="16"/>
       <c r="Q542" s="17"/>
     </row>
-    <row r="543" spans="1:17" ht="45.95" customHeight="1">
+    <row r="543" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="20"/>
       <c r="B543" s="13"/>
       <c r="C543" s="45"/>
@@ -24615,7 +24819,7 @@
       <c r="P543" s="16"/>
       <c r="Q543" s="17"/>
     </row>
-    <row r="544" spans="1:17" ht="45.95" customHeight="1">
+    <row r="544" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="20"/>
       <c r="B544" s="13"/>
       <c r="C544" s="45"/>
@@ -24634,7 +24838,7 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1">
+    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="20"/>
       <c r="B545" s="13"/>
       <c r="C545" s="45"/>
@@ -24653,7 +24857,7 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1">
+    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="20"/>
       <c r="B546" s="13"/>
       <c r="C546" s="45"/>
@@ -24672,7 +24876,7 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1">
+    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="20"/>
       <c r="B547" s="13"/>
       <c r="C547" s="45"/>
@@ -24691,7 +24895,7 @@
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1">
+    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="20"/>
       <c r="B548" s="13"/>
       <c r="C548" s="45"/>
@@ -24710,7 +24914,7 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1">
+    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="20"/>
       <c r="B549" s="13"/>
       <c r="C549" s="45"/>
@@ -24729,7 +24933,7 @@
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1">
+    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="20"/>
       <c r="B550" s="13"/>
       <c r="C550" s="45"/>
@@ -24748,7 +24952,7 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1">
+    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="20"/>
       <c r="B551" s="13"/>
       <c r="C551" s="45"/>
@@ -24767,7 +24971,7 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1">
+    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="20"/>
       <c r="B552" s="13"/>
       <c r="C552" s="45"/>
@@ -24786,7 +24990,7 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1">
+    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="20"/>
       <c r="B553" s="13"/>
       <c r="C553" s="45"/>
@@ -24805,7 +25009,7 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1">
+    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="20"/>
       <c r="B554" s="13"/>
       <c r="C554" s="45"/>
@@ -24824,7 +25028,7 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1">
+    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="20"/>
       <c r="B555" s="13"/>
       <c r="C555" s="45"/>
@@ -24843,7 +25047,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="20"/>
       <c r="B556" s="13"/>
       <c r="C556" s="45"/>
@@ -24862,7 +25066,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="20"/>
       <c r="B557" s="13"/>
       <c r="C557" s="45"/>
@@ -24881,7 +25085,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="20"/>
       <c r="B558" s="13"/>
       <c r="C558" s="45"/>
@@ -24900,7 +25104,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="20"/>
       <c r="B559" s="13"/>
       <c r="C559" s="45"/>
@@ -24919,7 +25123,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="20"/>
       <c r="B560" s="13"/>
       <c r="C560" s="45"/>
@@ -24938,7 +25142,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="20"/>
       <c r="B561" s="13"/>
       <c r="C561" s="45"/>
@@ -24957,7 +25161,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="20"/>
       <c r="B562" s="13"/>
       <c r="C562" s="45"/>
@@ -24976,7 +25180,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="20"/>
       <c r="B563" s="13"/>
       <c r="C563" s="45"/>
@@ -24995,7 +25199,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="20"/>
       <c r="B564" s="13"/>
       <c r="C564" s="45"/>
@@ -25014,7 +25218,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="20"/>
       <c r="B565" s="13"/>
       <c r="C565" s="45"/>
@@ -25033,7 +25237,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="20"/>
       <c r="B566" s="13"/>
       <c r="C566" s="45"/>
@@ -25052,7 +25256,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="20"/>
       <c r="B567" s="13"/>
       <c r="C567" s="45"/>
@@ -25071,7 +25275,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="20"/>
       <c r="B568" s="13"/>
       <c r="C568" s="45"/>
@@ -25090,7 +25294,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="20"/>
       <c r="B569" s="13"/>
       <c r="C569" s="45"/>
@@ -25109,7 +25313,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="20"/>
       <c r="B570" s="13"/>
       <c r="C570" s="45"/>
@@ -25128,7 +25332,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="20"/>
       <c r="B571" s="13"/>
       <c r="C571" s="45"/>
@@ -25147,7 +25351,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="20"/>
       <c r="B572" s="13"/>
       <c r="C572" s="45"/>
@@ -25166,7 +25370,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="20"/>
       <c r="B573" s="13"/>
       <c r="C573" s="45"/>
@@ -25185,7 +25389,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="20"/>
       <c r="B574" s="13"/>
       <c r="C574" s="45"/>
@@ -25204,7 +25408,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="20"/>
       <c r="B575" s="13"/>
       <c r="C575" s="45"/>
@@ -25223,7 +25427,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="20"/>
       <c r="B576" s="13"/>
       <c r="C576" s="45"/>
@@ -25242,7 +25446,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="20"/>
       <c r="B577" s="13"/>
       <c r="C577" s="45"/>
@@ -25261,7 +25465,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="20"/>
       <c r="B578" s="13"/>
       <c r="C578" s="45"/>
@@ -25288,20 +25492,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -25309,7 +25513,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -25317,7 +25521,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>598</v>
       </c>
@@ -25325,7 +25529,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>599</v>
       </c>
@@ -25333,7 +25537,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>679</v>
       </c>
@@ -25341,7 +25545,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>1185</v>
       </c>
@@ -25349,7 +25553,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>1133</v>
       </c>
@@ -25357,7 +25561,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>1150</v>
       </c>
@@ -25365,12 +25569,12 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>1166</v>
       </c>
@@ -25378,7 +25582,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>1454</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1937">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8426,11 +8426,103 @@
     <t>Damian.Carrington@theguardian.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Adam Vaughan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiona Harvey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver Milman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Vidal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alison Benjamin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarah Boseley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amelia Gentleman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Randeep Ramesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patrick Butler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denis Campbell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erwin James</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>society</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam.Vaughan@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiona.Harvey@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver.Milman@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John.Vidal@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alison.Benjamin@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sarah.Boseley@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amelia.Gentleman@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Randeep.Ramesh@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patrick.Butler@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denis.Campbell@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erwin.James@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9129,8 +9221,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451:A480"/>
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23623,13 +23715,21 @@
       <c r="Q480" s="17"/>
     </row>
     <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="20"/>
-      <c r="B481" s="13"/>
-      <c r="C481" s="45"/>
+      <c r="A481" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B481" s="35" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C481" s="35" t="s">
+        <v>1926</v>
+      </c>
       <c r="D481" s="14"/>
       <c r="E481" s="14"/>
       <c r="F481" s="14"/>
-      <c r="G481" s="14"/>
+      <c r="G481" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H481" s="15"/>
       <c r="I481" s="14"/>
       <c r="J481" s="14"/>
@@ -23642,13 +23742,21 @@
       <c r="Q481" s="17"/>
     </row>
     <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="20"/>
-      <c r="B482" s="13"/>
-      <c r="C482" s="45"/>
+      <c r="A482" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B482" s="35" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C482" s="35" t="s">
+        <v>1927</v>
+      </c>
       <c r="D482" s="14"/>
       <c r="E482" s="14"/>
       <c r="F482" s="14"/>
-      <c r="G482" s="14"/>
+      <c r="G482" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H482" s="15"/>
       <c r="I482" s="14"/>
       <c r="J482" s="14"/>
@@ -23661,13 +23769,21 @@
       <c r="Q482" s="17"/>
     </row>
     <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="20"/>
-      <c r="B483" s="13"/>
-      <c r="C483" s="45"/>
+      <c r="A483" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B483" s="35" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C483" s="35" t="s">
+        <v>1928</v>
+      </c>
       <c r="D483" s="14"/>
       <c r="E483" s="14"/>
       <c r="F483" s="14"/>
-      <c r="G483" s="14"/>
+      <c r="G483" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H483" s="15"/>
       <c r="I483" s="14"/>
       <c r="J483" s="14"/>
@@ -23680,13 +23796,21 @@
       <c r="Q483" s="17"/>
     </row>
     <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="20"/>
-      <c r="B484" s="13"/>
-      <c r="C484" s="45"/>
+      <c r="A484" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B484" s="35" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C484" s="35" t="s">
+        <v>1929</v>
+      </c>
       <c r="D484" s="14"/>
       <c r="E484" s="14"/>
       <c r="F484" s="14"/>
-      <c r="G484" s="14"/>
+      <c r="G484" s="34" t="s">
+        <v>1902</v>
+      </c>
       <c r="H484" s="15"/>
       <c r="I484" s="14"/>
       <c r="J484" s="14"/>
@@ -23699,13 +23823,21 @@
       <c r="Q484" s="17"/>
     </row>
     <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="20"/>
-      <c r="B485" s="13"/>
-      <c r="C485" s="45"/>
+      <c r="A485" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B485" s="35" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C485" s="35" t="s">
+        <v>1930</v>
+      </c>
       <c r="D485" s="14"/>
       <c r="E485" s="14"/>
       <c r="F485" s="14"/>
-      <c r="G485" s="14"/>
+      <c r="G485" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H485" s="15"/>
       <c r="I485" s="14"/>
       <c r="J485" s="14"/>
@@ -23718,13 +23850,21 @@
       <c r="Q485" s="17"/>
     </row>
     <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="20"/>
-      <c r="B486" s="13"/>
-      <c r="C486" s="45"/>
+      <c r="A486" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B486" s="35" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C486" s="35" t="s">
+        <v>1931</v>
+      </c>
       <c r="D486" s="14"/>
       <c r="E486" s="14"/>
       <c r="F486" s="14"/>
-      <c r="G486" s="14"/>
+      <c r="G486" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H486" s="15"/>
       <c r="I486" s="14"/>
       <c r="J486" s="14"/>
@@ -23737,13 +23877,21 @@
       <c r="Q486" s="17"/>
     </row>
     <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="20"/>
-      <c r="B487" s="13"/>
-      <c r="C487" s="45"/>
+      <c r="A487" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B487" s="35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C487" s="35" t="s">
+        <v>1932</v>
+      </c>
       <c r="D487" s="14"/>
       <c r="E487" s="14"/>
       <c r="F487" s="14"/>
-      <c r="G487" s="14"/>
+      <c r="G487" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H487" s="15"/>
       <c r="I487" s="14"/>
       <c r="J487" s="14"/>
@@ -23756,13 +23904,21 @@
       <c r="Q487" s="17"/>
     </row>
     <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="20"/>
-      <c r="B488" s="13"/>
-      <c r="C488" s="45"/>
+      <c r="A488" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B488" s="35" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C488" s="35" t="s">
+        <v>1933</v>
+      </c>
       <c r="D488" s="14"/>
       <c r="E488" s="14"/>
       <c r="F488" s="14"/>
-      <c r="G488" s="14"/>
+      <c r="G488" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H488" s="15"/>
       <c r="I488" s="14"/>
       <c r="J488" s="14"/>
@@ -23775,13 +23931,21 @@
       <c r="Q488" s="17"/>
     </row>
     <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="20"/>
-      <c r="B489" s="13"/>
-      <c r="C489" s="45"/>
+      <c r="A489" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B489" s="35" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C489" s="35" t="s">
+        <v>1934</v>
+      </c>
       <c r="D489" s="14"/>
       <c r="E489" s="14"/>
       <c r="F489" s="14"/>
-      <c r="G489" s="14"/>
+      <c r="G489" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H489" s="15"/>
       <c r="I489" s="14"/>
       <c r="J489" s="14"/>
@@ -23794,13 +23958,21 @@
       <c r="Q489" s="17"/>
     </row>
     <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="20"/>
-      <c r="B490" s="13"/>
-      <c r="C490" s="45"/>
+      <c r="A490" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B490" s="35" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C490" s="35" t="s">
+        <v>1935</v>
+      </c>
       <c r="D490" s="14"/>
       <c r="E490" s="14"/>
       <c r="F490" s="14"/>
-      <c r="G490" s="14"/>
+      <c r="G490" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H490" s="15"/>
       <c r="I490" s="14"/>
       <c r="J490" s="14"/>
@@ -23813,13 +23985,21 @@
       <c r="Q490" s="17"/>
     </row>
     <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="20"/>
-      <c r="B491" s="13"/>
-      <c r="C491" s="45"/>
+      <c r="A491" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B491" s="35" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C491" s="35" t="s">
+        <v>1936</v>
+      </c>
       <c r="D491" s="14"/>
       <c r="E491" s="14"/>
       <c r="F491" s="14"/>
-      <c r="G491" s="14"/>
+      <c r="G491" s="34" t="s">
+        <v>1925</v>
+      </c>
       <c r="H491" s="15"/>
       <c r="I491" s="14"/>
       <c r="J491" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1962">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8515,7 +8515,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Josh Halliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason Deans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amanda Meade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Plunkett</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roy Greenslade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Martinson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisa O'Carroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark Sweney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liz Ford</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clár Ní Chonghaile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam Jones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarnic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarnichonghaile.wordpress.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>global development</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Erwin.James@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason.Deans@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Josh.Halliday@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amanda.Meade@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John.Plunkett@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roy.Greenslade@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane.Martinson@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisa.O.Carroll@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark.Sweney@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liz.Ford@theguardian.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam.Jones@theguardian.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9221,8 +9321,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D501" sqref="D501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23992,7 +24092,7 @@
         <v>1924</v>
       </c>
       <c r="C491" s="35" t="s">
-        <v>1936</v>
+        <v>1951</v>
       </c>
       <c r="D491" s="14"/>
       <c r="E491" s="14"/>
@@ -24012,13 +24112,21 @@
       <c r="Q491" s="17"/>
     </row>
     <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="20"/>
-      <c r="B492" s="13"/>
-      <c r="C492" s="45"/>
+      <c r="A492" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B492" s="35" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C492" s="35" t="s">
+        <v>1952</v>
+      </c>
       <c r="D492" s="14"/>
       <c r="E492" s="14"/>
       <c r="F492" s="14"/>
-      <c r="G492" s="14"/>
+      <c r="G492" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H492" s="15"/>
       <c r="I492" s="14"/>
       <c r="J492" s="14"/>
@@ -24031,13 +24139,21 @@
       <c r="Q492" s="17"/>
     </row>
     <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="20"/>
-      <c r="B493" s="13"/>
-      <c r="C493" s="45"/>
+      <c r="A493" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B493" s="35" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C493" s="35" t="s">
+        <v>1953</v>
+      </c>
       <c r="D493" s="14"/>
       <c r="E493" s="14"/>
       <c r="F493" s="14"/>
-      <c r="G493" s="14"/>
+      <c r="G493" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H493" s="15"/>
       <c r="I493" s="14"/>
       <c r="J493" s="14"/>
@@ -24050,13 +24166,21 @@
       <c r="Q493" s="17"/>
     </row>
     <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="20"/>
-      <c r="B494" s="13"/>
-      <c r="C494" s="45"/>
+      <c r="A494" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B494" s="35" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C494" s="35" t="s">
+        <v>1954</v>
+      </c>
       <c r="D494" s="14"/>
       <c r="E494" s="14"/>
       <c r="F494" s="14"/>
-      <c r="G494" s="14"/>
+      <c r="G494" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H494" s="15"/>
       <c r="I494" s="14"/>
       <c r="J494" s="14"/>
@@ -24069,13 +24193,21 @@
       <c r="Q494" s="17"/>
     </row>
     <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="20"/>
-      <c r="B495" s="13"/>
-      <c r="C495" s="45"/>
+      <c r="A495" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B495" s="35" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C495" s="35" t="s">
+        <v>1955</v>
+      </c>
       <c r="D495" s="14"/>
       <c r="E495" s="14"/>
       <c r="F495" s="14"/>
-      <c r="G495" s="14"/>
+      <c r="G495" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H495" s="15"/>
       <c r="I495" s="14"/>
       <c r="J495" s="14"/>
@@ -24088,13 +24220,21 @@
       <c r="Q495" s="17"/>
     </row>
     <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="20"/>
-      <c r="B496" s="13"/>
-      <c r="C496" s="45"/>
+      <c r="A496" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B496" s="35" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C496" s="35" t="s">
+        <v>1956</v>
+      </c>
       <c r="D496" s="14"/>
       <c r="E496" s="14"/>
       <c r="F496" s="14"/>
-      <c r="G496" s="14"/>
+      <c r="G496" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H496" s="15"/>
       <c r="I496" s="14"/>
       <c r="J496" s="14"/>
@@ -24107,13 +24247,21 @@
       <c r="Q496" s="17"/>
     </row>
     <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="20"/>
-      <c r="B497" s="13"/>
-      <c r="C497" s="45"/>
+      <c r="A497" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B497" s="35" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C497" s="35" t="s">
+        <v>1957</v>
+      </c>
       <c r="D497" s="14"/>
       <c r="E497" s="14"/>
       <c r="F497" s="14"/>
-      <c r="G497" s="14"/>
+      <c r="G497" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H497" s="15"/>
       <c r="I497" s="14"/>
       <c r="J497" s="14"/>
@@ -24126,13 +24274,21 @@
       <c r="Q497" s="17"/>
     </row>
     <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="20"/>
-      <c r="B498" s="13"/>
-      <c r="C498" s="45"/>
+      <c r="A498" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B498" s="35" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C498" s="35" t="s">
+        <v>1958</v>
+      </c>
       <c r="D498" s="14"/>
       <c r="E498" s="14"/>
       <c r="F498" s="14"/>
-      <c r="G498" s="14"/>
+      <c r="G498" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H498" s="15"/>
       <c r="I498" s="14"/>
       <c r="J498" s="14"/>
@@ -24145,13 +24301,21 @@
       <c r="Q498" s="17"/>
     </row>
     <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="20"/>
-      <c r="B499" s="13"/>
-      <c r="C499" s="45"/>
+      <c r="A499" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B499" s="35" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C499" s="35" t="s">
+        <v>1959</v>
+      </c>
       <c r="D499" s="14"/>
       <c r="E499" s="14"/>
       <c r="F499" s="14"/>
-      <c r="G499" s="14"/>
+      <c r="G499" s="34" t="s">
+        <v>1950</v>
+      </c>
       <c r="H499" s="15"/>
       <c r="I499" s="14"/>
       <c r="J499" s="14"/>
@@ -24164,13 +24328,21 @@
       <c r="Q499" s="17"/>
     </row>
     <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="20"/>
-      <c r="B500" s="13"/>
-      <c r="C500" s="45"/>
+      <c r="A500" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B500" s="35" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C500" s="35" t="s">
+        <v>1960</v>
+      </c>
       <c r="D500" s="14"/>
       <c r="E500" s="14"/>
       <c r="F500" s="14"/>
-      <c r="G500" s="14"/>
+      <c r="G500" s="34" t="s">
+        <v>1949</v>
+      </c>
       <c r="H500" s="15"/>
       <c r="I500" s="14"/>
       <c r="J500" s="14"/>
@@ -24183,17 +24355,27 @@
       <c r="Q500" s="17"/>
     </row>
     <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="20"/>
-      <c r="B501" s="13"/>
-      <c r="C501" s="45"/>
+      <c r="A501" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B501" s="35" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C501" s="35"/>
       <c r="D501" s="14"/>
       <c r="E501" s="14"/>
       <c r="F501" s="14"/>
-      <c r="G501" s="14"/>
+      <c r="G501" s="34" t="s">
+        <v>1949</v>
+      </c>
       <c r="H501" s="15"/>
       <c r="I501" s="14"/>
-      <c r="J501" s="14"/>
-      <c r="K501" s="14"/>
+      <c r="J501" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K501" s="34" t="s">
+        <v>1947</v>
+      </c>
       <c r="L501" s="14"/>
       <c r="M501" s="14"/>
       <c r="N501" s="14"/>
@@ -24202,13 +24384,21 @@
       <c r="Q501" s="17"/>
     </row>
     <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="20"/>
-      <c r="B502" s="13"/>
-      <c r="C502" s="45"/>
+      <c r="A502" s="54" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B502" s="35" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C502" s="35" t="s">
+        <v>1961</v>
+      </c>
       <c r="D502" s="14"/>
       <c r="E502" s="14"/>
       <c r="F502" s="14"/>
-      <c r="G502" s="14"/>
+      <c r="G502" s="34" t="s">
+        <v>1949</v>
+      </c>
       <c r="H502" s="15"/>
       <c r="I502" s="14"/>
       <c r="J502" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="2035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="2072">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8920,6 +8920,154 @@
   </si>
   <si>
     <t>kate.rowan@telegraph.co.uk.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Editor in Chief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaron@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aaron Nobe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Doody </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ben@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bendoody</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing editor at @HeavySan. Ex-staffer at @nhregister, @connpost, @trentonian &amp; @fairfieldmirror. @FairfieldU grad. Sports/politics nerd.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom Cleary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom.cleary@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomwcleary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Editor @HeavySan. @FairfieldU grad. Former editor/reporter for @NHRegister, @RegisterCitizen, @ConnPost, @FairfieldMirror. tom.cleary@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tucker Cummings Miller </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tucker@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuckercummings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I stare into a tiny electric box and make words happen.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica McBride </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jessica.mcbride@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jess_mcbride</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breaking News &amp; Politics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Farrell </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaking News</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paul@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paulfarrell1895</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy.com  is where you'll find me. Tweets very much my own opinions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stephanie Dube Dwilson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaking News, Politics &amp; Technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stephanie.dwilson@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StephanieDube</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writes for @HeavySan, @humankindness, Big Heart Pet, &amp; more! Co-founder of @PostApocalypt. Love #writing, my husband, and God! :D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel S. Levine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Politics &amp; Entertainment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daniel.levine@heavy.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsl89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grad of @HofstraU, Staff Writer for http://PopCulture.com . Lover of film, comics &amp; Star Wars. Proud Brockton, MA native. Opinions are mine.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9625,13 +9773,13 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A512" sqref="A512"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H517" sqref="H517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
     <col min="3" max="3" width="26.25" style="46" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="19" customWidth="1"/>
@@ -25064,13 +25212,21 @@
       <c r="Q512" s="17"/>
     </row>
     <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="20"/>
-      <c r="B513" s="13"/>
-      <c r="C513" s="45"/>
+      <c r="A513" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B513" s="35" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C513" s="48" t="s">
+        <v>2036</v>
+      </c>
       <c r="D513" s="14"/>
       <c r="E513" s="14"/>
       <c r="F513" s="14"/>
-      <c r="G513" s="14"/>
+      <c r="G513" s="34" t="s">
+        <v>2035</v>
+      </c>
       <c r="H513" s="15"/>
       <c r="I513" s="14"/>
       <c r="J513" s="14"/>
@@ -25083,17 +25239,29 @@
       <c r="Q513" s="17"/>
     </row>
     <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="20"/>
-      <c r="B514" s="13"/>
-      <c r="C514" s="45"/>
+      <c r="A514" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B514" s="35" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C514" s="48" t="s">
+        <v>2039</v>
+      </c>
       <c r="D514" s="14"/>
       <c r="E514" s="14"/>
       <c r="F514" s="14"/>
-      <c r="G514" s="14"/>
-      <c r="H514" s="15"/>
+      <c r="G514" s="34" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H514" s="37" t="s">
+        <v>2041</v>
+      </c>
       <c r="I514" s="14"/>
       <c r="J514" s="14"/>
-      <c r="K514" s="14"/>
+      <c r="K514" s="34" t="s">
+        <v>2040</v>
+      </c>
       <c r="L514" s="14"/>
       <c r="M514" s="14"/>
       <c r="N514" s="14"/>
@@ -25102,17 +25270,29 @@
       <c r="Q514" s="17"/>
     </row>
     <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="20"/>
-      <c r="B515" s="13"/>
-      <c r="C515" s="45"/>
+      <c r="A515" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B515" s="35" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C515" s="48" t="s">
+        <v>2045</v>
+      </c>
       <c r="D515" s="14"/>
       <c r="E515" s="14"/>
       <c r="F515" s="14"/>
-      <c r="G515" s="14"/>
-      <c r="H515" s="15"/>
+      <c r="G515" s="34" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H515" s="37" t="s">
+        <v>2047</v>
+      </c>
       <c r="I515" s="14"/>
       <c r="J515" s="14"/>
-      <c r="K515" s="14"/>
+      <c r="K515" s="34" t="s">
+        <v>2046</v>
+      </c>
       <c r="L515" s="14"/>
       <c r="M515" s="14"/>
       <c r="N515" s="14"/>
@@ -25121,17 +25301,29 @@
       <c r="Q515" s="17"/>
     </row>
     <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="20"/>
-      <c r="B516" s="13"/>
-      <c r="C516" s="45"/>
+      <c r="A516" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B516" s="35" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C516" s="48" t="s">
+        <v>2050</v>
+      </c>
       <c r="D516" s="14"/>
       <c r="E516" s="14"/>
       <c r="F516" s="14"/>
-      <c r="G516" s="14"/>
-      <c r="H516" s="15"/>
+      <c r="G516" s="34" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H516" s="37" t="s">
+        <v>2052</v>
+      </c>
       <c r="I516" s="14"/>
       <c r="J516" s="14"/>
-      <c r="K516" s="14"/>
+      <c r="K516" s="34" t="s">
+        <v>2051</v>
+      </c>
       <c r="L516" s="14"/>
       <c r="M516" s="14"/>
       <c r="N516" s="14"/>
@@ -25140,17 +25332,27 @@
       <c r="Q516" s="17"/>
     </row>
     <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="20"/>
-      <c r="B517" s="13"/>
-      <c r="C517" s="45"/>
+      <c r="A517" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B517" s="35" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C517" s="48" t="s">
+        <v>2054</v>
+      </c>
       <c r="D517" s="14"/>
       <c r="E517" s="14"/>
       <c r="F517" s="14"/>
-      <c r="G517" s="14"/>
+      <c r="G517" s="34" t="s">
+        <v>2056</v>
+      </c>
       <c r="H517" s="15"/>
       <c r="I517" s="14"/>
       <c r="J517" s="14"/>
-      <c r="K517" s="14"/>
+      <c r="K517" s="34" t="s">
+        <v>2055</v>
+      </c>
       <c r="L517" s="14"/>
       <c r="M517" s="14"/>
       <c r="N517" s="14"/>
@@ -25159,17 +25361,29 @@
       <c r="Q517" s="17"/>
     </row>
     <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="20"/>
-      <c r="B518" s="13"/>
-      <c r="C518" s="45"/>
+      <c r="A518" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B518" s="35" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C518" s="48" t="s">
+        <v>2059</v>
+      </c>
       <c r="D518" s="14"/>
       <c r="E518" s="14"/>
       <c r="F518" s="14"/>
-      <c r="G518" s="14"/>
-      <c r="H518" s="15"/>
+      <c r="G518" s="34" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H518" s="37" t="s">
+        <v>2061</v>
+      </c>
       <c r="I518" s="14"/>
       <c r="J518" s="14"/>
-      <c r="K518" s="14"/>
+      <c r="K518" s="34" t="s">
+        <v>2060</v>
+      </c>
       <c r="L518" s="14"/>
       <c r="M518" s="14"/>
       <c r="N518" s="14"/>
@@ -25178,17 +25392,29 @@
       <c r="Q518" s="17"/>
     </row>
     <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="20"/>
-      <c r="B519" s="13"/>
-      <c r="C519" s="45"/>
+      <c r="A519" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B519" s="35" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C519" s="48" t="s">
+        <v>2064</v>
+      </c>
       <c r="D519" s="14"/>
       <c r="E519" s="14"/>
       <c r="F519" s="14"/>
-      <c r="G519" s="14"/>
-      <c r="H519" s="15"/>
+      <c r="G519" s="34" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H519" s="37" t="s">
+        <v>2066</v>
+      </c>
       <c r="I519" s="14"/>
       <c r="J519" s="14"/>
-      <c r="K519" s="14"/>
+      <c r="K519" s="34" t="s">
+        <v>2065</v>
+      </c>
       <c r="L519" s="14"/>
       <c r="M519" s="14"/>
       <c r="N519" s="14"/>
@@ -25197,17 +25423,29 @@
       <c r="Q519" s="17"/>
     </row>
     <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="20"/>
-      <c r="B520" s="13"/>
-      <c r="C520" s="45"/>
+      <c r="A520" s="33" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B520" s="35" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C520" s="48" t="s">
+        <v>2069</v>
+      </c>
       <c r="D520" s="14"/>
       <c r="E520" s="14"/>
       <c r="F520" s="14"/>
-      <c r="G520" s="14"/>
-      <c r="H520" s="15"/>
+      <c r="G520" s="34" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H520" s="37" t="s">
+        <v>2071</v>
+      </c>
       <c r="I520" s="14"/>
       <c r="J520" s="14"/>
-      <c r="K520" s="14"/>
+      <c r="K520" s="34" t="s">
+        <v>2070</v>
+      </c>
       <c r="L520" s="14"/>
       <c r="M520" s="14"/>
       <c r="N520" s="14"/>
@@ -26329,7 +26567,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="2145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="2231">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -9320,10 +9320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Gabe Bergado</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fantosie@charter.net</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9359,14 +9355,377 @@
   <si>
     <t>entertainment @teenvogue ✨ part mexican, part filipino, extremely gay &amp; a pleasure to have in class ✨ if the apocalypse comes, beep me
 Gabe is an Associate Culture Editor with a deep love for the internet and memes. He's written for the Daily Dot, Mashable, Mic, and the Daily Beast. Originally from California and now living in Brooklyn, he's always craving Taco Bell.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabe Bergado</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WILL.U.WEAR WILL.I.AM'S NEW EYEWEAR LINE, ILL.I OPTICS?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYLER MCCALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fashionista.com/2014/02/will-i-am-ill-i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyler McCall is the deputy editor of Fashionista.com, where she used to religiously leave comments while an undergrad at the University of Florida. She spends a lot of time wondering if the boys of One Direction are happy on hiatus and perusing Tumblr for the perfect reaction GIFs of Blair Waldorf. She's also logged hours at Teen Vogue, Vogue Runway, and WWD.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eiffeltyler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.google.com/+TylerMcCall86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.instagram.com/eiffeltyler/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immy grabs patent on how to do AR/VR glasses in a natural way</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://venturebeat.com/2016/03/09/immy-grabs-patent-on-natural-eye-optics-for-vr-and-ar/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEAN TAKAHASHI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deantak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have been a journalist for 25 years and am lead writer for GamesBeat at VentureBeat. I cover games, chips, hardware, R&amp;D, and other tech.
+Dean Takahashi is lead writer for GamesBeat at VentureBeat. He has been a tech journalist for more than 28 years, and he has covered games for 21 years. He has been at VentureBeat since 2008. Prior to that, he wrote for the San Jose Mercury News, the Red Herring, the Wall Street Journal, the Los 
+Angeles Times, and the Dallas Times-Herald. He is the author of two books, "Opening the Xbox" and "The Xbox 360 Uncloaked." He organizes the annual GamesBeat and GamesBeat Summit conferences. He lives in the San Francisco Bay Area.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I almost lost my sight - it made me realize how lucky I am': Rapper Common teams up with Big Pharma in campaign to end preventable blindness by 2030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dailymail.co.uk/health/article-4312614/Rapper-Common-teams-Big-Pharma-vision-campaign.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIA DE GRAAF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miadegraaf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health for @DailyMail. Opinions mine. Email: mia.degraaf@dailymail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mia-de-graaf-a1174327/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODG’s new augmented reality glasses are cheaper and better than the Microsoft HoloLens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.digitaltrends.com/wearables/odg-r-8-r-9-ar-glasses-ces-2017/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christian de Looper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdeLooper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technology journalist, music producer, world traveler, and self-proclaimed comedian.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://christiandelooper.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://christiandelooper.com/journalism/contact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/christiandelooper/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.google.com/+ChristiandeLooper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/theconfessionsmusic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>music</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> journalist</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Tips to Protect Your Vision and Prevent Blindness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.everydayhealth.com/news/10-essential-facts-about-your-eyes/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tammy Worth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>everydayhealth.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tammy is a freelance writer based in Kansas City, Mo., who has been covering healthcare for more than a decade. Her work has appeared in the Los Angeles Times, Health.com, WebMD.com, The Economist, Bloomberg News, Men's Health, and the Kansas City Business Journal. Prior to beginning a freelance career, she was a newspaper reporter and editor. She has a bachelor's degree in English from the University of Missouri-Kansas City and a master's degree in journalism from Northeastern University in Boston.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contributing Writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tammyworth.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tammy.worth@sbcglobal.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>816-830-0207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tammyworth1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robert Jasmer, MD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical Reviewer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor@everydayhealth.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>info@everydayhealth.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Robert Jasmer received his BA from Harvard University in Boston in 1986 and his MD from Washington University in St. Louis in 1990. After an internship, residency, and chief residency at Stanford University in California, he became a pulmonary and critical care fellow at the University of California in San Francisco (UCSF), then joined the faculty there in 1997.
+Dr. Jasmer served as the associate program director for the pulmonary and critical care medicine training program at UCSF, directed the UCSF pulmonary and critical care continuing medical education program, and was also the codirector of the medical intensive care unit at San Francisco General Hospital for nine years.
+In 2006, Dr. Jasmer went into private practice in Burlingame, California. He remains a staff physician at the San Francisco Tuberculosis Clinic and on the faculty at UCSF as an associate professor.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>everydayhealth.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Hottest Trends in Eyewear for 2014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel Hennessey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRIBUTOR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RachHen91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rachelhennessey.weebly.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rachel-hennessey-73432344/</t>
+  </si>
+  <si>
+    <t>Private Bank Communications at J.P. Morgan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/rachelhennessey/2013/11/08/the-hottest-trends-in-eyewear-for-2014/#608bdbe3c446</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> J.P. Morgan
+www.forbes.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York man who lost his eyesight 20 years ago has regained nearly all of it - and doctors can't explain why</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dailymail.co.uk/news/article-3996840/Kevin-Coughlin-blind-Leber-Hereditary-Optic-Neuropathy-regains.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAILYMAIL.COM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLEMENCE MICHALLON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter @DailyMail @Femail. Based in NYC, from Paris. Columbia and Sciences Po. Words previously in Vanity Fair, Grazia, RTL, Numero. Opinions mine.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clemence.michallon@mailonline.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 10 Best Polarized Sunglasses for Men</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mensfitness.com/styleandgrooming/fashion/10-best-polarized-sunglasses-men</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christina Simonetti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>christina_simo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elegance With Edge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mensfitness.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/christinasimonetti/</t>
+  </si>
+  <si>
+    <t>Gear guide: Sunglasses for protection and performance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bendbulletin.com/health/4116453-151/gear-guide-sunglasses-for-protection-and-performance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KATHLEEN MCLAUGHLIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>everydayhealth.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kathleen is a technology reporter at The Bulletin. In the past she’s covered government, utilities, transportation, philanthropy and arts for the Indianapolis Business Journal. She’s also covered business at the Sarasota Herald-Tribune (in Florida) and worked at an alternative weekly. She’s originally from St. Louis. In her spare time you can find her exploring Bend and the outdoors with her family, which includes her husband, their dog and toddler.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmclaughlin@bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>news@bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communitylife@bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>City Desk, 541-383-0367</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community Life, 541-383-0351</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sports@bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports, 541-383-0359</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business news, 541-383-0360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business@bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obits@bendbulletin.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obituaries, 541-617-7825, fax 541-322-7254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bendbulletin.com/ContactUs/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9619,7 +9978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -9780,6 +10139,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10053,22 +10427,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H538" sqref="H538"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A552" sqref="A552:A555"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -10090,7 +10464,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10146,7 +10520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10177,7 +10551,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -10208,7 +10582,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -10239,7 +10613,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -10274,7 +10648,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -10320,7 +10694,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -10353,7 +10727,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -10395,7 +10769,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -10430,7 +10804,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -10469,7 +10843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -10499,7 +10873,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -10531,7 +10905,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -10566,7 +10940,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -10590,7 +10964,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -10627,7 +11001,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -10664,7 +11038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -10699,7 +11073,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -10730,7 +11104,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -10769,7 +11143,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -10800,7 +11174,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -10827,7 +11201,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -10860,7 +11234,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -10893,7 +11267,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -10924,7 +11298,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -10961,7 +11335,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -10996,7 +11370,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -11033,7 +11407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -11064,7 +11438,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -11097,7 +11471,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -11126,7 +11500,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -11153,7 +11527,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -11184,7 +11558,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -11215,7 +11589,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -11253,7 +11627,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -11286,7 +11660,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -11313,7 +11687,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -11348,7 +11722,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -11383,7 +11757,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -11420,7 +11794,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -11453,7 +11827,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -11491,7 +11865,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -11526,7 +11900,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -11557,7 +11931,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -11596,7 +11970,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -11631,7 +12005,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -11666,7 +12040,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -11699,7 +12073,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -11734,7 +12108,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -11765,7 +12139,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -11790,7 +12164,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -11829,7 +12203,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -11863,7 +12237,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -11898,7 +12272,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -11935,7 +12309,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -11977,7 +12351,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -12010,7 +12384,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -12043,7 +12417,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -12074,7 +12448,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -12109,7 +12483,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -12138,7 +12512,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -12167,7 +12541,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -12198,7 +12572,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -12227,7 +12601,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -12258,7 +12632,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -12289,7 +12663,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -12322,7 +12696,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -12353,7 +12727,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -12388,7 +12762,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -12423,7 +12797,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -12456,7 +12830,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -12489,7 +12863,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -12526,7 +12900,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -12563,7 +12937,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -12598,7 +12972,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -12633,7 +13007,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -12664,7 +13038,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -12699,7 +13073,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -12734,7 +13108,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -12763,7 +13137,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -12788,7 +13162,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -12815,7 +13189,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -12842,7 +13216,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -12869,7 +13243,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -12898,7 +13272,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -12925,7 +13299,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -12962,7 +13336,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -12997,7 +13371,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -13032,7 +13406,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -13063,7 +13437,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -13094,7 +13468,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -13123,7 +13497,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -13160,7 +13534,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -13201,7 +13575,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -13238,7 +13612,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -13279,7 +13653,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -13307,7 +13681,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -13340,7 +13714,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -13373,7 +13747,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -13408,7 +13782,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -13447,7 +13821,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -13478,7 +13852,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -13509,7 +13883,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -13546,7 +13920,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -13587,7 +13961,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>679</v>
       </c>
@@ -13624,7 +13998,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>679</v>
       </c>
@@ -13661,7 +14035,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>679</v>
       </c>
@@ -13698,7 +14072,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>679</v>
       </c>
@@ -13737,7 +14111,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>679</v>
       </c>
@@ -13774,7 +14148,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>679</v>
       </c>
@@ -13805,7 +14179,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>679</v>
       </c>
@@ -13836,7 +14210,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>679</v>
       </c>
@@ -13873,7 +14247,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>679</v>
       </c>
@@ -13914,7 +14288,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>679</v>
       </c>
@@ -13951,7 +14325,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>679</v>
       </c>
@@ -13974,7 +14348,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>679</v>
       </c>
@@ -14013,7 +14387,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>679</v>
       </c>
@@ -14050,7 +14424,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>679</v>
       </c>
@@ -14087,7 +14461,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>679</v>
       </c>
@@ -14118,7 +14492,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>679</v>
       </c>
@@ -14151,7 +14525,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>679</v>
       </c>
@@ -14192,7 +14566,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>679</v>
       </c>
@@ -14227,7 +14601,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14258,7 +14632,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>1178</v>
       </c>
@@ -14289,7 +14663,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>1179</v>
       </c>
@@ -14320,7 +14694,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>1180</v>
       </c>
@@ -14359,7 +14733,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>1180</v>
       </c>
@@ -14394,7 +14768,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14429,7 +14803,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14458,7 +14832,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>792</v>
       </c>
@@ -14493,7 +14867,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>791</v>
       </c>
@@ -14522,7 +14896,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>1182</v>
       </c>
@@ -14555,7 +14929,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14582,7 +14956,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>1178</v>
       </c>
@@ -14619,7 +14993,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14654,7 +15028,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14697,7 +15071,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>1182</v>
       </c>
@@ -14730,7 +15104,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14765,7 +15139,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>1178</v>
       </c>
@@ -14802,7 +15176,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14839,7 +15213,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>1179</v>
       </c>
@@ -14876,7 +15250,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>1054</v>
       </c>
@@ -14913,7 +15287,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>1180</v>
       </c>
@@ -14950,7 +15324,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>1178</v>
       </c>
@@ -14979,7 +15353,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>881</v>
       </c>
@@ -15018,7 +15392,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>881</v>
       </c>
@@ -15061,7 +15435,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -15084,7 +15458,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -15107,7 +15481,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>930</v>
       </c>
@@ -15136,7 +15510,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>930</v>
       </c>
@@ -15165,7 +15539,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>930</v>
       </c>
@@ -15194,7 +15568,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>930</v>
       </c>
@@ -15223,7 +15597,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>930</v>
       </c>
@@ -15252,7 +15626,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>930</v>
       </c>
@@ -15281,7 +15655,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>930</v>
       </c>
@@ -15310,7 +15684,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>930</v>
       </c>
@@ -15339,7 +15713,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>930</v>
       </c>
@@ -15368,7 +15742,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>930</v>
       </c>
@@ -15399,7 +15773,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>930</v>
       </c>
@@ -15430,7 +15804,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>930</v>
       </c>
@@ -15461,7 +15835,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>930</v>
       </c>
@@ -15490,7 +15864,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>930</v>
       </c>
@@ -15519,7 +15893,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>930</v>
       </c>
@@ -15548,7 +15922,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>930</v>
       </c>
@@ -15577,7 +15951,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>930</v>
       </c>
@@ -15606,7 +15980,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>930</v>
       </c>
@@ -15635,7 +16009,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>930</v>
       </c>
@@ -15664,7 +16038,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>930</v>
       </c>
@@ -15693,7 +16067,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>930</v>
       </c>
@@ -15722,7 +16096,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>930</v>
       </c>
@@ -15751,7 +16125,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>930</v>
       </c>
@@ -15780,7 +16154,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>930</v>
       </c>
@@ -15809,7 +16183,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>930</v>
       </c>
@@ -15838,7 +16212,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>930</v>
       </c>
@@ -15867,7 +16241,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>930</v>
       </c>
@@ -15896,7 +16270,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>930</v>
       </c>
@@ -15925,7 +16299,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>930</v>
       </c>
@@ -15954,7 +16328,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>930</v>
       </c>
@@ -15983,7 +16357,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>930</v>
       </c>
@@ -16012,7 +16386,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>930</v>
       </c>
@@ -16041,7 +16415,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>930</v>
       </c>
@@ -16070,7 +16444,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>930</v>
       </c>
@@ -16099,7 +16473,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>930</v>
       </c>
@@ -16128,7 +16502,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>930</v>
       </c>
@@ -16155,7 +16529,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>930</v>
       </c>
@@ -16184,7 +16558,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>930</v>
       </c>
@@ -16213,7 +16587,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>930</v>
       </c>
@@ -16242,7 +16616,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>930</v>
       </c>
@@ -16271,7 +16645,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>930</v>
       </c>
@@ -16300,7 +16674,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>930</v>
       </c>
@@ -16327,7 +16701,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>930</v>
       </c>
@@ -16356,7 +16730,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>930</v>
       </c>
@@ -16385,7 +16759,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>930</v>
       </c>
@@ -16414,7 +16788,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>930</v>
       </c>
@@ -16441,7 +16815,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>930</v>
       </c>
@@ -16470,7 +16844,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>930</v>
       </c>
@@ -16497,7 +16871,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>930</v>
       </c>
@@ -16526,7 +16900,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>930</v>
       </c>
@@ -16555,7 +16929,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>930</v>
       </c>
@@ -16584,7 +16958,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>930</v>
       </c>
@@ -16613,7 +16987,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
         <v>930</v>
       </c>
@@ -16642,7 +17016,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
         <v>930</v>
       </c>
@@ -16671,7 +17045,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>930</v>
       </c>
@@ -16700,7 +17074,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>930</v>
       </c>
@@ -16729,7 +17103,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
         <v>930</v>
       </c>
@@ -16758,7 +17132,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
         <v>930</v>
       </c>
@@ -16787,7 +17161,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
         <v>930</v>
       </c>
@@ -16816,7 +17190,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
         <v>1133</v>
       </c>
@@ -16855,7 +17229,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
         <v>1133</v>
       </c>
@@ -16884,7 +17258,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
         <v>1133</v>
       </c>
@@ -16911,7 +17285,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
         <v>1133</v>
       </c>
@@ -16940,7 +17314,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
         <v>1133</v>
       </c>
@@ -16969,7 +17343,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17000,7 +17374,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17024,7 +17398,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17049,7 +17423,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17074,7 +17448,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17099,7 +17473,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17124,7 +17498,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17149,7 +17523,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17174,7 +17548,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17199,7 +17573,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17224,7 +17598,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17263,7 +17637,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17298,7 +17672,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17335,7 +17709,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17380,7 +17754,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17409,7 +17783,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17442,7 +17816,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17475,7 +17849,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17512,7 +17886,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17547,7 +17921,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17584,7 +17958,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17621,7 +17995,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17660,7 +18034,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17697,7 +18071,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17738,7 +18112,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17773,7 +18147,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17810,7 +18184,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17847,7 +18221,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17874,7 +18248,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17909,7 +18283,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17952,7 +18326,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="36" t="s">
         <v>1132</v>
       </c>
@@ -17993,7 +18367,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18032,7 +18406,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18069,7 +18443,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18108,7 +18482,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18149,7 +18523,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18190,7 +18564,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18218,7 +18592,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18255,7 +18629,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18296,7 +18670,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18329,7 +18703,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18368,7 +18742,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18401,7 +18775,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="34" t="s">
         <v>1431</v>
       </c>
@@ -18428,7 +18802,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="34" t="s">
         <v>1431</v>
       </c>
@@ -18455,7 +18829,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18488,7 +18862,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18527,7 +18901,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18556,7 +18930,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="36" t="s">
         <v>1132</v>
       </c>
@@ -18597,7 +18971,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18626,7 +19000,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18655,7 +19029,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18684,7 +19058,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18713,7 +19087,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18742,7 +19116,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18771,7 +19145,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18800,7 +19174,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18829,7 +19203,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18858,7 +19232,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18887,7 +19261,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18914,7 +19288,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18941,7 +19315,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18968,7 +19342,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="36" t="s">
         <v>1453</v>
       </c>
@@ -18995,7 +19369,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19022,7 +19396,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19049,7 +19423,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19076,7 +19450,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19103,7 +19477,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19130,7 +19504,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19157,7 +19531,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19184,7 +19558,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19211,7 +19585,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19238,7 +19612,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19265,7 +19639,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19292,7 +19666,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19319,7 +19693,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19346,7 +19720,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19373,7 +19747,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19400,7 +19774,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19427,7 +19801,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19454,7 +19828,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19481,7 +19855,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19508,7 +19882,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19535,7 +19909,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19562,7 +19936,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19589,7 +19963,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19616,7 +19990,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19643,7 +20017,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19670,7 +20044,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19697,7 +20071,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19724,7 +20098,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19751,7 +20125,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19778,7 +20152,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19805,7 +20179,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19832,7 +20206,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19859,7 +20233,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19886,7 +20260,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19913,7 +20287,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19940,7 +20314,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19967,7 +20341,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="36" t="s">
         <v>1453</v>
       </c>
@@ -19994,7 +20368,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20021,7 +20395,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20048,7 +20422,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20075,7 +20449,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20102,7 +20476,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20129,7 +20503,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20156,7 +20530,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20183,7 +20557,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20210,7 +20584,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20237,7 +20611,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20264,7 +20638,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20291,7 +20665,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20318,7 +20692,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20345,7 +20719,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20372,7 +20746,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20399,7 +20773,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20426,7 +20800,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20453,7 +20827,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20480,7 +20854,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20507,7 +20881,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20534,7 +20908,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20561,7 +20935,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20588,7 +20962,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20615,7 +20989,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20642,7 +21016,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20669,7 +21043,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20696,7 +21070,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20723,7 +21097,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20750,7 +21124,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20777,7 +21151,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20804,7 +21178,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20831,7 +21205,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20858,7 +21232,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20885,7 +21259,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20912,7 +21286,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20939,7 +21313,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20966,7 +21340,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="36" t="s">
         <v>1453</v>
       </c>
@@ -20993,7 +21367,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21020,7 +21394,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21047,7 +21421,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21074,7 +21448,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21101,7 +21475,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21128,7 +21502,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21155,7 +21529,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21182,7 +21556,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21209,7 +21583,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21236,7 +21610,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21263,7 +21637,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21290,7 +21664,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21317,7 +21691,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21344,7 +21718,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21371,7 +21745,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21398,7 +21772,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21425,7 +21799,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21452,7 +21826,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21479,7 +21853,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21506,7 +21880,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21533,7 +21907,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21560,7 +21934,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21587,7 +21961,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21614,7 +21988,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21641,7 +22015,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21668,7 +22042,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21695,7 +22069,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21722,7 +22096,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21749,7 +22123,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21776,7 +22150,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21803,7 +22177,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21830,7 +22204,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21857,7 +22231,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21884,7 +22258,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21911,7 +22285,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21938,7 +22312,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21965,7 +22339,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="36" t="s">
         <v>1453</v>
       </c>
@@ -21992,7 +22366,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22019,7 +22393,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22046,7 +22420,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22073,7 +22447,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22100,7 +22474,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22127,7 +22501,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22154,7 +22528,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22181,7 +22555,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22208,7 +22582,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22235,7 +22609,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22262,7 +22636,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22289,7 +22663,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22316,7 +22690,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22343,7 +22717,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22370,7 +22744,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22397,7 +22771,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22424,7 +22798,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22451,7 +22825,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22478,7 +22852,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22505,7 +22879,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22532,7 +22906,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22559,7 +22933,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22586,7 +22960,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22613,7 +22987,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22640,7 +23014,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22667,7 +23041,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22694,7 +23068,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22721,7 +23095,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22748,7 +23122,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22775,7 +23149,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22802,7 +23176,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22829,7 +23203,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22856,7 +23230,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22883,7 +23257,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22910,7 +23284,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22937,7 +23311,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22964,7 +23338,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="36" t="s">
         <v>1453</v>
       </c>
@@ -22991,7 +23365,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23018,7 +23392,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23045,7 +23419,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23072,7 +23446,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23099,7 +23473,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23126,7 +23500,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23153,7 +23527,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23180,7 +23554,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23207,7 +23581,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23234,7 +23608,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23261,7 +23635,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23288,7 +23662,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23315,7 +23689,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23342,7 +23716,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23369,7 +23743,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23396,7 +23770,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23423,7 +23797,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23450,7 +23824,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23477,7 +23851,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23504,7 +23878,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23531,7 +23905,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23558,7 +23932,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23585,7 +23959,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23612,7 +23986,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23639,7 +24013,7 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23666,7 +24040,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23693,7 +24067,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="36" t="s">
         <v>1453</v>
       </c>
@@ -23720,7 +24094,7 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23747,7 +24121,7 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1">
+    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23774,7 +24148,7 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1">
+    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23801,7 +24175,7 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1">
+    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23828,7 +24202,7 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1">
+    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23855,7 +24229,7 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1">
+    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23882,7 +24256,7 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1">
+    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23909,7 +24283,7 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1">
+    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23936,7 +24310,7 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1">
+    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23963,7 +24337,7 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1">
+    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="54" t="s">
         <v>1453</v>
       </c>
@@ -23990,7 +24364,7 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1">
+    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24017,7 +24391,7 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1">
+    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24044,7 +24418,7 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1">
+    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24071,7 +24445,7 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1">
+    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24098,7 +24472,7 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1">
+    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24125,7 +24499,7 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1">
+    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24152,7 +24526,7 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1">
+    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24179,7 +24553,7 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1">
+    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24206,7 +24580,7 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1">
+    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24233,7 +24607,7 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1">
+    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24260,7 +24634,7 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1">
+    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24287,7 +24661,7 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1">
+    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24314,7 +24688,7 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1">
+    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24341,7 +24715,7 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1">
+    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24368,7 +24742,7 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1">
+    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24395,7 +24769,7 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1">
+    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24422,7 +24796,7 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1">
+    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24449,7 +24823,7 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1">
+    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24476,7 +24850,7 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1">
+    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24503,7 +24877,7 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1">
+    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24530,7 +24904,7 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1">
+    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24557,7 +24931,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24584,7 +24958,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24611,7 +24985,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24638,7 +25012,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24665,7 +25039,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24692,7 +25066,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24719,7 +25093,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24746,7 +25120,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24773,7 +25147,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24800,7 +25174,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24827,7 +25201,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24854,7 +25228,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24881,7 +25255,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24908,7 +25282,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24935,7 +25309,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24962,7 +25336,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="54" t="s">
         <v>1453</v>
       </c>
@@ -24989,7 +25363,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="54" t="s">
         <v>1453</v>
       </c>
@@ -25016,7 +25390,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="54" t="s">
         <v>1453</v>
       </c>
@@ -25043,7 +25417,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="54" t="s">
         <v>1453</v>
       </c>
@@ -25070,7 +25444,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="54" t="s">
         <v>1453</v>
       </c>
@@ -25097,7 +25471,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="54" t="s">
         <v>1453</v>
       </c>
@@ -25126,7 +25500,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="54" t="s">
         <v>1453</v>
       </c>
@@ -25153,7 +25527,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25196,7 +25570,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="36" t="s">
         <v>1966</v>
       </c>
@@ -25219,7 +25593,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25256,7 +25630,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25295,7 +25669,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25329,7 +25703,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25356,7 +25730,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25395,7 +25769,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25434,7 +25808,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25469,7 +25843,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="36" t="s">
         <v>1961</v>
       </c>
@@ -25502,8 +25876,8 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A513" s="33" t="s">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B513" s="35" t="s">
@@ -25529,8 +25903,8 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A514" s="33" t="s">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B514" s="35" t="s">
@@ -25560,8 +25934,8 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A515" s="33" t="s">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B515" s="35" t="s">
@@ -25591,8 +25965,8 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A516" s="33" t="s">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B516" s="35" t="s">
@@ -25622,8 +25996,8 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A517" t="s">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="38" t="s">
         <v>2074</v>
       </c>
       <c r="B517" s="35" t="s">
@@ -25651,8 +26025,8 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A518" s="33" t="s">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B518" s="35" t="s">
@@ -25682,8 +26056,8 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A519" s="33" t="s">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B519" s="35" t="s">
@@ -25713,8 +26087,8 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A520" s="33" t="s">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B520" s="35" t="s">
@@ -25744,8 +26118,8 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A521" s="33" t="s">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B521" s="42" t="s">
@@ -25773,8 +26147,8 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A522" s="33" t="s">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B522" s="42" t="s">
@@ -25802,8 +26176,8 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A523" s="33" t="s">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B523" s="42" t="s">
@@ -25831,8 +26205,8 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A524" s="33" t="s">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B524" s="42" t="s">
@@ -25860,8 +26234,8 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A525" s="33" t="s">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B525" s="42" t="s">
@@ -25889,8 +26263,8 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A526" s="33" t="s">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B526" s="42" t="s">
@@ -25918,8 +26292,8 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A527" s="33" t="s">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B527" s="42" t="s">
@@ -25947,8 +26321,8 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A528" s="33" t="s">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B528" s="42" t="s">
@@ -25976,8 +26350,8 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A529" s="33" t="s">
+    <row r="529" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B529" s="42" t="s">
@@ -26005,8 +26379,8 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A530" s="33" t="s">
+    <row r="530" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B530" s="42" t="s">
@@ -26034,8 +26408,8 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A531" s="33" t="s">
+    <row r="531" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B531" s="42" t="s">
@@ -26063,8 +26437,8 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A532" s="33" t="s">
+    <row r="532" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B532" s="42" t="s">
@@ -26090,8 +26464,8 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A533" s="33" t="s">
+    <row r="533" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B533" s="42" t="s">
@@ -26117,8 +26491,8 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A534" s="33" t="s">
+    <row r="534" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B534" s="42" t="s">
@@ -26146,8 +26520,8 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A535" s="33" t="s">
+    <row r="535" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="59" t="s">
         <v>2027</v>
       </c>
       <c r="B535" s="13"/>
@@ -26169,8 +26543,8 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A536" s="33" t="s">
+    <row r="536" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="59" t="s">
         <v>1132</v>
       </c>
       <c r="B536" s="42" t="s">
@@ -26202,13 +26576,15 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A537" s="20"/>
+    <row r="537" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="59" t="s">
+        <v>1132</v>
+      </c>
       <c r="B537" s="42" t="s">
         <v>2132</v>
       </c>
       <c r="C537" s="49" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D537" s="14"/>
       <c r="E537" s="40" t="s">
@@ -26218,10 +26594,10 @@
         <v>2131</v>
       </c>
       <c r="G537" s="40" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="H537" s="41" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="I537" s="14"/>
       <c r="J537" s="14"/>
@@ -26233,72 +26609,102 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A538" s="20"/>
+    <row r="538" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="59" t="s">
+        <v>1132</v>
+      </c>
       <c r="B538" s="42" t="s">
-        <v>2134</v>
+        <v>2144</v>
       </c>
       <c r="C538" s="45"/>
       <c r="D538" s="14"/>
       <c r="E538" s="40" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F538" s="40" t="s">
         <v>2133</v>
       </c>
       <c r="G538" s="14"/>
       <c r="H538" s="41" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="I538" s="14"/>
       <c r="J538" s="14"/>
       <c r="K538" s="40" t="s">
+        <v>2139</v>
+      </c>
+      <c r="L538" s="14" t="s">
         <v>2140</v>
       </c>
-      <c r="L538" s="14" t="s">
+      <c r="M538" s="40" t="s">
         <v>2141</v>
       </c>
-      <c r="M538" s="40" t="s">
+      <c r="N538" s="14" t="s">
         <v>2142</v>
-      </c>
-      <c r="N538" s="14" t="s">
-        <v>2143</v>
       </c>
       <c r="O538" s="14"/>
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A539" s="20"/>
-      <c r="B539" s="13"/>
+    <row r="539" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B539" s="35" t="s">
+        <v>2146</v>
+      </c>
       <c r="C539" s="45"/>
       <c r="D539" s="14"/>
-      <c r="E539" s="14"/>
-      <c r="F539" s="14"/>
+      <c r="E539" s="34" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F539" s="34" t="s">
+        <v>2147</v>
+      </c>
       <c r="G539" s="14"/>
-      <c r="H539" s="15"/>
+      <c r="H539" s="37" t="s">
+        <v>2148</v>
+      </c>
       <c r="I539" s="14"/>
       <c r="J539" s="14"/>
-      <c r="K539" s="14"/>
+      <c r="K539" s="34" t="s">
+        <v>2149</v>
+      </c>
       <c r="L539" s="14"/>
       <c r="M539" s="14"/>
-      <c r="N539" s="14"/>
-      <c r="O539" s="14"/>
+      <c r="N539" s="34" t="s">
+        <v>2151</v>
+      </c>
+      <c r="O539" s="34" t="s">
+        <v>2150</v>
+      </c>
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A540" s="20"/>
-      <c r="B540" s="13"/>
+    <row r="540" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B540" s="35" t="s">
+        <v>2154</v>
+      </c>
       <c r="C540" s="45"/>
       <c r="D540" s="14"/>
-      <c r="E540" s="14"/>
-      <c r="F540" s="14"/>
+      <c r="E540" s="34" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F540" s="34" t="s">
+        <v>2153</v>
+      </c>
       <c r="G540" s="14"/>
-      <c r="H540" s="15"/>
+      <c r="H540" s="37" t="s">
+        <v>2156</v>
+      </c>
       <c r="I540" s="14"/>
       <c r="J540" s="14"/>
-      <c r="K540" s="14"/>
+      <c r="K540" s="34" t="s">
+        <v>2155</v>
+      </c>
       <c r="L540" s="14"/>
       <c r="M540" s="14"/>
       <c r="N540" s="14"/>
@@ -26306,72 +26712,141 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A541" s="20"/>
-      <c r="B541" s="13"/>
+    <row r="541" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B541" s="35" t="s">
+        <v>2159</v>
+      </c>
       <c r="C541" s="45"/>
       <c r="D541" s="14"/>
-      <c r="E541" s="14"/>
-      <c r="F541" s="14"/>
+      <c r="E541" s="55" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F541" s="34" t="s">
+        <v>2158</v>
+      </c>
       <c r="G541" s="14"/>
-      <c r="H541" s="15"/>
+      <c r="H541" s="37" t="s">
+        <v>2161</v>
+      </c>
       <c r="I541" s="14"/>
       <c r="J541" s="14"/>
-      <c r="K541" s="14"/>
-      <c r="L541" s="14"/>
+      <c r="K541" s="34" t="s">
+        <v>2160</v>
+      </c>
+      <c r="L541" s="34" t="s">
+        <v>2162</v>
+      </c>
       <c r="M541" s="14"/>
       <c r="N541" s="14"/>
       <c r="O541" s="14"/>
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A542" s="20"/>
-      <c r="B542" s="13"/>
-      <c r="C542" s="45"/>
+    <row r="542" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B542" s="35" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C542" s="48" t="s">
+        <v>2169</v>
+      </c>
       <c r="D542" s="14"/>
-      <c r="E542" s="14"/>
-      <c r="F542" s="14"/>
-      <c r="G542" s="14"/>
-      <c r="H542" s="15"/>
+      <c r="E542" s="34" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F542" s="34" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G542" s="34" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H542" s="37" t="s">
+        <v>2167</v>
+      </c>
       <c r="I542" s="14"/>
-      <c r="J542" s="14"/>
-      <c r="K542" s="14"/>
-      <c r="L542" s="14"/>
+      <c r="J542" s="34" t="s">
+        <v>2168</v>
+      </c>
+      <c r="K542" s="34" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L542" s="34" t="s">
+        <v>2170</v>
+      </c>
       <c r="M542" s="14"/>
       <c r="N542" s="14"/>
-      <c r="O542" s="14"/>
+      <c r="O542" s="34" t="s">
+        <v>2171</v>
+      </c>
       <c r="P542" s="16"/>
       <c r="Q542" s="17"/>
-    </row>
-    <row r="543" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A543" s="20"/>
-      <c r="B543" s="13"/>
-      <c r="C543" s="45"/>
-      <c r="D543" s="14"/>
-      <c r="E543" s="14"/>
-      <c r="F543" s="14"/>
-      <c r="G543" s="14"/>
-      <c r="H543" s="15"/>
+      <c r="R542" s="56" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="543" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B543" s="35" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C543" s="48" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D543" s="34" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E543" s="34" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F543" s="34" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G543" s="34" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H543" s="37" t="s">
+        <v>2178</v>
+      </c>
       <c r="I543" s="14"/>
-      <c r="J543" s="14"/>
-      <c r="K543" s="14"/>
+      <c r="J543" s="34" t="s">
+        <v>2180</v>
+      </c>
+      <c r="K543" s="34" t="s">
+        <v>2183</v>
+      </c>
       <c r="L543" s="14"/>
       <c r="M543" s="14"/>
       <c r="N543" s="14"/>
       <c r="O543" s="14"/>
       <c r="P543" s="16"/>
-      <c r="Q543" s="17"/>
-    </row>
-    <row r="544" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A544" s="20"/>
-      <c r="B544" s="13"/>
+      <c r="Q543" s="57" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="544" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="56" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B544" s="35" t="s">
+        <v>2184</v>
+      </c>
       <c r="C544" s="45"/>
       <c r="D544" s="14"/>
       <c r="E544" s="14"/>
       <c r="F544" s="14"/>
-      <c r="G544" s="14"/>
-      <c r="H544" s="15"/>
+      <c r="G544" s="34" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H544" s="37" t="s">
+        <v>2188</v>
+      </c>
       <c r="I544" s="14"/>
       <c r="J544" s="14"/>
       <c r="K544" s="14"/>
@@ -26382,10 +26857,14 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A545" s="20"/>
+    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="56" t="s">
+        <v>2189</v>
+      </c>
       <c r="B545" s="13"/>
-      <c r="C545" s="45"/>
+      <c r="C545" s="48" t="s">
+        <v>2186</v>
+      </c>
       <c r="D545" s="14"/>
       <c r="E545" s="14"/>
       <c r="F545" s="14"/>
@@ -26401,10 +26880,14 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A546" s="20"/>
+    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="59" t="s">
+        <v>2216</v>
+      </c>
       <c r="B546" s="13"/>
-      <c r="C546" s="45"/>
+      <c r="C546" s="48" t="s">
+        <v>2187</v>
+      </c>
       <c r="D546" s="14"/>
       <c r="E546" s="14"/>
       <c r="F546" s="14"/>
@@ -26420,34 +26903,68 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A547" s="20"/>
-      <c r="B547" s="13"/>
-      <c r="C547" s="45"/>
+    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B547" s="35" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C547" s="58" t="s">
+        <v>2198</v>
+      </c>
       <c r="D547" s="14"/>
-      <c r="E547" s="14"/>
-      <c r="F547" s="14"/>
-      <c r="G547" s="14"/>
-      <c r="H547" s="15"/>
+      <c r="E547" s="34" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F547" s="34" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G547" s="34" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H547" s="37" t="s">
+        <v>2196</v>
+      </c>
       <c r="I547" s="14"/>
-      <c r="J547" s="14"/>
-      <c r="K547" s="14"/>
-      <c r="L547" s="14"/>
+      <c r="J547" s="34" t="s">
+        <v>2194</v>
+      </c>
+      <c r="K547" s="34" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L547" s="14" t="s">
+        <v>2195</v>
+      </c>
       <c r="M547" s="14"/>
       <c r="N547" s="14"/>
       <c r="O547" s="14"/>
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A548" s="20"/>
-      <c r="B548" s="13"/>
-      <c r="C548" s="45"/>
-      <c r="D548" s="14"/>
-      <c r="E548" s="14"/>
-      <c r="F548" s="14"/>
+    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B548" s="35" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C548" s="48" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D548" s="34" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E548" s="34" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F548" s="34" t="s">
+        <v>2200</v>
+      </c>
       <c r="G548" s="14"/>
-      <c r="H548" s="15"/>
+      <c r="H548" s="37" t="s">
+        <v>2203</v>
+      </c>
       <c r="I548" s="14"/>
       <c r="J548" s="14"/>
       <c r="K548" s="14"/>
@@ -26458,34 +26975,66 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A549" s="20"/>
-      <c r="B549" s="13"/>
+    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B549" s="35" t="s">
+        <v>2207</v>
+      </c>
       <c r="C549" s="45"/>
-      <c r="D549" s="14"/>
-      <c r="E549" s="14"/>
-      <c r="F549" s="14"/>
+      <c r="D549" s="34" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E549" s="34" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F549" s="34" t="s">
+        <v>2206</v>
+      </c>
       <c r="G549" s="14"/>
-      <c r="H549" s="15"/>
+      <c r="H549" s="37" t="s">
+        <v>2209</v>
+      </c>
       <c r="I549" s="14"/>
       <c r="J549" s="14"/>
-      <c r="K549" s="14"/>
-      <c r="L549" s="14"/>
+      <c r="K549" s="34" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L549" s="14" t="s">
+        <v>2211</v>
+      </c>
       <c r="M549" s="14"/>
       <c r="N549" s="14"/>
       <c r="O549" s="14"/>
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A550" s="20"/>
-      <c r="B550" s="13"/>
-      <c r="C550" s="45"/>
-      <c r="D550" s="14"/>
-      <c r="E550" s="14"/>
-      <c r="F550" s="14"/>
-      <c r="G550" s="14"/>
-      <c r="H550" s="15"/>
+    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B550" s="35" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C550" s="48" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D550" s="34" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E550" s="34" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F550" s="34" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G550" s="34" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H550" s="37" t="s">
+        <v>2217</v>
+      </c>
       <c r="I550" s="14"/>
       <c r="J550" s="14"/>
       <c r="K550" s="14"/>
@@ -26496,10 +27045,16 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A551" s="20"/>
-      <c r="B551" s="13"/>
-      <c r="C551" s="45"/>
+    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="36" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B551" s="35" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C551" s="48" t="s">
+        <v>2220</v>
+      </c>
       <c r="D551" s="14"/>
       <c r="E551" s="14"/>
       <c r="F551" s="14"/>
@@ -26515,10 +27070,16 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A552" s="20"/>
-      <c r="B552" s="13"/>
-      <c r="C552" s="45"/>
+    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="36" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B552" s="35" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C552" s="48" t="s">
+        <v>2221</v>
+      </c>
       <c r="D552" s="14"/>
       <c r="E552" s="14"/>
       <c r="F552" s="14"/>
@@ -26534,10 +27095,16 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A553" s="20"/>
-      <c r="B553" s="13"/>
-      <c r="C553" s="45"/>
+    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="36" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B553" s="35" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C553" s="48" t="s">
+        <v>2224</v>
+      </c>
       <c r="D553" s="14"/>
       <c r="E553" s="14"/>
       <c r="F553" s="14"/>
@@ -26553,10 +27120,16 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A554" s="20"/>
-      <c r="B554" s="13"/>
-      <c r="C554" s="45"/>
+    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="36" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B554" s="35" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C554" s="48" t="s">
+        <v>2227</v>
+      </c>
       <c r="D554" s="14"/>
       <c r="E554" s="14"/>
       <c r="F554" s="14"/>
@@ -26572,10 +27145,16 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A555" s="20"/>
-      <c r="B555" s="13"/>
-      <c r="C555" s="45"/>
+    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="36" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B555" s="35" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C555" s="48" t="s">
+        <v>2228</v>
+      </c>
       <c r="D555" s="14"/>
       <c r="E555" s="14"/>
       <c r="F555" s="14"/>
@@ -26591,7 +27170,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="20"/>
       <c r="B556" s="13"/>
       <c r="C556" s="45"/>
@@ -26610,7 +27189,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="20"/>
       <c r="B557" s="13"/>
       <c r="C557" s="45"/>
@@ -26629,7 +27208,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="20"/>
       <c r="B558" s="13"/>
       <c r="C558" s="45"/>
@@ -26648,7 +27227,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="20"/>
       <c r="B559" s="13"/>
       <c r="C559" s="45"/>
@@ -26667,7 +27246,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="20"/>
       <c r="B560" s="13"/>
       <c r="C560" s="45"/>
@@ -26686,7 +27265,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="20"/>
       <c r="B561" s="13"/>
       <c r="C561" s="45"/>
@@ -26705,7 +27284,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="20"/>
       <c r="B562" s="13"/>
       <c r="C562" s="45"/>
@@ -26724,7 +27303,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="20"/>
       <c r="B563" s="13"/>
       <c r="C563" s="45"/>
@@ -26743,7 +27322,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="20"/>
       <c r="B564" s="13"/>
       <c r="C564" s="45"/>
@@ -26762,7 +27341,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="20"/>
       <c r="B565" s="13"/>
       <c r="C565" s="45"/>
@@ -26781,7 +27360,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="20"/>
       <c r="B566" s="13"/>
       <c r="C566" s="45"/>
@@ -26800,7 +27379,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="20"/>
       <c r="B567" s="13"/>
       <c r="C567" s="45"/>
@@ -26819,7 +27398,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="20"/>
       <c r="B568" s="13"/>
       <c r="C568" s="45"/>
@@ -26838,7 +27417,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="20"/>
       <c r="B569" s="13"/>
       <c r="C569" s="45"/>
@@ -26857,7 +27436,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="20"/>
       <c r="B570" s="13"/>
       <c r="C570" s="45"/>
@@ -26876,7 +27455,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="20"/>
       <c r="B571" s="13"/>
       <c r="C571" s="45"/>
@@ -26895,7 +27474,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="20"/>
       <c r="B572" s="13"/>
       <c r="C572" s="45"/>
@@ -26914,7 +27493,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="20"/>
       <c r="B573" s="13"/>
       <c r="C573" s="45"/>
@@ -26933,7 +27512,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="20"/>
       <c r="B574" s="13"/>
       <c r="C574" s="45"/>
@@ -26952,7 +27531,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="20"/>
       <c r="B575" s="13"/>
       <c r="C575" s="45"/>
@@ -26971,7 +27550,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="20"/>
       <c r="B576" s="13"/>
       <c r="C576" s="45"/>
@@ -26990,7 +27569,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="20"/>
       <c r="B577" s="13"/>
       <c r="C577" s="45"/>
@@ -27009,7 +27588,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="20"/>
       <c r="B578" s="13"/>
       <c r="C578" s="45"/>
@@ -27036,20 +27615,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -27057,7 +27636,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -27065,7 +27644,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>597</v>
       </c>
@@ -27073,7 +27652,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>598</v>
       </c>
@@ -27081,7 +27660,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>678</v>
       </c>
@@ -27089,7 +27668,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>1184</v>
       </c>
@@ -27097,15 +27676,15 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>1132</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>1149</v>
       </c>
@@ -27113,12 +27692,12 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>1165</v>
       </c>
@@ -27126,7 +27705,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>1453</v>
       </c>
@@ -27137,13 +27716,13 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="33" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>2027</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="2233">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -9669,10 +9669,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>kmclaughlin@bendbulletin.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>technology reporter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -9718,6 +9714,19 @@
   </si>
   <si>
     <t>http://www.bendbulletin.com/ContactUs/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kathleenmclaughlin.net/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmclaughlin@bendbulletin.com;
+kathleen.e.mclaughlin@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10438,8 +10447,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A552" sqref="A552:A555"/>
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L550" sqref="L550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27018,7 +27027,7 @@
         <v>2215</v>
       </c>
       <c r="C550" s="48" t="s">
-        <v>2218</v>
+        <v>2231</v>
       </c>
       <c r="D550" s="34" t="s">
         <v>2214</v>
@@ -27030,14 +27039,18 @@
         <v>2213</v>
       </c>
       <c r="G550" s="34" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="H550" s="37" t="s">
         <v>2217</v>
       </c>
       <c r="I550" s="14"/>
-      <c r="J550" s="14"/>
-      <c r="K550" s="14"/>
+      <c r="J550" s="34" t="s">
+        <v>2230</v>
+      </c>
+      <c r="K550" s="34" t="s">
+        <v>2232</v>
+      </c>
       <c r="L550" s="14"/>
       <c r="M550" s="14"/>
       <c r="N550" s="14"/>
@@ -27047,13 +27060,13 @@
     </row>
     <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="36" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B551" s="35" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C551" s="48" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="D551" s="14"/>
       <c r="E551" s="14"/>
@@ -27072,13 +27085,13 @@
     </row>
     <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="36" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B552" s="35" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C552" s="48" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D552" s="14"/>
       <c r="E552" s="14"/>
@@ -27097,13 +27110,13 @@
     </row>
     <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="36" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B553" s="35" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C553" s="48" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D553" s="14"/>
       <c r="E553" s="14"/>
@@ -27122,13 +27135,13 @@
     </row>
     <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="36" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B554" s="35" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C554" s="48" t="s">
         <v>2226</v>
-      </c>
-      <c r="C554" s="48" t="s">
-        <v>2227</v>
       </c>
       <c r="D554" s="14"/>
       <c r="E554" s="14"/>
@@ -27147,13 +27160,13 @@
     </row>
     <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="36" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B555" s="35" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C555" s="48" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D555" s="14"/>
       <c r="E555" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="2281">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -9810,6 +9810,114 @@
   </si>
   <si>
     <t>jmaiman@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alyson Shontell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mohammed Hadi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brett LoGiurato</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sara Silverstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashley Lutz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt Turner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will Wei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alexei Oreskovic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diane Galligan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ashontell@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US Editor-in-Chief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mhadi@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogiurato@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssilverstein@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alutz@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creative Director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Deputy Edito</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mturner@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwei@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Coast Bureau Chief and Tech Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoreskovic@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dgalligan@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head of Special Projects</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10538,8 +10646,8 @@
   <dimension ref="A1:R578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A561" sqref="A561:A569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27414,13 +27522,21 @@
       <c r="Q560" s="17"/>
     </row>
     <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="20"/>
-      <c r="B561" s="13"/>
-      <c r="C561" s="45"/>
+      <c r="A561" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B561" s="35" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C561" s="48" t="s">
+        <v>2263</v>
+      </c>
       <c r="D561" s="14"/>
       <c r="E561" s="14"/>
       <c r="F561" s="14"/>
-      <c r="G561" s="14"/>
+      <c r="G561" s="34" t="s">
+        <v>2264</v>
+      </c>
       <c r="H561" s="15"/>
       <c r="I561" s="14"/>
       <c r="J561" s="14"/>
@@ -27433,13 +27549,21 @@
       <c r="Q561" s="17"/>
     </row>
     <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="20"/>
-      <c r="B562" s="13"/>
-      <c r="C562" s="45"/>
+      <c r="A562" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B562" s="35" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C562" s="48" t="s">
+        <v>2266</v>
+      </c>
       <c r="D562" s="14"/>
       <c r="E562" s="14"/>
       <c r="F562" s="14"/>
-      <c r="G562" s="14"/>
+      <c r="G562" s="34" t="s">
+        <v>2265</v>
+      </c>
       <c r="H562" s="15"/>
       <c r="I562" s="14"/>
       <c r="J562" s="14"/>
@@ -27452,13 +27576,21 @@
       <c r="Q562" s="17"/>
     </row>
     <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="20"/>
-      <c r="B563" s="13"/>
-      <c r="C563" s="45"/>
+      <c r="A563" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B563" s="35" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C563" s="48" t="s">
+        <v>2267</v>
+      </c>
       <c r="D563" s="14"/>
       <c r="E563" s="14"/>
       <c r="F563" s="14"/>
-      <c r="G563" s="14"/>
+      <c r="G563" s="34" t="s">
+        <v>2268</v>
+      </c>
       <c r="H563" s="15"/>
       <c r="I563" s="14"/>
       <c r="J563" s="14"/>
@@ -27471,13 +27603,21 @@
       <c r="Q563" s="17"/>
     </row>
     <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="20"/>
-      <c r="B564" s="13"/>
-      <c r="C564" s="45"/>
+      <c r="A564" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B564" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C564" s="48" t="s">
+        <v>2269</v>
+      </c>
       <c r="D564" s="14"/>
       <c r="E564" s="14"/>
       <c r="F564" s="14"/>
-      <c r="G564" s="14"/>
+      <c r="G564" s="34" t="s">
+        <v>2270</v>
+      </c>
       <c r="H564" s="15"/>
       <c r="I564" s="14"/>
       <c r="J564" s="14"/>
@@ -27490,13 +27630,21 @@
       <c r="Q564" s="17"/>
     </row>
     <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="20"/>
-      <c r="B565" s="13"/>
-      <c r="C565" s="45"/>
+      <c r="A565" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B565" s="35" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C565" s="48" t="s">
+        <v>2271</v>
+      </c>
       <c r="D565" s="14"/>
       <c r="E565" s="14"/>
       <c r="F565" s="14"/>
-      <c r="G565" s="14"/>
+      <c r="G565" s="34" t="s">
+        <v>2272</v>
+      </c>
       <c r="H565" s="15"/>
       <c r="I565" s="14"/>
       <c r="J565" s="14"/>
@@ -27509,13 +27657,21 @@
       <c r="Q565" s="17"/>
     </row>
     <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="20"/>
-      <c r="B566" s="13"/>
-      <c r="C566" s="45"/>
+      <c r="A566" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B566" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C566" s="48" t="s">
+        <v>2274</v>
+      </c>
       <c r="D566" s="14"/>
       <c r="E566" s="14"/>
       <c r="F566" s="14"/>
-      <c r="G566" s="14"/>
+      <c r="G566" s="34" t="s">
+        <v>2273</v>
+      </c>
       <c r="H566" s="15"/>
       <c r="I566" s="14"/>
       <c r="J566" s="14"/>
@@ -27528,13 +27684,21 @@
       <c r="Q566" s="17"/>
     </row>
     <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="20"/>
-      <c r="B567" s="13"/>
-      <c r="C567" s="45"/>
+      <c r="A567" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B567" s="35" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C567" s="48" t="s">
+        <v>2276</v>
+      </c>
       <c r="D567" s="14"/>
       <c r="E567" s="14"/>
       <c r="F567" s="14"/>
-      <c r="G567" s="14"/>
+      <c r="G567" s="34" t="s">
+        <v>2275</v>
+      </c>
       <c r="H567" s="15"/>
       <c r="I567" s="14"/>
       <c r="J567" s="14"/>
@@ -27547,13 +27711,21 @@
       <c r="Q567" s="17"/>
     </row>
     <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="20"/>
-      <c r="B568" s="13"/>
-      <c r="C568" s="45"/>
+      <c r="A568" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B568" s="35" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C568" s="48" t="s">
+        <v>2278</v>
+      </c>
       <c r="D568" s="14"/>
       <c r="E568" s="14"/>
       <c r="F568" s="14"/>
-      <c r="G568" s="14"/>
+      <c r="G568" s="34" t="s">
+        <v>2277</v>
+      </c>
       <c r="H568" s="15"/>
       <c r="I568" s="14"/>
       <c r="J568" s="14"/>
@@ -27566,13 +27738,21 @@
       <c r="Q568" s="17"/>
     </row>
     <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="20"/>
-      <c r="B569" s="13"/>
-      <c r="C569" s="45"/>
+      <c r="A569" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B569" s="35" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C569" s="48" t="s">
+        <v>2279</v>
+      </c>
       <c r="D569" s="14"/>
       <c r="E569" s="14"/>
       <c r="F569" s="14"/>
-      <c r="G569" s="14"/>
+      <c r="G569" s="34" t="s">
+        <v>2280</v>
+      </c>
       <c r="H569" s="15"/>
       <c r="I569" s="14"/>
       <c r="J569" s="14"/>
@@ -27767,7 +27947,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="2281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="2316">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -9918,6 +9918,146 @@
   </si>
   <si>
     <t>Head of Special Projects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lyndsay Hemphill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lhemphill@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgoldman@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leah Goldman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Josh Barro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbarro@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhudson@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hayley Hudson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global Head of Editorial Partnerships</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkane@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Libby Kane </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deputy Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecohn@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emily Cohn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deputy Editor, Audience Development</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ariel Schwartz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aschwartz@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsmith@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dave Smith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deputy Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven Tweedie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stweedie@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harrison Jacobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deputy Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjacobs@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cadie Thompson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cthompson@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pdacosta@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro da Costa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Audio Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dan Bobkoff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbobkoff@businessinsider.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10643,11 +10783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R578"/>
+  <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A561" sqref="A561:A569"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D581" sqref="D581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27766,12 +27906,18 @@
     </row>
     <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="20"/>
-      <c r="B570" s="13"/>
-      <c r="C570" s="45"/>
+      <c r="B570" s="35" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C570" s="48" t="s">
+        <v>2283</v>
+      </c>
       <c r="D570" s="14"/>
       <c r="E570" s="14"/>
       <c r="F570" s="14"/>
-      <c r="G570" s="14"/>
+      <c r="G570" s="34" t="s">
+        <v>2281</v>
+      </c>
       <c r="H570" s="15"/>
       <c r="I570" s="14"/>
       <c r="J570" s="14"/>
@@ -27785,12 +27931,18 @@
     </row>
     <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="20"/>
-      <c r="B571" s="13"/>
-      <c r="C571" s="45"/>
+      <c r="B571" s="35" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C571" s="48" t="s">
+        <v>2284</v>
+      </c>
       <c r="D571" s="14"/>
       <c r="E571" s="14"/>
       <c r="F571" s="14"/>
-      <c r="G571" s="14"/>
+      <c r="G571" s="34" t="s">
+        <v>2281</v>
+      </c>
       <c r="H571" s="15"/>
       <c r="I571" s="14"/>
       <c r="J571" s="14"/>
@@ -27804,12 +27956,18 @@
     </row>
     <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="20"/>
-      <c r="B572" s="13"/>
-      <c r="C572" s="45"/>
+      <c r="B572" s="35" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C572" s="48" t="s">
+        <v>2288</v>
+      </c>
       <c r="D572" s="14"/>
       <c r="E572" s="14"/>
       <c r="F572" s="14"/>
-      <c r="G572" s="14"/>
+      <c r="G572" s="34" t="s">
+        <v>2286</v>
+      </c>
       <c r="H572" s="15"/>
       <c r="I572" s="14"/>
       <c r="J572" s="14"/>
@@ -27823,12 +27981,18 @@
     </row>
     <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="20"/>
-      <c r="B573" s="13"/>
-      <c r="C573" s="45"/>
+      <c r="B573" s="35" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C573" s="48" t="s">
+        <v>2289</v>
+      </c>
       <c r="D573" s="14"/>
       <c r="E573" s="14"/>
       <c r="F573" s="14"/>
-      <c r="G573" s="14"/>
+      <c r="G573" s="34" t="s">
+        <v>2291</v>
+      </c>
       <c r="H573" s="15"/>
       <c r="I573" s="14"/>
       <c r="J573" s="14"/>
@@ -27842,12 +28006,18 @@
     </row>
     <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="20"/>
-      <c r="B574" s="13"/>
-      <c r="C574" s="45"/>
+      <c r="B574" s="35" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C574" s="48" t="s">
+        <v>2292</v>
+      </c>
       <c r="D574" s="14"/>
       <c r="E574" s="14"/>
       <c r="F574" s="14"/>
-      <c r="G574" s="14"/>
+      <c r="G574" s="34" t="s">
+        <v>2294</v>
+      </c>
       <c r="H574" s="15"/>
       <c r="I574" s="14"/>
       <c r="J574" s="14"/>
@@ -27861,12 +28031,18 @@
     </row>
     <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="20"/>
-      <c r="B575" s="13"/>
-      <c r="C575" s="45"/>
+      <c r="B575" s="35" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C575" s="48" t="s">
+        <v>2295</v>
+      </c>
       <c r="D575" s="14"/>
       <c r="E575" s="14"/>
       <c r="F575" s="14"/>
-      <c r="G575" s="14"/>
+      <c r="G575" s="34" t="s">
+        <v>2297</v>
+      </c>
       <c r="H575" s="15"/>
       <c r="I575" s="14"/>
       <c r="J575" s="14"/>
@@ -27880,12 +28056,18 @@
     </row>
     <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="20"/>
-      <c r="B576" s="13"/>
-      <c r="C576" s="45"/>
+      <c r="B576" s="35" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C576" s="48" t="s">
+        <v>2299</v>
+      </c>
       <c r="D576" s="14"/>
       <c r="E576" s="14"/>
       <c r="F576" s="14"/>
-      <c r="G576" s="14"/>
+      <c r="G576" s="34" t="s">
+        <v>2294</v>
+      </c>
       <c r="H576" s="15"/>
       <c r="I576" s="14"/>
       <c r="J576" s="14"/>
@@ -27899,12 +28081,18 @@
     </row>
     <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="20"/>
-      <c r="B577" s="13"/>
-      <c r="C577" s="45"/>
+      <c r="B577" s="35" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C577" s="48" t="s">
+        <v>2300</v>
+      </c>
       <c r="D577" s="14"/>
       <c r="E577" s="14"/>
       <c r="F577" s="14"/>
-      <c r="G577" s="14"/>
+      <c r="G577" s="34" t="s">
+        <v>2294</v>
+      </c>
       <c r="H577" s="15"/>
       <c r="I577" s="14"/>
       <c r="J577" s="14"/>
@@ -27918,12 +28106,18 @@
     </row>
     <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="20"/>
-      <c r="B578" s="13"/>
-      <c r="C578" s="45"/>
+      <c r="B578" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C578" s="48" t="s">
+        <v>2304</v>
+      </c>
       <c r="D578" s="14"/>
       <c r="E578" s="14"/>
       <c r="F578" s="14"/>
-      <c r="G578" s="14"/>
+      <c r="G578" s="34" t="s">
+        <v>2302</v>
+      </c>
       <c r="H578" s="15"/>
       <c r="I578" s="14"/>
       <c r="J578" s="14"/>
@@ -27934,6 +28128,1835 @@
       <c r="O578" s="14"/>
       <c r="P578" s="16"/>
       <c r="Q578" s="17"/>
+    </row>
+    <row r="579" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="20"/>
+      <c r="B579" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C579" s="48" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D579" s="14"/>
+      <c r="E579" s="14"/>
+      <c r="F579" s="14"/>
+      <c r="G579" s="34" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H579" s="15"/>
+      <c r="I579" s="14"/>
+      <c r="J579" s="14"/>
+      <c r="K579" s="14"/>
+      <c r="L579" s="14"/>
+      <c r="M579" s="14"/>
+      <c r="N579" s="14"/>
+      <c r="O579" s="14"/>
+      <c r="P579" s="16"/>
+      <c r="Q579" s="17"/>
+    </row>
+    <row r="580" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="20"/>
+      <c r="B580" s="35" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C580" s="48" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D580" s="14"/>
+      <c r="E580" s="14"/>
+      <c r="F580" s="14"/>
+      <c r="G580" s="34" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H580" s="15"/>
+      <c r="I580" s="14"/>
+      <c r="J580" s="14"/>
+      <c r="K580" s="14"/>
+      <c r="L580" s="14"/>
+      <c r="M580" s="14"/>
+      <c r="N580" s="14"/>
+      <c r="O580" s="14"/>
+      <c r="P580" s="16"/>
+      <c r="Q580" s="17"/>
+    </row>
+    <row r="581" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="20"/>
+      <c r="B581" s="35" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C581" s="48" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D581" s="14"/>
+      <c r="E581" s="14"/>
+      <c r="F581" s="14"/>
+      <c r="G581" s="34" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H581" s="15"/>
+      <c r="I581" s="14"/>
+      <c r="J581" s="14"/>
+      <c r="K581" s="14"/>
+      <c r="L581" s="14"/>
+      <c r="M581" s="14"/>
+      <c r="N581" s="14"/>
+      <c r="O581" s="14"/>
+      <c r="P581" s="16"/>
+      <c r="Q581" s="17"/>
+    </row>
+    <row r="582" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="20"/>
+      <c r="B582" s="35" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C582" s="48" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D582" s="14"/>
+      <c r="E582" s="14"/>
+      <c r="F582" s="14"/>
+      <c r="G582" s="34" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H582" s="15"/>
+      <c r="I582" s="14"/>
+      <c r="J582" s="14"/>
+      <c r="K582" s="14"/>
+      <c r="L582" s="14"/>
+      <c r="M582" s="14"/>
+      <c r="N582" s="14"/>
+      <c r="O582" s="14"/>
+      <c r="P582" s="16"/>
+      <c r="Q582" s="17"/>
+    </row>
+    <row r="583" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="20"/>
+      <c r="B583" s="35"/>
+      <c r="C583" s="48"/>
+      <c r="D583" s="14"/>
+      <c r="E583" s="14"/>
+      <c r="F583" s="14"/>
+      <c r="G583" s="34"/>
+      <c r="H583" s="15"/>
+      <c r="I583" s="14"/>
+      <c r="J583" s="14"/>
+      <c r="K583" s="14"/>
+      <c r="L583" s="14"/>
+      <c r="M583" s="14"/>
+      <c r="N583" s="14"/>
+      <c r="O583" s="14"/>
+      <c r="P583" s="16"/>
+      <c r="Q583" s="17"/>
+    </row>
+    <row r="584" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="20"/>
+      <c r="B584" s="35"/>
+      <c r="C584" s="48"/>
+      <c r="D584" s="14"/>
+      <c r="E584" s="14"/>
+      <c r="F584" s="14"/>
+      <c r="G584" s="34"/>
+      <c r="H584" s="15"/>
+      <c r="I584" s="14"/>
+      <c r="J584" s="14"/>
+      <c r="K584" s="14"/>
+      <c r="L584" s="14"/>
+      <c r="M584" s="14"/>
+      <c r="N584" s="14"/>
+      <c r="O584" s="14"/>
+      <c r="P584" s="16"/>
+      <c r="Q584" s="17"/>
+    </row>
+    <row r="585" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="20"/>
+      <c r="B585" s="35"/>
+      <c r="C585" s="48"/>
+      <c r="D585" s="14"/>
+      <c r="E585" s="14"/>
+      <c r="F585" s="14"/>
+      <c r="G585" s="34"/>
+      <c r="H585" s="15"/>
+      <c r="I585" s="14"/>
+      <c r="J585" s="14"/>
+      <c r="K585" s="14"/>
+      <c r="L585" s="14"/>
+      <c r="M585" s="14"/>
+      <c r="N585" s="14"/>
+      <c r="O585" s="14"/>
+      <c r="P585" s="16"/>
+      <c r="Q585" s="17"/>
+    </row>
+    <row r="586" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="20"/>
+      <c r="B586" s="35"/>
+      <c r="C586" s="48"/>
+      <c r="D586" s="14"/>
+      <c r="E586" s="14"/>
+      <c r="F586" s="14"/>
+      <c r="G586" s="34"/>
+      <c r="H586" s="15"/>
+      <c r="I586" s="14"/>
+      <c r="J586" s="14"/>
+      <c r="K586" s="14"/>
+      <c r="L586" s="14"/>
+      <c r="M586" s="14"/>
+      <c r="N586" s="14"/>
+      <c r="O586" s="14"/>
+      <c r="P586" s="16"/>
+      <c r="Q586" s="17"/>
+    </row>
+    <row r="587" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="20"/>
+      <c r="B587" s="35"/>
+      <c r="C587" s="48"/>
+      <c r="D587" s="14"/>
+      <c r="E587" s="14"/>
+      <c r="F587" s="14"/>
+      <c r="G587" s="34"/>
+      <c r="H587" s="15"/>
+      <c r="I587" s="14"/>
+      <c r="J587" s="14"/>
+      <c r="K587" s="14"/>
+      <c r="L587" s="14"/>
+      <c r="M587" s="14"/>
+      <c r="N587" s="14"/>
+      <c r="O587" s="14"/>
+      <c r="P587" s="16"/>
+      <c r="Q587" s="17"/>
+    </row>
+    <row r="588" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="20"/>
+      <c r="B588" s="35"/>
+      <c r="C588" s="48"/>
+      <c r="D588" s="14"/>
+      <c r="E588" s="14"/>
+      <c r="F588" s="14"/>
+      <c r="G588" s="34"/>
+      <c r="H588" s="15"/>
+      <c r="I588" s="14"/>
+      <c r="J588" s="14"/>
+      <c r="K588" s="14"/>
+      <c r="L588" s="14"/>
+      <c r="M588" s="14"/>
+      <c r="N588" s="14"/>
+      <c r="O588" s="14"/>
+      <c r="P588" s="16"/>
+      <c r="Q588" s="17"/>
+    </row>
+    <row r="589" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="20"/>
+      <c r="B589" s="35"/>
+      <c r="C589" s="48"/>
+      <c r="D589" s="14"/>
+      <c r="E589" s="14"/>
+      <c r="F589" s="14"/>
+      <c r="G589" s="34"/>
+      <c r="H589" s="15"/>
+      <c r="I589" s="14"/>
+      <c r="J589" s="14"/>
+      <c r="K589" s="14"/>
+      <c r="L589" s="14"/>
+      <c r="M589" s="14"/>
+      <c r="N589" s="14"/>
+      <c r="O589" s="14"/>
+      <c r="P589" s="16"/>
+      <c r="Q589" s="17"/>
+    </row>
+    <row r="590" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="20"/>
+      <c r="B590" s="35"/>
+      <c r="C590" s="48"/>
+      <c r="D590" s="14"/>
+      <c r="E590" s="14"/>
+      <c r="F590" s="14"/>
+      <c r="G590" s="34"/>
+      <c r="H590" s="15"/>
+      <c r="I590" s="14"/>
+      <c r="J590" s="14"/>
+      <c r="K590" s="14"/>
+      <c r="L590" s="14"/>
+      <c r="M590" s="14"/>
+      <c r="N590" s="14"/>
+      <c r="O590" s="14"/>
+      <c r="P590" s="16"/>
+      <c r="Q590" s="17"/>
+    </row>
+    <row r="591" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="20"/>
+      <c r="B591" s="35"/>
+      <c r="C591" s="48"/>
+      <c r="D591" s="14"/>
+      <c r="E591" s="14"/>
+      <c r="F591" s="14"/>
+      <c r="G591" s="34"/>
+      <c r="H591" s="15"/>
+      <c r="I591" s="14"/>
+      <c r="J591" s="14"/>
+      <c r="K591" s="14"/>
+      <c r="L591" s="14"/>
+      <c r="M591" s="14"/>
+      <c r="N591" s="14"/>
+      <c r="O591" s="14"/>
+      <c r="P591" s="16"/>
+      <c r="Q591" s="17"/>
+    </row>
+    <row r="592" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="20"/>
+      <c r="B592" s="35"/>
+      <c r="C592" s="48"/>
+      <c r="D592" s="14"/>
+      <c r="E592" s="14"/>
+      <c r="F592" s="14"/>
+      <c r="G592" s="34"/>
+      <c r="H592" s="15"/>
+      <c r="I592" s="14"/>
+      <c r="J592" s="14"/>
+      <c r="K592" s="14"/>
+      <c r="L592" s="14"/>
+      <c r="M592" s="14"/>
+      <c r="N592" s="14"/>
+      <c r="O592" s="14"/>
+      <c r="P592" s="16"/>
+      <c r="Q592" s="17"/>
+    </row>
+    <row r="593" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="20"/>
+      <c r="B593" s="35"/>
+      <c r="C593" s="48"/>
+      <c r="D593" s="14"/>
+      <c r="E593" s="14"/>
+      <c r="F593" s="14"/>
+      <c r="G593" s="34"/>
+      <c r="H593" s="15"/>
+      <c r="I593" s="14"/>
+      <c r="J593" s="14"/>
+      <c r="K593" s="14"/>
+      <c r="L593" s="14"/>
+      <c r="M593" s="14"/>
+      <c r="N593" s="14"/>
+      <c r="O593" s="14"/>
+      <c r="P593" s="16"/>
+      <c r="Q593" s="17"/>
+    </row>
+    <row r="594" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="20"/>
+      <c r="B594" s="35"/>
+      <c r="C594" s="48"/>
+      <c r="D594" s="14"/>
+      <c r="E594" s="14"/>
+      <c r="F594" s="14"/>
+      <c r="G594" s="34"/>
+      <c r="H594" s="15"/>
+      <c r="I594" s="14"/>
+      <c r="J594" s="14"/>
+      <c r="K594" s="14"/>
+      <c r="L594" s="14"/>
+      <c r="M594" s="14"/>
+      <c r="N594" s="14"/>
+      <c r="O594" s="14"/>
+      <c r="P594" s="16"/>
+      <c r="Q594" s="17"/>
+    </row>
+    <row r="595" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="20"/>
+      <c r="B595" s="35"/>
+      <c r="C595" s="48"/>
+      <c r="D595" s="14"/>
+      <c r="E595" s="14"/>
+      <c r="F595" s="14"/>
+      <c r="G595" s="34"/>
+      <c r="H595" s="15"/>
+      <c r="I595" s="14"/>
+      <c r="J595" s="14"/>
+      <c r="K595" s="14"/>
+      <c r="L595" s="14"/>
+      <c r="M595" s="14"/>
+      <c r="N595" s="14"/>
+      <c r="O595" s="14"/>
+      <c r="P595" s="16"/>
+      <c r="Q595" s="17"/>
+    </row>
+    <row r="596" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="20"/>
+      <c r="B596" s="35"/>
+      <c r="C596" s="48"/>
+      <c r="D596" s="14"/>
+      <c r="E596" s="14"/>
+      <c r="F596" s="14"/>
+      <c r="G596" s="34"/>
+      <c r="H596" s="15"/>
+      <c r="I596" s="14"/>
+      <c r="J596" s="14"/>
+      <c r="K596" s="14"/>
+      <c r="L596" s="14"/>
+      <c r="M596" s="14"/>
+      <c r="N596" s="14"/>
+      <c r="O596" s="14"/>
+      <c r="P596" s="16"/>
+      <c r="Q596" s="17"/>
+    </row>
+    <row r="597" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="20"/>
+      <c r="B597" s="35"/>
+      <c r="C597" s="48"/>
+      <c r="D597" s="14"/>
+      <c r="E597" s="14"/>
+      <c r="F597" s="14"/>
+      <c r="G597" s="34"/>
+      <c r="H597" s="15"/>
+      <c r="I597" s="14"/>
+      <c r="J597" s="14"/>
+      <c r="K597" s="14"/>
+      <c r="L597" s="14"/>
+      <c r="M597" s="14"/>
+      <c r="N597" s="14"/>
+      <c r="O597" s="14"/>
+      <c r="P597" s="16"/>
+      <c r="Q597" s="17"/>
+    </row>
+    <row r="598" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="20"/>
+      <c r="B598" s="35"/>
+      <c r="C598" s="48"/>
+      <c r="D598" s="14"/>
+      <c r="E598" s="14"/>
+      <c r="F598" s="14"/>
+      <c r="G598" s="34"/>
+      <c r="H598" s="15"/>
+      <c r="I598" s="14"/>
+      <c r="J598" s="14"/>
+      <c r="K598" s="14"/>
+      <c r="L598" s="14"/>
+      <c r="M598" s="14"/>
+      <c r="N598" s="14"/>
+      <c r="O598" s="14"/>
+      <c r="P598" s="16"/>
+      <c r="Q598" s="17"/>
+    </row>
+    <row r="599" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="20"/>
+      <c r="B599" s="35"/>
+      <c r="C599" s="48"/>
+      <c r="D599" s="14"/>
+      <c r="E599" s="14"/>
+      <c r="F599" s="14"/>
+      <c r="G599" s="34"/>
+      <c r="H599" s="15"/>
+      <c r="I599" s="14"/>
+      <c r="J599" s="14"/>
+      <c r="K599" s="14"/>
+      <c r="L599" s="14"/>
+      <c r="M599" s="14"/>
+      <c r="N599" s="14"/>
+      <c r="O599" s="14"/>
+      <c r="P599" s="16"/>
+      <c r="Q599" s="17"/>
+    </row>
+    <row r="600" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="20"/>
+      <c r="B600" s="35"/>
+      <c r="C600" s="48"/>
+      <c r="D600" s="14"/>
+      <c r="E600" s="14"/>
+      <c r="F600" s="14"/>
+      <c r="G600" s="34"/>
+      <c r="H600" s="15"/>
+      <c r="I600" s="14"/>
+      <c r="J600" s="14"/>
+      <c r="K600" s="14"/>
+      <c r="L600" s="14"/>
+      <c r="M600" s="14"/>
+      <c r="N600" s="14"/>
+      <c r="O600" s="14"/>
+      <c r="P600" s="16"/>
+      <c r="Q600" s="17"/>
+    </row>
+    <row r="601" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="20"/>
+      <c r="B601" s="35"/>
+      <c r="C601" s="48"/>
+      <c r="D601" s="14"/>
+      <c r="E601" s="14"/>
+      <c r="F601" s="14"/>
+      <c r="G601" s="34"/>
+      <c r="H601" s="15"/>
+      <c r="I601" s="14"/>
+      <c r="J601" s="14"/>
+      <c r="K601" s="14"/>
+      <c r="L601" s="14"/>
+      <c r="M601" s="14"/>
+      <c r="N601" s="14"/>
+      <c r="O601" s="14"/>
+      <c r="P601" s="16"/>
+      <c r="Q601" s="17"/>
+    </row>
+    <row r="602" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="20"/>
+      <c r="B602" s="35"/>
+      <c r="C602" s="48"/>
+      <c r="D602" s="14"/>
+      <c r="E602" s="14"/>
+      <c r="F602" s="14"/>
+      <c r="G602" s="34"/>
+      <c r="H602" s="15"/>
+      <c r="I602" s="14"/>
+      <c r="J602" s="14"/>
+      <c r="K602" s="14"/>
+      <c r="L602" s="14"/>
+      <c r="M602" s="14"/>
+      <c r="N602" s="14"/>
+      <c r="O602" s="14"/>
+      <c r="P602" s="16"/>
+      <c r="Q602" s="17"/>
+    </row>
+    <row r="603" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="20"/>
+      <c r="B603" s="35"/>
+      <c r="C603" s="48"/>
+      <c r="D603" s="14"/>
+      <c r="E603" s="14"/>
+      <c r="F603" s="14"/>
+      <c r="G603" s="34"/>
+      <c r="H603" s="15"/>
+      <c r="I603" s="14"/>
+      <c r="J603" s="14"/>
+      <c r="K603" s="14"/>
+      <c r="L603" s="14"/>
+      <c r="M603" s="14"/>
+      <c r="N603" s="14"/>
+      <c r="O603" s="14"/>
+      <c r="P603" s="16"/>
+      <c r="Q603" s="17"/>
+    </row>
+    <row r="604" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="20"/>
+      <c r="B604" s="35"/>
+      <c r="C604" s="48"/>
+      <c r="D604" s="14"/>
+      <c r="E604" s="14"/>
+      <c r="F604" s="14"/>
+      <c r="G604" s="34"/>
+      <c r="H604" s="15"/>
+      <c r="I604" s="14"/>
+      <c r="J604" s="14"/>
+      <c r="K604" s="14"/>
+      <c r="L604" s="14"/>
+      <c r="M604" s="14"/>
+      <c r="N604" s="14"/>
+      <c r="O604" s="14"/>
+      <c r="P604" s="16"/>
+      <c r="Q604" s="17"/>
+    </row>
+    <row r="605" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="20"/>
+      <c r="B605" s="35"/>
+      <c r="C605" s="48"/>
+      <c r="D605" s="14"/>
+      <c r="E605" s="14"/>
+      <c r="F605" s="14"/>
+      <c r="G605" s="34"/>
+      <c r="H605" s="15"/>
+      <c r="I605" s="14"/>
+      <c r="J605" s="14"/>
+      <c r="K605" s="14"/>
+      <c r="L605" s="14"/>
+      <c r="M605" s="14"/>
+      <c r="N605" s="14"/>
+      <c r="O605" s="14"/>
+      <c r="P605" s="16"/>
+      <c r="Q605" s="17"/>
+    </row>
+    <row r="606" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="20"/>
+      <c r="B606" s="35"/>
+      <c r="C606" s="48"/>
+      <c r="D606" s="14"/>
+      <c r="E606" s="14"/>
+      <c r="F606" s="14"/>
+      <c r="G606" s="34"/>
+      <c r="H606" s="15"/>
+      <c r="I606" s="14"/>
+      <c r="J606" s="14"/>
+      <c r="K606" s="14"/>
+      <c r="L606" s="14"/>
+      <c r="M606" s="14"/>
+      <c r="N606" s="14"/>
+      <c r="O606" s="14"/>
+      <c r="P606" s="16"/>
+      <c r="Q606" s="17"/>
+    </row>
+    <row r="607" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="20"/>
+      <c r="B607" s="35"/>
+      <c r="C607" s="48"/>
+      <c r="D607" s="14"/>
+      <c r="E607" s="14"/>
+      <c r="F607" s="14"/>
+      <c r="G607" s="34"/>
+      <c r="H607" s="15"/>
+      <c r="I607" s="14"/>
+      <c r="J607" s="14"/>
+      <c r="K607" s="14"/>
+      <c r="L607" s="14"/>
+      <c r="M607" s="14"/>
+      <c r="N607" s="14"/>
+      <c r="O607" s="14"/>
+      <c r="P607" s="16"/>
+      <c r="Q607" s="17"/>
+    </row>
+    <row r="608" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="20"/>
+      <c r="B608" s="35"/>
+      <c r="C608" s="48"/>
+      <c r="D608" s="14"/>
+      <c r="E608" s="14"/>
+      <c r="F608" s="14"/>
+      <c r="G608" s="34"/>
+      <c r="H608" s="15"/>
+      <c r="I608" s="14"/>
+      <c r="J608" s="14"/>
+      <c r="K608" s="14"/>
+      <c r="L608" s="14"/>
+      <c r="M608" s="14"/>
+      <c r="N608" s="14"/>
+      <c r="O608" s="14"/>
+      <c r="P608" s="16"/>
+      <c r="Q608" s="17"/>
+    </row>
+    <row r="609" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="20"/>
+      <c r="B609" s="35"/>
+      <c r="C609" s="48"/>
+      <c r="D609" s="14"/>
+      <c r="E609" s="14"/>
+      <c r="F609" s="14"/>
+      <c r="G609" s="34"/>
+      <c r="H609" s="15"/>
+      <c r="I609" s="14"/>
+      <c r="J609" s="14"/>
+      <c r="K609" s="14"/>
+      <c r="L609" s="14"/>
+      <c r="M609" s="14"/>
+      <c r="N609" s="14"/>
+      <c r="O609" s="14"/>
+      <c r="P609" s="16"/>
+      <c r="Q609" s="17"/>
+    </row>
+    <row r="610" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="20"/>
+      <c r="B610" s="35"/>
+      <c r="C610" s="48"/>
+      <c r="D610" s="14"/>
+      <c r="E610" s="14"/>
+      <c r="F610" s="14"/>
+      <c r="G610" s="34"/>
+      <c r="H610" s="15"/>
+      <c r="I610" s="14"/>
+      <c r="J610" s="14"/>
+      <c r="K610" s="14"/>
+      <c r="L610" s="14"/>
+      <c r="M610" s="14"/>
+      <c r="N610" s="14"/>
+      <c r="O610" s="14"/>
+      <c r="P610" s="16"/>
+      <c r="Q610" s="17"/>
+    </row>
+    <row r="611" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="20"/>
+      <c r="B611" s="35"/>
+      <c r="C611" s="48"/>
+      <c r="D611" s="14"/>
+      <c r="E611" s="14"/>
+      <c r="F611" s="14"/>
+      <c r="G611" s="34"/>
+      <c r="H611" s="15"/>
+      <c r="I611" s="14"/>
+      <c r="J611" s="14"/>
+      <c r="K611" s="14"/>
+      <c r="L611" s="14"/>
+      <c r="M611" s="14"/>
+      <c r="N611" s="14"/>
+      <c r="O611" s="14"/>
+      <c r="P611" s="16"/>
+      <c r="Q611" s="17"/>
+    </row>
+    <row r="612" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="20"/>
+      <c r="B612" s="35"/>
+      <c r="C612" s="48"/>
+      <c r="D612" s="14"/>
+      <c r="E612" s="14"/>
+      <c r="F612" s="14"/>
+      <c r="G612" s="34"/>
+      <c r="H612" s="15"/>
+      <c r="I612" s="14"/>
+      <c r="J612" s="14"/>
+      <c r="K612" s="14"/>
+      <c r="L612" s="14"/>
+      <c r="M612" s="14"/>
+      <c r="N612" s="14"/>
+      <c r="O612" s="14"/>
+      <c r="P612" s="16"/>
+      <c r="Q612" s="17"/>
+    </row>
+    <row r="613" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="20"/>
+      <c r="B613" s="35"/>
+      <c r="C613" s="48"/>
+      <c r="D613" s="14"/>
+      <c r="E613" s="14"/>
+      <c r="F613" s="14"/>
+      <c r="G613" s="34"/>
+      <c r="H613" s="15"/>
+      <c r="I613" s="14"/>
+      <c r="J613" s="14"/>
+      <c r="K613" s="14"/>
+      <c r="L613" s="14"/>
+      <c r="M613" s="14"/>
+      <c r="N613" s="14"/>
+      <c r="O613" s="14"/>
+      <c r="P613" s="16"/>
+      <c r="Q613" s="17"/>
+    </row>
+    <row r="614" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="20"/>
+      <c r="B614" s="35"/>
+      <c r="C614" s="48"/>
+      <c r="D614" s="14"/>
+      <c r="E614" s="14"/>
+      <c r="F614" s="14"/>
+      <c r="G614" s="34"/>
+      <c r="H614" s="15"/>
+      <c r="I614" s="14"/>
+      <c r="J614" s="14"/>
+      <c r="K614" s="14"/>
+      <c r="L614" s="14"/>
+      <c r="M614" s="14"/>
+      <c r="N614" s="14"/>
+      <c r="O614" s="14"/>
+      <c r="P614" s="16"/>
+      <c r="Q614" s="17"/>
+    </row>
+    <row r="615" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="20"/>
+      <c r="B615" s="35"/>
+      <c r="C615" s="48"/>
+      <c r="D615" s="14"/>
+      <c r="E615" s="14"/>
+      <c r="F615" s="14"/>
+      <c r="G615" s="34"/>
+      <c r="H615" s="15"/>
+      <c r="I615" s="14"/>
+      <c r="J615" s="14"/>
+      <c r="K615" s="14"/>
+      <c r="L615" s="14"/>
+      <c r="M615" s="14"/>
+      <c r="N615" s="14"/>
+      <c r="O615" s="14"/>
+      <c r="P615" s="16"/>
+      <c r="Q615" s="17"/>
+    </row>
+    <row r="616" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="20"/>
+      <c r="B616" s="35"/>
+      <c r="C616" s="48"/>
+      <c r="D616" s="14"/>
+      <c r="E616" s="14"/>
+      <c r="F616" s="14"/>
+      <c r="G616" s="34"/>
+      <c r="H616" s="15"/>
+      <c r="I616" s="14"/>
+      <c r="J616" s="14"/>
+      <c r="K616" s="14"/>
+      <c r="L616" s="14"/>
+      <c r="M616" s="14"/>
+      <c r="N616" s="14"/>
+      <c r="O616" s="14"/>
+      <c r="P616" s="16"/>
+      <c r="Q616" s="17"/>
+    </row>
+    <row r="617" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="20"/>
+      <c r="B617" s="35"/>
+      <c r="C617" s="48"/>
+      <c r="D617" s="14"/>
+      <c r="E617" s="14"/>
+      <c r="F617" s="14"/>
+      <c r="G617" s="34"/>
+      <c r="H617" s="15"/>
+      <c r="I617" s="14"/>
+      <c r="J617" s="14"/>
+      <c r="K617" s="14"/>
+      <c r="L617" s="14"/>
+      <c r="M617" s="14"/>
+      <c r="N617" s="14"/>
+      <c r="O617" s="14"/>
+      <c r="P617" s="16"/>
+      <c r="Q617" s="17"/>
+    </row>
+    <row r="618" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="20"/>
+      <c r="B618" s="35"/>
+      <c r="C618" s="48"/>
+      <c r="D618" s="14"/>
+      <c r="E618" s="14"/>
+      <c r="F618" s="14"/>
+      <c r="G618" s="34"/>
+      <c r="H618" s="15"/>
+      <c r="I618" s="14"/>
+      <c r="J618" s="14"/>
+      <c r="K618" s="14"/>
+      <c r="L618" s="14"/>
+      <c r="M618" s="14"/>
+      <c r="N618" s="14"/>
+      <c r="O618" s="14"/>
+      <c r="P618" s="16"/>
+      <c r="Q618" s="17"/>
+    </row>
+    <row r="619" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="20"/>
+      <c r="B619" s="35"/>
+      <c r="C619" s="48"/>
+      <c r="D619" s="14"/>
+      <c r="E619" s="14"/>
+      <c r="F619" s="14"/>
+      <c r="G619" s="34"/>
+      <c r="H619" s="15"/>
+      <c r="I619" s="14"/>
+      <c r="J619" s="14"/>
+      <c r="K619" s="14"/>
+      <c r="L619" s="14"/>
+      <c r="M619" s="14"/>
+      <c r="N619" s="14"/>
+      <c r="O619" s="14"/>
+      <c r="P619" s="16"/>
+      <c r="Q619" s="17"/>
+    </row>
+    <row r="620" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="20"/>
+      <c r="B620" s="35"/>
+      <c r="C620" s="48"/>
+      <c r="D620" s="14"/>
+      <c r="E620" s="14"/>
+      <c r="F620" s="14"/>
+      <c r="G620" s="34"/>
+      <c r="H620" s="15"/>
+      <c r="I620" s="14"/>
+      <c r="J620" s="14"/>
+      <c r="K620" s="14"/>
+      <c r="L620" s="14"/>
+      <c r="M620" s="14"/>
+      <c r="N620" s="14"/>
+      <c r="O620" s="14"/>
+      <c r="P620" s="16"/>
+      <c r="Q620" s="17"/>
+    </row>
+    <row r="621" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="20"/>
+      <c r="B621" s="35"/>
+      <c r="C621" s="48"/>
+      <c r="D621" s="14"/>
+      <c r="E621" s="14"/>
+      <c r="F621" s="14"/>
+      <c r="G621" s="34"/>
+      <c r="H621" s="15"/>
+      <c r="I621" s="14"/>
+      <c r="J621" s="14"/>
+      <c r="K621" s="14"/>
+      <c r="L621" s="14"/>
+      <c r="M621" s="14"/>
+      <c r="N621" s="14"/>
+      <c r="O621" s="14"/>
+      <c r="P621" s="16"/>
+      <c r="Q621" s="17"/>
+    </row>
+    <row r="622" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="20"/>
+      <c r="B622" s="35"/>
+      <c r="C622" s="48"/>
+      <c r="D622" s="14"/>
+      <c r="E622" s="14"/>
+      <c r="F622" s="14"/>
+      <c r="G622" s="34"/>
+      <c r="H622" s="15"/>
+      <c r="I622" s="14"/>
+      <c r="J622" s="14"/>
+      <c r="K622" s="14"/>
+      <c r="L622" s="14"/>
+      <c r="M622" s="14"/>
+      <c r="N622" s="14"/>
+      <c r="O622" s="14"/>
+      <c r="P622" s="16"/>
+      <c r="Q622" s="17"/>
+    </row>
+    <row r="623" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="20"/>
+      <c r="B623" s="35"/>
+      <c r="C623" s="48"/>
+      <c r="D623" s="14"/>
+      <c r="E623" s="14"/>
+      <c r="F623" s="14"/>
+      <c r="G623" s="34"/>
+      <c r="H623" s="15"/>
+      <c r="I623" s="14"/>
+      <c r="J623" s="14"/>
+      <c r="K623" s="14"/>
+      <c r="L623" s="14"/>
+      <c r="M623" s="14"/>
+      <c r="N623" s="14"/>
+      <c r="O623" s="14"/>
+      <c r="P623" s="16"/>
+      <c r="Q623" s="17"/>
+    </row>
+    <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="20"/>
+      <c r="B624" s="35"/>
+      <c r="C624" s="48"/>
+      <c r="D624" s="14"/>
+      <c r="E624" s="14"/>
+      <c r="F624" s="14"/>
+      <c r="G624" s="34"/>
+      <c r="H624" s="15"/>
+      <c r="I624" s="14"/>
+      <c r="J624" s="14"/>
+      <c r="K624" s="14"/>
+      <c r="L624" s="14"/>
+      <c r="M624" s="14"/>
+      <c r="N624" s="14"/>
+      <c r="O624" s="14"/>
+      <c r="P624" s="16"/>
+      <c r="Q624" s="17"/>
+    </row>
+    <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="20"/>
+      <c r="B625" s="35"/>
+      <c r="C625" s="48"/>
+      <c r="D625" s="14"/>
+      <c r="E625" s="14"/>
+      <c r="F625" s="14"/>
+      <c r="G625" s="34"/>
+      <c r="H625" s="15"/>
+      <c r="I625" s="14"/>
+      <c r="J625" s="14"/>
+      <c r="K625" s="14"/>
+      <c r="L625" s="14"/>
+      <c r="M625" s="14"/>
+      <c r="N625" s="14"/>
+      <c r="O625" s="14"/>
+      <c r="P625" s="16"/>
+      <c r="Q625" s="17"/>
+    </row>
+    <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="20"/>
+      <c r="B626" s="35"/>
+      <c r="C626" s="48"/>
+      <c r="D626" s="14"/>
+      <c r="E626" s="14"/>
+      <c r="F626" s="14"/>
+      <c r="G626" s="34"/>
+      <c r="H626" s="15"/>
+      <c r="I626" s="14"/>
+      <c r="J626" s="14"/>
+      <c r="K626" s="14"/>
+      <c r="L626" s="14"/>
+      <c r="M626" s="14"/>
+      <c r="N626" s="14"/>
+      <c r="O626" s="14"/>
+      <c r="P626" s="16"/>
+      <c r="Q626" s="17"/>
+    </row>
+    <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="20"/>
+      <c r="B627" s="35"/>
+      <c r="C627" s="48"/>
+      <c r="D627" s="14"/>
+      <c r="E627" s="14"/>
+      <c r="F627" s="14"/>
+      <c r="G627" s="34"/>
+      <c r="H627" s="15"/>
+      <c r="I627" s="14"/>
+      <c r="J627" s="14"/>
+      <c r="K627" s="14"/>
+      <c r="L627" s="14"/>
+      <c r="M627" s="14"/>
+      <c r="N627" s="14"/>
+      <c r="O627" s="14"/>
+      <c r="P627" s="16"/>
+      <c r="Q627" s="17"/>
+    </row>
+    <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="20"/>
+      <c r="B628" s="35"/>
+      <c r="C628" s="48"/>
+      <c r="D628" s="14"/>
+      <c r="E628" s="14"/>
+      <c r="F628" s="14"/>
+      <c r="G628" s="34"/>
+      <c r="H628" s="15"/>
+      <c r="I628" s="14"/>
+      <c r="J628" s="14"/>
+      <c r="K628" s="14"/>
+      <c r="L628" s="14"/>
+      <c r="M628" s="14"/>
+      <c r="N628" s="14"/>
+      <c r="O628" s="14"/>
+      <c r="P628" s="16"/>
+      <c r="Q628" s="17"/>
+    </row>
+    <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="20"/>
+      <c r="B629" s="35"/>
+      <c r="C629" s="48"/>
+      <c r="D629" s="14"/>
+      <c r="E629" s="14"/>
+      <c r="F629" s="14"/>
+      <c r="G629" s="34"/>
+      <c r="H629" s="15"/>
+      <c r="I629" s="14"/>
+      <c r="J629" s="14"/>
+      <c r="K629" s="14"/>
+      <c r="L629" s="14"/>
+      <c r="M629" s="14"/>
+      <c r="N629" s="14"/>
+      <c r="O629" s="14"/>
+      <c r="P629" s="16"/>
+      <c r="Q629" s="17"/>
+    </row>
+    <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="20"/>
+      <c r="B630" s="35"/>
+      <c r="C630" s="48"/>
+      <c r="D630" s="14"/>
+      <c r="E630" s="14"/>
+      <c r="F630" s="14"/>
+      <c r="G630" s="34"/>
+      <c r="H630" s="15"/>
+      <c r="I630" s="14"/>
+      <c r="J630" s="14"/>
+      <c r="K630" s="14"/>
+      <c r="L630" s="14"/>
+      <c r="M630" s="14"/>
+      <c r="N630" s="14"/>
+      <c r="O630" s="14"/>
+      <c r="P630" s="16"/>
+      <c r="Q630" s="17"/>
+    </row>
+    <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="20"/>
+      <c r="B631" s="35"/>
+      <c r="C631" s="48"/>
+      <c r="D631" s="14"/>
+      <c r="E631" s="14"/>
+      <c r="F631" s="14"/>
+      <c r="G631" s="34"/>
+      <c r="H631" s="15"/>
+      <c r="I631" s="14"/>
+      <c r="J631" s="14"/>
+      <c r="K631" s="14"/>
+      <c r="L631" s="14"/>
+      <c r="M631" s="14"/>
+      <c r="N631" s="14"/>
+      <c r="O631" s="14"/>
+      <c r="P631" s="16"/>
+      <c r="Q631" s="17"/>
+    </row>
+    <row r="632" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="20"/>
+      <c r="B632" s="35"/>
+      <c r="C632" s="48"/>
+      <c r="D632" s="14"/>
+      <c r="E632" s="14"/>
+      <c r="F632" s="14"/>
+      <c r="G632" s="34"/>
+      <c r="H632" s="15"/>
+      <c r="I632" s="14"/>
+      <c r="J632" s="14"/>
+      <c r="K632" s="14"/>
+      <c r="L632" s="14"/>
+      <c r="M632" s="14"/>
+      <c r="N632" s="14"/>
+      <c r="O632" s="14"/>
+      <c r="P632" s="16"/>
+      <c r="Q632" s="17"/>
+    </row>
+    <row r="633" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="20"/>
+      <c r="B633" s="35"/>
+      <c r="C633" s="48"/>
+      <c r="D633" s="14"/>
+      <c r="E633" s="14"/>
+      <c r="F633" s="14"/>
+      <c r="G633" s="34"/>
+      <c r="H633" s="15"/>
+      <c r="I633" s="14"/>
+      <c r="J633" s="14"/>
+      <c r="K633" s="14"/>
+      <c r="L633" s="14"/>
+      <c r="M633" s="14"/>
+      <c r="N633" s="14"/>
+      <c r="O633" s="14"/>
+      <c r="P633" s="16"/>
+      <c r="Q633" s="17"/>
+    </row>
+    <row r="634" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="20"/>
+      <c r="B634" s="35"/>
+      <c r="C634" s="48"/>
+      <c r="D634" s="14"/>
+      <c r="E634" s="14"/>
+      <c r="F634" s="14"/>
+      <c r="G634" s="34"/>
+      <c r="H634" s="15"/>
+      <c r="I634" s="14"/>
+      <c r="J634" s="14"/>
+      <c r="K634" s="14"/>
+      <c r="L634" s="14"/>
+      <c r="M634" s="14"/>
+      <c r="N634" s="14"/>
+      <c r="O634" s="14"/>
+      <c r="P634" s="16"/>
+      <c r="Q634" s="17"/>
+    </row>
+    <row r="635" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="20"/>
+      <c r="B635" s="35"/>
+      <c r="C635" s="48"/>
+      <c r="D635" s="14"/>
+      <c r="E635" s="14"/>
+      <c r="F635" s="14"/>
+      <c r="G635" s="34"/>
+      <c r="H635" s="15"/>
+      <c r="I635" s="14"/>
+      <c r="J635" s="14"/>
+      <c r="K635" s="14"/>
+      <c r="L635" s="14"/>
+      <c r="M635" s="14"/>
+      <c r="N635" s="14"/>
+      <c r="O635" s="14"/>
+      <c r="P635" s="16"/>
+      <c r="Q635" s="17"/>
+    </row>
+    <row r="636" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="20"/>
+      <c r="B636" s="35"/>
+      <c r="C636" s="48"/>
+      <c r="D636" s="14"/>
+      <c r="E636" s="14"/>
+      <c r="F636" s="14"/>
+      <c r="G636" s="34"/>
+      <c r="H636" s="15"/>
+      <c r="I636" s="14"/>
+      <c r="J636" s="14"/>
+      <c r="K636" s="14"/>
+      <c r="L636" s="14"/>
+      <c r="M636" s="14"/>
+      <c r="N636" s="14"/>
+      <c r="O636" s="14"/>
+      <c r="P636" s="16"/>
+      <c r="Q636" s="17"/>
+    </row>
+    <row r="637" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="20"/>
+      <c r="B637" s="13"/>
+      <c r="C637" s="45"/>
+      <c r="D637" s="14"/>
+      <c r="E637" s="14"/>
+      <c r="F637" s="14"/>
+      <c r="G637" s="14"/>
+      <c r="H637" s="15"/>
+      <c r="I637" s="14"/>
+      <c r="J637" s="14"/>
+      <c r="K637" s="14"/>
+      <c r="L637" s="14"/>
+      <c r="M637" s="14"/>
+      <c r="N637" s="14"/>
+      <c r="O637" s="14"/>
+      <c r="P637" s="16"/>
+      <c r="Q637" s="17"/>
+    </row>
+    <row r="638" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="20"/>
+      <c r="B638" s="35"/>
+      <c r="C638" s="48"/>
+      <c r="D638" s="14"/>
+      <c r="E638" s="14"/>
+      <c r="F638" s="14"/>
+      <c r="G638" s="34"/>
+      <c r="H638" s="15"/>
+      <c r="I638" s="14"/>
+      <c r="J638" s="14"/>
+      <c r="K638" s="14"/>
+      <c r="L638" s="14"/>
+      <c r="M638" s="14"/>
+      <c r="N638" s="14"/>
+      <c r="O638" s="14"/>
+      <c r="P638" s="16"/>
+      <c r="Q638" s="17"/>
+    </row>
+    <row r="639" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="20"/>
+      <c r="B639" s="35"/>
+      <c r="C639" s="48"/>
+      <c r="D639" s="14"/>
+      <c r="E639" s="14"/>
+      <c r="F639" s="14"/>
+      <c r="G639" s="34"/>
+      <c r="H639" s="15"/>
+      <c r="I639" s="14"/>
+      <c r="J639" s="14"/>
+      <c r="K639" s="14"/>
+      <c r="L639" s="14"/>
+      <c r="M639" s="14"/>
+      <c r="N639" s="14"/>
+      <c r="O639" s="14"/>
+      <c r="P639" s="16"/>
+      <c r="Q639" s="17"/>
+    </row>
+    <row r="640" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="20"/>
+      <c r="B640" s="35"/>
+      <c r="C640" s="48"/>
+      <c r="D640" s="14"/>
+      <c r="E640" s="14"/>
+      <c r="F640" s="14"/>
+      <c r="G640" s="34"/>
+      <c r="H640" s="15"/>
+      <c r="I640" s="14"/>
+      <c r="J640" s="14"/>
+      <c r="K640" s="14"/>
+      <c r="L640" s="14"/>
+      <c r="M640" s="14"/>
+      <c r="N640" s="14"/>
+      <c r="O640" s="14"/>
+      <c r="P640" s="16"/>
+      <c r="Q640" s="17"/>
+    </row>
+    <row r="641" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="20"/>
+      <c r="B641" s="35"/>
+      <c r="C641" s="48"/>
+      <c r="D641" s="14"/>
+      <c r="E641" s="14"/>
+      <c r="F641" s="14"/>
+      <c r="G641" s="34"/>
+      <c r="H641" s="15"/>
+      <c r="I641" s="14"/>
+      <c r="J641" s="14"/>
+      <c r="K641" s="14"/>
+      <c r="L641" s="14"/>
+      <c r="M641" s="14"/>
+      <c r="N641" s="14"/>
+      <c r="O641" s="14"/>
+      <c r="P641" s="16"/>
+      <c r="Q641" s="17"/>
+    </row>
+    <row r="642" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="20"/>
+      <c r="B642" s="35"/>
+      <c r="C642" s="48"/>
+      <c r="D642" s="14"/>
+      <c r="E642" s="14"/>
+      <c r="F642" s="14"/>
+      <c r="G642" s="34"/>
+      <c r="H642" s="15"/>
+      <c r="I642" s="14"/>
+      <c r="J642" s="14"/>
+      <c r="K642" s="14"/>
+      <c r="L642" s="14"/>
+      <c r="M642" s="14"/>
+      <c r="N642" s="14"/>
+      <c r="O642" s="14"/>
+      <c r="P642" s="16"/>
+      <c r="Q642" s="17"/>
+    </row>
+    <row r="643" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="20"/>
+      <c r="B643" s="35"/>
+      <c r="C643" s="48"/>
+      <c r="D643" s="14"/>
+      <c r="E643" s="14"/>
+      <c r="F643" s="14"/>
+      <c r="G643" s="34"/>
+      <c r="H643" s="15"/>
+      <c r="I643" s="14"/>
+      <c r="J643" s="14"/>
+      <c r="K643" s="14"/>
+      <c r="L643" s="14"/>
+      <c r="M643" s="14"/>
+      <c r="N643" s="14"/>
+      <c r="O643" s="14"/>
+      <c r="P643" s="16"/>
+      <c r="Q643" s="17"/>
+    </row>
+    <row r="644" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="20"/>
+      <c r="B644" s="35"/>
+      <c r="C644" s="48"/>
+      <c r="D644" s="14"/>
+      <c r="E644" s="14"/>
+      <c r="F644" s="14"/>
+      <c r="G644" s="34"/>
+      <c r="H644" s="15"/>
+      <c r="I644" s="14"/>
+      <c r="J644" s="14"/>
+      <c r="K644" s="14"/>
+      <c r="L644" s="14"/>
+      <c r="M644" s="14"/>
+      <c r="N644" s="14"/>
+      <c r="O644" s="14"/>
+      <c r="P644" s="16"/>
+      <c r="Q644" s="17"/>
+    </row>
+    <row r="645" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="20"/>
+      <c r="B645" s="35"/>
+      <c r="C645" s="48"/>
+      <c r="D645" s="14"/>
+      <c r="E645" s="14"/>
+      <c r="F645" s="14"/>
+      <c r="G645" s="34"/>
+      <c r="H645" s="15"/>
+      <c r="I645" s="14"/>
+      <c r="J645" s="14"/>
+      <c r="K645" s="14"/>
+      <c r="L645" s="14"/>
+      <c r="M645" s="14"/>
+      <c r="N645" s="14"/>
+      <c r="O645" s="14"/>
+      <c r="P645" s="16"/>
+      <c r="Q645" s="17"/>
+    </row>
+    <row r="646" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="20"/>
+      <c r="B646" s="35"/>
+      <c r="C646" s="48"/>
+      <c r="D646" s="14"/>
+      <c r="E646" s="14"/>
+      <c r="F646" s="14"/>
+      <c r="G646" s="34"/>
+      <c r="H646" s="15"/>
+      <c r="I646" s="14"/>
+      <c r="J646" s="14"/>
+      <c r="K646" s="14"/>
+      <c r="L646" s="14"/>
+      <c r="M646" s="14"/>
+      <c r="N646" s="14"/>
+      <c r="O646" s="14"/>
+      <c r="P646" s="16"/>
+      <c r="Q646" s="17"/>
+    </row>
+    <row r="647" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="20"/>
+      <c r="B647" s="35"/>
+      <c r="C647" s="48"/>
+      <c r="D647" s="14"/>
+      <c r="E647" s="14"/>
+      <c r="F647" s="14"/>
+      <c r="G647" s="34"/>
+      <c r="H647" s="15"/>
+      <c r="I647" s="14"/>
+      <c r="J647" s="14"/>
+      <c r="K647" s="14"/>
+      <c r="L647" s="14"/>
+      <c r="M647" s="14"/>
+      <c r="N647" s="14"/>
+      <c r="O647" s="14"/>
+      <c r="P647" s="16"/>
+      <c r="Q647" s="17"/>
+    </row>
+    <row r="648" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="20"/>
+      <c r="B648" s="35"/>
+      <c r="C648" s="48"/>
+      <c r="D648" s="14"/>
+      <c r="E648" s="14"/>
+      <c r="F648" s="14"/>
+      <c r="G648" s="34"/>
+      <c r="H648" s="15"/>
+      <c r="I648" s="14"/>
+      <c r="J648" s="14"/>
+      <c r="K648" s="14"/>
+      <c r="L648" s="14"/>
+      <c r="M648" s="14"/>
+      <c r="N648" s="14"/>
+      <c r="O648" s="14"/>
+      <c r="P648" s="16"/>
+      <c r="Q648" s="17"/>
+    </row>
+    <row r="649" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="20"/>
+      <c r="B649" s="13"/>
+      <c r="C649" s="45"/>
+      <c r="D649" s="14"/>
+      <c r="E649" s="14"/>
+      <c r="F649" s="14"/>
+      <c r="G649" s="14"/>
+      <c r="H649" s="15"/>
+      <c r="I649" s="14"/>
+      <c r="J649" s="14"/>
+      <c r="K649" s="14"/>
+      <c r="L649" s="14"/>
+      <c r="M649" s="14"/>
+      <c r="N649" s="14"/>
+      <c r="O649" s="14"/>
+      <c r="P649" s="16"/>
+      <c r="Q649" s="17"/>
+    </row>
+    <row r="650" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="20"/>
+      <c r="B650" s="35"/>
+      <c r="C650" s="48"/>
+      <c r="D650" s="14"/>
+      <c r="E650" s="14"/>
+      <c r="F650" s="14"/>
+      <c r="G650" s="34"/>
+      <c r="H650" s="15"/>
+      <c r="I650" s="14"/>
+      <c r="J650" s="14"/>
+      <c r="K650" s="14"/>
+      <c r="L650" s="14"/>
+      <c r="M650" s="14"/>
+      <c r="N650" s="14"/>
+      <c r="O650" s="14"/>
+      <c r="P650" s="16"/>
+      <c r="Q650" s="17"/>
+    </row>
+    <row r="651" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="20"/>
+      <c r="B651" s="35"/>
+      <c r="C651" s="48"/>
+      <c r="D651" s="14"/>
+      <c r="E651" s="14"/>
+      <c r="F651" s="14"/>
+      <c r="G651" s="34"/>
+      <c r="H651" s="15"/>
+      <c r="I651" s="14"/>
+      <c r="J651" s="14"/>
+      <c r="K651" s="14"/>
+      <c r="L651" s="14"/>
+      <c r="M651" s="14"/>
+      <c r="N651" s="14"/>
+      <c r="O651" s="14"/>
+      <c r="P651" s="16"/>
+      <c r="Q651" s="17"/>
+    </row>
+    <row r="652" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="20"/>
+      <c r="B652" s="35"/>
+      <c r="C652" s="48"/>
+      <c r="D652" s="14"/>
+      <c r="E652" s="14"/>
+      <c r="F652" s="14"/>
+      <c r="G652" s="34"/>
+      <c r="H652" s="15"/>
+      <c r="I652" s="14"/>
+      <c r="J652" s="14"/>
+      <c r="K652" s="14"/>
+      <c r="L652" s="14"/>
+      <c r="M652" s="14"/>
+      <c r="N652" s="14"/>
+      <c r="O652" s="14"/>
+      <c r="P652" s="16"/>
+      <c r="Q652" s="17"/>
+    </row>
+    <row r="653" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="20"/>
+      <c r="B653" s="35"/>
+      <c r="C653" s="48"/>
+      <c r="D653" s="14"/>
+      <c r="E653" s="14"/>
+      <c r="F653" s="14"/>
+      <c r="G653" s="34"/>
+      <c r="H653" s="15"/>
+      <c r="I653" s="14"/>
+      <c r="J653" s="14"/>
+      <c r="K653" s="14"/>
+      <c r="L653" s="14"/>
+      <c r="M653" s="14"/>
+      <c r="N653" s="14"/>
+      <c r="O653" s="14"/>
+      <c r="P653" s="16"/>
+      <c r="Q653" s="17"/>
+    </row>
+    <row r="654" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="20"/>
+      <c r="B654" s="35"/>
+      <c r="C654" s="48"/>
+      <c r="D654" s="14"/>
+      <c r="E654" s="14"/>
+      <c r="F654" s="14"/>
+      <c r="G654" s="34"/>
+      <c r="H654" s="15"/>
+      <c r="I654" s="14"/>
+      <c r="J654" s="14"/>
+      <c r="K654" s="14"/>
+      <c r="L654" s="14"/>
+      <c r="M654" s="14"/>
+      <c r="N654" s="14"/>
+      <c r="O654" s="14"/>
+      <c r="P654" s="16"/>
+      <c r="Q654" s="17"/>
+    </row>
+    <row r="655" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="20"/>
+      <c r="B655" s="35"/>
+      <c r="C655" s="48"/>
+      <c r="D655" s="14"/>
+      <c r="E655" s="14"/>
+      <c r="F655" s="14"/>
+      <c r="G655" s="34"/>
+      <c r="H655" s="15"/>
+      <c r="I655" s="14"/>
+      <c r="J655" s="14"/>
+      <c r="K655" s="14"/>
+      <c r="L655" s="14"/>
+      <c r="M655" s="14"/>
+      <c r="N655" s="14"/>
+      <c r="O655" s="14"/>
+      <c r="P655" s="16"/>
+      <c r="Q655" s="17"/>
+    </row>
+    <row r="656" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="20"/>
+      <c r="B656" s="35"/>
+      <c r="C656" s="48"/>
+      <c r="D656" s="14"/>
+      <c r="E656" s="14"/>
+      <c r="F656" s="14"/>
+      <c r="G656" s="34"/>
+      <c r="H656" s="15"/>
+      <c r="I656" s="14"/>
+      <c r="J656" s="14"/>
+      <c r="K656" s="14"/>
+      <c r="L656" s="14"/>
+      <c r="M656" s="14"/>
+      <c r="N656" s="14"/>
+      <c r="O656" s="14"/>
+      <c r="P656" s="16"/>
+      <c r="Q656" s="17"/>
+    </row>
+    <row r="657" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="20"/>
+      <c r="B657" s="35"/>
+      <c r="C657" s="48"/>
+      <c r="D657" s="14"/>
+      <c r="E657" s="14"/>
+      <c r="F657" s="14"/>
+      <c r="G657" s="34"/>
+      <c r="H657" s="15"/>
+      <c r="I657" s="14"/>
+      <c r="J657" s="14"/>
+      <c r="K657" s="14"/>
+      <c r="L657" s="14"/>
+      <c r="M657" s="14"/>
+      <c r="N657" s="14"/>
+      <c r="O657" s="14"/>
+      <c r="P657" s="16"/>
+      <c r="Q657" s="17"/>
+    </row>
+    <row r="658" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="20"/>
+      <c r="B658" s="35"/>
+      <c r="C658" s="48"/>
+      <c r="D658" s="14"/>
+      <c r="E658" s="14"/>
+      <c r="F658" s="14"/>
+      <c r="G658" s="34"/>
+      <c r="H658" s="15"/>
+      <c r="I658" s="14"/>
+      <c r="J658" s="14"/>
+      <c r="K658" s="14"/>
+      <c r="L658" s="14"/>
+      <c r="M658" s="14"/>
+      <c r="N658" s="14"/>
+      <c r="O658" s="14"/>
+      <c r="P658" s="16"/>
+      <c r="Q658" s="17"/>
+    </row>
+    <row r="659" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="20"/>
+      <c r="B659" s="35"/>
+      <c r="C659" s="48"/>
+      <c r="D659" s="14"/>
+      <c r="E659" s="14"/>
+      <c r="F659" s="14"/>
+      <c r="G659" s="34"/>
+      <c r="H659" s="15"/>
+      <c r="I659" s="14"/>
+      <c r="J659" s="14"/>
+      <c r="K659" s="14"/>
+      <c r="L659" s="14"/>
+      <c r="M659" s="14"/>
+      <c r="N659" s="14"/>
+      <c r="O659" s="14"/>
+      <c r="P659" s="16"/>
+      <c r="Q659" s="17"/>
+    </row>
+    <row r="660" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="20"/>
+      <c r="B660" s="35"/>
+      <c r="C660" s="48"/>
+      <c r="D660" s="14"/>
+      <c r="E660" s="14"/>
+      <c r="F660" s="14"/>
+      <c r="G660" s="34"/>
+      <c r="H660" s="15"/>
+      <c r="I660" s="14"/>
+      <c r="J660" s="14"/>
+      <c r="K660" s="14"/>
+      <c r="L660" s="14"/>
+      <c r="M660" s="14"/>
+      <c r="N660" s="14"/>
+      <c r="O660" s="14"/>
+      <c r="P660" s="16"/>
+      <c r="Q660" s="17"/>
+    </row>
+    <row r="661" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="20"/>
+      <c r="B661" s="13"/>
+      <c r="C661" s="45"/>
+      <c r="D661" s="14"/>
+      <c r="E661" s="14"/>
+      <c r="F661" s="14"/>
+      <c r="G661" s="14"/>
+      <c r="H661" s="15"/>
+      <c r="I661" s="14"/>
+      <c r="J661" s="14"/>
+      <c r="K661" s="14"/>
+      <c r="L661" s="14"/>
+      <c r="M661" s="14"/>
+      <c r="N661" s="14"/>
+      <c r="O661" s="14"/>
+      <c r="P661" s="16"/>
+      <c r="Q661" s="17"/>
+    </row>
+    <row r="662" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="20"/>
+      <c r="B662" s="35"/>
+      <c r="C662" s="48"/>
+      <c r="D662" s="14"/>
+      <c r="E662" s="14"/>
+      <c r="F662" s="14"/>
+      <c r="G662" s="34"/>
+      <c r="H662" s="15"/>
+      <c r="I662" s="14"/>
+      <c r="J662" s="14"/>
+      <c r="K662" s="14"/>
+      <c r="L662" s="14"/>
+      <c r="M662" s="14"/>
+      <c r="N662" s="14"/>
+      <c r="O662" s="14"/>
+      <c r="P662" s="16"/>
+      <c r="Q662" s="17"/>
+    </row>
+    <row r="663" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="20"/>
+      <c r="B663" s="35"/>
+      <c r="C663" s="48"/>
+      <c r="D663" s="14"/>
+      <c r="E663" s="14"/>
+      <c r="F663" s="14"/>
+      <c r="G663" s="34"/>
+      <c r="H663" s="15"/>
+      <c r="I663" s="14"/>
+      <c r="J663" s="14"/>
+      <c r="K663" s="14"/>
+      <c r="L663" s="14"/>
+      <c r="M663" s="14"/>
+      <c r="N663" s="14"/>
+      <c r="O663" s="14"/>
+      <c r="P663" s="16"/>
+      <c r="Q663" s="17"/>
+    </row>
+    <row r="664" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="20"/>
+      <c r="B664" s="35"/>
+      <c r="C664" s="48"/>
+      <c r="D664" s="14"/>
+      <c r="E664" s="14"/>
+      <c r="F664" s="14"/>
+      <c r="G664" s="34"/>
+      <c r="H664" s="15"/>
+      <c r="I664" s="14"/>
+      <c r="J664" s="14"/>
+      <c r="K664" s="14"/>
+      <c r="L664" s="14"/>
+      <c r="M664" s="14"/>
+      <c r="N664" s="14"/>
+      <c r="O664" s="14"/>
+      <c r="P664" s="16"/>
+      <c r="Q664" s="17"/>
+    </row>
+    <row r="665" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="20"/>
+      <c r="B665" s="35"/>
+      <c r="C665" s="48"/>
+      <c r="D665" s="14"/>
+      <c r="E665" s="14"/>
+      <c r="F665" s="14"/>
+      <c r="G665" s="34"/>
+      <c r="H665" s="15"/>
+      <c r="I665" s="14"/>
+      <c r="J665" s="14"/>
+      <c r="K665" s="14"/>
+      <c r="L665" s="14"/>
+      <c r="M665" s="14"/>
+      <c r="N665" s="14"/>
+      <c r="O665" s="14"/>
+      <c r="P665" s="16"/>
+      <c r="Q665" s="17"/>
+    </row>
+    <row r="666" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="20"/>
+      <c r="B666" s="35"/>
+      <c r="C666" s="48"/>
+      <c r="D666" s="14"/>
+      <c r="E666" s="14"/>
+      <c r="F666" s="14"/>
+      <c r="G666" s="34"/>
+      <c r="H666" s="15"/>
+      <c r="I666" s="14"/>
+      <c r="J666" s="14"/>
+      <c r="K666" s="14"/>
+      <c r="L666" s="14"/>
+      <c r="M666" s="14"/>
+      <c r="N666" s="14"/>
+      <c r="O666" s="14"/>
+      <c r="P666" s="16"/>
+      <c r="Q666" s="17"/>
+    </row>
+    <row r="667" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="20"/>
+      <c r="B667" s="35"/>
+      <c r="C667" s="48"/>
+      <c r="D667" s="14"/>
+      <c r="E667" s="14"/>
+      <c r="F667" s="14"/>
+      <c r="G667" s="34"/>
+      <c r="H667" s="15"/>
+      <c r="I667" s="14"/>
+      <c r="J667" s="14"/>
+      <c r="K667" s="14"/>
+      <c r="L667" s="14"/>
+      <c r="M667" s="14"/>
+      <c r="N667" s="14"/>
+      <c r="O667" s="14"/>
+      <c r="P667" s="16"/>
+      <c r="Q667" s="17"/>
+    </row>
+    <row r="668" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="20"/>
+      <c r="B668" s="35"/>
+      <c r="C668" s="48"/>
+      <c r="D668" s="14"/>
+      <c r="E668" s="14"/>
+      <c r="F668" s="14"/>
+      <c r="G668" s="34"/>
+      <c r="H668" s="15"/>
+      <c r="I668" s="14"/>
+      <c r="J668" s="14"/>
+      <c r="K668" s="14"/>
+      <c r="L668" s="14"/>
+      <c r="M668" s="14"/>
+      <c r="N668" s="14"/>
+      <c r="O668" s="14"/>
+      <c r="P668" s="16"/>
+      <c r="Q668" s="17"/>
+    </row>
+    <row r="669" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="20"/>
+      <c r="B669" s="35"/>
+      <c r="C669" s="48"/>
+      <c r="D669" s="14"/>
+      <c r="E669" s="14"/>
+      <c r="F669" s="14"/>
+      <c r="G669" s="34"/>
+      <c r="H669" s="15"/>
+      <c r="I669" s="14"/>
+      <c r="J669" s="14"/>
+      <c r="K669" s="14"/>
+      <c r="L669" s="14"/>
+      <c r="M669" s="14"/>
+      <c r="N669" s="14"/>
+      <c r="O669" s="14"/>
+      <c r="P669" s="16"/>
+      <c r="Q669" s="17"/>
+    </row>
+    <row r="670" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="20"/>
+      <c r="B670" s="35"/>
+      <c r="C670" s="48"/>
+      <c r="D670" s="14"/>
+      <c r="E670" s="14"/>
+      <c r="F670" s="14"/>
+      <c r="G670" s="34"/>
+      <c r="H670" s="15"/>
+      <c r="I670" s="14"/>
+      <c r="J670" s="14"/>
+      <c r="K670" s="14"/>
+      <c r="L670" s="14"/>
+      <c r="M670" s="14"/>
+      <c r="N670" s="14"/>
+      <c r="O670" s="14"/>
+      <c r="P670" s="16"/>
+      <c r="Q670" s="17"/>
+    </row>
+    <row r="671" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="20"/>
+      <c r="B671" s="35"/>
+      <c r="C671" s="48"/>
+      <c r="D671" s="14"/>
+      <c r="E671" s="14"/>
+      <c r="F671" s="14"/>
+      <c r="G671" s="34"/>
+      <c r="H671" s="15"/>
+      <c r="I671" s="14"/>
+      <c r="J671" s="14"/>
+      <c r="K671" s="14"/>
+      <c r="L671" s="14"/>
+      <c r="M671" s="14"/>
+      <c r="N671" s="14"/>
+      <c r="O671" s="14"/>
+      <c r="P671" s="16"/>
+      <c r="Q671" s="17"/>
+    </row>
+    <row r="672" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="20"/>
+      <c r="B672" s="35"/>
+      <c r="C672" s="48"/>
+      <c r="D672" s="14"/>
+      <c r="E672" s="14"/>
+      <c r="F672" s="14"/>
+      <c r="G672" s="34"/>
+      <c r="H672" s="15"/>
+      <c r="I672" s="14"/>
+      <c r="J672" s="14"/>
+      <c r="K672" s="14"/>
+      <c r="L672" s="14"/>
+      <c r="M672" s="14"/>
+      <c r="N672" s="14"/>
+      <c r="O672" s="14"/>
+      <c r="P672" s="16"/>
+      <c r="Q672" s="17"/>
+    </row>
+    <row r="673" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="20"/>
+      <c r="B673" s="13"/>
+      <c r="C673" s="45"/>
+      <c r="D673" s="14"/>
+      <c r="E673" s="14"/>
+      <c r="F673" s="14"/>
+      <c r="G673" s="14"/>
+      <c r="H673" s="15"/>
+      <c r="I673" s="14"/>
+      <c r="J673" s="14"/>
+      <c r="K673" s="14"/>
+      <c r="L673" s="14"/>
+      <c r="M673" s="14"/>
+      <c r="N673" s="14"/>
+      <c r="O673" s="14"/>
+      <c r="P673" s="16"/>
+      <c r="Q673" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="2316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="2355">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10058,6 +10058,164 @@
   </si>
   <si>
     <t>dbobkoff@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>London Bureau
+West Coast Bureau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Global News Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bryan Logan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blogan@businessinsider.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Tech Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troy Wolverton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twolverton@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Innovation Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melia Robinson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrobinson@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Tech Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt Weinberger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mweinberger@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpeterson@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Becky Peterson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>London Bureau
+Tech: techeditors@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chief Tech Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julie Bort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbort@businessinsider.co</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skovach@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steve Kovach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ben Gilbert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgilbert@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kleswing@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kif Leswing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio Villas-Boas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avillasboas@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aheath@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex Heath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Avery Hartmans </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ahartmans@businessinsider.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10786,8 +10944,8 @@
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D581" sqref="D581"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A570" sqref="A570:A594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27569,7 +27727,9 @@
       <c r="G557" s="34" t="s">
         <v>2242</v>
       </c>
-      <c r="H557" s="15"/>
+      <c r="H557" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I557" s="14"/>
       <c r="J557" s="14"/>
       <c r="K557" s="14"/>
@@ -27596,7 +27756,9 @@
       <c r="G558" s="34" t="s">
         <v>2245</v>
       </c>
-      <c r="H558" s="15"/>
+      <c r="H558" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I558" s="14"/>
       <c r="J558" s="14"/>
       <c r="K558" s="14"/>
@@ -27623,7 +27785,9 @@
       <c r="G559" s="34" t="s">
         <v>2250</v>
       </c>
-      <c r="H559" s="15"/>
+      <c r="H559" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I559" s="14"/>
       <c r="J559" s="14"/>
       <c r="K559" s="14"/>
@@ -27650,7 +27814,9 @@
       <c r="G560" s="34" t="s">
         <v>2252</v>
       </c>
-      <c r="H560" s="15"/>
+      <c r="H560" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I560" s="14"/>
       <c r="J560" s="14"/>
       <c r="K560" s="14"/>
@@ -27677,7 +27843,9 @@
       <c r="G561" s="34" t="s">
         <v>2264</v>
       </c>
-      <c r="H561" s="15"/>
+      <c r="H561" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I561" s="14"/>
       <c r="J561" s="14"/>
       <c r="K561" s="14"/>
@@ -27704,7 +27872,9 @@
       <c r="G562" s="34" t="s">
         <v>2265</v>
       </c>
-      <c r="H562" s="15"/>
+      <c r="H562" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I562" s="14"/>
       <c r="J562" s="14"/>
       <c r="K562" s="14"/>
@@ -27731,7 +27901,9 @@
       <c r="G563" s="34" t="s">
         <v>2268</v>
       </c>
-      <c r="H563" s="15"/>
+      <c r="H563" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I563" s="14"/>
       <c r="J563" s="14"/>
       <c r="K563" s="14"/>
@@ -27758,7 +27930,9 @@
       <c r="G564" s="34" t="s">
         <v>2270</v>
       </c>
-      <c r="H564" s="15"/>
+      <c r="H564" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I564" s="14"/>
       <c r="J564" s="14"/>
       <c r="K564" s="14"/>
@@ -27785,7 +27959,9 @@
       <c r="G565" s="34" t="s">
         <v>2272</v>
       </c>
-      <c r="H565" s="15"/>
+      <c r="H565" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I565" s="14"/>
       <c r="J565" s="14"/>
       <c r="K565" s="14"/>
@@ -27812,7 +27988,9 @@
       <c r="G566" s="34" t="s">
         <v>2273</v>
       </c>
-      <c r="H566" s="15"/>
+      <c r="H566" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I566" s="14"/>
       <c r="J566" s="14"/>
       <c r="K566" s="14"/>
@@ -27839,7 +28017,9 @@
       <c r="G567" s="34" t="s">
         <v>2275</v>
       </c>
-      <c r="H567" s="15"/>
+      <c r="H567" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I567" s="14"/>
       <c r="J567" s="14"/>
       <c r="K567" s="14"/>
@@ -27866,7 +28046,9 @@
       <c r="G568" s="34" t="s">
         <v>2277</v>
       </c>
-      <c r="H568" s="15"/>
+      <c r="H568" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I568" s="14"/>
       <c r="J568" s="14"/>
       <c r="K568" s="14"/>
@@ -27893,7 +28075,9 @@
       <c r="G569" s="34" t="s">
         <v>2280</v>
       </c>
-      <c r="H569" s="15"/>
+      <c r="H569" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I569" s="14"/>
       <c r="J569" s="14"/>
       <c r="K569" s="14"/>
@@ -27905,7 +28089,9 @@
       <c r="Q569" s="17"/>
     </row>
     <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="20"/>
+      <c r="A570" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B570" s="35" t="s">
         <v>2282</v>
       </c>
@@ -27918,7 +28104,9 @@
       <c r="G570" s="34" t="s">
         <v>2281</v>
       </c>
-      <c r="H570" s="15"/>
+      <c r="H570" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I570" s="14"/>
       <c r="J570" s="14"/>
       <c r="K570" s="14"/>
@@ -27930,7 +28118,9 @@
       <c r="Q570" s="17"/>
     </row>
     <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="20"/>
+      <c r="A571" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B571" s="35" t="s">
         <v>2285</v>
       </c>
@@ -27943,7 +28133,9 @@
       <c r="G571" s="34" t="s">
         <v>2281</v>
       </c>
-      <c r="H571" s="15"/>
+      <c r="H571" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I571" s="14"/>
       <c r="J571" s="14"/>
       <c r="K571" s="14"/>
@@ -27955,7 +28147,9 @@
       <c r="Q571" s="17"/>
     </row>
     <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="20"/>
+      <c r="A572" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B572" s="35" t="s">
         <v>2287</v>
       </c>
@@ -27968,7 +28162,9 @@
       <c r="G572" s="34" t="s">
         <v>2286</v>
       </c>
-      <c r="H572" s="15"/>
+      <c r="H572" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I572" s="14"/>
       <c r="J572" s="14"/>
       <c r="K572" s="14"/>
@@ -27980,7 +28176,9 @@
       <c r="Q572" s="17"/>
     </row>
     <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="20"/>
+      <c r="A573" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B573" s="35" t="s">
         <v>2290</v>
       </c>
@@ -27993,7 +28191,9 @@
       <c r="G573" s="34" t="s">
         <v>2291</v>
       </c>
-      <c r="H573" s="15"/>
+      <c r="H573" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I573" s="14"/>
       <c r="J573" s="14"/>
       <c r="K573" s="14"/>
@@ -28005,7 +28205,9 @@
       <c r="Q573" s="17"/>
     </row>
     <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="20"/>
+      <c r="A574" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B574" s="35" t="s">
         <v>2293</v>
       </c>
@@ -28018,7 +28220,9 @@
       <c r="G574" s="34" t="s">
         <v>2294</v>
       </c>
-      <c r="H574" s="15"/>
+      <c r="H574" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I574" s="14"/>
       <c r="J574" s="14"/>
       <c r="K574" s="14"/>
@@ -28030,7 +28234,9 @@
       <c r="Q574" s="17"/>
     </row>
     <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="20"/>
+      <c r="A575" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B575" s="35" t="s">
         <v>2296</v>
       </c>
@@ -28043,7 +28249,9 @@
       <c r="G575" s="34" t="s">
         <v>2297</v>
       </c>
-      <c r="H575" s="15"/>
+      <c r="H575" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I575" s="14"/>
       <c r="J575" s="14"/>
       <c r="K575" s="14"/>
@@ -28055,7 +28263,9 @@
       <c r="Q575" s="17"/>
     </row>
     <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="20"/>
+      <c r="A576" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B576" s="35" t="s">
         <v>2298</v>
       </c>
@@ -28068,7 +28278,9 @@
       <c r="G576" s="34" t="s">
         <v>2294</v>
       </c>
-      <c r="H576" s="15"/>
+      <c r="H576" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I576" s="14"/>
       <c r="J576" s="14"/>
       <c r="K576" s="14"/>
@@ -28080,7 +28292,9 @@
       <c r="Q576" s="17"/>
     </row>
     <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="20"/>
+      <c r="A577" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B577" s="35" t="s">
         <v>2301</v>
       </c>
@@ -28093,7 +28307,9 @@
       <c r="G577" s="34" t="s">
         <v>2294</v>
       </c>
-      <c r="H577" s="15"/>
+      <c r="H577" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I577" s="14"/>
       <c r="J577" s="14"/>
       <c r="K577" s="14"/>
@@ -28105,7 +28321,9 @@
       <c r="Q577" s="17"/>
     </row>
     <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="20"/>
+      <c r="A578" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B578" s="35" t="s">
         <v>2303</v>
       </c>
@@ -28118,7 +28336,9 @@
       <c r="G578" s="34" t="s">
         <v>2302</v>
       </c>
-      <c r="H578" s="15"/>
+      <c r="H578" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I578" s="14"/>
       <c r="J578" s="14"/>
       <c r="K578" s="14"/>
@@ -28130,7 +28350,9 @@
       <c r="Q578" s="17"/>
     </row>
     <row r="579" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="20"/>
+      <c r="A579" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B579" s="35" t="s">
         <v>2305</v>
       </c>
@@ -28143,7 +28365,9 @@
       <c r="G579" s="34" t="s">
         <v>2306</v>
       </c>
-      <c r="H579" s="15"/>
+      <c r="H579" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I579" s="14"/>
       <c r="J579" s="14"/>
       <c r="K579" s="14"/>
@@ -28155,7 +28379,9 @@
       <c r="Q579" s="17"/>
     </row>
     <row r="580" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="20"/>
+      <c r="A580" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B580" s="35" t="s">
         <v>2308</v>
       </c>
@@ -28168,7 +28394,9 @@
       <c r="G580" s="34" t="s">
         <v>2306</v>
       </c>
-      <c r="H580" s="15"/>
+      <c r="H580" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I580" s="14"/>
       <c r="J580" s="14"/>
       <c r="K580" s="14"/>
@@ -28180,7 +28408,9 @@
       <c r="Q580" s="17"/>
     </row>
     <row r="581" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="20"/>
+      <c r="A581" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B581" s="35" t="s">
         <v>2311</v>
       </c>
@@ -28193,7 +28423,9 @@
       <c r="G581" s="34" t="s">
         <v>2312</v>
       </c>
-      <c r="H581" s="15"/>
+      <c r="H581" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I581" s="14"/>
       <c r="J581" s="14"/>
       <c r="K581" s="14"/>
@@ -28205,7 +28437,9 @@
       <c r="Q581" s="17"/>
     </row>
     <row r="582" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="20"/>
+      <c r="A582" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B582" s="35" t="s">
         <v>2314</v>
       </c>
@@ -28218,7 +28452,9 @@
       <c r="G582" s="34" t="s">
         <v>2313</v>
       </c>
-      <c r="H582" s="15"/>
+      <c r="H582" s="37" t="s">
+        <v>2316</v>
+      </c>
       <c r="I582" s="14"/>
       <c r="J582" s="14"/>
       <c r="K582" s="14"/>
@@ -28230,14 +28466,24 @@
       <c r="Q582" s="17"/>
     </row>
     <row r="583" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="20"/>
-      <c r="B583" s="35"/>
-      <c r="C583" s="48"/>
+      <c r="A583" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B583" s="35" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C583" s="48" t="s">
+        <v>2320</v>
+      </c>
       <c r="D583" s="14"/>
       <c r="E583" s="14"/>
       <c r="F583" s="14"/>
-      <c r="G583" s="34"/>
-      <c r="H583" s="15"/>
+      <c r="G583" s="34" t="s">
+        <v>2318</v>
+      </c>
+      <c r="H583" s="37" t="s">
+        <v>2317</v>
+      </c>
       <c r="I583" s="14"/>
       <c r="J583" s="14"/>
       <c r="K583" s="14"/>
@@ -28249,14 +28495,24 @@
       <c r="Q583" s="17"/>
     </row>
     <row r="584" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="20"/>
-      <c r="B584" s="35"/>
-      <c r="C584" s="48"/>
+      <c r="A584" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B584" s="35" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C584" s="48" t="s">
+        <v>2323</v>
+      </c>
       <c r="D584" s="14"/>
       <c r="E584" s="14"/>
       <c r="F584" s="14"/>
-      <c r="G584" s="34"/>
-      <c r="H584" s="15"/>
+      <c r="G584" s="34" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H584" s="37" t="s">
+        <v>2317</v>
+      </c>
       <c r="I584" s="14"/>
       <c r="J584" s="14"/>
       <c r="K584" s="14"/>
@@ -28268,14 +28524,24 @@
       <c r="Q584" s="17"/>
     </row>
     <row r="585" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="20"/>
-      <c r="B585" s="35"/>
-      <c r="C585" s="48"/>
+      <c r="A585" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B585" s="35" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C585" s="48" t="s">
+        <v>2326</v>
+      </c>
       <c r="D585" s="14"/>
       <c r="E585" s="14"/>
       <c r="F585" s="14"/>
-      <c r="G585" s="34"/>
-      <c r="H585" s="15"/>
+      <c r="G585" s="34" t="s">
+        <v>2324</v>
+      </c>
+      <c r="H585" s="37" t="s">
+        <v>2317</v>
+      </c>
       <c r="I585" s="14"/>
       <c r="J585" s="14"/>
       <c r="K585" s="14"/>
@@ -28287,14 +28553,24 @@
       <c r="Q585" s="17"/>
     </row>
     <row r="586" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="20"/>
-      <c r="B586" s="35"/>
-      <c r="C586" s="48"/>
+      <c r="A586" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B586" s="35" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C586" s="48" t="s">
+        <v>2329</v>
+      </c>
       <c r="D586" s="14"/>
       <c r="E586" s="14"/>
       <c r="F586" s="14"/>
-      <c r="G586" s="34"/>
-      <c r="H586" s="15"/>
+      <c r="G586" s="34" t="s">
+        <v>2327</v>
+      </c>
+      <c r="H586" s="37" t="s">
+        <v>2317</v>
+      </c>
       <c r="I586" s="14"/>
       <c r="J586" s="14"/>
       <c r="K586" s="14"/>
@@ -28306,14 +28582,24 @@
       <c r="Q586" s="17"/>
     </row>
     <row r="587" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="20"/>
-      <c r="B587" s="35"/>
-      <c r="C587" s="48"/>
+      <c r="A587" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B587" s="35" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C587" s="48" t="s">
+        <v>2330</v>
+      </c>
       <c r="D587" s="14"/>
       <c r="E587" s="14"/>
       <c r="F587" s="14"/>
-      <c r="G587" s="34"/>
-      <c r="H587" s="15"/>
+      <c r="G587" s="34" t="s">
+        <v>2332</v>
+      </c>
+      <c r="H587" s="37" t="s">
+        <v>2317</v>
+      </c>
       <c r="I587" s="14"/>
       <c r="J587" s="14"/>
       <c r="K587" s="14"/>
@@ -28325,14 +28611,24 @@
       <c r="Q587" s="17"/>
     </row>
     <row r="588" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="20"/>
-      <c r="B588" s="35"/>
-      <c r="C588" s="48"/>
+      <c r="A588" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B588" s="35" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C588" s="48" t="s">
+        <v>2336</v>
+      </c>
       <c r="D588" s="14"/>
       <c r="E588" s="14"/>
       <c r="F588" s="14"/>
-      <c r="G588" s="34"/>
-      <c r="H588" s="15"/>
+      <c r="G588" s="34" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H588" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I588" s="14"/>
       <c r="J588" s="14"/>
       <c r="K588" s="14"/>
@@ -28344,14 +28640,24 @@
       <c r="Q588" s="17"/>
     </row>
     <row r="589" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="20"/>
-      <c r="B589" s="35"/>
-      <c r="C589" s="48"/>
+      <c r="A589" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B589" s="35" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C589" s="48" t="s">
+        <v>2337</v>
+      </c>
       <c r="D589" s="14"/>
       <c r="E589" s="14"/>
       <c r="F589" s="14"/>
-      <c r="G589" s="34"/>
-      <c r="H589" s="15"/>
+      <c r="G589" s="34" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H589" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I589" s="14"/>
       <c r="J589" s="14"/>
       <c r="K589" s="14"/>
@@ -28363,14 +28669,24 @@
       <c r="Q589" s="17"/>
     </row>
     <row r="590" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="20"/>
-      <c r="B590" s="35"/>
-      <c r="C590" s="48"/>
+      <c r="A590" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B590" s="35" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C590" s="48" t="s">
+        <v>2342</v>
+      </c>
       <c r="D590" s="14"/>
       <c r="E590" s="14"/>
       <c r="F590" s="14"/>
-      <c r="G590" s="34"/>
-      <c r="H590" s="15"/>
+      <c r="G590" s="34" t="s">
+        <v>2340</v>
+      </c>
+      <c r="H590" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I590" s="14"/>
       <c r="J590" s="14"/>
       <c r="K590" s="14"/>
@@ -28382,14 +28698,24 @@
       <c r="Q590" s="17"/>
     </row>
     <row r="591" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="20"/>
-      <c r="B591" s="35"/>
-      <c r="C591" s="48"/>
+      <c r="A591" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B591" s="35" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C591" s="48" t="s">
+        <v>2343</v>
+      </c>
       <c r="D591" s="14"/>
       <c r="E591" s="14"/>
       <c r="F591" s="14"/>
-      <c r="G591" s="34"/>
-      <c r="H591" s="15"/>
+      <c r="G591" s="34" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H591" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I591" s="14"/>
       <c r="J591" s="14"/>
       <c r="K591" s="14"/>
@@ -28401,14 +28727,24 @@
       <c r="Q591" s="17"/>
     </row>
     <row r="592" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="20"/>
-      <c r="B592" s="35"/>
-      <c r="C592" s="48"/>
+      <c r="A592" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B592" s="35" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C592" s="48" t="s">
+        <v>2348</v>
+      </c>
       <c r="D592" s="14"/>
       <c r="E592" s="14"/>
       <c r="F592" s="14"/>
-      <c r="G592" s="34"/>
-      <c r="H592" s="15"/>
+      <c r="G592" s="34" t="s">
+        <v>2346</v>
+      </c>
+      <c r="H592" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I592" s="14"/>
       <c r="J592" s="14"/>
       <c r="K592" s="14"/>
@@ -28420,14 +28756,24 @@
       <c r="Q592" s="17"/>
     </row>
     <row r="593" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="20"/>
-      <c r="B593" s="35"/>
-      <c r="C593" s="48"/>
+      <c r="A593" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B593" s="35" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C593" s="48" t="s">
+        <v>2349</v>
+      </c>
       <c r="D593" s="14"/>
       <c r="E593" s="14"/>
       <c r="F593" s="14"/>
-      <c r="G593" s="34"/>
-      <c r="H593" s="15"/>
+      <c r="G593" s="34" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H593" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I593" s="14"/>
       <c r="J593" s="14"/>
       <c r="K593" s="14"/>
@@ -28439,14 +28785,24 @@
       <c r="Q593" s="17"/>
     </row>
     <row r="594" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="20"/>
-      <c r="B594" s="35"/>
-      <c r="C594" s="48"/>
+      <c r="A594" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B594" s="35" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C594" s="48" t="s">
+        <v>2354</v>
+      </c>
       <c r="D594" s="14"/>
       <c r="E594" s="14"/>
       <c r="F594" s="14"/>
-      <c r="G594" s="34"/>
-      <c r="H594" s="15"/>
+      <c r="G594" s="34" t="s">
+        <v>2352</v>
+      </c>
+      <c r="H594" s="37" t="s">
+        <v>2333</v>
+      </c>
       <c r="I594" s="14"/>
       <c r="J594" s="14"/>
       <c r="K594" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="2355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="2381">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10218,12 +10218,118 @@
     <t>ahartmans@businessinsider.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>London Bureau
+Entertainment: entertainment@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nathan McAlone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmcalone@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason Guerrasio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jguerrasio@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwittmer@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrie Wittmer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jlynch@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Lynch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>London Bureau
+Science &amp; Innovation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dana Varinsky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvarinsky@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmosher@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dave Mosher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin Loria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kloria@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cweller@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris Weller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgarfield@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Leanna Garfield </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbrueck@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hilary Brueck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10933,22 +11039,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A570" sqref="A570:A594"/>
+      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A595" sqref="A595:A604"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -10970,7 +11076,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -11026,7 +11132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -11057,7 +11163,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -11088,7 +11194,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -11119,7 +11225,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -11154,7 +11260,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -11200,7 +11306,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -11233,7 +11339,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -11275,7 +11381,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -11310,7 +11416,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -11349,7 +11455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -11379,7 +11485,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -11411,7 +11517,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -11446,7 +11552,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -11470,7 +11576,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -11507,7 +11613,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -11544,7 +11650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -11579,7 +11685,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -11610,7 +11716,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -11649,7 +11755,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -11680,7 +11786,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -11707,7 +11813,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -11740,7 +11846,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -11773,7 +11879,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -11804,7 +11910,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -11841,7 +11947,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -11876,7 +11982,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -11913,7 +12019,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -11944,7 +12050,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -11977,7 +12083,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -12006,7 +12112,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -12033,7 +12139,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -12064,7 +12170,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -12095,7 +12201,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -12133,7 +12239,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -12166,7 +12272,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -12193,7 +12299,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -12228,7 +12334,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -12263,7 +12369,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -12300,7 +12406,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -12333,7 +12439,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -12371,7 +12477,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -12406,7 +12512,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -12437,7 +12543,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -12476,7 +12582,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -12511,7 +12617,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -12546,7 +12652,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -12579,7 +12685,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -12614,7 +12720,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -12645,7 +12751,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -12670,7 +12776,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -12709,7 +12815,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -12743,7 +12849,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -12778,7 +12884,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -12815,7 +12921,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -12857,7 +12963,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -12890,7 +12996,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -12923,7 +13029,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -12954,7 +13060,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -12989,7 +13095,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -13018,7 +13124,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -13047,7 +13153,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -13078,7 +13184,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -13107,7 +13213,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -13138,7 +13244,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -13169,7 +13275,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -13202,7 +13308,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -13233,7 +13339,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -13268,7 +13374,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -13303,7 +13409,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -13336,7 +13442,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -13369,7 +13475,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -13406,7 +13512,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -13443,7 +13549,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -13478,7 +13584,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -13513,7 +13619,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -13544,7 +13650,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -13579,7 +13685,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -13614,7 +13720,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -13643,7 +13749,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -13668,7 +13774,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -13695,7 +13801,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -13722,7 +13828,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -13749,7 +13855,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -13778,7 +13884,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -13805,7 +13911,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -13842,7 +13948,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -13877,7 +13983,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -13912,7 +14018,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -13943,7 +14049,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -13974,7 +14080,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -14003,7 +14109,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -14040,7 +14146,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -14081,7 +14187,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -14118,7 +14224,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -14159,7 +14265,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -14187,7 +14293,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -14220,7 +14326,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -14253,7 +14359,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -14288,7 +14394,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -14327,7 +14433,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -14358,7 +14464,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -14389,7 +14495,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -14426,7 +14532,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -14467,7 +14573,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1">
       <c r="A105" s="20" t="s">
         <v>679</v>
       </c>
@@ -14504,7 +14610,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1">
       <c r="A106" s="20" t="s">
         <v>679</v>
       </c>
@@ -14541,7 +14647,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1">
       <c r="A107" s="20" t="s">
         <v>679</v>
       </c>
@@ -14578,7 +14684,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1">
       <c r="A108" s="20" t="s">
         <v>679</v>
       </c>
@@ -14617,7 +14723,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>679</v>
       </c>
@@ -14654,7 +14760,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>679</v>
       </c>
@@ -14685,7 +14791,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1">
       <c r="A111" s="20" t="s">
         <v>679</v>
       </c>
@@ -14716,7 +14822,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>679</v>
       </c>
@@ -14753,7 +14859,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>679</v>
       </c>
@@ -14794,7 +14900,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1">
       <c r="A114" s="20" t="s">
         <v>679</v>
       </c>
@@ -14831,7 +14937,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>679</v>
       </c>
@@ -14854,7 +14960,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>679</v>
       </c>
@@ -14893,7 +14999,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1">
       <c r="A117" s="20" t="s">
         <v>679</v>
       </c>
@@ -14930,7 +15036,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>679</v>
       </c>
@@ -14967,7 +15073,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>679</v>
       </c>
@@ -14998,7 +15104,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1">
       <c r="A120" s="20" t="s">
         <v>679</v>
       </c>
@@ -15031,7 +15137,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>679</v>
       </c>
@@ -15072,7 +15178,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1">
       <c r="A122" s="20" t="s">
         <v>679</v>
       </c>
@@ -15107,7 +15213,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1">
       <c r="A123" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15138,7 +15244,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1">
       <c r="A124" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15169,7 +15275,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15200,7 +15306,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1">
       <c r="A126" s="20" t="s">
         <v>1179</v>
       </c>
@@ -15239,7 +15345,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1">
       <c r="A127" s="20" t="s">
         <v>1179</v>
       </c>
@@ -15274,7 +15380,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1">
       <c r="A128" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15309,7 +15415,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1">
       <c r="A129" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15338,7 +15444,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A130" s="27" t="s">
         <v>792</v>
       </c>
@@ -15373,7 +15479,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A131" s="27" t="s">
         <v>791</v>
       </c>
@@ -15402,7 +15508,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1">
       <c r="A132" s="20" t="s">
         <v>1181</v>
       </c>
@@ -15435,7 +15541,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1">
       <c r="A133" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15462,7 +15568,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1">
       <c r="A134" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15499,7 +15605,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1">
       <c r="A135" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15534,7 +15640,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1">
       <c r="A136" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15577,7 +15683,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1">
       <c r="A137" s="20" t="s">
         <v>1181</v>
       </c>
@@ -15610,7 +15716,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1">
       <c r="A138" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15645,7 +15751,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A139" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15682,7 +15788,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1">
       <c r="A140" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15719,7 +15825,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1">
       <c r="A141" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15756,7 +15862,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1">
       <c r="A142" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15793,7 +15899,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1">
       <c r="A143" s="20" t="s">
         <v>1179</v>
       </c>
@@ -15830,7 +15936,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1">
       <c r="A144" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15859,7 +15965,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1">
       <c r="A145" s="20" t="s">
         <v>881</v>
       </c>
@@ -15898,7 +16004,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1">
       <c r="A146" s="20" t="s">
         <v>881</v>
       </c>
@@ -15941,7 +16047,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -15964,7 +16070,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -15987,7 +16093,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1">
       <c r="A149" s="20" t="s">
         <v>930</v>
       </c>
@@ -16016,7 +16122,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1">
       <c r="A150" s="20" t="s">
         <v>930</v>
       </c>
@@ -16045,7 +16151,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1">
       <c r="A151" s="20" t="s">
         <v>930</v>
       </c>
@@ -16074,7 +16180,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1">
       <c r="A152" s="20" t="s">
         <v>930</v>
       </c>
@@ -16103,7 +16209,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1">
       <c r="A153" s="20" t="s">
         <v>930</v>
       </c>
@@ -16132,7 +16238,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1">
       <c r="A154" s="20" t="s">
         <v>930</v>
       </c>
@@ -16161,7 +16267,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1">
       <c r="A155" s="20" t="s">
         <v>930</v>
       </c>
@@ -16190,7 +16296,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1">
       <c r="A156" s="20" t="s">
         <v>930</v>
       </c>
@@ -16219,7 +16325,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1">
       <c r="A157" s="20" t="s">
         <v>930</v>
       </c>
@@ -16248,7 +16354,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1">
       <c r="A158" s="20" t="s">
         <v>930</v>
       </c>
@@ -16279,7 +16385,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1">
       <c r="A159" s="20" t="s">
         <v>930</v>
       </c>
@@ -16310,7 +16416,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1">
       <c r="A160" s="20" t="s">
         <v>930</v>
       </c>
@@ -16341,7 +16447,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1">
       <c r="A161" s="20" t="s">
         <v>930</v>
       </c>
@@ -16370,7 +16476,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1">
       <c r="A162" s="20" t="s">
         <v>930</v>
       </c>
@@ -16399,7 +16505,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1">
       <c r="A163" s="20" t="s">
         <v>930</v>
       </c>
@@ -16428,7 +16534,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1">
       <c r="A164" s="20" t="s">
         <v>930</v>
       </c>
@@ -16457,7 +16563,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1">
       <c r="A165" s="20" t="s">
         <v>930</v>
       </c>
@@ -16486,7 +16592,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1">
       <c r="A166" s="20" t="s">
         <v>930</v>
       </c>
@@ -16515,7 +16621,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1">
       <c r="A167" s="20" t="s">
         <v>930</v>
       </c>
@@ -16544,7 +16650,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1">
       <c r="A168" s="20" t="s">
         <v>930</v>
       </c>
@@ -16573,7 +16679,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1">
       <c r="A169" s="20" t="s">
         <v>930</v>
       </c>
@@ -16602,7 +16708,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1">
       <c r="A170" s="20" t="s">
         <v>930</v>
       </c>
@@ -16631,7 +16737,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1">
       <c r="A171" s="20" t="s">
         <v>930</v>
       </c>
@@ -16660,7 +16766,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1">
       <c r="A172" s="20" t="s">
         <v>930</v>
       </c>
@@ -16689,7 +16795,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1">
       <c r="A173" s="20" t="s">
         <v>930</v>
       </c>
@@ -16718,7 +16824,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1">
       <c r="A174" s="20" t="s">
         <v>930</v>
       </c>
@@ -16747,7 +16853,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1">
       <c r="A175" s="20" t="s">
         <v>930</v>
       </c>
@@ -16776,7 +16882,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1">
       <c r="A176" s="20" t="s">
         <v>930</v>
       </c>
@@ -16805,7 +16911,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1">
       <c r="A177" s="20" t="s">
         <v>930</v>
       </c>
@@ -16834,7 +16940,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1">
       <c r="A178" s="20" t="s">
         <v>930</v>
       </c>
@@ -16863,7 +16969,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1">
       <c r="A179" s="20" t="s">
         <v>930</v>
       </c>
@@ -16892,7 +16998,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1">
       <c r="A180" s="20" t="s">
         <v>930</v>
       </c>
@@ -16921,7 +17027,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1">
       <c r="A181" s="20" t="s">
         <v>930</v>
       </c>
@@ -16950,7 +17056,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1">
       <c r="A182" s="20" t="s">
         <v>930</v>
       </c>
@@ -16979,7 +17085,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1">
       <c r="A183" s="20" t="s">
         <v>930</v>
       </c>
@@ -17008,7 +17114,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1">
       <c r="A184" s="20" t="s">
         <v>930</v>
       </c>
@@ -17035,7 +17141,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1">
       <c r="A185" s="20" t="s">
         <v>930</v>
       </c>
@@ -17064,7 +17170,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1">
       <c r="A186" s="20" t="s">
         <v>930</v>
       </c>
@@ -17093,7 +17199,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1">
       <c r="A187" s="20" t="s">
         <v>930</v>
       </c>
@@ -17122,7 +17228,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1">
       <c r="A188" s="20" t="s">
         <v>930</v>
       </c>
@@ -17151,7 +17257,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1">
       <c r="A189" s="20" t="s">
         <v>930</v>
       </c>
@@ -17180,7 +17286,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1">
       <c r="A190" s="20" t="s">
         <v>930</v>
       </c>
@@ -17207,7 +17313,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1">
       <c r="A191" s="20" t="s">
         <v>930</v>
       </c>
@@ -17236,7 +17342,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1">
       <c r="A192" s="20" t="s">
         <v>930</v>
       </c>
@@ -17265,7 +17371,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1">
       <c r="A193" s="20" t="s">
         <v>930</v>
       </c>
@@ -17294,7 +17400,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1">
       <c r="A194" s="20" t="s">
         <v>930</v>
       </c>
@@ -17321,7 +17427,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1">
       <c r="A195" s="20" t="s">
         <v>930</v>
       </c>
@@ -17350,7 +17456,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1">
       <c r="A196" s="20" t="s">
         <v>930</v>
       </c>
@@ -17377,7 +17483,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1">
       <c r="A197" s="20" t="s">
         <v>930</v>
       </c>
@@ -17406,7 +17512,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1">
       <c r="A198" s="20" t="s">
         <v>930</v>
       </c>
@@ -17435,7 +17541,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1">
       <c r="A199" s="20" t="s">
         <v>930</v>
       </c>
@@ -17464,7 +17570,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1">
       <c r="A200" s="20" t="s">
         <v>930</v>
       </c>
@@ -17493,7 +17599,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1">
       <c r="A201" s="20" t="s">
         <v>930</v>
       </c>
@@ -17522,7 +17628,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1">
       <c r="A202" s="20" t="s">
         <v>930</v>
       </c>
@@ -17551,7 +17657,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1">
       <c r="A203" s="20" t="s">
         <v>930</v>
       </c>
@@ -17580,7 +17686,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1">
       <c r="A204" s="20" t="s">
         <v>930</v>
       </c>
@@ -17609,7 +17715,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1">
       <c r="A205" s="20" t="s">
         <v>930</v>
       </c>
@@ -17638,7 +17744,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1">
       <c r="A206" s="20" t="s">
         <v>930</v>
       </c>
@@ -17667,7 +17773,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1">
       <c r="A207" s="20" t="s">
         <v>930</v>
       </c>
@@ -17696,7 +17802,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1">
       <c r="A208" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17735,7 +17841,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1">
       <c r="A209" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17764,7 +17870,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1">
       <c r="A210" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17791,7 +17897,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1">
       <c r="A211" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17820,7 +17926,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1">
       <c r="A212" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17849,7 +17955,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1">
       <c r="A213" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17880,7 +17986,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1">
       <c r="A214" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17904,7 +18010,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1">
       <c r="A215" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17929,7 +18035,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1">
       <c r="A216" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17954,7 +18060,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1">
       <c r="A217" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17979,7 +18085,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1">
       <c r="A218" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18004,7 +18110,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1">
       <c r="A219" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18029,7 +18135,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1">
       <c r="A220" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18054,7 +18160,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1">
       <c r="A221" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18079,7 +18185,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1">
       <c r="A222" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18104,7 +18210,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1">
       <c r="A223" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18143,7 +18249,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1">
       <c r="A224" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18178,7 +18284,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1">
       <c r="A225" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18215,7 +18321,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1">
       <c r="A226" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18260,7 +18366,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1">
       <c r="A227" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18289,7 +18395,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1">
       <c r="A228" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18322,7 +18428,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1">
       <c r="A229" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18355,7 +18461,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1">
       <c r="A230" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18392,7 +18498,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1">
       <c r="A231" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18427,7 +18533,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1">
       <c r="A232" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18464,7 +18570,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1">
       <c r="A233" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18501,7 +18607,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1">
       <c r="A234" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18540,7 +18646,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1">
       <c r="A235" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18577,7 +18683,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1">
       <c r="A236" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18618,7 +18724,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1">
       <c r="A237" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18653,7 +18759,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1">
       <c r="A238" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18690,7 +18796,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1">
       <c r="A239" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18727,7 +18833,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1">
       <c r="A240" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18754,7 +18860,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1">
       <c r="A241" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18789,7 +18895,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1">
       <c r="A242" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18832,7 +18938,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1">
       <c r="A243" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18873,7 +18979,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1">
       <c r="A244" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18912,7 +19018,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1">
       <c r="A245" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18949,7 +19055,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1">
       <c r="A246" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18988,7 +19094,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1">
       <c r="A247" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19029,7 +19135,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1">
       <c r="A248" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19070,7 +19176,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1">
       <c r="A249" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19098,7 +19204,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1">
       <c r="A250" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19135,7 +19241,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1">
       <c r="A251" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19176,7 +19282,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1">
       <c r="A252" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19209,7 +19315,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1">
       <c r="A253" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19248,7 +19354,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1">
       <c r="A254" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19281,7 +19387,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1">
       <c r="A255" s="34" t="s">
         <v>1430</v>
       </c>
@@ -19308,7 +19414,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1">
       <c r="A256" s="34" t="s">
         <v>1430</v>
       </c>
@@ -19335,7 +19441,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1">
       <c r="A257" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19368,7 +19474,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1">
       <c r="A258" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19407,7 +19513,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1">
       <c r="A259" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19436,7 +19542,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1">
       <c r="A260" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19477,7 +19583,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1">
       <c r="A261" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19506,7 +19612,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1">
       <c r="A262" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19535,7 +19641,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1">
       <c r="A263" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19564,7 +19670,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1">
       <c r="A264" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19593,7 +19699,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1">
       <c r="A265" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19622,7 +19728,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1">
       <c r="A266" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19651,7 +19757,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1">
       <c r="A267" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19680,7 +19786,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1">
       <c r="A268" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19709,7 +19815,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1">
       <c r="A269" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19738,7 +19844,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1">
       <c r="A270" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19767,7 +19873,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1">
       <c r="A271" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19794,7 +19900,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1">
       <c r="A272" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19821,7 +19927,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1">
       <c r="A273" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19848,7 +19954,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1">
       <c r="A274" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19875,7 +19981,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1">
       <c r="A275" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19902,7 +20008,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1">
       <c r="A276" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19929,7 +20035,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1">
       <c r="A277" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19956,7 +20062,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1">
       <c r="A278" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19983,7 +20089,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1">
       <c r="A279" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20010,7 +20116,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1">
       <c r="A280" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20037,7 +20143,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1">
       <c r="A281" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20064,7 +20170,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1">
       <c r="A282" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20091,7 +20197,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1">
       <c r="A283" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20118,7 +20224,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1">
       <c r="A284" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20145,7 +20251,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1">
       <c r="A285" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20172,7 +20278,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1">
       <c r="A286" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20199,7 +20305,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1">
       <c r="A287" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20226,7 +20332,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1">
       <c r="A288" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20253,7 +20359,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1">
       <c r="A289" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20280,7 +20386,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1">
       <c r="A290" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20307,7 +20413,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1">
       <c r="A291" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20334,7 +20440,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1">
       <c r="A292" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20361,7 +20467,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1">
       <c r="A293" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20388,7 +20494,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1">
       <c r="A294" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20415,7 +20521,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1">
       <c r="A295" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20442,7 +20548,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1">
       <c r="A296" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20469,7 +20575,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1">
       <c r="A297" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20496,7 +20602,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1">
       <c r="A298" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20523,7 +20629,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1">
       <c r="A299" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20550,7 +20656,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1">
       <c r="A300" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20577,7 +20683,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1">
       <c r="A301" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20604,7 +20710,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1">
       <c r="A302" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20631,7 +20737,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1">
       <c r="A303" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20658,7 +20764,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1">
       <c r="A304" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20685,7 +20791,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1">
       <c r="A305" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20712,7 +20818,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1">
       <c r="A306" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20739,7 +20845,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1">
       <c r="A307" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20766,7 +20872,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1">
       <c r="A308" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20793,7 +20899,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1">
       <c r="A309" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20820,7 +20926,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1">
       <c r="A310" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20847,7 +20953,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1">
       <c r="A311" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20874,7 +20980,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1">
       <c r="A312" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20901,7 +21007,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1">
       <c r="A313" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20928,7 +21034,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1">
       <c r="A314" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20955,7 +21061,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1">
       <c r="A315" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20982,7 +21088,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1">
       <c r="A316" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21009,7 +21115,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1">
       <c r="A317" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21036,7 +21142,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1">
       <c r="A318" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21063,7 +21169,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1">
       <c r="A319" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21090,7 +21196,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1">
       <c r="A320" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21117,7 +21223,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1">
       <c r="A321" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21144,7 +21250,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1">
       <c r="A322" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21171,7 +21277,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1">
       <c r="A323" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21198,7 +21304,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1">
       <c r="A324" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21225,7 +21331,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1">
       <c r="A325" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21252,7 +21358,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1">
       <c r="A326" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21279,7 +21385,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1">
       <c r="A327" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21306,7 +21412,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1">
       <c r="A328" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21333,7 +21439,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1">
       <c r="A329" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21360,7 +21466,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1">
       <c r="A330" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21387,7 +21493,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1">
       <c r="A331" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21414,7 +21520,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1">
       <c r="A332" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21441,7 +21547,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1">
       <c r="A333" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21468,7 +21574,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1">
       <c r="A334" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21495,7 +21601,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1">
       <c r="A335" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21522,7 +21628,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1">
       <c r="A336" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21549,7 +21655,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1">
       <c r="A337" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21576,7 +21682,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1">
       <c r="A338" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21603,7 +21709,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1">
       <c r="A339" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21630,7 +21736,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1">
       <c r="A340" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21657,7 +21763,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1">
       <c r="A341" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21684,7 +21790,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1">
       <c r="A342" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21711,7 +21817,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1">
       <c r="A343" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21738,7 +21844,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1">
       <c r="A344" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21765,7 +21871,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1">
       <c r="A345" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21792,7 +21898,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1">
       <c r="A346" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21819,7 +21925,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1">
       <c r="A347" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21846,7 +21952,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1">
       <c r="A348" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21873,7 +21979,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1">
       <c r="A349" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21900,7 +22006,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1">
       <c r="A350" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21927,7 +22033,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1">
       <c r="A351" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21954,7 +22060,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1">
       <c r="A352" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21981,7 +22087,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1">
       <c r="A353" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22008,7 +22114,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1">
       <c r="A354" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22035,7 +22141,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1">
       <c r="A355" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22062,7 +22168,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1">
       <c r="A356" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22089,7 +22195,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1">
       <c r="A357" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22116,7 +22222,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1">
       <c r="A358" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22143,7 +22249,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1">
       <c r="A359" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22170,7 +22276,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1">
       <c r="A360" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22197,7 +22303,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1">
       <c r="A361" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22224,7 +22330,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1">
       <c r="A362" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22251,7 +22357,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1">
       <c r="A363" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22278,7 +22384,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1">
       <c r="A364" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22305,7 +22411,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1">
       <c r="A365" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22332,7 +22438,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1">
       <c r="A366" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22359,7 +22465,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1">
       <c r="A367" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22386,7 +22492,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1">
       <c r="A368" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22413,7 +22519,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1">
       <c r="A369" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22440,7 +22546,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1">
       <c r="A370" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22467,7 +22573,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1">
       <c r="A371" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22494,7 +22600,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1">
       <c r="A372" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22521,7 +22627,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1">
       <c r="A373" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22548,7 +22654,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1">
       <c r="A374" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22575,7 +22681,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1">
       <c r="A375" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22602,7 +22708,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1">
       <c r="A376" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22629,7 +22735,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1">
       <c r="A377" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22656,7 +22762,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1">
       <c r="A378" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22683,7 +22789,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1">
       <c r="A379" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22710,7 +22816,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1">
       <c r="A380" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22737,7 +22843,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1">
       <c r="A381" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22764,7 +22870,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1">
       <c r="A382" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22791,7 +22897,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1">
       <c r="A383" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22818,7 +22924,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1">
       <c r="A384" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22845,7 +22951,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1">
       <c r="A385" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22872,7 +22978,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1">
       <c r="A386" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22899,7 +23005,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1">
       <c r="A387" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22926,7 +23032,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1">
       <c r="A388" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22953,7 +23059,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1">
       <c r="A389" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22980,7 +23086,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1">
       <c r="A390" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23007,7 +23113,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1">
       <c r="A391" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23034,7 +23140,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1">
       <c r="A392" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23061,7 +23167,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1">
       <c r="A393" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23088,7 +23194,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1">
       <c r="A394" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23115,7 +23221,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1">
       <c r="A395" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23142,7 +23248,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1">
       <c r="A396" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23169,7 +23275,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1">
       <c r="A397" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23196,7 +23302,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1">
       <c r="A398" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23223,7 +23329,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1">
       <c r="A399" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23250,7 +23356,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1">
       <c r="A400" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23277,7 +23383,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1">
       <c r="A401" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23304,7 +23410,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1">
       <c r="A402" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23331,7 +23437,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1">
       <c r="A403" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23358,7 +23464,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1">
       <c r="A404" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23385,7 +23491,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1">
       <c r="A405" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23412,7 +23518,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1">
       <c r="A406" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23439,7 +23545,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1">
       <c r="A407" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23466,7 +23572,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1">
       <c r="A408" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23493,7 +23599,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1">
       <c r="A409" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23520,7 +23626,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1">
       <c r="A410" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23547,7 +23653,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1">
       <c r="A411" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23574,7 +23680,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1">
       <c r="A412" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23601,7 +23707,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1">
       <c r="A413" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23628,7 +23734,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1">
       <c r="A414" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23655,7 +23761,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1">
       <c r="A415" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23682,7 +23788,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1">
       <c r="A416" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23709,7 +23815,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1">
       <c r="A417" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23736,7 +23842,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1">
       <c r="A418" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23763,7 +23869,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1">
       <c r="A419" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23790,7 +23896,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1">
       <c r="A420" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23817,7 +23923,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1">
       <c r="A421" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23844,7 +23950,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1">
       <c r="A422" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23871,7 +23977,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1">
       <c r="A423" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23898,7 +24004,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1">
       <c r="A424" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23925,7 +24031,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1">
       <c r="A425" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23952,7 +24058,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1">
       <c r="A426" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23979,7 +24085,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1">
       <c r="A427" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24006,7 +24112,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1">
       <c r="A428" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24033,7 +24139,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1">
       <c r="A429" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24060,7 +24166,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1">
       <c r="A430" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24087,7 +24193,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1">
       <c r="A431" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24114,7 +24220,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1">
       <c r="A432" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24141,7 +24247,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1">
       <c r="A433" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24168,7 +24274,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1">
       <c r="A434" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24195,7 +24301,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1">
       <c r="A435" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24222,7 +24328,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1">
       <c r="A436" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24249,7 +24355,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1">
       <c r="A437" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24276,7 +24382,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1">
       <c r="A438" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24303,7 +24409,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1">
       <c r="A439" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24330,7 +24436,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1">
       <c r="A440" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24357,7 +24463,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1">
       <c r="A441" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24384,7 +24490,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1">
       <c r="A442" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24411,7 +24517,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1">
       <c r="A443" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24438,7 +24544,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1">
       <c r="A444" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24465,7 +24571,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1">
       <c r="A445" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24492,7 +24598,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1">
       <c r="A446" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24519,7 +24625,7 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1">
       <c r="A447" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24546,7 +24652,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1">
       <c r="A448" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24573,7 +24679,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1">
       <c r="A449" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24600,7 +24706,7 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1">
       <c r="A450" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24627,7 +24733,7 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" ht="45.95" customHeight="1">
       <c r="A451" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24654,7 +24760,7 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" ht="45.95" customHeight="1">
       <c r="A452" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24681,7 +24787,7 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" ht="45.95" customHeight="1">
       <c r="A453" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24708,7 +24814,7 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" ht="45.95" customHeight="1">
       <c r="A454" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24735,7 +24841,7 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" ht="45.95" customHeight="1">
       <c r="A455" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24762,7 +24868,7 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" ht="45.95" customHeight="1">
       <c r="A456" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24789,7 +24895,7 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" ht="45.95" customHeight="1">
       <c r="A457" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24816,7 +24922,7 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" ht="45.95" customHeight="1">
       <c r="A458" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24843,7 +24949,7 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" ht="45.95" customHeight="1">
       <c r="A459" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24870,7 +24976,7 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" ht="45.95" customHeight="1">
       <c r="A460" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24897,7 +25003,7 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" ht="45.95" customHeight="1">
       <c r="A461" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24924,7 +25030,7 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" ht="45.95" customHeight="1">
       <c r="A462" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24951,7 +25057,7 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" ht="45.95" customHeight="1">
       <c r="A463" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24978,7 +25084,7 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" ht="45.95" customHeight="1">
       <c r="A464" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25005,7 +25111,7 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" ht="45.95" customHeight="1">
       <c r="A465" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25032,7 +25138,7 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" ht="45.95" customHeight="1">
       <c r="A466" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25059,7 +25165,7 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" ht="45.95" customHeight="1">
       <c r="A467" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25086,7 +25192,7 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" ht="45.95" customHeight="1">
       <c r="A468" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25113,7 +25219,7 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" ht="45.95" customHeight="1">
       <c r="A469" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25140,7 +25246,7 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" ht="45.95" customHeight="1">
       <c r="A470" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25167,7 +25273,7 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" ht="45.95" customHeight="1">
       <c r="A471" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25194,7 +25300,7 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" ht="45.95" customHeight="1">
       <c r="A472" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25221,7 +25327,7 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" ht="45.95" customHeight="1">
       <c r="A473" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25248,7 +25354,7 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" ht="45.95" customHeight="1">
       <c r="A474" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25275,7 +25381,7 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" ht="45.95" customHeight="1">
       <c r="A475" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25302,7 +25408,7 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" ht="45.95" customHeight="1">
       <c r="A476" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25329,7 +25435,7 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" ht="45.95" customHeight="1">
       <c r="A477" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25356,7 +25462,7 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" ht="45.95" customHeight="1">
       <c r="A478" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25383,7 +25489,7 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" ht="45.95" customHeight="1">
       <c r="A479" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25410,7 +25516,7 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" ht="45.95" customHeight="1">
       <c r="A480" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25437,7 +25543,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1">
       <c r="A481" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25464,7 +25570,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1">
       <c r="A482" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25491,7 +25597,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1">
       <c r="A483" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25518,7 +25624,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1">
       <c r="A484" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25545,7 +25651,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1">
       <c r="A485" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25572,7 +25678,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1">
       <c r="A486" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25599,7 +25705,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1">
       <c r="A487" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25626,7 +25732,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1">
       <c r="A488" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25653,7 +25759,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1">
       <c r="A489" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25680,7 +25786,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1">
       <c r="A490" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25707,7 +25813,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1">
       <c r="A491" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25734,7 +25840,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1">
       <c r="A492" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25761,7 +25867,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1">
       <c r="A493" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25788,7 +25894,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1">
       <c r="A494" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25815,7 +25921,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1">
       <c r="A495" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25842,7 +25948,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1">
       <c r="A496" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25869,7 +25975,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1">
       <c r="A497" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25896,7 +26002,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1">
       <c r="A498" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25923,7 +26029,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1">
       <c r="A499" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25950,7 +26056,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1">
       <c r="A500" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25977,7 +26083,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1">
       <c r="A501" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26006,7 +26112,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1">
       <c r="A502" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26033,7 +26139,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1">
       <c r="A503" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26076,7 +26182,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1">
       <c r="A504" s="36" t="s">
         <v>1965</v>
       </c>
@@ -26099,7 +26205,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1">
       <c r="A505" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26136,7 +26242,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1">
       <c r="A506" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26175,7 +26281,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1">
       <c r="A507" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26209,7 +26315,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1">
       <c r="A508" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26236,7 +26342,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1">
       <c r="A509" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26275,7 +26381,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1">
       <c r="A510" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26314,7 +26420,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1">
       <c r="A511" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26349,7 +26455,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1">
       <c r="A512" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26382,7 +26488,7 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1">
       <c r="A513" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26409,7 +26515,7 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1">
       <c r="A514" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26440,7 +26546,7 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1">
       <c r="A515" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26471,7 +26577,7 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1">
       <c r="A516" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26502,7 +26608,7 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1">
       <c r="A517" s="38" t="s">
         <v>2073</v>
       </c>
@@ -26531,7 +26637,7 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1">
       <c r="A518" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26562,7 +26668,7 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1">
       <c r="A519" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26593,7 +26699,7 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1">
       <c r="A520" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26624,7 +26730,7 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1">
       <c r="A521" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26653,7 +26759,7 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1">
       <c r="A522" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26682,7 +26788,7 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1">
       <c r="A523" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26711,7 +26817,7 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1">
       <c r="A524" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26740,7 +26846,7 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1">
       <c r="A525" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26769,7 +26875,7 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1">
       <c r="A526" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26798,7 +26904,7 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1">
       <c r="A527" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26827,7 +26933,7 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1">
       <c r="A528" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26856,7 +26962,7 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:18" ht="45.95" customHeight="1">
       <c r="A529" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26885,7 +26991,7 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:18" ht="45.95" customHeight="1">
       <c r="A530" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26914,7 +27020,7 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:18" ht="45.95" customHeight="1">
       <c r="A531" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26943,7 +27049,7 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:18" ht="45.95" customHeight="1">
       <c r="A532" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26970,7 +27076,7 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:18" ht="45.95" customHeight="1">
       <c r="A533" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26997,7 +27103,7 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:18" ht="45.95" customHeight="1">
       <c r="A534" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27026,7 +27132,7 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:18" ht="45.95" customHeight="1">
       <c r="A535" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27049,7 +27155,7 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:18" ht="45.95" customHeight="1">
       <c r="A536" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27082,7 +27188,7 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:18" ht="45.95" customHeight="1">
       <c r="A537" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27115,7 +27221,7 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:18" ht="45.95" customHeight="1">
       <c r="A538" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27152,7 +27258,7 @@
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:18" ht="45.95" customHeight="1">
       <c r="A539" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27187,7 +27293,7 @@
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:18" ht="45.95" customHeight="1">
       <c r="A540" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27218,7 +27324,7 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:18" ht="45.95" customHeight="1">
       <c r="A541" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27251,7 +27357,7 @@
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:18" ht="45.95" customHeight="1">
       <c r="A542" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27295,7 +27401,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="543" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:18" ht="45.95" customHeight="1">
       <c r="A543" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27336,7 +27442,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:18" ht="45.95" customHeight="1">
       <c r="A544" s="56" t="s">
         <v>2188</v>
       </c>
@@ -27363,7 +27469,7 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" ht="45.95" customHeight="1">
       <c r="A545" s="56" t="s">
         <v>2188</v>
       </c>
@@ -27386,7 +27492,7 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" ht="45.95" customHeight="1">
       <c r="A546" s="59" t="s">
         <v>2215</v>
       </c>
@@ -27409,7 +27515,7 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" ht="45.95" customHeight="1">
       <c r="A547" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27448,7 +27554,7 @@
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" ht="45.95" customHeight="1">
       <c r="A548" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27481,7 +27587,7 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" ht="45.95" customHeight="1">
       <c r="A549" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27516,7 +27622,7 @@
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" ht="45.95" customHeight="1">
       <c r="A550" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27555,7 +27661,7 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" ht="45.95" customHeight="1">
       <c r="A551" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27580,7 +27686,7 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" ht="45.95" customHeight="1">
       <c r="A552" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27605,7 +27711,7 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" ht="45.95" customHeight="1">
       <c r="A553" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27630,7 +27736,7 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" ht="45.95" customHeight="1">
       <c r="A554" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27655,7 +27761,7 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" ht="45.95" customHeight="1">
       <c r="A555" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27680,7 +27786,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1">
       <c r="A556" s="36" t="s">
         <v>2234</v>
       </c>
@@ -27711,7 +27817,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1">
       <c r="A557" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27740,7 +27846,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1">
       <c r="A558" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27769,7 +27875,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1">
       <c r="A559" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27798,7 +27904,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1">
       <c r="A560" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27827,7 +27933,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1">
       <c r="A561" s="36" t="s">
         <v>70</v>
       </c>
@@ -27856,7 +27962,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1">
       <c r="A562" s="36" t="s">
         <v>70</v>
       </c>
@@ -27885,7 +27991,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1">
       <c r="A563" s="36" t="s">
         <v>70</v>
       </c>
@@ -27914,7 +28020,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1">
       <c r="A564" s="36" t="s">
         <v>70</v>
       </c>
@@ -27943,7 +28049,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1">
       <c r="A565" s="36" t="s">
         <v>70</v>
       </c>
@@ -27972,7 +28078,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1">
       <c r="A566" s="36" t="s">
         <v>70</v>
       </c>
@@ -28001,7 +28107,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1">
       <c r="A567" s="36" t="s">
         <v>70</v>
       </c>
@@ -28030,7 +28136,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1">
       <c r="A568" s="36" t="s">
         <v>70</v>
       </c>
@@ -28059,7 +28165,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1">
       <c r="A569" s="36" t="s">
         <v>70</v>
       </c>
@@ -28088,7 +28194,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1">
       <c r="A570" s="36" t="s">
         <v>70</v>
       </c>
@@ -28117,7 +28223,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1">
       <c r="A571" s="36" t="s">
         <v>70</v>
       </c>
@@ -28146,7 +28252,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1">
       <c r="A572" s="36" t="s">
         <v>70</v>
       </c>
@@ -28175,7 +28281,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1">
       <c r="A573" s="36" t="s">
         <v>70</v>
       </c>
@@ -28204,7 +28310,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1">
       <c r="A574" s="36" t="s">
         <v>70</v>
       </c>
@@ -28233,7 +28339,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1">
       <c r="A575" s="36" t="s">
         <v>70</v>
       </c>
@@ -28262,7 +28368,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1">
       <c r="A576" s="36" t="s">
         <v>70</v>
       </c>
@@ -28291,7 +28397,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1">
       <c r="A577" s="36" t="s">
         <v>70</v>
       </c>
@@ -28320,7 +28426,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1">
       <c r="A578" s="36" t="s">
         <v>70</v>
       </c>
@@ -28349,7 +28455,7 @@
       <c r="P578" s="16"/>
       <c r="Q578" s="17"/>
     </row>
-    <row r="579" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" ht="45.95" customHeight="1">
       <c r="A579" s="36" t="s">
         <v>70</v>
       </c>
@@ -28378,7 +28484,7 @@
       <c r="P579" s="16"/>
       <c r="Q579" s="17"/>
     </row>
-    <row r="580" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" ht="45.95" customHeight="1">
       <c r="A580" s="36" t="s">
         <v>70</v>
       </c>
@@ -28407,7 +28513,7 @@
       <c r="P580" s="16"/>
       <c r="Q580" s="17"/>
     </row>
-    <row r="581" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" ht="45.95" customHeight="1">
       <c r="A581" s="36" t="s">
         <v>70</v>
       </c>
@@ -28436,7 +28542,7 @@
       <c r="P581" s="16"/>
       <c r="Q581" s="17"/>
     </row>
-    <row r="582" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" ht="45.95" customHeight="1">
       <c r="A582" s="36" t="s">
         <v>70</v>
       </c>
@@ -28465,7 +28571,7 @@
       <c r="P582" s="16"/>
       <c r="Q582" s="17"/>
     </row>
-    <row r="583" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" ht="45.95" customHeight="1">
       <c r="A583" s="36" t="s">
         <v>70</v>
       </c>
@@ -28494,7 +28600,7 @@
       <c r="P583" s="16"/>
       <c r="Q583" s="17"/>
     </row>
-    <row r="584" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" ht="45.95" customHeight="1">
       <c r="A584" s="36" t="s">
         <v>70</v>
       </c>
@@ -28523,7 +28629,7 @@
       <c r="P584" s="16"/>
       <c r="Q584" s="17"/>
     </row>
-    <row r="585" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" ht="45.95" customHeight="1">
       <c r="A585" s="36" t="s">
         <v>70</v>
       </c>
@@ -28552,7 +28658,7 @@
       <c r="P585" s="16"/>
       <c r="Q585" s="17"/>
     </row>
-    <row r="586" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" ht="45.95" customHeight="1">
       <c r="A586" s="36" t="s">
         <v>70</v>
       </c>
@@ -28581,7 +28687,7 @@
       <c r="P586" s="16"/>
       <c r="Q586" s="17"/>
     </row>
-    <row r="587" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" ht="45.95" customHeight="1">
       <c r="A587" s="36" t="s">
         <v>70</v>
       </c>
@@ -28610,7 +28716,7 @@
       <c r="P587" s="16"/>
       <c r="Q587" s="17"/>
     </row>
-    <row r="588" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" ht="45.95" customHeight="1">
       <c r="A588" s="36" t="s">
         <v>70</v>
       </c>
@@ -28639,7 +28745,7 @@
       <c r="P588" s="16"/>
       <c r="Q588" s="17"/>
     </row>
-    <row r="589" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" ht="45.95" customHeight="1">
       <c r="A589" s="36" t="s">
         <v>70</v>
       </c>
@@ -28668,7 +28774,7 @@
       <c r="P589" s="16"/>
       <c r="Q589" s="17"/>
     </row>
-    <row r="590" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" ht="45.95" customHeight="1">
       <c r="A590" s="36" t="s">
         <v>70</v>
       </c>
@@ -28697,7 +28803,7 @@
       <c r="P590" s="16"/>
       <c r="Q590" s="17"/>
     </row>
-    <row r="591" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" ht="45.95" customHeight="1">
       <c r="A591" s="36" t="s">
         <v>70</v>
       </c>
@@ -28726,7 +28832,7 @@
       <c r="P591" s="16"/>
       <c r="Q591" s="17"/>
     </row>
-    <row r="592" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" ht="45.95" customHeight="1">
       <c r="A592" s="36" t="s">
         <v>70</v>
       </c>
@@ -28755,7 +28861,7 @@
       <c r="P592" s="16"/>
       <c r="Q592" s="17"/>
     </row>
-    <row r="593" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17" ht="45.95" customHeight="1">
       <c r="A593" s="36" t="s">
         <v>70</v>
       </c>
@@ -28784,7 +28890,7 @@
       <c r="P593" s="16"/>
       <c r="Q593" s="17"/>
     </row>
-    <row r="594" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17" ht="45.95" customHeight="1">
       <c r="A594" s="36" t="s">
         <v>70</v>
       </c>
@@ -28800,7 +28906,7 @@
       <c r="G594" s="34" t="s">
         <v>2352</v>
       </c>
-      <c r="H594" s="37" t="s">
+      <c r="H594" s="41" t="s">
         <v>2333</v>
       </c>
       <c r="I594" s="14"/>
@@ -28813,15 +28919,25 @@
       <c r="P594" s="16"/>
       <c r="Q594" s="17"/>
     </row>
-    <row r="595" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="20"/>
-      <c r="B595" s="35"/>
-      <c r="C595" s="48"/>
+    <row r="595" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A595" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B595" s="42" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C595" s="49" t="s">
+        <v>2358</v>
+      </c>
       <c r="D595" s="14"/>
       <c r="E595" s="14"/>
       <c r="F595" s="14"/>
-      <c r="G595" s="34"/>
-      <c r="H595" s="15"/>
+      <c r="G595" s="40" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H595" s="41" t="s">
+        <v>2355</v>
+      </c>
       <c r="I595" s="14"/>
       <c r="J595" s="14"/>
       <c r="K595" s="14"/>
@@ -28832,15 +28948,25 @@
       <c r="P595" s="16"/>
       <c r="Q595" s="17"/>
     </row>
-    <row r="596" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="20"/>
-      <c r="B596" s="35"/>
-      <c r="C596" s="48"/>
+    <row r="596" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A596" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B596" s="42" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C596" s="49" t="s">
+        <v>2361</v>
+      </c>
       <c r="D596" s="14"/>
       <c r="E596" s="14"/>
       <c r="F596" s="14"/>
-      <c r="G596" s="34"/>
-      <c r="H596" s="15"/>
+      <c r="G596" s="40" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H596" s="41" t="s">
+        <v>2355</v>
+      </c>
       <c r="I596" s="14"/>
       <c r="J596" s="14"/>
       <c r="K596" s="14"/>
@@ -28851,15 +28977,25 @@
       <c r="P596" s="16"/>
       <c r="Q596" s="17"/>
     </row>
-    <row r="597" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="20"/>
-      <c r="B597" s="35"/>
-      <c r="C597" s="48"/>
+    <row r="597" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A597" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B597" s="42" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C597" s="49" t="s">
+        <v>2362</v>
+      </c>
       <c r="D597" s="14"/>
       <c r="E597" s="14"/>
       <c r="F597" s="14"/>
-      <c r="G597" s="34"/>
-      <c r="H597" s="15"/>
+      <c r="G597" s="40" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H597" s="41" t="s">
+        <v>2355</v>
+      </c>
       <c r="I597" s="14"/>
       <c r="J597" s="14"/>
       <c r="K597" s="14"/>
@@ -28870,15 +29006,25 @@
       <c r="P597" s="16"/>
       <c r="Q597" s="17"/>
     </row>
-    <row r="598" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="20"/>
-      <c r="B598" s="35"/>
-      <c r="C598" s="48"/>
+    <row r="598" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A598" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B598" s="42" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C598" s="49" t="s">
+        <v>2365</v>
+      </c>
       <c r="D598" s="14"/>
       <c r="E598" s="14"/>
       <c r="F598" s="14"/>
-      <c r="G598" s="34"/>
-      <c r="H598" s="15"/>
+      <c r="G598" s="40" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H598" s="41" t="s">
+        <v>2355</v>
+      </c>
       <c r="I598" s="14"/>
       <c r="J598" s="14"/>
       <c r="K598" s="14"/>
@@ -28889,15 +29035,25 @@
       <c r="P598" s="16"/>
       <c r="Q598" s="17"/>
     </row>
-    <row r="599" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="20"/>
-      <c r="B599" s="35"/>
-      <c r="C599" s="48"/>
+    <row r="599" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A599" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B599" s="42" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C599" s="49" t="s">
+        <v>2369</v>
+      </c>
       <c r="D599" s="14"/>
       <c r="E599" s="14"/>
       <c r="F599" s="14"/>
-      <c r="G599" s="34"/>
-      <c r="H599" s="15"/>
+      <c r="G599" s="40" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H599" s="41" t="s">
+        <v>2367</v>
+      </c>
       <c r="I599" s="14"/>
       <c r="J599" s="14"/>
       <c r="K599" s="14"/>
@@ -28908,15 +29064,25 @@
       <c r="P599" s="16"/>
       <c r="Q599" s="17"/>
     </row>
-    <row r="600" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="20"/>
-      <c r="B600" s="35"/>
-      <c r="C600" s="48"/>
+    <row r="600" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A600" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B600" s="42" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C600" s="49" t="s">
+        <v>2370</v>
+      </c>
       <c r="D600" s="14"/>
       <c r="E600" s="14"/>
       <c r="F600" s="14"/>
-      <c r="G600" s="34"/>
-      <c r="H600" s="15"/>
+      <c r="G600" s="40" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H600" s="41" t="s">
+        <v>2367</v>
+      </c>
       <c r="I600" s="14"/>
       <c r="J600" s="14"/>
       <c r="K600" s="14"/>
@@ -28927,15 +29093,25 @@
       <c r="P600" s="16"/>
       <c r="Q600" s="17"/>
     </row>
-    <row r="601" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="20"/>
-      <c r="B601" s="35"/>
-      <c r="C601" s="48"/>
+    <row r="601" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A601" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B601" s="42" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C601" s="49" t="s">
+        <v>2374</v>
+      </c>
       <c r="D601" s="14"/>
       <c r="E601" s="14"/>
       <c r="F601" s="14"/>
-      <c r="G601" s="34"/>
-      <c r="H601" s="15"/>
+      <c r="G601" s="40" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H601" s="41" t="s">
+        <v>2367</v>
+      </c>
       <c r="I601" s="14"/>
       <c r="J601" s="14"/>
       <c r="K601" s="14"/>
@@ -28946,15 +29122,25 @@
       <c r="P601" s="16"/>
       <c r="Q601" s="17"/>
     </row>
-    <row r="602" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="20"/>
-      <c r="B602" s="35"/>
-      <c r="C602" s="48"/>
+    <row r="602" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A602" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B602" s="42" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C602" s="49" t="s">
+        <v>2375</v>
+      </c>
       <c r="D602" s="14"/>
       <c r="E602" s="14"/>
       <c r="F602" s="14"/>
-      <c r="G602" s="34"/>
-      <c r="H602" s="15"/>
+      <c r="G602" s="40" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H602" s="41" t="s">
+        <v>2367</v>
+      </c>
       <c r="I602" s="14"/>
       <c r="J602" s="14"/>
       <c r="K602" s="14"/>
@@ -28965,15 +29151,25 @@
       <c r="P602" s="16"/>
       <c r="Q602" s="17"/>
     </row>
-    <row r="603" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="20"/>
-      <c r="B603" s="35"/>
-      <c r="C603" s="48"/>
+    <row r="603" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A603" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B603" s="42" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C603" s="49" t="s">
+        <v>2377</v>
+      </c>
       <c r="D603" s="14"/>
       <c r="E603" s="14"/>
       <c r="F603" s="14"/>
-      <c r="G603" s="34"/>
-      <c r="H603" s="15"/>
+      <c r="G603" s="40" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H603" s="41" t="s">
+        <v>2367</v>
+      </c>
       <c r="I603" s="14"/>
       <c r="J603" s="14"/>
       <c r="K603" s="14"/>
@@ -28984,15 +29180,25 @@
       <c r="P603" s="16"/>
       <c r="Q603" s="17"/>
     </row>
-    <row r="604" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="20"/>
-      <c r="B604" s="35"/>
-      <c r="C604" s="48"/>
+    <row r="604" spans="1:17" ht="45.95" customHeight="1">
+      <c r="A604" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B604" s="42" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C604" s="49" t="s">
+        <v>2379</v>
+      </c>
       <c r="D604" s="14"/>
       <c r="E604" s="14"/>
       <c r="F604" s="14"/>
-      <c r="G604" s="34"/>
-      <c r="H604" s="15"/>
+      <c r="G604" s="40" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H604" s="41" t="s">
+        <v>2367</v>
+      </c>
       <c r="I604" s="14"/>
       <c r="J604" s="14"/>
       <c r="K604" s="14"/>
@@ -29003,7 +29209,7 @@
       <c r="P604" s="16"/>
       <c r="Q604" s="17"/>
     </row>
-    <row r="605" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17" ht="45.95" customHeight="1">
       <c r="A605" s="20"/>
       <c r="B605" s="35"/>
       <c r="C605" s="48"/>
@@ -29022,7 +29228,7 @@
       <c r="P605" s="16"/>
       <c r="Q605" s="17"/>
     </row>
-    <row r="606" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17" ht="45.95" customHeight="1">
       <c r="A606" s="20"/>
       <c r="B606" s="35"/>
       <c r="C606" s="48"/>
@@ -29041,7 +29247,7 @@
       <c r="P606" s="16"/>
       <c r="Q606" s="17"/>
     </row>
-    <row r="607" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17" ht="45.95" customHeight="1">
       <c r="A607" s="20"/>
       <c r="B607" s="35"/>
       <c r="C607" s="48"/>
@@ -29060,7 +29266,7 @@
       <c r="P607" s="16"/>
       <c r="Q607" s="17"/>
     </row>
-    <row r="608" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17" ht="45.95" customHeight="1">
       <c r="A608" s="20"/>
       <c r="B608" s="35"/>
       <c r="C608" s="48"/>
@@ -29079,7 +29285,7 @@
       <c r="P608" s="16"/>
       <c r="Q608" s="17"/>
     </row>
-    <row r="609" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" ht="45.95" customHeight="1">
       <c r="A609" s="20"/>
       <c r="B609" s="35"/>
       <c r="C609" s="48"/>
@@ -29098,7 +29304,7 @@
       <c r="P609" s="16"/>
       <c r="Q609" s="17"/>
     </row>
-    <row r="610" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" ht="45.95" customHeight="1">
       <c r="A610" s="20"/>
       <c r="B610" s="35"/>
       <c r="C610" s="48"/>
@@ -29117,7 +29323,7 @@
       <c r="P610" s="16"/>
       <c r="Q610" s="17"/>
     </row>
-    <row r="611" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" ht="45.95" customHeight="1">
       <c r="A611" s="20"/>
       <c r="B611" s="35"/>
       <c r="C611" s="48"/>
@@ -29136,7 +29342,7 @@
       <c r="P611" s="16"/>
       <c r="Q611" s="17"/>
     </row>
-    <row r="612" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" ht="45.95" customHeight="1">
       <c r="A612" s="20"/>
       <c r="B612" s="35"/>
       <c r="C612" s="48"/>
@@ -29155,7 +29361,7 @@
       <c r="P612" s="16"/>
       <c r="Q612" s="17"/>
     </row>
-    <row r="613" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" ht="45.95" customHeight="1">
       <c r="A613" s="20"/>
       <c r="B613" s="35"/>
       <c r="C613" s="48"/>
@@ -29174,7 +29380,7 @@
       <c r="P613" s="16"/>
       <c r="Q613" s="17"/>
     </row>
-    <row r="614" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" ht="45.95" customHeight="1">
       <c r="A614" s="20"/>
       <c r="B614" s="35"/>
       <c r="C614" s="48"/>
@@ -29193,7 +29399,7 @@
       <c r="P614" s="16"/>
       <c r="Q614" s="17"/>
     </row>
-    <row r="615" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" ht="45.95" customHeight="1">
       <c r="A615" s="20"/>
       <c r="B615" s="35"/>
       <c r="C615" s="48"/>
@@ -29212,7 +29418,7 @@
       <c r="P615" s="16"/>
       <c r="Q615" s="17"/>
     </row>
-    <row r="616" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" ht="45.95" customHeight="1">
       <c r="A616" s="20"/>
       <c r="B616" s="35"/>
       <c r="C616" s="48"/>
@@ -29231,7 +29437,7 @@
       <c r="P616" s="16"/>
       <c r="Q616" s="17"/>
     </row>
-    <row r="617" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" ht="45.95" customHeight="1">
       <c r="A617" s="20"/>
       <c r="B617" s="35"/>
       <c r="C617" s="48"/>
@@ -29250,7 +29456,7 @@
       <c r="P617" s="16"/>
       <c r="Q617" s="17"/>
     </row>
-    <row r="618" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" ht="45.95" customHeight="1">
       <c r="A618" s="20"/>
       <c r="B618" s="35"/>
       <c r="C618" s="48"/>
@@ -29269,7 +29475,7 @@
       <c r="P618" s="16"/>
       <c r="Q618" s="17"/>
     </row>
-    <row r="619" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" ht="45.95" customHeight="1">
       <c r="A619" s="20"/>
       <c r="B619" s="35"/>
       <c r="C619" s="48"/>
@@ -29288,7 +29494,7 @@
       <c r="P619" s="16"/>
       <c r="Q619" s="17"/>
     </row>
-    <row r="620" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" ht="45.95" customHeight="1">
       <c r="A620" s="20"/>
       <c r="B620" s="35"/>
       <c r="C620" s="48"/>
@@ -29307,7 +29513,7 @@
       <c r="P620" s="16"/>
       <c r="Q620" s="17"/>
     </row>
-    <row r="621" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" ht="45.95" customHeight="1">
       <c r="A621" s="20"/>
       <c r="B621" s="35"/>
       <c r="C621" s="48"/>
@@ -29326,7 +29532,7 @@
       <c r="P621" s="16"/>
       <c r="Q621" s="17"/>
     </row>
-    <row r="622" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" ht="45.95" customHeight="1">
       <c r="A622" s="20"/>
       <c r="B622" s="35"/>
       <c r="C622" s="48"/>
@@ -29345,7 +29551,7 @@
       <c r="P622" s="16"/>
       <c r="Q622" s="17"/>
     </row>
-    <row r="623" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" ht="45.95" customHeight="1">
       <c r="A623" s="20"/>
       <c r="B623" s="35"/>
       <c r="C623" s="48"/>
@@ -29364,7 +29570,7 @@
       <c r="P623" s="16"/>
       <c r="Q623" s="17"/>
     </row>
-    <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" ht="45.95" customHeight="1">
       <c r="A624" s="20"/>
       <c r="B624" s="35"/>
       <c r="C624" s="48"/>
@@ -29383,7 +29589,7 @@
       <c r="P624" s="16"/>
       <c r="Q624" s="17"/>
     </row>
-    <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17" ht="45.95" customHeight="1">
       <c r="A625" s="20"/>
       <c r="B625" s="35"/>
       <c r="C625" s="48"/>
@@ -29402,7 +29608,7 @@
       <c r="P625" s="16"/>
       <c r="Q625" s="17"/>
     </row>
-    <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17" ht="45.95" customHeight="1">
       <c r="A626" s="20"/>
       <c r="B626" s="35"/>
       <c r="C626" s="48"/>
@@ -29421,7 +29627,7 @@
       <c r="P626" s="16"/>
       <c r="Q626" s="17"/>
     </row>
-    <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17" ht="45.95" customHeight="1">
       <c r="A627" s="20"/>
       <c r="B627" s="35"/>
       <c r="C627" s="48"/>
@@ -29440,7 +29646,7 @@
       <c r="P627" s="16"/>
       <c r="Q627" s="17"/>
     </row>
-    <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17" ht="45.95" customHeight="1">
       <c r="A628" s="20"/>
       <c r="B628" s="35"/>
       <c r="C628" s="48"/>
@@ -29459,7 +29665,7 @@
       <c r="P628" s="16"/>
       <c r="Q628" s="17"/>
     </row>
-    <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17" ht="45.95" customHeight="1">
       <c r="A629" s="20"/>
       <c r="B629" s="35"/>
       <c r="C629" s="48"/>
@@ -29478,7 +29684,7 @@
       <c r="P629" s="16"/>
       <c r="Q629" s="17"/>
     </row>
-    <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17" ht="45.95" customHeight="1">
       <c r="A630" s="20"/>
       <c r="B630" s="35"/>
       <c r="C630" s="48"/>
@@ -29497,7 +29703,7 @@
       <c r="P630" s="16"/>
       <c r="Q630" s="17"/>
     </row>
-    <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17" ht="45.95" customHeight="1">
       <c r="A631" s="20"/>
       <c r="B631" s="35"/>
       <c r="C631" s="48"/>
@@ -29516,7 +29722,7 @@
       <c r="P631" s="16"/>
       <c r="Q631" s="17"/>
     </row>
-    <row r="632" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:17" ht="45.95" customHeight="1">
       <c r="A632" s="20"/>
       <c r="B632" s="35"/>
       <c r="C632" s="48"/>
@@ -29535,7 +29741,7 @@
       <c r="P632" s="16"/>
       <c r="Q632" s="17"/>
     </row>
-    <row r="633" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:17" ht="45.95" customHeight="1">
       <c r="A633" s="20"/>
       <c r="B633" s="35"/>
       <c r="C633" s="48"/>
@@ -29554,7 +29760,7 @@
       <c r="P633" s="16"/>
       <c r="Q633" s="17"/>
     </row>
-    <row r="634" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:17" ht="45.95" customHeight="1">
       <c r="A634" s="20"/>
       <c r="B634" s="35"/>
       <c r="C634" s="48"/>
@@ -29573,7 +29779,7 @@
       <c r="P634" s="16"/>
       <c r="Q634" s="17"/>
     </row>
-    <row r="635" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:17" ht="45.95" customHeight="1">
       <c r="A635" s="20"/>
       <c r="B635" s="35"/>
       <c r="C635" s="48"/>
@@ -29592,7 +29798,7 @@
       <c r="P635" s="16"/>
       <c r="Q635" s="17"/>
     </row>
-    <row r="636" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:17" ht="45.95" customHeight="1">
       <c r="A636" s="20"/>
       <c r="B636" s="35"/>
       <c r="C636" s="48"/>
@@ -29611,7 +29817,7 @@
       <c r="P636" s="16"/>
       <c r="Q636" s="17"/>
     </row>
-    <row r="637" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:17" ht="45.95" customHeight="1">
       <c r="A637" s="20"/>
       <c r="B637" s="13"/>
       <c r="C637" s="45"/>
@@ -29630,7 +29836,7 @@
       <c r="P637" s="16"/>
       <c r="Q637" s="17"/>
     </row>
-    <row r="638" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:17" ht="45.95" customHeight="1">
       <c r="A638" s="20"/>
       <c r="B638" s="35"/>
       <c r="C638" s="48"/>
@@ -29649,7 +29855,7 @@
       <c r="P638" s="16"/>
       <c r="Q638" s="17"/>
     </row>
-    <row r="639" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:17" ht="45.95" customHeight="1">
       <c r="A639" s="20"/>
       <c r="B639" s="35"/>
       <c r="C639" s="48"/>
@@ -29668,7 +29874,7 @@
       <c r="P639" s="16"/>
       <c r="Q639" s="17"/>
     </row>
-    <row r="640" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:17" ht="45.95" customHeight="1">
       <c r="A640" s="20"/>
       <c r="B640" s="35"/>
       <c r="C640" s="48"/>
@@ -29687,7 +29893,7 @@
       <c r="P640" s="16"/>
       <c r="Q640" s="17"/>
     </row>
-    <row r="641" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:17" ht="45.95" customHeight="1">
       <c r="A641" s="20"/>
       <c r="B641" s="35"/>
       <c r="C641" s="48"/>
@@ -29706,7 +29912,7 @@
       <c r="P641" s="16"/>
       <c r="Q641" s="17"/>
     </row>
-    <row r="642" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:17" ht="45.95" customHeight="1">
       <c r="A642" s="20"/>
       <c r="B642" s="35"/>
       <c r="C642" s="48"/>
@@ -29725,7 +29931,7 @@
       <c r="P642" s="16"/>
       <c r="Q642" s="17"/>
     </row>
-    <row r="643" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:17" ht="45.95" customHeight="1">
       <c r="A643" s="20"/>
       <c r="B643" s="35"/>
       <c r="C643" s="48"/>
@@ -29744,7 +29950,7 @@
       <c r="P643" s="16"/>
       <c r="Q643" s="17"/>
     </row>
-    <row r="644" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:17" ht="45.95" customHeight="1">
       <c r="A644" s="20"/>
       <c r="B644" s="35"/>
       <c r="C644" s="48"/>
@@ -29763,7 +29969,7 @@
       <c r="P644" s="16"/>
       <c r="Q644" s="17"/>
     </row>
-    <row r="645" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:17" ht="45.95" customHeight="1">
       <c r="A645" s="20"/>
       <c r="B645" s="35"/>
       <c r="C645" s="48"/>
@@ -29782,7 +29988,7 @@
       <c r="P645" s="16"/>
       <c r="Q645" s="17"/>
     </row>
-    <row r="646" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:17" ht="45.95" customHeight="1">
       <c r="A646" s="20"/>
       <c r="B646" s="35"/>
       <c r="C646" s="48"/>
@@ -29801,7 +30007,7 @@
       <c r="P646" s="16"/>
       <c r="Q646" s="17"/>
     </row>
-    <row r="647" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:17" ht="45.95" customHeight="1">
       <c r="A647" s="20"/>
       <c r="B647" s="35"/>
       <c r="C647" s="48"/>
@@ -29820,7 +30026,7 @@
       <c r="P647" s="16"/>
       <c r="Q647" s="17"/>
     </row>
-    <row r="648" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:17" ht="45.95" customHeight="1">
       <c r="A648" s="20"/>
       <c r="B648" s="35"/>
       <c r="C648" s="48"/>
@@ -29839,7 +30045,7 @@
       <c r="P648" s="16"/>
       <c r="Q648" s="17"/>
     </row>
-    <row r="649" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:17" ht="45.95" customHeight="1">
       <c r="A649" s="20"/>
       <c r="B649" s="13"/>
       <c r="C649" s="45"/>
@@ -29858,7 +30064,7 @@
       <c r="P649" s="16"/>
       <c r="Q649" s="17"/>
     </row>
-    <row r="650" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:17" ht="45.95" customHeight="1">
       <c r="A650" s="20"/>
       <c r="B650" s="35"/>
       <c r="C650" s="48"/>
@@ -29877,7 +30083,7 @@
       <c r="P650" s="16"/>
       <c r="Q650" s="17"/>
     </row>
-    <row r="651" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:17" ht="45.95" customHeight="1">
       <c r="A651" s="20"/>
       <c r="B651" s="35"/>
       <c r="C651" s="48"/>
@@ -29896,7 +30102,7 @@
       <c r="P651" s="16"/>
       <c r="Q651" s="17"/>
     </row>
-    <row r="652" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:17" ht="45.95" customHeight="1">
       <c r="A652" s="20"/>
       <c r="B652" s="35"/>
       <c r="C652" s="48"/>
@@ -29915,7 +30121,7 @@
       <c r="P652" s="16"/>
       <c r="Q652" s="17"/>
     </row>
-    <row r="653" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:17" ht="45.95" customHeight="1">
       <c r="A653" s="20"/>
       <c r="B653" s="35"/>
       <c r="C653" s="48"/>
@@ -29934,7 +30140,7 @@
       <c r="P653" s="16"/>
       <c r="Q653" s="17"/>
     </row>
-    <row r="654" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:17" ht="45.95" customHeight="1">
       <c r="A654" s="20"/>
       <c r="B654" s="35"/>
       <c r="C654" s="48"/>
@@ -29953,7 +30159,7 @@
       <c r="P654" s="16"/>
       <c r="Q654" s="17"/>
     </row>
-    <row r="655" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:17" ht="45.95" customHeight="1">
       <c r="A655" s="20"/>
       <c r="B655" s="35"/>
       <c r="C655" s="48"/>
@@ -29972,7 +30178,7 @@
       <c r="P655" s="16"/>
       <c r="Q655" s="17"/>
     </row>
-    <row r="656" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:17" ht="45.95" customHeight="1">
       <c r="A656" s="20"/>
       <c r="B656" s="35"/>
       <c r="C656" s="48"/>
@@ -29991,7 +30197,7 @@
       <c r="P656" s="16"/>
       <c r="Q656" s="17"/>
     </row>
-    <row r="657" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:17" ht="45.95" customHeight="1">
       <c r="A657" s="20"/>
       <c r="B657" s="35"/>
       <c r="C657" s="48"/>
@@ -30010,7 +30216,7 @@
       <c r="P657" s="16"/>
       <c r="Q657" s="17"/>
     </row>
-    <row r="658" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:17" ht="45.95" customHeight="1">
       <c r="A658" s="20"/>
       <c r="B658" s="35"/>
       <c r="C658" s="48"/>
@@ -30029,7 +30235,7 @@
       <c r="P658" s="16"/>
       <c r="Q658" s="17"/>
     </row>
-    <row r="659" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:17" ht="45.95" customHeight="1">
       <c r="A659" s="20"/>
       <c r="B659" s="35"/>
       <c r="C659" s="48"/>
@@ -30048,7 +30254,7 @@
       <c r="P659" s="16"/>
       <c r="Q659" s="17"/>
     </row>
-    <row r="660" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:17" ht="45.95" customHeight="1">
       <c r="A660" s="20"/>
       <c r="B660" s="35"/>
       <c r="C660" s="48"/>
@@ -30067,7 +30273,7 @@
       <c r="P660" s="16"/>
       <c r="Q660" s="17"/>
     </row>
-    <row r="661" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:17" ht="45.95" customHeight="1">
       <c r="A661" s="20"/>
       <c r="B661" s="13"/>
       <c r="C661" s="45"/>
@@ -30086,7 +30292,7 @@
       <c r="P661" s="16"/>
       <c r="Q661" s="17"/>
     </row>
-    <row r="662" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:17" ht="45.95" customHeight="1">
       <c r="A662" s="20"/>
       <c r="B662" s="35"/>
       <c r="C662" s="48"/>
@@ -30105,7 +30311,7 @@
       <c r="P662" s="16"/>
       <c r="Q662" s="17"/>
     </row>
-    <row r="663" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:17" ht="45.95" customHeight="1">
       <c r="A663" s="20"/>
       <c r="B663" s="35"/>
       <c r="C663" s="48"/>
@@ -30124,7 +30330,7 @@
       <c r="P663" s="16"/>
       <c r="Q663" s="17"/>
     </row>
-    <row r="664" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:17" ht="45.95" customHeight="1">
       <c r="A664" s="20"/>
       <c r="B664" s="35"/>
       <c r="C664" s="48"/>
@@ -30143,7 +30349,7 @@
       <c r="P664" s="16"/>
       <c r="Q664" s="17"/>
     </row>
-    <row r="665" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:17" ht="45.95" customHeight="1">
       <c r="A665" s="20"/>
       <c r="B665" s="35"/>
       <c r="C665" s="48"/>
@@ -30162,7 +30368,7 @@
       <c r="P665" s="16"/>
       <c r="Q665" s="17"/>
     </row>
-    <row r="666" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:17" ht="45.95" customHeight="1">
       <c r="A666" s="20"/>
       <c r="B666" s="35"/>
       <c r="C666" s="48"/>
@@ -30181,7 +30387,7 @@
       <c r="P666" s="16"/>
       <c r="Q666" s="17"/>
     </row>
-    <row r="667" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:17" ht="45.95" customHeight="1">
       <c r="A667" s="20"/>
       <c r="B667" s="35"/>
       <c r="C667" s="48"/>
@@ -30200,7 +30406,7 @@
       <c r="P667" s="16"/>
       <c r="Q667" s="17"/>
     </row>
-    <row r="668" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:17" ht="45.95" customHeight="1">
       <c r="A668" s="20"/>
       <c r="B668" s="35"/>
       <c r="C668" s="48"/>
@@ -30219,7 +30425,7 @@
       <c r="P668" s="16"/>
       <c r="Q668" s="17"/>
     </row>
-    <row r="669" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:17" ht="45.95" customHeight="1">
       <c r="A669" s="20"/>
       <c r="B669" s="35"/>
       <c r="C669" s="48"/>
@@ -30238,7 +30444,7 @@
       <c r="P669" s="16"/>
       <c r="Q669" s="17"/>
     </row>
-    <row r="670" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:17" ht="45.95" customHeight="1">
       <c r="A670" s="20"/>
       <c r="B670" s="35"/>
       <c r="C670" s="48"/>
@@ -30257,7 +30463,7 @@
       <c r="P670" s="16"/>
       <c r="Q670" s="17"/>
     </row>
-    <row r="671" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:17" ht="45.95" customHeight="1">
       <c r="A671" s="20"/>
       <c r="B671" s="35"/>
       <c r="C671" s="48"/>
@@ -30276,7 +30482,7 @@
       <c r="P671" s="16"/>
       <c r="Q671" s="17"/>
     </row>
-    <row r="672" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:17" ht="45.95" customHeight="1">
       <c r="A672" s="20"/>
       <c r="B672" s="35"/>
       <c r="C672" s="48"/>
@@ -30295,7 +30501,7 @@
       <c r="P672" s="16"/>
       <c r="Q672" s="17"/>
     </row>
-    <row r="673" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:17" ht="45.95" customHeight="1">
       <c r="A673" s="20"/>
       <c r="B673" s="13"/>
       <c r="C673" s="45"/>
@@ -30322,20 +30528,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -30343,7 +30549,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -30351,7 +30557,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="33" t="s">
         <v>597</v>
       </c>
@@ -30359,7 +30565,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="33" t="s">
         <v>598</v>
       </c>
@@ -30367,7 +30573,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="33" t="s">
         <v>678</v>
       </c>
@@ -30375,7 +30581,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="33" t="s">
         <v>1183</v>
       </c>
@@ -30383,7 +30589,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
         <v>1131</v>
       </c>
@@ -30391,7 +30597,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>1148</v>
       </c>
@@ -30399,12 +30605,12 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>1164</v>
       </c>
@@ -30412,7 +30618,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
         <v>1452</v>
       </c>
@@ -30423,13 +30629,13 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="39"/>
       <c r="B13" s="33" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="33" t="s">
         <v>2026</v>
       </c>
@@ -30437,7 +30643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="60" t="s">
         <v>2240</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="2400">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10322,6 +10322,84 @@
   </si>
   <si>
     <t>Hilary Brueck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>London Bureau
+Finance: finance@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linette Lopez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>llopez@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachael Levy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlevy@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex Morrell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amorrell@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lramsey@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lydia Ramsey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank Chaparro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fchaparro@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>London Bureau
+Markets: markets@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jgarber@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jonathan Garber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US Markets Editor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11039,7 +11117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11050,8 +11128,8 @@
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A595" sqref="A595:A604"/>
+      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H606" sqref="H606:H609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29210,14 +29288,24 @@
       <c r="Q604" s="17"/>
     </row>
     <row r="605" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A605" s="20"/>
-      <c r="B605" s="35"/>
-      <c r="C605" s="48"/>
+      <c r="A605" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B605" s="42" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C605" s="49" t="s">
+        <v>2384</v>
+      </c>
       <c r="D605" s="14"/>
       <c r="E605" s="14"/>
       <c r="F605" s="14"/>
-      <c r="G605" s="34"/>
-      <c r="H605" s="15"/>
+      <c r="G605" s="40" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H605" s="41" t="s">
+        <v>2381</v>
+      </c>
       <c r="I605" s="14"/>
       <c r="J605" s="14"/>
       <c r="K605" s="14"/>
@@ -29229,14 +29317,24 @@
       <c r="Q605" s="17"/>
     </row>
     <row r="606" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A606" s="20"/>
-      <c r="B606" s="35"/>
-      <c r="C606" s="48"/>
+      <c r="A606" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B606" s="42" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C606" s="49" t="s">
+        <v>2387</v>
+      </c>
       <c r="D606" s="14"/>
       <c r="E606" s="14"/>
       <c r="F606" s="14"/>
-      <c r="G606" s="34"/>
-      <c r="H606" s="15"/>
+      <c r="G606" s="40" t="s">
+        <v>2385</v>
+      </c>
+      <c r="H606" s="41" t="s">
+        <v>2381</v>
+      </c>
       <c r="I606" s="14"/>
       <c r="J606" s="14"/>
       <c r="K606" s="14"/>
@@ -29248,14 +29346,24 @@
       <c r="Q606" s="17"/>
     </row>
     <row r="607" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A607" s="20"/>
-      <c r="B607" s="35"/>
-      <c r="C607" s="48"/>
+      <c r="A607" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B607" s="42" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C607" s="49" t="s">
+        <v>2390</v>
+      </c>
       <c r="D607" s="14"/>
       <c r="E607" s="14"/>
       <c r="F607" s="14"/>
-      <c r="G607" s="34"/>
-      <c r="H607" s="15"/>
+      <c r="G607" s="40" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H607" s="41" t="s">
+        <v>2381</v>
+      </c>
       <c r="I607" s="14"/>
       <c r="J607" s="14"/>
       <c r="K607" s="14"/>
@@ -29267,14 +29375,24 @@
       <c r="Q607" s="17"/>
     </row>
     <row r="608" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A608" s="20"/>
-      <c r="B608" s="35"/>
-      <c r="C608" s="48"/>
+      <c r="A608" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B608" s="42" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C608" s="49" t="s">
+        <v>2391</v>
+      </c>
       <c r="D608" s="14"/>
       <c r="E608" s="14"/>
       <c r="F608" s="14"/>
-      <c r="G608" s="34"/>
-      <c r="H608" s="15"/>
+      <c r="G608" s="40" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H608" s="41" t="s">
+        <v>2381</v>
+      </c>
       <c r="I608" s="14"/>
       <c r="J608" s="14"/>
       <c r="K608" s="14"/>
@@ -29286,14 +29404,24 @@
       <c r="Q608" s="17"/>
     </row>
     <row r="609" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A609" s="20"/>
-      <c r="B609" s="35"/>
-      <c r="C609" s="48"/>
+      <c r="A609" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B609" s="42" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C609" s="49" t="s">
+        <v>2395</v>
+      </c>
       <c r="D609" s="14"/>
       <c r="E609" s="14"/>
       <c r="F609" s="14"/>
-      <c r="G609" s="34"/>
-      <c r="H609" s="15"/>
+      <c r="G609" s="40" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H609" s="41" t="s">
+        <v>2381</v>
+      </c>
       <c r="I609" s="14"/>
       <c r="J609" s="14"/>
       <c r="K609" s="14"/>
@@ -29305,14 +29433,24 @@
       <c r="Q609" s="17"/>
     </row>
     <row r="610" spans="1:17" ht="45.95" customHeight="1">
-      <c r="A610" s="20"/>
-      <c r="B610" s="35"/>
-      <c r="C610" s="48"/>
+      <c r="A610" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B610" s="42" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C610" s="49" t="s">
+        <v>2397</v>
+      </c>
       <c r="D610" s="14"/>
       <c r="E610" s="14"/>
       <c r="F610" s="14"/>
-      <c r="G610" s="34"/>
-      <c r="H610" s="15"/>
+      <c r="G610" s="40" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H610" s="41" t="s">
+        <v>2396</v>
+      </c>
       <c r="I610" s="14"/>
       <c r="J610" s="14"/>
       <c r="K610" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="2438">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10065,11 +10065,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>London Bureau
-West Coast Bureau</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Senior Global News Editor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10130,11 +10125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>London Bureau
-Tech: techeditors@businessinsider.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Chief Tech Correspondent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10219,11 +10209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>London Bureau
-Entertainment: entertainment@businessinsider.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Editor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10268,11 +10253,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>London Bureau
-Science &amp; Innovation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dana Varinsky</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10325,11 +10305,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>London Bureau
-Finance: finance@businessinsider.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Senior Correspondent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10386,11 +10361,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>London Bureau
-Markets: markets@businessinsider.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>jgarber@businessinsider.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10400,14 +10370,190 @@
   </si>
   <si>
     <t>US Markets Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe Ciolli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jciolli@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eholodny@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elena Holodny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akin Oyedele</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoyedele@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbryan@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Bryan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy Kiersz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>akiersz@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markets: markets@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finance: finance@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science &amp; Innovation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entertainment: entertainment@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech: techeditors@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Coast Bureau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natasha Bertrand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nbertrand@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alockie@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex Lockie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pjacobs@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peter Jacobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark Abadi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mabadi@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Editor, News and Weekends</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeremy Berke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jberke@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmark@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michelle Mark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebecca Harrington</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rharrington@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssheth@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonam Sheth </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekend Repoter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11117,22 +11263,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A602" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H606" sqref="H606:H609"/>
+      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H611" sqref="H611:H614"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -11154,7 +11300,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -11210,7 +11356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -11241,7 +11387,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -11272,7 +11418,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -11303,7 +11449,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -11338,7 +11484,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -11384,7 +11530,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -11417,7 +11563,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -11459,7 +11605,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -11494,7 +11640,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -11533,7 +11679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -11563,7 +11709,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -11595,7 +11741,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -11630,7 +11776,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -11654,7 +11800,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -11691,7 +11837,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -11728,7 +11874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -11763,7 +11909,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -11794,7 +11940,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -11833,7 +11979,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -11864,7 +12010,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -11891,7 +12037,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -11924,7 +12070,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -11957,7 +12103,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -11988,7 +12134,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -12025,7 +12171,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -12060,7 +12206,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -12097,7 +12243,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -12128,7 +12274,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -12161,7 +12307,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -12190,7 +12336,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -12217,7 +12363,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -12248,7 +12394,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -12279,7 +12425,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -12317,7 +12463,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -12350,7 +12496,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -12377,7 +12523,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -12412,7 +12558,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -12447,7 +12593,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -12484,7 +12630,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -12517,7 +12663,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -12555,7 +12701,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -12590,7 +12736,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -12621,7 +12767,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -12660,7 +12806,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -12695,7 +12841,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -12730,7 +12876,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -12763,7 +12909,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -12798,7 +12944,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -12829,7 +12975,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -12854,7 +13000,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -12893,7 +13039,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -12927,7 +13073,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -12962,7 +13108,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -12999,7 +13145,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -13041,7 +13187,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -13074,7 +13220,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -13107,7 +13253,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -13138,7 +13284,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -13173,7 +13319,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -13202,7 +13348,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -13231,7 +13377,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -13262,7 +13408,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -13291,7 +13437,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -13322,7 +13468,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -13353,7 +13499,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -13386,7 +13532,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -13417,7 +13563,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -13452,7 +13598,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -13487,7 +13633,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -13520,7 +13666,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -13553,7 +13699,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -13590,7 +13736,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -13627,7 +13773,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -13662,7 +13808,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -13697,7 +13843,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -13728,7 +13874,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -13763,7 +13909,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -13798,7 +13944,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -13827,7 +13973,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -13852,7 +13998,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -13879,7 +14025,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -13906,7 +14052,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -13933,7 +14079,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -13962,7 +14108,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -13989,7 +14135,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -14026,7 +14172,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -14061,7 +14207,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -14096,7 +14242,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -14127,7 +14273,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -14158,7 +14304,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -14187,7 +14333,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -14224,7 +14370,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -14265,7 +14411,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -14302,7 +14448,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -14343,7 +14489,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -14371,7 +14517,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -14404,7 +14550,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -14437,7 +14583,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -14472,7 +14618,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -14511,7 +14657,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -14542,7 +14688,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -14573,7 +14719,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -14610,7 +14756,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -14651,7 +14797,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>679</v>
       </c>
@@ -14688,7 +14834,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>679</v>
       </c>
@@ -14725,7 +14871,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>679</v>
       </c>
@@ -14762,7 +14908,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>679</v>
       </c>
@@ -14801,7 +14947,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>679</v>
       </c>
@@ -14838,7 +14984,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>679</v>
       </c>
@@ -14869,7 +15015,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>679</v>
       </c>
@@ -14900,7 +15046,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>679</v>
       </c>
@@ -14937,7 +15083,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>679</v>
       </c>
@@ -14978,7 +15124,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>679</v>
       </c>
@@ -15015,7 +15161,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>679</v>
       </c>
@@ -15038,7 +15184,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>679</v>
       </c>
@@ -15077,7 +15223,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>679</v>
       </c>
@@ -15114,7 +15260,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>679</v>
       </c>
@@ -15151,7 +15297,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>679</v>
       </c>
@@ -15182,7 +15328,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>679</v>
       </c>
@@ -15215,7 +15361,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>679</v>
       </c>
@@ -15256,7 +15402,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>679</v>
       </c>
@@ -15291,7 +15437,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15322,7 +15468,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15353,7 +15499,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15384,7 +15530,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>1179</v>
       </c>
@@ -15423,7 +15569,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>1179</v>
       </c>
@@ -15458,7 +15604,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15493,7 +15639,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15522,7 +15668,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>792</v>
       </c>
@@ -15557,7 +15703,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>791</v>
       </c>
@@ -15586,7 +15732,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>1181</v>
       </c>
@@ -15619,7 +15765,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15646,7 +15792,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15683,7 +15829,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15718,7 +15864,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15761,7 +15907,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>1181</v>
       </c>
@@ -15794,7 +15940,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15829,7 +15975,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>1177</v>
       </c>
@@ -15866,7 +16012,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15903,7 +16049,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>1178</v>
       </c>
@@ -15940,7 +16086,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>1053</v>
       </c>
@@ -15977,7 +16123,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>1179</v>
       </c>
@@ -16014,7 +16160,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16043,7 +16189,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>881</v>
       </c>
@@ -16082,7 +16228,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>881</v>
       </c>
@@ -16125,7 +16271,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -16148,7 +16294,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -16171,7 +16317,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>930</v>
       </c>
@@ -16200,7 +16346,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>930</v>
       </c>
@@ -16229,7 +16375,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>930</v>
       </c>
@@ -16258,7 +16404,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>930</v>
       </c>
@@ -16287,7 +16433,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>930</v>
       </c>
@@ -16316,7 +16462,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>930</v>
       </c>
@@ -16345,7 +16491,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>930</v>
       </c>
@@ -16374,7 +16520,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>930</v>
       </c>
@@ -16403,7 +16549,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>930</v>
       </c>
@@ -16432,7 +16578,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>930</v>
       </c>
@@ -16463,7 +16609,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>930</v>
       </c>
@@ -16494,7 +16640,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>930</v>
       </c>
@@ -16525,7 +16671,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>930</v>
       </c>
@@ -16554,7 +16700,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>930</v>
       </c>
@@ -16583,7 +16729,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>930</v>
       </c>
@@ -16612,7 +16758,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>930</v>
       </c>
@@ -16641,7 +16787,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>930</v>
       </c>
@@ -16670,7 +16816,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>930</v>
       </c>
@@ -16699,7 +16845,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>930</v>
       </c>
@@ -16728,7 +16874,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>930</v>
       </c>
@@ -16757,7 +16903,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>930</v>
       </c>
@@ -16786,7 +16932,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>930</v>
       </c>
@@ -16815,7 +16961,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>930</v>
       </c>
@@ -16844,7 +16990,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>930</v>
       </c>
@@ -16873,7 +17019,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>930</v>
       </c>
@@ -16902,7 +17048,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>930</v>
       </c>
@@ -16931,7 +17077,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>930</v>
       </c>
@@ -16960,7 +17106,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>930</v>
       </c>
@@ -16989,7 +17135,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>930</v>
       </c>
@@ -17018,7 +17164,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>930</v>
       </c>
@@ -17047,7 +17193,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>930</v>
       </c>
@@ -17076,7 +17222,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>930</v>
       </c>
@@ -17105,7 +17251,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>930</v>
       </c>
@@ -17134,7 +17280,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>930</v>
       </c>
@@ -17163,7 +17309,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>930</v>
       </c>
@@ -17192,7 +17338,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>930</v>
       </c>
@@ -17219,7 +17365,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>930</v>
       </c>
@@ -17248,7 +17394,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>930</v>
       </c>
@@ -17277,7 +17423,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>930</v>
       </c>
@@ -17306,7 +17452,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>930</v>
       </c>
@@ -17335,7 +17481,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>930</v>
       </c>
@@ -17364,7 +17510,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>930</v>
       </c>
@@ -17391,7 +17537,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>930</v>
       </c>
@@ -17420,7 +17566,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>930</v>
       </c>
@@ -17449,7 +17595,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>930</v>
       </c>
@@ -17478,7 +17624,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>930</v>
       </c>
@@ -17505,7 +17651,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>930</v>
       </c>
@@ -17534,7 +17680,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>930</v>
       </c>
@@ -17561,7 +17707,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>930</v>
       </c>
@@ -17590,7 +17736,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>930</v>
       </c>
@@ -17619,7 +17765,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>930</v>
       </c>
@@ -17648,7 +17794,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>930</v>
       </c>
@@ -17677,7 +17823,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
         <v>930</v>
       </c>
@@ -17706,7 +17852,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
         <v>930</v>
       </c>
@@ -17735,7 +17881,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>930</v>
       </c>
@@ -17764,7 +17910,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>930</v>
       </c>
@@ -17793,7 +17939,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
         <v>930</v>
       </c>
@@ -17822,7 +17968,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
         <v>930</v>
       </c>
@@ -17851,7 +17997,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
         <v>930</v>
       </c>
@@ -17880,7 +18026,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17919,7 +18065,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17948,7 +18094,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
         <v>1132</v>
       </c>
@@ -17975,7 +18121,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
         <v>1132</v>
       </c>
@@ -18004,7 +18150,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
         <v>1132</v>
       </c>
@@ -18033,7 +18179,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18064,7 +18210,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18088,7 +18234,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18113,7 +18259,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18138,7 +18284,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18163,7 +18309,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18188,7 +18334,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18213,7 +18359,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18238,7 +18384,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18263,7 +18409,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>1175</v>
       </c>
@@ -18288,7 +18434,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18327,7 +18473,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18362,7 +18508,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18399,7 +18545,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18444,7 +18590,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18473,7 +18619,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18506,7 +18652,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18539,7 +18685,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18576,7 +18722,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18611,7 +18757,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18648,7 +18794,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18685,7 +18831,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18724,7 +18870,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18761,7 +18907,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18802,7 +18948,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18837,7 +18983,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18874,7 +19020,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18911,7 +19057,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18938,7 +19084,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="36" t="s">
         <v>1131</v>
       </c>
@@ -18973,7 +19119,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19016,7 +19162,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19057,7 +19203,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19096,7 +19242,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19133,7 +19279,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19172,7 +19318,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19213,7 +19359,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19254,7 +19400,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19282,7 +19428,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19319,7 +19465,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19360,7 +19506,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19393,7 +19539,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19432,7 +19578,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19465,7 +19611,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="34" t="s">
         <v>1430</v>
       </c>
@@ -19492,7 +19638,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="34" t="s">
         <v>1430</v>
       </c>
@@ -19519,7 +19665,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19552,7 +19698,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19591,7 +19737,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19620,7 +19766,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="36" t="s">
         <v>1131</v>
       </c>
@@ -19661,7 +19807,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19690,7 +19836,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19719,7 +19865,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19748,7 +19894,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19777,7 +19923,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19806,7 +19952,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19835,7 +19981,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19864,7 +20010,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19893,7 +20039,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19922,7 +20068,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19951,7 +20097,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="36" t="s">
         <v>1452</v>
       </c>
@@ -19978,7 +20124,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20005,7 +20151,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20032,7 +20178,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20059,7 +20205,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20086,7 +20232,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20113,7 +20259,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20140,7 +20286,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20167,7 +20313,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20194,7 +20340,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20221,7 +20367,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20248,7 +20394,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20275,7 +20421,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20302,7 +20448,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20329,7 +20475,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20356,7 +20502,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20383,7 +20529,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20410,7 +20556,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20437,7 +20583,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20464,7 +20610,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20491,7 +20637,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20518,7 +20664,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20545,7 +20691,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20572,7 +20718,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20599,7 +20745,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20626,7 +20772,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20653,7 +20799,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20680,7 +20826,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20707,7 +20853,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20734,7 +20880,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20761,7 +20907,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20788,7 +20934,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20815,7 +20961,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20842,7 +20988,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20869,7 +21015,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20896,7 +21042,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20923,7 +21069,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20950,7 +21096,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="36" t="s">
         <v>1452</v>
       </c>
@@ -20977,7 +21123,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21004,7 +21150,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21031,7 +21177,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21058,7 +21204,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21085,7 +21231,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21112,7 +21258,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21139,7 +21285,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21166,7 +21312,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21193,7 +21339,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21220,7 +21366,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21247,7 +21393,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21274,7 +21420,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21301,7 +21447,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21328,7 +21474,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21355,7 +21501,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21382,7 +21528,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21409,7 +21555,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21436,7 +21582,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21463,7 +21609,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21490,7 +21636,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21517,7 +21663,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21544,7 +21690,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21571,7 +21717,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21598,7 +21744,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21625,7 +21771,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21652,7 +21798,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21679,7 +21825,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21706,7 +21852,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21733,7 +21879,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21760,7 +21906,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21787,7 +21933,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21814,7 +21960,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21841,7 +21987,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21868,7 +22014,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21895,7 +22041,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21922,7 +22068,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21949,7 +22095,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="36" t="s">
         <v>1452</v>
       </c>
@@ -21976,7 +22122,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22003,7 +22149,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22030,7 +22176,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22057,7 +22203,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22084,7 +22230,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22111,7 +22257,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22138,7 +22284,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22165,7 +22311,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22192,7 +22338,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22219,7 +22365,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22246,7 +22392,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22273,7 +22419,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22300,7 +22446,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22327,7 +22473,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22354,7 +22500,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22381,7 +22527,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22408,7 +22554,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22435,7 +22581,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22462,7 +22608,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22489,7 +22635,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22516,7 +22662,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22543,7 +22689,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22570,7 +22716,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22597,7 +22743,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22624,7 +22770,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22651,7 +22797,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22678,7 +22824,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22705,7 +22851,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22732,7 +22878,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22759,7 +22905,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22786,7 +22932,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22813,7 +22959,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22840,7 +22986,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22867,7 +23013,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22894,7 +23040,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22921,7 +23067,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22948,7 +23094,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="36" t="s">
         <v>1452</v>
       </c>
@@ -22975,7 +23121,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23002,7 +23148,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23029,7 +23175,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23056,7 +23202,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23083,7 +23229,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23110,7 +23256,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23137,7 +23283,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23164,7 +23310,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23191,7 +23337,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23218,7 +23364,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23245,7 +23391,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23272,7 +23418,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23299,7 +23445,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23326,7 +23472,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23353,7 +23499,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23380,7 +23526,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23407,7 +23553,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23434,7 +23580,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23461,7 +23607,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23488,7 +23634,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23515,7 +23661,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23542,7 +23688,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23569,7 +23715,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23596,7 +23742,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23623,7 +23769,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23650,7 +23796,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23677,7 +23823,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23704,7 +23850,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23731,7 +23877,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23758,7 +23904,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23785,7 +23931,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23812,7 +23958,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23839,7 +23985,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23866,7 +24012,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23893,7 +24039,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23920,7 +24066,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23947,7 +24093,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="36" t="s">
         <v>1452</v>
       </c>
@@ -23974,7 +24120,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24001,7 +24147,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24028,7 +24174,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24055,7 +24201,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24082,7 +24228,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24109,7 +24255,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24136,7 +24282,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24163,7 +24309,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24190,7 +24336,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24217,7 +24363,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24244,7 +24390,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24271,7 +24417,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24298,7 +24444,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24325,7 +24471,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24352,7 +24498,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24379,7 +24525,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24406,7 +24552,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24433,7 +24579,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24460,7 +24606,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24487,7 +24633,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24514,7 +24660,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24541,7 +24687,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24568,7 +24714,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24595,7 +24741,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24622,7 +24768,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24649,7 +24795,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24676,7 +24822,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24703,7 +24849,7 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24730,7 +24876,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24757,7 +24903,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="36" t="s">
         <v>1452</v>
       </c>
@@ -24784,7 +24930,7 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24811,7 +24957,7 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1">
+    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24838,7 +24984,7 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1">
+    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24865,7 +25011,7 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1">
+    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24892,7 +25038,7 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1">
+    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24919,7 +25065,7 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1">
+    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24946,7 +25092,7 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1">
+    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="54" t="s">
         <v>1452</v>
       </c>
@@ -24973,7 +25119,7 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1">
+    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25000,7 +25146,7 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1">
+    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25027,7 +25173,7 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1">
+    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25054,7 +25200,7 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1">
+    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25081,7 +25227,7 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1">
+    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25108,7 +25254,7 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1">
+    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25135,7 +25281,7 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1">
+    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25162,7 +25308,7 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1">
+    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25189,7 +25335,7 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1">
+    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25216,7 +25362,7 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1">
+    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25243,7 +25389,7 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1">
+    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25270,7 +25416,7 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1">
+    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25297,7 +25443,7 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1">
+    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25324,7 +25470,7 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1">
+    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25351,7 +25497,7 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1">
+    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25378,7 +25524,7 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1">
+    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25405,7 +25551,7 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1">
+    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25432,7 +25578,7 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1">
+    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25459,7 +25605,7 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1">
+    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25486,7 +25632,7 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1">
+    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25513,7 +25659,7 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1">
+    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25540,7 +25686,7 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1">
+    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25567,7 +25713,7 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1">
+    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25594,7 +25740,7 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1">
+    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25621,7 +25767,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25648,7 +25794,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25675,7 +25821,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25702,7 +25848,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25729,7 +25875,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25756,7 +25902,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25783,7 +25929,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25810,7 +25956,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25837,7 +25983,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25864,7 +26010,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25891,7 +26037,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25918,7 +26064,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25945,7 +26091,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25972,7 +26118,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="54" t="s">
         <v>1452</v>
       </c>
@@ -25999,7 +26145,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26026,7 +26172,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26053,7 +26199,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26080,7 +26226,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26107,7 +26253,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26134,7 +26280,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26161,7 +26307,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26190,7 +26336,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="54" t="s">
         <v>1452</v>
       </c>
@@ -26217,7 +26363,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26260,7 +26406,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="36" t="s">
         <v>1965</v>
       </c>
@@ -26283,7 +26429,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26320,7 +26466,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26359,7 +26505,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26393,7 +26539,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26420,7 +26566,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26459,7 +26605,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26498,7 +26644,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26533,7 +26679,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="36" t="s">
         <v>1960</v>
       </c>
@@ -26566,7 +26712,7 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26593,7 +26739,7 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26624,7 +26770,7 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26655,7 +26801,7 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26686,7 +26832,7 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="38" t="s">
         <v>2073</v>
       </c>
@@ -26715,7 +26861,7 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26746,7 +26892,7 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26777,7 +26923,7 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26808,7 +26954,7 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26837,7 +26983,7 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26866,7 +27012,7 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26895,7 +27041,7 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26924,7 +27070,7 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26953,7 +27099,7 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="59" t="s">
         <v>2026</v>
       </c>
@@ -26982,7 +27128,7 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27011,7 +27157,7 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27040,7 +27186,7 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:18" ht="45.95" customHeight="1">
+    <row r="529" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27069,7 +27215,7 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:18" ht="45.95" customHeight="1">
+    <row r="530" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27098,7 +27244,7 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:18" ht="45.95" customHeight="1">
+    <row r="531" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27127,7 +27273,7 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:18" ht="45.95" customHeight="1">
+    <row r="532" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27154,7 +27300,7 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:18" ht="45.95" customHeight="1">
+    <row r="533" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27181,7 +27327,7 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:18" ht="45.95" customHeight="1">
+    <row r="534" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27210,7 +27356,7 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:18" ht="45.95" customHeight="1">
+    <row r="535" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="59" t="s">
         <v>2026</v>
       </c>
@@ -27233,7 +27379,7 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:18" ht="45.95" customHeight="1">
+    <row r="536" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27266,7 +27412,7 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:18" ht="45.95" customHeight="1">
+    <row r="537" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27299,7 +27445,7 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:18" ht="45.95" customHeight="1">
+    <row r="538" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27336,7 +27482,7 @@
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:18" ht="45.95" customHeight="1">
+    <row r="539" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27371,7 +27517,7 @@
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:18" ht="45.95" customHeight="1">
+    <row r="540" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27402,7 +27548,7 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:18" ht="45.95" customHeight="1">
+    <row r="541" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27435,7 +27581,7 @@
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:18" ht="45.95" customHeight="1">
+    <row r="542" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27479,7 +27625,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="543" spans="1:18" ht="45.95" customHeight="1">
+    <row r="543" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27520,7 +27666,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="45.95" customHeight="1">
+    <row r="544" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="56" t="s">
         <v>2188</v>
       </c>
@@ -27547,7 +27693,7 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1">
+    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="56" t="s">
         <v>2188</v>
       </c>
@@ -27570,7 +27716,7 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1">
+    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="59" t="s">
         <v>2215</v>
       </c>
@@ -27593,7 +27739,7 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1">
+    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27632,7 +27778,7 @@
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1">
+    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27665,7 +27811,7 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1">
+    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27700,7 +27846,7 @@
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1">
+    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="59" t="s">
         <v>1131</v>
       </c>
@@ -27739,7 +27885,7 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1">
+    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27764,7 +27910,7 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1">
+    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27789,7 +27935,7 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1">
+    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27814,7 +27960,7 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1">
+    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27839,7 +27985,7 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1">
+    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="36" t="s">
         <v>2228</v>
       </c>
@@ -27864,7 +28010,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="36" t="s">
         <v>2234</v>
       </c>
@@ -27895,7 +28041,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27924,7 +28070,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27953,7 +28099,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="36" t="s">
         <v>2244</v>
       </c>
@@ -27982,7 +28128,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="36" t="s">
         <v>2244</v>
       </c>
@@ -28011,7 +28157,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="36" t="s">
         <v>70</v>
       </c>
@@ -28040,7 +28186,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="36" t="s">
         <v>70</v>
       </c>
@@ -28069,7 +28215,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="36" t="s">
         <v>70</v>
       </c>
@@ -28098,7 +28244,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="36" t="s">
         <v>70</v>
       </c>
@@ -28127,7 +28273,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="36" t="s">
         <v>70</v>
       </c>
@@ -28156,7 +28302,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="36" t="s">
         <v>70</v>
       </c>
@@ -28185,7 +28331,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="36" t="s">
         <v>70</v>
       </c>
@@ -28214,7 +28360,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="36" t="s">
         <v>70</v>
       </c>
@@ -28243,7 +28389,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="36" t="s">
         <v>70</v>
       </c>
@@ -28272,7 +28418,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="36" t="s">
         <v>70</v>
       </c>
@@ -28301,7 +28447,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="36" t="s">
         <v>70</v>
       </c>
@@ -28330,7 +28476,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="36" t="s">
         <v>70</v>
       </c>
@@ -28359,7 +28505,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="36" t="s">
         <v>70</v>
       </c>
@@ -28388,7 +28534,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="36" t="s">
         <v>70</v>
       </c>
@@ -28417,7 +28563,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="36" t="s">
         <v>70</v>
       </c>
@@ -28446,7 +28592,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="36" t="s">
         <v>70</v>
       </c>
@@ -28475,7 +28621,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="36" t="s">
         <v>70</v>
       </c>
@@ -28504,7 +28650,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="36" t="s">
         <v>70</v>
       </c>
@@ -28533,7 +28679,7 @@
       <c r="P578" s="16"/>
       <c r="Q578" s="17"/>
     </row>
-    <row r="579" spans="1:17" ht="45.95" customHeight="1">
+    <row r="579" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="36" t="s">
         <v>70</v>
       </c>
@@ -28562,7 +28708,7 @@
       <c r="P579" s="16"/>
       <c r="Q579" s="17"/>
     </row>
-    <row r="580" spans="1:17" ht="45.95" customHeight="1">
+    <row r="580" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="36" t="s">
         <v>70</v>
       </c>
@@ -28591,7 +28737,7 @@
       <c r="P580" s="16"/>
       <c r="Q580" s="17"/>
     </row>
-    <row r="581" spans="1:17" ht="45.95" customHeight="1">
+    <row r="581" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="36" t="s">
         <v>70</v>
       </c>
@@ -28620,7 +28766,7 @@
       <c r="P581" s="16"/>
       <c r="Q581" s="17"/>
     </row>
-    <row r="582" spans="1:17" ht="45.95" customHeight="1">
+    <row r="582" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="36" t="s">
         <v>70</v>
       </c>
@@ -28649,24 +28795,24 @@
       <c r="P582" s="16"/>
       <c r="Q582" s="17"/>
     </row>
-    <row r="583" spans="1:17" ht="45.95" customHeight="1">
+    <row r="583" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B583" s="35" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C583" s="48" t="s">
         <v>2319</v>
-      </c>
-      <c r="C583" s="48" t="s">
-        <v>2320</v>
       </c>
       <c r="D583" s="14"/>
       <c r="E583" s="14"/>
       <c r="F583" s="14"/>
       <c r="G583" s="34" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="H583" s="37" t="s">
-        <v>2317</v>
+        <v>2415</v>
       </c>
       <c r="I583" s="14"/>
       <c r="J583" s="14"/>
@@ -28678,24 +28824,24 @@
       <c r="P583" s="16"/>
       <c r="Q583" s="17"/>
     </row>
-    <row r="584" spans="1:17" ht="45.95" customHeight="1">
+    <row r="584" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B584" s="35" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C584" s="48" t="s">
         <v>2322</v>
-      </c>
-      <c r="C584" s="48" t="s">
-        <v>2323</v>
       </c>
       <c r="D584" s="14"/>
       <c r="E584" s="14"/>
       <c r="F584" s="14"/>
       <c r="G584" s="34" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="H584" s="37" t="s">
-        <v>2317</v>
+        <v>2415</v>
       </c>
       <c r="I584" s="14"/>
       <c r="J584" s="14"/>
@@ -28707,24 +28853,24 @@
       <c r="P584" s="16"/>
       <c r="Q584" s="17"/>
     </row>
-    <row r="585" spans="1:17" ht="45.95" customHeight="1">
+    <row r="585" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B585" s="35" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C585" s="48" t="s">
         <v>2325</v>
-      </c>
-      <c r="C585" s="48" t="s">
-        <v>2326</v>
       </c>
       <c r="D585" s="14"/>
       <c r="E585" s="14"/>
       <c r="F585" s="14"/>
       <c r="G585" s="34" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="H585" s="37" t="s">
-        <v>2317</v>
+        <v>2415</v>
       </c>
       <c r="I585" s="14"/>
       <c r="J585" s="14"/>
@@ -28736,24 +28882,24 @@
       <c r="P585" s="16"/>
       <c r="Q585" s="17"/>
     </row>
-    <row r="586" spans="1:17" ht="45.95" customHeight="1">
+    <row r="586" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B586" s="35" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C586" s="48" t="s">
         <v>2328</v>
-      </c>
-      <c r="C586" s="48" t="s">
-        <v>2329</v>
       </c>
       <c r="D586" s="14"/>
       <c r="E586" s="14"/>
       <c r="F586" s="14"/>
       <c r="G586" s="34" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="H586" s="37" t="s">
-        <v>2317</v>
+        <v>2415</v>
       </c>
       <c r="I586" s="14"/>
       <c r="J586" s="14"/>
@@ -28765,24 +28911,24 @@
       <c r="P586" s="16"/>
       <c r="Q586" s="17"/>
     </row>
-    <row r="587" spans="1:17" ht="45.95" customHeight="1">
+    <row r="587" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B587" s="35" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C587" s="48" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D587" s="14"/>
       <c r="E587" s="14"/>
       <c r="F587" s="14"/>
       <c r="G587" s="34" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="H587" s="37" t="s">
-        <v>2317</v>
+        <v>2415</v>
       </c>
       <c r="I587" s="14"/>
       <c r="J587" s="14"/>
@@ -28794,24 +28940,24 @@
       <c r="P587" s="16"/>
       <c r="Q587" s="17"/>
     </row>
-    <row r="588" spans="1:17" ht="45.95" customHeight="1">
+    <row r="588" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B588" s="35" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C588" s="48" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D588" s="14"/>
       <c r="E588" s="14"/>
       <c r="F588" s="14"/>
       <c r="G588" s="34" t="s">
-        <v>2334</v>
-      </c>
-      <c r="H588" s="37" t="s">
-        <v>2333</v>
+        <v>2332</v>
+      </c>
+      <c r="H588" s="41" t="s">
+        <v>2414</v>
       </c>
       <c r="I588" s="14"/>
       <c r="J588" s="14"/>
@@ -28823,24 +28969,24 @@
       <c r="P588" s="16"/>
       <c r="Q588" s="17"/>
     </row>
-    <row r="589" spans="1:17" ht="45.95" customHeight="1">
+    <row r="589" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B589" s="35" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="C589" s="48" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="D589" s="14"/>
       <c r="E589" s="14"/>
       <c r="F589" s="14"/>
       <c r="G589" s="34" t="s">
-        <v>2339</v>
-      </c>
-      <c r="H589" s="37" t="s">
-        <v>2333</v>
+        <v>2337</v>
+      </c>
+      <c r="H589" s="41" t="s">
+        <v>2414</v>
       </c>
       <c r="I589" s="14"/>
       <c r="J589" s="14"/>
@@ -28852,24 +28998,24 @@
       <c r="P589" s="16"/>
       <c r="Q589" s="17"/>
     </row>
-    <row r="590" spans="1:17" ht="45.95" customHeight="1">
+    <row r="590" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B590" s="35" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C590" s="48" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D590" s="14"/>
       <c r="E590" s="14"/>
       <c r="F590" s="14"/>
       <c r="G590" s="34" t="s">
-        <v>2340</v>
-      </c>
-      <c r="H590" s="37" t="s">
-        <v>2333</v>
+        <v>2338</v>
+      </c>
+      <c r="H590" s="41" t="s">
+        <v>2414</v>
       </c>
       <c r="I590" s="14"/>
       <c r="J590" s="14"/>
@@ -28881,24 +29027,24 @@
       <c r="P590" s="16"/>
       <c r="Q590" s="17"/>
     </row>
-    <row r="591" spans="1:17" ht="45.95" customHeight="1">
+    <row r="591" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B591" s="35" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="C591" s="48" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="D591" s="14"/>
       <c r="E591" s="14"/>
       <c r="F591" s="14"/>
       <c r="G591" s="34" t="s">
-        <v>2345</v>
-      </c>
-      <c r="H591" s="37" t="s">
-        <v>2333</v>
+        <v>2343</v>
+      </c>
+      <c r="H591" s="41" t="s">
+        <v>2414</v>
       </c>
       <c r="I591" s="14"/>
       <c r="J591" s="14"/>
@@ -28910,24 +29056,24 @@
       <c r="P591" s="16"/>
       <c r="Q591" s="17"/>
     </row>
-    <row r="592" spans="1:17" ht="45.95" customHeight="1">
+    <row r="592" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B592" s="35" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="C592" s="48" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="D592" s="14"/>
       <c r="E592" s="14"/>
       <c r="F592" s="14"/>
       <c r="G592" s="34" t="s">
-        <v>2346</v>
-      </c>
-      <c r="H592" s="37" t="s">
-        <v>2333</v>
+        <v>2344</v>
+      </c>
+      <c r="H592" s="41" t="s">
+        <v>2414</v>
       </c>
       <c r="I592" s="14"/>
       <c r="J592" s="14"/>
@@ -28939,24 +29085,24 @@
       <c r="P592" s="16"/>
       <c r="Q592" s="17"/>
     </row>
-    <row r="593" spans="1:17" ht="45.95" customHeight="1">
+    <row r="593" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B593" s="35" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="C593" s="48" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="D593" s="14"/>
       <c r="E593" s="14"/>
       <c r="F593" s="14"/>
       <c r="G593" s="34" t="s">
-        <v>2351</v>
-      </c>
-      <c r="H593" s="37" t="s">
-        <v>2333</v>
+        <v>2349</v>
+      </c>
+      <c r="H593" s="41" t="s">
+        <v>2414</v>
       </c>
       <c r="I593" s="14"/>
       <c r="J593" s="14"/>
@@ -28968,24 +29114,24 @@
       <c r="P593" s="16"/>
       <c r="Q593" s="17"/>
     </row>
-    <row r="594" spans="1:17" ht="45.95" customHeight="1">
+    <row r="594" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B594" s="35" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="C594" s="48" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="D594" s="14"/>
       <c r="E594" s="14"/>
       <c r="F594" s="14"/>
       <c r="G594" s="34" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="H594" s="41" t="s">
-        <v>2333</v>
+        <v>2414</v>
       </c>
       <c r="I594" s="14"/>
       <c r="J594" s="14"/>
@@ -28997,24 +29143,24 @@
       <c r="P594" s="16"/>
       <c r="Q594" s="17"/>
     </row>
-    <row r="595" spans="1:17" ht="45.95" customHeight="1">
+    <row r="595" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B595" s="42" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="C595" s="49" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="D595" s="14"/>
       <c r="E595" s="14"/>
       <c r="F595" s="14"/>
       <c r="G595" s="40" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="H595" s="41" t="s">
-        <v>2355</v>
+        <v>2413</v>
       </c>
       <c r="I595" s="14"/>
       <c r="J595" s="14"/>
@@ -29026,24 +29172,24 @@
       <c r="P595" s="16"/>
       <c r="Q595" s="17"/>
     </row>
-    <row r="596" spans="1:17" ht="45.95" customHeight="1">
+    <row r="596" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B596" s="42" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="C596" s="49" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="D596" s="14"/>
       <c r="E596" s="14"/>
       <c r="F596" s="14"/>
       <c r="G596" s="40" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="H596" s="41" t="s">
-        <v>2355</v>
+        <v>2413</v>
       </c>
       <c r="I596" s="14"/>
       <c r="J596" s="14"/>
@@ -29055,24 +29201,24 @@
       <c r="P596" s="16"/>
       <c r="Q596" s="17"/>
     </row>
-    <row r="597" spans="1:17" ht="45.95" customHeight="1">
+    <row r="597" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B597" s="42" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="C597" s="49" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="D597" s="14"/>
       <c r="E597" s="14"/>
       <c r="F597" s="14"/>
       <c r="G597" s="40" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="H597" s="41" t="s">
-        <v>2355</v>
+        <v>2413</v>
       </c>
       <c r="I597" s="14"/>
       <c r="J597" s="14"/>
@@ -29084,24 +29230,24 @@
       <c r="P597" s="16"/>
       <c r="Q597" s="17"/>
     </row>
-    <row r="598" spans="1:17" ht="45.95" customHeight="1">
+    <row r="598" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B598" s="42" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="C598" s="49" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="D598" s="14"/>
       <c r="E598" s="14"/>
       <c r="F598" s="14"/>
       <c r="G598" s="40" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="H598" s="41" t="s">
-        <v>2355</v>
+        <v>2413</v>
       </c>
       <c r="I598" s="14"/>
       <c r="J598" s="14"/>
@@ -29113,24 +29259,24 @@
       <c r="P598" s="16"/>
       <c r="Q598" s="17"/>
     </row>
-    <row r="599" spans="1:17" ht="45.95" customHeight="1">
+    <row r="599" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B599" s="42" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="C599" s="49" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="D599" s="14"/>
       <c r="E599" s="14"/>
       <c r="F599" s="14"/>
       <c r="G599" s="40" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="H599" s="41" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="I599" s="14"/>
       <c r="J599" s="14"/>
@@ -29142,24 +29288,24 @@
       <c r="P599" s="16"/>
       <c r="Q599" s="17"/>
     </row>
-    <row r="600" spans="1:17" ht="45.95" customHeight="1">
+    <row r="600" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B600" s="42" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="C600" s="49" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="D600" s="14"/>
       <c r="E600" s="14"/>
       <c r="F600" s="14"/>
       <c r="G600" s="40" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="H600" s="41" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="I600" s="14"/>
       <c r="J600" s="14"/>
@@ -29171,24 +29317,24 @@
       <c r="P600" s="16"/>
       <c r="Q600" s="17"/>
     </row>
-    <row r="601" spans="1:17" ht="45.95" customHeight="1">
+    <row r="601" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B601" s="42" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="C601" s="49" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="D601" s="14"/>
       <c r="E601" s="14"/>
       <c r="F601" s="14"/>
       <c r="G601" s="40" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="H601" s="41" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="I601" s="14"/>
       <c r="J601" s="14"/>
@@ -29200,24 +29346,24 @@
       <c r="P601" s="16"/>
       <c r="Q601" s="17"/>
     </row>
-    <row r="602" spans="1:17" ht="45.95" customHeight="1">
+    <row r="602" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B602" s="42" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="C602" s="49" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="D602" s="14"/>
       <c r="E602" s="14"/>
       <c r="F602" s="14"/>
       <c r="G602" s="40" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="H602" s="41" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="I602" s="14"/>
       <c r="J602" s="14"/>
@@ -29229,24 +29375,24 @@
       <c r="P602" s="16"/>
       <c r="Q602" s="17"/>
     </row>
-    <row r="603" spans="1:17" ht="45.95" customHeight="1">
+    <row r="603" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B603" s="42" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="C603" s="49" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="D603" s="14"/>
       <c r="E603" s="14"/>
       <c r="F603" s="14"/>
       <c r="G603" s="40" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="H603" s="41" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="I603" s="14"/>
       <c r="J603" s="14"/>
@@ -29258,24 +29404,24 @@
       <c r="P603" s="16"/>
       <c r="Q603" s="17"/>
     </row>
-    <row r="604" spans="1:17" ht="45.95" customHeight="1">
+    <row r="604" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B604" s="42" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="C604" s="49" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="D604" s="14"/>
       <c r="E604" s="14"/>
       <c r="F604" s="14"/>
       <c r="G604" s="40" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="H604" s="41" t="s">
-        <v>2367</v>
+        <v>2412</v>
       </c>
       <c r="I604" s="14"/>
       <c r="J604" s="14"/>
@@ -29287,24 +29433,24 @@
       <c r="P604" s="16"/>
       <c r="Q604" s="17"/>
     </row>
-    <row r="605" spans="1:17" ht="45.95" customHeight="1">
+    <row r="605" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B605" s="42" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="C605" s="49" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="D605" s="14"/>
       <c r="E605" s="14"/>
       <c r="F605" s="14"/>
       <c r="G605" s="40" t="s">
-        <v>2382</v>
+        <v>2377</v>
       </c>
       <c r="H605" s="41" t="s">
-        <v>2381</v>
+        <v>2411</v>
       </c>
       <c r="I605" s="14"/>
       <c r="J605" s="14"/>
@@ -29316,24 +29462,24 @@
       <c r="P605" s="16"/>
       <c r="Q605" s="17"/>
     </row>
-    <row r="606" spans="1:17" ht="45.95" customHeight="1">
+    <row r="606" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B606" s="42" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="C606" s="49" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="D606" s="14"/>
       <c r="E606" s="14"/>
       <c r="F606" s="14"/>
       <c r="G606" s="40" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="H606" s="41" t="s">
-        <v>2381</v>
+        <v>2411</v>
       </c>
       <c r="I606" s="14"/>
       <c r="J606" s="14"/>
@@ -29345,24 +29491,24 @@
       <c r="P606" s="16"/>
       <c r="Q606" s="17"/>
     </row>
-    <row r="607" spans="1:17" ht="45.95" customHeight="1">
+    <row r="607" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B607" s="42" t="s">
-        <v>2389</v>
+        <v>2384</v>
       </c>
       <c r="C607" s="49" t="s">
-        <v>2390</v>
+        <v>2385</v>
       </c>
       <c r="D607" s="14"/>
       <c r="E607" s="14"/>
       <c r="F607" s="14"/>
       <c r="G607" s="40" t="s">
-        <v>2388</v>
+        <v>2383</v>
       </c>
       <c r="H607" s="41" t="s">
-        <v>2381</v>
+        <v>2411</v>
       </c>
       <c r="I607" s="14"/>
       <c r="J607" s="14"/>
@@ -29374,24 +29520,24 @@
       <c r="P607" s="16"/>
       <c r="Q607" s="17"/>
     </row>
-    <row r="608" spans="1:17" ht="45.95" customHeight="1">
+    <row r="608" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B608" s="42" t="s">
-        <v>2393</v>
+        <v>2388</v>
       </c>
       <c r="C608" s="49" t="s">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="D608" s="14"/>
       <c r="E608" s="14"/>
       <c r="F608" s="14"/>
       <c r="G608" s="40" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="H608" s="41" t="s">
-        <v>2381</v>
+        <v>2411</v>
       </c>
       <c r="I608" s="14"/>
       <c r="J608" s="14"/>
@@ -29403,24 +29549,24 @@
       <c r="P608" s="16"/>
       <c r="Q608" s="17"/>
     </row>
-    <row r="609" spans="1:17" ht="45.95" customHeight="1">
+    <row r="609" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B609" s="42" t="s">
-        <v>2394</v>
+        <v>2389</v>
       </c>
       <c r="C609" s="49" t="s">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="D609" s="14"/>
       <c r="E609" s="14"/>
       <c r="F609" s="14"/>
       <c r="G609" s="40" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="H609" s="41" t="s">
-        <v>2381</v>
+        <v>2411</v>
       </c>
       <c r="I609" s="14"/>
       <c r="J609" s="14"/>
@@ -29432,24 +29578,24 @@
       <c r="P609" s="16"/>
       <c r="Q609" s="17"/>
     </row>
-    <row r="610" spans="1:17" ht="45.95" customHeight="1">
+    <row r="610" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B610" s="42" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="C610" s="49" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="D610" s="14"/>
       <c r="E610" s="14"/>
       <c r="F610" s="14"/>
       <c r="G610" s="40" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="H610" s="41" t="s">
-        <v>2396</v>
+        <v>2410</v>
       </c>
       <c r="I610" s="14"/>
       <c r="J610" s="14"/>
@@ -29461,15 +29607,23 @@
       <c r="P610" s="16"/>
       <c r="Q610" s="17"/>
     </row>
-    <row r="611" spans="1:17" ht="45.95" customHeight="1">
+    <row r="611" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="20"/>
-      <c r="B611" s="35"/>
-      <c r="C611" s="48"/>
+      <c r="B611" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C611" s="48" t="s">
+        <v>2396</v>
+      </c>
       <c r="D611" s="14"/>
       <c r="E611" s="14"/>
       <c r="F611" s="14"/>
-      <c r="G611" s="34"/>
-      <c r="H611" s="15"/>
+      <c r="G611" s="34" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H611" s="41" t="s">
+        <v>2410</v>
+      </c>
       <c r="I611" s="14"/>
       <c r="J611" s="14"/>
       <c r="K611" s="14"/>
@@ -29480,15 +29634,23 @@
       <c r="P611" s="16"/>
       <c r="Q611" s="17"/>
     </row>
-    <row r="612" spans="1:17" ht="45.95" customHeight="1">
+    <row r="612" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="20"/>
-      <c r="B612" s="35"/>
-      <c r="C612" s="48"/>
+      <c r="B612" s="35" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C612" s="48" t="s">
+        <v>2397</v>
+      </c>
       <c r="D612" s="14"/>
       <c r="E612" s="14"/>
       <c r="F612" s="14"/>
-      <c r="G612" s="34"/>
-      <c r="H612" s="15"/>
+      <c r="G612" s="34" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H612" s="41" t="s">
+        <v>2410</v>
+      </c>
       <c r="I612" s="14"/>
       <c r="J612" s="14"/>
       <c r="K612" s="14"/>
@@ -29499,15 +29661,23 @@
       <c r="P612" s="16"/>
       <c r="Q612" s="17"/>
     </row>
-    <row r="613" spans="1:17" ht="45.95" customHeight="1">
+    <row r="613" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="20"/>
-      <c r="B613" s="35"/>
-      <c r="C613" s="48"/>
+      <c r="B613" s="35" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C613" s="48" t="s">
+        <v>2402</v>
+      </c>
       <c r="D613" s="14"/>
       <c r="E613" s="14"/>
       <c r="F613" s="14"/>
-      <c r="G613" s="34"/>
-      <c r="H613" s="15"/>
+      <c r="G613" s="34" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H613" s="41" t="s">
+        <v>2410</v>
+      </c>
       <c r="I613" s="14"/>
       <c r="J613" s="14"/>
       <c r="K613" s="14"/>
@@ -29518,15 +29688,23 @@
       <c r="P613" s="16"/>
       <c r="Q613" s="17"/>
     </row>
-    <row r="614" spans="1:17" ht="45.95" customHeight="1">
+    <row r="614" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="20"/>
-      <c r="B614" s="35"/>
-      <c r="C614" s="48"/>
+      <c r="B614" s="35" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C614" s="48" t="s">
+        <v>2403</v>
+      </c>
       <c r="D614" s="14"/>
       <c r="E614" s="14"/>
       <c r="F614" s="14"/>
-      <c r="G614" s="34"/>
-      <c r="H614" s="15"/>
+      <c r="G614" s="34" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H614" s="41" t="s">
+        <v>2410</v>
+      </c>
       <c r="I614" s="14"/>
       <c r="J614" s="14"/>
       <c r="K614" s="14"/>
@@ -29537,15 +29715,23 @@
       <c r="P614" s="16"/>
       <c r="Q614" s="17"/>
     </row>
-    <row r="615" spans="1:17" ht="45.95" customHeight="1">
+    <row r="615" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="20"/>
-      <c r="B615" s="35"/>
-      <c r="C615" s="48"/>
+      <c r="B615" s="35" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C615" s="48" t="s">
+        <v>2409</v>
+      </c>
       <c r="D615" s="14"/>
       <c r="E615" s="14"/>
       <c r="F615" s="14"/>
-      <c r="G615" s="34"/>
-      <c r="H615" s="15"/>
+      <c r="G615" s="34" t="s">
+        <v>2407</v>
+      </c>
+      <c r="H615" s="37" t="s">
+        <v>2406</v>
+      </c>
       <c r="I615" s="14"/>
       <c r="J615" s="14"/>
       <c r="K615" s="14"/>
@@ -29556,15 +29742,23 @@
       <c r="P615" s="16"/>
       <c r="Q615" s="17"/>
     </row>
-    <row r="616" spans="1:17" ht="45.95" customHeight="1">
+    <row r="616" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="20"/>
-      <c r="B616" s="35"/>
-      <c r="C616" s="48"/>
+      <c r="B616" s="35" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C616" s="48" t="s">
+        <v>2419</v>
+      </c>
       <c r="D616" s="14"/>
       <c r="E616" s="14"/>
       <c r="F616" s="14"/>
-      <c r="G616" s="34"/>
-      <c r="H616" s="15"/>
+      <c r="G616" s="34" t="s">
+        <v>2417</v>
+      </c>
+      <c r="H616" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I616" s="14"/>
       <c r="J616" s="14"/>
       <c r="K616" s="14"/>
@@ -29575,15 +29769,23 @@
       <c r="P616" s="16"/>
       <c r="Q616" s="17"/>
     </row>
-    <row r="617" spans="1:17" ht="45.95" customHeight="1">
+    <row r="617" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="20"/>
-      <c r="B617" s="35"/>
-      <c r="C617" s="48"/>
+      <c r="B617" s="35" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C617" s="48" t="s">
+        <v>2420</v>
+      </c>
       <c r="D617" s="14"/>
       <c r="E617" s="14"/>
       <c r="F617" s="14"/>
-      <c r="G617" s="34"/>
-      <c r="H617" s="15"/>
+      <c r="G617" s="34" t="s">
+        <v>2422</v>
+      </c>
+      <c r="H617" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I617" s="14"/>
       <c r="J617" s="14"/>
       <c r="K617" s="14"/>
@@ -29594,15 +29796,23 @@
       <c r="P617" s="16"/>
       <c r="Q617" s="17"/>
     </row>
-    <row r="618" spans="1:17" ht="45.95" customHeight="1">
+    <row r="618" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="20"/>
-      <c r="B618" s="35"/>
-      <c r="C618" s="48"/>
+      <c r="B618" s="35" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C618" s="48" t="s">
+        <v>2423</v>
+      </c>
       <c r="D618" s="14"/>
       <c r="E618" s="14"/>
       <c r="F618" s="14"/>
-      <c r="G618" s="34"/>
-      <c r="H618" s="15"/>
+      <c r="G618" s="34" t="s">
+        <v>2425</v>
+      </c>
+      <c r="H618" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I618" s="14"/>
       <c r="J618" s="14"/>
       <c r="K618" s="14"/>
@@ -29613,15 +29823,23 @@
       <c r="P618" s="16"/>
       <c r="Q618" s="17"/>
     </row>
-    <row r="619" spans="1:17" ht="45.95" customHeight="1">
+    <row r="619" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="20"/>
-      <c r="B619" s="35"/>
-      <c r="C619" s="48"/>
+      <c r="B619" s="35" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C619" s="48" t="s">
+        <v>2427</v>
+      </c>
       <c r="D619" s="14"/>
       <c r="E619" s="14"/>
       <c r="F619" s="14"/>
-      <c r="G619" s="34"/>
-      <c r="H619" s="15"/>
+      <c r="G619" s="34" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H619" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I619" s="14"/>
       <c r="J619" s="14"/>
       <c r="K619" s="14"/>
@@ -29632,15 +29850,23 @@
       <c r="P619" s="16"/>
       <c r="Q619" s="17"/>
     </row>
-    <row r="620" spans="1:17" ht="45.95" customHeight="1">
+    <row r="620" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="20"/>
-      <c r="B620" s="35"/>
-      <c r="C620" s="48"/>
+      <c r="B620" s="35" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C620" s="48" t="s">
+        <v>2430</v>
+      </c>
       <c r="D620" s="14"/>
       <c r="E620" s="14"/>
       <c r="F620" s="14"/>
-      <c r="G620" s="34"/>
-      <c r="H620" s="15"/>
+      <c r="G620" s="34" t="s">
+        <v>2428</v>
+      </c>
+      <c r="H620" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I620" s="14"/>
       <c r="J620" s="14"/>
       <c r="K620" s="14"/>
@@ -29651,15 +29877,23 @@
       <c r="P620" s="16"/>
       <c r="Q620" s="17"/>
     </row>
-    <row r="621" spans="1:17" ht="45.95" customHeight="1">
+    <row r="621" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="20"/>
-      <c r="B621" s="35"/>
-      <c r="C621" s="48"/>
+      <c r="B621" s="35" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C621" s="48" t="s">
+        <v>2431</v>
+      </c>
       <c r="D621" s="14"/>
       <c r="E621" s="14"/>
       <c r="F621" s="14"/>
-      <c r="G621" s="34"/>
-      <c r="H621" s="15"/>
+      <c r="G621" s="34" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H621" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I621" s="14"/>
       <c r="J621" s="14"/>
       <c r="K621" s="14"/>
@@ -29670,15 +29904,23 @@
       <c r="P621" s="16"/>
       <c r="Q621" s="17"/>
     </row>
-    <row r="622" spans="1:17" ht="45.95" customHeight="1">
+    <row r="622" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="20"/>
-      <c r="B622" s="35"/>
-      <c r="C622" s="48"/>
+      <c r="B622" s="35" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C622" s="48" t="s">
+        <v>2434</v>
+      </c>
       <c r="D622" s="14"/>
       <c r="E622" s="14"/>
       <c r="F622" s="14"/>
-      <c r="G622" s="34"/>
-      <c r="H622" s="15"/>
+      <c r="G622" s="34" t="s">
+        <v>2407</v>
+      </c>
+      <c r="H622" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I622" s="14"/>
       <c r="J622" s="14"/>
       <c r="K622" s="14"/>
@@ -29689,15 +29931,23 @@
       <c r="P622" s="16"/>
       <c r="Q622" s="17"/>
     </row>
-    <row r="623" spans="1:17" ht="45.95" customHeight="1">
+    <row r="623" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="20"/>
-      <c r="B623" s="35"/>
-      <c r="C623" s="48"/>
+      <c r="B623" s="35" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C623" s="48" t="s">
+        <v>2435</v>
+      </c>
       <c r="D623" s="14"/>
       <c r="E623" s="14"/>
       <c r="F623" s="14"/>
-      <c r="G623" s="34"/>
-      <c r="H623" s="15"/>
+      <c r="G623" s="34" t="s">
+        <v>2437</v>
+      </c>
+      <c r="H623" s="37" t="s">
+        <v>2416</v>
+      </c>
       <c r="I623" s="14"/>
       <c r="J623" s="14"/>
       <c r="K623" s="14"/>
@@ -29708,7 +29958,7 @@
       <c r="P623" s="16"/>
       <c r="Q623" s="17"/>
     </row>
-    <row r="624" spans="1:17" ht="45.95" customHeight="1">
+    <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="20"/>
       <c r="B624" s="35"/>
       <c r="C624" s="48"/>
@@ -29727,7 +29977,7 @@
       <c r="P624" s="16"/>
       <c r="Q624" s="17"/>
     </row>
-    <row r="625" spans="1:17" ht="45.95" customHeight="1">
+    <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="20"/>
       <c r="B625" s="35"/>
       <c r="C625" s="48"/>
@@ -29746,7 +29996,7 @@
       <c r="P625" s="16"/>
       <c r="Q625" s="17"/>
     </row>
-    <row r="626" spans="1:17" ht="45.95" customHeight="1">
+    <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="20"/>
       <c r="B626" s="35"/>
       <c r="C626" s="48"/>
@@ -29765,7 +30015,7 @@
       <c r="P626" s="16"/>
       <c r="Q626" s="17"/>
     </row>
-    <row r="627" spans="1:17" ht="45.95" customHeight="1">
+    <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="20"/>
       <c r="B627" s="35"/>
       <c r="C627" s="48"/>
@@ -29784,7 +30034,7 @@
       <c r="P627" s="16"/>
       <c r="Q627" s="17"/>
     </row>
-    <row r="628" spans="1:17" ht="45.95" customHeight="1">
+    <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="20"/>
       <c r="B628" s="35"/>
       <c r="C628" s="48"/>
@@ -29803,7 +30053,7 @@
       <c r="P628" s="16"/>
       <c r="Q628" s="17"/>
     </row>
-    <row r="629" spans="1:17" ht="45.95" customHeight="1">
+    <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="20"/>
       <c r="B629" s="35"/>
       <c r="C629" s="48"/>
@@ -29822,7 +30072,7 @@
       <c r="P629" s="16"/>
       <c r="Q629" s="17"/>
     </row>
-    <row r="630" spans="1:17" ht="45.95" customHeight="1">
+    <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="20"/>
       <c r="B630" s="35"/>
       <c r="C630" s="48"/>
@@ -29841,7 +30091,7 @@
       <c r="P630" s="16"/>
       <c r="Q630" s="17"/>
     </row>
-    <row r="631" spans="1:17" ht="45.95" customHeight="1">
+    <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="20"/>
       <c r="B631" s="35"/>
       <c r="C631" s="48"/>
@@ -29860,7 +30110,7 @@
       <c r="P631" s="16"/>
       <c r="Q631" s="17"/>
     </row>
-    <row r="632" spans="1:17" ht="45.95" customHeight="1">
+    <row r="632" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="20"/>
       <c r="B632" s="35"/>
       <c r="C632" s="48"/>
@@ -29879,7 +30129,7 @@
       <c r="P632" s="16"/>
       <c r="Q632" s="17"/>
     </row>
-    <row r="633" spans="1:17" ht="45.95" customHeight="1">
+    <row r="633" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="20"/>
       <c r="B633" s="35"/>
       <c r="C633" s="48"/>
@@ -29898,7 +30148,7 @@
       <c r="P633" s="16"/>
       <c r="Q633" s="17"/>
     </row>
-    <row r="634" spans="1:17" ht="45.95" customHeight="1">
+    <row r="634" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="20"/>
       <c r="B634" s="35"/>
       <c r="C634" s="48"/>
@@ -29917,7 +30167,7 @@
       <c r="P634" s="16"/>
       <c r="Q634" s="17"/>
     </row>
-    <row r="635" spans="1:17" ht="45.95" customHeight="1">
+    <row r="635" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="20"/>
       <c r="B635" s="35"/>
       <c r="C635" s="48"/>
@@ -29936,7 +30186,7 @@
       <c r="P635" s="16"/>
       <c r="Q635" s="17"/>
     </row>
-    <row r="636" spans="1:17" ht="45.95" customHeight="1">
+    <row r="636" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="20"/>
       <c r="B636" s="35"/>
       <c r="C636" s="48"/>
@@ -29955,7 +30205,7 @@
       <c r="P636" s="16"/>
       <c r="Q636" s="17"/>
     </row>
-    <row r="637" spans="1:17" ht="45.95" customHeight="1">
+    <row r="637" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="20"/>
       <c r="B637" s="13"/>
       <c r="C637" s="45"/>
@@ -29974,7 +30224,7 @@
       <c r="P637" s="16"/>
       <c r="Q637" s="17"/>
     </row>
-    <row r="638" spans="1:17" ht="45.95" customHeight="1">
+    <row r="638" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="20"/>
       <c r="B638" s="35"/>
       <c r="C638" s="48"/>
@@ -29993,7 +30243,7 @@
       <c r="P638" s="16"/>
       <c r="Q638" s="17"/>
     </row>
-    <row r="639" spans="1:17" ht="45.95" customHeight="1">
+    <row r="639" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="20"/>
       <c r="B639" s="35"/>
       <c r="C639" s="48"/>
@@ -30012,7 +30262,7 @@
       <c r="P639" s="16"/>
       <c r="Q639" s="17"/>
     </row>
-    <row r="640" spans="1:17" ht="45.95" customHeight="1">
+    <row r="640" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="20"/>
       <c r="B640" s="35"/>
       <c r="C640" s="48"/>
@@ -30031,7 +30281,7 @@
       <c r="P640" s="16"/>
       <c r="Q640" s="17"/>
     </row>
-    <row r="641" spans="1:17" ht="45.95" customHeight="1">
+    <row r="641" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="20"/>
       <c r="B641" s="35"/>
       <c r="C641" s="48"/>
@@ -30050,7 +30300,7 @@
       <c r="P641" s="16"/>
       <c r="Q641" s="17"/>
     </row>
-    <row r="642" spans="1:17" ht="45.95" customHeight="1">
+    <row r="642" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="20"/>
       <c r="B642" s="35"/>
       <c r="C642" s="48"/>
@@ -30069,7 +30319,7 @@
       <c r="P642" s="16"/>
       <c r="Q642" s="17"/>
     </row>
-    <row r="643" spans="1:17" ht="45.95" customHeight="1">
+    <row r="643" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="20"/>
       <c r="B643" s="35"/>
       <c r="C643" s="48"/>
@@ -30088,7 +30338,7 @@
       <c r="P643" s="16"/>
       <c r="Q643" s="17"/>
     </row>
-    <row r="644" spans="1:17" ht="45.95" customHeight="1">
+    <row r="644" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="20"/>
       <c r="B644" s="35"/>
       <c r="C644" s="48"/>
@@ -30107,7 +30357,7 @@
       <c r="P644" s="16"/>
       <c r="Q644" s="17"/>
     </row>
-    <row r="645" spans="1:17" ht="45.95" customHeight="1">
+    <row r="645" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="20"/>
       <c r="B645" s="35"/>
       <c r="C645" s="48"/>
@@ -30126,7 +30376,7 @@
       <c r="P645" s="16"/>
       <c r="Q645" s="17"/>
     </row>
-    <row r="646" spans="1:17" ht="45.95" customHeight="1">
+    <row r="646" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="20"/>
       <c r="B646" s="35"/>
       <c r="C646" s="48"/>
@@ -30145,7 +30395,7 @@
       <c r="P646" s="16"/>
       <c r="Q646" s="17"/>
     </row>
-    <row r="647" spans="1:17" ht="45.95" customHeight="1">
+    <row r="647" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="20"/>
       <c r="B647" s="35"/>
       <c r="C647" s="48"/>
@@ -30164,7 +30414,7 @@
       <c r="P647" s="16"/>
       <c r="Q647" s="17"/>
     </row>
-    <row r="648" spans="1:17" ht="45.95" customHeight="1">
+    <row r="648" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="20"/>
       <c r="B648" s="35"/>
       <c r="C648" s="48"/>
@@ -30183,7 +30433,7 @@
       <c r="P648" s="16"/>
       <c r="Q648" s="17"/>
     </row>
-    <row r="649" spans="1:17" ht="45.95" customHeight="1">
+    <row r="649" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="20"/>
       <c r="B649" s="13"/>
       <c r="C649" s="45"/>
@@ -30202,7 +30452,7 @@
       <c r="P649" s="16"/>
       <c r="Q649" s="17"/>
     </row>
-    <row r="650" spans="1:17" ht="45.95" customHeight="1">
+    <row r="650" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="20"/>
       <c r="B650" s="35"/>
       <c r="C650" s="48"/>
@@ -30221,7 +30471,7 @@
       <c r="P650" s="16"/>
       <c r="Q650" s="17"/>
     </row>
-    <row r="651" spans="1:17" ht="45.95" customHeight="1">
+    <row r="651" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="20"/>
       <c r="B651" s="35"/>
       <c r="C651" s="48"/>
@@ -30240,7 +30490,7 @@
       <c r="P651" s="16"/>
       <c r="Q651" s="17"/>
     </row>
-    <row r="652" spans="1:17" ht="45.95" customHeight="1">
+    <row r="652" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="20"/>
       <c r="B652" s="35"/>
       <c r="C652" s="48"/>
@@ -30259,7 +30509,7 @@
       <c r="P652" s="16"/>
       <c r="Q652" s="17"/>
     </row>
-    <row r="653" spans="1:17" ht="45.95" customHeight="1">
+    <row r="653" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="20"/>
       <c r="B653" s="35"/>
       <c r="C653" s="48"/>
@@ -30278,7 +30528,7 @@
       <c r="P653" s="16"/>
       <c r="Q653" s="17"/>
     </row>
-    <row r="654" spans="1:17" ht="45.95" customHeight="1">
+    <row r="654" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="20"/>
       <c r="B654" s="35"/>
       <c r="C654" s="48"/>
@@ -30297,7 +30547,7 @@
       <c r="P654" s="16"/>
       <c r="Q654" s="17"/>
     </row>
-    <row r="655" spans="1:17" ht="45.95" customHeight="1">
+    <row r="655" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="20"/>
       <c r="B655" s="35"/>
       <c r="C655" s="48"/>
@@ -30316,7 +30566,7 @@
       <c r="P655" s="16"/>
       <c r="Q655" s="17"/>
     </row>
-    <row r="656" spans="1:17" ht="45.95" customHeight="1">
+    <row r="656" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="20"/>
       <c r="B656" s="35"/>
       <c r="C656" s="48"/>
@@ -30335,7 +30585,7 @@
       <c r="P656" s="16"/>
       <c r="Q656" s="17"/>
     </row>
-    <row r="657" spans="1:17" ht="45.95" customHeight="1">
+    <row r="657" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="20"/>
       <c r="B657" s="35"/>
       <c r="C657" s="48"/>
@@ -30354,7 +30604,7 @@
       <c r="P657" s="16"/>
       <c r="Q657" s="17"/>
     </row>
-    <row r="658" spans="1:17" ht="45.95" customHeight="1">
+    <row r="658" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="20"/>
       <c r="B658" s="35"/>
       <c r="C658" s="48"/>
@@ -30373,7 +30623,7 @@
       <c r="P658" s="16"/>
       <c r="Q658" s="17"/>
     </row>
-    <row r="659" spans="1:17" ht="45.95" customHeight="1">
+    <row r="659" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="20"/>
       <c r="B659" s="35"/>
       <c r="C659" s="48"/>
@@ -30392,7 +30642,7 @@
       <c r="P659" s="16"/>
       <c r="Q659" s="17"/>
     </row>
-    <row r="660" spans="1:17" ht="45.95" customHeight="1">
+    <row r="660" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="20"/>
       <c r="B660" s="35"/>
       <c r="C660" s="48"/>
@@ -30411,7 +30661,7 @@
       <c r="P660" s="16"/>
       <c r="Q660" s="17"/>
     </row>
-    <row r="661" spans="1:17" ht="45.95" customHeight="1">
+    <row r="661" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="20"/>
       <c r="B661" s="13"/>
       <c r="C661" s="45"/>
@@ -30430,7 +30680,7 @@
       <c r="P661" s="16"/>
       <c r="Q661" s="17"/>
     </row>
-    <row r="662" spans="1:17" ht="45.95" customHeight="1">
+    <row r="662" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="20"/>
       <c r="B662" s="35"/>
       <c r="C662" s="48"/>
@@ -30449,7 +30699,7 @@
       <c r="P662" s="16"/>
       <c r="Q662" s="17"/>
     </row>
-    <row r="663" spans="1:17" ht="45.95" customHeight="1">
+    <row r="663" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="20"/>
       <c r="B663" s="35"/>
       <c r="C663" s="48"/>
@@ -30468,7 +30718,7 @@
       <c r="P663" s="16"/>
       <c r="Q663" s="17"/>
     </row>
-    <row r="664" spans="1:17" ht="45.95" customHeight="1">
+    <row r="664" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="20"/>
       <c r="B664" s="35"/>
       <c r="C664" s="48"/>
@@ -30487,7 +30737,7 @@
       <c r="P664" s="16"/>
       <c r="Q664" s="17"/>
     </row>
-    <row r="665" spans="1:17" ht="45.95" customHeight="1">
+    <row r="665" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="20"/>
       <c r="B665" s="35"/>
       <c r="C665" s="48"/>
@@ -30506,7 +30756,7 @@
       <c r="P665" s="16"/>
       <c r="Q665" s="17"/>
     </row>
-    <row r="666" spans="1:17" ht="45.95" customHeight="1">
+    <row r="666" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="20"/>
       <c r="B666" s="35"/>
       <c r="C666" s="48"/>
@@ -30525,7 +30775,7 @@
       <c r="P666" s="16"/>
       <c r="Q666" s="17"/>
     </row>
-    <row r="667" spans="1:17" ht="45.95" customHeight="1">
+    <row r="667" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="20"/>
       <c r="B667" s="35"/>
       <c r="C667" s="48"/>
@@ -30544,7 +30794,7 @@
       <c r="P667" s="16"/>
       <c r="Q667" s="17"/>
     </row>
-    <row r="668" spans="1:17" ht="45.95" customHeight="1">
+    <row r="668" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="20"/>
       <c r="B668" s="35"/>
       <c r="C668" s="48"/>
@@ -30563,7 +30813,7 @@
       <c r="P668" s="16"/>
       <c r="Q668" s="17"/>
     </row>
-    <row r="669" spans="1:17" ht="45.95" customHeight="1">
+    <row r="669" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="20"/>
       <c r="B669" s="35"/>
       <c r="C669" s="48"/>
@@ -30582,7 +30832,7 @@
       <c r="P669" s="16"/>
       <c r="Q669" s="17"/>
     </row>
-    <row r="670" spans="1:17" ht="45.95" customHeight="1">
+    <row r="670" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="20"/>
       <c r="B670" s="35"/>
       <c r="C670" s="48"/>
@@ -30601,7 +30851,7 @@
       <c r="P670" s="16"/>
       <c r="Q670" s="17"/>
     </row>
-    <row r="671" spans="1:17" ht="45.95" customHeight="1">
+    <row r="671" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="20"/>
       <c r="B671" s="35"/>
       <c r="C671" s="48"/>
@@ -30620,7 +30870,7 @@
       <c r="P671" s="16"/>
       <c r="Q671" s="17"/>
     </row>
-    <row r="672" spans="1:17" ht="45.95" customHeight="1">
+    <row r="672" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="20"/>
       <c r="B672" s="35"/>
       <c r="C672" s="48"/>
@@ -30639,7 +30889,7 @@
       <c r="P672" s="16"/>
       <c r="Q672" s="17"/>
     </row>
-    <row r="673" spans="1:17" ht="45.95" customHeight="1">
+    <row r="673" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="20"/>
       <c r="B673" s="13"/>
       <c r="C673" s="45"/>
@@ -30666,20 +30916,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -30687,7 +30937,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -30695,7 +30945,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>597</v>
       </c>
@@ -30703,7 +30953,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>598</v>
       </c>
@@ -30711,7 +30961,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>678</v>
       </c>
@@ -30719,7 +30969,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>1183</v>
       </c>
@@ -30727,7 +30977,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>1131</v>
       </c>
@@ -30735,7 +30985,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>1148</v>
       </c>
@@ -30743,12 +30993,12 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>1164</v>
       </c>
@@ -30756,7 +31006,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>1452</v>
       </c>
@@ -30767,13 +31017,13 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="33" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>2026</v>
       </c>
@@ -30781,7 +31031,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="60" t="s">
         <v>2240</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="2438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="2462">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10546,6 +10546,102 @@
   </si>
   <si>
     <t>Weekend Repoter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Politics: politics@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pamela Engel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pengel@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtani@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxwell Tani</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allan Smith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asmith@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>erelman@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliza Relman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Military &amp; Defense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris Woody</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cwoody@businessinsider.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports: sportspage@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cgaines@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cork Gaines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scott Davis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdavis@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlauletta@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyler Lauletta</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10813,7 +10909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10991,6 +11087,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11274,8 +11376,8 @@
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H611" sqref="H611:H614"/>
+      <pane ySplit="1" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H630" sqref="H630:H631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28956,7 +29058,7 @@
       <c r="G588" s="34" t="s">
         <v>2332</v>
       </c>
-      <c r="H588" s="41" t="s">
+      <c r="H588" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I588" s="14"/>
@@ -28985,7 +29087,7 @@
       <c r="G589" s="34" t="s">
         <v>2337</v>
       </c>
-      <c r="H589" s="41" t="s">
+      <c r="H589" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I589" s="14"/>
@@ -29014,7 +29116,7 @@
       <c r="G590" s="34" t="s">
         <v>2338</v>
       </c>
-      <c r="H590" s="41" t="s">
+      <c r="H590" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I590" s="14"/>
@@ -29043,7 +29145,7 @@
       <c r="G591" s="34" t="s">
         <v>2343</v>
       </c>
-      <c r="H591" s="41" t="s">
+      <c r="H591" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I591" s="14"/>
@@ -29072,7 +29174,7 @@
       <c r="G592" s="34" t="s">
         <v>2344</v>
       </c>
-      <c r="H592" s="41" t="s">
+      <c r="H592" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I592" s="14"/>
@@ -29101,7 +29203,7 @@
       <c r="G593" s="34" t="s">
         <v>2349</v>
       </c>
-      <c r="H593" s="41" t="s">
+      <c r="H593" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I593" s="14"/>
@@ -29130,7 +29232,7 @@
       <c r="G594" s="34" t="s">
         <v>2350</v>
       </c>
-      <c r="H594" s="41" t="s">
+      <c r="H594" s="62" t="s">
         <v>2414</v>
       </c>
       <c r="I594" s="14"/>
@@ -29159,7 +29261,7 @@
       <c r="G595" s="40" t="s">
         <v>2353</v>
       </c>
-      <c r="H595" s="41" t="s">
+      <c r="H595" s="62" t="s">
         <v>2413</v>
       </c>
       <c r="I595" s="14"/>
@@ -29188,7 +29290,7 @@
       <c r="G596" s="40" t="s">
         <v>2357</v>
       </c>
-      <c r="H596" s="41" t="s">
+      <c r="H596" s="62" t="s">
         <v>2413</v>
       </c>
       <c r="I596" s="14"/>
@@ -29217,7 +29319,7 @@
       <c r="G597" s="40" t="s">
         <v>2361</v>
       </c>
-      <c r="H597" s="41" t="s">
+      <c r="H597" s="62" t="s">
         <v>2413</v>
       </c>
       <c r="I597" s="14"/>
@@ -29246,7 +29348,7 @@
       <c r="G598" s="40" t="s">
         <v>2361</v>
       </c>
-      <c r="H598" s="41" t="s">
+      <c r="H598" s="62" t="s">
         <v>2413</v>
       </c>
       <c r="I598" s="14"/>
@@ -29275,7 +29377,7 @@
       <c r="G599" s="40" t="s">
         <v>2353</v>
       </c>
-      <c r="H599" s="41" t="s">
+      <c r="H599" s="62" t="s">
         <v>2412</v>
       </c>
       <c r="I599" s="14"/>
@@ -29304,7 +29406,7 @@
       <c r="G600" s="40" t="s">
         <v>2368</v>
       </c>
-      <c r="H600" s="41" t="s">
+      <c r="H600" s="62" t="s">
         <v>2412</v>
       </c>
       <c r="I600" s="14"/>
@@ -29333,7 +29435,7 @@
       <c r="G601" s="40" t="s">
         <v>2368</v>
       </c>
-      <c r="H601" s="41" t="s">
+      <c r="H601" s="62" t="s">
         <v>2412</v>
       </c>
       <c r="I601" s="14"/>
@@ -29362,7 +29464,7 @@
       <c r="G602" s="40" t="s">
         <v>2357</v>
       </c>
-      <c r="H602" s="41" t="s">
+      <c r="H602" s="62" t="s">
         <v>2412</v>
       </c>
       <c r="I602" s="14"/>
@@ -29391,7 +29493,7 @@
       <c r="G603" s="40" t="s">
         <v>2361</v>
       </c>
-      <c r="H603" s="41" t="s">
+      <c r="H603" s="62" t="s">
         <v>2412</v>
       </c>
       <c r="I603" s="14"/>
@@ -29420,7 +29522,7 @@
       <c r="G604" s="40" t="s">
         <v>2361</v>
       </c>
-      <c r="H604" s="41" t="s">
+      <c r="H604" s="62" t="s">
         <v>2412</v>
       </c>
       <c r="I604" s="14"/>
@@ -29756,7 +29858,7 @@
       <c r="G616" s="34" t="s">
         <v>2417</v>
       </c>
-      <c r="H616" s="37" t="s">
+      <c r="H616" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I616" s="14"/>
@@ -29783,7 +29885,7 @@
       <c r="G617" s="34" t="s">
         <v>2422</v>
       </c>
-      <c r="H617" s="37" t="s">
+      <c r="H617" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I617" s="14"/>
@@ -29810,7 +29912,7 @@
       <c r="G618" s="34" t="s">
         <v>2425</v>
       </c>
-      <c r="H618" s="37" t="s">
+      <c r="H618" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I618" s="14"/>
@@ -29837,7 +29939,7 @@
       <c r="G619" s="34" t="s">
         <v>2399</v>
       </c>
-      <c r="H619" s="37" t="s">
+      <c r="H619" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I619" s="14"/>
@@ -29864,7 +29966,7 @@
       <c r="G620" s="34" t="s">
         <v>2428</v>
       </c>
-      <c r="H620" s="37" t="s">
+      <c r="H620" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I620" s="14"/>
@@ -29891,7 +29993,7 @@
       <c r="G621" s="34" t="s">
         <v>2399</v>
       </c>
-      <c r="H621" s="37" t="s">
+      <c r="H621" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I621" s="14"/>
@@ -29918,7 +30020,7 @@
       <c r="G622" s="34" t="s">
         <v>2407</v>
       </c>
-      <c r="H622" s="37" t="s">
+      <c r="H622" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I622" s="14"/>
@@ -29945,7 +30047,7 @@
       <c r="G623" s="34" t="s">
         <v>2437</v>
       </c>
-      <c r="H623" s="37" t="s">
+      <c r="H623" s="61" t="s">
         <v>2416</v>
       </c>
       <c r="I623" s="14"/>
@@ -29960,13 +30062,21 @@
     </row>
     <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="20"/>
-      <c r="B624" s="35"/>
-      <c r="C624" s="48"/>
+      <c r="B624" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C624" s="48" t="s">
+        <v>2441</v>
+      </c>
       <c r="D624" s="14"/>
       <c r="E624" s="14"/>
       <c r="F624" s="14"/>
-      <c r="G624" s="34"/>
-      <c r="H624" s="15"/>
+      <c r="G624" s="34" t="s">
+        <v>2439</v>
+      </c>
+      <c r="H624" s="37" t="s">
+        <v>2438</v>
+      </c>
       <c r="I624" s="14"/>
       <c r="J624" s="14"/>
       <c r="K624" s="14"/>
@@ -29979,13 +30089,21 @@
     </row>
     <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="20"/>
-      <c r="B625" s="35"/>
-      <c r="C625" s="48"/>
+      <c r="B625" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C625" s="48" t="s">
+        <v>2442</v>
+      </c>
       <c r="D625" s="14"/>
       <c r="E625" s="14"/>
       <c r="F625" s="14"/>
-      <c r="G625" s="34"/>
-      <c r="H625" s="15"/>
+      <c r="G625" s="34" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H625" s="37" t="s">
+        <v>2438</v>
+      </c>
       <c r="I625" s="14"/>
       <c r="J625" s="14"/>
       <c r="K625" s="14"/>
@@ -29998,13 +30116,21 @@
     </row>
     <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="20"/>
-      <c r="B626" s="35"/>
-      <c r="C626" s="48"/>
+      <c r="B626" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C626" s="48" t="s">
+        <v>2447</v>
+      </c>
       <c r="D626" s="14"/>
       <c r="E626" s="14"/>
       <c r="F626" s="14"/>
-      <c r="G626" s="34"/>
-      <c r="H626" s="15"/>
+      <c r="G626" s="34" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H626" s="37" t="s">
+        <v>2438</v>
+      </c>
       <c r="I626" s="14"/>
       <c r="J626" s="14"/>
       <c r="K626" s="14"/>
@@ -30017,13 +30143,21 @@
     </row>
     <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="20"/>
-      <c r="B627" s="35"/>
-      <c r="C627" s="48"/>
+      <c r="B627" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C627" s="48" t="s">
+        <v>2448</v>
+      </c>
       <c r="D627" s="14"/>
       <c r="E627" s="14"/>
       <c r="F627" s="14"/>
-      <c r="G627" s="34"/>
-      <c r="H627" s="15"/>
+      <c r="G627" s="34" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H627" s="37" t="s">
+        <v>2438</v>
+      </c>
       <c r="I627" s="14"/>
       <c r="J627" s="14"/>
       <c r="K627" s="14"/>
@@ -30036,13 +30170,21 @@
     </row>
     <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="20"/>
-      <c r="B628" s="35"/>
-      <c r="C628" s="48"/>
+      <c r="B628" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C628" s="48" t="s">
+        <v>2452</v>
+      </c>
       <c r="D628" s="14"/>
       <c r="E628" s="14"/>
       <c r="F628" s="14"/>
-      <c r="G628" s="34"/>
-      <c r="H628" s="15"/>
+      <c r="G628" s="34" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H628" s="37" t="s">
+        <v>2450</v>
+      </c>
       <c r="I628" s="14"/>
       <c r="J628" s="14"/>
       <c r="K628" s="14"/>
@@ -30055,13 +30197,21 @@
     </row>
     <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="20"/>
-      <c r="B629" s="35"/>
-      <c r="C629" s="48"/>
+      <c r="B629" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C629" s="48" t="s">
+        <v>2454</v>
+      </c>
       <c r="D629" s="14"/>
       <c r="E629" s="14"/>
       <c r="F629" s="14"/>
-      <c r="G629" s="34"/>
-      <c r="H629" s="15"/>
+      <c r="G629" s="34" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H629" s="61" t="s">
+        <v>2453</v>
+      </c>
       <c r="I629" s="14"/>
       <c r="J629" s="14"/>
       <c r="K629" s="14"/>
@@ -30074,13 +30224,21 @@
     </row>
     <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="20"/>
-      <c r="B630" s="35"/>
-      <c r="C630" s="48"/>
+      <c r="B630" s="35" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C630" s="48" t="s">
+        <v>2459</v>
+      </c>
       <c r="D630" s="14"/>
       <c r="E630" s="14"/>
       <c r="F630" s="14"/>
-      <c r="G630" s="34"/>
-      <c r="H630" s="15"/>
+      <c r="G630" s="34" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H630" s="61" t="s">
+        <v>2453</v>
+      </c>
       <c r="I630" s="14"/>
       <c r="J630" s="14"/>
       <c r="K630" s="14"/>
@@ -30093,13 +30251,21 @@
     </row>
     <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="20"/>
-      <c r="B631" s="35"/>
-      <c r="C631" s="48"/>
+      <c r="B631" s="35" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C631" s="48" t="s">
+        <v>2460</v>
+      </c>
       <c r="D631" s="14"/>
       <c r="E631" s="14"/>
       <c r="F631" s="14"/>
-      <c r="G631" s="34"/>
-      <c r="H631" s="15"/>
+      <c r="G631" s="34" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H631" s="61" t="s">
+        <v>2453</v>
+      </c>
       <c r="I631" s="14"/>
       <c r="J631" s="14"/>
       <c r="K631" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="2462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="2545">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10642,6 +10642,339 @@
   </si>
   <si>
     <t>Tyler Lauletta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>llyonscole@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lauren Lyons Cole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Money
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanza Loudenback </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tloudenback@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Careers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgillett@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel Gillett</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acain@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aine Cain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Careers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editorial Partnerships: syndication@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hschaffer@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hannah Schaffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video: video@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>djoseph@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devan Joseph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervising Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gflanagan@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graham Flanagan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csnyder@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris Snyder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alana Kakoyiannis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>akakoyiannis@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jorwig@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jessica Orwig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matthew Stuart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mstuart@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsalter@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamar Salter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jgmoser@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Justin Gmoser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin Reilly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kreilly@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rludacer@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rob Ludacer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jfrank@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jacqui Frank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emma Fierberg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efierberg@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eocbazghi@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emmanuel Ocbazghi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noah Friedman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfriedman@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cprotin@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corey Protin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>danderson@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Anderson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aappolonia@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex Appolonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate Producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kchin@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kara Chin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlee@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nathaniel Lee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lshamo@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lauren Shamo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apagano@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alyssa Pagano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meryl Gottlieb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgottlieb@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social Media Editor for Video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnudelman@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Nudelman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Graphics Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgould@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skye Gould</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Graphic Designer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slee@businessinsider.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samantha Lee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11376,8 +11709,8 @@
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A627" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H630" sqref="H630:H631"/>
+      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D661" sqref="D661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29710,7 +30043,9 @@
       <c r="Q610" s="17"/>
     </row>
     <row r="611" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="20"/>
+      <c r="A611" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B611" s="35" t="s">
         <v>2395</v>
       </c>
@@ -29737,7 +30072,9 @@
       <c r="Q611" s="17"/>
     </row>
     <row r="612" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="20"/>
+      <c r="A612" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B612" s="35" t="s">
         <v>2398</v>
       </c>
@@ -29764,7 +30101,9 @@
       <c r="Q612" s="17"/>
     </row>
     <row r="613" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="20"/>
+      <c r="A613" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B613" s="35" t="s">
         <v>2401</v>
       </c>
@@ -29791,7 +30130,9 @@
       <c r="Q613" s="17"/>
     </row>
     <row r="614" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="20"/>
+      <c r="A614" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B614" s="35" t="s">
         <v>2404</v>
       </c>
@@ -29818,7 +30159,9 @@
       <c r="Q614" s="17"/>
     </row>
     <row r="615" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="20"/>
+      <c r="A615" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B615" s="35" t="s">
         <v>2408</v>
       </c>
@@ -29845,7 +30188,9 @@
       <c r="Q615" s="17"/>
     </row>
     <row r="616" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="20"/>
+      <c r="A616" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B616" s="35" t="s">
         <v>2418</v>
       </c>
@@ -29872,7 +30217,9 @@
       <c r="Q616" s="17"/>
     </row>
     <row r="617" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="20"/>
+      <c r="A617" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B617" s="35" t="s">
         <v>2421</v>
       </c>
@@ -29899,7 +30246,9 @@
       <c r="Q617" s="17"/>
     </row>
     <row r="618" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="20"/>
+      <c r="A618" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B618" s="35" t="s">
         <v>2424</v>
       </c>
@@ -29926,7 +30275,9 @@
       <c r="Q618" s="17"/>
     </row>
     <row r="619" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="20"/>
+      <c r="A619" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B619" s="35" t="s">
         <v>2426</v>
       </c>
@@ -29953,7 +30304,9 @@
       <c r="Q619" s="17"/>
     </row>
     <row r="620" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="20"/>
+      <c r="A620" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B620" s="35" t="s">
         <v>2429</v>
       </c>
@@ -29980,7 +30333,9 @@
       <c r="Q620" s="17"/>
     </row>
     <row r="621" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="20"/>
+      <c r="A621" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B621" s="35" t="s">
         <v>2432</v>
       </c>
@@ -30007,7 +30362,9 @@
       <c r="Q621" s="17"/>
     </row>
     <row r="622" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="20"/>
+      <c r="A622" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B622" s="35" t="s">
         <v>2433</v>
       </c>
@@ -30034,7 +30391,9 @@
       <c r="Q622" s="17"/>
     </row>
     <row r="623" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="20"/>
+      <c r="A623" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B623" s="35" t="s">
         <v>2436</v>
       </c>
@@ -30061,7 +30420,9 @@
       <c r="Q623" s="17"/>
     </row>
     <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="20"/>
+      <c r="A624" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B624" s="35" t="s">
         <v>2440</v>
       </c>
@@ -30088,7 +30449,9 @@
       <c r="Q624" s="17"/>
     </row>
     <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="20"/>
+      <c r="A625" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B625" s="35" t="s">
         <v>2443</v>
       </c>
@@ -30115,7 +30478,9 @@
       <c r="Q625" s="17"/>
     </row>
     <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="20"/>
+      <c r="A626" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B626" s="35" t="s">
         <v>2446</v>
       </c>
@@ -30142,7 +30507,9 @@
       <c r="Q626" s="17"/>
     </row>
     <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="20"/>
+      <c r="A627" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B627" s="35" t="s">
         <v>2449</v>
       </c>
@@ -30169,7 +30536,9 @@
       <c r="Q627" s="17"/>
     </row>
     <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="20"/>
+      <c r="A628" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B628" s="35" t="s">
         <v>2451</v>
       </c>
@@ -30196,7 +30565,9 @@
       <c r="Q628" s="17"/>
     </row>
     <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="20"/>
+      <c r="A629" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B629" s="35" t="s">
         <v>2455</v>
       </c>
@@ -30223,7 +30594,9 @@
       <c r="Q629" s="17"/>
     </row>
     <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="20"/>
+      <c r="A630" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B630" s="35" t="s">
         <v>2458</v>
       </c>
@@ -30250,7 +30623,9 @@
       <c r="Q630" s="17"/>
     </row>
     <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="20"/>
+      <c r="A631" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="B631" s="35" t="s">
         <v>2461</v>
       </c>
@@ -30277,14 +30652,24 @@
       <c r="Q631" s="17"/>
     </row>
     <row r="632" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="20"/>
-      <c r="B632" s="35"/>
-      <c r="C632" s="48"/>
+      <c r="A632" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B632" s="35" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C632" s="48" t="s">
+        <v>2462</v>
+      </c>
       <c r="D632" s="14"/>
       <c r="E632" s="14"/>
       <c r="F632" s="14"/>
-      <c r="G632" s="34"/>
-      <c r="H632" s="15"/>
+      <c r="G632" s="34" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H632" s="37" t="s">
+        <v>2464</v>
+      </c>
       <c r="I632" s="14"/>
       <c r="J632" s="14"/>
       <c r="K632" s="14"/>
@@ -30296,14 +30681,24 @@
       <c r="Q632" s="17"/>
     </row>
     <row r="633" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="20"/>
-      <c r="B633" s="35"/>
-      <c r="C633" s="48"/>
+      <c r="A633" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B633" s="35" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C633" s="48" t="s">
+        <v>2468</v>
+      </c>
       <c r="D633" s="14"/>
       <c r="E633" s="14"/>
       <c r="F633" s="14"/>
-      <c r="G633" s="34"/>
-      <c r="H633" s="15"/>
+      <c r="G633" s="34" t="s">
+        <v>2466</v>
+      </c>
+      <c r="H633" s="37" t="s">
+        <v>2464</v>
+      </c>
       <c r="I633" s="14"/>
       <c r="J633" s="14"/>
       <c r="K633" s="14"/>
@@ -30315,14 +30710,24 @@
       <c r="Q633" s="17"/>
     </row>
     <row r="634" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="20"/>
-      <c r="B634" s="35"/>
-      <c r="C634" s="48"/>
+      <c r="A634" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B634" s="35" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C634" s="48" t="s">
+        <v>2470</v>
+      </c>
       <c r="D634" s="14"/>
       <c r="E634" s="14"/>
       <c r="F634" s="14"/>
-      <c r="G634" s="34"/>
-      <c r="H634" s="15"/>
+      <c r="G634" s="34" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H634" s="37" t="s">
+        <v>2469</v>
+      </c>
       <c r="I634" s="14"/>
       <c r="J634" s="14"/>
       <c r="K634" s="14"/>
@@ -30334,14 +30739,24 @@
       <c r="Q634" s="17"/>
     </row>
     <row r="635" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="20"/>
-      <c r="B635" s="35"/>
-      <c r="C635" s="48"/>
+      <c r="A635" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B635" s="35" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C635" s="48" t="s">
+        <v>2473</v>
+      </c>
       <c r="D635" s="14"/>
       <c r="E635" s="14"/>
       <c r="F635" s="14"/>
-      <c r="G635" s="34"/>
-      <c r="H635" s="15"/>
+      <c r="G635" s="34" t="s">
+        <v>2475</v>
+      </c>
+      <c r="H635" s="37" t="s">
+        <v>2476</v>
+      </c>
       <c r="I635" s="14"/>
       <c r="J635" s="14"/>
       <c r="K635" s="14"/>
@@ -30353,14 +30768,24 @@
       <c r="Q635" s="17"/>
     </row>
     <row r="636" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="20"/>
-      <c r="B636" s="35"/>
-      <c r="C636" s="48"/>
+      <c r="A636" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B636" s="35" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C636" s="48" t="s">
+        <v>2478</v>
+      </c>
       <c r="D636" s="14"/>
       <c r="E636" s="14"/>
       <c r="F636" s="14"/>
-      <c r="G636" s="34"/>
-      <c r="H636" s="15"/>
+      <c r="G636" s="34" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H636" s="37" t="s">
+        <v>2477</v>
+      </c>
       <c r="I636" s="14"/>
       <c r="J636" s="14"/>
       <c r="K636" s="14"/>
@@ -30372,14 +30797,24 @@
       <c r="Q636" s="17"/>
     </row>
     <row r="637" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A637" s="20"/>
-      <c r="B637" s="13"/>
-      <c r="C637" s="45"/>
+      <c r="A637" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B637" s="35" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C637" s="48" t="s">
+        <v>2481</v>
+      </c>
       <c r="D637" s="14"/>
       <c r="E637" s="14"/>
       <c r="F637" s="14"/>
-      <c r="G637" s="14"/>
-      <c r="H637" s="15"/>
+      <c r="G637" s="34" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H637" s="37" t="s">
+        <v>2480</v>
+      </c>
       <c r="I637" s="14"/>
       <c r="J637" s="14"/>
       <c r="K637" s="14"/>
@@ -30391,14 +30826,24 @@
       <c r="Q637" s="17"/>
     </row>
     <row r="638" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="20"/>
-      <c r="B638" s="35"/>
-      <c r="C638" s="48"/>
+      <c r="A638" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B638" s="35" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C638" s="48" t="s">
+        <v>2484</v>
+      </c>
       <c r="D638" s="14"/>
       <c r="E638" s="14"/>
       <c r="F638" s="14"/>
-      <c r="G638" s="34"/>
-      <c r="H638" s="15"/>
+      <c r="G638" s="34" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H638" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I638" s="14"/>
       <c r="J638" s="14"/>
       <c r="K638" s="14"/>
@@ -30410,14 +30855,24 @@
       <c r="Q638" s="17"/>
     </row>
     <row r="639" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="20"/>
-      <c r="B639" s="35"/>
-      <c r="C639" s="48"/>
+      <c r="A639" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B639" s="35" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C639" s="48" t="s">
+        <v>2487</v>
+      </c>
       <c r="D639" s="14"/>
       <c r="E639" s="14"/>
       <c r="F639" s="14"/>
-      <c r="G639" s="34"/>
-      <c r="H639" s="15"/>
+      <c r="G639" s="34" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H639" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I639" s="14"/>
       <c r="J639" s="14"/>
       <c r="K639" s="14"/>
@@ -30429,14 +30884,24 @@
       <c r="Q639" s="17"/>
     </row>
     <row r="640" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="20"/>
-      <c r="B640" s="35"/>
-      <c r="C640" s="48"/>
+      <c r="A640" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B640" s="35" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C640" s="48" t="s">
+        <v>2491</v>
+      </c>
       <c r="D640" s="14"/>
       <c r="E640" s="14"/>
       <c r="F640" s="14"/>
-      <c r="G640" s="34"/>
-      <c r="H640" s="15"/>
+      <c r="G640" s="34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H640" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I640" s="14"/>
       <c r="J640" s="14"/>
       <c r="K640" s="14"/>
@@ -30448,14 +30913,24 @@
       <c r="Q640" s="17"/>
     </row>
     <row r="641" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="20"/>
-      <c r="B641" s="35"/>
-      <c r="C641" s="48"/>
+      <c r="A641" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B641" s="35" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C641" s="48" t="s">
+        <v>2492</v>
+      </c>
       <c r="D641" s="14"/>
       <c r="E641" s="14"/>
       <c r="F641" s="14"/>
-      <c r="G641" s="34"/>
-      <c r="H641" s="15"/>
+      <c r="G641" s="34" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H641" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I641" s="14"/>
       <c r="J641" s="14"/>
       <c r="K641" s="14"/>
@@ -30467,14 +30942,24 @@
       <c r="Q641" s="17"/>
     </row>
     <row r="642" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A642" s="20"/>
-      <c r="B642" s="35"/>
-      <c r="C642" s="48"/>
+      <c r="A642" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B642" s="35" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C642" s="48" t="s">
+        <v>2496</v>
+      </c>
       <c r="D642" s="14"/>
       <c r="E642" s="14"/>
       <c r="F642" s="14"/>
-      <c r="G642" s="34"/>
-      <c r="H642" s="15"/>
+      <c r="G642" s="34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H642" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I642" s="14"/>
       <c r="J642" s="14"/>
       <c r="K642" s="14"/>
@@ -30486,14 +30971,24 @@
       <c r="Q642" s="17"/>
     </row>
     <row r="643" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="20"/>
-      <c r="B643" s="35"/>
-      <c r="C643" s="48"/>
+      <c r="A643" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B643" s="35" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C643" s="48" t="s">
+        <v>2497</v>
+      </c>
       <c r="D643" s="14"/>
       <c r="E643" s="14"/>
       <c r="F643" s="14"/>
-      <c r="G643" s="34"/>
-      <c r="H643" s="15"/>
+      <c r="G643" s="34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H643" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I643" s="14"/>
       <c r="J643" s="14"/>
       <c r="K643" s="14"/>
@@ -30505,14 +31000,24 @@
       <c r="Q643" s="17"/>
     </row>
     <row r="644" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="20"/>
-      <c r="B644" s="35"/>
-      <c r="C644" s="48"/>
+      <c r="A644" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B644" s="35" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C644" s="48" t="s">
+        <v>2499</v>
+      </c>
       <c r="D644" s="14"/>
       <c r="E644" s="14"/>
       <c r="F644" s="14"/>
-      <c r="G644" s="34"/>
-      <c r="H644" s="15"/>
+      <c r="G644" s="34" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H644" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I644" s="14"/>
       <c r="J644" s="14"/>
       <c r="K644" s="14"/>
@@ -30524,14 +31029,24 @@
       <c r="Q644" s="17"/>
     </row>
     <row r="645" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A645" s="20"/>
-      <c r="B645" s="35"/>
-      <c r="C645" s="48"/>
+      <c r="A645" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B645" s="35" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C645" s="48" t="s">
+        <v>2503</v>
+      </c>
       <c r="D645" s="14"/>
       <c r="E645" s="14"/>
       <c r="F645" s="14"/>
-      <c r="G645" s="34"/>
-      <c r="H645" s="15"/>
+      <c r="G645" s="34" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H645" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I645" s="14"/>
       <c r="J645" s="14"/>
       <c r="K645" s="14"/>
@@ -30543,14 +31058,24 @@
       <c r="Q645" s="17"/>
     </row>
     <row r="646" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="20"/>
-      <c r="B646" s="35"/>
-      <c r="C646" s="48"/>
+      <c r="A646" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B646" s="35" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C646" s="48" t="s">
+        <v>2504</v>
+      </c>
       <c r="D646" s="14"/>
       <c r="E646" s="14"/>
       <c r="F646" s="14"/>
-      <c r="G646" s="34"/>
-      <c r="H646" s="15"/>
+      <c r="G646" s="34" t="s">
+        <v>2506</v>
+      </c>
+      <c r="H646" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I646" s="14"/>
       <c r="J646" s="14"/>
       <c r="K646" s="14"/>
@@ -30562,14 +31087,24 @@
       <c r="Q646" s="17"/>
     </row>
     <row r="647" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="20"/>
-      <c r="B647" s="35"/>
-      <c r="C647" s="48"/>
+      <c r="A647" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B647" s="35" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C647" s="48" t="s">
+        <v>2507</v>
+      </c>
       <c r="D647" s="14"/>
       <c r="E647" s="14"/>
       <c r="F647" s="14"/>
-      <c r="G647" s="34"/>
-      <c r="H647" s="15"/>
+      <c r="G647" s="34" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H647" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I647" s="14"/>
       <c r="J647" s="14"/>
       <c r="K647" s="14"/>
@@ -30581,14 +31116,24 @@
       <c r="Q647" s="17"/>
     </row>
     <row r="648" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="20"/>
-      <c r="B648" s="35"/>
-      <c r="C648" s="48"/>
+      <c r="A648" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B648" s="35" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C648" s="48" t="s">
+        <v>2510</v>
+      </c>
       <c r="D648" s="14"/>
       <c r="E648" s="14"/>
       <c r="F648" s="14"/>
-      <c r="G648" s="34"/>
-      <c r="H648" s="15"/>
+      <c r="G648" s="34" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H648" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I648" s="14"/>
       <c r="J648" s="14"/>
       <c r="K648" s="14"/>
@@ -30600,14 +31145,24 @@
       <c r="Q648" s="17"/>
     </row>
     <row r="649" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A649" s="20"/>
-      <c r="B649" s="13"/>
-      <c r="C649" s="45"/>
+      <c r="A649" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B649" s="35" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C649" s="48" t="s">
+        <v>2511</v>
+      </c>
       <c r="D649" s="14"/>
       <c r="E649" s="14"/>
       <c r="F649" s="14"/>
-      <c r="G649" s="14"/>
-      <c r="H649" s="15"/>
+      <c r="G649" s="34" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H649" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I649" s="14"/>
       <c r="J649" s="14"/>
       <c r="K649" s="14"/>
@@ -30619,14 +31174,24 @@
       <c r="Q649" s="17"/>
     </row>
     <row r="650" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="20"/>
-      <c r="B650" s="35"/>
-      <c r="C650" s="48"/>
+      <c r="A650" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B650" s="35" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C650" s="48" t="s">
+        <v>2514</v>
+      </c>
       <c r="D650" s="14"/>
       <c r="E650" s="14"/>
       <c r="F650" s="14"/>
-      <c r="G650" s="34"/>
-      <c r="H650" s="15"/>
+      <c r="G650" s="34" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H650" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I650" s="14"/>
       <c r="J650" s="14"/>
       <c r="K650" s="14"/>
@@ -30638,14 +31203,24 @@
       <c r="Q650" s="17"/>
     </row>
     <row r="651" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A651" s="20"/>
-      <c r="B651" s="35"/>
-      <c r="C651" s="48"/>
+      <c r="A651" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B651" s="35" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C651" s="48" t="s">
+        <v>2516</v>
+      </c>
       <c r="D651" s="14"/>
       <c r="E651" s="14"/>
       <c r="F651" s="14"/>
-      <c r="G651" s="34"/>
-      <c r="H651" s="15"/>
+      <c r="G651" s="34" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H651" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I651" s="14"/>
       <c r="J651" s="14"/>
       <c r="K651" s="14"/>
@@ -30657,14 +31232,24 @@
       <c r="Q651" s="17"/>
     </row>
     <row r="652" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A652" s="20"/>
-      <c r="B652" s="35"/>
-      <c r="C652" s="48"/>
+      <c r="A652" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B652" s="35" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C652" s="48" t="s">
+        <v>2518</v>
+      </c>
       <c r="D652" s="14"/>
       <c r="E652" s="14"/>
       <c r="F652" s="14"/>
-      <c r="G652" s="34"/>
-      <c r="H652" s="15"/>
+      <c r="G652" s="34" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H652" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I652" s="14"/>
       <c r="J652" s="14"/>
       <c r="K652" s="14"/>
@@ -30676,14 +31261,24 @@
       <c r="Q652" s="17"/>
     </row>
     <row r="653" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A653" s="20"/>
-      <c r="B653" s="35"/>
-      <c r="C653" s="48"/>
+      <c r="A653" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B653" s="35" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C653" s="48" t="s">
+        <v>2521</v>
+      </c>
       <c r="D653" s="14"/>
       <c r="E653" s="14"/>
       <c r="F653" s="14"/>
-      <c r="G653" s="34"/>
-      <c r="H653" s="15"/>
+      <c r="G653" s="34" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H653" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I653" s="14"/>
       <c r="J653" s="14"/>
       <c r="K653" s="14"/>
@@ -30695,14 +31290,24 @@
       <c r="Q653" s="17"/>
     </row>
     <row r="654" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="20"/>
-      <c r="B654" s="35"/>
-      <c r="C654" s="48"/>
+      <c r="A654" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B654" s="35" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C654" s="48" t="s">
+        <v>2524</v>
+      </c>
       <c r="D654" s="14"/>
       <c r="E654" s="14"/>
       <c r="F654" s="14"/>
-      <c r="G654" s="34"/>
-      <c r="H654" s="15"/>
+      <c r="G654" s="34" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H654" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I654" s="14"/>
       <c r="J654" s="14"/>
       <c r="K654" s="14"/>
@@ -30714,14 +31319,24 @@
       <c r="Q654" s="17"/>
     </row>
     <row r="655" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="20"/>
-      <c r="B655" s="35"/>
-      <c r="C655" s="48"/>
+      <c r="A655" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B655" s="35" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C655" s="48" t="s">
+        <v>2526</v>
+      </c>
       <c r="D655" s="14"/>
       <c r="E655" s="14"/>
       <c r="F655" s="14"/>
-      <c r="G655" s="34"/>
-      <c r="H655" s="15"/>
+      <c r="G655" s="34" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H655" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I655" s="14"/>
       <c r="J655" s="14"/>
       <c r="K655" s="14"/>
@@ -30733,14 +31348,24 @@
       <c r="Q655" s="17"/>
     </row>
     <row r="656" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="20"/>
-      <c r="B656" s="35"/>
-      <c r="C656" s="48"/>
+      <c r="A656" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B656" s="35" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C656" s="48" t="s">
+        <v>2528</v>
+      </c>
       <c r="D656" s="14"/>
       <c r="E656" s="14"/>
       <c r="F656" s="14"/>
-      <c r="G656" s="34"/>
-      <c r="H656" s="15"/>
+      <c r="G656" s="34" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H656" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I656" s="14"/>
       <c r="J656" s="14"/>
       <c r="K656" s="14"/>
@@ -30752,14 +31377,24 @@
       <c r="Q656" s="17"/>
     </row>
     <row r="657" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A657" s="20"/>
-      <c r="B657" s="35"/>
-      <c r="C657" s="48"/>
+      <c r="A657" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B657" s="35" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C657" s="48" t="s">
+        <v>2530</v>
+      </c>
       <c r="D657" s="14"/>
       <c r="E657" s="14"/>
       <c r="F657" s="14"/>
-      <c r="G657" s="34"/>
-      <c r="H657" s="15"/>
+      <c r="G657" s="34" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H657" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I657" s="14"/>
       <c r="J657" s="14"/>
       <c r="K657" s="14"/>
@@ -30771,14 +31406,24 @@
       <c r="Q657" s="17"/>
     </row>
     <row r="658" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="20"/>
-      <c r="B658" s="35"/>
-      <c r="C658" s="48"/>
+      <c r="A658" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B658" s="35" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C658" s="48" t="s">
+        <v>2533</v>
+      </c>
       <c r="D658" s="14"/>
       <c r="E658" s="14"/>
       <c r="F658" s="14"/>
-      <c r="G658" s="34"/>
-      <c r="H658" s="15"/>
+      <c r="G658" s="34" t="s">
+        <v>2534</v>
+      </c>
+      <c r="H658" s="61" t="s">
+        <v>2480</v>
+      </c>
       <c r="I658" s="14"/>
       <c r="J658" s="14"/>
       <c r="K658" s="14"/>
@@ -30790,14 +31435,24 @@
       <c r="Q658" s="17"/>
     </row>
     <row r="659" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A659" s="20"/>
-      <c r="B659" s="35"/>
-      <c r="C659" s="48"/>
+      <c r="A659" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B659" s="35" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C659" s="48" t="s">
+        <v>2536</v>
+      </c>
       <c r="D659" s="14"/>
       <c r="E659" s="14"/>
       <c r="F659" s="14"/>
-      <c r="G659" s="34"/>
-      <c r="H659" s="15"/>
+      <c r="G659" s="34" t="s">
+        <v>2538</v>
+      </c>
+      <c r="H659" s="37" t="s">
+        <v>2535</v>
+      </c>
       <c r="I659" s="14"/>
       <c r="J659" s="14"/>
       <c r="K659" s="14"/>
@@ -30809,14 +31464,24 @@
       <c r="Q659" s="17"/>
     </row>
     <row r="660" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A660" s="20"/>
-      <c r="B660" s="35"/>
-      <c r="C660" s="48"/>
+      <c r="A660" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B660" s="35" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C660" s="48" t="s">
+        <v>2539</v>
+      </c>
       <c r="D660" s="14"/>
       <c r="E660" s="14"/>
       <c r="F660" s="14"/>
-      <c r="G660" s="34"/>
-      <c r="H660" s="15"/>
+      <c r="G660" s="34" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H660" s="37" t="s">
+        <v>2535</v>
+      </c>
       <c r="I660" s="14"/>
       <c r="J660" s="14"/>
       <c r="K660" s="14"/>
@@ -30828,14 +31493,24 @@
       <c r="Q660" s="17"/>
     </row>
     <row r="661" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="20"/>
-      <c r="B661" s="13"/>
-      <c r="C661" s="45"/>
+      <c r="A661" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B661" s="35" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C661" s="48" t="s">
+        <v>2542</v>
+      </c>
       <c r="D661" s="14"/>
       <c r="E661" s="14"/>
       <c r="F661" s="14"/>
-      <c r="G661" s="14"/>
-      <c r="H661" s="15"/>
+      <c r="G661" s="34" t="s">
+        <v>2544</v>
+      </c>
+      <c r="H661" s="37" t="s">
+        <v>2535</v>
+      </c>
       <c r="I661" s="14"/>
       <c r="J661" s="14"/>
       <c r="K661" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="2594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="2646">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10987,10 +10987,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>reading glasses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.vanessahua.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -11175,10 +11171,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.google.ro/search?q=reading+glasses&amp;rlz=1C1CHBD_zh-CNJP750JP751&amp;tbm=nws&amp;ei=6G0bWrr2KMv-0gTmi6CoCw&amp;start=140&amp;sa=N&amp;biw=1366&amp;bih=637&amp;dpr=1</t>
-  </si>
-  <si>
     <t>thestar.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision Problems: Eye Implant May Correct Age-Related Presbyopia, Delay The Need For Reading Glasses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.medicaldaily.com/vision-problems-eye-implant-may-correct-age-related-presbyopia-delay-need-412719</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">m.matthews@newsweekgroup.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melissa Matthews</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading glasses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Matthews</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Science writer @Newsweek, focusing on health. //Probably thinking about my next meal. @NYU &amp; @ASU alumna// Tips or pitches: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">writer </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwen Stefani Designed an Eyewear Collection Because of Her Son’s Bad Eyesight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.instyle.com/news/gwen-stefani-lamb-gx-eyewear-fall-collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandi Fowler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicaldaily.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contributing Writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandi’s love for travel, entertainment news, foodie adventures and fashion led her to an exciting career in journalism as a writer, host and producer. After graduating from Duke University, she obtained a master’s degree in broadcast journalism at the University of Southern California and went on to contribute to the likes of Travel Channel, MTV News, E! News, E! Online, Citysearch.com, Us Weekly, Current TV and more. Since working for Cambio, Brandi has developed a healthy obsession with Shia LaBeouf’s paper bag and the occasional sightings of faux bears, devil babies and zombies that roam the streets of New York City.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/brandilarenfowler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandilaren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.google.com/112018956306413136262</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>destinationfab.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jennifer Jolly,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/story/tech/columnist/2017/02/15/high-tech-glasses-helping-blind-people-see/97960470/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-tech glasses are helping blind people see</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA Today</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usatoday.com/reporters/</t>
+  </si>
+  <si>
+    <t>USA Today</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.ro/search?q=reading+glasses&amp;rlz=1C1CHBD_zh-CNJP750JP751&amp;tbm=nws&amp;ei=6LgcWtHKLoHa8QXd0L2ADw&amp;start=180&amp;sa=N&amp;biw=1366&amp;bih=662&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>Where To Buy Stylish Glasses For Cheap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellen Breslau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.huffingtonpost.com/2015/06/11/stylish-glasses-cheap_n_7555650.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jenniferjolly/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://twitter.com/jenniferjolly?lang=en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Founder of http://Techish.com . Consumer tech journalist at the intersection of high tech and real life. Columnist with @nytimes + @USATODAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.google.com/+JenniferJolly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jenniferjollyblog.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jenniferjollyofficial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Editor-in-Chief and Senior Vice President of Grandparents.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elegant Readers Brings Stylish Specs to Ladue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.laduenews.com/elegant-readers-brings-stylish-specs-to-ladue/article_1d2bba07-92ed-511d-84d8-624995677e79.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brittany Nay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brittanylnay@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a writer of 10 years, is an Indiana native who adores Australia, indie rock music, and reading and writing both fiction and non-fiction.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laduenews.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joanne Lipman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joannelipman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief Content Officer, @Gannett &amp; EIC, @USATODAY and @USATODAY Network. Author, THAT'S WHAT SHE SAID, out Feb 2018: http://bit.ly/2igSNf7 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://joannelipman.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> natalie.duncan@harpercollins.com
+LReiter@wmeentertainment.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Zidich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>President and Publishe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jzidich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patty Michalski</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Executive Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmmichalski</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red wine lover. Cheese enthusiast. Editor at @usatoday. Minnesota 4EVER.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11915,16 +12124,16 @@
   <dimension ref="A1:R864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A679" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A664" sqref="A664:A682"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A689" sqref="A689:A690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="46" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="19" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="19" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="19" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="19" customWidth="1"/>
@@ -31729,13 +31938,13 @@
     </row>
     <row r="662" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="36" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B662" s="35" t="s">
         <v>2545</v>
       </c>
       <c r="C662" s="48" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D662" s="14"/>
       <c r="E662" s="34" t="s">
@@ -31745,12 +31954,12 @@
         <v>2544</v>
       </c>
       <c r="G662" s="34" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="H662" s="15"/>
       <c r="I662" s="14"/>
       <c r="J662" s="34" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="K662" s="14"/>
       <c r="L662" s="14"/>
@@ -31762,17 +31971,17 @@
     </row>
     <row r="663" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B663" s="35"/>
       <c r="C663" s="48" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D663" s="14"/>
       <c r="E663" s="14"/>
       <c r="F663" s="14"/>
       <c r="G663" s="34" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="H663" s="15"/>
       <c r="I663" s="14"/>
@@ -31787,17 +31996,17 @@
     </row>
     <row r="664" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B664" s="35"/>
       <c r="C664" s="48" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D664" s="14"/>
       <c r="E664" s="14"/>
       <c r="F664" s="14"/>
       <c r="G664" s="34" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="H664" s="15"/>
       <c r="I664" s="14"/>
@@ -31812,17 +32021,17 @@
     </row>
     <row r="665" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B665" s="35"/>
       <c r="C665" s="48" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D665" s="14"/>
       <c r="E665" s="14"/>
       <c r="F665" s="14"/>
       <c r="G665" s="34" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="H665" s="15"/>
       <c r="I665" s="14"/>
@@ -31837,17 +32046,17 @@
     </row>
     <row r="666" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B666" s="35"/>
       <c r="C666" s="48" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D666" s="14"/>
       <c r="E666" s="14"/>
       <c r="F666" s="14"/>
       <c r="G666" s="34" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="H666" s="15"/>
       <c r="I666" s="14"/>
@@ -31862,17 +32071,17 @@
     </row>
     <row r="667" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B667" s="35"/>
       <c r="C667" s="48" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D667" s="14"/>
       <c r="E667" s="14"/>
       <c r="F667" s="14"/>
       <c r="G667" s="34" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="H667" s="15"/>
       <c r="I667" s="14"/>
@@ -31887,17 +32096,17 @@
     </row>
     <row r="668" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B668" s="35"/>
       <c r="C668" s="48" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D668" s="14"/>
       <c r="E668" s="14"/>
       <c r="F668" s="14"/>
       <c r="G668" s="34" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="H668" s="15"/>
       <c r="I668" s="14"/>
@@ -31912,17 +32121,17 @@
     </row>
     <row r="669" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B669" s="35"/>
       <c r="C669" s="48" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D669" s="14"/>
       <c r="E669" s="14"/>
       <c r="F669" s="14"/>
       <c r="G669" s="34" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="H669" s="15"/>
       <c r="I669" s="14"/>
@@ -31937,17 +32146,17 @@
     </row>
     <row r="670" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B670" s="35"/>
       <c r="C670" s="48" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D670" s="14"/>
       <c r="E670" s="14"/>
       <c r="F670" s="14"/>
       <c r="G670" s="34" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="H670" s="15"/>
       <c r="I670" s="14"/>
@@ -31962,17 +32171,17 @@
     </row>
     <row r="671" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B671" s="35"/>
       <c r="C671" s="48" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="D671" s="14"/>
       <c r="E671" s="14"/>
       <c r="F671" s="14"/>
       <c r="G671" s="34" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="H671" s="15"/>
       <c r="I671" s="14"/>
@@ -31987,17 +32196,17 @@
     </row>
     <row r="672" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B672" s="35"/>
       <c r="C672" s="48" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D672" s="14"/>
       <c r="E672" s="14"/>
       <c r="F672" s="14"/>
       <c r="G672" s="34" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="H672" s="15"/>
       <c r="I672" s="14"/>
@@ -32012,17 +32221,17 @@
     </row>
     <row r="673" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B673" s="35"/>
       <c r="C673" s="48" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D673" s="14"/>
       <c r="E673" s="14"/>
       <c r="F673" s="14"/>
       <c r="G673" s="34" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="H673" s="15"/>
       <c r="I673" s="14"/>
@@ -32037,17 +32246,17 @@
     </row>
     <row r="674" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B674" s="35"/>
       <c r="C674" s="48" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="D674" s="14"/>
       <c r="E674" s="14"/>
       <c r="F674" s="14"/>
       <c r="G674" s="34" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="H674" s="15"/>
       <c r="I674" s="14"/>
@@ -32062,17 +32271,17 @@
     </row>
     <row r="675" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B675" s="35"/>
       <c r="C675" s="48" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D675" s="14"/>
       <c r="E675" s="14"/>
       <c r="F675" s="14"/>
       <c r="G675" s="34" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="H675" s="15"/>
       <c r="I675" s="14"/>
@@ -32087,17 +32296,17 @@
     </row>
     <row r="676" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B676" s="35"/>
       <c r="C676" s="48" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="D676" s="14"/>
       <c r="E676" s="14"/>
       <c r="F676" s="14"/>
       <c r="G676" s="34" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="H676" s="15"/>
       <c r="I676" s="14"/>
@@ -32112,17 +32321,17 @@
     </row>
     <row r="677" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B677" s="35"/>
       <c r="C677" s="48" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D677" s="14"/>
       <c r="E677" s="14"/>
       <c r="F677" s="14"/>
       <c r="G677" s="34" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="H677" s="15"/>
       <c r="I677" s="14"/>
@@ -32137,17 +32346,17 @@
     </row>
     <row r="678" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B678" s="35"/>
       <c r="C678" s="48" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D678" s="14"/>
       <c r="E678" s="14"/>
       <c r="F678" s="14"/>
       <c r="G678" s="34" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="H678" s="15"/>
       <c r="I678" s="14"/>
@@ -32162,17 +32371,17 @@
     </row>
     <row r="679" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B679" s="35"/>
       <c r="C679" s="48" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D679" s="14"/>
       <c r="E679" s="14"/>
       <c r="F679" s="14"/>
       <c r="G679" s="34" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="H679" s="15"/>
       <c r="I679" s="14"/>
@@ -32187,17 +32396,17 @@
     </row>
     <row r="680" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B680" s="35"/>
       <c r="C680" s="48" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D680" s="14"/>
       <c r="E680" s="14"/>
       <c r="F680" s="14"/>
       <c r="G680" s="34" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="H680" s="15"/>
       <c r="I680" s="14"/>
@@ -32212,17 +32421,17 @@
     </row>
     <row r="681" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B681" s="35"/>
       <c r="C681" s="48" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="D681" s="14"/>
       <c r="E681" s="14"/>
       <c r="F681" s="14"/>
       <c r="G681" s="34" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="H681" s="15"/>
       <c r="I681" s="14"/>
@@ -32237,17 +32446,17 @@
     </row>
     <row r="682" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="36" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="B682" s="35"/>
       <c r="C682" s="48" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D682" s="14"/>
       <c r="E682" s="14"/>
       <c r="F682" s="14"/>
       <c r="G682" s="34" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="H682" s="15"/>
       <c r="I682" s="14"/>
@@ -32261,17 +32470,35 @@
       <c r="Q682" s="17"/>
     </row>
     <row r="683" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="20"/>
-      <c r="B683" s="35"/>
-      <c r="C683" s="48"/>
-      <c r="D683" s="14"/>
-      <c r="E683" s="14"/>
-      <c r="F683" s="14"/>
-      <c r="G683" s="34"/>
-      <c r="H683" s="15"/>
+      <c r="A683" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B683" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C683" s="48" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D683" s="34" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E683" s="34" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F683" s="34" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G683" s="34" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H683" s="37" t="s">
+        <v>2598</v>
+      </c>
       <c r="I683" s="14"/>
       <c r="J683" s="14"/>
-      <c r="K683" s="14"/>
+      <c r="K683" s="34" t="s">
+        <v>2597</v>
+      </c>
       <c r="L683" s="14"/>
       <c r="M683" s="14"/>
       <c r="N683" s="14"/>
@@ -32280,52 +32507,104 @@
       <c r="Q683" s="17"/>
     </row>
     <row r="684" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="20"/>
-      <c r="B684" s="35"/>
+      <c r="A684" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B684" s="35" t="s">
+        <v>2602</v>
+      </c>
       <c r="C684" s="48"/>
       <c r="D684" s="14"/>
-      <c r="E684" s="14"/>
-      <c r="F684" s="14"/>
-      <c r="G684" s="34"/>
-      <c r="H684" s="15"/>
+      <c r="E684" s="34" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F684" s="34" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G684" s="34" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H684" s="37" t="s">
+        <v>2605</v>
+      </c>
       <c r="I684" s="14"/>
-      <c r="J684" s="14"/>
-      <c r="K684" s="14"/>
+      <c r="J684" s="34" t="s">
+        <v>2609</v>
+      </c>
+      <c r="K684" s="34" t="s">
+        <v>2607</v>
+      </c>
       <c r="L684" s="14"/>
-      <c r="M684" s="14"/>
+      <c r="M684" s="34" t="s">
+        <v>2606</v>
+      </c>
       <c r="N684" s="14"/>
-      <c r="O684" s="14"/>
+      <c r="O684" s="34" t="s">
+        <v>2608</v>
+      </c>
       <c r="P684" s="16"/>
       <c r="Q684" s="17"/>
     </row>
     <row r="685" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A685" s="20"/>
-      <c r="B685" s="35"/>
+      <c r="A685" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B685" s="35" t="s">
+        <v>2610</v>
+      </c>
       <c r="C685" s="48"/>
-      <c r="D685" s="14"/>
-      <c r="E685" s="14"/>
-      <c r="F685" s="14"/>
+      <c r="D685" s="34" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E685" s="34" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F685" s="34" t="s">
+        <v>2611</v>
+      </c>
       <c r="G685" s="34"/>
-      <c r="H685" s="15"/>
+      <c r="H685" s="37" t="s">
+        <v>2622</v>
+      </c>
       <c r="I685" s="14"/>
-      <c r="J685" s="14"/>
-      <c r="K685" s="14"/>
-      <c r="L685" s="14"/>
-      <c r="M685" s="14"/>
+      <c r="J685" s="34" t="s">
+        <v>2624</v>
+      </c>
+      <c r="K685" s="34" t="s">
+        <v>2621</v>
+      </c>
+      <c r="L685" s="34" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M685" s="34" t="s">
+        <v>2625</v>
+      </c>
       <c r="N685" s="14"/>
-      <c r="O685" s="14"/>
+      <c r="O685" s="34" t="s">
+        <v>2623</v>
+      </c>
       <c r="P685" s="16"/>
       <c r="Q685" s="17"/>
     </row>
     <row r="686" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A686" s="20"/>
-      <c r="B686" s="35"/>
+      <c r="A686" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B686" s="35" t="s">
+        <v>2618</v>
+      </c>
       <c r="C686" s="48"/>
       <c r="D686" s="14"/>
-      <c r="E686" s="14"/>
-      <c r="F686" s="14"/>
+      <c r="E686" s="34" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F686" s="34" t="s">
+        <v>2619</v>
+      </c>
       <c r="G686" s="34"/>
-      <c r="H686" s="15"/>
+      <c r="H686" s="37" t="s">
+        <v>2626</v>
+      </c>
       <c r="I686" s="14"/>
       <c r="J686" s="14"/>
       <c r="K686" s="14"/>
@@ -32337,14 +32616,28 @@
       <c r="Q686" s="17"/>
     </row>
     <row r="687" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A687" s="20"/>
-      <c r="B687" s="13"/>
-      <c r="C687" s="45"/>
-      <c r="D687" s="14"/>
-      <c r="E687" s="14"/>
-      <c r="F687" s="14"/>
+      <c r="A687" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B687" s="35" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C687" s="48" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D687" s="34" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E687" s="34" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F687" s="34" t="s">
+        <v>2628</v>
+      </c>
       <c r="G687" s="14"/>
-      <c r="H687" s="15"/>
+      <c r="H687" s="37" t="s">
+        <v>2631</v>
+      </c>
       <c r="I687" s="14"/>
       <c r="J687" s="14"/>
       <c r="K687" s="14"/>
@@ -32356,17 +32649,29 @@
       <c r="Q687" s="17"/>
     </row>
     <row r="688" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A688" s="20"/>
-      <c r="B688" s="35"/>
-      <c r="C688" s="48"/>
+      <c r="A688" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B688" s="35" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C688" s="48" t="s">
+        <v>2638</v>
+      </c>
       <c r="D688" s="14"/>
       <c r="E688" s="14"/>
       <c r="F688" s="14"/>
       <c r="G688" s="34"/>
-      <c r="H688" s="15"/>
+      <c r="H688" s="37" t="s">
+        <v>2636</v>
+      </c>
       <c r="I688" s="14"/>
-      <c r="J688" s="14"/>
-      <c r="K688" s="14"/>
+      <c r="J688" s="34" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K688" s="34" t="s">
+        <v>2635</v>
+      </c>
       <c r="L688" s="14"/>
       <c r="M688" s="14"/>
       <c r="N688" s="14"/>
@@ -32375,17 +32680,25 @@
       <c r="Q688" s="17"/>
     </row>
     <row r="689" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="20"/>
-      <c r="B689" s="35"/>
+      <c r="A689" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B689" s="35" t="s">
+        <v>2639</v>
+      </c>
       <c r="C689" s="48"/>
       <c r="D689" s="14"/>
       <c r="E689" s="14"/>
       <c r="F689" s="14"/>
-      <c r="G689" s="34"/>
+      <c r="G689" s="34" t="s">
+        <v>2640</v>
+      </c>
       <c r="H689" s="15"/>
       <c r="I689" s="14"/>
       <c r="J689" s="14"/>
-      <c r="K689" s="14"/>
+      <c r="K689" s="34" t="s">
+        <v>2641</v>
+      </c>
       <c r="L689" s="14"/>
       <c r="M689" s="14"/>
       <c r="N689" s="14"/>
@@ -32394,17 +32707,27 @@
       <c r="Q689" s="17"/>
     </row>
     <row r="690" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="20"/>
-      <c r="B690" s="35"/>
+      <c r="A690" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B690" s="35" t="s">
+        <v>2642</v>
+      </c>
       <c r="C690" s="48"/>
       <c r="D690" s="14"/>
       <c r="E690" s="14"/>
       <c r="F690" s="14"/>
-      <c r="G690" s="34"/>
-      <c r="H690" s="15"/>
+      <c r="G690" s="34" t="s">
+        <v>2643</v>
+      </c>
+      <c r="H690" s="37" t="s">
+        <v>2645</v>
+      </c>
       <c r="I690" s="14"/>
       <c r="J690" s="14"/>
-      <c r="K690" s="14"/>
+      <c r="K690" s="34" t="s">
+        <v>2644</v>
+      </c>
       <c r="L690" s="14"/>
       <c r="M690" s="14"/>
       <c r="N690" s="14"/>
@@ -35727,10 +36050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35765,10 +36088,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
-        <v>2546</v>
+        <v>2233</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>2592</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -35851,10 +36174,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="60" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>2551</v>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>2614</v>
       </c>
     </row>
   </sheetData>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="2646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="2697">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11389,6 +11389,194 @@
   <si>
     <t>Red wine lover. Cheese enthusiast. Editor at @usatoday. Minnesota 4EVER.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/patty-michalski-1a43255/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/patty.michalski</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pmmichalski/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/110028042527761222694</t>
+  </si>
+  <si>
+    <t>Beryl Love</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor of USA TODAY Network National News Desk. Formerly @ Reno Gazette-Journal, Cincinnati Enquirer. Retweets do not = endorsement or agreement.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BerylLove</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/beryl-love-a795403/</t>
+  </si>
+  <si>
+    <t>Bill Sternberg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Editor, Editorial Page </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsternbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bill-sternberg-928b128/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brent Jones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standards &amp; Ethics Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gannett | USA TODAY NETWORK standards editor here. Tweets are mostly about journalism, media ethics, inclusion, technology &amp; interesting stories in between.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tweetbrentjones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brent-jones-4707059/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jonesbrentw/</t>
+  </si>
+  <si>
+    <t>Head of Standards &amp; Practices for USA TODAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donna Leinwand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Editor of USA TODAY, past president of National Press Club, traveler, weekend Betty Crocker, wine lover. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonnaLeinwand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/donnanews/</t>
+  </si>
+  <si>
+    <t>John Bacon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMBacon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite chief @USATODAY... and other stuff...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewrite chief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/john-bacon-277bb07/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/johnmbacon?fref=ts</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/planedoak/</t>
+  </si>
+  <si>
+    <t>Beth Belton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bethbelton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplatform editor, USA TODAY, To live is to ask questions and the answer always includes karma. RTs are my views.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bethbelton/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/110915072947842018109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>about.me/beth.belton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deborah Berry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dberrygannett</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington correspondent for USA TODAY &amp; Gannett's Alabama, Louisiana &amp; Mississippi papers. Also cover #civilrights, #votingrights &amp; moonlight as a scout leader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deborah-berry-3433446/</t>
+  </si>
+  <si>
+    <t>Mary Bowerman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Social Media Editor @USATODAY. Clemson Tiger all day, every day.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaryBowerman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Social Media Editor </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/marybowerman/</t>
+  </si>
+  <si>
+    <t>Desair Brown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desairbrown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reader Advocacy Editor @USATODAY. Proud Vegetarian and thrill-seeking Scaredy Cat. http://usat.ly/1gEmm60 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/desairshaw/</t>
   </si>
 </sst>
 </file>
@@ -12124,8 +12312,8 @@
   <dimension ref="A1:R864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A689" sqref="A689:A690"/>
+      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A691" sqref="A691:A700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32728,26 +32916,46 @@
       <c r="K690" s="34" t="s">
         <v>2644</v>
       </c>
-      <c r="L690" s="14"/>
-      <c r="M690" s="14"/>
-      <c r="N690" s="14"/>
-      <c r="O690" s="14"/>
+      <c r="L690" s="14" t="s">
+        <v>2646</v>
+      </c>
+      <c r="M690" s="14" t="s">
+        <v>2647</v>
+      </c>
+      <c r="N690" s="14" t="s">
+        <v>2648</v>
+      </c>
+      <c r="O690" s="14" t="s">
+        <v>2649</v>
+      </c>
       <c r="P690" s="16"/>
       <c r="Q690" s="17"/>
     </row>
     <row r="691" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="20"/>
-      <c r="B691" s="35"/>
+      <c r="A691" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B691" s="35" t="s">
+        <v>2650</v>
+      </c>
       <c r="C691" s="48"/>
       <c r="D691" s="14"/>
       <c r="E691" s="14"/>
       <c r="F691" s="14"/>
-      <c r="G691" s="34"/>
-      <c r="H691" s="15"/>
+      <c r="G691" s="34" t="s">
+        <v>910</v>
+      </c>
+      <c r="H691" s="37" t="s">
+        <v>2651</v>
+      </c>
       <c r="I691" s="14"/>
       <c r="J691" s="14"/>
-      <c r="K691" s="14"/>
-      <c r="L691" s="14"/>
+      <c r="K691" s="14" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L691" s="14" t="s">
+        <v>2653</v>
+      </c>
       <c r="M691" s="14"/>
       <c r="N691" s="14"/>
       <c r="O691" s="14"/>
@@ -32755,18 +32963,28 @@
       <c r="Q691" s="17"/>
     </row>
     <row r="692" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="20"/>
-      <c r="B692" s="35"/>
+      <c r="A692" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B692" s="35" t="s">
+        <v>2654</v>
+      </c>
       <c r="C692" s="48"/>
       <c r="D692" s="14"/>
       <c r="E692" s="14"/>
       <c r="F692" s="14"/>
-      <c r="G692" s="34"/>
+      <c r="G692" s="34" t="s">
+        <v>2655</v>
+      </c>
       <c r="H692" s="15"/>
       <c r="I692" s="14"/>
       <c r="J692" s="14"/>
-      <c r="K692" s="14"/>
-      <c r="L692" s="14"/>
+      <c r="K692" s="34" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L692" s="34" t="s">
+        <v>2657</v>
+      </c>
       <c r="M692" s="14"/>
       <c r="N692" s="14"/>
       <c r="O692" s="14"/>
@@ -32774,18 +32992,30 @@
       <c r="Q692" s="17"/>
     </row>
     <row r="693" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="20"/>
-      <c r="B693" s="35"/>
+      <c r="A693" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B693" s="35" t="s">
+        <v>2658</v>
+      </c>
       <c r="C693" s="48"/>
       <c r="D693" s="14"/>
       <c r="E693" s="14"/>
       <c r="F693" s="14"/>
-      <c r="G693" s="34"/>
-      <c r="H693" s="15"/>
+      <c r="G693" s="34" t="s">
+        <v>2659</v>
+      </c>
+      <c r="H693" s="37" t="s">
+        <v>2660</v>
+      </c>
       <c r="I693" s="14"/>
       <c r="J693" s="14"/>
-      <c r="K693" s="14"/>
-      <c r="L693" s="14"/>
+      <c r="K693" s="34" t="s">
+        <v>2661</v>
+      </c>
+      <c r="L693" s="14" t="s">
+        <v>2662</v>
+      </c>
       <c r="M693" s="14"/>
       <c r="N693" s="14"/>
       <c r="O693" s="14"/>
@@ -32793,18 +33023,28 @@
       <c r="Q693" s="17"/>
     </row>
     <row r="694" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A694" s="20"/>
-      <c r="B694" s="35"/>
+      <c r="A694" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B694" s="35" t="s">
+        <v>2658</v>
+      </c>
       <c r="C694" s="48"/>
       <c r="D694" s="14"/>
       <c r="E694" s="14"/>
       <c r="F694" s="14"/>
-      <c r="G694" s="34"/>
-      <c r="H694" s="15"/>
+      <c r="G694" s="34" t="s">
+        <v>2664</v>
+      </c>
+      <c r="H694" s="37" t="s">
+        <v>2660</v>
+      </c>
       <c r="I694" s="14"/>
       <c r="J694" s="14"/>
       <c r="K694" s="14"/>
-      <c r="L694" s="14"/>
+      <c r="L694" s="14" t="s">
+        <v>2663</v>
+      </c>
       <c r="M694" s="14"/>
       <c r="N694" s="14"/>
       <c r="O694" s="14"/>
@@ -32812,18 +33052,30 @@
       <c r="Q694" s="17"/>
     </row>
     <row r="695" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A695" s="20"/>
-      <c r="B695" s="35"/>
+      <c r="A695" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B695" s="35" t="s">
+        <v>2665</v>
+      </c>
       <c r="C695" s="48"/>
       <c r="D695" s="14"/>
       <c r="E695" s="14"/>
       <c r="F695" s="14"/>
-      <c r="G695" s="34"/>
-      <c r="H695" s="15"/>
+      <c r="G695" s="34" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H695" s="37" t="s">
+        <v>2667</v>
+      </c>
       <c r="I695" s="14"/>
       <c r="J695" s="14"/>
-      <c r="K695" s="14"/>
-      <c r="L695" s="14"/>
+      <c r="K695" s="34" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L695" s="14" t="s">
+        <v>2669</v>
+      </c>
       <c r="M695" s="14"/>
       <c r="N695" s="14"/>
       <c r="O695" s="14"/>
@@ -32831,56 +33083,96 @@
       <c r="Q695" s="17"/>
     </row>
     <row r="696" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A696" s="20"/>
-      <c r="B696" s="35"/>
+      <c r="A696" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B696" s="35" t="s">
+        <v>2670</v>
+      </c>
       <c r="C696" s="48"/>
       <c r="D696" s="14"/>
       <c r="E696" s="14"/>
       <c r="F696" s="14"/>
-      <c r="G696" s="34"/>
-      <c r="H696" s="15"/>
+      <c r="G696" s="34" t="s">
+        <v>2673</v>
+      </c>
+      <c r="H696" s="37" t="s">
+        <v>2672</v>
+      </c>
       <c r="I696" s="14"/>
       <c r="J696" s="14"/>
-      <c r="K696" s="14"/>
-      <c r="L696" s="14"/>
-      <c r="M696" s="14"/>
-      <c r="N696" s="14"/>
+      <c r="K696" s="34" t="s">
+        <v>2671</v>
+      </c>
+      <c r="L696" s="14" t="s">
+        <v>2674</v>
+      </c>
+      <c r="M696" s="14" t="s">
+        <v>2675</v>
+      </c>
+      <c r="N696" s="14" t="s">
+        <v>2676</v>
+      </c>
       <c r="O696" s="14"/>
       <c r="P696" s="16"/>
       <c r="Q696" s="17"/>
     </row>
     <row r="697" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A697" s="20"/>
-      <c r="B697" s="35"/>
+      <c r="A697" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B697" s="35" t="s">
+        <v>2677</v>
+      </c>
       <c r="C697" s="48"/>
       <c r="D697" s="14"/>
       <c r="E697" s="14"/>
       <c r="F697" s="14"/>
       <c r="G697" s="34"/>
-      <c r="H697" s="15"/>
+      <c r="H697" s="37" t="s">
+        <v>2679</v>
+      </c>
       <c r="I697" s="14"/>
-      <c r="J697" s="14"/>
-      <c r="K697" s="14"/>
-      <c r="L697" s="14"/>
+      <c r="J697" s="34" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K697" s="34" t="s">
+        <v>2678</v>
+      </c>
+      <c r="L697" s="14" t="s">
+        <v>2680</v>
+      </c>
       <c r="M697" s="14"/>
       <c r="N697" s="14"/>
-      <c r="O697" s="14"/>
+      <c r="O697" s="34" t="s">
+        <v>2681</v>
+      </c>
       <c r="P697" s="16"/>
       <c r="Q697" s="17"/>
     </row>
     <row r="698" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="20"/>
-      <c r="B698" s="35"/>
+      <c r="A698" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B698" s="35" t="s">
+        <v>2683</v>
+      </c>
       <c r="C698" s="48"/>
       <c r="D698" s="14"/>
       <c r="E698" s="14"/>
       <c r="F698" s="14"/>
       <c r="G698" s="34"/>
-      <c r="H698" s="15"/>
+      <c r="H698" s="37" t="s">
+        <v>2685</v>
+      </c>
       <c r="I698" s="14"/>
       <c r="J698" s="14"/>
-      <c r="K698" s="14"/>
-      <c r="L698" s="14"/>
+      <c r="K698" s="34" t="s">
+        <v>2684</v>
+      </c>
+      <c r="L698" s="14" t="s">
+        <v>2686</v>
+      </c>
       <c r="M698" s="14"/>
       <c r="N698" s="14"/>
       <c r="O698" s="14"/>
@@ -32888,18 +33180,30 @@
       <c r="Q698" s="17"/>
     </row>
     <row r="699" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A699" s="20"/>
-      <c r="B699" s="13"/>
+      <c r="A699" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B699" s="35" t="s">
+        <v>2687</v>
+      </c>
       <c r="C699" s="45"/>
       <c r="D699" s="14"/>
       <c r="E699" s="14"/>
       <c r="F699" s="14"/>
-      <c r="G699" s="14"/>
-      <c r="H699" s="15"/>
+      <c r="G699" s="34" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H699" s="37" t="s">
+        <v>2688</v>
+      </c>
       <c r="I699" s="14"/>
       <c r="J699" s="14"/>
-      <c r="K699" s="14"/>
-      <c r="L699" s="14"/>
+      <c r="K699" s="34" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L699" s="14" t="s">
+        <v>2691</v>
+      </c>
       <c r="M699" s="14"/>
       <c r="N699" s="14"/>
       <c r="O699" s="14"/>
@@ -32907,18 +33211,30 @@
       <c r="Q699" s="17"/>
     </row>
     <row r="700" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="20"/>
-      <c r="B700" s="35"/>
+      <c r="A700" s="36" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B700" s="35" t="s">
+        <v>2692</v>
+      </c>
       <c r="C700" s="48"/>
       <c r="D700" s="14"/>
       <c r="E700" s="14"/>
       <c r="F700" s="14"/>
-      <c r="G700" s="34"/>
-      <c r="H700" s="15"/>
+      <c r="G700" s="34" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H700" s="37" t="s">
+        <v>2694</v>
+      </c>
       <c r="I700" s="14"/>
       <c r="J700" s="14"/>
-      <c r="K700" s="14"/>
-      <c r="L700" s="14"/>
+      <c r="K700" s="34" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L700" s="14" t="s">
+        <v>2696</v>
+      </c>
       <c r="M700" s="14"/>
       <c r="N700" s="14"/>
       <c r="O700" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="2697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="2749">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11578,12 +11578,222 @@
   <si>
     <t>https://www.linkedin.com/in/desairshaw/</t>
   </si>
+  <si>
+    <t xml:space="preserve">Emily Brown
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emilygbrown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Travel, run, photograph, read, write, eat, drink, be merry | Mobile editor @usatoday | @Lynchburg and @NewhouseSU alum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emily.brown01@bbc.co.uk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbc.co.uk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/emily-brown-82b25b4/</t>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carolyn Cerbin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carolyncerbin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior News Editor, podcast producer for #USATODAY. BBC Radio contributor. RTs not endorsements. Go #Utes! Go #Gators!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/carolyn-cerbin-98183210/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/emily-brown-04423866/</t>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor at SparkNotes
+Barnes &amp; Noble, Inc.   McGill University</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Larry Copeland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bylarrycopeland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/larry-copeland-6a489910/</t>
+  </si>
+  <si>
+    <t>Creative Director at LCopelandMedia.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/larry.copeland.148</t>
+  </si>
+  <si>
+    <t>Will Cummings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwcummings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cynic, misanthrope and family man working as a digital editor @USATODAY.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digital editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/william-cummings-12562b16/</t>
+  </si>
+  <si>
+    <t>Alia Dastagir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alia_e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I write about culture @USATODAY. Former weekend editor @DCist. http://muckrack.com/alia-dastagir </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aliadastagir/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/108580641324726595410</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AliaDastagir</t>
+  </si>
+  <si>
+    <t>Lindsay Deutsch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linsdee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lindsay@lindsaydupont.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christopher Doering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior editor with @FoodDive, Brewers/Royals/Packers fan, Drew's dad Runner/swimmer Mizzou grad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdoering@industrydive.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdoering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linda Dono</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lindadono</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I share great stories on http://usatoday.com  from Gannett newspaper &amp; TV reporters. I also have an affection for editorial cartoons and rescued dogs &amp; cats.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lindadono/</t>
+  </si>
+  <si>
+    <t>Oren Dorell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign affairs and breaking news, USA TODAY Network I've been to almost all Lower 48 and a few countries. Profile photo is my father: http://usat.ly/2jXIiOM </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orendorell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/oren-dorell-3977698/</t>
+  </si>
+  <si>
+    <t>Jessica Durando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jessicadurando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>usatoday deputy world editor.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G712</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jessica-durando-94277120/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12301,22 +12511,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A691" sqref="A691:A700"/>
+      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C712" sqref="C712"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -12338,7 +12548,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12394,7 +12604,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -12425,7 +12635,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -12456,7 +12666,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -12487,7 +12697,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -12522,7 +12732,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -12568,7 +12778,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -12601,7 +12811,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -12643,7 +12853,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -12678,7 +12888,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -12717,7 +12927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -12747,7 +12957,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -12779,7 +12989,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -12814,7 +13024,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -12838,7 +13048,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -12875,7 +13085,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -12912,7 +13122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -12947,7 +13157,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -12978,7 +13188,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -13017,7 +13227,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -13048,7 +13258,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -13075,7 +13285,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -13108,7 +13318,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -13141,7 +13351,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -13172,7 +13382,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -13209,7 +13419,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -13244,7 +13454,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -13281,7 +13491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -13312,7 +13522,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -13345,7 +13555,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -13374,7 +13584,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -13401,7 +13611,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -13432,7 +13642,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -13463,7 +13673,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -13501,7 +13711,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -13534,7 +13744,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -13561,7 +13771,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -13596,7 +13806,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -13631,7 +13841,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -13668,7 +13878,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -13701,7 +13911,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -13739,7 +13949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -13774,7 +13984,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -13805,7 +14015,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -13844,7 +14054,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -13879,7 +14089,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -13914,7 +14124,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -13947,7 +14157,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -13982,7 +14192,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -14013,7 +14223,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -14038,7 +14248,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -14077,7 +14287,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -14111,7 +14321,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -14146,7 +14356,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -14183,7 +14393,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -14225,7 +14435,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -14258,7 +14468,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -14291,7 +14501,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -14322,7 +14532,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -14357,7 +14567,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -14386,7 +14596,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -14415,7 +14625,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -14446,7 +14656,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -14475,7 +14685,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -14506,7 +14716,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -14537,7 +14747,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -14570,7 +14780,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -14601,7 +14811,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -14636,7 +14846,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -14671,7 +14881,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -14704,7 +14914,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -14737,7 +14947,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -14774,7 +14984,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -14811,7 +15021,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -14846,7 +15056,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -14881,7 +15091,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -14912,7 +15122,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -14947,7 +15157,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -14982,7 +15192,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -15011,7 +15221,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -15036,7 +15246,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -15063,7 +15273,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -15090,7 +15300,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -15117,7 +15327,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -15146,7 +15356,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -15173,7 +15383,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -15210,7 +15420,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -15245,7 +15455,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -15280,7 +15490,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -15311,7 +15521,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -15342,7 +15552,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -15371,7 +15581,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -15408,7 +15618,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -15449,7 +15659,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -15486,7 +15696,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -15527,7 +15737,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -15555,7 +15765,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -15588,7 +15798,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -15621,7 +15831,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -15656,7 +15866,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -15695,7 +15905,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -15726,7 +15936,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -15757,7 +15967,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -15794,7 +16004,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -15835,7 +16045,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1">
       <c r="A105" s="20" t="s">
         <v>678</v>
       </c>
@@ -15872,7 +16082,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1">
       <c r="A106" s="20" t="s">
         <v>678</v>
       </c>
@@ -15909,7 +16119,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1">
       <c r="A107" s="20" t="s">
         <v>678</v>
       </c>
@@ -15946,7 +16156,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1">
       <c r="A108" s="20" t="s">
         <v>678</v>
       </c>
@@ -15985,7 +16195,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1">
       <c r="A109" s="20" t="s">
         <v>678</v>
       </c>
@@ -16022,7 +16232,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1">
       <c r="A110" s="20" t="s">
         <v>678</v>
       </c>
@@ -16053,7 +16263,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1">
       <c r="A111" s="20" t="s">
         <v>678</v>
       </c>
@@ -16084,7 +16294,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1">
       <c r="A112" s="20" t="s">
         <v>678</v>
       </c>
@@ -16121,7 +16331,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1">
       <c r="A113" s="20" t="s">
         <v>678</v>
       </c>
@@ -16162,7 +16372,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1">
       <c r="A114" s="20" t="s">
         <v>678</v>
       </c>
@@ -16199,7 +16409,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1">
       <c r="A115" s="20" t="s">
         <v>678</v>
       </c>
@@ -16222,7 +16432,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1">
       <c r="A116" s="20" t="s">
         <v>678</v>
       </c>
@@ -16261,7 +16471,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1">
       <c r="A117" s="20" t="s">
         <v>678</v>
       </c>
@@ -16298,7 +16508,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1">
       <c r="A118" s="20" t="s">
         <v>678</v>
       </c>
@@ -16335,7 +16545,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1">
       <c r="A119" s="20" t="s">
         <v>678</v>
       </c>
@@ -16366,7 +16576,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1">
       <c r="A120" s="20" t="s">
         <v>678</v>
       </c>
@@ -16399,7 +16609,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1">
       <c r="A121" s="20" t="s">
         <v>678</v>
       </c>
@@ -16440,7 +16650,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1">
       <c r="A122" s="20" t="s">
         <v>678</v>
       </c>
@@ -16475,7 +16685,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1">
       <c r="A123" s="20" t="s">
         <v>1052</v>
       </c>
@@ -16506,7 +16716,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1">
       <c r="A124" s="20" t="s">
         <v>1176</v>
       </c>
@@ -16537,7 +16747,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1">
       <c r="A125" s="20" t="s">
         <v>1177</v>
       </c>
@@ -16568,7 +16778,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1">
       <c r="A126" s="20" t="s">
         <v>1178</v>
       </c>
@@ -16607,7 +16817,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1">
       <c r="A127" s="20" t="s">
         <v>1178</v>
       </c>
@@ -16642,7 +16852,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1">
       <c r="A128" s="20" t="s">
         <v>1052</v>
       </c>
@@ -16677,7 +16887,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1">
       <c r="A129" s="20" t="s">
         <v>1052</v>
       </c>
@@ -16706,7 +16916,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A130" s="27" t="s">
         <v>791</v>
       </c>
@@ -16741,7 +16951,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A131" s="27" t="s">
         <v>790</v>
       </c>
@@ -16770,7 +16980,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1">
       <c r="A132" s="20" t="s">
         <v>1180</v>
       </c>
@@ -16803,7 +17013,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1">
       <c r="A133" s="20" t="s">
         <v>1052</v>
       </c>
@@ -16830,7 +17040,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1">
       <c r="A134" s="20" t="s">
         <v>1176</v>
       </c>
@@ -16867,7 +17077,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1">
       <c r="A135" s="20" t="s">
         <v>1052</v>
       </c>
@@ -16902,7 +17112,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1">
       <c r="A136" s="20" t="s">
         <v>1052</v>
       </c>
@@ -16945,7 +17155,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1">
       <c r="A137" s="20" t="s">
         <v>1180</v>
       </c>
@@ -16978,7 +17188,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1">
       <c r="A138" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17013,7 +17223,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
       <c r="A139" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17050,7 +17260,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1">
       <c r="A140" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17087,7 +17297,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1">
       <c r="A141" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17124,7 +17334,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1">
       <c r="A142" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17161,7 +17371,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1">
       <c r="A143" s="20" t="s">
         <v>1178</v>
       </c>
@@ -17198,7 +17408,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1">
       <c r="A144" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17227,7 +17437,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1">
       <c r="A145" s="20" t="s">
         <v>880</v>
       </c>
@@ -17266,7 +17476,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1">
       <c r="A146" s="20" t="s">
         <v>880</v>
       </c>
@@ -17309,7 +17519,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -17332,7 +17542,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -17355,7 +17565,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1">
       <c r="A149" s="20" t="s">
         <v>929</v>
       </c>
@@ -17384,7 +17594,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1">
       <c r="A150" s="20" t="s">
         <v>929</v>
       </c>
@@ -17413,7 +17623,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1">
       <c r="A151" s="20" t="s">
         <v>929</v>
       </c>
@@ -17442,7 +17652,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1">
       <c r="A152" s="20" t="s">
         <v>929</v>
       </c>
@@ -17471,7 +17681,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1">
       <c r="A153" s="20" t="s">
         <v>929</v>
       </c>
@@ -17500,7 +17710,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1">
       <c r="A154" s="20" t="s">
         <v>929</v>
       </c>
@@ -17529,7 +17739,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1">
       <c r="A155" s="20" t="s">
         <v>929</v>
       </c>
@@ -17558,7 +17768,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1">
       <c r="A156" s="20" t="s">
         <v>929</v>
       </c>
@@ -17587,7 +17797,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1">
       <c r="A157" s="20" t="s">
         <v>929</v>
       </c>
@@ -17616,7 +17826,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1">
       <c r="A158" s="20" t="s">
         <v>929</v>
       </c>
@@ -17647,7 +17857,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1">
       <c r="A159" s="20" t="s">
         <v>929</v>
       </c>
@@ -17678,7 +17888,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1">
       <c r="A160" s="20" t="s">
         <v>929</v>
       </c>
@@ -17709,7 +17919,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1">
       <c r="A161" s="20" t="s">
         <v>929</v>
       </c>
@@ -17738,7 +17948,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1">
       <c r="A162" s="20" t="s">
         <v>929</v>
       </c>
@@ -17767,7 +17977,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1">
       <c r="A163" s="20" t="s">
         <v>929</v>
       </c>
@@ -17796,7 +18006,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1">
       <c r="A164" s="20" t="s">
         <v>929</v>
       </c>
@@ -17825,7 +18035,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1">
       <c r="A165" s="20" t="s">
         <v>929</v>
       </c>
@@ -17854,7 +18064,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1">
       <c r="A166" s="20" t="s">
         <v>929</v>
       </c>
@@ -17883,7 +18093,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1">
       <c r="A167" s="20" t="s">
         <v>929</v>
       </c>
@@ -17912,7 +18122,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1">
       <c r="A168" s="20" t="s">
         <v>929</v>
       </c>
@@ -17941,7 +18151,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1">
       <c r="A169" s="20" t="s">
         <v>929</v>
       </c>
@@ -17970,7 +18180,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1">
       <c r="A170" s="20" t="s">
         <v>929</v>
       </c>
@@ -17999,7 +18209,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1">
       <c r="A171" s="20" t="s">
         <v>929</v>
       </c>
@@ -18028,7 +18238,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1">
       <c r="A172" s="20" t="s">
         <v>929</v>
       </c>
@@ -18057,7 +18267,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1">
       <c r="A173" s="20" t="s">
         <v>929</v>
       </c>
@@ -18086,7 +18296,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1">
       <c r="A174" s="20" t="s">
         <v>929</v>
       </c>
@@ -18115,7 +18325,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1">
       <c r="A175" s="20" t="s">
         <v>929</v>
       </c>
@@ -18144,7 +18354,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1">
       <c r="A176" s="20" t="s">
         <v>929</v>
       </c>
@@ -18173,7 +18383,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1">
       <c r="A177" s="20" t="s">
         <v>929</v>
       </c>
@@ -18202,7 +18412,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1">
       <c r="A178" s="20" t="s">
         <v>929</v>
       </c>
@@ -18231,7 +18441,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1">
       <c r="A179" s="20" t="s">
         <v>929</v>
       </c>
@@ -18260,7 +18470,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1">
       <c r="A180" s="20" t="s">
         <v>929</v>
       </c>
@@ -18289,7 +18499,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1">
       <c r="A181" s="20" t="s">
         <v>929</v>
       </c>
@@ -18318,7 +18528,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1">
       <c r="A182" s="20" t="s">
         <v>929</v>
       </c>
@@ -18347,7 +18557,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1">
       <c r="A183" s="20" t="s">
         <v>929</v>
       </c>
@@ -18376,7 +18586,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1">
       <c r="A184" s="20" t="s">
         <v>929</v>
       </c>
@@ -18403,7 +18613,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1">
       <c r="A185" s="20" t="s">
         <v>929</v>
       </c>
@@ -18432,7 +18642,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1">
       <c r="A186" s="20" t="s">
         <v>929</v>
       </c>
@@ -18461,7 +18671,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1">
       <c r="A187" s="20" t="s">
         <v>929</v>
       </c>
@@ -18490,7 +18700,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1">
       <c r="A188" s="20" t="s">
         <v>929</v>
       </c>
@@ -18519,7 +18729,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1">
       <c r="A189" s="20" t="s">
         <v>929</v>
       </c>
@@ -18548,7 +18758,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1">
       <c r="A190" s="20" t="s">
         <v>929</v>
       </c>
@@ -18575,7 +18785,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1">
       <c r="A191" s="20" t="s">
         <v>929</v>
       </c>
@@ -18604,7 +18814,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1">
       <c r="A192" s="20" t="s">
         <v>929</v>
       </c>
@@ -18633,7 +18843,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1">
       <c r="A193" s="20" t="s">
         <v>929</v>
       </c>
@@ -18662,7 +18872,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1">
       <c r="A194" s="20" t="s">
         <v>929</v>
       </c>
@@ -18689,7 +18899,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1">
       <c r="A195" s="20" t="s">
         <v>929</v>
       </c>
@@ -18718,7 +18928,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1">
       <c r="A196" s="20" t="s">
         <v>929</v>
       </c>
@@ -18745,7 +18955,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1">
       <c r="A197" s="20" t="s">
         <v>929</v>
       </c>
@@ -18774,7 +18984,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1">
       <c r="A198" s="20" t="s">
         <v>929</v>
       </c>
@@ -18803,7 +19013,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1">
       <c r="A199" s="20" t="s">
         <v>929</v>
       </c>
@@ -18832,7 +19042,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1">
       <c r="A200" s="20" t="s">
         <v>929</v>
       </c>
@@ -18861,7 +19071,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1">
       <c r="A201" s="20" t="s">
         <v>929</v>
       </c>
@@ -18890,7 +19100,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1">
       <c r="A202" s="20" t="s">
         <v>929</v>
       </c>
@@ -18919,7 +19129,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1">
       <c r="A203" s="20" t="s">
         <v>929</v>
       </c>
@@ -18948,7 +19158,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1">
       <c r="A204" s="20" t="s">
         <v>929</v>
       </c>
@@ -18977,7 +19187,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1">
       <c r="A205" s="20" t="s">
         <v>929</v>
       </c>
@@ -19006,7 +19216,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1">
       <c r="A206" s="20" t="s">
         <v>929</v>
       </c>
@@ -19035,7 +19245,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1">
       <c r="A207" s="20" t="s">
         <v>929</v>
       </c>
@@ -19064,7 +19274,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1">
       <c r="A208" s="20" t="s">
         <v>1131</v>
       </c>
@@ -19103,7 +19313,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1">
       <c r="A209" s="20" t="s">
         <v>1131</v>
       </c>
@@ -19132,7 +19342,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1">
       <c r="A210" s="20" t="s">
         <v>1131</v>
       </c>
@@ -19159,7 +19369,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1">
       <c r="A211" s="20" t="s">
         <v>1131</v>
       </c>
@@ -19188,7 +19398,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1">
       <c r="A212" s="20" t="s">
         <v>1131</v>
       </c>
@@ -19217,7 +19427,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1">
       <c r="A213" s="20" t="s">
         <v>1175</v>
       </c>
@@ -19248,7 +19458,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1">
       <c r="A214" s="20" t="s">
         <v>1175</v>
       </c>
@@ -19272,7 +19482,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1">
       <c r="A215" s="20" t="s">
         <v>1175</v>
       </c>
@@ -19297,7 +19507,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1">
       <c r="A216" s="20" t="s">
         <v>1175</v>
       </c>
@@ -19322,7 +19532,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1">
       <c r="A217" s="20" t="s">
         <v>1175</v>
       </c>
@@ -19347,7 +19557,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1">
       <c r="A218" s="20" t="s">
         <v>1174</v>
       </c>
@@ -19372,7 +19582,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1">
       <c r="A219" s="20" t="s">
         <v>1174</v>
       </c>
@@ -19397,7 +19607,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1">
       <c r="A220" s="20" t="s">
         <v>1174</v>
       </c>
@@ -19422,7 +19632,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1">
       <c r="A221" s="20" t="s">
         <v>1174</v>
       </c>
@@ -19447,7 +19657,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1">
       <c r="A222" s="20" t="s">
         <v>1174</v>
       </c>
@@ -19472,7 +19682,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1">
       <c r="A223" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19511,7 +19721,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1">
       <c r="A224" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19546,7 +19756,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1">
       <c r="A225" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19583,7 +19793,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1">
       <c r="A226" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19628,7 +19838,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1">
       <c r="A227" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19657,7 +19867,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1">
       <c r="A228" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19690,7 +19900,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1">
       <c r="A229" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19723,7 +19933,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1">
       <c r="A230" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19760,7 +19970,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1">
       <c r="A231" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19795,7 +20005,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1">
       <c r="A232" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19832,7 +20042,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1">
       <c r="A233" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19869,7 +20079,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1">
       <c r="A234" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19908,7 +20118,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1">
       <c r="A235" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19945,7 +20155,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1">
       <c r="A236" s="36" t="s">
         <v>1130</v>
       </c>
@@ -19986,7 +20196,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1">
       <c r="A237" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20021,7 +20231,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1">
       <c r="A238" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20058,7 +20268,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1">
       <c r="A239" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20095,7 +20305,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1">
       <c r="A240" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20122,7 +20332,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1">
       <c r="A241" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20157,7 +20367,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1">
       <c r="A242" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20200,7 +20410,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1">
       <c r="A243" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20241,7 +20451,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1">
       <c r="A244" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20280,7 +20490,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1">
       <c r="A245" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20317,7 +20527,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1">
       <c r="A246" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20356,7 +20566,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1">
       <c r="A247" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20397,7 +20607,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1">
       <c r="A248" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20438,7 +20648,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1">
       <c r="A249" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20466,7 +20676,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1">
       <c r="A250" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20503,7 +20713,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1">
       <c r="A251" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20544,7 +20754,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1">
       <c r="A252" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20577,7 +20787,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1">
       <c r="A253" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20616,7 +20826,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1">
       <c r="A254" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20649,7 +20859,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1">
       <c r="A255" s="34" t="s">
         <v>1429</v>
       </c>
@@ -20676,7 +20886,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1">
       <c r="A256" s="34" t="s">
         <v>1429</v>
       </c>
@@ -20703,7 +20913,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1">
       <c r="A257" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20736,7 +20946,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1">
       <c r="A258" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20775,7 +20985,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1">
       <c r="A259" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20804,7 +21014,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1">
       <c r="A260" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20845,7 +21055,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1">
       <c r="A261" s="36" t="s">
         <v>1451</v>
       </c>
@@ -20874,7 +21084,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1">
       <c r="A262" s="36" t="s">
         <v>1451</v>
       </c>
@@ -20903,7 +21113,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1">
       <c r="A263" s="36" t="s">
         <v>1451</v>
       </c>
@@ -20932,7 +21142,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1">
       <c r="A264" s="36" t="s">
         <v>1451</v>
       </c>
@@ -20961,7 +21171,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1">
       <c r="A265" s="36" t="s">
         <v>1451</v>
       </c>
@@ -20990,7 +21200,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1">
       <c r="A266" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21019,7 +21229,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1">
       <c r="A267" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21048,7 +21258,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1">
       <c r="A268" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21077,7 +21287,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1">
       <c r="A269" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21106,7 +21316,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1">
       <c r="A270" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21135,7 +21345,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1">
       <c r="A271" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21162,7 +21372,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1">
       <c r="A272" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21189,7 +21399,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1">
       <c r="A273" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21216,7 +21426,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1">
       <c r="A274" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21243,7 +21453,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1">
       <c r="A275" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21270,7 +21480,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1">
       <c r="A276" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21297,7 +21507,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1">
       <c r="A277" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21324,7 +21534,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1">
       <c r="A278" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21351,7 +21561,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1">
       <c r="A279" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21378,7 +21588,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1">
       <c r="A280" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21405,7 +21615,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1">
       <c r="A281" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21432,7 +21642,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1">
       <c r="A282" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21459,7 +21669,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1">
       <c r="A283" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21486,7 +21696,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1">
       <c r="A284" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21513,7 +21723,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1">
       <c r="A285" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21540,7 +21750,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1">
       <c r="A286" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21567,7 +21777,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1">
       <c r="A287" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21594,7 +21804,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1">
       <c r="A288" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21621,7 +21831,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1">
       <c r="A289" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21648,7 +21858,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1">
       <c r="A290" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21675,7 +21885,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1">
       <c r="A291" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21702,7 +21912,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1">
       <c r="A292" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21729,7 +21939,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1">
       <c r="A293" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21756,7 +21966,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1">
       <c r="A294" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21783,7 +21993,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1">
       <c r="A295" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21810,7 +22020,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1">
       <c r="A296" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21837,7 +22047,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1">
       <c r="A297" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21864,7 +22074,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1">
       <c r="A298" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21891,7 +22101,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1">
       <c r="A299" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21918,7 +22128,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1">
       <c r="A300" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21945,7 +22155,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1">
       <c r="A301" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21972,7 +22182,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1">
       <c r="A302" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21999,7 +22209,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1">
       <c r="A303" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22026,7 +22236,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1">
       <c r="A304" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22053,7 +22263,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1">
       <c r="A305" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22080,7 +22290,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1">
       <c r="A306" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22107,7 +22317,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1">
       <c r="A307" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22134,7 +22344,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1">
       <c r="A308" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22161,7 +22371,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1">
       <c r="A309" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22188,7 +22398,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1">
       <c r="A310" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22215,7 +22425,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1">
       <c r="A311" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22242,7 +22452,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1">
       <c r="A312" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22269,7 +22479,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1">
       <c r="A313" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22296,7 +22506,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1">
       <c r="A314" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22323,7 +22533,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1">
       <c r="A315" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22350,7 +22560,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1">
       <c r="A316" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22377,7 +22587,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1">
       <c r="A317" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22404,7 +22614,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1">
       <c r="A318" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22431,7 +22641,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1">
       <c r="A319" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22458,7 +22668,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1">
       <c r="A320" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22485,7 +22695,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1">
       <c r="A321" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22512,7 +22722,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1">
       <c r="A322" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22539,7 +22749,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1">
       <c r="A323" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22566,7 +22776,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1">
       <c r="A324" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22593,7 +22803,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1">
       <c r="A325" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22620,7 +22830,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1">
       <c r="A326" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22647,7 +22857,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1">
       <c r="A327" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22674,7 +22884,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1">
       <c r="A328" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22701,7 +22911,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1">
       <c r="A329" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22728,7 +22938,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1">
       <c r="A330" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22755,7 +22965,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1">
       <c r="A331" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22782,7 +22992,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1">
       <c r="A332" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22809,7 +23019,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1">
       <c r="A333" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22836,7 +23046,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1">
       <c r="A334" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22863,7 +23073,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1">
       <c r="A335" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22890,7 +23100,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1">
       <c r="A336" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22917,7 +23127,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1">
       <c r="A337" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22944,7 +23154,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1">
       <c r="A338" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22971,7 +23181,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1">
       <c r="A339" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22998,7 +23208,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1">
       <c r="A340" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23025,7 +23235,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1">
       <c r="A341" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23052,7 +23262,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1">
       <c r="A342" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23079,7 +23289,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1">
       <c r="A343" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23106,7 +23316,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1">
       <c r="A344" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23133,7 +23343,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1">
       <c r="A345" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23160,7 +23370,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1">
       <c r="A346" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23187,7 +23397,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1">
       <c r="A347" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23214,7 +23424,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1">
       <c r="A348" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23241,7 +23451,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1">
       <c r="A349" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23268,7 +23478,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1">
       <c r="A350" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23295,7 +23505,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1">
       <c r="A351" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23322,7 +23532,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1">
       <c r="A352" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23349,7 +23559,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1">
       <c r="A353" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23376,7 +23586,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1">
       <c r="A354" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23403,7 +23613,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1">
       <c r="A355" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23430,7 +23640,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1">
       <c r="A356" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23457,7 +23667,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1">
       <c r="A357" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23484,7 +23694,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1">
       <c r="A358" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23511,7 +23721,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1">
       <c r="A359" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23538,7 +23748,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1">
       <c r="A360" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23565,7 +23775,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1">
       <c r="A361" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23592,7 +23802,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1">
       <c r="A362" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23619,7 +23829,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1">
       <c r="A363" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23646,7 +23856,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1">
       <c r="A364" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23673,7 +23883,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1">
       <c r="A365" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23700,7 +23910,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1">
       <c r="A366" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23727,7 +23937,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1">
       <c r="A367" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23754,7 +23964,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1">
       <c r="A368" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23781,7 +23991,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1">
       <c r="A369" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23808,7 +24018,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1">
       <c r="A370" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23835,7 +24045,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1">
       <c r="A371" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23862,7 +24072,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1">
       <c r="A372" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23889,7 +24099,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1">
       <c r="A373" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23916,7 +24126,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1">
       <c r="A374" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23943,7 +24153,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1">
       <c r="A375" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23970,7 +24180,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1">
       <c r="A376" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23997,7 +24207,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1">
       <c r="A377" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24024,7 +24234,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1">
       <c r="A378" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24051,7 +24261,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1">
       <c r="A379" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24078,7 +24288,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1">
       <c r="A380" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24105,7 +24315,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1">
       <c r="A381" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24132,7 +24342,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1">
       <c r="A382" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24159,7 +24369,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1">
       <c r="A383" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24186,7 +24396,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1">
       <c r="A384" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24213,7 +24423,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1">
       <c r="A385" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24240,7 +24450,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1">
       <c r="A386" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24267,7 +24477,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1">
       <c r="A387" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24294,7 +24504,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1">
       <c r="A388" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24321,7 +24531,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1">
       <c r="A389" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24348,7 +24558,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1">
       <c r="A390" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24375,7 +24585,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1">
       <c r="A391" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24402,7 +24612,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1">
       <c r="A392" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24429,7 +24639,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1">
       <c r="A393" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24456,7 +24666,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1">
       <c r="A394" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24483,7 +24693,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1">
       <c r="A395" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24510,7 +24720,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1">
       <c r="A396" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24537,7 +24747,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1">
       <c r="A397" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24564,7 +24774,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1">
       <c r="A398" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24591,7 +24801,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1">
       <c r="A399" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24618,7 +24828,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1">
       <c r="A400" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24645,7 +24855,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1">
       <c r="A401" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24672,7 +24882,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1">
       <c r="A402" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24699,7 +24909,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1">
       <c r="A403" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24726,7 +24936,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1">
       <c r="A404" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24753,7 +24963,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1">
       <c r="A405" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24780,7 +24990,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1">
       <c r="A406" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24807,7 +25017,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1">
       <c r="A407" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24834,7 +25044,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1">
       <c r="A408" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24861,7 +25071,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1">
       <c r="A409" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24888,7 +25098,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1">
       <c r="A410" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24915,7 +25125,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1">
       <c r="A411" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24942,7 +25152,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1">
       <c r="A412" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24969,7 +25179,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1">
       <c r="A413" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24996,7 +25206,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1">
       <c r="A414" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25023,7 +25233,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1">
       <c r="A415" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25050,7 +25260,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1">
       <c r="A416" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25077,7 +25287,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1">
       <c r="A417" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25104,7 +25314,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1">
       <c r="A418" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25131,7 +25341,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1">
       <c r="A419" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25158,7 +25368,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1">
       <c r="A420" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25185,7 +25395,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1">
       <c r="A421" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25212,7 +25422,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1">
       <c r="A422" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25239,7 +25449,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1">
       <c r="A423" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25266,7 +25476,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1">
       <c r="A424" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25293,7 +25503,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1">
       <c r="A425" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25320,7 +25530,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1">
       <c r="A426" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25347,7 +25557,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1">
       <c r="A427" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25374,7 +25584,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1">
       <c r="A428" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25401,7 +25611,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1">
       <c r="A429" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25428,7 +25638,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1">
       <c r="A430" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25455,7 +25665,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1">
       <c r="A431" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25482,7 +25692,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1">
       <c r="A432" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25509,7 +25719,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1">
       <c r="A433" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25536,7 +25746,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1">
       <c r="A434" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25563,7 +25773,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1">
       <c r="A435" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25590,7 +25800,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1">
       <c r="A436" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25617,7 +25827,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1">
       <c r="A437" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25644,7 +25854,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1">
       <c r="A438" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25671,7 +25881,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1">
       <c r="A439" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25698,7 +25908,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1">
       <c r="A440" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25725,7 +25935,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1">
       <c r="A441" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25752,7 +25962,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1">
       <c r="A442" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25779,7 +25989,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1">
       <c r="A443" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25806,7 +26016,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1">
       <c r="A444" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25833,7 +26043,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1">
       <c r="A445" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25860,7 +26070,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1">
       <c r="A446" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25887,7 +26097,7 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1">
       <c r="A447" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25914,7 +26124,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1">
       <c r="A448" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25941,7 +26151,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1">
       <c r="A449" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25968,7 +26178,7 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1">
       <c r="A450" s="54" t="s">
         <v>1451</v>
       </c>
@@ -25995,7 +26205,7 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" ht="45.95" customHeight="1">
       <c r="A451" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26022,7 +26232,7 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" ht="45.95" customHeight="1">
       <c r="A452" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26049,7 +26259,7 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" ht="45.95" customHeight="1">
       <c r="A453" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26076,7 +26286,7 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" ht="45.95" customHeight="1">
       <c r="A454" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26103,7 +26313,7 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" ht="45.95" customHeight="1">
       <c r="A455" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26130,7 +26340,7 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" ht="45.95" customHeight="1">
       <c r="A456" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26157,7 +26367,7 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" ht="45.95" customHeight="1">
       <c r="A457" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26184,7 +26394,7 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" ht="45.95" customHeight="1">
       <c r="A458" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26211,7 +26421,7 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" ht="45.95" customHeight="1">
       <c r="A459" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26238,7 +26448,7 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" ht="45.95" customHeight="1">
       <c r="A460" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26265,7 +26475,7 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" ht="45.95" customHeight="1">
       <c r="A461" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26292,7 +26502,7 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" ht="45.95" customHeight="1">
       <c r="A462" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26319,7 +26529,7 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" ht="45.95" customHeight="1">
       <c r="A463" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26346,7 +26556,7 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" ht="45.95" customHeight="1">
       <c r="A464" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26373,7 +26583,7 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" ht="45.95" customHeight="1">
       <c r="A465" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26400,7 +26610,7 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" ht="45.95" customHeight="1">
       <c r="A466" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26427,7 +26637,7 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" ht="45.95" customHeight="1">
       <c r="A467" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26454,7 +26664,7 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" ht="45.95" customHeight="1">
       <c r="A468" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26481,7 +26691,7 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" ht="45.95" customHeight="1">
       <c r="A469" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26508,7 +26718,7 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" ht="45.95" customHeight="1">
       <c r="A470" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26535,7 +26745,7 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" ht="45.95" customHeight="1">
       <c r="A471" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26562,7 +26772,7 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" ht="45.95" customHeight="1">
       <c r="A472" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26589,7 +26799,7 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" ht="45.95" customHeight="1">
       <c r="A473" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26616,7 +26826,7 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" ht="45.95" customHeight="1">
       <c r="A474" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26643,7 +26853,7 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" ht="45.95" customHeight="1">
       <c r="A475" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26670,7 +26880,7 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" ht="45.95" customHeight="1">
       <c r="A476" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26697,7 +26907,7 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" ht="45.95" customHeight="1">
       <c r="A477" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26724,7 +26934,7 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" ht="45.95" customHeight="1">
       <c r="A478" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26751,7 +26961,7 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" ht="45.95" customHeight="1">
       <c r="A479" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26778,7 +26988,7 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" ht="45.95" customHeight="1">
       <c r="A480" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26805,7 +27015,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1">
       <c r="A481" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26832,7 +27042,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1">
       <c r="A482" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26859,7 +27069,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1">
       <c r="A483" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26886,7 +27096,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1">
       <c r="A484" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26913,7 +27123,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1">
       <c r="A485" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26940,7 +27150,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1">
       <c r="A486" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26967,7 +27177,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1">
       <c r="A487" s="54" t="s">
         <v>1451</v>
       </c>
@@ -26994,7 +27204,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1">
       <c r="A488" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27021,7 +27231,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1">
       <c r="A489" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27048,7 +27258,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1">
       <c r="A490" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27075,7 +27285,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1">
       <c r="A491" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27102,7 +27312,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1">
       <c r="A492" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27129,7 +27339,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1">
       <c r="A493" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27156,7 +27366,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1">
       <c r="A494" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27183,7 +27393,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1">
       <c r="A495" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27210,7 +27420,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1">
       <c r="A496" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27237,7 +27447,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1">
       <c r="A497" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27264,7 +27474,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1">
       <c r="A498" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27291,7 +27501,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1">
       <c r="A499" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27318,7 +27528,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1">
       <c r="A500" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27345,7 +27555,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1">
       <c r="A501" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27374,7 +27584,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1">
       <c r="A502" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27401,7 +27611,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1">
       <c r="A503" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27444,7 +27654,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1">
       <c r="A504" s="36" t="s">
         <v>1964</v>
       </c>
@@ -27467,7 +27677,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1">
       <c r="A505" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27504,7 +27714,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1">
       <c r="A506" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27543,7 +27753,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1">
       <c r="A507" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27577,7 +27787,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1">
       <c r="A508" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27604,7 +27814,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1">
       <c r="A509" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27643,7 +27853,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1">
       <c r="A510" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27682,7 +27892,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1">
       <c r="A511" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27717,7 +27927,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1">
       <c r="A512" s="36" t="s">
         <v>1959</v>
       </c>
@@ -27750,7 +27960,7 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1">
       <c r="A513" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27777,7 +27987,7 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1">
       <c r="A514" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27808,7 +28018,7 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1">
       <c r="A515" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27839,7 +28049,7 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1">
       <c r="A516" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27870,7 +28080,7 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1">
       <c r="A517" s="38" t="s">
         <v>2072</v>
       </c>
@@ -27899,7 +28109,7 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1">
       <c r="A518" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27930,7 +28140,7 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1">
       <c r="A519" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27961,7 +28171,7 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1">
       <c r="A520" s="59" t="s">
         <v>2025</v>
       </c>
@@ -27992,7 +28202,7 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1">
       <c r="A521" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28021,7 +28231,7 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1">
       <c r="A522" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28050,7 +28260,7 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1">
       <c r="A523" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28079,7 +28289,7 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1">
       <c r="A524" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28108,7 +28318,7 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1">
       <c r="A525" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28137,7 +28347,7 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1">
       <c r="A526" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28166,7 +28376,7 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1">
       <c r="A527" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28195,7 +28405,7 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1">
       <c r="A528" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28224,7 +28434,7 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:18" ht="45.95" customHeight="1">
       <c r="A529" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28253,7 +28463,7 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:18" ht="45.95" customHeight="1">
       <c r="A530" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28282,7 +28492,7 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:18" ht="45.95" customHeight="1">
       <c r="A531" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28311,7 +28521,7 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:18" ht="45.95" customHeight="1">
       <c r="A532" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28338,7 +28548,7 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:18" ht="45.95" customHeight="1">
       <c r="A533" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28365,7 +28575,7 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:18" ht="45.95" customHeight="1">
       <c r="A534" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28394,7 +28604,7 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:18" ht="45.95" customHeight="1">
       <c r="A535" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28417,7 +28627,7 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:18" ht="45.95" customHeight="1">
       <c r="A536" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28450,7 +28660,7 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:18" ht="45.95" customHeight="1">
       <c r="A537" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28483,7 +28693,7 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:18" ht="45.95" customHeight="1">
       <c r="A538" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28520,7 +28730,7 @@
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:18" ht="45.95" customHeight="1">
       <c r="A539" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28555,7 +28765,7 @@
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:18" ht="45.95" customHeight="1">
       <c r="A540" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28586,7 +28796,7 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:18" ht="45.95" customHeight="1">
       <c r="A541" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28619,7 +28829,7 @@
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:18" ht="45.95" customHeight="1">
       <c r="A542" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28663,7 +28873,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="543" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:18" ht="45.95" customHeight="1">
       <c r="A543" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28704,7 +28914,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:18" ht="45.95" customHeight="1">
       <c r="A544" s="56" t="s">
         <v>2187</v>
       </c>
@@ -28731,7 +28941,7 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" ht="45.95" customHeight="1">
       <c r="A545" s="56" t="s">
         <v>2187</v>
       </c>
@@ -28754,7 +28964,7 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" ht="45.95" customHeight="1">
       <c r="A546" s="59" t="s">
         <v>2214</v>
       </c>
@@ -28777,7 +28987,7 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" ht="45.95" customHeight="1">
       <c r="A547" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28816,7 +29026,7 @@
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" ht="45.95" customHeight="1">
       <c r="A548" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28849,7 +29059,7 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" ht="45.95" customHeight="1">
       <c r="A549" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28884,7 +29094,7 @@
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" ht="45.95" customHeight="1">
       <c r="A550" s="59" t="s">
         <v>1130</v>
       </c>
@@ -28923,7 +29133,7 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" ht="45.95" customHeight="1">
       <c r="A551" s="36" t="s">
         <v>2227</v>
       </c>
@@ -28948,7 +29158,7 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" ht="45.95" customHeight="1">
       <c r="A552" s="36" t="s">
         <v>2227</v>
       </c>
@@ -28973,7 +29183,7 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" ht="45.95" customHeight="1">
       <c r="A553" s="36" t="s">
         <v>2227</v>
       </c>
@@ -28998,7 +29208,7 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" ht="45.95" customHeight="1">
       <c r="A554" s="36" t="s">
         <v>2227</v>
       </c>
@@ -29023,7 +29233,7 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" ht="45.95" customHeight="1">
       <c r="A555" s="36" t="s">
         <v>2227</v>
       </c>
@@ -29048,7 +29258,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1">
       <c r="A556" s="36" t="s">
         <v>2233</v>
       </c>
@@ -29079,7 +29289,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1">
       <c r="A557" s="36" t="s">
         <v>2242</v>
       </c>
@@ -29108,7 +29318,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1">
       <c r="A558" s="36" t="s">
         <v>2242</v>
       </c>
@@ -29137,7 +29347,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1">
       <c r="A559" s="36" t="s">
         <v>2242</v>
       </c>
@@ -29166,7 +29376,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1">
       <c r="A560" s="36" t="s">
         <v>2242</v>
       </c>
@@ -29195,7 +29405,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1">
       <c r="A561" s="36" t="s">
         <v>70</v>
       </c>
@@ -29224,7 +29434,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1">
       <c r="A562" s="36" t="s">
         <v>70</v>
       </c>
@@ -29253,7 +29463,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1">
       <c r="A563" s="36" t="s">
         <v>70</v>
       </c>
@@ -29282,7 +29492,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1">
       <c r="A564" s="36" t="s">
         <v>70</v>
       </c>
@@ -29311,7 +29521,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1">
       <c r="A565" s="36" t="s">
         <v>70</v>
       </c>
@@ -29340,7 +29550,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1">
       <c r="A566" s="36" t="s">
         <v>70</v>
       </c>
@@ -29369,7 +29579,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1">
       <c r="A567" s="36" t="s">
         <v>70</v>
       </c>
@@ -29398,7 +29608,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1">
       <c r="A568" s="36" t="s">
         <v>70</v>
       </c>
@@ -29427,7 +29637,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1">
       <c r="A569" s="36" t="s">
         <v>70</v>
       </c>
@@ -29456,7 +29666,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1">
       <c r="A570" s="36" t="s">
         <v>70</v>
       </c>
@@ -29485,7 +29695,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1">
       <c r="A571" s="36" t="s">
         <v>70</v>
       </c>
@@ -29514,7 +29724,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1">
       <c r="A572" s="36" t="s">
         <v>70</v>
       </c>
@@ -29543,7 +29753,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1">
       <c r="A573" s="36" t="s">
         <v>70</v>
       </c>
@@ -29572,7 +29782,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1">
       <c r="A574" s="36" t="s">
         <v>70</v>
       </c>
@@ -29601,7 +29811,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1">
       <c r="A575" s="36" t="s">
         <v>70</v>
       </c>
@@ -29630,7 +29840,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1">
       <c r="A576" s="36" t="s">
         <v>70</v>
       </c>
@@ -29659,7 +29869,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1">
       <c r="A577" s="36" t="s">
         <v>70</v>
       </c>
@@ -29688,7 +29898,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1">
       <c r="A578" s="36" t="s">
         <v>70</v>
       </c>
@@ -29717,7 +29927,7 @@
       <c r="P578" s="16"/>
       <c r="Q578" s="17"/>
     </row>
-    <row r="579" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" ht="45.95" customHeight="1">
       <c r="A579" s="36" t="s">
         <v>70</v>
       </c>
@@ -29746,7 +29956,7 @@
       <c r="P579" s="16"/>
       <c r="Q579" s="17"/>
     </row>
-    <row r="580" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" ht="45.95" customHeight="1">
       <c r="A580" s="36" t="s">
         <v>70</v>
       </c>
@@ -29775,7 +29985,7 @@
       <c r="P580" s="16"/>
       <c r="Q580" s="17"/>
     </row>
-    <row r="581" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" ht="45.95" customHeight="1">
       <c r="A581" s="36" t="s">
         <v>70</v>
       </c>
@@ -29804,7 +30014,7 @@
       <c r="P581" s="16"/>
       <c r="Q581" s="17"/>
     </row>
-    <row r="582" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" ht="45.95" customHeight="1">
       <c r="A582" s="36" t="s">
         <v>70</v>
       </c>
@@ -29833,7 +30043,7 @@
       <c r="P582" s="16"/>
       <c r="Q582" s="17"/>
     </row>
-    <row r="583" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" ht="45.95" customHeight="1">
       <c r="A583" s="36" t="s">
         <v>70</v>
       </c>
@@ -29862,7 +30072,7 @@
       <c r="P583" s="16"/>
       <c r="Q583" s="17"/>
     </row>
-    <row r="584" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" ht="45.95" customHeight="1">
       <c r="A584" s="36" t="s">
         <v>70</v>
       </c>
@@ -29891,7 +30101,7 @@
       <c r="P584" s="16"/>
       <c r="Q584" s="17"/>
     </row>
-    <row r="585" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" ht="45.95" customHeight="1">
       <c r="A585" s="36" t="s">
         <v>70</v>
       </c>
@@ -29920,7 +30130,7 @@
       <c r="P585" s="16"/>
       <c r="Q585" s="17"/>
     </row>
-    <row r="586" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" ht="45.95" customHeight="1">
       <c r="A586" s="36" t="s">
         <v>70</v>
       </c>
@@ -29949,7 +30159,7 @@
       <c r="P586" s="16"/>
       <c r="Q586" s="17"/>
     </row>
-    <row r="587" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" ht="45.95" customHeight="1">
       <c r="A587" s="36" t="s">
         <v>70</v>
       </c>
@@ -29978,7 +30188,7 @@
       <c r="P587" s="16"/>
       <c r="Q587" s="17"/>
     </row>
-    <row r="588" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" ht="45.95" customHeight="1">
       <c r="A588" s="36" t="s">
         <v>70</v>
       </c>
@@ -30007,7 +30217,7 @@
       <c r="P588" s="16"/>
       <c r="Q588" s="17"/>
     </row>
-    <row r="589" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" ht="45.95" customHeight="1">
       <c r="A589" s="36" t="s">
         <v>70</v>
       </c>
@@ -30036,7 +30246,7 @@
       <c r="P589" s="16"/>
       <c r="Q589" s="17"/>
     </row>
-    <row r="590" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" ht="45.95" customHeight="1">
       <c r="A590" s="36" t="s">
         <v>70</v>
       </c>
@@ -30065,7 +30275,7 @@
       <c r="P590" s="16"/>
       <c r="Q590" s="17"/>
     </row>
-    <row r="591" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" ht="45.95" customHeight="1">
       <c r="A591" s="36" t="s">
         <v>70</v>
       </c>
@@ -30094,7 +30304,7 @@
       <c r="P591" s="16"/>
       <c r="Q591" s="17"/>
     </row>
-    <row r="592" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" ht="45.95" customHeight="1">
       <c r="A592" s="36" t="s">
         <v>70</v>
       </c>
@@ -30123,7 +30333,7 @@
       <c r="P592" s="16"/>
       <c r="Q592" s="17"/>
     </row>
-    <row r="593" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17" ht="45.95" customHeight="1">
       <c r="A593" s="36" t="s">
         <v>70</v>
       </c>
@@ -30152,7 +30362,7 @@
       <c r="P593" s="16"/>
       <c r="Q593" s="17"/>
     </row>
-    <row r="594" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17" ht="45.95" customHeight="1">
       <c r="A594" s="36" t="s">
         <v>70</v>
       </c>
@@ -30181,7 +30391,7 @@
       <c r="P594" s="16"/>
       <c r="Q594" s="17"/>
     </row>
-    <row r="595" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:17" ht="45.95" customHeight="1">
       <c r="A595" s="36" t="s">
         <v>70</v>
       </c>
@@ -30210,7 +30420,7 @@
       <c r="P595" s="16"/>
       <c r="Q595" s="17"/>
     </row>
-    <row r="596" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:17" ht="45.95" customHeight="1">
       <c r="A596" s="36" t="s">
         <v>70</v>
       </c>
@@ -30239,7 +30449,7 @@
       <c r="P596" s="16"/>
       <c r="Q596" s="17"/>
     </row>
-    <row r="597" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:17" ht="45.95" customHeight="1">
       <c r="A597" s="36" t="s">
         <v>70</v>
       </c>
@@ -30268,7 +30478,7 @@
       <c r="P597" s="16"/>
       <c r="Q597" s="17"/>
     </row>
-    <row r="598" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:17" ht="45.95" customHeight="1">
       <c r="A598" s="36" t="s">
         <v>70</v>
       </c>
@@ -30297,7 +30507,7 @@
       <c r="P598" s="16"/>
       <c r="Q598" s="17"/>
     </row>
-    <row r="599" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:17" ht="45.95" customHeight="1">
       <c r="A599" s="36" t="s">
         <v>70</v>
       </c>
@@ -30326,7 +30536,7 @@
       <c r="P599" s="16"/>
       <c r="Q599" s="17"/>
     </row>
-    <row r="600" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:17" ht="45.95" customHeight="1">
       <c r="A600" s="36" t="s">
         <v>70</v>
       </c>
@@ -30355,7 +30565,7 @@
       <c r="P600" s="16"/>
       <c r="Q600" s="17"/>
     </row>
-    <row r="601" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:17" ht="45.95" customHeight="1">
       <c r="A601" s="36" t="s">
         <v>70</v>
       </c>
@@ -30384,7 +30594,7 @@
       <c r="P601" s="16"/>
       <c r="Q601" s="17"/>
     </row>
-    <row r="602" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:17" ht="45.95" customHeight="1">
       <c r="A602" s="36" t="s">
         <v>70</v>
       </c>
@@ -30413,7 +30623,7 @@
       <c r="P602" s="16"/>
       <c r="Q602" s="17"/>
     </row>
-    <row r="603" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:17" ht="45.95" customHeight="1">
       <c r="A603" s="36" t="s">
         <v>70</v>
       </c>
@@ -30442,7 +30652,7 @@
       <c r="P603" s="16"/>
       <c r="Q603" s="17"/>
     </row>
-    <row r="604" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:17" ht="45.95" customHeight="1">
       <c r="A604" s="36" t="s">
         <v>70</v>
       </c>
@@ -30471,7 +30681,7 @@
       <c r="P604" s="16"/>
       <c r="Q604" s="17"/>
     </row>
-    <row r="605" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17" ht="45.95" customHeight="1">
       <c r="A605" s="36" t="s">
         <v>70</v>
       </c>
@@ -30500,7 +30710,7 @@
       <c r="P605" s="16"/>
       <c r="Q605" s="17"/>
     </row>
-    <row r="606" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17" ht="45.95" customHeight="1">
       <c r="A606" s="36" t="s">
         <v>70</v>
       </c>
@@ -30529,7 +30739,7 @@
       <c r="P606" s="16"/>
       <c r="Q606" s="17"/>
     </row>
-    <row r="607" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17" ht="45.95" customHeight="1">
       <c r="A607" s="36" t="s">
         <v>70</v>
       </c>
@@ -30558,7 +30768,7 @@
       <c r="P607" s="16"/>
       <c r="Q607" s="17"/>
     </row>
-    <row r="608" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17" ht="45.95" customHeight="1">
       <c r="A608" s="36" t="s">
         <v>70</v>
       </c>
@@ -30587,7 +30797,7 @@
       <c r="P608" s="16"/>
       <c r="Q608" s="17"/>
     </row>
-    <row r="609" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" ht="45.95" customHeight="1">
       <c r="A609" s="36" t="s">
         <v>70</v>
       </c>
@@ -30616,7 +30826,7 @@
       <c r="P609" s="16"/>
       <c r="Q609" s="17"/>
     </row>
-    <row r="610" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" ht="45.95" customHeight="1">
       <c r="A610" s="36" t="s">
         <v>70</v>
       </c>
@@ -30645,7 +30855,7 @@
       <c r="P610" s="16"/>
       <c r="Q610" s="17"/>
     </row>
-    <row r="611" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" ht="45.95" customHeight="1">
       <c r="A611" s="36" t="s">
         <v>70</v>
       </c>
@@ -30674,7 +30884,7 @@
       <c r="P611" s="16"/>
       <c r="Q611" s="17"/>
     </row>
-    <row r="612" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" ht="45.95" customHeight="1">
       <c r="A612" s="36" t="s">
         <v>70</v>
       </c>
@@ -30703,7 +30913,7 @@
       <c r="P612" s="16"/>
       <c r="Q612" s="17"/>
     </row>
-    <row r="613" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" ht="45.95" customHeight="1">
       <c r="A613" s="36" t="s">
         <v>70</v>
       </c>
@@ -30732,7 +30942,7 @@
       <c r="P613" s="16"/>
       <c r="Q613" s="17"/>
     </row>
-    <row r="614" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" ht="45.95" customHeight="1">
       <c r="A614" s="36" t="s">
         <v>70</v>
       </c>
@@ -30761,7 +30971,7 @@
       <c r="P614" s="16"/>
       <c r="Q614" s="17"/>
     </row>
-    <row r="615" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" ht="45.95" customHeight="1">
       <c r="A615" s="36" t="s">
         <v>70</v>
       </c>
@@ -30790,7 +31000,7 @@
       <c r="P615" s="16"/>
       <c r="Q615" s="17"/>
     </row>
-    <row r="616" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" ht="45.95" customHeight="1">
       <c r="A616" s="36" t="s">
         <v>70</v>
       </c>
@@ -30819,7 +31029,7 @@
       <c r="P616" s="16"/>
       <c r="Q616" s="17"/>
     </row>
-    <row r="617" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" ht="45.95" customHeight="1">
       <c r="A617" s="36" t="s">
         <v>70</v>
       </c>
@@ -30848,7 +31058,7 @@
       <c r="P617" s="16"/>
       <c r="Q617" s="17"/>
     </row>
-    <row r="618" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" ht="45.95" customHeight="1">
       <c r="A618" s="36" t="s">
         <v>70</v>
       </c>
@@ -30877,7 +31087,7 @@
       <c r="P618" s="16"/>
       <c r="Q618" s="17"/>
     </row>
-    <row r="619" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" ht="45.95" customHeight="1">
       <c r="A619" s="36" t="s">
         <v>70</v>
       </c>
@@ -30906,7 +31116,7 @@
       <c r="P619" s="16"/>
       <c r="Q619" s="17"/>
     </row>
-    <row r="620" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" ht="45.95" customHeight="1">
       <c r="A620" s="36" t="s">
         <v>70</v>
       </c>
@@ -30935,7 +31145,7 @@
       <c r="P620" s="16"/>
       <c r="Q620" s="17"/>
     </row>
-    <row r="621" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" ht="45.95" customHeight="1">
       <c r="A621" s="36" t="s">
         <v>70</v>
       </c>
@@ -30964,7 +31174,7 @@
       <c r="P621" s="16"/>
       <c r="Q621" s="17"/>
     </row>
-    <row r="622" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" ht="45.95" customHeight="1">
       <c r="A622" s="36" t="s">
         <v>70</v>
       </c>
@@ -30993,7 +31203,7 @@
       <c r="P622" s="16"/>
       <c r="Q622" s="17"/>
     </row>
-    <row r="623" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" ht="45.95" customHeight="1">
       <c r="A623" s="36" t="s">
         <v>70</v>
       </c>
@@ -31022,7 +31232,7 @@
       <c r="P623" s="16"/>
       <c r="Q623" s="17"/>
     </row>
-    <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" ht="45.95" customHeight="1">
       <c r="A624" s="36" t="s">
         <v>70</v>
       </c>
@@ -31051,7 +31261,7 @@
       <c r="P624" s="16"/>
       <c r="Q624" s="17"/>
     </row>
-    <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17" ht="45.95" customHeight="1">
       <c r="A625" s="36" t="s">
         <v>70</v>
       </c>
@@ -31080,7 +31290,7 @@
       <c r="P625" s="16"/>
       <c r="Q625" s="17"/>
     </row>
-    <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17" ht="45.95" customHeight="1">
       <c r="A626" s="36" t="s">
         <v>70</v>
       </c>
@@ -31109,7 +31319,7 @@
       <c r="P626" s="16"/>
       <c r="Q626" s="17"/>
     </row>
-    <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17" ht="45.95" customHeight="1">
       <c r="A627" s="36" t="s">
         <v>70</v>
       </c>
@@ -31138,7 +31348,7 @@
       <c r="P627" s="16"/>
       <c r="Q627" s="17"/>
     </row>
-    <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17" ht="45.95" customHeight="1">
       <c r="A628" s="36" t="s">
         <v>70</v>
       </c>
@@ -31167,7 +31377,7 @@
       <c r="P628" s="16"/>
       <c r="Q628" s="17"/>
     </row>
-    <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17" ht="45.95" customHeight="1">
       <c r="A629" s="36" t="s">
         <v>70</v>
       </c>
@@ -31196,7 +31406,7 @@
       <c r="P629" s="16"/>
       <c r="Q629" s="17"/>
     </row>
-    <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17" ht="45.95" customHeight="1">
       <c r="A630" s="36" t="s">
         <v>70</v>
       </c>
@@ -31225,7 +31435,7 @@
       <c r="P630" s="16"/>
       <c r="Q630" s="17"/>
     </row>
-    <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17" ht="45.95" customHeight="1">
       <c r="A631" s="36" t="s">
         <v>70</v>
       </c>
@@ -31254,7 +31464,7 @@
       <c r="P631" s="16"/>
       <c r="Q631" s="17"/>
     </row>
-    <row r="632" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:17" ht="45.95" customHeight="1">
       <c r="A632" s="36" t="s">
         <v>70</v>
       </c>
@@ -31283,7 +31493,7 @@
       <c r="P632" s="16"/>
       <c r="Q632" s="17"/>
     </row>
-    <row r="633" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:17" ht="45.95" customHeight="1">
       <c r="A633" s="36" t="s">
         <v>70</v>
       </c>
@@ -31312,7 +31522,7 @@
       <c r="P633" s="16"/>
       <c r="Q633" s="17"/>
     </row>
-    <row r="634" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:17" ht="45.95" customHeight="1">
       <c r="A634" s="36" t="s">
         <v>70</v>
       </c>
@@ -31341,7 +31551,7 @@
       <c r="P634" s="16"/>
       <c r="Q634" s="17"/>
     </row>
-    <row r="635" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:17" ht="45.95" customHeight="1">
       <c r="A635" s="36" t="s">
         <v>70</v>
       </c>
@@ -31370,7 +31580,7 @@
       <c r="P635" s="16"/>
       <c r="Q635" s="17"/>
     </row>
-    <row r="636" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:17" ht="45.95" customHeight="1">
       <c r="A636" s="36" t="s">
         <v>70</v>
       </c>
@@ -31399,7 +31609,7 @@
       <c r="P636" s="16"/>
       <c r="Q636" s="17"/>
     </row>
-    <row r="637" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:17" ht="45.95" customHeight="1">
       <c r="A637" s="36" t="s">
         <v>70</v>
       </c>
@@ -31428,7 +31638,7 @@
       <c r="P637" s="16"/>
       <c r="Q637" s="17"/>
     </row>
-    <row r="638" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:17" ht="45.95" customHeight="1">
       <c r="A638" s="36" t="s">
         <v>70</v>
       </c>
@@ -31457,7 +31667,7 @@
       <c r="P638" s="16"/>
       <c r="Q638" s="17"/>
     </row>
-    <row r="639" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:17" ht="45.95" customHeight="1">
       <c r="A639" s="36" t="s">
         <v>70</v>
       </c>
@@ -31486,7 +31696,7 @@
       <c r="P639" s="16"/>
       <c r="Q639" s="17"/>
     </row>
-    <row r="640" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:17" ht="45.95" customHeight="1">
       <c r="A640" s="36" t="s">
         <v>70</v>
       </c>
@@ -31515,7 +31725,7 @@
       <c r="P640" s="16"/>
       <c r="Q640" s="17"/>
     </row>
-    <row r="641" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:17" ht="45.95" customHeight="1">
       <c r="A641" s="36" t="s">
         <v>70</v>
       </c>
@@ -31544,7 +31754,7 @@
       <c r="P641" s="16"/>
       <c r="Q641" s="17"/>
     </row>
-    <row r="642" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:17" ht="45.95" customHeight="1">
       <c r="A642" s="36" t="s">
         <v>70</v>
       </c>
@@ -31573,7 +31783,7 @@
       <c r="P642" s="16"/>
       <c r="Q642" s="17"/>
     </row>
-    <row r="643" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:17" ht="45.95" customHeight="1">
       <c r="A643" s="36" t="s">
         <v>70</v>
       </c>
@@ -31602,7 +31812,7 @@
       <c r="P643" s="16"/>
       <c r="Q643" s="17"/>
     </row>
-    <row r="644" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:17" ht="45.95" customHeight="1">
       <c r="A644" s="36" t="s">
         <v>70</v>
       </c>
@@ -31631,7 +31841,7 @@
       <c r="P644" s="16"/>
       <c r="Q644" s="17"/>
     </row>
-    <row r="645" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:17" ht="45.95" customHeight="1">
       <c r="A645" s="36" t="s">
         <v>70</v>
       </c>
@@ -31660,7 +31870,7 @@
       <c r="P645" s="16"/>
       <c r="Q645" s="17"/>
     </row>
-    <row r="646" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:17" ht="45.95" customHeight="1">
       <c r="A646" s="36" t="s">
         <v>70</v>
       </c>
@@ -31689,7 +31899,7 @@
       <c r="P646" s="16"/>
       <c r="Q646" s="17"/>
     </row>
-    <row r="647" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:17" ht="45.95" customHeight="1">
       <c r="A647" s="36" t="s">
         <v>70</v>
       </c>
@@ -31718,7 +31928,7 @@
       <c r="P647" s="16"/>
       <c r="Q647" s="17"/>
     </row>
-    <row r="648" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:17" ht="45.95" customHeight="1">
       <c r="A648" s="36" t="s">
         <v>70</v>
       </c>
@@ -31747,7 +31957,7 @@
       <c r="P648" s="16"/>
       <c r="Q648" s="17"/>
     </row>
-    <row r="649" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:17" ht="45.95" customHeight="1">
       <c r="A649" s="36" t="s">
         <v>70</v>
       </c>
@@ -31776,7 +31986,7 @@
       <c r="P649" s="16"/>
       <c r="Q649" s="17"/>
     </row>
-    <row r="650" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:17" ht="45.95" customHeight="1">
       <c r="A650" s="36" t="s">
         <v>70</v>
       </c>
@@ -31805,7 +32015,7 @@
       <c r="P650" s="16"/>
       <c r="Q650" s="17"/>
     </row>
-    <row r="651" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:17" ht="45.95" customHeight="1">
       <c r="A651" s="36" t="s">
         <v>70</v>
       </c>
@@ -31834,7 +32044,7 @@
       <c r="P651" s="16"/>
       <c r="Q651" s="17"/>
     </row>
-    <row r="652" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:17" ht="45.95" customHeight="1">
       <c r="A652" s="36" t="s">
         <v>70</v>
       </c>
@@ -31863,7 +32073,7 @@
       <c r="P652" s="16"/>
       <c r="Q652" s="17"/>
     </row>
-    <row r="653" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:17" ht="45.95" customHeight="1">
       <c r="A653" s="36" t="s">
         <v>70</v>
       </c>
@@ -31892,7 +32102,7 @@
       <c r="P653" s="16"/>
       <c r="Q653" s="17"/>
     </row>
-    <row r="654" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:17" ht="45.95" customHeight="1">
       <c r="A654" s="36" t="s">
         <v>70</v>
       </c>
@@ -31921,7 +32131,7 @@
       <c r="P654" s="16"/>
       <c r="Q654" s="17"/>
     </row>
-    <row r="655" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:17" ht="45.95" customHeight="1">
       <c r="A655" s="36" t="s">
         <v>70</v>
       </c>
@@ -31950,7 +32160,7 @@
       <c r="P655" s="16"/>
       <c r="Q655" s="17"/>
     </row>
-    <row r="656" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:17" ht="45.95" customHeight="1">
       <c r="A656" s="36" t="s">
         <v>70</v>
       </c>
@@ -31979,7 +32189,7 @@
       <c r="P656" s="16"/>
       <c r="Q656" s="17"/>
     </row>
-    <row r="657" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:17" ht="45.95" customHeight="1">
       <c r="A657" s="36" t="s">
         <v>70</v>
       </c>
@@ -32008,7 +32218,7 @@
       <c r="P657" s="16"/>
       <c r="Q657" s="17"/>
     </row>
-    <row r="658" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:17" ht="45.95" customHeight="1">
       <c r="A658" s="36" t="s">
         <v>70</v>
       </c>
@@ -32037,7 +32247,7 @@
       <c r="P658" s="16"/>
       <c r="Q658" s="17"/>
     </row>
-    <row r="659" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:17" ht="45.95" customHeight="1">
       <c r="A659" s="36" t="s">
         <v>70</v>
       </c>
@@ -32066,7 +32276,7 @@
       <c r="P659" s="16"/>
       <c r="Q659" s="17"/>
     </row>
-    <row r="660" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:17" ht="45.95" customHeight="1">
       <c r="A660" s="36" t="s">
         <v>70</v>
       </c>
@@ -32095,7 +32305,7 @@
       <c r="P660" s="16"/>
       <c r="Q660" s="17"/>
     </row>
-    <row r="661" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:17" ht="45.95" customHeight="1">
       <c r="A661" s="36" t="s">
         <v>70</v>
       </c>
@@ -32124,7 +32334,7 @@
       <c r="P661" s="16"/>
       <c r="Q661" s="17"/>
     </row>
-    <row r="662" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:17" ht="45.95" customHeight="1">
       <c r="A662" s="36" t="s">
         <v>2546</v>
       </c>
@@ -32157,7 +32367,7 @@
       <c r="P662" s="16"/>
       <c r="Q662" s="17"/>
     </row>
-    <row r="663" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:17" ht="45.95" customHeight="1">
       <c r="A663" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32182,7 +32392,7 @@
       <c r="P663" s="16"/>
       <c r="Q663" s="17"/>
     </row>
-    <row r="664" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:17" ht="45.95" customHeight="1">
       <c r="A664" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32207,7 +32417,7 @@
       <c r="P664" s="16"/>
       <c r="Q664" s="17"/>
     </row>
-    <row r="665" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:17" ht="45.95" customHeight="1">
       <c r="A665" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32232,7 +32442,7 @@
       <c r="P665" s="16"/>
       <c r="Q665" s="17"/>
     </row>
-    <row r="666" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:17" ht="45.95" customHeight="1">
       <c r="A666" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32257,7 +32467,7 @@
       <c r="P666" s="16"/>
       <c r="Q666" s="17"/>
     </row>
-    <row r="667" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:17" ht="45.95" customHeight="1">
       <c r="A667" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32282,7 +32492,7 @@
       <c r="P667" s="16"/>
       <c r="Q667" s="17"/>
     </row>
-    <row r="668" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:17" ht="45.95" customHeight="1">
       <c r="A668" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32307,7 +32517,7 @@
       <c r="P668" s="16"/>
       <c r="Q668" s="17"/>
     </row>
-    <row r="669" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:17" ht="45.95" customHeight="1">
       <c r="A669" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32332,7 +32542,7 @@
       <c r="P669" s="16"/>
       <c r="Q669" s="17"/>
     </row>
-    <row r="670" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:17" ht="45.95" customHeight="1">
       <c r="A670" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32357,7 +32567,7 @@
       <c r="P670" s="16"/>
       <c r="Q670" s="17"/>
     </row>
-    <row r="671" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:17" ht="45.95" customHeight="1">
       <c r="A671" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32382,7 +32592,7 @@
       <c r="P671" s="16"/>
       <c r="Q671" s="17"/>
     </row>
-    <row r="672" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:17" ht="45.95" customHeight="1">
       <c r="A672" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32407,7 +32617,7 @@
       <c r="P672" s="16"/>
       <c r="Q672" s="17"/>
     </row>
-    <row r="673" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:17" ht="45.95" customHeight="1">
       <c r="A673" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32432,7 +32642,7 @@
       <c r="P673" s="16"/>
       <c r="Q673" s="17"/>
     </row>
-    <row r="674" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:17" ht="45.95" customHeight="1">
       <c r="A674" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32457,7 +32667,7 @@
       <c r="P674" s="16"/>
       <c r="Q674" s="17"/>
     </row>
-    <row r="675" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:17" ht="45.95" customHeight="1">
       <c r="A675" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32482,7 +32692,7 @@
       <c r="P675" s="16"/>
       <c r="Q675" s="17"/>
     </row>
-    <row r="676" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:17" ht="45.95" customHeight="1">
       <c r="A676" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32507,7 +32717,7 @@
       <c r="P676" s="16"/>
       <c r="Q676" s="17"/>
     </row>
-    <row r="677" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:17" ht="45.95" customHeight="1">
       <c r="A677" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32532,7 +32742,7 @@
       <c r="P677" s="16"/>
       <c r="Q677" s="17"/>
     </row>
-    <row r="678" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:17" ht="45.95" customHeight="1">
       <c r="A678" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32557,7 +32767,7 @@
       <c r="P678" s="16"/>
       <c r="Q678" s="17"/>
     </row>
-    <row r="679" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:17" ht="45.95" customHeight="1">
       <c r="A679" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32582,7 +32792,7 @@
       <c r="P679" s="16"/>
       <c r="Q679" s="17"/>
     </row>
-    <row r="680" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:17" ht="45.95" customHeight="1">
       <c r="A680" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32607,7 +32817,7 @@
       <c r="P680" s="16"/>
       <c r="Q680" s="17"/>
     </row>
-    <row r="681" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:17" ht="45.95" customHeight="1">
       <c r="A681" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32632,7 +32842,7 @@
       <c r="P681" s="16"/>
       <c r="Q681" s="17"/>
     </row>
-    <row r="682" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:17" ht="45.95" customHeight="1">
       <c r="A682" s="36" t="s">
         <v>2591</v>
       </c>
@@ -32657,7 +32867,7 @@
       <c r="P682" s="16"/>
       <c r="Q682" s="17"/>
     </row>
-    <row r="683" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:17" ht="45.95" customHeight="1">
       <c r="A683" s="36" t="s">
         <v>2596</v>
       </c>
@@ -32694,7 +32904,7 @@
       <c r="P683" s="16"/>
       <c r="Q683" s="17"/>
     </row>
-    <row r="684" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:17" ht="45.95" customHeight="1">
       <c r="A684" s="36" t="s">
         <v>2596</v>
       </c>
@@ -32733,7 +32943,7 @@
       <c r="P684" s="16"/>
       <c r="Q684" s="17"/>
     </row>
-    <row r="685" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:17" ht="45.95" customHeight="1">
       <c r="A685" s="36" t="s">
         <v>2596</v>
       </c>
@@ -32774,7 +32984,7 @@
       <c r="P685" s="16"/>
       <c r="Q685" s="17"/>
     </row>
-    <row r="686" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:17" ht="45.95" customHeight="1">
       <c r="A686" s="36" t="s">
         <v>2596</v>
       </c>
@@ -32803,7 +33013,7 @@
       <c r="P686" s="16"/>
       <c r="Q686" s="17"/>
     </row>
-    <row r="687" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:17" ht="45.95" customHeight="1">
       <c r="A687" s="36" t="s">
         <v>2596</v>
       </c>
@@ -32836,7 +33046,7 @@
       <c r="P687" s="16"/>
       <c r="Q687" s="17"/>
     </row>
-    <row r="688" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:17" ht="45.95" customHeight="1">
       <c r="A688" s="36" t="s">
         <v>2633</v>
       </c>
@@ -32867,7 +33077,7 @@
       <c r="P688" s="16"/>
       <c r="Q688" s="17"/>
     </row>
-    <row r="689" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17" ht="45.95" customHeight="1">
       <c r="A689" s="36" t="s">
         <v>2633</v>
       </c>
@@ -32894,7 +33104,7 @@
       <c r="P689" s="16"/>
       <c r="Q689" s="17"/>
     </row>
-    <row r="690" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" ht="45.95" customHeight="1">
       <c r="A690" s="36" t="s">
         <v>2633</v>
       </c>
@@ -32931,7 +33141,7 @@
       <c r="P690" s="16"/>
       <c r="Q690" s="17"/>
     </row>
-    <row r="691" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" ht="45.95" customHeight="1">
       <c r="A691" s="36" t="s">
         <v>2633</v>
       </c>
@@ -32962,7 +33172,7 @@
       <c r="P691" s="16"/>
       <c r="Q691" s="17"/>
     </row>
-    <row r="692" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" ht="45.95" customHeight="1">
       <c r="A692" s="36" t="s">
         <v>2633</v>
       </c>
@@ -32991,7 +33201,7 @@
       <c r="P692" s="16"/>
       <c r="Q692" s="17"/>
     </row>
-    <row r="693" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" ht="45.95" customHeight="1">
       <c r="A693" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33022,7 +33232,7 @@
       <c r="P693" s="16"/>
       <c r="Q693" s="17"/>
     </row>
-    <row r="694" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" ht="45.95" customHeight="1">
       <c r="A694" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33051,7 +33261,7 @@
       <c r="P694" s="16"/>
       <c r="Q694" s="17"/>
     </row>
-    <row r="695" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" ht="45.95" customHeight="1">
       <c r="A695" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33082,7 +33292,7 @@
       <c r="P695" s="16"/>
       <c r="Q695" s="17"/>
     </row>
-    <row r="696" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" ht="45.95" customHeight="1">
       <c r="A696" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33117,7 +33327,7 @@
       <c r="P696" s="16"/>
       <c r="Q696" s="17"/>
     </row>
-    <row r="697" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" ht="45.95" customHeight="1">
       <c r="A697" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33150,7 +33360,7 @@
       <c r="P697" s="16"/>
       <c r="Q697" s="17"/>
     </row>
-    <row r="698" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" ht="45.95" customHeight="1">
       <c r="A698" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33179,7 +33389,7 @@
       <c r="P698" s="16"/>
       <c r="Q698" s="17"/>
     </row>
-    <row r="699" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" ht="45.95" customHeight="1">
       <c r="A699" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33210,7 +33420,7 @@
       <c r="P699" s="16"/>
       <c r="Q699" s="17"/>
     </row>
-    <row r="700" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" ht="45.95" customHeight="1">
       <c r="A700" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33224,7 +33434,7 @@
       <c r="G700" s="34" t="s">
         <v>2695</v>
       </c>
-      <c r="H700" s="37" t="s">
+      <c r="H700" s="41" t="s">
         <v>2694</v>
       </c>
       <c r="I700" s="14"/>
@@ -33241,33 +33451,51 @@
       <c r="P700" s="16"/>
       <c r="Q700" s="17"/>
     </row>
-    <row r="701" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" ht="45.95" customHeight="1">
       <c r="A701" s="20"/>
-      <c r="B701" s="35"/>
+      <c r="B701" s="42" t="s">
+        <v>2697</v>
+      </c>
       <c r="C701" s="48"/>
       <c r="D701" s="14"/>
       <c r="E701" s="14"/>
       <c r="F701" s="14"/>
-      <c r="G701" s="34"/>
-      <c r="H701" s="15"/>
+      <c r="G701" s="40" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H701" s="41" t="s">
+        <v>2699</v>
+      </c>
       <c r="I701" s="14"/>
       <c r="J701" s="14"/>
-      <c r="K701" s="14"/>
-      <c r="L701" s="14"/>
+      <c r="K701" s="40" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L701" s="14" t="s">
+        <v>2703</v>
+      </c>
       <c r="M701" s="14"/>
       <c r="N701" s="14"/>
       <c r="O701" s="14"/>
       <c r="P701" s="16"/>
       <c r="Q701" s="17"/>
     </row>
-    <row r="702" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" ht="45.95" customHeight="1">
       <c r="A702" s="20"/>
-      <c r="B702" s="35"/>
-      <c r="C702" s="48"/>
-      <c r="D702" s="14"/>
+      <c r="B702" s="42" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C702" s="49" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D702" s="40" t="s">
+        <v>2702</v>
+      </c>
       <c r="E702" s="14"/>
       <c r="F702" s="14"/>
-      <c r="G702" s="34"/>
+      <c r="G702" s="40" t="s">
+        <v>2707</v>
+      </c>
       <c r="H702" s="15"/>
       <c r="I702" s="14"/>
       <c r="J702" s="14"/>
@@ -33279,113 +33507,173 @@
       <c r="P702" s="16"/>
       <c r="Q702" s="17"/>
     </row>
-    <row r="703" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" ht="45.95" customHeight="1">
       <c r="A703" s="20"/>
-      <c r="B703" s="35"/>
+      <c r="B703" s="42" t="s">
+        <v>2705</v>
+      </c>
       <c r="C703" s="48"/>
       <c r="D703" s="14"/>
       <c r="E703" s="14"/>
       <c r="F703" s="14"/>
       <c r="G703" s="34"/>
-      <c r="H703" s="15"/>
+      <c r="H703" s="41" t="s">
+        <v>2708</v>
+      </c>
       <c r="I703" s="14"/>
       <c r="J703" s="14"/>
-      <c r="K703" s="14"/>
-      <c r="L703" s="14"/>
+      <c r="K703" s="40" t="s">
+        <v>2706</v>
+      </c>
+      <c r="L703" s="14" t="s">
+        <v>2710</v>
+      </c>
       <c r="M703" s="14"/>
       <c r="N703" s="14"/>
       <c r="O703" s="14"/>
       <c r="P703" s="16"/>
       <c r="Q703" s="17"/>
     </row>
-    <row r="704" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" ht="45.95" customHeight="1">
       <c r="A704" s="20"/>
-      <c r="B704" s="35"/>
+      <c r="B704" s="42" t="s">
+        <v>2701</v>
+      </c>
       <c r="C704" s="48"/>
       <c r="D704" s="14"/>
       <c r="E704" s="14"/>
       <c r="F704" s="14"/>
-      <c r="G704" s="34"/>
-      <c r="H704" s="15"/>
+      <c r="G704" s="40" t="s">
+        <v>2712</v>
+      </c>
+      <c r="H704" s="41" t="s">
+        <v>2713</v>
+      </c>
       <c r="I704" s="14"/>
       <c r="J704" s="14"/>
       <c r="K704" s="14"/>
-      <c r="L704" s="14"/>
+      <c r="L704" s="14" t="s">
+        <v>2711</v>
+      </c>
       <c r="M704" s="14"/>
       <c r="N704" s="14"/>
       <c r="O704" s="14"/>
       <c r="P704" s="16"/>
       <c r="Q704" s="17"/>
     </row>
-    <row r="705" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:17" ht="45.95" customHeight="1">
       <c r="A705" s="20"/>
-      <c r="B705" s="35"/>
+      <c r="B705" s="42" t="s">
+        <v>2714</v>
+      </c>
       <c r="C705" s="48"/>
       <c r="D705" s="14"/>
       <c r="E705" s="14"/>
       <c r="F705" s="14"/>
-      <c r="G705" s="34"/>
-      <c r="H705" s="15"/>
+      <c r="G705" s="40" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H705" s="41" t="s">
+        <v>2717</v>
+      </c>
       <c r="I705" s="14"/>
       <c r="J705" s="14"/>
-      <c r="K705" s="14"/>
-      <c r="L705" s="14"/>
-      <c r="M705" s="14"/>
+      <c r="K705" s="40" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L705" s="14" t="s">
+        <v>2716</v>
+      </c>
+      <c r="M705" s="14" t="s">
+        <v>2718</v>
+      </c>
       <c r="N705" s="14"/>
       <c r="O705" s="14"/>
       <c r="P705" s="16"/>
       <c r="Q705" s="17"/>
     </row>
-    <row r="706" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:17" ht="45.95" customHeight="1">
       <c r="A706" s="20"/>
-      <c r="B706" s="35"/>
+      <c r="B706" s="42" t="s">
+        <v>2719</v>
+      </c>
       <c r="C706" s="48"/>
       <c r="D706" s="14"/>
       <c r="E706" s="14"/>
       <c r="F706" s="14"/>
-      <c r="G706" s="34"/>
-      <c r="H706" s="15"/>
+      <c r="G706" s="40" t="s">
+        <v>2722</v>
+      </c>
+      <c r="H706" s="41" t="s">
+        <v>2721</v>
+      </c>
       <c r="I706" s="14"/>
       <c r="J706" s="14"/>
-      <c r="K706" s="14"/>
-      <c r="L706" s="14"/>
+      <c r="K706" s="40" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L706" s="14" t="s">
+        <v>2723</v>
+      </c>
       <c r="M706" s="14"/>
       <c r="N706" s="14"/>
       <c r="O706" s="14"/>
       <c r="P706" s="16"/>
       <c r="Q706" s="17"/>
     </row>
-    <row r="707" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:17" ht="45.95" customHeight="1">
       <c r="A707" s="20"/>
-      <c r="B707" s="35"/>
+      <c r="B707" s="42" t="s">
+        <v>2724</v>
+      </c>
       <c r="C707" s="48"/>
       <c r="D707" s="14"/>
       <c r="E707" s="14"/>
       <c r="F707" s="14"/>
-      <c r="G707" s="34"/>
-      <c r="H707" s="15"/>
+      <c r="G707" s="40" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H707" s="41" t="s">
+        <v>2726</v>
+      </c>
       <c r="I707" s="14"/>
       <c r="J707" s="14"/>
-      <c r="K707" s="14"/>
-      <c r="L707" s="14"/>
-      <c r="M707" s="14"/>
+      <c r="K707" s="40" t="s">
+        <v>2725</v>
+      </c>
+      <c r="L707" s="14" t="s">
+        <v>2727</v>
+      </c>
+      <c r="M707" s="14" t="s">
+        <v>2729</v>
+      </c>
       <c r="N707" s="14"/>
-      <c r="O707" s="14"/>
+      <c r="O707" s="14" t="s">
+        <v>2728</v>
+      </c>
       <c r="P707" s="16"/>
       <c r="Q707" s="17"/>
     </row>
-    <row r="708" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:17" ht="45.95" customHeight="1">
       <c r="A708" s="20"/>
-      <c r="B708" s="35"/>
-      <c r="C708" s="48"/>
+      <c r="B708" s="42" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C708" s="49" t="s">
+        <v>2732</v>
+      </c>
       <c r="D708" s="14"/>
       <c r="E708" s="14"/>
       <c r="F708" s="14"/>
-      <c r="G708" s="34"/>
+      <c r="G708" s="40" t="s">
+        <v>2709</v>
+      </c>
       <c r="H708" s="15"/>
       <c r="I708" s="14"/>
       <c r="J708" s="14"/>
-      <c r="K708" s="14"/>
+      <c r="K708" s="40" t="s">
+        <v>2731</v>
+      </c>
       <c r="L708" s="14"/>
       <c r="M708" s="14"/>
       <c r="N708" s="14"/>
@@ -33393,18 +33681,28 @@
       <c r="P708" s="16"/>
       <c r="Q708" s="17"/>
     </row>
-    <row r="709" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:17" ht="45.95" customHeight="1">
       <c r="A709" s="20"/>
-      <c r="B709" s="35"/>
-      <c r="C709" s="48"/>
+      <c r="B709" s="42" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C709" s="49" t="s">
+        <v>2735</v>
+      </c>
       <c r="D709" s="14"/>
       <c r="E709" s="14"/>
       <c r="F709" s="14"/>
-      <c r="G709" s="34"/>
-      <c r="H709" s="15"/>
+      <c r="G709" s="40" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H709" s="41" t="s">
+        <v>2734</v>
+      </c>
       <c r="I709" s="14"/>
       <c r="J709" s="14"/>
-      <c r="K709" s="14"/>
+      <c r="K709" s="40" t="s">
+        <v>2736</v>
+      </c>
       <c r="L709" s="14"/>
       <c r="M709" s="14"/>
       <c r="N709" s="14"/>
@@ -33412,64 +33710,94 @@
       <c r="P709" s="16"/>
       <c r="Q709" s="17"/>
     </row>
-    <row r="710" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:17" ht="45.95" customHeight="1">
       <c r="A710" s="20"/>
-      <c r="B710" s="35"/>
+      <c r="B710" s="42" t="s">
+        <v>2737</v>
+      </c>
       <c r="C710" s="48"/>
       <c r="D710" s="14"/>
       <c r="E710" s="14"/>
       <c r="F710" s="14"/>
-      <c r="G710" s="34"/>
-      <c r="H710" s="15"/>
+      <c r="G710" s="40" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H710" s="41" t="s">
+        <v>2739</v>
+      </c>
       <c r="I710" s="14"/>
       <c r="J710" s="14"/>
-      <c r="K710" s="14"/>
-      <c r="L710" s="14"/>
+      <c r="K710" s="40" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L710" s="14" t="s">
+        <v>2740</v>
+      </c>
       <c r="M710" s="14"/>
       <c r="N710" s="14"/>
       <c r="O710" s="14"/>
       <c r="P710" s="16"/>
       <c r="Q710" s="17"/>
     </row>
-    <row r="711" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:17" ht="45.95" customHeight="1">
       <c r="A711" s="20"/>
-      <c r="B711" s="35"/>
+      <c r="B711" s="42" t="s">
+        <v>2741</v>
+      </c>
       <c r="C711" s="48"/>
       <c r="D711" s="14"/>
       <c r="E711" s="14"/>
       <c r="F711" s="14"/>
-      <c r="G711" s="34"/>
-      <c r="H711" s="15"/>
+      <c r="G711" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H711" s="41" t="s">
+        <v>2742</v>
+      </c>
       <c r="I711" s="14"/>
       <c r="J711" s="14"/>
-      <c r="K711" s="14"/>
-      <c r="L711" s="14"/>
+      <c r="K711" s="40" t="s">
+        <v>2743</v>
+      </c>
+      <c r="L711" s="14" t="s">
+        <v>2744</v>
+      </c>
       <c r="M711" s="14"/>
       <c r="N711" s="14"/>
       <c r="O711" s="14"/>
       <c r="P711" s="16"/>
       <c r="Q711" s="17"/>
     </row>
-    <row r="712" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:17" ht="45.95" customHeight="1">
       <c r="A712" s="20"/>
-      <c r="B712" s="35"/>
+      <c r="B712" s="42" t="s">
+        <v>2745</v>
+      </c>
       <c r="C712" s="48"/>
       <c r="D712" s="14"/>
       <c r="E712" s="14"/>
       <c r="F712" s="14"/>
-      <c r="G712" s="34"/>
-      <c r="H712" s="15"/>
+      <c r="G712" s="40" t="s">
+        <v>2709</v>
+      </c>
+      <c r="H712" s="41" t="s">
+        <v>2747</v>
+      </c>
       <c r="I712" s="14"/>
       <c r="J712" s="14"/>
-      <c r="K712" s="14"/>
-      <c r="L712" s="14"/>
+      <c r="K712" s="40" t="s">
+        <v>2746</v>
+      </c>
+      <c r="L712" s="14" t="s">
+        <v>2748</v>
+      </c>
       <c r="M712" s="14"/>
       <c r="N712" s="14"/>
       <c r="O712" s="14"/>
       <c r="P712" s="16"/>
       <c r="Q712" s="17"/>
     </row>
-    <row r="713" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:17" ht="45.95" customHeight="1">
       <c r="A713" s="20"/>
       <c r="B713" s="35"/>
       <c r="C713" s="48"/>
@@ -33488,7 +33816,7 @@
       <c r="P713" s="16"/>
       <c r="Q713" s="17"/>
     </row>
-    <row r="714" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:17" ht="45.95" customHeight="1">
       <c r="A714" s="20"/>
       <c r="B714" s="35"/>
       <c r="C714" s="48"/>
@@ -33507,7 +33835,7 @@
       <c r="P714" s="16"/>
       <c r="Q714" s="17"/>
     </row>
-    <row r="715" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:17" ht="45.95" customHeight="1">
       <c r="A715" s="20"/>
       <c r="B715" s="35"/>
       <c r="C715" s="48"/>
@@ -33526,7 +33854,7 @@
       <c r="P715" s="16"/>
       <c r="Q715" s="17"/>
     </row>
-    <row r="716" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:17" ht="45.95" customHeight="1">
       <c r="A716" s="20"/>
       <c r="B716" s="35"/>
       <c r="C716" s="48"/>
@@ -33545,7 +33873,7 @@
       <c r="P716" s="16"/>
       <c r="Q716" s="17"/>
     </row>
-    <row r="717" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:17" ht="45.95" customHeight="1">
       <c r="A717" s="20"/>
       <c r="B717" s="35"/>
       <c r="C717" s="48"/>
@@ -33564,7 +33892,7 @@
       <c r="P717" s="16"/>
       <c r="Q717" s="17"/>
     </row>
-    <row r="718" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:17" ht="45.95" customHeight="1">
       <c r="A718" s="20"/>
       <c r="B718" s="35"/>
       <c r="C718" s="48"/>
@@ -33583,7 +33911,7 @@
       <c r="P718" s="16"/>
       <c r="Q718" s="17"/>
     </row>
-    <row r="719" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:17" ht="45.95" customHeight="1">
       <c r="A719" s="20"/>
       <c r="B719" s="35"/>
       <c r="C719" s="48"/>
@@ -33602,7 +33930,7 @@
       <c r="P719" s="16"/>
       <c r="Q719" s="17"/>
     </row>
-    <row r="720" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:17" ht="45.95" customHeight="1">
       <c r="A720" s="20"/>
       <c r="B720" s="35"/>
       <c r="C720" s="48"/>
@@ -33621,7 +33949,7 @@
       <c r="P720" s="16"/>
       <c r="Q720" s="17"/>
     </row>
-    <row r="721" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:17" ht="45.95" customHeight="1">
       <c r="A721" s="20"/>
       <c r="B721" s="35"/>
       <c r="C721" s="48"/>
@@ -33640,7 +33968,7 @@
       <c r="P721" s="16"/>
       <c r="Q721" s="17"/>
     </row>
-    <row r="722" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:17" ht="45.95" customHeight="1">
       <c r="A722" s="20"/>
       <c r="B722" s="35"/>
       <c r="C722" s="48"/>
@@ -33659,7 +33987,7 @@
       <c r="P722" s="16"/>
       <c r="Q722" s="17"/>
     </row>
-    <row r="723" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:17" ht="45.95" customHeight="1">
       <c r="A723" s="20"/>
       <c r="B723" s="35"/>
       <c r="C723" s="48"/>
@@ -33678,7 +34006,7 @@
       <c r="P723" s="16"/>
       <c r="Q723" s="17"/>
     </row>
-    <row r="724" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:17" ht="45.95" customHeight="1">
       <c r="A724" s="20"/>
       <c r="B724" s="35"/>
       <c r="C724" s="48"/>
@@ -33697,7 +34025,7 @@
       <c r="P724" s="16"/>
       <c r="Q724" s="17"/>
     </row>
-    <row r="725" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:17" ht="45.95" customHeight="1">
       <c r="A725" s="20"/>
       <c r="B725" s="35"/>
       <c r="C725" s="48"/>
@@ -33716,7 +34044,7 @@
       <c r="P725" s="16"/>
       <c r="Q725" s="17"/>
     </row>
-    <row r="726" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:17" ht="45.95" customHeight="1">
       <c r="A726" s="20"/>
       <c r="B726" s="35"/>
       <c r="C726" s="48"/>
@@ -33735,7 +34063,7 @@
       <c r="P726" s="16"/>
       <c r="Q726" s="17"/>
     </row>
-    <row r="727" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:17" ht="45.95" customHeight="1">
       <c r="A727" s="20"/>
       <c r="B727" s="35"/>
       <c r="C727" s="48"/>
@@ -33754,7 +34082,7 @@
       <c r="P727" s="16"/>
       <c r="Q727" s="17"/>
     </row>
-    <row r="728" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:17" ht="45.95" customHeight="1">
       <c r="A728" s="20"/>
       <c r="B728" s="35"/>
       <c r="C728" s="48"/>
@@ -33773,7 +34101,7 @@
       <c r="P728" s="16"/>
       <c r="Q728" s="17"/>
     </row>
-    <row r="729" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:17" ht="45.95" customHeight="1">
       <c r="A729" s="20"/>
       <c r="B729" s="35"/>
       <c r="C729" s="48"/>
@@ -33792,7 +34120,7 @@
       <c r="P729" s="16"/>
       <c r="Q729" s="17"/>
     </row>
-    <row r="730" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:17" ht="45.95" customHeight="1">
       <c r="A730" s="20"/>
       <c r="B730" s="35"/>
       <c r="C730" s="48"/>
@@ -33811,7 +34139,7 @@
       <c r="P730" s="16"/>
       <c r="Q730" s="17"/>
     </row>
-    <row r="731" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:17" ht="45.95" customHeight="1">
       <c r="A731" s="20"/>
       <c r="B731" s="35"/>
       <c r="C731" s="48"/>
@@ -33830,7 +34158,7 @@
       <c r="P731" s="16"/>
       <c r="Q731" s="17"/>
     </row>
-    <row r="732" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:17" ht="45.95" customHeight="1">
       <c r="A732" s="20"/>
       <c r="B732" s="35"/>
       <c r="C732" s="48"/>
@@ -33849,7 +34177,7 @@
       <c r="P732" s="16"/>
       <c r="Q732" s="17"/>
     </row>
-    <row r="733" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:17" ht="45.95" customHeight="1">
       <c r="A733" s="20"/>
       <c r="B733" s="35"/>
       <c r="C733" s="48"/>
@@ -33868,7 +34196,7 @@
       <c r="P733" s="16"/>
       <c r="Q733" s="17"/>
     </row>
-    <row r="734" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:17" ht="45.95" customHeight="1">
       <c r="A734" s="20"/>
       <c r="B734" s="13"/>
       <c r="C734" s="45"/>
@@ -33887,7 +34215,7 @@
       <c r="P734" s="16"/>
       <c r="Q734" s="17"/>
     </row>
-    <row r="735" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:17" ht="45.95" customHeight="1">
       <c r="A735" s="20"/>
       <c r="B735" s="35"/>
       <c r="C735" s="48"/>
@@ -33906,7 +34234,7 @@
       <c r="P735" s="16"/>
       <c r="Q735" s="17"/>
     </row>
-    <row r="736" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:17" ht="45.95" customHeight="1">
       <c r="A736" s="20"/>
       <c r="B736" s="35"/>
       <c r="C736" s="48"/>
@@ -33925,7 +34253,7 @@
       <c r="P736" s="16"/>
       <c r="Q736" s="17"/>
     </row>
-    <row r="737" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:17" ht="45.95" customHeight="1">
       <c r="A737" s="20"/>
       <c r="B737" s="35"/>
       <c r="C737" s="48"/>
@@ -33944,7 +34272,7 @@
       <c r="P737" s="16"/>
       <c r="Q737" s="17"/>
     </row>
-    <row r="738" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:17" ht="45.95" customHeight="1">
       <c r="A738" s="20"/>
       <c r="B738" s="35"/>
       <c r="C738" s="48"/>
@@ -33963,7 +34291,7 @@
       <c r="P738" s="16"/>
       <c r="Q738" s="17"/>
     </row>
-    <row r="739" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:17" ht="45.95" customHeight="1">
       <c r="A739" s="20"/>
       <c r="B739" s="35"/>
       <c r="C739" s="48"/>
@@ -33982,7 +34310,7 @@
       <c r="P739" s="16"/>
       <c r="Q739" s="17"/>
     </row>
-    <row r="740" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:17" ht="45.95" customHeight="1">
       <c r="A740" s="20"/>
       <c r="B740" s="35"/>
       <c r="C740" s="48"/>
@@ -34001,7 +34329,7 @@
       <c r="P740" s="16"/>
       <c r="Q740" s="17"/>
     </row>
-    <row r="741" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:17" ht="45.95" customHeight="1">
       <c r="A741" s="20"/>
       <c r="B741" s="35"/>
       <c r="C741" s="48"/>
@@ -34020,7 +34348,7 @@
       <c r="P741" s="16"/>
       <c r="Q741" s="17"/>
     </row>
-    <row r="742" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:17" ht="45.95" customHeight="1">
       <c r="A742" s="20"/>
       <c r="B742" s="35"/>
       <c r="C742" s="48"/>
@@ -34039,7 +34367,7 @@
       <c r="P742" s="16"/>
       <c r="Q742" s="17"/>
     </row>
-    <row r="743" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:17" ht="45.95" customHeight="1">
       <c r="A743" s="20"/>
       <c r="B743" s="35"/>
       <c r="C743" s="48"/>
@@ -34058,7 +34386,7 @@
       <c r="P743" s="16"/>
       <c r="Q743" s="17"/>
     </row>
-    <row r="744" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:17" ht="45.95" customHeight="1">
       <c r="A744" s="20"/>
       <c r="B744" s="35"/>
       <c r="C744" s="48"/>
@@ -34077,7 +34405,7 @@
       <c r="P744" s="16"/>
       <c r="Q744" s="17"/>
     </row>
-    <row r="745" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:17" ht="45.95" customHeight="1">
       <c r="A745" s="20"/>
       <c r="B745" s="35"/>
       <c r="C745" s="48"/>
@@ -34096,7 +34424,7 @@
       <c r="P745" s="16"/>
       <c r="Q745" s="17"/>
     </row>
-    <row r="746" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:17" ht="45.95" customHeight="1">
       <c r="A746" s="20"/>
       <c r="B746" s="13"/>
       <c r="C746" s="45"/>
@@ -34115,7 +34443,7 @@
       <c r="P746" s="16"/>
       <c r="Q746" s="17"/>
     </row>
-    <row r="747" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:17" ht="45.95" customHeight="1">
       <c r="A747" s="20"/>
       <c r="B747" s="35"/>
       <c r="C747" s="48"/>
@@ -34134,7 +34462,7 @@
       <c r="P747" s="16"/>
       <c r="Q747" s="17"/>
     </row>
-    <row r="748" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:17" ht="45.95" customHeight="1">
       <c r="A748" s="20"/>
       <c r="B748" s="35"/>
       <c r="C748" s="48"/>
@@ -34153,7 +34481,7 @@
       <c r="P748" s="16"/>
       <c r="Q748" s="17"/>
     </row>
-    <row r="749" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:17" ht="45.95" customHeight="1">
       <c r="A749" s="20"/>
       <c r="B749" s="35"/>
       <c r="C749" s="48"/>
@@ -34172,7 +34500,7 @@
       <c r="P749" s="16"/>
       <c r="Q749" s="17"/>
     </row>
-    <row r="750" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:17" ht="45.95" customHeight="1">
       <c r="A750" s="20"/>
       <c r="B750" s="35"/>
       <c r="C750" s="48"/>
@@ -34191,7 +34519,7 @@
       <c r="P750" s="16"/>
       <c r="Q750" s="17"/>
     </row>
-    <row r="751" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:17" ht="45.95" customHeight="1">
       <c r="A751" s="20"/>
       <c r="B751" s="35"/>
       <c r="C751" s="48"/>
@@ -34210,7 +34538,7 @@
       <c r="P751" s="16"/>
       <c r="Q751" s="17"/>
     </row>
-    <row r="752" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:17" ht="45.95" customHeight="1">
       <c r="A752" s="20"/>
       <c r="B752" s="35"/>
       <c r="C752" s="48"/>
@@ -34229,7 +34557,7 @@
       <c r="P752" s="16"/>
       <c r="Q752" s="17"/>
     </row>
-    <row r="753" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:17" ht="45.95" customHeight="1">
       <c r="A753" s="20"/>
       <c r="B753" s="35"/>
       <c r="C753" s="48"/>
@@ -34248,7 +34576,7 @@
       <c r="P753" s="16"/>
       <c r="Q753" s="17"/>
     </row>
-    <row r="754" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:17" ht="45.95" customHeight="1">
       <c r="A754" s="20"/>
       <c r="B754" s="35"/>
       <c r="C754" s="48"/>
@@ -34267,7 +34595,7 @@
       <c r="P754" s="16"/>
       <c r="Q754" s="17"/>
     </row>
-    <row r="755" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:17" ht="45.95" customHeight="1">
       <c r="A755" s="20"/>
       <c r="B755" s="35"/>
       <c r="C755" s="48"/>
@@ -34286,7 +34614,7 @@
       <c r="P755" s="16"/>
       <c r="Q755" s="17"/>
     </row>
-    <row r="756" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:17" ht="45.95" customHeight="1">
       <c r="A756" s="20"/>
       <c r="B756" s="35"/>
       <c r="C756" s="48"/>
@@ -34305,7 +34633,7 @@
       <c r="P756" s="16"/>
       <c r="Q756" s="17"/>
     </row>
-    <row r="757" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:17" ht="45.95" customHeight="1">
       <c r="A757" s="20"/>
       <c r="B757" s="35"/>
       <c r="C757" s="48"/>
@@ -34324,7 +34652,7 @@
       <c r="P757" s="16"/>
       <c r="Q757" s="17"/>
     </row>
-    <row r="758" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:17" ht="45.95" customHeight="1">
       <c r="A758" s="20"/>
       <c r="B758" s="35"/>
       <c r="C758" s="48"/>
@@ -34343,7 +34671,7 @@
       <c r="P758" s="16"/>
       <c r="Q758" s="17"/>
     </row>
-    <row r="759" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:17" ht="45.95" customHeight="1">
       <c r="A759" s="20"/>
       <c r="B759" s="35"/>
       <c r="C759" s="48"/>
@@ -34362,7 +34690,7 @@
       <c r="P759" s="16"/>
       <c r="Q759" s="17"/>
     </row>
-    <row r="760" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:17" ht="45.95" customHeight="1">
       <c r="A760" s="20"/>
       <c r="B760" s="35"/>
       <c r="C760" s="48"/>
@@ -34381,7 +34709,7 @@
       <c r="P760" s="16"/>
       <c r="Q760" s="17"/>
     </row>
-    <row r="761" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:17" ht="45.95" customHeight="1">
       <c r="A761" s="20"/>
       <c r="B761" s="35"/>
       <c r="C761" s="48"/>
@@ -34400,7 +34728,7 @@
       <c r="P761" s="16"/>
       <c r="Q761" s="17"/>
     </row>
-    <row r="762" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:17" ht="45.95" customHeight="1">
       <c r="A762" s="20"/>
       <c r="B762" s="35"/>
       <c r="C762" s="48"/>
@@ -34419,7 +34747,7 @@
       <c r="P762" s="16"/>
       <c r="Q762" s="17"/>
     </row>
-    <row r="763" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:17" ht="45.95" customHeight="1">
       <c r="A763" s="20"/>
       <c r="B763" s="35"/>
       <c r="C763" s="48"/>
@@ -34438,7 +34766,7 @@
       <c r="P763" s="16"/>
       <c r="Q763" s="17"/>
     </row>
-    <row r="764" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:17" ht="45.95" customHeight="1">
       <c r="A764" s="20"/>
       <c r="B764" s="35"/>
       <c r="C764" s="48"/>
@@ -34457,7 +34785,7 @@
       <c r="P764" s="16"/>
       <c r="Q764" s="17"/>
     </row>
-    <row r="765" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:17" ht="45.95" customHeight="1">
       <c r="A765" s="20"/>
       <c r="B765" s="35"/>
       <c r="C765" s="48"/>
@@ -34476,7 +34804,7 @@
       <c r="P765" s="16"/>
       <c r="Q765" s="17"/>
     </row>
-    <row r="766" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:17" ht="45.95" customHeight="1">
       <c r="A766" s="20"/>
       <c r="B766" s="35"/>
       <c r="C766" s="48"/>
@@ -34495,7 +34823,7 @@
       <c r="P766" s="16"/>
       <c r="Q766" s="17"/>
     </row>
-    <row r="767" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:17" ht="45.95" customHeight="1">
       <c r="A767" s="20"/>
       <c r="B767" s="35"/>
       <c r="C767" s="48"/>
@@ -34514,7 +34842,7 @@
       <c r="P767" s="16"/>
       <c r="Q767" s="17"/>
     </row>
-    <row r="768" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:17" ht="45.95" customHeight="1">
       <c r="A768" s="20"/>
       <c r="B768" s="35"/>
       <c r="C768" s="48"/>
@@ -34533,7 +34861,7 @@
       <c r="P768" s="16"/>
       <c r="Q768" s="17"/>
     </row>
-    <row r="769" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:17" ht="45.95" customHeight="1">
       <c r="A769" s="20"/>
       <c r="B769" s="35"/>
       <c r="C769" s="48"/>
@@ -34552,7 +34880,7 @@
       <c r="P769" s="16"/>
       <c r="Q769" s="17"/>
     </row>
-    <row r="770" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:17" ht="45.95" customHeight="1">
       <c r="A770" s="20"/>
       <c r="B770" s="35"/>
       <c r="C770" s="48"/>
@@ -34571,7 +34899,7 @@
       <c r="P770" s="16"/>
       <c r="Q770" s="17"/>
     </row>
-    <row r="771" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:17" ht="45.95" customHeight="1">
       <c r="A771" s="20"/>
       <c r="B771" s="35"/>
       <c r="C771" s="48"/>
@@ -34590,7 +34918,7 @@
       <c r="P771" s="16"/>
       <c r="Q771" s="17"/>
     </row>
-    <row r="772" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:17" ht="45.95" customHeight="1">
       <c r="A772" s="20"/>
       <c r="B772" s="35"/>
       <c r="C772" s="48"/>
@@ -34609,7 +34937,7 @@
       <c r="P772" s="16"/>
       <c r="Q772" s="17"/>
     </row>
-    <row r="773" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:17" ht="45.95" customHeight="1">
       <c r="A773" s="20"/>
       <c r="B773" s="35"/>
       <c r="C773" s="48"/>
@@ -34628,7 +34956,7 @@
       <c r="P773" s="16"/>
       <c r="Q773" s="17"/>
     </row>
-    <row r="774" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:17" ht="45.95" customHeight="1">
       <c r="A774" s="20"/>
       <c r="B774" s="35"/>
       <c r="C774" s="48"/>
@@ -34647,7 +34975,7 @@
       <c r="P774" s="16"/>
       <c r="Q774" s="17"/>
     </row>
-    <row r="775" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:17" ht="45.95" customHeight="1">
       <c r="A775" s="20"/>
       <c r="B775" s="35"/>
       <c r="C775" s="48"/>
@@ -34666,7 +34994,7 @@
       <c r="P775" s="16"/>
       <c r="Q775" s="17"/>
     </row>
-    <row r="776" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:17" ht="45.95" customHeight="1">
       <c r="A776" s="20"/>
       <c r="B776" s="35"/>
       <c r="C776" s="48"/>
@@ -34685,7 +35013,7 @@
       <c r="P776" s="16"/>
       <c r="Q776" s="17"/>
     </row>
-    <row r="777" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:17" ht="45.95" customHeight="1">
       <c r="A777" s="20"/>
       <c r="B777" s="35"/>
       <c r="C777" s="48"/>
@@ -34704,7 +35032,7 @@
       <c r="P777" s="16"/>
       <c r="Q777" s="17"/>
     </row>
-    <row r="778" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:17" ht="45.95" customHeight="1">
       <c r="A778" s="20"/>
       <c r="B778" s="35"/>
       <c r="C778" s="48"/>
@@ -34723,7 +35051,7 @@
       <c r="P778" s="16"/>
       <c r="Q778" s="17"/>
     </row>
-    <row r="779" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:17" ht="45.95" customHeight="1">
       <c r="A779" s="20"/>
       <c r="B779" s="35"/>
       <c r="C779" s="48"/>
@@ -34742,7 +35070,7 @@
       <c r="P779" s="16"/>
       <c r="Q779" s="17"/>
     </row>
-    <row r="780" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:17" ht="45.95" customHeight="1">
       <c r="A780" s="20"/>
       <c r="B780" s="35"/>
       <c r="C780" s="48"/>
@@ -34761,7 +35089,7 @@
       <c r="P780" s="16"/>
       <c r="Q780" s="17"/>
     </row>
-    <row r="781" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:17" ht="45.95" customHeight="1">
       <c r="A781" s="20"/>
       <c r="B781" s="13"/>
       <c r="C781" s="45"/>
@@ -34780,7 +35108,7 @@
       <c r="P781" s="16"/>
       <c r="Q781" s="17"/>
     </row>
-    <row r="782" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:17" ht="45.95" customHeight="1">
       <c r="A782" s="20"/>
       <c r="B782" s="35"/>
       <c r="C782" s="48"/>
@@ -34799,7 +35127,7 @@
       <c r="P782" s="16"/>
       <c r="Q782" s="17"/>
     </row>
-    <row r="783" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:17" ht="45.95" customHeight="1">
       <c r="A783" s="20"/>
       <c r="B783" s="35"/>
       <c r="C783" s="48"/>
@@ -34818,7 +35146,7 @@
       <c r="P783" s="16"/>
       <c r="Q783" s="17"/>
     </row>
-    <row r="784" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:17" ht="45.95" customHeight="1">
       <c r="A784" s="20"/>
       <c r="B784" s="35"/>
       <c r="C784" s="48"/>
@@ -34837,7 +35165,7 @@
       <c r="P784" s="16"/>
       <c r="Q784" s="17"/>
     </row>
-    <row r="785" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:17" ht="45.95" customHeight="1">
       <c r="A785" s="20"/>
       <c r="B785" s="35"/>
       <c r="C785" s="48"/>
@@ -34856,7 +35184,7 @@
       <c r="P785" s="16"/>
       <c r="Q785" s="17"/>
     </row>
-    <row r="786" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:17" ht="45.95" customHeight="1">
       <c r="A786" s="20"/>
       <c r="B786" s="35"/>
       <c r="C786" s="48"/>
@@ -34875,7 +35203,7 @@
       <c r="P786" s="16"/>
       <c r="Q786" s="17"/>
     </row>
-    <row r="787" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:17" ht="45.95" customHeight="1">
       <c r="A787" s="20"/>
       <c r="B787" s="35"/>
       <c r="C787" s="48"/>
@@ -34894,7 +35222,7 @@
       <c r="P787" s="16"/>
       <c r="Q787" s="17"/>
     </row>
-    <row r="788" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:17" ht="45.95" customHeight="1">
       <c r="A788" s="20"/>
       <c r="B788" s="35"/>
       <c r="C788" s="48"/>
@@ -34913,7 +35241,7 @@
       <c r="P788" s="16"/>
       <c r="Q788" s="17"/>
     </row>
-    <row r="789" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:17" ht="45.95" customHeight="1">
       <c r="A789" s="20"/>
       <c r="B789" s="35"/>
       <c r="C789" s="48"/>
@@ -34932,7 +35260,7 @@
       <c r="P789" s="16"/>
       <c r="Q789" s="17"/>
     </row>
-    <row r="790" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:17" ht="45.95" customHeight="1">
       <c r="A790" s="20"/>
       <c r="B790" s="35"/>
       <c r="C790" s="48"/>
@@ -34951,7 +35279,7 @@
       <c r="P790" s="16"/>
       <c r="Q790" s="17"/>
     </row>
-    <row r="791" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:17" ht="45.95" customHeight="1">
       <c r="A791" s="20"/>
       <c r="B791" s="35"/>
       <c r="C791" s="48"/>
@@ -34970,7 +35298,7 @@
       <c r="P791" s="16"/>
       <c r="Q791" s="17"/>
     </row>
-    <row r="792" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:17" ht="45.95" customHeight="1">
       <c r="A792" s="20"/>
       <c r="B792" s="35"/>
       <c r="C792" s="48"/>
@@ -34989,7 +35317,7 @@
       <c r="P792" s="16"/>
       <c r="Q792" s="17"/>
     </row>
-    <row r="793" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:17" ht="45.95" customHeight="1">
       <c r="A793" s="20"/>
       <c r="B793" s="13"/>
       <c r="C793" s="45"/>
@@ -35008,7 +35336,7 @@
       <c r="P793" s="16"/>
       <c r="Q793" s="17"/>
     </row>
-    <row r="794" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:17" ht="45.95" customHeight="1">
       <c r="A794" s="20"/>
       <c r="B794" s="35"/>
       <c r="C794" s="48"/>
@@ -35027,7 +35355,7 @@
       <c r="P794" s="16"/>
       <c r="Q794" s="17"/>
     </row>
-    <row r="795" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:17" ht="45.95" customHeight="1">
       <c r="A795" s="20"/>
       <c r="B795" s="35"/>
       <c r="C795" s="48"/>
@@ -35046,7 +35374,7 @@
       <c r="P795" s="16"/>
       <c r="Q795" s="17"/>
     </row>
-    <row r="796" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:17" ht="45.95" customHeight="1">
       <c r="A796" s="20"/>
       <c r="B796" s="35"/>
       <c r="C796" s="48"/>
@@ -35065,7 +35393,7 @@
       <c r="P796" s="16"/>
       <c r="Q796" s="17"/>
     </row>
-    <row r="797" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:17" ht="45.95" customHeight="1">
       <c r="A797" s="20"/>
       <c r="B797" s="35"/>
       <c r="C797" s="48"/>
@@ -35084,7 +35412,7 @@
       <c r="P797" s="16"/>
       <c r="Q797" s="17"/>
     </row>
-    <row r="798" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:17" ht="45.95" customHeight="1">
       <c r="A798" s="20"/>
       <c r="B798" s="35"/>
       <c r="C798" s="48"/>
@@ -35103,7 +35431,7 @@
       <c r="P798" s="16"/>
       <c r="Q798" s="17"/>
     </row>
-    <row r="799" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:17" ht="45.95" customHeight="1">
       <c r="A799" s="20"/>
       <c r="B799" s="35"/>
       <c r="C799" s="48"/>
@@ -35122,7 +35450,7 @@
       <c r="P799" s="16"/>
       <c r="Q799" s="17"/>
     </row>
-    <row r="800" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:17" ht="45.95" customHeight="1">
       <c r="A800" s="20"/>
       <c r="B800" s="35"/>
       <c r="C800" s="48"/>
@@ -35141,7 +35469,7 @@
       <c r="P800" s="16"/>
       <c r="Q800" s="17"/>
     </row>
-    <row r="801" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:17" ht="45.95" customHeight="1">
       <c r="A801" s="20"/>
       <c r="B801" s="35"/>
       <c r="C801" s="48"/>
@@ -35160,7 +35488,7 @@
       <c r="P801" s="16"/>
       <c r="Q801" s="17"/>
     </row>
-    <row r="802" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:17" ht="45.95" customHeight="1">
       <c r="A802" s="20"/>
       <c r="B802" s="35"/>
       <c r="C802" s="48"/>
@@ -35179,7 +35507,7 @@
       <c r="P802" s="16"/>
       <c r="Q802" s="17"/>
     </row>
-    <row r="803" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:17" ht="45.95" customHeight="1">
       <c r="A803" s="20"/>
       <c r="B803" s="35"/>
       <c r="C803" s="48"/>
@@ -35198,7 +35526,7 @@
       <c r="P803" s="16"/>
       <c r="Q803" s="17"/>
     </row>
-    <row r="804" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:17" ht="45.95" customHeight="1">
       <c r="A804" s="20"/>
       <c r="B804" s="35"/>
       <c r="C804" s="48"/>
@@ -35217,7 +35545,7 @@
       <c r="P804" s="16"/>
       <c r="Q804" s="17"/>
     </row>
-    <row r="805" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:17" ht="45.95" customHeight="1">
       <c r="A805" s="20"/>
       <c r="B805" s="35"/>
       <c r="C805" s="48"/>
@@ -35236,7 +35564,7 @@
       <c r="P805" s="16"/>
       <c r="Q805" s="17"/>
     </row>
-    <row r="806" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:17" ht="45.95" customHeight="1">
       <c r="A806" s="20"/>
       <c r="B806" s="35"/>
       <c r="C806" s="48"/>
@@ -35255,7 +35583,7 @@
       <c r="P806" s="16"/>
       <c r="Q806" s="17"/>
     </row>
-    <row r="807" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:17" ht="45.95" customHeight="1">
       <c r="A807" s="20"/>
       <c r="B807" s="35"/>
       <c r="C807" s="48"/>
@@ -35274,7 +35602,7 @@
       <c r="P807" s="16"/>
       <c r="Q807" s="17"/>
     </row>
-    <row r="808" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:17" ht="45.95" customHeight="1">
       <c r="A808" s="20"/>
       <c r="B808" s="35"/>
       <c r="C808" s="48"/>
@@ -35293,7 +35621,7 @@
       <c r="P808" s="16"/>
       <c r="Q808" s="17"/>
     </row>
-    <row r="809" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:17" ht="45.95" customHeight="1">
       <c r="A809" s="20"/>
       <c r="B809" s="35"/>
       <c r="C809" s="48"/>
@@ -35312,7 +35640,7 @@
       <c r="P809" s="16"/>
       <c r="Q809" s="17"/>
     </row>
-    <row r="810" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:17" ht="45.95" customHeight="1">
       <c r="A810" s="20"/>
       <c r="B810" s="35"/>
       <c r="C810" s="48"/>
@@ -35331,7 +35659,7 @@
       <c r="P810" s="16"/>
       <c r="Q810" s="17"/>
     </row>
-    <row r="811" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:17" ht="45.95" customHeight="1">
       <c r="A811" s="20"/>
       <c r="B811" s="35"/>
       <c r="C811" s="48"/>
@@ -35350,7 +35678,7 @@
       <c r="P811" s="16"/>
       <c r="Q811" s="17"/>
     </row>
-    <row r="812" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:17" ht="45.95" customHeight="1">
       <c r="A812" s="20"/>
       <c r="B812" s="35"/>
       <c r="C812" s="48"/>
@@ -35369,7 +35697,7 @@
       <c r="P812" s="16"/>
       <c r="Q812" s="17"/>
     </row>
-    <row r="813" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:17" ht="45.95" customHeight="1">
       <c r="A813" s="20"/>
       <c r="B813" s="35"/>
       <c r="C813" s="48"/>
@@ -35388,7 +35716,7 @@
       <c r="P813" s="16"/>
       <c r="Q813" s="17"/>
     </row>
-    <row r="814" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:17" ht="45.95" customHeight="1">
       <c r="A814" s="20"/>
       <c r="B814" s="35"/>
       <c r="C814" s="48"/>
@@ -35407,7 +35735,7 @@
       <c r="P814" s="16"/>
       <c r="Q814" s="17"/>
     </row>
-    <row r="815" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:17" ht="45.95" customHeight="1">
       <c r="A815" s="20"/>
       <c r="B815" s="35"/>
       <c r="C815" s="48"/>
@@ -35426,7 +35754,7 @@
       <c r="P815" s="16"/>
       <c r="Q815" s="17"/>
     </row>
-    <row r="816" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:17" ht="45.95" customHeight="1">
       <c r="A816" s="20"/>
       <c r="B816" s="35"/>
       <c r="C816" s="48"/>
@@ -35445,7 +35773,7 @@
       <c r="P816" s="16"/>
       <c r="Q816" s="17"/>
     </row>
-    <row r="817" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:17" ht="45.95" customHeight="1">
       <c r="A817" s="20"/>
       <c r="B817" s="35"/>
       <c r="C817" s="48"/>
@@ -35464,7 +35792,7 @@
       <c r="P817" s="16"/>
       <c r="Q817" s="17"/>
     </row>
-    <row r="818" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:17" ht="45.95" customHeight="1">
       <c r="A818" s="20"/>
       <c r="B818" s="35"/>
       <c r="C818" s="48"/>
@@ -35483,7 +35811,7 @@
       <c r="P818" s="16"/>
       <c r="Q818" s="17"/>
     </row>
-    <row r="819" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:17" ht="45.95" customHeight="1">
       <c r="A819" s="20"/>
       <c r="B819" s="35"/>
       <c r="C819" s="48"/>
@@ -35502,7 +35830,7 @@
       <c r="P819" s="16"/>
       <c r="Q819" s="17"/>
     </row>
-    <row r="820" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:17" ht="45.95" customHeight="1">
       <c r="A820" s="20"/>
       <c r="B820" s="35"/>
       <c r="C820" s="48"/>
@@ -35521,7 +35849,7 @@
       <c r="P820" s="16"/>
       <c r="Q820" s="17"/>
     </row>
-    <row r="821" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:17" ht="45.95" customHeight="1">
       <c r="A821" s="20"/>
       <c r="B821" s="35"/>
       <c r="C821" s="48"/>
@@ -35540,7 +35868,7 @@
       <c r="P821" s="16"/>
       <c r="Q821" s="17"/>
     </row>
-    <row r="822" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:17" ht="45.95" customHeight="1">
       <c r="A822" s="20"/>
       <c r="B822" s="35"/>
       <c r="C822" s="48"/>
@@ -35559,7 +35887,7 @@
       <c r="P822" s="16"/>
       <c r="Q822" s="17"/>
     </row>
-    <row r="823" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:17" ht="45.95" customHeight="1">
       <c r="A823" s="20"/>
       <c r="B823" s="35"/>
       <c r="C823" s="48"/>
@@ -35578,7 +35906,7 @@
       <c r="P823" s="16"/>
       <c r="Q823" s="17"/>
     </row>
-    <row r="824" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:17" ht="45.95" customHeight="1">
       <c r="A824" s="20"/>
       <c r="B824" s="35"/>
       <c r="C824" s="48"/>
@@ -35597,7 +35925,7 @@
       <c r="P824" s="16"/>
       <c r="Q824" s="17"/>
     </row>
-    <row r="825" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:17" ht="45.95" customHeight="1">
       <c r="A825" s="20"/>
       <c r="B825" s="35"/>
       <c r="C825" s="48"/>
@@ -35616,7 +35944,7 @@
       <c r="P825" s="16"/>
       <c r="Q825" s="17"/>
     </row>
-    <row r="826" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:17" ht="45.95" customHeight="1">
       <c r="A826" s="20"/>
       <c r="B826" s="35"/>
       <c r="C826" s="48"/>
@@ -35635,7 +35963,7 @@
       <c r="P826" s="16"/>
       <c r="Q826" s="17"/>
     </row>
-    <row r="827" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:17" ht="45.95" customHeight="1">
       <c r="A827" s="20"/>
       <c r="B827" s="35"/>
       <c r="C827" s="48"/>
@@ -35654,7 +35982,7 @@
       <c r="P827" s="16"/>
       <c r="Q827" s="17"/>
     </row>
-    <row r="828" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:17" ht="45.95" customHeight="1">
       <c r="A828" s="20"/>
       <c r="B828" s="13"/>
       <c r="C828" s="45"/>
@@ -35673,7 +36001,7 @@
       <c r="P828" s="16"/>
       <c r="Q828" s="17"/>
     </row>
-    <row r="829" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:17" ht="45.95" customHeight="1">
       <c r="A829" s="20"/>
       <c r="B829" s="35"/>
       <c r="C829" s="48"/>
@@ -35692,7 +36020,7 @@
       <c r="P829" s="16"/>
       <c r="Q829" s="17"/>
     </row>
-    <row r="830" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:17" ht="45.95" customHeight="1">
       <c r="A830" s="20"/>
       <c r="B830" s="35"/>
       <c r="C830" s="48"/>
@@ -35711,7 +36039,7 @@
       <c r="P830" s="16"/>
       <c r="Q830" s="17"/>
     </row>
-    <row r="831" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:17" ht="45.95" customHeight="1">
       <c r="A831" s="20"/>
       <c r="B831" s="35"/>
       <c r="C831" s="48"/>
@@ -35730,7 +36058,7 @@
       <c r="P831" s="16"/>
       <c r="Q831" s="17"/>
     </row>
-    <row r="832" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:17" ht="45.95" customHeight="1">
       <c r="A832" s="20"/>
       <c r="B832" s="35"/>
       <c r="C832" s="48"/>
@@ -35749,7 +36077,7 @@
       <c r="P832" s="16"/>
       <c r="Q832" s="17"/>
     </row>
-    <row r="833" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" ht="45.95" customHeight="1">
       <c r="A833" s="20"/>
       <c r="B833" s="35"/>
       <c r="C833" s="48"/>
@@ -35768,7 +36096,7 @@
       <c r="P833" s="16"/>
       <c r="Q833" s="17"/>
     </row>
-    <row r="834" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" ht="45.95" customHeight="1">
       <c r="A834" s="20"/>
       <c r="B834" s="35"/>
       <c r="C834" s="48"/>
@@ -35787,7 +36115,7 @@
       <c r="P834" s="16"/>
       <c r="Q834" s="17"/>
     </row>
-    <row r="835" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" ht="45.95" customHeight="1">
       <c r="A835" s="20"/>
       <c r="B835" s="35"/>
       <c r="C835" s="48"/>
@@ -35806,7 +36134,7 @@
       <c r="P835" s="16"/>
       <c r="Q835" s="17"/>
     </row>
-    <row r="836" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" ht="45.95" customHeight="1">
       <c r="A836" s="20"/>
       <c r="B836" s="35"/>
       <c r="C836" s="48"/>
@@ -35825,7 +36153,7 @@
       <c r="P836" s="16"/>
       <c r="Q836" s="17"/>
     </row>
-    <row r="837" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" ht="45.95" customHeight="1">
       <c r="A837" s="20"/>
       <c r="B837" s="35"/>
       <c r="C837" s="48"/>
@@ -35844,7 +36172,7 @@
       <c r="P837" s="16"/>
       <c r="Q837" s="17"/>
     </row>
-    <row r="838" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" ht="45.95" customHeight="1">
       <c r="A838" s="20"/>
       <c r="B838" s="35"/>
       <c r="C838" s="48"/>
@@ -35863,7 +36191,7 @@
       <c r="P838" s="16"/>
       <c r="Q838" s="17"/>
     </row>
-    <row r="839" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" ht="45.95" customHeight="1">
       <c r="A839" s="20"/>
       <c r="B839" s="35"/>
       <c r="C839" s="48"/>
@@ -35882,7 +36210,7 @@
       <c r="P839" s="16"/>
       <c r="Q839" s="17"/>
     </row>
-    <row r="840" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" ht="45.95" customHeight="1">
       <c r="A840" s="20"/>
       <c r="B840" s="13"/>
       <c r="C840" s="45"/>
@@ -35901,7 +36229,7 @@
       <c r="P840" s="16"/>
       <c r="Q840" s="17"/>
     </row>
-    <row r="841" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" ht="45.95" customHeight="1">
       <c r="A841" s="20"/>
       <c r="B841" s="35"/>
       <c r="C841" s="48"/>
@@ -35920,7 +36248,7 @@
       <c r="P841" s="16"/>
       <c r="Q841" s="17"/>
     </row>
-    <row r="842" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" ht="45.95" customHeight="1">
       <c r="A842" s="20"/>
       <c r="B842" s="35"/>
       <c r="C842" s="48"/>
@@ -35939,7 +36267,7 @@
       <c r="P842" s="16"/>
       <c r="Q842" s="17"/>
     </row>
-    <row r="843" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" ht="45.95" customHeight="1">
       <c r="A843" s="20"/>
       <c r="B843" s="35"/>
       <c r="C843" s="48"/>
@@ -35958,7 +36286,7 @@
       <c r="P843" s="16"/>
       <c r="Q843" s="17"/>
     </row>
-    <row r="844" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" ht="45.95" customHeight="1">
       <c r="A844" s="20"/>
       <c r="B844" s="35"/>
       <c r="C844" s="48"/>
@@ -35977,7 +36305,7 @@
       <c r="P844" s="16"/>
       <c r="Q844" s="17"/>
     </row>
-    <row r="845" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" ht="45.95" customHeight="1">
       <c r="A845" s="20"/>
       <c r="B845" s="35"/>
       <c r="C845" s="48"/>
@@ -35996,7 +36324,7 @@
       <c r="P845" s="16"/>
       <c r="Q845" s="17"/>
     </row>
-    <row r="846" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" ht="45.95" customHeight="1">
       <c r="A846" s="20"/>
       <c r="B846" s="35"/>
       <c r="C846" s="48"/>
@@ -36015,7 +36343,7 @@
       <c r="P846" s="16"/>
       <c r="Q846" s="17"/>
     </row>
-    <row r="847" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:17" ht="45.95" customHeight="1">
       <c r="A847" s="20"/>
       <c r="B847" s="35"/>
       <c r="C847" s="48"/>
@@ -36034,7 +36362,7 @@
       <c r="P847" s="16"/>
       <c r="Q847" s="17"/>
     </row>
-    <row r="848" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:17" ht="45.95" customHeight="1">
       <c r="A848" s="20"/>
       <c r="B848" s="35"/>
       <c r="C848" s="48"/>
@@ -36053,7 +36381,7 @@
       <c r="P848" s="16"/>
       <c r="Q848" s="17"/>
     </row>
-    <row r="849" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:17" ht="45.95" customHeight="1">
       <c r="A849" s="20"/>
       <c r="B849" s="35"/>
       <c r="C849" s="48"/>
@@ -36072,7 +36400,7 @@
       <c r="P849" s="16"/>
       <c r="Q849" s="17"/>
     </row>
-    <row r="850" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:17" ht="45.95" customHeight="1">
       <c r="A850" s="20"/>
       <c r="B850" s="35"/>
       <c r="C850" s="48"/>
@@ -36091,7 +36419,7 @@
       <c r="P850" s="16"/>
       <c r="Q850" s="17"/>
     </row>
-    <row r="851" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:17" ht="45.95" customHeight="1">
       <c r="A851" s="20"/>
       <c r="B851" s="35"/>
       <c r="C851" s="48"/>
@@ -36110,7 +36438,7 @@
       <c r="P851" s="16"/>
       <c r="Q851" s="17"/>
     </row>
-    <row r="852" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:17" ht="45.95" customHeight="1">
       <c r="A852" s="20"/>
       <c r="B852" s="35"/>
       <c r="C852" s="48"/>
@@ -36129,7 +36457,7 @@
       <c r="P852" s="16"/>
       <c r="Q852" s="17"/>
     </row>
-    <row r="853" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:17" ht="45.95" customHeight="1">
       <c r="A853" s="20"/>
       <c r="B853" s="35"/>
       <c r="C853" s="48"/>
@@ -36148,7 +36476,7 @@
       <c r="P853" s="16"/>
       <c r="Q853" s="17"/>
     </row>
-    <row r="854" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:17" ht="45.95" customHeight="1">
       <c r="A854" s="20"/>
       <c r="B854" s="35"/>
       <c r="C854" s="48"/>
@@ -36167,7 +36495,7 @@
       <c r="P854" s="16"/>
       <c r="Q854" s="17"/>
     </row>
-    <row r="855" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:17" ht="45.95" customHeight="1">
       <c r="A855" s="20"/>
       <c r="B855" s="35"/>
       <c r="C855" s="48"/>
@@ -36186,7 +36514,7 @@
       <c r="P855" s="16"/>
       <c r="Q855" s="17"/>
     </row>
-    <row r="856" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:17" ht="45.95" customHeight="1">
       <c r="A856" s="20"/>
       <c r="B856" s="35"/>
       <c r="C856" s="48"/>
@@ -36205,7 +36533,7 @@
       <c r="P856" s="16"/>
       <c r="Q856" s="17"/>
     </row>
-    <row r="857" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:17" ht="45.95" customHeight="1">
       <c r="A857" s="20"/>
       <c r="B857" s="35"/>
       <c r="C857" s="48"/>
@@ -36224,7 +36552,7 @@
       <c r="P857" s="16"/>
       <c r="Q857" s="17"/>
     </row>
-    <row r="858" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:17" ht="45.95" customHeight="1">
       <c r="A858" s="20"/>
       <c r="B858" s="35"/>
       <c r="C858" s="48"/>
@@ -36243,7 +36571,7 @@
       <c r="P858" s="16"/>
       <c r="Q858" s="17"/>
     </row>
-    <row r="859" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:17" ht="45.95" customHeight="1">
       <c r="A859" s="20"/>
       <c r="B859" s="35"/>
       <c r="C859" s="48"/>
@@ -36262,7 +36590,7 @@
       <c r="P859" s="16"/>
       <c r="Q859" s="17"/>
     </row>
-    <row r="860" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:17" ht="45.95" customHeight="1">
       <c r="A860" s="20"/>
       <c r="B860" s="35"/>
       <c r="C860" s="48"/>
@@ -36281,7 +36609,7 @@
       <c r="P860" s="16"/>
       <c r="Q860" s="17"/>
     </row>
-    <row r="861" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:17" ht="45.95" customHeight="1">
       <c r="A861" s="20"/>
       <c r="B861" s="35"/>
       <c r="C861" s="48"/>
@@ -36300,7 +36628,7 @@
       <c r="P861" s="16"/>
       <c r="Q861" s="17"/>
     </row>
-    <row r="862" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:17" ht="45.95" customHeight="1">
       <c r="A862" s="20"/>
       <c r="B862" s="35"/>
       <c r="C862" s="48"/>
@@ -36319,7 +36647,7 @@
       <c r="P862" s="16"/>
       <c r="Q862" s="17"/>
     </row>
-    <row r="863" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:17" ht="45.95" customHeight="1">
       <c r="A863" s="20"/>
       <c r="B863" s="35"/>
       <c r="C863" s="48"/>
@@ -36338,7 +36666,7 @@
       <c r="P863" s="16"/>
       <c r="Q863" s="17"/>
     </row>
-    <row r="864" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:17" ht="45.95" customHeight="1">
       <c r="A864" s="20"/>
       <c r="B864" s="13"/>
       <c r="C864" s="45"/>
@@ -36365,20 +36693,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.875" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -36386,7 +36714,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -36394,7 +36722,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="33" t="s">
         <v>597</v>
       </c>
@@ -36402,7 +36730,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="63" t="s">
         <v>2233</v>
       </c>
@@ -36410,7 +36738,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="33" t="s">
         <v>677</v>
       </c>
@@ -36418,7 +36746,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="33" t="s">
         <v>1182</v>
       </c>
@@ -36426,7 +36754,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
         <v>1130</v>
       </c>
@@ -36434,7 +36762,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>1147</v>
       </c>
@@ -36442,12 +36770,12 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>1163</v>
       </c>
@@ -36455,7 +36783,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
         <v>1451</v>
       </c>
@@ -36466,13 +36794,13 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="39"/>
       <c r="B13" s="33" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="33" t="s">
         <v>2025</v>
       </c>
@@ -36480,7 +36808,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="60" t="s">
         <v>2238</v>
       </c>
@@ -36488,7 +36816,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="60" t="s">
         <v>2551</v>
       </c>
@@ -36496,7 +36824,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="60" t="s">
         <v>2615</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="2749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="2791">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11787,6 +11787,157 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/jessica-durando-94277120/</t>
+  </si>
+  <si>
+    <t>Melanie Eversley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MelanieEversley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award-winning NYC-based journalist. @NBCBLK contributor. Former @usatoday reporter. 23-time marathoner. @columbiajourn @NABJ @blackmarathoners @oberlincollege</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/melanieeversley</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/melanie.eversley</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/melanieeversley</t>
+  </si>
+  <si>
+    <t>https://foursquare.com/melanieeversley</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/0/107238988760382038046</t>
+  </si>
+  <si>
+    <t>Nicole Gaudiano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngaudiano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington correspondent for USA TODAY &amp; Gannett newspapers in NY, VT, DE &amp; MD. I also cover gun policy &amp; Democratic lawmakers. Email: ngaudiano@gannett.com.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngaudiano@gannett.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nicole-gaudiano-a095688/</t>
+  </si>
+  <si>
+    <t>Nicole Gill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anne Godlasky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annieisi</t>
+  </si>
+  <si>
+    <t>usatoday social content director. into words, wordsmiths, storytellers, all; new places, new foods, old beaches, old friends :)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> content director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/agodlasky/</t>
+  </si>
+  <si>
+    <t>https://annegodlasky.wordpress.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.google.com/+AnneGodlasky</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AnneGodlasky</t>
+  </si>
+  <si>
+    <t>Alan Gomez</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alangomez</t>
+  </si>
+  <si>
+    <t>Miami-based reporter for USA Today, focused on immigration and Latin America. Previously covered Congress, hurricanes, war, cops, courts and suicide squirrels.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/alan-gomez-21b1299/</t>
+  </si>
+  <si>
+    <t>Mike Gottschamer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MikeGottschamer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Making local news national at @USATODAY. All things '80s. Fan of football, fútbol, fußball, calcio, soccer and the NFL.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/michaelgottschamer/</t>
+  </si>
+  <si>
+    <t>News editor at USA Today</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maureen Groppe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgroppe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington correspondent for Gannett, writing for USA TODAY and the IndyStar. Former rifle twirler for Rensselaer Central High, current jitterbug dancer.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maureengroppe/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/maureen.groppe.7</t>
+  </si>
+  <si>
+    <t>Rick Hampson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rickhampson</t>
+  </si>
+  <si>
+    <t>National reporter, USA TODAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rick.hampson2</t>
   </si>
 </sst>
 </file>
@@ -12511,7 +12662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12519,11 +12670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R864"/>
+  <dimension ref="A1:S864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C712" sqref="C712"/>
+      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M720" sqref="M720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12533,10 +12684,10 @@
     <col min="3" max="3" width="27.875" style="46" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="19" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="19" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="19" customWidth="1"/>
     <col min="8" max="8" width="24.875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="19" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="19" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="19" customWidth="1"/>
     <col min="12" max="12" width="14.25" style="19" customWidth="1"/>
@@ -33561,7 +33712,7 @@
       <c r="P704" s="16"/>
       <c r="Q704" s="17"/>
     </row>
-    <row r="705" spans="1:17" ht="45.95" customHeight="1">
+    <row r="705" spans="1:19" ht="45.95" customHeight="1">
       <c r="A705" s="20"/>
       <c r="B705" s="42" t="s">
         <v>2714</v>
@@ -33592,7 +33743,7 @@
       <c r="P705" s="16"/>
       <c r="Q705" s="17"/>
     </row>
-    <row r="706" spans="1:17" ht="45.95" customHeight="1">
+    <row r="706" spans="1:19" ht="45.95" customHeight="1">
       <c r="A706" s="20"/>
       <c r="B706" s="42" t="s">
         <v>2719</v>
@@ -33621,7 +33772,7 @@
       <c r="P706" s="16"/>
       <c r="Q706" s="17"/>
     </row>
-    <row r="707" spans="1:17" ht="45.95" customHeight="1">
+    <row r="707" spans="1:19" ht="45.95" customHeight="1">
       <c r="A707" s="20"/>
       <c r="B707" s="42" t="s">
         <v>2724</v>
@@ -33654,7 +33805,7 @@
       <c r="P707" s="16"/>
       <c r="Q707" s="17"/>
     </row>
-    <row r="708" spans="1:17" ht="45.95" customHeight="1">
+    <row r="708" spans="1:19" ht="45.95" customHeight="1">
       <c r="A708" s="20"/>
       <c r="B708" s="42" t="s">
         <v>2730</v>
@@ -33681,7 +33832,7 @@
       <c r="P708" s="16"/>
       <c r="Q708" s="17"/>
     </row>
-    <row r="709" spans="1:17" ht="45.95" customHeight="1">
+    <row r="709" spans="1:19" ht="45.95" customHeight="1">
       <c r="A709" s="20"/>
       <c r="B709" s="42" t="s">
         <v>2733</v>
@@ -33710,7 +33861,7 @@
       <c r="P709" s="16"/>
       <c r="Q709" s="17"/>
     </row>
-    <row r="710" spans="1:17" ht="45.95" customHeight="1">
+    <row r="710" spans="1:19" ht="45.95" customHeight="1">
       <c r="A710" s="20"/>
       <c r="B710" s="42" t="s">
         <v>2737</v>
@@ -33739,7 +33890,7 @@
       <c r="P710" s="16"/>
       <c r="Q710" s="17"/>
     </row>
-    <row r="711" spans="1:17" ht="45.95" customHeight="1">
+    <row r="711" spans="1:19" ht="45.95" customHeight="1">
       <c r="A711" s="20"/>
       <c r="B711" s="42" t="s">
         <v>2741</v>
@@ -33768,7 +33919,7 @@
       <c r="P711" s="16"/>
       <c r="Q711" s="17"/>
     </row>
-    <row r="712" spans="1:17" ht="45.95" customHeight="1">
+    <row r="712" spans="1:19" ht="45.95" customHeight="1">
       <c r="A712" s="20"/>
       <c r="B712" s="42" t="s">
         <v>2745</v>
@@ -33797,47 +33948,77 @@
       <c r="P712" s="16"/>
       <c r="Q712" s="17"/>
     </row>
-    <row r="713" spans="1:17" ht="45.95" customHeight="1">
+    <row r="713" spans="1:19" ht="45.95" customHeight="1">
       <c r="A713" s="20"/>
-      <c r="B713" s="35"/>
+      <c r="B713" s="42" t="s">
+        <v>2749</v>
+      </c>
       <c r="C713" s="48"/>
       <c r="D713" s="14"/>
       <c r="E713" s="14"/>
       <c r="F713" s="14"/>
       <c r="G713" s="34"/>
-      <c r="H713" s="15"/>
+      <c r="H713" s="41" t="s">
+        <v>2751</v>
+      </c>
       <c r="I713" s="14"/>
       <c r="J713" s="14"/>
-      <c r="K713" s="14"/>
-      <c r="L713" s="14"/>
-      <c r="M713" s="14"/>
+      <c r="K713" s="40" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L713" s="14" t="s">
+        <v>2752</v>
+      </c>
+      <c r="M713" s="14" t="s">
+        <v>2753</v>
+      </c>
       <c r="N713" s="14"/>
-      <c r="O713" s="14"/>
+      <c r="O713" s="14" t="s">
+        <v>2756</v>
+      </c>
       <c r="P713" s="16"/>
       <c r="Q713" s="17"/>
-    </row>
-    <row r="714" spans="1:17" ht="45.95" customHeight="1">
+      <c r="R713" s="12" t="s">
+        <v>2754</v>
+      </c>
+      <c r="S713" s="12" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="714" spans="1:19" ht="45.95" customHeight="1">
       <c r="A714" s="20"/>
-      <c r="B714" s="35"/>
-      <c r="C714" s="48"/>
+      <c r="B714" s="42" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C714" s="49" t="s">
+        <v>2760</v>
+      </c>
       <c r="D714" s="14"/>
       <c r="E714" s="14"/>
       <c r="F714" s="14"/>
       <c r="G714" s="34"/>
-      <c r="H714" s="15"/>
+      <c r="H714" s="41" t="s">
+        <v>2759</v>
+      </c>
       <c r="I714" s="14"/>
       <c r="J714" s="14"/>
-      <c r="K714" s="14"/>
-      <c r="L714" s="14"/>
+      <c r="K714" s="40" t="s">
+        <v>2758</v>
+      </c>
+      <c r="L714" s="14" t="s">
+        <v>2761</v>
+      </c>
       <c r="M714" s="14"/>
       <c r="N714" s="14"/>
       <c r="O714" s="14"/>
       <c r="P714" s="16"/>
       <c r="Q714" s="17"/>
     </row>
-    <row r="715" spans="1:17" ht="45.95" customHeight="1">
+    <row r="715" spans="1:19" ht="45.95" customHeight="1">
       <c r="A715" s="20"/>
-      <c r="B715" s="35"/>
+      <c r="B715" s="42" t="s">
+        <v>2762</v>
+      </c>
       <c r="C715" s="48"/>
       <c r="D715" s="14"/>
       <c r="E715" s="14"/>
@@ -33854,96 +34035,154 @@
       <c r="P715" s="16"/>
       <c r="Q715" s="17"/>
     </row>
-    <row r="716" spans="1:17" ht="45.95" customHeight="1">
+    <row r="716" spans="1:19" ht="45.95" customHeight="1">
       <c r="A716" s="20"/>
-      <c r="B716" s="35"/>
+      <c r="B716" s="42" t="s">
+        <v>2763</v>
+      </c>
       <c r="C716" s="48"/>
       <c r="D716" s="14"/>
       <c r="E716" s="14"/>
       <c r="F716" s="14"/>
-      <c r="G716" s="34"/>
-      <c r="H716" s="15"/>
+      <c r="G716" s="40" t="s">
+        <v>2766</v>
+      </c>
+      <c r="H716" s="41" t="s">
+        <v>2765</v>
+      </c>
       <c r="I716" s="14"/>
-      <c r="J716" s="14"/>
-      <c r="K716" s="14"/>
-      <c r="L716" s="14"/>
-      <c r="M716" s="14"/>
+      <c r="J716" s="40" t="s">
+        <v>2768</v>
+      </c>
+      <c r="K716" s="14" t="s">
+        <v>2764</v>
+      </c>
+      <c r="L716" s="14" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M716" s="14" t="s">
+        <v>2770</v>
+      </c>
       <c r="N716" s="14"/>
-      <c r="O716" s="14"/>
+      <c r="O716" s="14" t="s">
+        <v>2769</v>
+      </c>
       <c r="P716" s="16"/>
       <c r="Q716" s="17"/>
     </row>
-    <row r="717" spans="1:17" ht="45.95" customHeight="1">
+    <row r="717" spans="1:19" ht="45.95" customHeight="1">
       <c r="A717" s="20"/>
-      <c r="B717" s="35"/>
+      <c r="B717" s="42" t="s">
+        <v>2771</v>
+      </c>
       <c r="C717" s="48"/>
       <c r="D717" s="14"/>
       <c r="E717" s="14"/>
       <c r="F717" s="14"/>
-      <c r="G717" s="34"/>
-      <c r="H717" s="15"/>
+      <c r="G717" s="40" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H717" s="41" t="s">
+        <v>2773</v>
+      </c>
       <c r="I717" s="14"/>
       <c r="J717" s="14"/>
-      <c r="K717" s="14"/>
-      <c r="L717" s="14"/>
+      <c r="K717" s="14" t="s">
+        <v>2772</v>
+      </c>
+      <c r="L717" s="14" t="s">
+        <v>2775</v>
+      </c>
       <c r="M717" s="14"/>
       <c r="N717" s="14"/>
       <c r="O717" s="14"/>
       <c r="P717" s="16"/>
       <c r="Q717" s="17"/>
     </row>
-    <row r="718" spans="1:17" ht="45.95" customHeight="1">
+    <row r="718" spans="1:19" ht="45.95" customHeight="1">
       <c r="A718" s="20"/>
-      <c r="B718" s="35"/>
+      <c r="B718" s="42" t="s">
+        <v>2776</v>
+      </c>
       <c r="C718" s="48"/>
       <c r="D718" s="14"/>
       <c r="E718" s="14"/>
       <c r="F718" s="14"/>
-      <c r="G718" s="34"/>
-      <c r="H718" s="15"/>
+      <c r="G718" s="40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="H718" s="41" t="s">
+        <v>2778</v>
+      </c>
       <c r="I718" s="14"/>
       <c r="J718" s="14"/>
-      <c r="K718" s="14"/>
-      <c r="L718" s="14"/>
+      <c r="K718" s="40" t="s">
+        <v>2777</v>
+      </c>
+      <c r="L718" s="14" t="s">
+        <v>2779</v>
+      </c>
       <c r="M718" s="14"/>
       <c r="N718" s="14"/>
       <c r="O718" s="14"/>
       <c r="P718" s="16"/>
       <c r="Q718" s="17"/>
     </row>
-    <row r="719" spans="1:17" ht="45.95" customHeight="1">
+    <row r="719" spans="1:19" ht="45.95" customHeight="1">
       <c r="A719" s="20"/>
-      <c r="B719" s="35"/>
+      <c r="B719" s="42" t="s">
+        <v>2781</v>
+      </c>
       <c r="C719" s="48"/>
       <c r="D719" s="14"/>
       <c r="E719" s="14"/>
       <c r="F719" s="14"/>
-      <c r="G719" s="34"/>
-      <c r="H719" s="15"/>
+      <c r="G719" s="40" t="s">
+        <v>2789</v>
+      </c>
+      <c r="H719" s="41" t="s">
+        <v>2783</v>
+      </c>
       <c r="I719" s="14"/>
       <c r="J719" s="14"/>
-      <c r="K719" s="14"/>
-      <c r="L719" s="14"/>
-      <c r="M719" s="14"/>
+      <c r="K719" s="40" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L719" s="14" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M719" s="14" t="s">
+        <v>2785</v>
+      </c>
       <c r="N719" s="14"/>
       <c r="O719" s="14"/>
       <c r="P719" s="16"/>
       <c r="Q719" s="17"/>
     </row>
-    <row r="720" spans="1:17" ht="45.95" customHeight="1">
+    <row r="720" spans="1:19" ht="45.95" customHeight="1">
       <c r="A720" s="20"/>
-      <c r="B720" s="35"/>
+      <c r="B720" s="42" t="s">
+        <v>2786</v>
+      </c>
       <c r="C720" s="48"/>
       <c r="D720" s="14"/>
       <c r="E720" s="14"/>
       <c r="F720" s="14"/>
-      <c r="G720" s="34"/>
-      <c r="H720" s="15"/>
+      <c r="G720" s="40" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H720" s="41" t="s">
+        <v>2788</v>
+      </c>
       <c r="I720" s="14"/>
       <c r="J720" s="14"/>
-      <c r="K720" s="14"/>
+      <c r="K720" s="14" t="s">
+        <v>2787</v>
+      </c>
       <c r="L720" s="14"/>
-      <c r="M720" s="14"/>
+      <c r="M720" s="14" t="s">
+        <v>2790</v>
+      </c>
       <c r="N720" s="14"/>
       <c r="O720" s="14"/>
       <c r="P720" s="16"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="2791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="2845">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11938,6 +11938,204 @@
   </si>
   <si>
     <t>https://www.facebook.com/rick.hampson2</t>
+  </si>
+  <si>
+    <t>Brad Heath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bradheath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigative reporter for @usatoday covering law and justice. Collector of █████.• bheath@usatoday.com • 202 527-9709 • http://bradheath.org/contact </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bheath@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bradheath.org/contact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bradheath/</t>
+  </si>
+  <si>
+    <t>John Hillkirk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>johnhillkirk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Enterprise Projects Editor at Kaiser Health News @KHNews; former Investigations Editor at USA TODAY.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/johnhillkirk/</t>
+  </si>
+  <si>
+    <t>Kim Hjelmgaard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe-based deputy world editor @USATODAY, ex-@WSJ digital network. Email me: khjelmgaard@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>khjelmgaard@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>khjelmgaard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kimhjelmgaard/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kim.hjelmgaard</t>
+  </si>
+  <si>
+    <t>Lee Horwich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lhorwich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor, National Enterprise, USA TODAY. RTs are recommendations, not endorsements.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lee-horwich-360b013/</t>
+  </si>
+  <si>
+    <t>Roz Jackler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Jackson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lee.horwich.5</t>
+  </si>
+  <si>
+    <t>djusatoday</t>
+  </si>
+  <si>
+    <t>White House correspondent for USA TODAY; Winthrop Eagle and Northwestern Wildcat; traveler; lover of history and biography (which are really the same thing)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/david-jackson-81429536/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/111062088670612313907/posts</t>
+  </si>
+  <si>
+    <t>http://bio.tribune.com/davidjackson</t>
+  </si>
+  <si>
+    <t>Mike James</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MrRJervis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas-based reporter for USA TODAY. Covering storms, droughts, energy, border, people, life. Writer, coffee-lover, dad. 512-533-2203. rjervis@usatoday.com.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rjervis@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rick-jervis-41b48014/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjL7YKw_dnni8h9FmHQh5vQ</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/114775623540644254657</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rick.jervis.9</t>
+  </si>
+  <si>
+    <t>Kevin Johnson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bykevinj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kevin-johnson-b85a4522/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=1054511485</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/invictuslegal</t>
+  </si>
+  <si>
+    <t>John Kelly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jkelly3rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data &amp; Investigations Editor at @USATODAY. Husband. Father of 7. Kentucky Wildcat. Former @AP &amp; @florida_today.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ledyard King</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LedgeKing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter covering Florida, the EPA &amp; politics of space program for USA Today Washington Bureau. Loves: Family, basketball, Indy Colts. tweets not an endorsement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregory Korte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gregorykorte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>White House correspondent for @USATODAY. Cincinnatian in exile. Recipient of the Gerald R. Ford Prize for Distinguished Reporting on the Presidency. A.M.D.G.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ledyard-king-63a33b15/</t>
   </si>
 </sst>
 </file>
@@ -12662,7 +12860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12673,8 +12871,8 @@
   <dimension ref="A1:S864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M720" sqref="M720"/>
+      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H728" sqref="H728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34188,85 +34386,133 @@
       <c r="P720" s="16"/>
       <c r="Q720" s="17"/>
     </row>
-    <row r="721" spans="1:17" ht="45.95" customHeight="1">
+    <row r="721" spans="1:18" ht="45.95" customHeight="1">
       <c r="A721" s="20"/>
-      <c r="B721" s="35"/>
-      <c r="C721" s="48"/>
+      <c r="B721" s="42" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C721" s="49" t="s">
+        <v>2795</v>
+      </c>
       <c r="D721" s="14"/>
       <c r="E721" s="14"/>
       <c r="F721" s="14"/>
-      <c r="G721" s="34"/>
-      <c r="H721" s="15"/>
+      <c r="G721" s="40" t="s">
+        <v>2794</v>
+      </c>
+      <c r="H721" s="41" t="s">
+        <v>2793</v>
+      </c>
       <c r="I721" s="14"/>
-      <c r="J721" s="14"/>
-      <c r="K721" s="14"/>
-      <c r="L721" s="14"/>
+      <c r="J721" s="40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="K721" s="40" t="s">
+        <v>2792</v>
+      </c>
+      <c r="L721" s="14" t="s">
+        <v>2797</v>
+      </c>
       <c r="M721" s="14"/>
       <c r="N721" s="14"/>
       <c r="O721" s="14"/>
       <c r="P721" s="16"/>
       <c r="Q721" s="17"/>
     </row>
-    <row r="722" spans="1:17" ht="45.95" customHeight="1">
+    <row r="722" spans="1:18" ht="45.95" customHeight="1">
       <c r="A722" s="20"/>
-      <c r="B722" s="35"/>
+      <c r="B722" s="42" t="s">
+        <v>2798</v>
+      </c>
       <c r="C722" s="48"/>
       <c r="D722" s="14"/>
       <c r="E722" s="14"/>
       <c r="F722" s="14"/>
       <c r="G722" s="34"/>
-      <c r="H722" s="15"/>
+      <c r="H722" s="41" t="s">
+        <v>2800</v>
+      </c>
       <c r="I722" s="14"/>
       <c r="J722" s="14"/>
-      <c r="K722" s="14"/>
-      <c r="L722" s="14"/>
+      <c r="K722" s="40" t="s">
+        <v>2799</v>
+      </c>
+      <c r="L722" s="14" t="s">
+        <v>2801</v>
+      </c>
       <c r="M722" s="14"/>
       <c r="N722" s="14"/>
       <c r="O722" s="14"/>
       <c r="P722" s="16"/>
       <c r="Q722" s="17"/>
     </row>
-    <row r="723" spans="1:17" ht="45.95" customHeight="1">
+    <row r="723" spans="1:18" ht="45.95" customHeight="1">
       <c r="A723" s="20"/>
-      <c r="B723" s="35"/>
-      <c r="C723" s="48"/>
+      <c r="B723" s="42" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C723" s="49" t="s">
+        <v>2804</v>
+      </c>
       <c r="D723" s="14"/>
       <c r="E723" s="14"/>
       <c r="F723" s="14"/>
       <c r="G723" s="34"/>
-      <c r="H723" s="15"/>
+      <c r="H723" s="41" t="s">
+        <v>2803</v>
+      </c>
       <c r="I723" s="14"/>
       <c r="J723" s="14"/>
-      <c r="K723" s="14"/>
-      <c r="L723" s="14"/>
-      <c r="M723" s="14"/>
+      <c r="K723" s="40" t="s">
+        <v>2805</v>
+      </c>
+      <c r="L723" s="14" t="s">
+        <v>2806</v>
+      </c>
+      <c r="M723" s="14" t="s">
+        <v>2807</v>
+      </c>
       <c r="N723" s="14"/>
       <c r="O723" s="14"/>
       <c r="P723" s="16"/>
       <c r="Q723" s="17"/>
     </row>
-    <row r="724" spans="1:17" ht="45.95" customHeight="1">
+    <row r="724" spans="1:18" ht="45.95" customHeight="1">
       <c r="A724" s="20"/>
-      <c r="B724" s="35"/>
+      <c r="B724" s="42" t="s">
+        <v>2808</v>
+      </c>
       <c r="C724" s="48"/>
       <c r="D724" s="14"/>
       <c r="E724" s="14"/>
       <c r="F724" s="14"/>
-      <c r="G724" s="34"/>
-      <c r="H724" s="15"/>
+      <c r="G724" s="40" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H724" s="41" t="s">
+        <v>2810</v>
+      </c>
       <c r="I724" s="14"/>
       <c r="J724" s="14"/>
-      <c r="K724" s="14"/>
-      <c r="L724" s="14"/>
-      <c r="M724" s="14"/>
+      <c r="K724" s="40" t="s">
+        <v>2809</v>
+      </c>
+      <c r="L724" s="14" t="s">
+        <v>2812</v>
+      </c>
+      <c r="M724" s="14" t="s">
+        <v>2815</v>
+      </c>
       <c r="N724" s="14"/>
       <c r="O724" s="14"/>
       <c r="P724" s="16"/>
       <c r="Q724" s="17"/>
     </row>
-    <row r="725" spans="1:17" ht="45.95" customHeight="1">
+    <row r="725" spans="1:18" ht="45.95" customHeight="1">
       <c r="A725" s="20"/>
-      <c r="B725" s="35"/>
+      <c r="B725" s="42" t="s">
+        <v>2813</v>
+      </c>
       <c r="C725" s="48"/>
       <c r="D725" s="14"/>
       <c r="E725" s="14"/>
@@ -34283,47 +34529,78 @@
       <c r="P725" s="16"/>
       <c r="Q725" s="17"/>
     </row>
-    <row r="726" spans="1:17" ht="45.95" customHeight="1">
+    <row r="726" spans="1:18" ht="45.95" customHeight="1">
       <c r="A726" s="20"/>
-      <c r="B726" s="35"/>
+      <c r="B726" s="42" t="s">
+        <v>2814</v>
+      </c>
       <c r="C726" s="48"/>
       <c r="D726" s="14"/>
       <c r="E726" s="14"/>
       <c r="F726" s="14"/>
       <c r="G726" s="34"/>
-      <c r="H726" s="15"/>
+      <c r="H726" s="41" t="s">
+        <v>2817</v>
+      </c>
       <c r="I726" s="14"/>
-      <c r="J726" s="14"/>
-      <c r="K726" s="14"/>
-      <c r="L726" s="14"/>
+      <c r="J726" s="14" t="s">
+        <v>2820</v>
+      </c>
+      <c r="K726" s="14" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L726" s="14" t="s">
+        <v>2818</v>
+      </c>
       <c r="M726" s="14"/>
       <c r="N726" s="14"/>
-      <c r="O726" s="14"/>
+      <c r="O726" s="14" t="s">
+        <v>2819</v>
+      </c>
       <c r="P726" s="16"/>
       <c r="Q726" s="17"/>
     </row>
-    <row r="727" spans="1:17" ht="45.95" customHeight="1">
+    <row r="727" spans="1:18" ht="45.95" customHeight="1">
       <c r="A727" s="20"/>
-      <c r="B727" s="35"/>
-      <c r="C727" s="48"/>
+      <c r="B727" s="42" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C727" s="49" t="s">
+        <v>2824</v>
+      </c>
       <c r="D727" s="14"/>
       <c r="E727" s="14"/>
       <c r="F727" s="14"/>
       <c r="G727" s="34"/>
-      <c r="H727" s="15"/>
+      <c r="H727" s="41" t="s">
+        <v>2823</v>
+      </c>
       <c r="I727" s="14"/>
       <c r="J727" s="14"/>
-      <c r="K727" s="14"/>
-      <c r="L727" s="14"/>
-      <c r="M727" s="14"/>
+      <c r="K727" s="40" t="s">
+        <v>2822</v>
+      </c>
+      <c r="L727" s="14" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M727" s="14" t="s">
+        <v>2828</v>
+      </c>
       <c r="N727" s="14"/>
-      <c r="O727" s="14"/>
+      <c r="O727" s="14" t="s">
+        <v>2827</v>
+      </c>
       <c r="P727" s="16"/>
       <c r="Q727" s="17"/>
-    </row>
-    <row r="728" spans="1:17" ht="45.95" customHeight="1">
+      <c r="R727" s="12" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="728" spans="1:18" ht="45.95" customHeight="1">
       <c r="A728" s="20"/>
-      <c r="B728" s="35"/>
+      <c r="B728" s="42" t="s">
+        <v>2829</v>
+      </c>
       <c r="C728" s="48"/>
       <c r="D728" s="14"/>
       <c r="E728" s="14"/>
@@ -34332,26 +34609,41 @@
       <c r="H728" s="15"/>
       <c r="I728" s="14"/>
       <c r="J728" s="14"/>
-      <c r="K728" s="14"/>
-      <c r="L728" s="14"/>
-      <c r="M728" s="14"/>
+      <c r="K728" s="40" t="s">
+        <v>2830</v>
+      </c>
+      <c r="L728" s="14" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M728" s="14" t="s">
+        <v>2832</v>
+      </c>
       <c r="N728" s="14"/>
       <c r="O728" s="14"/>
       <c r="P728" s="16"/>
       <c r="Q728" s="17"/>
-    </row>
-    <row r="729" spans="1:17" ht="45.95" customHeight="1">
+      <c r="R728" s="12" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="729" spans="1:18" ht="45.95" customHeight="1">
       <c r="A729" s="20"/>
-      <c r="B729" s="35"/>
+      <c r="B729" s="42" t="s">
+        <v>2834</v>
+      </c>
       <c r="C729" s="48"/>
       <c r="D729" s="14"/>
       <c r="E729" s="14"/>
       <c r="F729" s="14"/>
       <c r="G729" s="34"/>
-      <c r="H729" s="15"/>
+      <c r="H729" s="41" t="s">
+        <v>2836</v>
+      </c>
       <c r="I729" s="14"/>
       <c r="J729" s="14"/>
-      <c r="K729" s="14"/>
+      <c r="K729" s="40" t="s">
+        <v>2835</v>
+      </c>
       <c r="L729" s="14"/>
       <c r="M729" s="14"/>
       <c r="N729" s="14"/>
@@ -34359,18 +34651,26 @@
       <c r="P729" s="16"/>
       <c r="Q729" s="17"/>
     </row>
-    <row r="730" spans="1:17" ht="45.95" customHeight="1">
+    <row r="730" spans="1:18" ht="45.95" customHeight="1">
       <c r="A730" s="20"/>
-      <c r="B730" s="35"/>
+      <c r="B730" s="42" t="s">
+        <v>2837</v>
+      </c>
       <c r="C730" s="48"/>
       <c r="D730" s="14"/>
       <c r="E730" s="14"/>
       <c r="F730" s="14"/>
-      <c r="G730" s="34"/>
-      <c r="H730" s="15"/>
+      <c r="G730" s="40" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H730" s="41" t="s">
+        <v>2839</v>
+      </c>
       <c r="I730" s="14"/>
       <c r="J730" s="14"/>
-      <c r="K730" s="14"/>
+      <c r="K730" s="40" t="s">
+        <v>2838</v>
+      </c>
       <c r="L730" s="14"/>
       <c r="M730" s="14"/>
       <c r="N730" s="14"/>
@@ -34378,26 +34678,34 @@
       <c r="P730" s="16"/>
       <c r="Q730" s="17"/>
     </row>
-    <row r="731" spans="1:17" ht="45.95" customHeight="1">
+    <row r="731" spans="1:18" ht="45.95" customHeight="1">
       <c r="A731" s="20"/>
-      <c r="B731" s="35"/>
+      <c r="B731" s="42" t="s">
+        <v>2841</v>
+      </c>
       <c r="C731" s="48"/>
       <c r="D731" s="14"/>
       <c r="E731" s="14"/>
       <c r="F731" s="14"/>
       <c r="G731" s="34"/>
-      <c r="H731" s="15"/>
+      <c r="H731" s="41" t="s">
+        <v>2843</v>
+      </c>
       <c r="I731" s="14"/>
       <c r="J731" s="14"/>
-      <c r="K731" s="14"/>
-      <c r="L731" s="14"/>
+      <c r="K731" s="40" t="s">
+        <v>2842</v>
+      </c>
+      <c r="L731" s="14" t="s">
+        <v>2844</v>
+      </c>
       <c r="M731" s="14"/>
       <c r="N731" s="14"/>
       <c r="O731" s="14"/>
       <c r="P731" s="16"/>
       <c r="Q731" s="17"/>
     </row>
-    <row r="732" spans="1:17" ht="45.95" customHeight="1">
+    <row r="732" spans="1:18" ht="45.95" customHeight="1">
       <c r="A732" s="20"/>
       <c r="B732" s="35"/>
       <c r="C732" s="48"/>
@@ -34416,7 +34724,7 @@
       <c r="P732" s="16"/>
       <c r="Q732" s="17"/>
     </row>
-    <row r="733" spans="1:17" ht="45.95" customHeight="1">
+    <row r="733" spans="1:18" ht="45.95" customHeight="1">
       <c r="A733" s="20"/>
       <c r="B733" s="35"/>
       <c r="C733" s="48"/>
@@ -34435,7 +34743,7 @@
       <c r="P733" s="16"/>
       <c r="Q733" s="17"/>
     </row>
-    <row r="734" spans="1:17" ht="45.95" customHeight="1">
+    <row r="734" spans="1:18" ht="45.95" customHeight="1">
       <c r="A734" s="20"/>
       <c r="B734" s="13"/>
       <c r="C734" s="45"/>
@@ -34454,7 +34762,7 @@
       <c r="P734" s="16"/>
       <c r="Q734" s="17"/>
     </row>
-    <row r="735" spans="1:17" ht="45.95" customHeight="1">
+    <row r="735" spans="1:18" ht="45.95" customHeight="1">
       <c r="A735" s="20"/>
       <c r="B735" s="35"/>
       <c r="C735" s="48"/>
@@ -34473,7 +34781,7 @@
       <c r="P735" s="16"/>
       <c r="Q735" s="17"/>
     </row>
-    <row r="736" spans="1:17" ht="45.95" customHeight="1">
+    <row r="736" spans="1:18" ht="45.95" customHeight="1">
       <c r="A736" s="20"/>
       <c r="B736" s="35"/>
       <c r="C736" s="48"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="2845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4038" uniqueCount="2893">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12136,6 +12136,189 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/ledyard-king-63a33b15/</t>
+  </si>
+  <si>
+    <t>Katharine Lackey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>katharinelackey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USATODAY asst. breaking news editor, 13.1 x 19, @ChiMarathon 2016 finisher, animal lover, PSU alum, #RockNBlog ambassador, #Balega Impi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/runpointone/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donna Leinwand Leger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonnaLeinwand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor of USA TODAY, past president of National Press Club, traveler, weekend Betty Crocker, wine lover. #WEF17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.runpointone.com/
+http://www.katharinelackey.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>katharine.lackey@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klackey23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/katharinelackey/</t>
+  </si>
+  <si>
+    <t>Ray Locker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlocker12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington enterprise editor at USA TODAY, author of Nixon's Gamble from Lyons Press.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ray-locker-1283817/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rlocker</t>
+  </si>
+  <si>
+    <t>Aamer Madhani</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AamerISmad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicago-based correspondent for @USATODAY.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>journalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/0/101274065702406921320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/madhani-aamer-1ab75272/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/aamermadhani</t>
+  </si>
+  <si>
+    <t>Laura Mandaro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LauraMandaro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm tech editor (and sometimes podcast host) for @usatoday in San Francisco. Previous lives: @marketwatch and @investors.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/lauramandaro/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/laura.mandaro</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/108670275124809505525</t>
+  </si>
+  <si>
+    <t>Kevin McCoy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmccoynyc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newspaper reporter and Murray Kempton acolyte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kevin-mccoy-62099561/</t>
+  </si>
+  <si>
+    <t>Jim Michaels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jimmichaels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA TODAY reporter, former Marine and author of A Chance in Hell: The men who Triumphed over Iraq's Deadliest City and Turned the Tide of War</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jim.michaels.58</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jim-michaels-32b9a35/</t>
+  </si>
+  <si>
+    <t>Brett Molina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brettmolina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holly Moore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hollytmoore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic and owning it. Work @USATODAY during the day; mom in the exurbs at night. Love my fam, cheese and good beer. Holler!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/holly-moore-6980bb22/</t>
+  </si>
+  <si>
+    <t>National News Desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12860,7 +13043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12871,8 +13054,8 @@
   <dimension ref="A1:S864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H728" sqref="H728"/>
+      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G740" sqref="G740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34707,36 +34890,64 @@
     </row>
     <row r="732" spans="1:18" ht="45.95" customHeight="1">
       <c r="A732" s="20"/>
-      <c r="B732" s="35"/>
-      <c r="C732" s="48"/>
+      <c r="B732" s="42" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C732" s="49" t="s">
+        <v>2855</v>
+      </c>
       <c r="D732" s="14"/>
       <c r="E732" s="14"/>
       <c r="F732" s="14"/>
-      <c r="G732" s="34"/>
-      <c r="H732" s="15"/>
+      <c r="G732" s="40" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H732" s="41" t="s">
+        <v>2847</v>
+      </c>
       <c r="I732" s="14"/>
-      <c r="J732" s="14"/>
-      <c r="K732" s="14"/>
-      <c r="L732" s="14"/>
-      <c r="M732" s="14"/>
-      <c r="N732" s="14"/>
+      <c r="J732" s="40" t="s">
+        <v>2854</v>
+      </c>
+      <c r="K732" s="40" t="s">
+        <v>2846</v>
+      </c>
+      <c r="L732" s="14" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M732" s="40" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N732" s="40" t="s">
+        <v>2856</v>
+      </c>
       <c r="O732" s="14"/>
       <c r="P732" s="16"/>
       <c r="Q732" s="17"/>
     </row>
     <row r="733" spans="1:18" ht="45.95" customHeight="1">
       <c r="A733" s="20"/>
-      <c r="B733" s="35"/>
+      <c r="B733" s="42" t="s">
+        <v>2850</v>
+      </c>
       <c r="C733" s="48"/>
       <c r="D733" s="14"/>
       <c r="E733" s="14"/>
       <c r="F733" s="14"/>
-      <c r="G733" s="34"/>
-      <c r="H733" s="15"/>
+      <c r="G733" s="40" t="s">
+        <v>2853</v>
+      </c>
+      <c r="H733" s="41" t="s">
+        <v>2852</v>
+      </c>
       <c r="I733" s="14"/>
       <c r="J733" s="14"/>
-      <c r="K733" s="14"/>
-      <c r="L733" s="14"/>
+      <c r="K733" s="40" t="s">
+        <v>2851</v>
+      </c>
+      <c r="L733" s="14" t="s">
+        <v>2669</v>
+      </c>
       <c r="M733" s="14"/>
       <c r="N733" s="14"/>
       <c r="O733" s="14"/>
@@ -34745,18 +34956,30 @@
     </row>
     <row r="734" spans="1:18" ht="45.95" customHeight="1">
       <c r="A734" s="20"/>
-      <c r="B734" s="13"/>
+      <c r="B734" s="42" t="s">
+        <v>2858</v>
+      </c>
       <c r="C734" s="45"/>
       <c r="D734" s="14"/>
       <c r="E734" s="14"/>
       <c r="F734" s="14"/>
-      <c r="G734" s="14"/>
-      <c r="H734" s="15"/>
+      <c r="G734" s="40" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H734" s="41" t="s">
+        <v>2860</v>
+      </c>
       <c r="I734" s="14"/>
       <c r="J734" s="14"/>
-      <c r="K734" s="14"/>
-      <c r="L734" s="14"/>
-      <c r="M734" s="14"/>
+      <c r="K734" s="40" t="s">
+        <v>2859</v>
+      </c>
+      <c r="L734" s="40" t="s">
+        <v>2861</v>
+      </c>
+      <c r="M734" s="14" t="s">
+        <v>2862</v>
+      </c>
       <c r="N734" s="14"/>
       <c r="O734" s="14"/>
       <c r="P734" s="16"/>
@@ -34764,55 +34987,91 @@
     </row>
     <row r="735" spans="1:18" ht="45.95" customHeight="1">
       <c r="A735" s="20"/>
-      <c r="B735" s="35"/>
+      <c r="B735" s="42" t="s">
+        <v>2863</v>
+      </c>
       <c r="C735" s="48"/>
       <c r="D735" s="14"/>
       <c r="E735" s="14"/>
       <c r="F735" s="14"/>
-      <c r="G735" s="34"/>
-      <c r="H735" s="15"/>
+      <c r="G735" s="40" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H735" s="41" t="s">
+        <v>2865</v>
+      </c>
       <c r="I735" s="14"/>
       <c r="J735" s="14"/>
-      <c r="K735" s="14"/>
-      <c r="L735" s="14"/>
-      <c r="M735" s="14"/>
+      <c r="K735" s="40" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L735" s="40" t="s">
+        <v>2868</v>
+      </c>
+      <c r="M735" s="14" t="s">
+        <v>2869</v>
+      </c>
       <c r="N735" s="14"/>
-      <c r="O735" s="14"/>
+      <c r="O735" s="40" t="s">
+        <v>2867</v>
+      </c>
       <c r="P735" s="16"/>
       <c r="Q735" s="17"/>
     </row>
     <row r="736" spans="1:18" ht="45.95" customHeight="1">
       <c r="A736" s="20"/>
-      <c r="B736" s="35"/>
+      <c r="B736" s="42" t="s">
+        <v>2870</v>
+      </c>
       <c r="C736" s="48"/>
       <c r="D736" s="14"/>
       <c r="E736" s="14"/>
       <c r="F736" s="14"/>
-      <c r="G736" s="34"/>
-      <c r="H736" s="15"/>
+      <c r="G736" s="40" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H736" s="41" t="s">
+        <v>2872</v>
+      </c>
       <c r="I736" s="14"/>
       <c r="J736" s="14"/>
-      <c r="K736" s="14"/>
-      <c r="L736" s="14"/>
-      <c r="M736" s="14"/>
+      <c r="K736" s="40" t="s">
+        <v>2871</v>
+      </c>
+      <c r="L736" s="14" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M736" s="14" t="s">
+        <v>2875</v>
+      </c>
       <c r="N736" s="14"/>
-      <c r="O736" s="14"/>
+      <c r="O736" s="14" t="s">
+        <v>2876</v>
+      </c>
       <c r="P736" s="16"/>
       <c r="Q736" s="17"/>
     </row>
     <row r="737" spans="1:17" ht="45.95" customHeight="1">
       <c r="A737" s="20"/>
-      <c r="B737" s="35"/>
+      <c r="B737" s="42" t="s">
+        <v>2877</v>
+      </c>
       <c r="C737" s="48"/>
       <c r="D737" s="14"/>
       <c r="E737" s="14"/>
       <c r="F737" s="14"/>
       <c r="G737" s="34"/>
-      <c r="H737" s="15"/>
+      <c r="H737" s="41" t="s">
+        <v>2879</v>
+      </c>
       <c r="I737" s="14"/>
       <c r="J737" s="14"/>
-      <c r="K737" s="14"/>
-      <c r="L737" s="14"/>
+      <c r="K737" s="40" t="s">
+        <v>2878</v>
+      </c>
+      <c r="L737" s="14" t="s">
+        <v>2880</v>
+      </c>
       <c r="M737" s="14"/>
       <c r="N737" s="14"/>
       <c r="O737" s="14"/>
@@ -34821,18 +35080,28 @@
     </row>
     <row r="738" spans="1:17" ht="45.95" customHeight="1">
       <c r="A738" s="20"/>
-      <c r="B738" s="35"/>
+      <c r="B738" s="42" t="s">
+        <v>2881</v>
+      </c>
       <c r="C738" s="48"/>
       <c r="D738" s="14"/>
       <c r="E738" s="14"/>
       <c r="F738" s="14"/>
       <c r="G738" s="34"/>
-      <c r="H738" s="15"/>
+      <c r="H738" s="41" t="s">
+        <v>2883</v>
+      </c>
       <c r="I738" s="14"/>
       <c r="J738" s="14"/>
-      <c r="K738" s="14"/>
-      <c r="L738" s="14"/>
-      <c r="M738" s="14"/>
+      <c r="K738" s="40" t="s">
+        <v>2882</v>
+      </c>
+      <c r="L738" s="14" t="s">
+        <v>2885</v>
+      </c>
+      <c r="M738" s="14" t="s">
+        <v>2884</v>
+      </c>
       <c r="N738" s="14"/>
       <c r="O738" s="14"/>
       <c r="P738" s="16"/>
@@ -34840,7 +35109,9 @@
     </row>
     <row r="739" spans="1:17" ht="45.95" customHeight="1">
       <c r="A739" s="20"/>
-      <c r="B739" s="35"/>
+      <c r="B739" s="42" t="s">
+        <v>2886</v>
+      </c>
       <c r="C739" s="48"/>
       <c r="D739" s="14"/>
       <c r="E739" s="14"/>
@@ -34849,7 +35120,9 @@
       <c r="H739" s="15"/>
       <c r="I739" s="14"/>
       <c r="J739" s="14"/>
-      <c r="K739" s="14"/>
+      <c r="K739" s="40" t="s">
+        <v>2887</v>
+      </c>
       <c r="L739" s="14"/>
       <c r="M739" s="14"/>
       <c r="N739" s="14"/>
@@ -34859,17 +35132,27 @@
     </row>
     <row r="740" spans="1:17" ht="45.95" customHeight="1">
       <c r="A740" s="20"/>
-      <c r="B740" s="35"/>
+      <c r="B740" s="42" t="s">
+        <v>2888</v>
+      </c>
       <c r="C740" s="48"/>
       <c r="D740" s="14"/>
       <c r="E740" s="14"/>
       <c r="F740" s="14"/>
-      <c r="G740" s="34"/>
-      <c r="H740" s="15"/>
+      <c r="G740" s="40" t="s">
+        <v>2892</v>
+      </c>
+      <c r="H740" s="41" t="s">
+        <v>2890</v>
+      </c>
       <c r="I740" s="14"/>
       <c r="J740" s="14"/>
-      <c r="K740" s="14"/>
-      <c r="L740" s="14"/>
+      <c r="K740" s="40" t="s">
+        <v>2889</v>
+      </c>
+      <c r="L740" s="14" t="s">
+        <v>2891</v>
+      </c>
       <c r="M740" s="14"/>
       <c r="N740" s="14"/>
       <c r="O740" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4038" uniqueCount="2893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="2894">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12318,6 +12318,10 @@
   </si>
   <si>
     <t>National News Desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -13043,7 +13047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13055,7 +13059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G740" sqref="G740"/>
+      <selection pane="bottomLeft" activeCell="B741" sqref="B741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35161,7 +35165,9 @@
     </row>
     <row r="741" spans="1:17" ht="45.95" customHeight="1">
       <c r="A741" s="20"/>
-      <c r="B741" s="35"/>
+      <c r="B741" s="42" t="s">
+        <v>2893</v>
+      </c>
       <c r="C741" s="48"/>
       <c r="D741" s="14"/>
       <c r="E741" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="2894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="2946">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12321,8 +12321,215 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t xml:space="preserve">Mary Nahorniak  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maryvale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DME of digital at @USATODAY. Baby mama, greyhound mama, not your mama. Runner of triathlons and connoisseur of individually wrapped cheeses. FKA Mary Hartney.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/maryhartneynahorniak/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/maryhartneynahorniak</t>
+  </si>
+  <si>
+    <t>http://maryhartney.com/</t>
+  </si>
+  <si>
+    <t>Jane Onyana-Omara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>janeomara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>London-based reporter and digital editor @USATODAY.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mary Orndorff Troyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orndorfftroyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journalism fan.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susan Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SusanPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington Bureau Chief/USA Today. Veteran of 10 presidential campaigns. Now covering my sixth president. (Still trying to get it right.) FB @susanpageusatoday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pagesusan/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Bureau chief </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laura Petrecca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LauraPetrecca</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">USAToday NYC Bureau Chief/Senior Editor of Special Projects -- Always on the lookout for interesting stories to tell. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G745</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lpetrecca@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/laurapetrecca/</t>
+  </si>
+  <si>
+    <t>Mabinty Quarshie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mabintyquarshie/</t>
+  </si>
+  <si>
+    <t>Doyle Rice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MabintyQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/doyle-rice-388992b0/</t>
+  </si>
+  <si>
+    <t>Weather Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cara Richardson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caramrich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital editor at USA TODAY. I'm friendly, so tweet me about the news!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/cara-richardson-aa351120/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cararichardson.com/</t>
+  </si>
+  <si>
+    <t>caramrich@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> facebook.com/caramccoy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youtube.com/user/caratimrichardson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Riley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MrJohnRiley</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professional news editor at http://USATODAY.com . Amateur musician, husband, dad. Not necessarily in that order.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jriley@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sean Rossman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeanRossman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter @USATODAY - formerly @TDOnline - @TempleUniv grad 🍀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sean-rossman-87270939/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pg/Sean-Rossman-284235041785323/about/?ref=page_internal</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/115866852887174292900</t>
+  </si>
+  <si>
+    <t>srossman@tallahassee.com</t>
   </si>
 </sst>
 </file>
@@ -13047,7 +13254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13058,8 +13265,8 @@
   <dimension ref="A1:S864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B741" sqref="B741"/>
+      <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D751" sqref="D751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35055,7 +35262,7 @@
       <c r="P736" s="16"/>
       <c r="Q736" s="17"/>
     </row>
-    <row r="737" spans="1:17" ht="45.95" customHeight="1">
+    <row r="737" spans="1:18" ht="45.95" customHeight="1">
       <c r="A737" s="20"/>
       <c r="B737" s="42" t="s">
         <v>2877</v>
@@ -35082,7 +35289,7 @@
       <c r="P737" s="16"/>
       <c r="Q737" s="17"/>
     </row>
-    <row r="738" spans="1:17" ht="45.95" customHeight="1">
+    <row r="738" spans="1:18" ht="45.95" customHeight="1">
       <c r="A738" s="20"/>
       <c r="B738" s="42" t="s">
         <v>2881</v>
@@ -35111,7 +35318,7 @@
       <c r="P738" s="16"/>
       <c r="Q738" s="17"/>
     </row>
-    <row r="739" spans="1:17" ht="45.95" customHeight="1">
+    <row r="739" spans="1:18" ht="45.95" customHeight="1">
       <c r="A739" s="20"/>
       <c r="B739" s="42" t="s">
         <v>2886</v>
@@ -35134,7 +35341,7 @@
       <c r="P739" s="16"/>
       <c r="Q739" s="17"/>
     </row>
-    <row r="740" spans="1:17" ht="45.95" customHeight="1">
+    <row r="740" spans="1:18" ht="45.95" customHeight="1">
       <c r="A740" s="20"/>
       <c r="B740" s="42" t="s">
         <v>2888</v>
@@ -35163,7 +35370,7 @@
       <c r="P740" s="16"/>
       <c r="Q740" s="17"/>
     </row>
-    <row r="741" spans="1:17" ht="45.95" customHeight="1">
+    <row r="741" spans="1:18" ht="45.95" customHeight="1">
       <c r="A741" s="20"/>
       <c r="B741" s="42" t="s">
         <v>2893</v>
@@ -35172,30 +35379,50 @@
       <c r="D741" s="14"/>
       <c r="E741" s="14"/>
       <c r="F741" s="14"/>
-      <c r="G741" s="34"/>
-      <c r="H741" s="15"/>
+      <c r="G741" s="40" t="s">
+        <v>2896</v>
+      </c>
+      <c r="H741" s="41" t="s">
+        <v>2895</v>
+      </c>
       <c r="I741" s="14"/>
-      <c r="J741" s="14"/>
-      <c r="K741" s="14"/>
-      <c r="L741" s="14"/>
-      <c r="M741" s="14"/>
+      <c r="J741" s="14" t="s">
+        <v>2899</v>
+      </c>
+      <c r="K741" s="40" t="s">
+        <v>2894</v>
+      </c>
+      <c r="L741" s="14" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M741" s="14" t="s">
+        <v>2898</v>
+      </c>
       <c r="N741" s="14"/>
       <c r="O741" s="14"/>
       <c r="P741" s="16"/>
       <c r="Q741" s="17"/>
     </row>
-    <row r="742" spans="1:17" ht="45.95" customHeight="1">
+    <row r="742" spans="1:18" ht="45.95" customHeight="1">
       <c r="A742" s="20"/>
-      <c r="B742" s="35"/>
+      <c r="B742" s="42" t="s">
+        <v>2900</v>
+      </c>
       <c r="C742" s="48"/>
       <c r="D742" s="14"/>
       <c r="E742" s="14"/>
       <c r="F742" s="14"/>
-      <c r="G742" s="34"/>
-      <c r="H742" s="15"/>
+      <c r="G742" s="40" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H742" s="41" t="s">
+        <v>2902</v>
+      </c>
       <c r="I742" s="14"/>
       <c r="J742" s="14"/>
-      <c r="K742" s="14"/>
+      <c r="K742" s="40" t="s">
+        <v>2901</v>
+      </c>
       <c r="L742" s="14"/>
       <c r="M742" s="14"/>
       <c r="N742" s="14"/>
@@ -35203,18 +35430,26 @@
       <c r="P742" s="16"/>
       <c r="Q742" s="17"/>
     </row>
-    <row r="743" spans="1:17" ht="45.95" customHeight="1">
+    <row r="743" spans="1:18" ht="45.95" customHeight="1">
       <c r="A743" s="20"/>
-      <c r="B743" s="35"/>
+      <c r="B743" s="42" t="s">
+        <v>2904</v>
+      </c>
       <c r="C743" s="48"/>
       <c r="D743" s="14"/>
       <c r="E743" s="14"/>
       <c r="F743" s="14"/>
-      <c r="G743" s="34"/>
-      <c r="H743" s="15"/>
+      <c r="G743" s="40" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H743" s="41" t="s">
+        <v>2906</v>
+      </c>
       <c r="I743" s="14"/>
       <c r="J743" s="14"/>
-      <c r="K743" s="14"/>
+      <c r="K743" s="40" t="s">
+        <v>2905</v>
+      </c>
       <c r="L743" s="14"/>
       <c r="M743" s="14"/>
       <c r="N743" s="14"/>
@@ -35222,140 +35457,221 @@
       <c r="P743" s="16"/>
       <c r="Q743" s="17"/>
     </row>
-    <row r="744" spans="1:17" ht="45.95" customHeight="1">
+    <row r="744" spans="1:18" ht="45.95" customHeight="1">
       <c r="A744" s="20"/>
-      <c r="B744" s="35"/>
+      <c r="B744" s="42" t="s">
+        <v>2908</v>
+      </c>
       <c r="C744" s="48"/>
       <c r="D744" s="14"/>
       <c r="E744" s="14"/>
       <c r="F744" s="14"/>
-      <c r="G744" s="34"/>
-      <c r="H744" s="15"/>
+      <c r="G744" s="40" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H744" s="41" t="s">
+        <v>2910</v>
+      </c>
       <c r="I744" s="14"/>
       <c r="J744" s="14"/>
-      <c r="K744" s="14"/>
-      <c r="L744" s="14"/>
+      <c r="K744" s="40" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L744" s="14" t="s">
+        <v>2911</v>
+      </c>
       <c r="M744" s="14"/>
       <c r="N744" s="14"/>
       <c r="O744" s="14"/>
       <c r="P744" s="16"/>
       <c r="Q744" s="17"/>
     </row>
-    <row r="745" spans="1:17" ht="45.95" customHeight="1">
+    <row r="745" spans="1:18" ht="45.95" customHeight="1">
       <c r="A745" s="20"/>
-      <c r="B745" s="35"/>
+      <c r="B745" s="42" t="s">
+        <v>2913</v>
+      </c>
       <c r="C745" s="48"/>
       <c r="D745" s="14"/>
       <c r="E745" s="14"/>
       <c r="F745" s="14"/>
-      <c r="G745" s="34"/>
-      <c r="H745" s="15"/>
+      <c r="G745" s="40" t="s">
+        <v>2916</v>
+      </c>
+      <c r="H745" s="41" t="s">
+        <v>2915</v>
+      </c>
       <c r="I745" s="14"/>
       <c r="J745" s="14"/>
-      <c r="K745" s="14"/>
-      <c r="L745" s="14"/>
+      <c r="K745" s="14" t="s">
+        <v>2914</v>
+      </c>
+      <c r="L745" s="14" t="s">
+        <v>2917</v>
+      </c>
       <c r="M745" s="14"/>
       <c r="N745" s="14"/>
       <c r="O745" s="14"/>
       <c r="P745" s="16"/>
       <c r="Q745" s="17"/>
     </row>
-    <row r="746" spans="1:17" ht="45.95" customHeight="1">
+    <row r="746" spans="1:18" ht="45.95" customHeight="1">
       <c r="A746" s="20"/>
-      <c r="B746" s="13"/>
+      <c r="B746" s="42" t="s">
+        <v>2918</v>
+      </c>
       <c r="C746" s="45"/>
       <c r="D746" s="14"/>
       <c r="E746" s="14"/>
       <c r="F746" s="14"/>
-      <c r="G746" s="14"/>
-      <c r="H746" s="15"/>
+      <c r="G746" s="40" t="s">
+        <v>2919</v>
+      </c>
+      <c r="H746" s="41" t="s">
+        <v>2919</v>
+      </c>
       <c r="I746" s="14"/>
       <c r="J746" s="14"/>
-      <c r="K746" s="14"/>
-      <c r="L746" s="14"/>
+      <c r="K746" s="40" t="s">
+        <v>2922</v>
+      </c>
+      <c r="L746" s="14" t="s">
+        <v>2920</v>
+      </c>
       <c r="M746" s="14"/>
       <c r="N746" s="14"/>
       <c r="O746" s="14"/>
       <c r="P746" s="16"/>
       <c r="Q746" s="17"/>
     </row>
-    <row r="747" spans="1:17" ht="45.95" customHeight="1">
+    <row r="747" spans="1:18" ht="45.95" customHeight="1">
       <c r="A747" s="20"/>
-      <c r="B747" s="35"/>
+      <c r="B747" s="42" t="s">
+        <v>2921</v>
+      </c>
       <c r="C747" s="48"/>
       <c r="D747" s="14"/>
       <c r="E747" s="14"/>
       <c r="F747" s="14"/>
-      <c r="G747" s="34"/>
-      <c r="H747" s="15"/>
+      <c r="G747" s="40" t="s">
+        <v>2924</v>
+      </c>
+      <c r="H747" s="41"/>
       <c r="I747" s="14"/>
       <c r="J747" s="14"/>
-      <c r="K747" s="14"/>
-      <c r="L747" s="14"/>
+      <c r="K747" s="40"/>
+      <c r="L747" s="14" t="s">
+        <v>2923</v>
+      </c>
       <c r="M747" s="14"/>
       <c r="N747" s="14"/>
       <c r="O747" s="14"/>
       <c r="P747" s="16"/>
       <c r="Q747" s="17"/>
     </row>
-    <row r="748" spans="1:17" ht="45.95" customHeight="1">
+    <row r="748" spans="1:18" ht="45.95" customHeight="1">
       <c r="A748" s="20"/>
-      <c r="B748" s="35"/>
-      <c r="C748" s="48"/>
+      <c r="B748" s="42" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C748" s="49" t="s">
+        <v>2931</v>
+      </c>
       <c r="D748" s="14"/>
       <c r="E748" s="14"/>
       <c r="F748" s="14"/>
-      <c r="G748" s="34"/>
-      <c r="H748" s="15"/>
+      <c r="G748" s="40" t="s">
+        <v>2928</v>
+      </c>
+      <c r="H748" s="41" t="s">
+        <v>2927</v>
+      </c>
       <c r="I748" s="14"/>
-      <c r="J748" s="14"/>
-      <c r="K748" s="14"/>
-      <c r="L748" s="14"/>
-      <c r="M748" s="14"/>
+      <c r="J748" s="14" t="s">
+        <v>2930</v>
+      </c>
+      <c r="K748" s="40" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L748" s="40" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M748" s="40" t="s">
+        <v>2932</v>
+      </c>
       <c r="N748" s="14"/>
       <c r="O748" s="14"/>
       <c r="P748" s="16"/>
       <c r="Q748" s="17"/>
-    </row>
-    <row r="749" spans="1:17" ht="45.95" customHeight="1">
+      <c r="R748" s="38" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="749" spans="1:18" ht="45.95" customHeight="1">
       <c r="A749" s="20"/>
-      <c r="B749" s="35"/>
-      <c r="C749" s="48"/>
+      <c r="B749" s="42" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C749" s="49" t="s">
+        <v>2937</v>
+      </c>
       <c r="D749" s="14"/>
       <c r="E749" s="14"/>
       <c r="F749" s="14"/>
-      <c r="G749" s="34"/>
-      <c r="H749" s="15"/>
+      <c r="G749" s="40" t="s">
+        <v>2896</v>
+      </c>
+      <c r="H749" s="41" t="s">
+        <v>2936</v>
+      </c>
       <c r="I749" s="14"/>
       <c r="J749" s="14"/>
-      <c r="K749" s="14"/>
-      <c r="L749" s="14"/>
+      <c r="K749" s="40" t="s">
+        <v>2935</v>
+      </c>
+      <c r="L749" s="40"/>
       <c r="M749" s="14"/>
       <c r="N749" s="14"/>
       <c r="O749" s="14"/>
       <c r="P749" s="16"/>
       <c r="Q749" s="17"/>
     </row>
-    <row r="750" spans="1:17" ht="45.95" customHeight="1">
+    <row r="750" spans="1:18" ht="45.95" customHeight="1">
       <c r="A750" s="20"/>
-      <c r="B750" s="35"/>
-      <c r="C750" s="48"/>
+      <c r="B750" s="42" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C750" s="48" t="s">
+        <v>2945</v>
+      </c>
       <c r="D750" s="14"/>
       <c r="E750" s="14"/>
       <c r="F750" s="14"/>
-      <c r="G750" s="34"/>
-      <c r="H750" s="15"/>
+      <c r="G750" s="40" t="s">
+        <v>2941</v>
+      </c>
+      <c r="H750" s="41" t="s">
+        <v>2940</v>
+      </c>
       <c r="I750" s="14"/>
       <c r="J750" s="14"/>
-      <c r="K750" s="14"/>
-      <c r="L750" s="14"/>
-      <c r="M750" s="14"/>
+      <c r="K750" s="40" t="s">
+        <v>2939</v>
+      </c>
+      <c r="L750" s="14" t="s">
+        <v>2942</v>
+      </c>
+      <c r="M750" s="14" t="s">
+        <v>2943</v>
+      </c>
       <c r="N750" s="14"/>
-      <c r="O750" s="14"/>
+      <c r="O750" s="14" t="s">
+        <v>2944</v>
+      </c>
       <c r="P750" s="16"/>
       <c r="Q750" s="17"/>
     </row>
-    <row r="751" spans="1:17" ht="45.95" customHeight="1">
+    <row r="751" spans="1:18" ht="45.95" customHeight="1">
       <c r="A751" s="20"/>
       <c r="B751" s="35"/>
       <c r="C751" s="48"/>
@@ -35374,7 +35690,7 @@
       <c r="P751" s="16"/>
       <c r="Q751" s="17"/>
     </row>
-    <row r="752" spans="1:17" ht="45.95" customHeight="1">
+    <row r="752" spans="1:18" ht="45.95" customHeight="1">
       <c r="A752" s="20"/>
       <c r="B752" s="35"/>
       <c r="C752" s="48"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="2946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="2988">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12530,6 +12530,164 @@
   </si>
   <si>
     <t>srossman@tallahassee.com</t>
+  </si>
+  <si>
+    <t>Christopher Schnaars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrisschnaars</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fredreka Schouten
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fschouten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Craig Schwed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cschwed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deirdre Shesgreen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dshesgreen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paul Singer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>singernews</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donovan Slack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonovanSlack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Katie Smith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KatieSmithNews</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nichelle Smith</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stephmsolis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doug Stanglin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dstanglin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill Theobald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BillTheobald</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greg Toppo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtoppo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtoppo@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA Today edu writer. Author of THE GAME BELIEVES IN YOU: How Digital Play Can Make Our Kids Smarter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/greg-toppo-8505676a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/wtheobald/</t>
+  </si>
+  <si>
+    <t>Western Correspondent for USA Today/Gannett Washington Bureau, covering papers in Nevada, Colorado, Arizona, Oregon and California</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breaking News Editor, USA TODAY, former Moscow correspondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Covering immigration and western Monmouth County for @asburyparkpress. Formerly @usatoday (RTs not endorsements).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stephsolis.com/</t>
+  </si>
+  <si>
+    <t>dslack@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homeland Security and Veterans Affairs Correspondent, Washington Bureau, USA TODAY dslack@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/donovanslack/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/paul-singer-a1595b95/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/singernews</t>
+  </si>
+  <si>
+    <t>Washington Correspondent for Gannett's Ohio and Missouri newspapers; mom to 2 fab kids; exercise fiend and chocoholic. RT not = endorsement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dshesgreen</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deirdre-shesgreen-b58a72b/</t>
+  </si>
+  <si>
+    <t>cschwed@gannett.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fredreka-schouten-796a84b9/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chris-schnaars-6744685/</t>
   </si>
 </sst>
 </file>
@@ -13254,7 +13412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13266,7 +13424,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D751" sqref="D751"/>
+      <selection pane="bottomLeft" activeCell="L751" sqref="L751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35673,7 +35831,9 @@
     </row>
     <row r="751" spans="1:18" ht="45.95" customHeight="1">
       <c r="A751" s="20"/>
-      <c r="B751" s="35"/>
+      <c r="B751" s="42" t="s">
+        <v>2946</v>
+      </c>
       <c r="C751" s="48"/>
       <c r="D751" s="14"/>
       <c r="E751" s="14"/>
@@ -35682,8 +35842,12 @@
       <c r="H751" s="15"/>
       <c r="I751" s="14"/>
       <c r="J751" s="14"/>
-      <c r="K751" s="14"/>
-      <c r="L751" s="14"/>
+      <c r="K751" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L751" s="14" t="s">
+        <v>2987</v>
+      </c>
       <c r="M751" s="14"/>
       <c r="N751" s="14"/>
       <c r="O751" s="14"/>
@@ -35692,7 +35856,9 @@
     </row>
     <row r="752" spans="1:18" ht="45.95" customHeight="1">
       <c r="A752" s="20"/>
-      <c r="B752" s="35"/>
+      <c r="B752" s="42" t="s">
+        <v>2948</v>
+      </c>
       <c r="C752" s="48"/>
       <c r="D752" s="14"/>
       <c r="E752" s="14"/>
@@ -35701,8 +35867,12 @@
       <c r="H752" s="15"/>
       <c r="I752" s="14"/>
       <c r="J752" s="14"/>
-      <c r="K752" s="14"/>
-      <c r="L752" s="14"/>
+      <c r="K752" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="L752" s="14" t="s">
+        <v>2986</v>
+      </c>
       <c r="M752" s="14"/>
       <c r="N752" s="14"/>
       <c r="O752" s="14"/>
@@ -35711,8 +35881,12 @@
     </row>
     <row r="753" spans="1:17" ht="45.95" customHeight="1">
       <c r="A753" s="20"/>
-      <c r="B753" s="35"/>
-      <c r="C753" s="48"/>
+      <c r="B753" s="42" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C753" s="48" t="s">
+        <v>2985</v>
+      </c>
       <c r="D753" s="14"/>
       <c r="E753" s="14"/>
       <c r="F753" s="14"/>
@@ -35720,7 +35894,9 @@
       <c r="H753" s="15"/>
       <c r="I753" s="14"/>
       <c r="J753" s="14"/>
-      <c r="K753" s="14"/>
+      <c r="K753" s="40" t="s">
+        <v>2951</v>
+      </c>
       <c r="L753" s="14"/>
       <c r="M753" s="14"/>
       <c r="N753" s="14"/>
@@ -35730,18 +35906,28 @@
     </row>
     <row r="754" spans="1:17" ht="45.95" customHeight="1">
       <c r="A754" s="20"/>
-      <c r="B754" s="35"/>
+      <c r="B754" s="42" t="s">
+        <v>2952</v>
+      </c>
       <c r="C754" s="48"/>
       <c r="D754" s="14"/>
       <c r="E754" s="14"/>
       <c r="F754" s="14"/>
       <c r="G754" s="34"/>
-      <c r="H754" s="15"/>
+      <c r="H754" s="41" t="s">
+        <v>2982</v>
+      </c>
       <c r="I754" s="14"/>
       <c r="J754" s="14"/>
-      <c r="K754" s="14"/>
-      <c r="L754" s="14"/>
-      <c r="M754" s="14"/>
+      <c r="K754" s="40" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L754" s="14" t="s">
+        <v>2984</v>
+      </c>
+      <c r="M754" s="14" t="s">
+        <v>2983</v>
+      </c>
       <c r="N754" s="14"/>
       <c r="O754" s="14"/>
       <c r="P754" s="16"/>
@@ -35749,7 +35935,9 @@
     </row>
     <row r="755" spans="1:17" ht="45.95" customHeight="1">
       <c r="A755" s="20"/>
-      <c r="B755" s="35"/>
+      <c r="B755" s="42" t="s">
+        <v>2954</v>
+      </c>
       <c r="C755" s="48"/>
       <c r="D755" s="14"/>
       <c r="E755" s="14"/>
@@ -35758,9 +35946,15 @@
       <c r="H755" s="15"/>
       <c r="I755" s="14"/>
       <c r="J755" s="14"/>
-      <c r="K755" s="14"/>
-      <c r="L755" s="14"/>
-      <c r="M755" s="14"/>
+      <c r="K755" s="40" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L755" s="14" t="s">
+        <v>2980</v>
+      </c>
+      <c r="M755" s="14" t="s">
+        <v>2981</v>
+      </c>
       <c r="N755" s="14"/>
       <c r="O755" s="14"/>
       <c r="P755" s="16"/>
@@ -35768,17 +35962,27 @@
     </row>
     <row r="756" spans="1:17" ht="45.95" customHeight="1">
       <c r="A756" s="20"/>
-      <c r="B756" s="35"/>
-      <c r="C756" s="48"/>
+      <c r="B756" s="42" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C756" s="49" t="s">
+        <v>2977</v>
+      </c>
       <c r="D756" s="14"/>
       <c r="E756" s="14"/>
       <c r="F756" s="14"/>
       <c r="G756" s="34"/>
-      <c r="H756" s="15"/>
+      <c r="H756" s="41" t="s">
+        <v>2978</v>
+      </c>
       <c r="I756" s="14"/>
       <c r="J756" s="14"/>
-      <c r="K756" s="14"/>
-      <c r="L756" s="14"/>
+      <c r="K756" s="40" t="s">
+        <v>2957</v>
+      </c>
+      <c r="L756" s="14" t="s">
+        <v>2979</v>
+      </c>
       <c r="M756" s="14"/>
       <c r="N756" s="14"/>
       <c r="O756" s="14"/>
@@ -35787,7 +35991,9 @@
     </row>
     <row r="757" spans="1:17" ht="45.95" customHeight="1">
       <c r="A757" s="20"/>
-      <c r="B757" s="35"/>
+      <c r="B757" s="42" t="s">
+        <v>2958</v>
+      </c>
       <c r="C757" s="48"/>
       <c r="D757" s="14"/>
       <c r="E757" s="14"/>
@@ -35796,7 +36002,9 @@
       <c r="H757" s="15"/>
       <c r="I757" s="14"/>
       <c r="J757" s="14"/>
-      <c r="K757" s="14"/>
+      <c r="K757" s="40" t="s">
+        <v>2959</v>
+      </c>
       <c r="L757" s="14"/>
       <c r="M757" s="14"/>
       <c r="N757" s="14"/>
@@ -35806,16 +36014,24 @@
     </row>
     <row r="758" spans="1:17" ht="45.95" customHeight="1">
       <c r="A758" s="20"/>
-      <c r="B758" s="35"/>
+      <c r="B758" s="42" t="s">
+        <v>2960</v>
+      </c>
       <c r="C758" s="48"/>
       <c r="D758" s="14"/>
       <c r="E758" s="14"/>
       <c r="F758" s="14"/>
       <c r="G758" s="34"/>
-      <c r="H758" s="15"/>
+      <c r="H758" s="41" t="s">
+        <v>2975</v>
+      </c>
       <c r="I758" s="14"/>
-      <c r="J758" s="14"/>
-      <c r="K758" s="14"/>
+      <c r="J758" s="14" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K758" s="40" t="s">
+        <v>2961</v>
+      </c>
       <c r="L758" s="14"/>
       <c r="M758" s="14"/>
       <c r="N758" s="14"/>
@@ -35825,16 +36041,22 @@
     </row>
     <row r="759" spans="1:17" ht="45.95" customHeight="1">
       <c r="A759" s="20"/>
-      <c r="B759" s="35"/>
+      <c r="B759" s="42" t="s">
+        <v>2962</v>
+      </c>
       <c r="C759" s="48"/>
       <c r="D759" s="14"/>
       <c r="E759" s="14"/>
       <c r="F759" s="14"/>
       <c r="G759" s="34"/>
-      <c r="H759" s="15"/>
+      <c r="H759" s="41" t="s">
+        <v>2974</v>
+      </c>
       <c r="I759" s="14"/>
       <c r="J759" s="14"/>
-      <c r="K759" s="14"/>
+      <c r="K759" s="40" t="s">
+        <v>2963</v>
+      </c>
       <c r="L759" s="14"/>
       <c r="M759" s="14"/>
       <c r="N759" s="14"/>
@@ -35844,17 +36066,25 @@
     </row>
     <row r="760" spans="1:17" ht="45.95" customHeight="1">
       <c r="A760" s="20"/>
-      <c r="B760" s="35"/>
+      <c r="B760" s="42" t="s">
+        <v>2964</v>
+      </c>
       <c r="C760" s="48"/>
       <c r="D760" s="14"/>
       <c r="E760" s="14"/>
       <c r="F760" s="14"/>
       <c r="G760" s="34"/>
-      <c r="H760" s="15"/>
+      <c r="H760" s="41" t="s">
+        <v>2973</v>
+      </c>
       <c r="I760" s="14"/>
       <c r="J760" s="14"/>
-      <c r="K760" s="14"/>
-      <c r="L760" s="14"/>
+      <c r="K760" s="40" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L760" s="14" t="s">
+        <v>2972</v>
+      </c>
       <c r="M760" s="14"/>
       <c r="N760" s="14"/>
       <c r="O760" s="14"/>
@@ -35863,17 +36093,29 @@
     </row>
     <row r="761" spans="1:17" ht="45.95" customHeight="1">
       <c r="A761" s="20"/>
-      <c r="B761" s="35"/>
-      <c r="C761" s="48"/>
+      <c r="B761" s="42" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C761" s="49" t="s">
+        <v>2968</v>
+      </c>
       <c r="D761" s="14"/>
       <c r="E761" s="14"/>
       <c r="F761" s="14"/>
-      <c r="G761" s="34"/>
-      <c r="H761" s="15"/>
+      <c r="G761" s="40" t="s">
+        <v>2970</v>
+      </c>
+      <c r="H761" s="41" t="s">
+        <v>2969</v>
+      </c>
       <c r="I761" s="14"/>
       <c r="J761" s="14"/>
-      <c r="K761" s="14"/>
-      <c r="L761" s="14"/>
+      <c r="K761" s="40" t="s">
+        <v>2967</v>
+      </c>
+      <c r="L761" s="14" t="s">
+        <v>2971</v>
+      </c>
       <c r="M761" s="14"/>
       <c r="N761" s="14"/>
       <c r="O761" s="14"/>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="2988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="3011">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12689,12 +12689,116 @@
   <si>
     <t>https://www.linkedin.com/in/chris-schnaars-6744685/</t>
   </si>
+  <si>
+    <t>Owen Ullmann</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ullmann</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor/ World News at USA TODAY. I still love to hold a newspaper even as I watch YouTube videos on my iPad and play Words with Friends on my iPhone.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom Vanden Brook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvandenbrook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvbrook@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentagon correspondent for USA Today, Green Bay Packer shareholder, dog walker tvbrook@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beth Weise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eweise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elizabeth Weise covers computer security, technology and Silicon Valley USA Today. FYI, it's pronounced like 'geese.'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://elizabethweise.wordpress.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rich Wolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>richardjwolf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Husband, dad, autism advocate, baseball fan, dog lover and Supreme Court reporter for USA TODAY.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alison Young</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alisonannyoung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter on USA TODAY's investigative team, writing about health, environment + consumer issues. ayoung@usatoday.com Snailmail:130 S. Meridian, Indpls, IN 46225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ayoung@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregg Zoroya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">USA TODAY edit. writer, author of The Chosen Few, available at: http://amzn.to/2fOLeg3  B&amp;N: http://bit.ly/2ixh3ru  Indiebound: http://bit.ly/2i7pltM </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit. Writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>greggzoroya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13412,22 +13516,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S864"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L751" sqref="L751"/>
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G765" sqref="G765"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="31" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="24" customWidth="1"/>
@@ -13449,7 +13553,7 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -13505,7 +13609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:18" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -13536,7 +13640,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -13567,7 +13671,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -13598,7 +13702,7 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -13633,7 +13737,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -13679,7 +13783,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -13712,7 +13816,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -13754,7 +13858,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -13789,7 +13893,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -13828,7 +13932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -13858,7 +13962,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="12" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -13890,7 +13994,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
-    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -13925,7 +14029,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
-    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -13949,7 +14053,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -13986,7 +14090,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="16" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -14023,7 +14127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -14058,7 +14162,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="18" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -14089,7 +14193,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="19" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -14128,7 +14232,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="20" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -14159,7 +14263,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
-    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="21" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -14186,7 +14290,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="22" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -14219,7 +14323,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -14252,7 +14356,7 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
-    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="24" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -14283,7 +14387,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
-    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="25" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -14320,7 +14424,7 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="26" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -14355,7 +14459,7 @@
       </c>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="27" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -14392,7 +14496,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="28" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -14423,7 +14527,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="29" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -14456,7 +14560,7 @@
       <c r="P29" s="16"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="30" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -14485,7 +14589,7 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="31" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -14512,7 +14616,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="32" spans="1:17" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -14543,7 +14647,7 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -14574,7 +14678,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -14612,7 +14716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="35" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -14645,7 +14749,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -14672,7 +14776,7 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="37" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -14707,7 +14811,7 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="38" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -14742,7 +14846,7 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -14779,7 +14883,7 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="40" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -14812,7 +14916,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="41" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -14850,7 +14954,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="42" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -14885,7 +14989,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="43" spans="1:18" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -14916,7 +15020,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1">
+    <row r="44" spans="1:18" ht="45.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -14955,7 +15059,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="45.95" customHeight="1">
+    <row r="45" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>247</v>
       </c>
@@ -14990,7 +15094,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="45.95" customHeight="1">
+    <row r="46" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>247</v>
       </c>
@@ -15025,7 +15129,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="45.95" customHeight="1">
+    <row r="47" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
@@ -15058,7 +15162,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="45.95" customHeight="1">
+    <row r="48" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>247</v>
       </c>
@@ -15093,7 +15197,7 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="45.95" customHeight="1">
+    <row r="49" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>277</v>
       </c>
@@ -15124,7 +15228,7 @@
         <v>423141809</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45.95" customHeight="1">
+    <row r="50" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>247</v>
       </c>
@@ -15149,7 +15253,7 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="45.95" customHeight="1">
+    <row r="51" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>247</v>
       </c>
@@ -15188,7 +15292,7 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="45.95" customHeight="1">
+    <row r="52" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>247</v>
       </c>
@@ -15222,7 +15326,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45.95" customHeight="1">
+    <row r="53" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>247</v>
       </c>
@@ -15257,7 +15361,7 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="45.95" customHeight="1">
+    <row r="54" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>247</v>
       </c>
@@ -15294,7 +15398,7 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="45.95" customHeight="1">
+    <row r="55" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>247</v>
       </c>
@@ -15336,7 +15440,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45.95" customHeight="1">
+    <row r="56" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>321</v>
       </c>
@@ -15369,7 +15473,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="45.95" customHeight="1">
+    <row r="57" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>334</v>
       </c>
@@ -15402,7 +15506,7 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="45.95" customHeight="1">
+    <row r="58" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>334</v>
       </c>
@@ -15433,7 +15537,7 @@
       <c r="P58" s="16"/>
       <c r="Q58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="45.95" customHeight="1">
+    <row r="59" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>334</v>
       </c>
@@ -15468,7 +15572,7 @@
       <c r="P59" s="16"/>
       <c r="Q59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="45.95" customHeight="1">
+    <row r="60" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>342</v>
       </c>
@@ -15497,7 +15601,7 @@
       <c r="P60" s="16"/>
       <c r="Q60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="45.95" customHeight="1">
+    <row r="61" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>334</v>
       </c>
@@ -15526,7 +15630,7 @@
       <c r="P61" s="16"/>
       <c r="Q61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="45.95" customHeight="1">
+    <row r="62" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>334</v>
       </c>
@@ -15557,7 +15661,7 @@
       <c r="P62" s="16"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="45.95" customHeight="1">
+    <row r="63" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>361</v>
       </c>
@@ -15586,7 +15690,7 @@
       <c r="P63" s="16"/>
       <c r="Q63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="45.95" customHeight="1">
+    <row r="64" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>361</v>
       </c>
@@ -15617,7 +15721,7 @@
       <c r="P64" s="16"/>
       <c r="Q64" s="17"/>
     </row>
-    <row r="65" spans="1:17" ht="45.95" customHeight="1">
+    <row r="65" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>361</v>
       </c>
@@ -15648,7 +15752,7 @@
       <c r="P65" s="16"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="1:17" ht="45.95" customHeight="1">
+    <row r="66" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>361</v>
       </c>
@@ -15681,7 +15785,7 @@
       <c r="P66" s="16"/>
       <c r="Q66" s="17"/>
     </row>
-    <row r="67" spans="1:17" ht="45.95" customHeight="1">
+    <row r="67" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>361</v>
       </c>
@@ -15712,7 +15816,7 @@
       <c r="P67" s="16"/>
       <c r="Q67" s="17"/>
     </row>
-    <row r="68" spans="1:17" ht="45.95" customHeight="1">
+    <row r="68" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>361</v>
       </c>
@@ -15747,7 +15851,7 @@
       <c r="P68" s="16"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="1:17" ht="45.95" customHeight="1">
+    <row r="69" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>396</v>
       </c>
@@ -15782,7 +15886,7 @@
       <c r="P69" s="16"/>
       <c r="Q69" s="17"/>
     </row>
-    <row r="70" spans="1:17" ht="45.95" customHeight="1">
+    <row r="70" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>396</v>
       </c>
@@ -15815,7 +15919,7 @@
       <c r="P70" s="16"/>
       <c r="Q70" s="17"/>
     </row>
-    <row r="71" spans="1:17" ht="45.95" customHeight="1">
+    <row r="71" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>396</v>
       </c>
@@ -15848,7 +15952,7 @@
       <c r="P71" s="16"/>
       <c r="Q71" s="17"/>
     </row>
-    <row r="72" spans="1:17" ht="45.95" customHeight="1">
+    <row r="72" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>396</v>
       </c>
@@ -15885,7 +15989,7 @@
       <c r="P72" s="16"/>
       <c r="Q72" s="17"/>
     </row>
-    <row r="73" spans="1:17" ht="45.95" customHeight="1">
+    <row r="73" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>396</v>
       </c>
@@ -15922,7 +16026,7 @@
       <c r="P73" s="16"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" ht="45.95" customHeight="1">
+    <row r="74" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>396</v>
       </c>
@@ -15957,7 +16061,7 @@
       <c r="P74" s="16"/>
       <c r="Q74" s="17"/>
     </row>
-    <row r="75" spans="1:17" ht="45.95" customHeight="1">
+    <row r="75" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>396</v>
       </c>
@@ -15992,7 +16096,7 @@
       <c r="P75" s="16"/>
       <c r="Q75" s="17"/>
     </row>
-    <row r="76" spans="1:17" ht="45.95" customHeight="1">
+    <row r="76" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>396</v>
       </c>
@@ -16023,7 +16127,7 @@
       <c r="P76" s="16"/>
       <c r="Q76" s="17"/>
     </row>
-    <row r="77" spans="1:17" ht="45.95" customHeight="1">
+    <row r="77" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>396</v>
       </c>
@@ -16058,7 +16162,7 @@
       <c r="P77" s="16"/>
       <c r="Q77" s="17"/>
     </row>
-    <row r="78" spans="1:17" ht="45.95" customHeight="1">
+    <row r="78" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>396</v>
       </c>
@@ -16093,7 +16197,7 @@
       <c r="P78" s="16"/>
       <c r="Q78" s="17"/>
     </row>
-    <row r="79" spans="1:17" ht="45.95" customHeight="1">
+    <row r="79" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>396</v>
       </c>
@@ -16122,7 +16226,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="17"/>
     </row>
-    <row r="80" spans="1:17" ht="45.95" customHeight="1">
+    <row r="80" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>396</v>
       </c>
@@ -16147,7 +16251,7 @@
       <c r="P80" s="16"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" ht="45.95" customHeight="1">
+    <row r="81" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>396</v>
       </c>
@@ -16174,7 +16278,7 @@
       <c r="P81" s="16"/>
       <c r="Q81" s="17"/>
     </row>
-    <row r="82" spans="1:17" ht="45.95" customHeight="1">
+    <row r="82" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>396</v>
       </c>
@@ -16201,7 +16305,7 @@
       <c r="P82" s="16"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="1:17" ht="45.95" customHeight="1">
+    <row r="83" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>396</v>
       </c>
@@ -16228,7 +16332,7 @@
       <c r="P83" s="16"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="1:17" ht="45.95" customHeight="1">
+    <row r="84" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>396</v>
       </c>
@@ -16257,7 +16361,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45.95" customHeight="1">
+    <row r="85" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>396</v>
       </c>
@@ -16284,7 +16388,7 @@
       <c r="P85" s="16"/>
       <c r="Q85" s="17"/>
     </row>
-    <row r="86" spans="1:17" ht="45.95" customHeight="1">
+    <row r="86" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>396</v>
       </c>
@@ -16321,7 +16425,7 @@
       <c r="P86" s="16"/>
       <c r="Q86" s="17"/>
     </row>
-    <row r="87" spans="1:17" ht="45.95" customHeight="1">
+    <row r="87" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>396</v>
       </c>
@@ -16356,7 +16460,7 @@
       <c r="P87" s="16"/>
       <c r="Q87" s="17"/>
     </row>
-    <row r="88" spans="1:17" ht="45.95" customHeight="1">
+    <row r="88" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>396</v>
       </c>
@@ -16391,7 +16495,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="17"/>
     </row>
-    <row r="89" spans="1:17" ht="45.95" customHeight="1">
+    <row r="89" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>396</v>
       </c>
@@ -16422,7 +16526,7 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="17"/>
     </row>
-    <row r="90" spans="1:17" ht="45.95" customHeight="1">
+    <row r="90" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>396</v>
       </c>
@@ -16453,7 +16557,7 @@
       <c r="P90" s="16"/>
       <c r="Q90" s="17"/>
     </row>
-    <row r="91" spans="1:17" ht="45.95" customHeight="1">
+    <row r="91" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>396</v>
       </c>
@@ -16482,7 +16586,7 @@
       <c r="P91" s="16"/>
       <c r="Q91" s="17"/>
     </row>
-    <row r="92" spans="1:17" ht="45.95" customHeight="1">
+    <row r="92" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>396</v>
       </c>
@@ -16519,7 +16623,7 @@
       <c r="P92" s="16"/>
       <c r="Q92" s="17"/>
     </row>
-    <row r="93" spans="1:17" ht="45.95" customHeight="1">
+    <row r="93" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>396</v>
       </c>
@@ -16560,7 +16664,7 @@
       <c r="P93" s="16"/>
       <c r="Q93" s="17"/>
     </row>
-    <row r="94" spans="1:17" ht="45.95" customHeight="1">
+    <row r="94" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>396</v>
       </c>
@@ -16597,7 +16701,7 @@
       <c r="P94" s="16"/>
       <c r="Q94" s="17"/>
     </row>
-    <row r="95" spans="1:17" ht="45.95" customHeight="1">
+    <row r="95" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>539</v>
       </c>
@@ -16638,7 +16742,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45.95" customHeight="1">
+    <row r="96" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>539</v>
       </c>
@@ -16666,7 +16770,7 @@
       <c r="P96" s="16"/>
       <c r="Q96" s="17"/>
     </row>
-    <row r="97" spans="1:17" ht="45.95" customHeight="1">
+    <row r="97" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>539</v>
       </c>
@@ -16699,7 +16803,7 @@
       <c r="P97" s="16"/>
       <c r="Q97" s="17"/>
     </row>
-    <row r="98" spans="1:17" ht="45.95" customHeight="1">
+    <row r="98" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>539</v>
       </c>
@@ -16732,7 +16836,7 @@
       <c r="P98" s="16"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:17" ht="45.95" customHeight="1">
+    <row r="99" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>539</v>
       </c>
@@ -16767,7 +16871,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="45.95" customHeight="1">
+    <row r="100" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>539</v>
       </c>
@@ -16806,7 +16910,7 @@
       <c r="P100" s="16"/>
       <c r="Q100" s="17"/>
     </row>
-    <row r="101" spans="1:17" ht="45.95" customHeight="1">
+    <row r="101" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>539</v>
       </c>
@@ -16837,7 +16941,7 @@
       <c r="P101" s="16"/>
       <c r="Q101" s="17"/>
     </row>
-    <row r="102" spans="1:17" ht="45.95" customHeight="1">
+    <row r="102" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>539</v>
       </c>
@@ -16868,7 +16972,7 @@
       <c r="P102" s="16"/>
       <c r="Q102" s="17"/>
     </row>
-    <row r="103" spans="1:17" ht="45.95" customHeight="1">
+    <row r="103" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>539</v>
       </c>
@@ -16905,7 +17009,7 @@
       <c r="P103" s="16"/>
       <c r="Q103" s="17"/>
     </row>
-    <row r="104" spans="1:17" ht="45.95" customHeight="1">
+    <row r="104" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>539</v>
       </c>
@@ -16946,7 +17050,7 @@
       <c r="P104" s="16"/>
       <c r="Q104" s="17"/>
     </row>
-    <row r="105" spans="1:17" ht="45.95" customHeight="1">
+    <row r="105" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>678</v>
       </c>
@@ -16983,7 +17087,7 @@
       <c r="P105" s="16"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="45.95" customHeight="1">
+    <row r="106" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>678</v>
       </c>
@@ -17020,7 +17124,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="17"/>
     </row>
-    <row r="107" spans="1:17" ht="45.95" customHeight="1">
+    <row r="107" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>678</v>
       </c>
@@ -17057,7 +17161,7 @@
       <c r="P107" s="16"/>
       <c r="Q107" s="17"/>
     </row>
-    <row r="108" spans="1:17" ht="45.95" customHeight="1">
+    <row r="108" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>678</v>
       </c>
@@ -17096,7 +17200,7 @@
       <c r="P108" s="16"/>
       <c r="Q108" s="17"/>
     </row>
-    <row r="109" spans="1:17" ht="45.95" customHeight="1">
+    <row r="109" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>678</v>
       </c>
@@ -17133,7 +17237,7 @@
       </c>
       <c r="Q109" s="17"/>
     </row>
-    <row r="110" spans="1:17" ht="45.95" customHeight="1">
+    <row r="110" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>678</v>
       </c>
@@ -17164,7 +17268,7 @@
       <c r="P110" s="16"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:17" ht="45.95" customHeight="1">
+    <row r="111" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>678</v>
       </c>
@@ -17195,7 +17299,7 @@
       <c r="P111" s="16"/>
       <c r="Q111" s="17"/>
     </row>
-    <row r="112" spans="1:17" ht="45.95" customHeight="1">
+    <row r="112" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>678</v>
       </c>
@@ -17232,7 +17336,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="17"/>
     </row>
-    <row r="113" spans="1:17" ht="45.95" customHeight="1">
+    <row r="113" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>678</v>
       </c>
@@ -17273,7 +17377,7 @@
       <c r="P113" s="16"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:17" ht="45.95" customHeight="1">
+    <row r="114" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>678</v>
       </c>
@@ -17310,7 +17414,7 @@
       <c r="P114" s="16"/>
       <c r="Q114" s="17"/>
     </row>
-    <row r="115" spans="1:17" ht="45.95" customHeight="1">
+    <row r="115" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>678</v>
       </c>
@@ -17333,7 +17437,7 @@
       <c r="P115" s="16"/>
       <c r="Q115" s="17"/>
     </row>
-    <row r="116" spans="1:17" ht="45.95" customHeight="1">
+    <row r="116" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>678</v>
       </c>
@@ -17372,7 +17476,7 @@
       <c r="P116" s="16"/>
       <c r="Q116" s="17"/>
     </row>
-    <row r="117" spans="1:17" ht="45.95" customHeight="1">
+    <row r="117" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>678</v>
       </c>
@@ -17409,7 +17513,7 @@
       <c r="P117" s="16"/>
       <c r="Q117" s="17"/>
     </row>
-    <row r="118" spans="1:17" ht="45.95" customHeight="1">
+    <row r="118" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>678</v>
       </c>
@@ -17446,7 +17550,7 @@
       <c r="P118" s="16"/>
       <c r="Q118" s="17"/>
     </row>
-    <row r="119" spans="1:17" ht="45.95" customHeight="1">
+    <row r="119" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>678</v>
       </c>
@@ -17477,7 +17581,7 @@
       <c r="P119" s="16"/>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:17" ht="45.95" customHeight="1">
+    <row r="120" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>678</v>
       </c>
@@ -17510,7 +17614,7 @@
       <c r="P120" s="16"/>
       <c r="Q120" s="17"/>
     </row>
-    <row r="121" spans="1:17" ht="45.95" customHeight="1">
+    <row r="121" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>678</v>
       </c>
@@ -17551,7 +17655,7 @@
       </c>
       <c r="Q121" s="17"/>
     </row>
-    <row r="122" spans="1:17" ht="45.95" customHeight="1">
+    <row r="122" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>678</v>
       </c>
@@ -17586,7 +17690,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="45.95" customHeight="1">
+    <row r="123" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17617,7 +17721,7 @@
       <c r="P123" s="16"/>
       <c r="Q123" s="17"/>
     </row>
-    <row r="124" spans="1:17" ht="45.95" customHeight="1">
+    <row r="124" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17648,7 +17752,7 @@
       <c r="P124" s="16"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="45.95" customHeight="1">
+    <row r="125" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>1177</v>
       </c>
@@ -17679,7 +17783,7 @@
       <c r="P125" s="16"/>
       <c r="Q125" s="17"/>
     </row>
-    <row r="126" spans="1:17" ht="45.95" customHeight="1">
+    <row r="126" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>1178</v>
       </c>
@@ -17718,7 +17822,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="17"/>
     </row>
-    <row r="127" spans="1:17" ht="45.95" customHeight="1">
+    <row r="127" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>1178</v>
       </c>
@@ -17753,7 +17857,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="17"/>
     </row>
-    <row r="128" spans="1:17" ht="45.95" customHeight="1">
+    <row r="128" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17788,7 +17892,7 @@
       <c r="P128" s="16"/>
       <c r="Q128" s="17"/>
     </row>
-    <row r="129" spans="1:17" ht="45.95" customHeight="1">
+    <row r="129" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17817,7 +17921,7 @@
       <c r="P129" s="16"/>
       <c r="Q129" s="17"/>
     </row>
-    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="130" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>791</v>
       </c>
@@ -17852,7 +17956,7 @@
       <c r="P130" s="28"/>
       <c r="Q130" s="29"/>
     </row>
-    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="131" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>790</v>
       </c>
@@ -17881,7 +17985,7 @@
       <c r="P131" s="28"/>
       <c r="Q131" s="29"/>
     </row>
-    <row r="132" spans="1:17" ht="45.95" customHeight="1">
+    <row r="132" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>1180</v>
       </c>
@@ -17914,7 +18018,7 @@
       <c r="P132" s="16"/>
       <c r="Q132" s="17"/>
     </row>
-    <row r="133" spans="1:17" ht="45.95" customHeight="1">
+    <row r="133" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17941,7 +18045,7 @@
       <c r="P133" s="16"/>
       <c r="Q133" s="17"/>
     </row>
-    <row r="134" spans="1:17" ht="45.95" customHeight="1">
+    <row r="134" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>1176</v>
       </c>
@@ -17978,7 +18082,7 @@
       <c r="P134" s="16"/>
       <c r="Q134" s="17"/>
     </row>
-    <row r="135" spans="1:17" ht="45.95" customHeight="1">
+    <row r="135" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>1052</v>
       </c>
@@ -18013,7 +18117,7 @@
       <c r="P135" s="16"/>
       <c r="Q135" s="17"/>
     </row>
-    <row r="136" spans="1:17" ht="45.95" customHeight="1">
+    <row r="136" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>1052</v>
       </c>
@@ -18056,7 +18160,7 @@
       <c r="P136" s="16"/>
       <c r="Q136" s="17"/>
     </row>
-    <row r="137" spans="1:17" ht="45.95" customHeight="1">
+    <row r="137" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>1180</v>
       </c>
@@ -18089,7 +18193,7 @@
       <c r="P137" s="16"/>
       <c r="Q137" s="17"/>
     </row>
-    <row r="138" spans="1:17" ht="45.95" customHeight="1">
+    <row r="138" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>1052</v>
       </c>
@@ -18124,7 +18228,7 @@
       <c r="P138" s="16"/>
       <c r="Q138" s="17"/>
     </row>
-    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1">
+    <row r="139" spans="1:17" s="30" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18161,7 +18265,7 @@
       <c r="P139" s="28"/>
       <c r="Q139" s="29"/>
     </row>
-    <row r="140" spans="1:17" ht="45.95" customHeight="1">
+    <row r="140" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>1052</v>
       </c>
@@ -18198,7 +18302,7 @@
       <c r="P140" s="16"/>
       <c r="Q140" s="17"/>
     </row>
-    <row r="141" spans="1:17" ht="45.95" customHeight="1">
+    <row r="141" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>1177</v>
       </c>
@@ -18235,7 +18339,7 @@
       <c r="P141" s="16"/>
       <c r="Q141" s="17"/>
     </row>
-    <row r="142" spans="1:17" ht="45.95" customHeight="1">
+    <row r="142" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>1052</v>
       </c>
@@ -18272,7 +18376,7 @@
       <c r="P142" s="16"/>
       <c r="Q142" s="17"/>
     </row>
-    <row r="143" spans="1:17" ht="45.95" customHeight="1">
+    <row r="143" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>1178</v>
       </c>
@@ -18309,7 +18413,7 @@
       <c r="P143" s="16"/>
       <c r="Q143" s="17"/>
     </row>
-    <row r="144" spans="1:17" ht="45.95" customHeight="1">
+    <row r="144" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>1176</v>
       </c>
@@ -18338,7 +18442,7 @@
       <c r="P144" s="16"/>
       <c r="Q144" s="17"/>
     </row>
-    <row r="145" spans="1:17" ht="45.95" customHeight="1">
+    <row r="145" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>880</v>
       </c>
@@ -18377,7 +18481,7 @@
       <c r="P145" s="16"/>
       <c r="Q145" s="17"/>
     </row>
-    <row r="146" spans="1:17" ht="45.95" customHeight="1">
+    <row r="146" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>880</v>
       </c>
@@ -18420,7 +18524,7 @@
       <c r="P146" s="16"/>
       <c r="Q146" s="17"/>
     </row>
-    <row r="147" spans="1:17" ht="45.95" customHeight="1">
+    <row r="147" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20"/>
       <c r="B147" s="13"/>
       <c r="C147" s="45"/>
@@ -18443,7 +18547,7 @@
       <c r="P147" s="16"/>
       <c r="Q147" s="17"/>
     </row>
-    <row r="148" spans="1:17" ht="45.95" customHeight="1">
+    <row r="148" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20"/>
       <c r="B148" s="13"/>
       <c r="C148" s="45"/>
@@ -18466,7 +18570,7 @@
       <c r="P148" s="16"/>
       <c r="Q148" s="17"/>
     </row>
-    <row r="149" spans="1:17" ht="45.95" customHeight="1">
+    <row r="149" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>929</v>
       </c>
@@ -18495,7 +18599,7 @@
       <c r="P149" s="16"/>
       <c r="Q149" s="17"/>
     </row>
-    <row r="150" spans="1:17" ht="45.95" customHeight="1">
+    <row r="150" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>929</v>
       </c>
@@ -18524,7 +18628,7 @@
       <c r="P150" s="16"/>
       <c r="Q150" s="17"/>
     </row>
-    <row r="151" spans="1:17" ht="45.95" customHeight="1">
+    <row r="151" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>929</v>
       </c>
@@ -18553,7 +18657,7 @@
       <c r="P151" s="16"/>
       <c r="Q151" s="17"/>
     </row>
-    <row r="152" spans="1:17" ht="45.95" customHeight="1">
+    <row r="152" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>929</v>
       </c>
@@ -18582,7 +18686,7 @@
       <c r="P152" s="16"/>
       <c r="Q152" s="17"/>
     </row>
-    <row r="153" spans="1:17" ht="45.95" customHeight="1">
+    <row r="153" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>929</v>
       </c>
@@ -18611,7 +18715,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="17"/>
     </row>
-    <row r="154" spans="1:17" ht="45.95" customHeight="1">
+    <row r="154" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>929</v>
       </c>
@@ -18640,7 +18744,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="17"/>
     </row>
-    <row r="155" spans="1:17" ht="45.95" customHeight="1">
+    <row r="155" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>929</v>
       </c>
@@ -18669,7 +18773,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="17"/>
     </row>
-    <row r="156" spans="1:17" ht="45.95" customHeight="1">
+    <row r="156" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>929</v>
       </c>
@@ -18698,7 +18802,7 @@
       <c r="P156" s="16"/>
       <c r="Q156" s="17"/>
     </row>
-    <row r="157" spans="1:17" ht="45.95" customHeight="1">
+    <row r="157" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>929</v>
       </c>
@@ -18727,7 +18831,7 @@
       <c r="P157" s="16"/>
       <c r="Q157" s="17"/>
     </row>
-    <row r="158" spans="1:17" ht="45.95" customHeight="1">
+    <row r="158" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>929</v>
       </c>
@@ -18758,7 +18862,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="17"/>
     </row>
-    <row r="159" spans="1:17" ht="45.95" customHeight="1">
+    <row r="159" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>929</v>
       </c>
@@ -18789,7 +18893,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="17"/>
     </row>
-    <row r="160" spans="1:17" ht="45.95" customHeight="1">
+    <row r="160" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>929</v>
       </c>
@@ -18820,7 +18924,7 @@
       <c r="P160" s="16"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="45.95" customHeight="1">
+    <row r="161" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>929</v>
       </c>
@@ -18849,7 +18953,7 @@
       <c r="P161" s="16"/>
       <c r="Q161" s="17"/>
     </row>
-    <row r="162" spans="1:17" ht="45.95" customHeight="1">
+    <row r="162" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>929</v>
       </c>
@@ -18878,7 +18982,7 @@
       <c r="P162" s="16"/>
       <c r="Q162" s="17"/>
     </row>
-    <row r="163" spans="1:17" ht="45.95" customHeight="1">
+    <row r="163" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>929</v>
       </c>
@@ -18907,7 +19011,7 @@
       <c r="P163" s="16"/>
       <c r="Q163" s="17"/>
     </row>
-    <row r="164" spans="1:17" ht="45.95" customHeight="1">
+    <row r="164" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>929</v>
       </c>
@@ -18936,7 +19040,7 @@
       <c r="P164" s="16"/>
       <c r="Q164" s="17"/>
     </row>
-    <row r="165" spans="1:17" ht="45.95" customHeight="1">
+    <row r="165" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>929</v>
       </c>
@@ -18965,7 +19069,7 @@
       <c r="P165" s="16"/>
       <c r="Q165" s="17"/>
     </row>
-    <row r="166" spans="1:17" ht="45.95" customHeight="1">
+    <row r="166" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>929</v>
       </c>
@@ -18994,7 +19098,7 @@
       <c r="P166" s="16"/>
       <c r="Q166" s="17"/>
     </row>
-    <row r="167" spans="1:17" ht="45.95" customHeight="1">
+    <row r="167" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>929</v>
       </c>
@@ -19023,7 +19127,7 @@
       <c r="P167" s="16"/>
       <c r="Q167" s="17"/>
     </row>
-    <row r="168" spans="1:17" ht="45.95" customHeight="1">
+    <row r="168" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>929</v>
       </c>
@@ -19052,7 +19156,7 @@
       <c r="P168" s="16"/>
       <c r="Q168" s="17"/>
     </row>
-    <row r="169" spans="1:17" ht="45.95" customHeight="1">
+    <row r="169" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>929</v>
       </c>
@@ -19081,7 +19185,7 @@
       <c r="P169" s="16"/>
       <c r="Q169" s="17"/>
     </row>
-    <row r="170" spans="1:17" ht="45.95" customHeight="1">
+    <row r="170" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>929</v>
       </c>
@@ -19110,7 +19214,7 @@
       <c r="P170" s="16"/>
       <c r="Q170" s="17"/>
     </row>
-    <row r="171" spans="1:17" ht="45.95" customHeight="1">
+    <row r="171" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>929</v>
       </c>
@@ -19139,7 +19243,7 @@
       <c r="P171" s="16"/>
       <c r="Q171" s="17"/>
     </row>
-    <row r="172" spans="1:17" ht="45.95" customHeight="1">
+    <row r="172" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>929</v>
       </c>
@@ -19168,7 +19272,7 @@
       <c r="P172" s="16"/>
       <c r="Q172" s="17"/>
     </row>
-    <row r="173" spans="1:17" ht="45.95" customHeight="1">
+    <row r="173" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>929</v>
       </c>
@@ -19197,7 +19301,7 @@
       <c r="P173" s="16"/>
       <c r="Q173" s="17"/>
     </row>
-    <row r="174" spans="1:17" ht="45.95" customHeight="1">
+    <row r="174" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>929</v>
       </c>
@@ -19226,7 +19330,7 @@
       <c r="P174" s="16"/>
       <c r="Q174" s="17"/>
     </row>
-    <row r="175" spans="1:17" ht="45.95" customHeight="1">
+    <row r="175" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>929</v>
       </c>
@@ -19255,7 +19359,7 @@
       <c r="P175" s="16"/>
       <c r="Q175" s="17"/>
     </row>
-    <row r="176" spans="1:17" ht="45.95" customHeight="1">
+    <row r="176" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>929</v>
       </c>
@@ -19284,7 +19388,7 @@
       <c r="P176" s="16"/>
       <c r="Q176" s="17"/>
     </row>
-    <row r="177" spans="1:17" ht="45.95" customHeight="1">
+    <row r="177" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>929</v>
       </c>
@@ -19313,7 +19417,7 @@
       <c r="P177" s="16"/>
       <c r="Q177" s="17"/>
     </row>
-    <row r="178" spans="1:17" ht="45.95" customHeight="1">
+    <row r="178" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>929</v>
       </c>
@@ -19342,7 +19446,7 @@
       <c r="P178" s="16"/>
       <c r="Q178" s="17"/>
     </row>
-    <row r="179" spans="1:17" ht="45.95" customHeight="1">
+    <row r="179" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>929</v>
       </c>
@@ -19371,7 +19475,7 @@
       <c r="P179" s="16"/>
       <c r="Q179" s="17"/>
     </row>
-    <row r="180" spans="1:17" ht="45.95" customHeight="1">
+    <row r="180" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>929</v>
       </c>
@@ -19400,7 +19504,7 @@
       <c r="P180" s="16"/>
       <c r="Q180" s="17"/>
     </row>
-    <row r="181" spans="1:17" ht="45.95" customHeight="1">
+    <row r="181" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>929</v>
       </c>
@@ -19429,7 +19533,7 @@
       <c r="P181" s="16"/>
       <c r="Q181" s="17"/>
     </row>
-    <row r="182" spans="1:17" ht="45.95" customHeight="1">
+    <row r="182" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>929</v>
       </c>
@@ -19458,7 +19562,7 @@
       <c r="P182" s="16"/>
       <c r="Q182" s="17"/>
     </row>
-    <row r="183" spans="1:17" ht="45.95" customHeight="1">
+    <row r="183" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>929</v>
       </c>
@@ -19487,7 +19591,7 @@
       <c r="P183" s="16"/>
       <c r="Q183" s="17"/>
     </row>
-    <row r="184" spans="1:17" ht="45.95" customHeight="1">
+    <row r="184" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>929</v>
       </c>
@@ -19514,7 +19618,7 @@
       <c r="P184" s="16"/>
       <c r="Q184" s="17"/>
     </row>
-    <row r="185" spans="1:17" ht="45.95" customHeight="1">
+    <row r="185" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>929</v>
       </c>
@@ -19543,7 +19647,7 @@
       <c r="P185" s="16"/>
       <c r="Q185" s="17"/>
     </row>
-    <row r="186" spans="1:17" ht="45.95" customHeight="1">
+    <row r="186" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>929</v>
       </c>
@@ -19572,7 +19676,7 @@
       <c r="P186" s="16"/>
       <c r="Q186" s="17"/>
     </row>
-    <row r="187" spans="1:17" ht="45.95" customHeight="1">
+    <row r="187" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>929</v>
       </c>
@@ -19601,7 +19705,7 @@
       <c r="P187" s="16"/>
       <c r="Q187" s="17"/>
     </row>
-    <row r="188" spans="1:17" ht="45.95" customHeight="1">
+    <row r="188" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>929</v>
       </c>
@@ -19630,7 +19734,7 @@
       <c r="P188" s="16"/>
       <c r="Q188" s="17"/>
     </row>
-    <row r="189" spans="1:17" ht="45.95" customHeight="1">
+    <row r="189" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>929</v>
       </c>
@@ -19659,7 +19763,7 @@
       <c r="P189" s="16"/>
       <c r="Q189" s="17"/>
     </row>
-    <row r="190" spans="1:17" ht="45.95" customHeight="1">
+    <row r="190" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>929</v>
       </c>
@@ -19686,7 +19790,7 @@
       <c r="P190" s="16"/>
       <c r="Q190" s="17"/>
     </row>
-    <row r="191" spans="1:17" ht="45.95" customHeight="1">
+    <row r="191" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>929</v>
       </c>
@@ -19715,7 +19819,7 @@
       <c r="P191" s="16"/>
       <c r="Q191" s="17"/>
     </row>
-    <row r="192" spans="1:17" ht="45.95" customHeight="1">
+    <row r="192" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>929</v>
       </c>
@@ -19744,7 +19848,7 @@
       <c r="P192" s="16"/>
       <c r="Q192" s="17"/>
     </row>
-    <row r="193" spans="1:17" ht="45.95" customHeight="1">
+    <row r="193" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>929</v>
       </c>
@@ -19773,7 +19877,7 @@
       <c r="P193" s="16"/>
       <c r="Q193" s="17"/>
     </row>
-    <row r="194" spans="1:17" ht="45.95" customHeight="1">
+    <row r="194" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>929</v>
       </c>
@@ -19800,7 +19904,7 @@
       <c r="P194" s="16"/>
       <c r="Q194" s="17"/>
     </row>
-    <row r="195" spans="1:17" ht="45.95" customHeight="1">
+    <row r="195" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>929</v>
       </c>
@@ -19829,7 +19933,7 @@
       <c r="P195" s="16"/>
       <c r="Q195" s="17"/>
     </row>
-    <row r="196" spans="1:17" ht="45.95" customHeight="1">
+    <row r="196" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>929</v>
       </c>
@@ -19856,7 +19960,7 @@
       <c r="P196" s="16"/>
       <c r="Q196" s="17"/>
     </row>
-    <row r="197" spans="1:17" ht="45.95" customHeight="1">
+    <row r="197" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>929</v>
       </c>
@@ -19885,7 +19989,7 @@
       <c r="P197" s="16"/>
       <c r="Q197" s="17"/>
     </row>
-    <row r="198" spans="1:17" ht="45.95" customHeight="1">
+    <row r="198" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>929</v>
       </c>
@@ -19914,7 +20018,7 @@
       <c r="P198" s="16"/>
       <c r="Q198" s="17"/>
     </row>
-    <row r="199" spans="1:17" ht="45.95" customHeight="1">
+    <row r="199" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>929</v>
       </c>
@@ -19943,7 +20047,7 @@
       <c r="P199" s="16"/>
       <c r="Q199" s="17"/>
     </row>
-    <row r="200" spans="1:17" ht="45.95" customHeight="1">
+    <row r="200" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>929</v>
       </c>
@@ -19972,7 +20076,7 @@
       <c r="P200" s="16"/>
       <c r="Q200" s="17"/>
     </row>
-    <row r="201" spans="1:17" ht="45.95" customHeight="1">
+    <row r="201" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
         <v>929</v>
       </c>
@@ -20001,7 +20105,7 @@
       <c r="P201" s="16"/>
       <c r="Q201" s="17"/>
     </row>
-    <row r="202" spans="1:17" ht="45.95" customHeight="1">
+    <row r="202" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
         <v>929</v>
       </c>
@@ -20030,7 +20134,7 @@
       <c r="P202" s="16"/>
       <c r="Q202" s="17"/>
     </row>
-    <row r="203" spans="1:17" ht="45.95" customHeight="1">
+    <row r="203" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>929</v>
       </c>
@@ -20059,7 +20163,7 @@
       <c r="P203" s="16"/>
       <c r="Q203" s="17"/>
     </row>
-    <row r="204" spans="1:17" ht="45.95" customHeight="1">
+    <row r="204" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>929</v>
       </c>
@@ -20088,7 +20192,7 @@
       <c r="P204" s="16"/>
       <c r="Q204" s="17"/>
     </row>
-    <row r="205" spans="1:17" ht="45.95" customHeight="1">
+    <row r="205" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
         <v>929</v>
       </c>
@@ -20117,7 +20221,7 @@
       <c r="P205" s="16"/>
       <c r="Q205" s="17"/>
     </row>
-    <row r="206" spans="1:17" ht="45.95" customHeight="1">
+    <row r="206" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
         <v>929</v>
       </c>
@@ -20146,7 +20250,7 @@
       <c r="P206" s="16"/>
       <c r="Q206" s="17"/>
     </row>
-    <row r="207" spans="1:17" ht="45.95" customHeight="1">
+    <row r="207" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
         <v>929</v>
       </c>
@@ -20175,7 +20279,7 @@
       <c r="P207" s="16"/>
       <c r="Q207" s="17"/>
     </row>
-    <row r="208" spans="1:17" ht="45.95" customHeight="1">
+    <row r="208" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
         <v>1131</v>
       </c>
@@ -20214,7 +20318,7 @@
       <c r="P208" s="16"/>
       <c r="Q208" s="17"/>
     </row>
-    <row r="209" spans="1:17" ht="45.95" customHeight="1">
+    <row r="209" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
         <v>1131</v>
       </c>
@@ -20243,7 +20347,7 @@
       <c r="P209" s="16"/>
       <c r="Q209" s="17"/>
     </row>
-    <row r="210" spans="1:17" ht="45.95" customHeight="1">
+    <row r="210" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
         <v>1131</v>
       </c>
@@ -20270,7 +20374,7 @@
       <c r="P210" s="16"/>
       <c r="Q210" s="17"/>
     </row>
-    <row r="211" spans="1:17" ht="45.95" customHeight="1">
+    <row r="211" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
         <v>1131</v>
       </c>
@@ -20299,7 +20403,7 @@
       <c r="P211" s="16"/>
       <c r="Q211" s="17"/>
     </row>
-    <row r="212" spans="1:17" ht="45.95" customHeight="1">
+    <row r="212" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
         <v>1131</v>
       </c>
@@ -20328,7 +20432,7 @@
       <c r="P212" s="16"/>
       <c r="Q212" s="17"/>
     </row>
-    <row r="213" spans="1:17" ht="45.95" customHeight="1">
+    <row r="213" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
         <v>1175</v>
       </c>
@@ -20359,7 +20463,7 @@
       <c r="P213" s="16"/>
       <c r="Q213" s="17"/>
     </row>
-    <row r="214" spans="1:17" ht="45.95" customHeight="1">
+    <row r="214" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
         <v>1175</v>
       </c>
@@ -20383,7 +20487,7 @@
       <c r="P214" s="16"/>
       <c r="Q214" s="17"/>
     </row>
-    <row r="215" spans="1:17" ht="45.95" customHeight="1">
+    <row r="215" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
         <v>1175</v>
       </c>
@@ -20408,7 +20512,7 @@
       <c r="P215" s="16"/>
       <c r="Q215" s="17"/>
     </row>
-    <row r="216" spans="1:17" ht="45.95" customHeight="1">
+    <row r="216" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="20" t="s">
         <v>1175</v>
       </c>
@@ -20433,7 +20537,7 @@
       <c r="P216" s="16"/>
       <c r="Q216" s="17"/>
     </row>
-    <row r="217" spans="1:17" ht="45.95" customHeight="1">
+    <row r="217" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="20" t="s">
         <v>1175</v>
       </c>
@@ -20458,7 +20562,7 @@
       <c r="P217" s="16"/>
       <c r="Q217" s="17"/>
     </row>
-    <row r="218" spans="1:17" ht="45.95" customHeight="1">
+    <row r="218" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
         <v>1174</v>
       </c>
@@ -20483,7 +20587,7 @@
       <c r="P218" s="16"/>
       <c r="Q218" s="17"/>
     </row>
-    <row r="219" spans="1:17" ht="45.95" customHeight="1">
+    <row r="219" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="20" t="s">
         <v>1174</v>
       </c>
@@ -20508,7 +20612,7 @@
       <c r="P219" s="16"/>
       <c r="Q219" s="17"/>
     </row>
-    <row r="220" spans="1:17" ht="45.95" customHeight="1">
+    <row r="220" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="20" t="s">
         <v>1174</v>
       </c>
@@ -20533,7 +20637,7 @@
       <c r="P220" s="16"/>
       <c r="Q220" s="17"/>
     </row>
-    <row r="221" spans="1:17" ht="45.95" customHeight="1">
+    <row r="221" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
         <v>1174</v>
       </c>
@@ -20558,7 +20662,7 @@
       <c r="P221" s="16"/>
       <c r="Q221" s="17"/>
     </row>
-    <row r="222" spans="1:17" ht="45.95" customHeight="1">
+    <row r="222" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>1174</v>
       </c>
@@ -20583,7 +20687,7 @@
       <c r="P222" s="16"/>
       <c r="Q222" s="17"/>
     </row>
-    <row r="223" spans="1:17" ht="45.95" customHeight="1">
+    <row r="223" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20622,7 +20726,7 @@
       <c r="P223" s="16"/>
       <c r="Q223" s="17"/>
     </row>
-    <row r="224" spans="1:17" ht="45.95" customHeight="1">
+    <row r="224" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20657,7 +20761,7 @@
       <c r="P224" s="16"/>
       <c r="Q224" s="17"/>
     </row>
-    <row r="225" spans="1:17" ht="45.95" customHeight="1">
+    <row r="225" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20694,7 +20798,7 @@
       <c r="P225" s="16"/>
       <c r="Q225" s="17"/>
     </row>
-    <row r="226" spans="1:17" ht="45.95" customHeight="1">
+    <row r="226" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20739,7 +20843,7 @@
       <c r="P226" s="16"/>
       <c r="Q226" s="17"/>
     </row>
-    <row r="227" spans="1:17" ht="45.95" customHeight="1">
+    <row r="227" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20768,7 +20872,7 @@
       <c r="P227" s="16"/>
       <c r="Q227" s="17"/>
     </row>
-    <row r="228" spans="1:17" ht="45.95" customHeight="1">
+    <row r="228" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20801,7 +20905,7 @@
       <c r="P228" s="16"/>
       <c r="Q228" s="17"/>
     </row>
-    <row r="229" spans="1:17" ht="45.95" customHeight="1">
+    <row r="229" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20834,7 +20938,7 @@
       <c r="P229" s="16"/>
       <c r="Q229" s="17"/>
     </row>
-    <row r="230" spans="1:17" ht="45.95" customHeight="1">
+    <row r="230" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20871,7 +20975,7 @@
       <c r="P230" s="16"/>
       <c r="Q230" s="17"/>
     </row>
-    <row r="231" spans="1:17" ht="45.95" customHeight="1">
+    <row r="231" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20906,7 +21010,7 @@
       <c r="P231" s="16"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="45.95" customHeight="1">
+    <row r="232" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20943,7 +21047,7 @@
       <c r="P232" s="16"/>
       <c r="Q232" s="17"/>
     </row>
-    <row r="233" spans="1:17" ht="45.95" customHeight="1">
+    <row r="233" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="36" t="s">
         <v>1130</v>
       </c>
@@ -20980,7 +21084,7 @@
       <c r="P233" s="16"/>
       <c r="Q233" s="17"/>
     </row>
-    <row r="234" spans="1:17" ht="45.95" customHeight="1">
+    <row r="234" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21019,7 +21123,7 @@
       <c r="P234" s="16"/>
       <c r="Q234" s="17"/>
     </row>
-    <row r="235" spans="1:17" ht="45.95" customHeight="1">
+    <row r="235" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21056,7 +21160,7 @@
       <c r="P235" s="16"/>
       <c r="Q235" s="17"/>
     </row>
-    <row r="236" spans="1:17" ht="45.95" customHeight="1">
+    <row r="236" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21097,7 +21201,7 @@
       <c r="P236" s="16"/>
       <c r="Q236" s="17"/>
     </row>
-    <row r="237" spans="1:17" ht="45.95" customHeight="1">
+    <row r="237" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21132,7 +21236,7 @@
       <c r="P237" s="16"/>
       <c r="Q237" s="17"/>
     </row>
-    <row r="238" spans="1:17" ht="45.95" customHeight="1">
+    <row r="238" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21169,7 +21273,7 @@
       <c r="P238" s="16"/>
       <c r="Q238" s="17"/>
     </row>
-    <row r="239" spans="1:17" ht="45.95" customHeight="1">
+    <row r="239" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21206,7 +21310,7 @@
       <c r="P239" s="16"/>
       <c r="Q239" s="17"/>
     </row>
-    <row r="240" spans="1:17" ht="45.95" customHeight="1">
+    <row r="240" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21233,7 +21337,7 @@
       <c r="P240" s="16"/>
       <c r="Q240" s="17"/>
     </row>
-    <row r="241" spans="1:17" ht="45.95" customHeight="1">
+    <row r="241" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21268,7 +21372,7 @@
       <c r="P241" s="16"/>
       <c r="Q241" s="17"/>
     </row>
-    <row r="242" spans="1:17" ht="45.95" customHeight="1">
+    <row r="242" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21311,7 +21415,7 @@
       <c r="P242" s="16"/>
       <c r="Q242" s="17"/>
     </row>
-    <row r="243" spans="1:17" ht="45.95" customHeight="1">
+    <row r="243" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21352,7 +21456,7 @@
       <c r="P243" s="16"/>
       <c r="Q243" s="17"/>
     </row>
-    <row r="244" spans="1:17" ht="45.95" customHeight="1">
+    <row r="244" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21391,7 +21495,7 @@
       <c r="P244" s="16"/>
       <c r="Q244" s="17"/>
     </row>
-    <row r="245" spans="1:17" ht="45.95" customHeight="1">
+    <row r="245" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21428,7 +21532,7 @@
       <c r="P245" s="16"/>
       <c r="Q245" s="17"/>
     </row>
-    <row r="246" spans="1:17" ht="45.95" customHeight="1">
+    <row r="246" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21467,7 +21571,7 @@
       <c r="P246" s="16"/>
       <c r="Q246" s="17"/>
     </row>
-    <row r="247" spans="1:17" ht="45.95" customHeight="1">
+    <row r="247" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21508,7 +21612,7 @@
       <c r="P247" s="16"/>
       <c r="Q247" s="17"/>
     </row>
-    <row r="248" spans="1:17" ht="45.95" customHeight="1">
+    <row r="248" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21549,7 +21653,7 @@
       <c r="P248" s="16"/>
       <c r="Q248" s="17"/>
     </row>
-    <row r="249" spans="1:17" ht="45.95" customHeight="1">
+    <row r="249" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21577,7 +21681,7 @@
       <c r="P249" s="16"/>
       <c r="Q249" s="17"/>
     </row>
-    <row r="250" spans="1:17" ht="45.95" customHeight="1">
+    <row r="250" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21614,7 +21718,7 @@
       <c r="P250" s="16"/>
       <c r="Q250" s="17"/>
     </row>
-    <row r="251" spans="1:17" ht="45.95" customHeight="1">
+    <row r="251" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21655,7 +21759,7 @@
       <c r="P251" s="16"/>
       <c r="Q251" s="17"/>
     </row>
-    <row r="252" spans="1:17" ht="45.95" customHeight="1">
+    <row r="252" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21688,7 +21792,7 @@
       <c r="P252" s="16"/>
       <c r="Q252" s="17"/>
     </row>
-    <row r="253" spans="1:17" ht="45.95" customHeight="1">
+    <row r="253" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21727,7 +21831,7 @@
       <c r="P253" s="16"/>
       <c r="Q253" s="17"/>
     </row>
-    <row r="254" spans="1:17" ht="45.95" customHeight="1">
+    <row r="254" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21760,7 +21864,7 @@
       <c r="P254" s="16"/>
       <c r="Q254" s="17"/>
     </row>
-    <row r="255" spans="1:17" ht="45.95" customHeight="1">
+    <row r="255" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="34" t="s">
         <v>1429</v>
       </c>
@@ -21787,7 +21891,7 @@
       <c r="P255" s="16"/>
       <c r="Q255" s="17"/>
     </row>
-    <row r="256" spans="1:17" ht="45.95" customHeight="1">
+    <row r="256" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="34" t="s">
         <v>1429</v>
       </c>
@@ -21814,7 +21918,7 @@
       <c r="P256" s="16"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="1:17" ht="45.95" customHeight="1">
+    <row r="257" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21847,7 +21951,7 @@
       <c r="P257" s="16"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="1:17" ht="45.95" customHeight="1">
+    <row r="258" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21886,7 +21990,7 @@
       <c r="P258" s="16"/>
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="1:17" ht="45.95" customHeight="1">
+    <row r="259" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21915,7 +22019,7 @@
       <c r="P259" s="16"/>
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="1:17" ht="45.95" customHeight="1">
+    <row r="260" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="36" t="s">
         <v>1130</v>
       </c>
@@ -21956,7 +22060,7 @@
       <c r="P260" s="16"/>
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="1:17" ht="45.95" customHeight="1">
+    <row r="261" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="36" t="s">
         <v>1451</v>
       </c>
@@ -21985,7 +22089,7 @@
       <c r="P261" s="16"/>
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="1:17" ht="45.95" customHeight="1">
+    <row r="262" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22014,7 +22118,7 @@
       <c r="P262" s="16"/>
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="1:17" ht="45.95" customHeight="1">
+    <row r="263" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22043,7 +22147,7 @@
       <c r="P263" s="16"/>
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="1:17" ht="45.95" customHeight="1">
+    <row r="264" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22072,7 +22176,7 @@
       <c r="P264" s="16"/>
       <c r="Q264" s="17"/>
     </row>
-    <row r="265" spans="1:17" ht="45.95" customHeight="1">
+    <row r="265" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22101,7 +22205,7 @@
       <c r="P265" s="16"/>
       <c r="Q265" s="17"/>
     </row>
-    <row r="266" spans="1:17" ht="45.95" customHeight="1">
+    <row r="266" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22130,7 +22234,7 @@
       <c r="P266" s="16"/>
       <c r="Q266" s="17"/>
     </row>
-    <row r="267" spans="1:17" ht="45.95" customHeight="1">
+    <row r="267" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22159,7 +22263,7 @@
       <c r="P267" s="16"/>
       <c r="Q267" s="17"/>
     </row>
-    <row r="268" spans="1:17" ht="45.95" customHeight="1">
+    <row r="268" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22188,7 +22292,7 @@
       <c r="P268" s="16"/>
       <c r="Q268" s="17"/>
     </row>
-    <row r="269" spans="1:17" ht="45.95" customHeight="1">
+    <row r="269" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22217,7 +22321,7 @@
       <c r="P269" s="16"/>
       <c r="Q269" s="17"/>
     </row>
-    <row r="270" spans="1:17" ht="45.95" customHeight="1">
+    <row r="270" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22246,7 +22350,7 @@
       <c r="P270" s="16"/>
       <c r="Q270" s="17"/>
     </row>
-    <row r="271" spans="1:17" ht="45.95" customHeight="1">
+    <row r="271" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22273,7 +22377,7 @@
       <c r="P271" s="16"/>
       <c r="Q271" s="17"/>
     </row>
-    <row r="272" spans="1:17" ht="45.95" customHeight="1">
+    <row r="272" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22300,7 +22404,7 @@
       <c r="P272" s="16"/>
       <c r="Q272" s="17"/>
     </row>
-    <row r="273" spans="1:17" ht="45.95" customHeight="1">
+    <row r="273" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22327,7 +22431,7 @@
       <c r="P273" s="16"/>
       <c r="Q273" s="17"/>
     </row>
-    <row r="274" spans="1:17" ht="45.95" customHeight="1">
+    <row r="274" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22354,7 +22458,7 @@
       <c r="P274" s="16"/>
       <c r="Q274" s="17"/>
     </row>
-    <row r="275" spans="1:17" ht="45.95" customHeight="1">
+    <row r="275" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22381,7 +22485,7 @@
       <c r="P275" s="16"/>
       <c r="Q275" s="17"/>
     </row>
-    <row r="276" spans="1:17" ht="45.95" customHeight="1">
+    <row r="276" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22408,7 +22512,7 @@
       <c r="P276" s="16"/>
       <c r="Q276" s="17"/>
     </row>
-    <row r="277" spans="1:17" ht="45.95" customHeight="1">
+    <row r="277" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22435,7 +22539,7 @@
       <c r="P277" s="16"/>
       <c r="Q277" s="17"/>
     </row>
-    <row r="278" spans="1:17" ht="45.95" customHeight="1">
+    <row r="278" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22462,7 +22566,7 @@
       <c r="P278" s="16"/>
       <c r="Q278" s="17"/>
     </row>
-    <row r="279" spans="1:17" ht="45.95" customHeight="1">
+    <row r="279" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22489,7 +22593,7 @@
       <c r="P279" s="16"/>
       <c r="Q279" s="17"/>
     </row>
-    <row r="280" spans="1:17" ht="45.95" customHeight="1">
+    <row r="280" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22516,7 +22620,7 @@
       <c r="P280" s="16"/>
       <c r="Q280" s="17"/>
     </row>
-    <row r="281" spans="1:17" ht="45.95" customHeight="1">
+    <row r="281" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22543,7 +22647,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="17"/>
     </row>
-    <row r="282" spans="1:17" ht="45.95" customHeight="1">
+    <row r="282" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22570,7 +22674,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="17"/>
     </row>
-    <row r="283" spans="1:17" ht="45.95" customHeight="1">
+    <row r="283" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22597,7 +22701,7 @@
       <c r="P283" s="16"/>
       <c r="Q283" s="17"/>
     </row>
-    <row r="284" spans="1:17" ht="45.95" customHeight="1">
+    <row r="284" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22624,7 +22728,7 @@
       <c r="P284" s="16"/>
       <c r="Q284" s="17"/>
     </row>
-    <row r="285" spans="1:17" ht="45.95" customHeight="1">
+    <row r="285" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22651,7 +22755,7 @@
       <c r="P285" s="16"/>
       <c r="Q285" s="17"/>
     </row>
-    <row r="286" spans="1:17" ht="45.95" customHeight="1">
+    <row r="286" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22678,7 +22782,7 @@
       <c r="P286" s="16"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="45.95" customHeight="1">
+    <row r="287" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22705,7 +22809,7 @@
       <c r="P287" s="16"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="45.95" customHeight="1">
+    <row r="288" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22732,7 +22836,7 @@
       <c r="P288" s="16"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:17" ht="45.95" customHeight="1">
+    <row r="289" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22759,7 +22863,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="17"/>
     </row>
-    <row r="290" spans="1:17" ht="45.95" customHeight="1">
+    <row r="290" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22786,7 +22890,7 @@
       <c r="P290" s="16"/>
       <c r="Q290" s="17"/>
     </row>
-    <row r="291" spans="1:17" ht="45.95" customHeight="1">
+    <row r="291" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22813,7 +22917,7 @@
       <c r="P291" s="16"/>
       <c r="Q291" s="17"/>
     </row>
-    <row r="292" spans="1:17" ht="45.95" customHeight="1">
+    <row r="292" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22840,7 +22944,7 @@
       <c r="P292" s="16"/>
       <c r="Q292" s="17"/>
     </row>
-    <row r="293" spans="1:17" ht="45.95" customHeight="1">
+    <row r="293" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22867,7 +22971,7 @@
       <c r="P293" s="16"/>
       <c r="Q293" s="17"/>
     </row>
-    <row r="294" spans="1:17" ht="45.95" customHeight="1">
+    <row r="294" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22894,7 +22998,7 @@
       <c r="P294" s="16"/>
       <c r="Q294" s="17"/>
     </row>
-    <row r="295" spans="1:17" ht="45.95" customHeight="1">
+    <row r="295" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22921,7 +23025,7 @@
       <c r="P295" s="16"/>
       <c r="Q295" s="17"/>
     </row>
-    <row r="296" spans="1:17" ht="45.95" customHeight="1">
+    <row r="296" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22948,7 +23052,7 @@
       <c r="P296" s="16"/>
       <c r="Q296" s="17"/>
     </row>
-    <row r="297" spans="1:17" ht="45.95" customHeight="1">
+    <row r="297" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="36" t="s">
         <v>1451</v>
       </c>
@@ -22975,7 +23079,7 @@
       <c r="P297" s="16"/>
       <c r="Q297" s="17"/>
     </row>
-    <row r="298" spans="1:17" ht="45.95" customHeight="1">
+    <row r="298" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23002,7 +23106,7 @@
       <c r="P298" s="16"/>
       <c r="Q298" s="17"/>
     </row>
-    <row r="299" spans="1:17" ht="45.95" customHeight="1">
+    <row r="299" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23029,7 +23133,7 @@
       <c r="P299" s="16"/>
       <c r="Q299" s="17"/>
     </row>
-    <row r="300" spans="1:17" ht="45.95" customHeight="1">
+    <row r="300" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23056,7 +23160,7 @@
       <c r="P300" s="16"/>
       <c r="Q300" s="17"/>
     </row>
-    <row r="301" spans="1:17" ht="45.95" customHeight="1">
+    <row r="301" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23083,7 +23187,7 @@
       <c r="P301" s="16"/>
       <c r="Q301" s="17"/>
     </row>
-    <row r="302" spans="1:17" ht="45.95" customHeight="1">
+    <row r="302" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23110,7 +23214,7 @@
       <c r="P302" s="16"/>
       <c r="Q302" s="17"/>
     </row>
-    <row r="303" spans="1:17" ht="45.95" customHeight="1">
+    <row r="303" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23137,7 +23241,7 @@
       <c r="P303" s="16"/>
       <c r="Q303" s="17"/>
     </row>
-    <row r="304" spans="1:17" ht="45.95" customHeight="1">
+    <row r="304" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23164,7 +23268,7 @@
       <c r="P304" s="16"/>
       <c r="Q304" s="17"/>
     </row>
-    <row r="305" spans="1:17" ht="45.95" customHeight="1">
+    <row r="305" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23191,7 +23295,7 @@
       <c r="P305" s="16"/>
       <c r="Q305" s="17"/>
     </row>
-    <row r="306" spans="1:17" ht="45.95" customHeight="1">
+    <row r="306" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23218,7 +23322,7 @@
       <c r="P306" s="16"/>
       <c r="Q306" s="17"/>
     </row>
-    <row r="307" spans="1:17" ht="45.95" customHeight="1">
+    <row r="307" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23245,7 +23349,7 @@
       <c r="P307" s="16"/>
       <c r="Q307" s="17"/>
     </row>
-    <row r="308" spans="1:17" ht="45.95" customHeight="1">
+    <row r="308" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23272,7 +23376,7 @@
       <c r="P308" s="16"/>
       <c r="Q308" s="17"/>
     </row>
-    <row r="309" spans="1:17" ht="45.95" customHeight="1">
+    <row r="309" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23299,7 +23403,7 @@
       <c r="P309" s="16"/>
       <c r="Q309" s="17"/>
     </row>
-    <row r="310" spans="1:17" ht="45.95" customHeight="1">
+    <row r="310" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23326,7 +23430,7 @@
       <c r="P310" s="16"/>
       <c r="Q310" s="17"/>
     </row>
-    <row r="311" spans="1:17" ht="45.95" customHeight="1">
+    <row r="311" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23353,7 +23457,7 @@
       <c r="P311" s="16"/>
       <c r="Q311" s="17"/>
     </row>
-    <row r="312" spans="1:17" ht="45.95" customHeight="1">
+    <row r="312" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23380,7 +23484,7 @@
       <c r="P312" s="16"/>
       <c r="Q312" s="17"/>
     </row>
-    <row r="313" spans="1:17" ht="45.95" customHeight="1">
+    <row r="313" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23407,7 +23511,7 @@
       <c r="P313" s="16"/>
       <c r="Q313" s="17"/>
     </row>
-    <row r="314" spans="1:17" ht="45.95" customHeight="1">
+    <row r="314" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23434,7 +23538,7 @@
       <c r="P314" s="16"/>
       <c r="Q314" s="17"/>
     </row>
-    <row r="315" spans="1:17" ht="45.95" customHeight="1">
+    <row r="315" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23461,7 +23565,7 @@
       <c r="P315" s="16"/>
       <c r="Q315" s="17"/>
     </row>
-    <row r="316" spans="1:17" ht="45.95" customHeight="1">
+    <row r="316" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23488,7 +23592,7 @@
       <c r="P316" s="16"/>
       <c r="Q316" s="17"/>
     </row>
-    <row r="317" spans="1:17" ht="45.95" customHeight="1">
+    <row r="317" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23515,7 +23619,7 @@
       <c r="P317" s="16"/>
       <c r="Q317" s="17"/>
     </row>
-    <row r="318" spans="1:17" ht="45.95" customHeight="1">
+    <row r="318" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23542,7 +23646,7 @@
       <c r="P318" s="16"/>
       <c r="Q318" s="17"/>
     </row>
-    <row r="319" spans="1:17" ht="45.95" customHeight="1">
+    <row r="319" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23569,7 +23673,7 @@
       <c r="P319" s="16"/>
       <c r="Q319" s="17"/>
     </row>
-    <row r="320" spans="1:17" ht="45.95" customHeight="1">
+    <row r="320" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23596,7 +23700,7 @@
       <c r="P320" s="16"/>
       <c r="Q320" s="17"/>
     </row>
-    <row r="321" spans="1:17" ht="45.95" customHeight="1">
+    <row r="321" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23623,7 +23727,7 @@
       <c r="P321" s="16"/>
       <c r="Q321" s="17"/>
     </row>
-    <row r="322" spans="1:17" ht="45.95" customHeight="1">
+    <row r="322" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23650,7 +23754,7 @@
       <c r="P322" s="16"/>
       <c r="Q322" s="17"/>
     </row>
-    <row r="323" spans="1:17" ht="45.95" customHeight="1">
+    <row r="323" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23677,7 +23781,7 @@
       <c r="P323" s="16"/>
       <c r="Q323" s="17"/>
     </row>
-    <row r="324" spans="1:17" ht="45.95" customHeight="1">
+    <row r="324" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23704,7 +23808,7 @@
       <c r="P324" s="16"/>
       <c r="Q324" s="17"/>
     </row>
-    <row r="325" spans="1:17" ht="45.95" customHeight="1">
+    <row r="325" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23731,7 +23835,7 @@
       <c r="P325" s="16"/>
       <c r="Q325" s="17"/>
     </row>
-    <row r="326" spans="1:17" ht="45.95" customHeight="1">
+    <row r="326" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23758,7 +23862,7 @@
       <c r="P326" s="16"/>
       <c r="Q326" s="17"/>
     </row>
-    <row r="327" spans="1:17" ht="45.95" customHeight="1">
+    <row r="327" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23785,7 +23889,7 @@
       <c r="P327" s="16"/>
       <c r="Q327" s="17"/>
     </row>
-    <row r="328" spans="1:17" ht="45.95" customHeight="1">
+    <row r="328" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23812,7 +23916,7 @@
       <c r="P328" s="16"/>
       <c r="Q328" s="17"/>
     </row>
-    <row r="329" spans="1:17" ht="45.95" customHeight="1">
+    <row r="329" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23839,7 +23943,7 @@
       <c r="P329" s="16"/>
       <c r="Q329" s="17"/>
     </row>
-    <row r="330" spans="1:17" ht="45.95" customHeight="1">
+    <row r="330" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23866,7 +23970,7 @@
       <c r="P330" s="16"/>
       <c r="Q330" s="17"/>
     </row>
-    <row r="331" spans="1:17" ht="45.95" customHeight="1">
+    <row r="331" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23893,7 +23997,7 @@
       <c r="P331" s="16"/>
       <c r="Q331" s="17"/>
     </row>
-    <row r="332" spans="1:17" ht="45.95" customHeight="1">
+    <row r="332" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23920,7 +24024,7 @@
       <c r="P332" s="16"/>
       <c r="Q332" s="17"/>
     </row>
-    <row r="333" spans="1:17" ht="45.95" customHeight="1">
+    <row r="333" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23947,7 +24051,7 @@
       <c r="P333" s="16"/>
       <c r="Q333" s="17"/>
     </row>
-    <row r="334" spans="1:17" ht="45.95" customHeight="1">
+    <row r="334" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="36" t="s">
         <v>1451</v>
       </c>
@@ -23974,7 +24078,7 @@
       <c r="P334" s="16"/>
       <c r="Q334" s="17"/>
     </row>
-    <row r="335" spans="1:17" ht="45.95" customHeight="1">
+    <row r="335" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24001,7 +24105,7 @@
       <c r="P335" s="16"/>
       <c r="Q335" s="17"/>
     </row>
-    <row r="336" spans="1:17" ht="45.95" customHeight="1">
+    <row r="336" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24028,7 +24132,7 @@
       <c r="P336" s="16"/>
       <c r="Q336" s="17"/>
     </row>
-    <row r="337" spans="1:17" ht="45.95" customHeight="1">
+    <row r="337" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24055,7 +24159,7 @@
       <c r="P337" s="16"/>
       <c r="Q337" s="17"/>
     </row>
-    <row r="338" spans="1:17" ht="45.95" customHeight="1">
+    <row r="338" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24082,7 +24186,7 @@
       <c r="P338" s="16"/>
       <c r="Q338" s="17"/>
     </row>
-    <row r="339" spans="1:17" ht="45.95" customHeight="1">
+    <row r="339" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24109,7 +24213,7 @@
       <c r="P339" s="16"/>
       <c r="Q339" s="17"/>
     </row>
-    <row r="340" spans="1:17" ht="45.95" customHeight="1">
+    <row r="340" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24136,7 +24240,7 @@
       <c r="P340" s="16"/>
       <c r="Q340" s="17"/>
     </row>
-    <row r="341" spans="1:17" ht="45.95" customHeight="1">
+    <row r="341" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24163,7 +24267,7 @@
       <c r="P341" s="16"/>
       <c r="Q341" s="17"/>
     </row>
-    <row r="342" spans="1:17" ht="45.95" customHeight="1">
+    <row r="342" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24190,7 +24294,7 @@
       <c r="P342" s="16"/>
       <c r="Q342" s="17"/>
     </row>
-    <row r="343" spans="1:17" ht="45.95" customHeight="1">
+    <row r="343" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24217,7 +24321,7 @@
       <c r="P343" s="16"/>
       <c r="Q343" s="17"/>
     </row>
-    <row r="344" spans="1:17" ht="45.95" customHeight="1">
+    <row r="344" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24244,7 +24348,7 @@
       <c r="P344" s="16"/>
       <c r="Q344" s="17"/>
     </row>
-    <row r="345" spans="1:17" ht="45.95" customHeight="1">
+    <row r="345" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24271,7 +24375,7 @@
       <c r="P345" s="16"/>
       <c r="Q345" s="17"/>
     </row>
-    <row r="346" spans="1:17" ht="45.95" customHeight="1">
+    <row r="346" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24298,7 +24402,7 @@
       <c r="P346" s="16"/>
       <c r="Q346" s="17"/>
     </row>
-    <row r="347" spans="1:17" ht="45.95" customHeight="1">
+    <row r="347" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24325,7 +24429,7 @@
       <c r="P347" s="16"/>
       <c r="Q347" s="17"/>
     </row>
-    <row r="348" spans="1:17" ht="45.95" customHeight="1">
+    <row r="348" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24352,7 +24456,7 @@
       <c r="P348" s="16"/>
       <c r="Q348" s="17"/>
     </row>
-    <row r="349" spans="1:17" ht="45.95" customHeight="1">
+    <row r="349" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24379,7 +24483,7 @@
       <c r="P349" s="16"/>
       <c r="Q349" s="17"/>
     </row>
-    <row r="350" spans="1:17" ht="45.95" customHeight="1">
+    <row r="350" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24406,7 +24510,7 @@
       <c r="P350" s="16"/>
       <c r="Q350" s="17"/>
     </row>
-    <row r="351" spans="1:17" ht="45.95" customHeight="1">
+    <row r="351" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24433,7 +24537,7 @@
       <c r="P351" s="16"/>
       <c r="Q351" s="17"/>
     </row>
-    <row r="352" spans="1:17" ht="45.95" customHeight="1">
+    <row r="352" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24460,7 +24564,7 @@
       <c r="P352" s="16"/>
       <c r="Q352" s="17"/>
     </row>
-    <row r="353" spans="1:17" ht="45.95" customHeight="1">
+    <row r="353" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24487,7 +24591,7 @@
       <c r="P353" s="16"/>
       <c r="Q353" s="17"/>
     </row>
-    <row r="354" spans="1:17" ht="45.95" customHeight="1">
+    <row r="354" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24514,7 +24618,7 @@
       <c r="P354" s="16"/>
       <c r="Q354" s="17"/>
     </row>
-    <row r="355" spans="1:17" ht="45.95" customHeight="1">
+    <row r="355" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24541,7 +24645,7 @@
       <c r="P355" s="16"/>
       <c r="Q355" s="17"/>
     </row>
-    <row r="356" spans="1:17" ht="45.95" customHeight="1">
+    <row r="356" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24568,7 +24672,7 @@
       <c r="P356" s="16"/>
       <c r="Q356" s="17"/>
     </row>
-    <row r="357" spans="1:17" ht="45.95" customHeight="1">
+    <row r="357" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24595,7 +24699,7 @@
       <c r="P357" s="16"/>
       <c r="Q357" s="17"/>
     </row>
-    <row r="358" spans="1:17" ht="45.95" customHeight="1">
+    <row r="358" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24622,7 +24726,7 @@
       <c r="P358" s="16"/>
       <c r="Q358" s="17"/>
     </row>
-    <row r="359" spans="1:17" ht="45.95" customHeight="1">
+    <row r="359" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24649,7 +24753,7 @@
       <c r="P359" s="16"/>
       <c r="Q359" s="17"/>
     </row>
-    <row r="360" spans="1:17" ht="45.95" customHeight="1">
+    <row r="360" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24676,7 +24780,7 @@
       <c r="P360" s="16"/>
       <c r="Q360" s="17"/>
     </row>
-    <row r="361" spans="1:17" ht="45.95" customHeight="1">
+    <row r="361" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24703,7 +24807,7 @@
       <c r="P361" s="16"/>
       <c r="Q361" s="17"/>
     </row>
-    <row r="362" spans="1:17" ht="45.95" customHeight="1">
+    <row r="362" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24730,7 +24834,7 @@
       <c r="P362" s="16"/>
       <c r="Q362" s="17"/>
     </row>
-    <row r="363" spans="1:17" ht="45.95" customHeight="1">
+    <row r="363" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24757,7 +24861,7 @@
       <c r="P363" s="16"/>
       <c r="Q363" s="17"/>
     </row>
-    <row r="364" spans="1:17" ht="45.95" customHeight="1">
+    <row r="364" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24784,7 +24888,7 @@
       <c r="P364" s="16"/>
       <c r="Q364" s="17"/>
     </row>
-    <row r="365" spans="1:17" ht="45.95" customHeight="1">
+    <row r="365" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24811,7 +24915,7 @@
       <c r="P365" s="16"/>
       <c r="Q365" s="17"/>
     </row>
-    <row r="366" spans="1:17" ht="45.95" customHeight="1">
+    <row r="366" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24838,7 +24942,7 @@
       <c r="P366" s="16"/>
       <c r="Q366" s="17"/>
     </row>
-    <row r="367" spans="1:17" ht="45.95" customHeight="1">
+    <row r="367" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24865,7 +24969,7 @@
       <c r="P367" s="16"/>
       <c r="Q367" s="17"/>
     </row>
-    <row r="368" spans="1:17" ht="45.95" customHeight="1">
+    <row r="368" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24892,7 +24996,7 @@
       <c r="P368" s="16"/>
       <c r="Q368" s="17"/>
     </row>
-    <row r="369" spans="1:17" ht="45.95" customHeight="1">
+    <row r="369" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24919,7 +25023,7 @@
       <c r="P369" s="16"/>
       <c r="Q369" s="17"/>
     </row>
-    <row r="370" spans="1:17" ht="45.95" customHeight="1">
+    <row r="370" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24946,7 +25050,7 @@
       <c r="P370" s="16"/>
       <c r="Q370" s="17"/>
     </row>
-    <row r="371" spans="1:17" ht="45.95" customHeight="1">
+    <row r="371" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="36" t="s">
         <v>1451</v>
       </c>
@@ -24973,7 +25077,7 @@
       <c r="P371" s="16"/>
       <c r="Q371" s="17"/>
     </row>
-    <row r="372" spans="1:17" ht="45.95" customHeight="1">
+    <row r="372" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25000,7 +25104,7 @@
       <c r="P372" s="16"/>
       <c r="Q372" s="17"/>
     </row>
-    <row r="373" spans="1:17" ht="45.95" customHeight="1">
+    <row r="373" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25027,7 +25131,7 @@
       <c r="P373" s="16"/>
       <c r="Q373" s="17"/>
     </row>
-    <row r="374" spans="1:17" ht="45.95" customHeight="1">
+    <row r="374" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25054,7 +25158,7 @@
       <c r="P374" s="16"/>
       <c r="Q374" s="17"/>
     </row>
-    <row r="375" spans="1:17" ht="45.95" customHeight="1">
+    <row r="375" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25081,7 +25185,7 @@
       <c r="P375" s="16"/>
       <c r="Q375" s="17"/>
     </row>
-    <row r="376" spans="1:17" ht="45.95" customHeight="1">
+    <row r="376" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25108,7 +25212,7 @@
       <c r="P376" s="16"/>
       <c r="Q376" s="17"/>
     </row>
-    <row r="377" spans="1:17" ht="45.95" customHeight="1">
+    <row r="377" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25135,7 +25239,7 @@
       <c r="P377" s="16"/>
       <c r="Q377" s="17"/>
     </row>
-    <row r="378" spans="1:17" ht="45.95" customHeight="1">
+    <row r="378" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25162,7 +25266,7 @@
       <c r="P378" s="16"/>
       <c r="Q378" s="17"/>
     </row>
-    <row r="379" spans="1:17" ht="45.95" customHeight="1">
+    <row r="379" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25189,7 +25293,7 @@
       <c r="P379" s="16"/>
       <c r="Q379" s="17"/>
     </row>
-    <row r="380" spans="1:17" ht="45.95" customHeight="1">
+    <row r="380" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25216,7 +25320,7 @@
       <c r="P380" s="16"/>
       <c r="Q380" s="17"/>
     </row>
-    <row r="381" spans="1:17" ht="45.95" customHeight="1">
+    <row r="381" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25243,7 +25347,7 @@
       <c r="P381" s="16"/>
       <c r="Q381" s="17"/>
     </row>
-    <row r="382" spans="1:17" ht="45.95" customHeight="1">
+    <row r="382" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25270,7 +25374,7 @@
       <c r="P382" s="16"/>
       <c r="Q382" s="17"/>
     </row>
-    <row r="383" spans="1:17" ht="45.95" customHeight="1">
+    <row r="383" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25297,7 +25401,7 @@
       <c r="P383" s="16"/>
       <c r="Q383" s="17"/>
     </row>
-    <row r="384" spans="1:17" ht="45.95" customHeight="1">
+    <row r="384" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25324,7 +25428,7 @@
       <c r="P384" s="16"/>
       <c r="Q384" s="17"/>
     </row>
-    <row r="385" spans="1:17" ht="45.95" customHeight="1">
+    <row r="385" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25351,7 +25455,7 @@
       <c r="P385" s="16"/>
       <c r="Q385" s="17"/>
     </row>
-    <row r="386" spans="1:17" ht="45.95" customHeight="1">
+    <row r="386" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25378,7 +25482,7 @@
       <c r="P386" s="16"/>
       <c r="Q386" s="17"/>
     </row>
-    <row r="387" spans="1:17" ht="45.95" customHeight="1">
+    <row r="387" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25405,7 +25509,7 @@
       <c r="P387" s="16"/>
       <c r="Q387" s="17"/>
     </row>
-    <row r="388" spans="1:17" ht="45.95" customHeight="1">
+    <row r="388" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25432,7 +25536,7 @@
       <c r="P388" s="16"/>
       <c r="Q388" s="17"/>
     </row>
-    <row r="389" spans="1:17" ht="45.95" customHeight="1">
+    <row r="389" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25459,7 +25563,7 @@
       <c r="P389" s="16"/>
       <c r="Q389" s="17"/>
     </row>
-    <row r="390" spans="1:17" ht="45.95" customHeight="1">
+    <row r="390" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25486,7 +25590,7 @@
       <c r="P390" s="16"/>
       <c r="Q390" s="17"/>
     </row>
-    <row r="391" spans="1:17" ht="45.95" customHeight="1">
+    <row r="391" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25513,7 +25617,7 @@
       <c r="P391" s="16"/>
       <c r="Q391" s="17"/>
     </row>
-    <row r="392" spans="1:17" ht="45.95" customHeight="1">
+    <row r="392" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25540,7 +25644,7 @@
       <c r="P392" s="16"/>
       <c r="Q392" s="17"/>
     </row>
-    <row r="393" spans="1:17" ht="45.95" customHeight="1">
+    <row r="393" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25567,7 +25671,7 @@
       <c r="P393" s="16"/>
       <c r="Q393" s="17"/>
     </row>
-    <row r="394" spans="1:17" ht="45.95" customHeight="1">
+    <row r="394" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25594,7 +25698,7 @@
       <c r="P394" s="16"/>
       <c r="Q394" s="17"/>
     </row>
-    <row r="395" spans="1:17" ht="45.95" customHeight="1">
+    <row r="395" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25621,7 +25725,7 @@
       <c r="P395" s="16"/>
       <c r="Q395" s="17"/>
     </row>
-    <row r="396" spans="1:17" ht="45.95" customHeight="1">
+    <row r="396" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25648,7 +25752,7 @@
       <c r="P396" s="16"/>
       <c r="Q396" s="17"/>
     </row>
-    <row r="397" spans="1:17" ht="45.95" customHeight="1">
+    <row r="397" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25675,7 +25779,7 @@
       <c r="P397" s="16"/>
       <c r="Q397" s="17"/>
     </row>
-    <row r="398" spans="1:17" ht="45.95" customHeight="1">
+    <row r="398" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25702,7 +25806,7 @@
       <c r="P398" s="16"/>
       <c r="Q398" s="17"/>
     </row>
-    <row r="399" spans="1:17" ht="45.95" customHeight="1">
+    <row r="399" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25729,7 +25833,7 @@
       <c r="P399" s="16"/>
       <c r="Q399" s="17"/>
     </row>
-    <row r="400" spans="1:17" ht="45.95" customHeight="1">
+    <row r="400" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25756,7 +25860,7 @@
       <c r="P400" s="16"/>
       <c r="Q400" s="17"/>
     </row>
-    <row r="401" spans="1:17" ht="45.95" customHeight="1">
+    <row r="401" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25783,7 +25887,7 @@
       <c r="P401" s="16"/>
       <c r="Q401" s="17"/>
     </row>
-    <row r="402" spans="1:17" ht="45.95" customHeight="1">
+    <row r="402" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25810,7 +25914,7 @@
       <c r="P402" s="16"/>
       <c r="Q402" s="17"/>
     </row>
-    <row r="403" spans="1:17" ht="45.95" customHeight="1">
+    <row r="403" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25837,7 +25941,7 @@
       <c r="P403" s="16"/>
       <c r="Q403" s="17"/>
     </row>
-    <row r="404" spans="1:17" ht="45.95" customHeight="1">
+    <row r="404" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25864,7 +25968,7 @@
       <c r="P404" s="16"/>
       <c r="Q404" s="17"/>
     </row>
-    <row r="405" spans="1:17" ht="45.95" customHeight="1">
+    <row r="405" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25891,7 +25995,7 @@
       <c r="P405" s="16"/>
       <c r="Q405" s="17"/>
     </row>
-    <row r="406" spans="1:17" ht="45.95" customHeight="1">
+    <row r="406" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25918,7 +26022,7 @@
       <c r="P406" s="16"/>
       <c r="Q406" s="17"/>
     </row>
-    <row r="407" spans="1:17" ht="45.95" customHeight="1">
+    <row r="407" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25945,7 +26049,7 @@
       <c r="P407" s="16"/>
       <c r="Q407" s="17"/>
     </row>
-    <row r="408" spans="1:17" ht="45.95" customHeight="1">
+    <row r="408" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25972,7 +26076,7 @@
       <c r="P408" s="16"/>
       <c r="Q408" s="17"/>
     </row>
-    <row r="409" spans="1:17" ht="45.95" customHeight="1">
+    <row r="409" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="36" t="s">
         <v>1451</v>
       </c>
@@ -25999,7 +26103,7 @@
       <c r="P409" s="16"/>
       <c r="Q409" s="17"/>
     </row>
-    <row r="410" spans="1:17" ht="45.95" customHeight="1">
+    <row r="410" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26026,7 +26130,7 @@
       <c r="P410" s="16"/>
       <c r="Q410" s="17"/>
     </row>
-    <row r="411" spans="1:17" ht="45.95" customHeight="1">
+    <row r="411" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26053,7 +26157,7 @@
       <c r="P411" s="16"/>
       <c r="Q411" s="17"/>
     </row>
-    <row r="412" spans="1:17" ht="45.95" customHeight="1">
+    <row r="412" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26080,7 +26184,7 @@
       <c r="P412" s="16"/>
       <c r="Q412" s="17"/>
     </row>
-    <row r="413" spans="1:17" ht="45.95" customHeight="1">
+    <row r="413" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26107,7 +26211,7 @@
       <c r="P413" s="16"/>
       <c r="Q413" s="17"/>
     </row>
-    <row r="414" spans="1:17" ht="45.95" customHeight="1">
+    <row r="414" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26134,7 +26238,7 @@
       <c r="P414" s="16"/>
       <c r="Q414" s="17"/>
     </row>
-    <row r="415" spans="1:17" ht="45.95" customHeight="1">
+    <row r="415" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26161,7 +26265,7 @@
       <c r="P415" s="16"/>
       <c r="Q415" s="17"/>
     </row>
-    <row r="416" spans="1:17" ht="45.95" customHeight="1">
+    <row r="416" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26188,7 +26292,7 @@
       <c r="P416" s="16"/>
       <c r="Q416" s="17"/>
     </row>
-    <row r="417" spans="1:17" ht="45.95" customHeight="1">
+    <row r="417" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26215,7 +26319,7 @@
       <c r="P417" s="16"/>
       <c r="Q417" s="17"/>
     </row>
-    <row r="418" spans="1:17" ht="45.95" customHeight="1">
+    <row r="418" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26242,7 +26346,7 @@
       <c r="P418" s="16"/>
       <c r="Q418" s="17"/>
     </row>
-    <row r="419" spans="1:17" ht="45.95" customHeight="1">
+    <row r="419" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26269,7 +26373,7 @@
       <c r="P419" s="16"/>
       <c r="Q419" s="17"/>
     </row>
-    <row r="420" spans="1:17" ht="45.95" customHeight="1">
+    <row r="420" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26296,7 +26400,7 @@
       <c r="P420" s="16"/>
       <c r="Q420" s="17"/>
     </row>
-    <row r="421" spans="1:17" ht="45.95" customHeight="1">
+    <row r="421" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26323,7 +26427,7 @@
       <c r="P421" s="16"/>
       <c r="Q421" s="17"/>
     </row>
-    <row r="422" spans="1:17" ht="45.95" customHeight="1">
+    <row r="422" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26350,7 +26454,7 @@
       <c r="P422" s="16"/>
       <c r="Q422" s="17"/>
     </row>
-    <row r="423" spans="1:17" ht="45.95" customHeight="1">
+    <row r="423" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26377,7 +26481,7 @@
       <c r="P423" s="16"/>
       <c r="Q423" s="17"/>
     </row>
-    <row r="424" spans="1:17" ht="45.95" customHeight="1">
+    <row r="424" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26404,7 +26508,7 @@
       <c r="P424" s="16"/>
       <c r="Q424" s="17"/>
     </row>
-    <row r="425" spans="1:17" ht="45.95" customHeight="1">
+    <row r="425" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26431,7 +26535,7 @@
       <c r="P425" s="16"/>
       <c r="Q425" s="17"/>
     </row>
-    <row r="426" spans="1:17" ht="45.95" customHeight="1">
+    <row r="426" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26458,7 +26562,7 @@
       <c r="P426" s="16"/>
       <c r="Q426" s="17"/>
     </row>
-    <row r="427" spans="1:17" ht="45.95" customHeight="1">
+    <row r="427" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26485,7 +26589,7 @@
       <c r="P427" s="16"/>
       <c r="Q427" s="17"/>
     </row>
-    <row r="428" spans="1:17" ht="45.95" customHeight="1">
+    <row r="428" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26512,7 +26616,7 @@
       <c r="P428" s="16"/>
       <c r="Q428" s="17"/>
     </row>
-    <row r="429" spans="1:17" ht="45.95" customHeight="1">
+    <row r="429" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26539,7 +26643,7 @@
       <c r="P429" s="16"/>
       <c r="Q429" s="17"/>
     </row>
-    <row r="430" spans="1:17" ht="45.95" customHeight="1">
+    <row r="430" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26566,7 +26670,7 @@
       <c r="P430" s="16"/>
       <c r="Q430" s="17"/>
     </row>
-    <row r="431" spans="1:17" ht="45.95" customHeight="1">
+    <row r="431" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26593,7 +26697,7 @@
       <c r="P431" s="16"/>
       <c r="Q431" s="17"/>
     </row>
-    <row r="432" spans="1:17" ht="45.95" customHeight="1">
+    <row r="432" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26620,7 +26724,7 @@
       <c r="P432" s="16"/>
       <c r="Q432" s="17"/>
     </row>
-    <row r="433" spans="1:17" ht="45.95" customHeight="1">
+    <row r="433" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26647,7 +26751,7 @@
       <c r="P433" s="16"/>
       <c r="Q433" s="17"/>
     </row>
-    <row r="434" spans="1:17" ht="45.95" customHeight="1">
+    <row r="434" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26674,7 +26778,7 @@
       <c r="P434" s="16"/>
       <c r="Q434" s="17"/>
     </row>
-    <row r="435" spans="1:17" ht="45.95" customHeight="1">
+    <row r="435" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26701,7 +26805,7 @@
       <c r="P435" s="16"/>
       <c r="Q435" s="17"/>
     </row>
-    <row r="436" spans="1:17" ht="45.95" customHeight="1">
+    <row r="436" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26728,7 +26832,7 @@
       <c r="P436" s="16"/>
       <c r="Q436" s="17"/>
     </row>
-    <row r="437" spans="1:17" ht="45.95" customHeight="1">
+    <row r="437" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26755,7 +26859,7 @@
       <c r="P437" s="16"/>
       <c r="Q437" s="17"/>
     </row>
-    <row r="438" spans="1:17" ht="45.95" customHeight="1">
+    <row r="438" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26782,7 +26886,7 @@
       <c r="P438" s="16"/>
       <c r="Q438" s="17"/>
     </row>
-    <row r="439" spans="1:17" ht="45.95" customHeight="1">
+    <row r="439" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26809,7 +26913,7 @@
       <c r="P439" s="16"/>
       <c r="Q439" s="17"/>
     </row>
-    <row r="440" spans="1:17" ht="45.95" customHeight="1">
+    <row r="440" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26836,7 +26940,7 @@
       <c r="P440" s="16"/>
       <c r="Q440" s="17"/>
     </row>
-    <row r="441" spans="1:17" ht="45.95" customHeight="1">
+    <row r="441" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26863,7 +26967,7 @@
       <c r="P441" s="16"/>
       <c r="Q441" s="17"/>
     </row>
-    <row r="442" spans="1:17" ht="45.95" customHeight="1">
+    <row r="442" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26890,7 +26994,7 @@
       <c r="P442" s="16"/>
       <c r="Q442" s="17"/>
     </row>
-    <row r="443" spans="1:17" ht="45.95" customHeight="1">
+    <row r="443" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26917,7 +27021,7 @@
       <c r="P443" s="16"/>
       <c r="Q443" s="17"/>
     </row>
-    <row r="444" spans="1:17" ht="45.95" customHeight="1">
+    <row r="444" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26944,7 +27048,7 @@
       <c r="P444" s="16"/>
       <c r="Q444" s="17"/>
     </row>
-    <row r="445" spans="1:17" ht="45.95" customHeight="1">
+    <row r="445" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26971,7 +27075,7 @@
       <c r="P445" s="16"/>
       <c r="Q445" s="17"/>
     </row>
-    <row r="446" spans="1:17" ht="45.95" customHeight="1">
+    <row r="446" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="36" t="s">
         <v>1451</v>
       </c>
@@ -26998,7 +27102,7 @@
       <c r="P446" s="16"/>
       <c r="Q446" s="17"/>
     </row>
-    <row r="447" spans="1:17" ht="45.95" customHeight="1">
+    <row r="447" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="36" t="s">
         <v>1451</v>
       </c>
@@ -27025,7 +27129,7 @@
       <c r="P447" s="16"/>
       <c r="Q447" s="17"/>
     </row>
-    <row r="448" spans="1:17" ht="45.95" customHeight="1">
+    <row r="448" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="36" t="s">
         <v>1451</v>
       </c>
@@ -27052,7 +27156,7 @@
       <c r="P448" s="16"/>
       <c r="Q448" s="17"/>
     </row>
-    <row r="449" spans="1:17" ht="45.95" customHeight="1">
+    <row r="449" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="36" t="s">
         <v>1451</v>
       </c>
@@ -27079,7 +27183,7 @@
       <c r="P449" s="16"/>
       <c r="Q449" s="17"/>
     </row>
-    <row r="450" spans="1:17" ht="45.95" customHeight="1">
+    <row r="450" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27106,7 +27210,7 @@
       <c r="P450" s="16"/>
       <c r="Q450" s="17"/>
     </row>
-    <row r="451" spans="1:17" ht="45.95" customHeight="1">
+    <row r="451" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27133,7 +27237,7 @@
       <c r="P451" s="16"/>
       <c r="Q451" s="17"/>
     </row>
-    <row r="452" spans="1:17" ht="45.95" customHeight="1">
+    <row r="452" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27160,7 +27264,7 @@
       <c r="P452" s="16"/>
       <c r="Q452" s="17"/>
     </row>
-    <row r="453" spans="1:17" ht="45.95" customHeight="1">
+    <row r="453" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27187,7 +27291,7 @@
       <c r="P453" s="16"/>
       <c r="Q453" s="17"/>
     </row>
-    <row r="454" spans="1:17" ht="45.95" customHeight="1">
+    <row r="454" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27214,7 +27318,7 @@
       <c r="P454" s="16"/>
       <c r="Q454" s="17"/>
     </row>
-    <row r="455" spans="1:17" ht="45.95" customHeight="1">
+    <row r="455" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27241,7 +27345,7 @@
       <c r="P455" s="16"/>
       <c r="Q455" s="17"/>
     </row>
-    <row r="456" spans="1:17" ht="45.95" customHeight="1">
+    <row r="456" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27268,7 +27372,7 @@
       <c r="P456" s="16"/>
       <c r="Q456" s="17"/>
     </row>
-    <row r="457" spans="1:17" ht="45.95" customHeight="1">
+    <row r="457" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27295,7 +27399,7 @@
       <c r="P457" s="16"/>
       <c r="Q457" s="17"/>
     </row>
-    <row r="458" spans="1:17" ht="45.95" customHeight="1">
+    <row r="458" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27322,7 +27426,7 @@
       <c r="P458" s="16"/>
       <c r="Q458" s="17"/>
     </row>
-    <row r="459" spans="1:17" ht="45.95" customHeight="1">
+    <row r="459" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27349,7 +27453,7 @@
       <c r="P459" s="16"/>
       <c r="Q459" s="17"/>
     </row>
-    <row r="460" spans="1:17" ht="45.95" customHeight="1">
+    <row r="460" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27376,7 +27480,7 @@
       <c r="P460" s="16"/>
       <c r="Q460" s="17"/>
     </row>
-    <row r="461" spans="1:17" ht="45.95" customHeight="1">
+    <row r="461" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27403,7 +27507,7 @@
       <c r="P461" s="16"/>
       <c r="Q461" s="17"/>
     </row>
-    <row r="462" spans="1:17" ht="45.95" customHeight="1">
+    <row r="462" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27430,7 +27534,7 @@
       <c r="P462" s="16"/>
       <c r="Q462" s="17"/>
     </row>
-    <row r="463" spans="1:17" ht="45.95" customHeight="1">
+    <row r="463" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27457,7 +27561,7 @@
       <c r="P463" s="16"/>
       <c r="Q463" s="17"/>
     </row>
-    <row r="464" spans="1:17" ht="45.95" customHeight="1">
+    <row r="464" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27484,7 +27588,7 @@
       <c r="P464" s="16"/>
       <c r="Q464" s="17"/>
     </row>
-    <row r="465" spans="1:17" ht="45.95" customHeight="1">
+    <row r="465" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27511,7 +27615,7 @@
       <c r="P465" s="16"/>
       <c r="Q465" s="17"/>
     </row>
-    <row r="466" spans="1:17" ht="45.95" customHeight="1">
+    <row r="466" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27538,7 +27642,7 @@
       <c r="P466" s="16"/>
       <c r="Q466" s="17"/>
     </row>
-    <row r="467" spans="1:17" ht="45.95" customHeight="1">
+    <row r="467" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27565,7 +27669,7 @@
       <c r="P467" s="16"/>
       <c r="Q467" s="17"/>
     </row>
-    <row r="468" spans="1:17" ht="45.95" customHeight="1">
+    <row r="468" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27592,7 +27696,7 @@
       <c r="P468" s="16"/>
       <c r="Q468" s="17"/>
     </row>
-    <row r="469" spans="1:17" ht="45.95" customHeight="1">
+    <row r="469" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27619,7 +27723,7 @@
       <c r="P469" s="16"/>
       <c r="Q469" s="17"/>
     </row>
-    <row r="470" spans="1:17" ht="45.95" customHeight="1">
+    <row r="470" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27646,7 +27750,7 @@
       <c r="P470" s="16"/>
       <c r="Q470" s="17"/>
     </row>
-    <row r="471" spans="1:17" ht="45.95" customHeight="1">
+    <row r="471" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27673,7 +27777,7 @@
       <c r="P471" s="16"/>
       <c r="Q471" s="17"/>
     </row>
-    <row r="472" spans="1:17" ht="45.95" customHeight="1">
+    <row r="472" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27700,7 +27804,7 @@
       <c r="P472" s="16"/>
       <c r="Q472" s="17"/>
     </row>
-    <row r="473" spans="1:17" ht="45.95" customHeight="1">
+    <row r="473" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27727,7 +27831,7 @@
       <c r="P473" s="16"/>
       <c r="Q473" s="17"/>
     </row>
-    <row r="474" spans="1:17" ht="45.95" customHeight="1">
+    <row r="474" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27754,7 +27858,7 @@
       <c r="P474" s="16"/>
       <c r="Q474" s="17"/>
     </row>
-    <row r="475" spans="1:17" ht="45.95" customHeight="1">
+    <row r="475" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27781,7 +27885,7 @@
       <c r="P475" s="16"/>
       <c r="Q475" s="17"/>
     </row>
-    <row r="476" spans="1:17" ht="45.95" customHeight="1">
+    <row r="476" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27808,7 +27912,7 @@
       <c r="P476" s="16"/>
       <c r="Q476" s="17"/>
     </row>
-    <row r="477" spans="1:17" ht="45.95" customHeight="1">
+    <row r="477" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27835,7 +27939,7 @@
       <c r="P477" s="16"/>
       <c r="Q477" s="17"/>
     </row>
-    <row r="478" spans="1:17" ht="45.95" customHeight="1">
+    <row r="478" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27862,7 +27966,7 @@
       <c r="P478" s="16"/>
       <c r="Q478" s="17"/>
     </row>
-    <row r="479" spans="1:17" ht="45.95" customHeight="1">
+    <row r="479" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27889,7 +27993,7 @@
       <c r="P479" s="16"/>
       <c r="Q479" s="17"/>
     </row>
-    <row r="480" spans="1:17" ht="45.95" customHeight="1">
+    <row r="480" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27916,7 +28020,7 @@
       <c r="P480" s="16"/>
       <c r="Q480" s="17"/>
     </row>
-    <row r="481" spans="1:17" ht="45.95" customHeight="1">
+    <row r="481" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27943,7 +28047,7 @@
       <c r="P481" s="16"/>
       <c r="Q481" s="17"/>
     </row>
-    <row r="482" spans="1:17" ht="45.95" customHeight="1">
+    <row r="482" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27970,7 +28074,7 @@
       <c r="P482" s="16"/>
       <c r="Q482" s="17"/>
     </row>
-    <row r="483" spans="1:17" ht="45.95" customHeight="1">
+    <row r="483" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="54" t="s">
         <v>1451</v>
       </c>
@@ -27997,7 +28101,7 @@
       <c r="P483" s="16"/>
       <c r="Q483" s="17"/>
     </row>
-    <row r="484" spans="1:17" ht="45.95" customHeight="1">
+    <row r="484" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28024,7 +28128,7 @@
       <c r="P484" s="16"/>
       <c r="Q484" s="17"/>
     </row>
-    <row r="485" spans="1:17" ht="45.95" customHeight="1">
+    <row r="485" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28051,7 +28155,7 @@
       <c r="P485" s="16"/>
       <c r="Q485" s="17"/>
     </row>
-    <row r="486" spans="1:17" ht="45.95" customHeight="1">
+    <row r="486" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28078,7 +28182,7 @@
       <c r="P486" s="16"/>
       <c r="Q486" s="17"/>
     </row>
-    <row r="487" spans="1:17" ht="45.95" customHeight="1">
+    <row r="487" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28105,7 +28209,7 @@
       <c r="P487" s="16"/>
       <c r="Q487" s="17"/>
     </row>
-    <row r="488" spans="1:17" ht="45.95" customHeight="1">
+    <row r="488" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28132,7 +28236,7 @@
       <c r="P488" s="16"/>
       <c r="Q488" s="17"/>
     </row>
-    <row r="489" spans="1:17" ht="45.95" customHeight="1">
+    <row r="489" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28159,7 +28263,7 @@
       <c r="P489" s="16"/>
       <c r="Q489" s="17"/>
     </row>
-    <row r="490" spans="1:17" ht="45.95" customHeight="1">
+    <row r="490" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28186,7 +28290,7 @@
       <c r="P490" s="16"/>
       <c r="Q490" s="17"/>
     </row>
-    <row r="491" spans="1:17" ht="45.95" customHeight="1">
+    <row r="491" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28213,7 +28317,7 @@
       <c r="P491" s="16"/>
       <c r="Q491" s="17"/>
     </row>
-    <row r="492" spans="1:17" ht="45.95" customHeight="1">
+    <row r="492" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28240,7 +28344,7 @@
       <c r="P492" s="16"/>
       <c r="Q492" s="17"/>
     </row>
-    <row r="493" spans="1:17" ht="45.95" customHeight="1">
+    <row r="493" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28267,7 +28371,7 @@
       <c r="P493" s="16"/>
       <c r="Q493" s="17"/>
     </row>
-    <row r="494" spans="1:17" ht="45.95" customHeight="1">
+    <row r="494" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28294,7 +28398,7 @@
       <c r="P494" s="16"/>
       <c r="Q494" s="17"/>
     </row>
-    <row r="495" spans="1:17" ht="45.95" customHeight="1">
+    <row r="495" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28321,7 +28425,7 @@
       <c r="P495" s="16"/>
       <c r="Q495" s="17"/>
     </row>
-    <row r="496" spans="1:17" ht="45.95" customHeight="1">
+    <row r="496" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28348,7 +28452,7 @@
       <c r="P496" s="16"/>
       <c r="Q496" s="17"/>
     </row>
-    <row r="497" spans="1:17" ht="45.95" customHeight="1">
+    <row r="497" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28375,7 +28479,7 @@
       <c r="P497" s="16"/>
       <c r="Q497" s="17"/>
     </row>
-    <row r="498" spans="1:17" ht="45.95" customHeight="1">
+    <row r="498" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28402,7 +28506,7 @@
       <c r="P498" s="16"/>
       <c r="Q498" s="17"/>
     </row>
-    <row r="499" spans="1:17" ht="45.95" customHeight="1">
+    <row r="499" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28429,7 +28533,7 @@
       <c r="P499" s="16"/>
       <c r="Q499" s="17"/>
     </row>
-    <row r="500" spans="1:17" ht="45.95" customHeight="1">
+    <row r="500" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28456,7 +28560,7 @@
       <c r="P500" s="16"/>
       <c r="Q500" s="17"/>
     </row>
-    <row r="501" spans="1:17" ht="45.95" customHeight="1">
+    <row r="501" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28485,7 +28589,7 @@
       <c r="P501" s="16"/>
       <c r="Q501" s="17"/>
     </row>
-    <row r="502" spans="1:17" ht="45.95" customHeight="1">
+    <row r="502" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="54" t="s">
         <v>1451</v>
       </c>
@@ -28512,7 +28616,7 @@
       <c r="P502" s="16"/>
       <c r="Q502" s="17"/>
     </row>
-    <row r="503" spans="1:17" ht="45.95" customHeight="1">
+    <row r="503" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28555,7 +28659,7 @@
       <c r="P503" s="16"/>
       <c r="Q503" s="17"/>
     </row>
-    <row r="504" spans="1:17" ht="45.95" customHeight="1">
+    <row r="504" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="36" t="s">
         <v>1964</v>
       </c>
@@ -28578,7 +28682,7 @@
       <c r="P504" s="16"/>
       <c r="Q504" s="17"/>
     </row>
-    <row r="505" spans="1:17" ht="45.95" customHeight="1">
+    <row r="505" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28615,7 +28719,7 @@
       <c r="P505" s="16"/>
       <c r="Q505" s="17"/>
     </row>
-    <row r="506" spans="1:17" ht="45.95" customHeight="1">
+    <row r="506" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28654,7 +28758,7 @@
       <c r="P506" s="16"/>
       <c r="Q506" s="17"/>
     </row>
-    <row r="507" spans="1:17" ht="45.95" customHeight="1">
+    <row r="507" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28688,7 +28792,7 @@
       <c r="P507" s="16"/>
       <c r="Q507" s="17"/>
     </row>
-    <row r="508" spans="1:17" ht="45.95" customHeight="1">
+    <row r="508" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28715,7 +28819,7 @@
       <c r="P508" s="16"/>
       <c r="Q508" s="17"/>
     </row>
-    <row r="509" spans="1:17" ht="45.95" customHeight="1">
+    <row r="509" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28754,7 +28858,7 @@
       <c r="P509" s="16"/>
       <c r="Q509" s="17"/>
     </row>
-    <row r="510" spans="1:17" ht="45.95" customHeight="1">
+    <row r="510" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28793,7 +28897,7 @@
       <c r="P510" s="16"/>
       <c r="Q510" s="17"/>
     </row>
-    <row r="511" spans="1:17" ht="45.95" customHeight="1">
+    <row r="511" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28828,7 +28932,7 @@
       <c r="P511" s="16"/>
       <c r="Q511" s="17"/>
     </row>
-    <row r="512" spans="1:17" ht="45.95" customHeight="1">
+    <row r="512" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="36" t="s">
         <v>1959</v>
       </c>
@@ -28861,7 +28965,7 @@
       <c r="P512" s="16"/>
       <c r="Q512" s="17"/>
     </row>
-    <row r="513" spans="1:17" ht="45.95" customHeight="1">
+    <row r="513" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28888,7 +28992,7 @@
       <c r="P513" s="16"/>
       <c r="Q513" s="17"/>
     </row>
-    <row r="514" spans="1:17" ht="45.95" customHeight="1">
+    <row r="514" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28919,7 +29023,7 @@
       <c r="P514" s="16"/>
       <c r="Q514" s="17"/>
     </row>
-    <row r="515" spans="1:17" ht="45.95" customHeight="1">
+    <row r="515" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28950,7 +29054,7 @@
       <c r="P515" s="16"/>
       <c r="Q515" s="17"/>
     </row>
-    <row r="516" spans="1:17" ht="45.95" customHeight="1">
+    <row r="516" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="59" t="s">
         <v>2025</v>
       </c>
@@ -28981,7 +29085,7 @@
       <c r="P516" s="16"/>
       <c r="Q516" s="17"/>
     </row>
-    <row r="517" spans="1:17" ht="45.95" customHeight="1">
+    <row r="517" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="38" t="s">
         <v>2072</v>
       </c>
@@ -29010,7 +29114,7 @@
       <c r="P517" s="16"/>
       <c r="Q517" s="17"/>
     </row>
-    <row r="518" spans="1:17" ht="45.95" customHeight="1">
+    <row r="518" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29041,7 +29145,7 @@
       <c r="P518" s="16"/>
       <c r="Q518" s="17"/>
     </row>
-    <row r="519" spans="1:17" ht="45.95" customHeight="1">
+    <row r="519" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29072,7 +29176,7 @@
       <c r="P519" s="16"/>
       <c r="Q519" s="17"/>
     </row>
-    <row r="520" spans="1:17" ht="45.95" customHeight="1">
+    <row r="520" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29103,7 +29207,7 @@
       <c r="P520" s="16"/>
       <c r="Q520" s="17"/>
     </row>
-    <row r="521" spans="1:17" ht="45.95" customHeight="1">
+    <row r="521" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29132,7 +29236,7 @@
       <c r="P521" s="16"/>
       <c r="Q521" s="17"/>
     </row>
-    <row r="522" spans="1:17" ht="45.95" customHeight="1">
+    <row r="522" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29161,7 +29265,7 @@
       <c r="P522" s="16"/>
       <c r="Q522" s="17"/>
     </row>
-    <row r="523" spans="1:17" ht="45.95" customHeight="1">
+    <row r="523" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29190,7 +29294,7 @@
       <c r="P523" s="16"/>
       <c r="Q523" s="17"/>
     </row>
-    <row r="524" spans="1:17" ht="45.95" customHeight="1">
+    <row r="524" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29219,7 +29323,7 @@
       <c r="P524" s="16"/>
       <c r="Q524" s="17"/>
     </row>
-    <row r="525" spans="1:17" ht="45.95" customHeight="1">
+    <row r="525" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29248,7 +29352,7 @@
       <c r="P525" s="16"/>
       <c r="Q525" s="17"/>
     </row>
-    <row r="526" spans="1:17" ht="45.95" customHeight="1">
+    <row r="526" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29277,7 +29381,7 @@
       <c r="P526" s="16"/>
       <c r="Q526" s="17"/>
     </row>
-    <row r="527" spans="1:17" ht="45.95" customHeight="1">
+    <row r="527" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29306,7 +29410,7 @@
       <c r="P527" s="16"/>
       <c r="Q527" s="17"/>
     </row>
-    <row r="528" spans="1:17" ht="45.95" customHeight="1">
+    <row r="528" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29335,7 +29439,7 @@
       <c r="P528" s="16"/>
       <c r="Q528" s="17"/>
     </row>
-    <row r="529" spans="1:18" ht="45.95" customHeight="1">
+    <row r="529" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29364,7 +29468,7 @@
       <c r="P529" s="16"/>
       <c r="Q529" s="17"/>
     </row>
-    <row r="530" spans="1:18" ht="45.95" customHeight="1">
+    <row r="530" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29393,7 +29497,7 @@
       <c r="P530" s="16"/>
       <c r="Q530" s="17"/>
     </row>
-    <row r="531" spans="1:18" ht="45.95" customHeight="1">
+    <row r="531" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29422,7 +29526,7 @@
       <c r="P531" s="16"/>
       <c r="Q531" s="17"/>
     </row>
-    <row r="532" spans="1:18" ht="45.95" customHeight="1">
+    <row r="532" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29449,7 +29553,7 @@
       <c r="P532" s="16"/>
       <c r="Q532" s="17"/>
     </row>
-    <row r="533" spans="1:18" ht="45.95" customHeight="1">
+    <row r="533" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29476,7 +29580,7 @@
       <c r="P533" s="16"/>
       <c r="Q533" s="17"/>
     </row>
-    <row r="534" spans="1:18" ht="45.95" customHeight="1">
+    <row r="534" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29505,7 +29609,7 @@
       <c r="P534" s="16"/>
       <c r="Q534" s="17"/>
     </row>
-    <row r="535" spans="1:18" ht="45.95" customHeight="1">
+    <row r="535" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="59" t="s">
         <v>2025</v>
       </c>
@@ -29528,7 +29632,7 @@
       <c r="P535" s="16"/>
       <c r="Q535" s="17"/>
     </row>
-    <row r="536" spans="1:18" ht="45.95" customHeight="1">
+    <row r="536" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29561,7 +29665,7 @@
       <c r="P536" s="16"/>
       <c r="Q536" s="17"/>
     </row>
-    <row r="537" spans="1:18" ht="45.95" customHeight="1">
+    <row r="537" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29594,7 +29698,7 @@
       <c r="P537" s="16"/>
       <c r="Q537" s="17"/>
     </row>
-    <row r="538" spans="1:18" ht="45.95" customHeight="1">
+    <row r="538" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29631,7 +29735,7 @@
       <c r="P538" s="16"/>
       <c r="Q538" s="17"/>
     </row>
-    <row r="539" spans="1:18" ht="45.95" customHeight="1">
+    <row r="539" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29666,7 +29770,7 @@
       <c r="P539" s="16"/>
       <c r="Q539" s="17"/>
     </row>
-    <row r="540" spans="1:18" ht="45.95" customHeight="1">
+    <row r="540" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29697,7 +29801,7 @@
       <c r="P540" s="16"/>
       <c r="Q540" s="17"/>
     </row>
-    <row r="541" spans="1:18" ht="45.95" customHeight="1">
+    <row r="541" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29730,7 +29834,7 @@
       <c r="P541" s="16"/>
       <c r="Q541" s="17"/>
     </row>
-    <row r="542" spans="1:18" ht="45.95" customHeight="1">
+    <row r="542" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29774,7 +29878,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="543" spans="1:18" ht="45.95" customHeight="1">
+    <row r="543" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29815,7 +29919,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="544" spans="1:18" ht="45.95" customHeight="1">
+    <row r="544" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="56" t="s">
         <v>2187</v>
       </c>
@@ -29842,7 +29946,7 @@
       <c r="P544" s="16"/>
       <c r="Q544" s="17"/>
     </row>
-    <row r="545" spans="1:17" ht="45.95" customHeight="1">
+    <row r="545" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="56" t="s">
         <v>2187</v>
       </c>
@@ -29865,7 +29969,7 @@
       <c r="P545" s="16"/>
       <c r="Q545" s="17"/>
     </row>
-    <row r="546" spans="1:17" ht="45.95" customHeight="1">
+    <row r="546" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="59" t="s">
         <v>2214</v>
       </c>
@@ -29888,7 +29992,7 @@
       <c r="P546" s="16"/>
       <c r="Q546" s="17"/>
     </row>
-    <row r="547" spans="1:17" ht="45.95" customHeight="1">
+    <row r="547" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29927,7 +30031,7 @@
       <c r="P547" s="16"/>
       <c r="Q547" s="17"/>
     </row>
-    <row r="548" spans="1:17" ht="45.95" customHeight="1">
+    <row r="548" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29960,7 +30064,7 @@
       <c r="P548" s="16"/>
       <c r="Q548" s="17"/>
     </row>
-    <row r="549" spans="1:17" ht="45.95" customHeight="1">
+    <row r="549" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="59" t="s">
         <v>1130</v>
       </c>
@@ -29995,7 +30099,7 @@
       <c r="P549" s="16"/>
       <c r="Q549" s="17"/>
     </row>
-    <row r="550" spans="1:17" ht="45.95" customHeight="1">
+    <row r="550" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="59" t="s">
         <v>1130</v>
       </c>
@@ -30034,7 +30138,7 @@
       <c r="P550" s="16"/>
       <c r="Q550" s="17"/>
     </row>
-    <row r="551" spans="1:17" ht="45.95" customHeight="1">
+    <row r="551" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="36" t="s">
         <v>2227</v>
       </c>
@@ -30059,7 +30163,7 @@
       <c r="P551" s="16"/>
       <c r="Q551" s="17"/>
     </row>
-    <row r="552" spans="1:17" ht="45.95" customHeight="1">
+    <row r="552" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="36" t="s">
         <v>2227</v>
       </c>
@@ -30084,7 +30188,7 @@
       <c r="P552" s="16"/>
       <c r="Q552" s="17"/>
     </row>
-    <row r="553" spans="1:17" ht="45.95" customHeight="1">
+    <row r="553" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="36" t="s">
         <v>2227</v>
       </c>
@@ -30109,7 +30213,7 @@
       <c r="P553" s="16"/>
       <c r="Q553" s="17"/>
     </row>
-    <row r="554" spans="1:17" ht="45.95" customHeight="1">
+    <row r="554" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="36" t="s">
         <v>2227</v>
       </c>
@@ -30134,7 +30238,7 @@
       <c r="P554" s="16"/>
       <c r="Q554" s="17"/>
     </row>
-    <row r="555" spans="1:17" ht="45.95" customHeight="1">
+    <row r="555" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="36" t="s">
         <v>2227</v>
       </c>
@@ -30159,7 +30263,7 @@
       <c r="P555" s="16"/>
       <c r="Q555" s="17"/>
     </row>
-    <row r="556" spans="1:17" ht="45.95" customHeight="1">
+    <row r="556" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="36" t="s">
         <v>2233</v>
       </c>
@@ -30190,7 +30294,7 @@
       <c r="P556" s="16"/>
       <c r="Q556" s="17"/>
     </row>
-    <row r="557" spans="1:17" ht="45.95" customHeight="1">
+    <row r="557" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="36" t="s">
         <v>2242</v>
       </c>
@@ -30219,7 +30323,7 @@
       <c r="P557" s="16"/>
       <c r="Q557" s="17"/>
     </row>
-    <row r="558" spans="1:17" ht="45.95" customHeight="1">
+    <row r="558" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="36" t="s">
         <v>2242</v>
       </c>
@@ -30248,7 +30352,7 @@
       <c r="P558" s="16"/>
       <c r="Q558" s="17"/>
     </row>
-    <row r="559" spans="1:17" ht="45.95" customHeight="1">
+    <row r="559" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="36" t="s">
         <v>2242</v>
       </c>
@@ -30277,7 +30381,7 @@
       <c r="P559" s="16"/>
       <c r="Q559" s="17"/>
     </row>
-    <row r="560" spans="1:17" ht="45.95" customHeight="1">
+    <row r="560" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="36" t="s">
         <v>2242</v>
       </c>
@@ -30306,7 +30410,7 @@
       <c r="P560" s="16"/>
       <c r="Q560" s="17"/>
     </row>
-    <row r="561" spans="1:17" ht="45.95" customHeight="1">
+    <row r="561" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="36" t="s">
         <v>70</v>
       </c>
@@ -30335,7 +30439,7 @@
       <c r="P561" s="16"/>
       <c r="Q561" s="17"/>
     </row>
-    <row r="562" spans="1:17" ht="45.95" customHeight="1">
+    <row r="562" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="36" t="s">
         <v>70</v>
       </c>
@@ -30364,7 +30468,7 @@
       <c r="P562" s="16"/>
       <c r="Q562" s="17"/>
     </row>
-    <row r="563" spans="1:17" ht="45.95" customHeight="1">
+    <row r="563" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="36" t="s">
         <v>70</v>
       </c>
@@ -30393,7 +30497,7 @@
       <c r="P563" s="16"/>
       <c r="Q563" s="17"/>
     </row>
-    <row r="564" spans="1:17" ht="45.95" customHeight="1">
+    <row r="564" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="36" t="s">
         <v>70</v>
       </c>
@@ -30422,7 +30526,7 @@
       <c r="P564" s="16"/>
       <c r="Q564" s="17"/>
     </row>
-    <row r="565" spans="1:17" ht="45.95" customHeight="1">
+    <row r="565" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="36" t="s">
         <v>70</v>
       </c>
@@ -30451,7 +30555,7 @@
       <c r="P565" s="16"/>
       <c r="Q565" s="17"/>
     </row>
-    <row r="566" spans="1:17" ht="45.95" customHeight="1">
+    <row r="566" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="36" t="s">
         <v>70</v>
       </c>
@@ -30480,7 +30584,7 @@
       <c r="P566" s="16"/>
       <c r="Q566" s="17"/>
     </row>
-    <row r="567" spans="1:17" ht="45.95" customHeight="1">
+    <row r="567" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="36" t="s">
         <v>70</v>
       </c>
@@ -30509,7 +30613,7 @@
       <c r="P567" s="16"/>
       <c r="Q567" s="17"/>
     </row>
-    <row r="568" spans="1:17" ht="45.95" customHeight="1">
+    <row r="568" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="36" t="s">
         <v>70</v>
       </c>
@@ -30538,7 +30642,7 @@
       <c r="P568" s="16"/>
       <c r="Q568" s="17"/>
     </row>
-    <row r="569" spans="1:17" ht="45.95" customHeight="1">
+    <row r="569" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="36" t="s">
         <v>70</v>
       </c>
@@ -30567,7 +30671,7 @@
       <c r="P569" s="16"/>
       <c r="Q569" s="17"/>
     </row>
-    <row r="570" spans="1:17" ht="45.95" customHeight="1">
+    <row r="570" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="36" t="s">
         <v>70</v>
       </c>
@@ -30596,7 +30700,7 @@
       <c r="P570" s="16"/>
       <c r="Q570" s="17"/>
     </row>
-    <row r="571" spans="1:17" ht="45.95" customHeight="1">
+    <row r="571" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="36" t="s">
         <v>70</v>
       </c>
@@ -30625,7 +30729,7 @@
       <c r="P571" s="16"/>
       <c r="Q571" s="17"/>
     </row>
-    <row r="572" spans="1:17" ht="45.95" customHeight="1">
+    <row r="572" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="36" t="s">
         <v>70</v>
       </c>
@@ -30654,7 +30758,7 @@
       <c r="P572" s="16"/>
       <c r="Q572" s="17"/>
     </row>
-    <row r="573" spans="1:17" ht="45.95" customHeight="1">
+    <row r="573" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="36" t="s">
         <v>70</v>
       </c>
@@ -30683,7 +30787,7 @@
       <c r="P573" s="16"/>
       <c r="Q573" s="17"/>
     </row>
-    <row r="574" spans="1:17" ht="45.95" customHeight="1">
+    <row r="574" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="36" t="s">
         <v>70</v>
       </c>
@@ -30712,7 +30816,7 @@
       <c r="P574" s="16"/>
       <c r="Q574" s="17"/>
     </row>
-    <row r="575" spans="1:17" ht="45.95" customHeight="1">
+    <row r="575" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="36" t="s">
         <v>70</v>
       </c>
@@ -30741,7 +30845,7 @@
       <c r="P575" s="16"/>
       <c r="Q575" s="17"/>
     </row>
-    <row r="576" spans="1:17" ht="45.95" customHeight="1">
+    <row r="576" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="36" t="s">
         <v>70</v>
       </c>
@@ -30770,7 +30874,7 @@
       <c r="P576" s="16"/>
       <c r="Q576" s="17"/>
     </row>
-    <row r="577" spans="1:17" ht="45.95" customHeight="1">
+    <row r="577" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="36" t="s">
         <v>70</v>
       </c>
@@ -30799,7 +30903,7 @@
       <c r="P577" s="16"/>
       <c r="Q577" s="17"/>
     </row>
-    <row r="578" spans="1:17" ht="45.95" customHeight="1">
+    <row r="578" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="36" t="s">
         <v>70</v>
       </c>
@@ -30828,7 +30932,7 @@
       <c r="P578" s="16"/>
       <c r="Q578" s="17"/>
     </row>
-    <row r="579" spans="1:17" ht="45.95" customHeight="1">
+    <row r="579" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="36" t="s">
         <v>70</v>
       </c>
@@ -30857,7 +30961,7 @@
       <c r="P579" s="16"/>
       <c r="Q579" s="17"/>
     </row>
-    <row r="580" spans="1:17" ht="45.95" customHeight="1">
+    <row r="580" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="36" t="s">
         <v>70</v>
       </c>
@@ -30886,7 +30990,7 @@
       <c r="P580" s="16"/>
       <c r="Q580" s="17"/>
     </row>
-    <row r="581" spans="1:17" ht="45.95" customHeight="1">
+    <row r="581" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="36" t="s">
         <v>70</v>
       </c>
@@ -30915,7 +31019,7 @@
       <c r="P581" s="16"/>
       <c r="Q581" s="17"/>
     </row>
-    <row r="582" spans="1:17" ht="45.95" customHeight="1">
+    <row r="582" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="36" t="s">
         <v>70</v>
       </c>
@@ -30944,7 +31048,7 @@
       <c r="P582" s="16"/>
       <c r="Q582" s="17"/>
     </row>
-    <row r="583" spans="1:17" ht="45.95" customHeight="1">
+    <row r="583" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="36" t="s">
         <v>70</v>
       </c>
@@ -30973,7 +31077,7 @@
       <c r="P583" s="16"/>
       <c r="Q583" s="17"/>
     </row>
-    <row r="584" spans="1:17" ht="45.95" customHeight="1">
+    <row r="584" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="36" t="s">
         <v>70</v>
       </c>
@@ -31002,7 +31106,7 @@
       <c r="P584" s="16"/>
       <c r="Q584" s="17"/>
     </row>
-    <row r="585" spans="1:17" ht="45.95" customHeight="1">
+    <row r="585" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="36" t="s">
         <v>70</v>
       </c>
@@ -31031,7 +31135,7 @@
       <c r="P585" s="16"/>
       <c r="Q585" s="17"/>
     </row>
-    <row r="586" spans="1:17" ht="45.95" customHeight="1">
+    <row r="586" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="36" t="s">
         <v>70</v>
       </c>
@@ -31060,7 +31164,7 @@
       <c r="P586" s="16"/>
       <c r="Q586" s="17"/>
     </row>
-    <row r="587" spans="1:17" ht="45.95" customHeight="1">
+    <row r="587" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="36" t="s">
         <v>70</v>
       </c>
@@ -31089,7 +31193,7 @@
       <c r="P587" s="16"/>
       <c r="Q587" s="17"/>
     </row>
-    <row r="588" spans="1:17" ht="45.95" customHeight="1">
+    <row r="588" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="36" t="s">
         <v>70</v>
       </c>
@@ -31118,7 +31222,7 @@
       <c r="P588" s="16"/>
       <c r="Q588" s="17"/>
     </row>
-    <row r="589" spans="1:17" ht="45.95" customHeight="1">
+    <row r="589" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="36" t="s">
         <v>70</v>
       </c>
@@ -31147,7 +31251,7 @@
       <c r="P589" s="16"/>
       <c r="Q589" s="17"/>
     </row>
-    <row r="590" spans="1:17" ht="45.95" customHeight="1">
+    <row r="590" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="36" t="s">
         <v>70</v>
       </c>
@@ -31176,7 +31280,7 @@
       <c r="P590" s="16"/>
       <c r="Q590" s="17"/>
     </row>
-    <row r="591" spans="1:17" ht="45.95" customHeight="1">
+    <row r="591" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="36" t="s">
         <v>70</v>
       </c>
@@ -31205,7 +31309,7 @@
       <c r="P591" s="16"/>
       <c r="Q591" s="17"/>
     </row>
-    <row r="592" spans="1:17" ht="45.95" customHeight="1">
+    <row r="592" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="36" t="s">
         <v>70</v>
       </c>
@@ -31234,7 +31338,7 @@
       <c r="P592" s="16"/>
       <c r="Q592" s="17"/>
     </row>
-    <row r="593" spans="1:17" ht="45.95" customHeight="1">
+    <row r="593" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="36" t="s">
         <v>70</v>
       </c>
@@ -31263,7 +31367,7 @@
       <c r="P593" s="16"/>
       <c r="Q593" s="17"/>
     </row>
-    <row r="594" spans="1:17" ht="45.95" customHeight="1">
+    <row r="594" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="36" t="s">
         <v>70</v>
       </c>
@@ -31292,7 +31396,7 @@
       <c r="P594" s="16"/>
       <c r="Q594" s="17"/>
     </row>
-    <row r="595" spans="1:17" ht="45.95" customHeight="1">
+    <row r="595" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="36" t="s">
         <v>70</v>
       </c>
@@ -31321,7 +31425,7 @@
       <c r="P595" s="16"/>
       <c r="Q595" s="17"/>
     </row>
-    <row r="596" spans="1:17" ht="45.95" customHeight="1">
+    <row r="596" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="36" t="s">
         <v>70</v>
       </c>
@@ -31350,7 +31454,7 @@
       <c r="P596" s="16"/>
       <c r="Q596" s="17"/>
     </row>
-    <row r="597" spans="1:17" ht="45.95" customHeight="1">
+    <row r="597" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="36" t="s">
         <v>70</v>
       </c>
@@ -31379,7 +31483,7 @@
       <c r="P597" s="16"/>
       <c r="Q597" s="17"/>
     </row>
-    <row r="598" spans="1:17" ht="45.95" customHeight="1">
+    <row r="598" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="36" t="s">
         <v>70</v>
       </c>
@@ -31408,7 +31512,7 @@
       <c r="P598" s="16"/>
       <c r="Q598" s="17"/>
     </row>
-    <row r="599" spans="1:17" ht="45.95" customHeight="1">
+    <row r="599" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="36" t="s">
         <v>70</v>
       </c>
@@ -31437,7 +31541,7 @@
       <c r="P599" s="16"/>
       <c r="Q599" s="17"/>
     </row>
-    <row r="600" spans="1:17" ht="45.95" customHeight="1">
+    <row r="600" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="36" t="s">
         <v>70</v>
       </c>
@@ -31466,7 +31570,7 @@
       <c r="P600" s="16"/>
       <c r="Q600" s="17"/>
     </row>
-    <row r="601" spans="1:17" ht="45.95" customHeight="1">
+    <row r="601" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="36" t="s">
         <v>70</v>
       </c>
@@ -31495,7 +31599,7 @@
       <c r="P601" s="16"/>
       <c r="Q601" s="17"/>
     </row>
-    <row r="602" spans="1:17" ht="45.95" customHeight="1">
+    <row r="602" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="36" t="s">
         <v>70</v>
       </c>
@@ -31524,7 +31628,7 @@
       <c r="P602" s="16"/>
       <c r="Q602" s="17"/>
     </row>
-    <row r="603" spans="1:17" ht="45.95" customHeight="1">
+    <row r="603" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="36" t="s">
         <v>70</v>
       </c>
@@ -31553,7 +31657,7 @@
       <c r="P603" s="16"/>
       <c r="Q603" s="17"/>
     </row>
-    <row r="604" spans="1:17" ht="45.95" customHeight="1">
+    <row r="604" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="36" t="s">
         <v>70</v>
       </c>
@@ -31582,7 +31686,7 @@
       <c r="P604" s="16"/>
       <c r="Q604" s="17"/>
     </row>
-    <row r="605" spans="1:17" ht="45.95" customHeight="1">
+    <row r="605" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="36" t="s">
         <v>70</v>
       </c>
@@ -31611,7 +31715,7 @@
       <c r="P605" s="16"/>
       <c r="Q605" s="17"/>
     </row>
-    <row r="606" spans="1:17" ht="45.95" customHeight="1">
+    <row r="606" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="36" t="s">
         <v>70</v>
       </c>
@@ -31640,7 +31744,7 @@
       <c r="P606" s="16"/>
       <c r="Q606" s="17"/>
     </row>
-    <row r="607" spans="1:17" ht="45.95" customHeight="1">
+    <row r="607" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="36" t="s">
         <v>70</v>
       </c>
@@ -31669,7 +31773,7 @@
       <c r="P607" s="16"/>
       <c r="Q607" s="17"/>
     </row>
-    <row r="608" spans="1:17" ht="45.95" customHeight="1">
+    <row r="608" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="36" t="s">
         <v>70</v>
       </c>
@@ -31698,7 +31802,7 @@
       <c r="P608" s="16"/>
       <c r="Q608" s="17"/>
     </row>
-    <row r="609" spans="1:17" ht="45.95" customHeight="1">
+    <row r="609" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="36" t="s">
         <v>70</v>
       </c>
@@ -31727,7 +31831,7 @@
       <c r="P609" s="16"/>
       <c r="Q609" s="17"/>
     </row>
-    <row r="610" spans="1:17" ht="45.95" customHeight="1">
+    <row r="610" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="36" t="s">
         <v>70</v>
       </c>
@@ -31756,7 +31860,7 @@
       <c r="P610" s="16"/>
       <c r="Q610" s="17"/>
     </row>
-    <row r="611" spans="1:17" ht="45.95" customHeight="1">
+    <row r="611" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="36" t="s">
         <v>70</v>
       </c>
@@ -31785,7 +31889,7 @@
       <c r="P611" s="16"/>
       <c r="Q611" s="17"/>
     </row>
-    <row r="612" spans="1:17" ht="45.95" customHeight="1">
+    <row r="612" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="36" t="s">
         <v>70</v>
       </c>
@@ -31814,7 +31918,7 @@
       <c r="P612" s="16"/>
       <c r="Q612" s="17"/>
     </row>
-    <row r="613" spans="1:17" ht="45.95" customHeight="1">
+    <row r="613" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="36" t="s">
         <v>70</v>
       </c>
@@ -31843,7 +31947,7 @@
       <c r="P613" s="16"/>
       <c r="Q613" s="17"/>
     </row>
-    <row r="614" spans="1:17" ht="45.95" customHeight="1">
+    <row r="614" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="36" t="s">
         <v>70</v>
       </c>
@@ -31872,7 +31976,7 @@
       <c r="P614" s="16"/>
       <c r="Q614" s="17"/>
     </row>
-    <row r="615" spans="1:17" ht="45.95" customHeight="1">
+    <row r="615" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="36" t="s">
         <v>70</v>
       </c>
@@ -31901,7 +32005,7 @@
       <c r="P615" s="16"/>
       <c r="Q615" s="17"/>
     </row>
-    <row r="616" spans="1:17" ht="45.95" customHeight="1">
+    <row r="616" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="36" t="s">
         <v>70</v>
       </c>
@@ -31930,7 +32034,7 @@
       <c r="P616" s="16"/>
       <c r="Q616" s="17"/>
     </row>
-    <row r="617" spans="1:17" ht="45.95" customHeight="1">
+    <row r="617" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="36" t="s">
         <v>70</v>
       </c>
@@ -31959,7 +32063,7 @@
       <c r="P617" s="16"/>
       <c r="Q617" s="17"/>
     </row>
-    <row r="618" spans="1:17" ht="45.95" customHeight="1">
+    <row r="618" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="36" t="s">
         <v>70</v>
       </c>
@@ -31988,7 +32092,7 @@
       <c r="P618" s="16"/>
       <c r="Q618" s="17"/>
     </row>
-    <row r="619" spans="1:17" ht="45.95" customHeight="1">
+    <row r="619" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="36" t="s">
         <v>70</v>
       </c>
@@ -32017,7 +32121,7 @@
       <c r="P619" s="16"/>
       <c r="Q619" s="17"/>
     </row>
-    <row r="620" spans="1:17" ht="45.95" customHeight="1">
+    <row r="620" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="36" t="s">
         <v>70</v>
       </c>
@@ -32046,7 +32150,7 @@
       <c r="P620" s="16"/>
       <c r="Q620" s="17"/>
     </row>
-    <row r="621" spans="1:17" ht="45.95" customHeight="1">
+    <row r="621" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="36" t="s">
         <v>70</v>
       </c>
@@ -32075,7 +32179,7 @@
       <c r="P621" s="16"/>
       <c r="Q621" s="17"/>
     </row>
-    <row r="622" spans="1:17" ht="45.95" customHeight="1">
+    <row r="622" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="36" t="s">
         <v>70</v>
       </c>
@@ -32104,7 +32208,7 @@
       <c r="P622" s="16"/>
       <c r="Q622" s="17"/>
     </row>
-    <row r="623" spans="1:17" ht="45.95" customHeight="1">
+    <row r="623" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="36" t="s">
         <v>70</v>
       </c>
@@ -32133,7 +32237,7 @@
       <c r="P623" s="16"/>
       <c r="Q623" s="17"/>
     </row>
-    <row r="624" spans="1:17" ht="45.95" customHeight="1">
+    <row r="624" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="36" t="s">
         <v>70</v>
       </c>
@@ -32162,7 +32266,7 @@
       <c r="P624" s="16"/>
       <c r="Q624" s="17"/>
     </row>
-    <row r="625" spans="1:17" ht="45.95" customHeight="1">
+    <row r="625" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="36" t="s">
         <v>70</v>
       </c>
@@ -32191,7 +32295,7 @@
       <c r="P625" s="16"/>
       <c r="Q625" s="17"/>
     </row>
-    <row r="626" spans="1:17" ht="45.95" customHeight="1">
+    <row r="626" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="36" t="s">
         <v>70</v>
       </c>
@@ -32220,7 +32324,7 @@
       <c r="P626" s="16"/>
       <c r="Q626" s="17"/>
     </row>
-    <row r="627" spans="1:17" ht="45.95" customHeight="1">
+    <row r="627" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="36" t="s">
         <v>70</v>
       </c>
@@ -32249,7 +32353,7 @@
       <c r="P627" s="16"/>
       <c r="Q627" s="17"/>
     </row>
-    <row r="628" spans="1:17" ht="45.95" customHeight="1">
+    <row r="628" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="36" t="s">
         <v>70</v>
       </c>
@@ -32278,7 +32382,7 @@
       <c r="P628" s="16"/>
       <c r="Q628" s="17"/>
     </row>
-    <row r="629" spans="1:17" ht="45.95" customHeight="1">
+    <row r="629" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="36" t="s">
         <v>70</v>
       </c>
@@ -32307,7 +32411,7 @@
       <c r="P629" s="16"/>
       <c r="Q629" s="17"/>
     </row>
-    <row r="630" spans="1:17" ht="45.95" customHeight="1">
+    <row r="630" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="36" t="s">
         <v>70</v>
       </c>
@@ -32336,7 +32440,7 @@
       <c r="P630" s="16"/>
       <c r="Q630" s="17"/>
     </row>
-    <row r="631" spans="1:17" ht="45.95" customHeight="1">
+    <row r="631" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="36" t="s">
         <v>70</v>
       </c>
@@ -32365,7 +32469,7 @@
       <c r="P631" s="16"/>
       <c r="Q631" s="17"/>
     </row>
-    <row r="632" spans="1:17" ht="45.95" customHeight="1">
+    <row r="632" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="36" t="s">
         <v>70</v>
       </c>
@@ -32394,7 +32498,7 @@
       <c r="P632" s="16"/>
       <c r="Q632" s="17"/>
     </row>
-    <row r="633" spans="1:17" ht="45.95" customHeight="1">
+    <row r="633" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="36" t="s">
         <v>70</v>
       </c>
@@ -32423,7 +32527,7 @@
       <c r="P633" s="16"/>
       <c r="Q633" s="17"/>
     </row>
-    <row r="634" spans="1:17" ht="45.95" customHeight="1">
+    <row r="634" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="36" t="s">
         <v>70</v>
       </c>
@@ -32452,7 +32556,7 @@
       <c r="P634" s="16"/>
       <c r="Q634" s="17"/>
     </row>
-    <row r="635" spans="1:17" ht="45.95" customHeight="1">
+    <row r="635" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="36" t="s">
         <v>70</v>
       </c>
@@ -32481,7 +32585,7 @@
       <c r="P635" s="16"/>
       <c r="Q635" s="17"/>
     </row>
-    <row r="636" spans="1:17" ht="45.95" customHeight="1">
+    <row r="636" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="36" t="s">
         <v>70</v>
       </c>
@@ -32510,7 +32614,7 @@
       <c r="P636" s="16"/>
       <c r="Q636" s="17"/>
     </row>
-    <row r="637" spans="1:17" ht="45.95" customHeight="1">
+    <row r="637" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="36" t="s">
         <v>70</v>
       </c>
@@ -32539,7 +32643,7 @@
       <c r="P637" s="16"/>
       <c r="Q637" s="17"/>
     </row>
-    <row r="638" spans="1:17" ht="45.95" customHeight="1">
+    <row r="638" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="36" t="s">
         <v>70</v>
       </c>
@@ -32568,7 +32672,7 @@
       <c r="P638" s="16"/>
       <c r="Q638" s="17"/>
     </row>
-    <row r="639" spans="1:17" ht="45.95" customHeight="1">
+    <row r="639" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="36" t="s">
         <v>70</v>
       </c>
@@ -32597,7 +32701,7 @@
       <c r="P639" s="16"/>
       <c r="Q639" s="17"/>
     </row>
-    <row r="640" spans="1:17" ht="45.95" customHeight="1">
+    <row r="640" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="36" t="s">
         <v>70</v>
       </c>
@@ -32626,7 +32730,7 @@
       <c r="P640" s="16"/>
       <c r="Q640" s="17"/>
     </row>
-    <row r="641" spans="1:17" ht="45.95" customHeight="1">
+    <row r="641" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="36" t="s">
         <v>70</v>
       </c>
@@ -32655,7 +32759,7 @@
       <c r="P641" s="16"/>
       <c r="Q641" s="17"/>
     </row>
-    <row r="642" spans="1:17" ht="45.95" customHeight="1">
+    <row r="642" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="36" t="s">
         <v>70</v>
       </c>
@@ -32684,7 +32788,7 @@
       <c r="P642" s="16"/>
       <c r="Q642" s="17"/>
     </row>
-    <row r="643" spans="1:17" ht="45.95" customHeight="1">
+    <row r="643" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="36" t="s">
         <v>70</v>
       </c>
@@ -32713,7 +32817,7 @@
       <c r="P643" s="16"/>
       <c r="Q643" s="17"/>
     </row>
-    <row r="644" spans="1:17" ht="45.95" customHeight="1">
+    <row r="644" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="36" t="s">
         <v>70</v>
       </c>
@@ -32742,7 +32846,7 @@
       <c r="P644" s="16"/>
       <c r="Q644" s="17"/>
     </row>
-    <row r="645" spans="1:17" ht="45.95" customHeight="1">
+    <row r="645" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="36" t="s">
         <v>70</v>
       </c>
@@ -32771,7 +32875,7 @@
       <c r="P645" s="16"/>
       <c r="Q645" s="17"/>
     </row>
-    <row r="646" spans="1:17" ht="45.95" customHeight="1">
+    <row r="646" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="36" t="s">
         <v>70</v>
       </c>
@@ -32800,7 +32904,7 @@
       <c r="P646" s="16"/>
       <c r="Q646" s="17"/>
     </row>
-    <row r="647" spans="1:17" ht="45.95" customHeight="1">
+    <row r="647" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="36" t="s">
         <v>70</v>
       </c>
@@ -32829,7 +32933,7 @@
       <c r="P647" s="16"/>
       <c r="Q647" s="17"/>
     </row>
-    <row r="648" spans="1:17" ht="45.95" customHeight="1">
+    <row r="648" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="36" t="s">
         <v>70</v>
       </c>
@@ -32858,7 +32962,7 @@
       <c r="P648" s="16"/>
       <c r="Q648" s="17"/>
     </row>
-    <row r="649" spans="1:17" ht="45.95" customHeight="1">
+    <row r="649" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="36" t="s">
         <v>70</v>
       </c>
@@ -32887,7 +32991,7 @@
       <c r="P649" s="16"/>
       <c r="Q649" s="17"/>
     </row>
-    <row r="650" spans="1:17" ht="45.95" customHeight="1">
+    <row r="650" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="36" t="s">
         <v>70</v>
       </c>
@@ -32916,7 +33020,7 @@
       <c r="P650" s="16"/>
       <c r="Q650" s="17"/>
     </row>
-    <row r="651" spans="1:17" ht="45.95" customHeight="1">
+    <row r="651" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="36" t="s">
         <v>70</v>
       </c>
@@ -32945,7 +33049,7 @@
       <c r="P651" s="16"/>
       <c r="Q651" s="17"/>
     </row>
-    <row r="652" spans="1:17" ht="45.95" customHeight="1">
+    <row r="652" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="36" t="s">
         <v>70</v>
       </c>
@@ -32974,7 +33078,7 @@
       <c r="P652" s="16"/>
       <c r="Q652" s="17"/>
     </row>
-    <row r="653" spans="1:17" ht="45.95" customHeight="1">
+    <row r="653" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="36" t="s">
         <v>70</v>
       </c>
@@ -33003,7 +33107,7 @@
       <c r="P653" s="16"/>
       <c r="Q653" s="17"/>
     </row>
-    <row r="654" spans="1:17" ht="45.95" customHeight="1">
+    <row r="654" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="36" t="s">
         <v>70</v>
       </c>
@@ -33032,7 +33136,7 @@
       <c r="P654" s="16"/>
       <c r="Q654" s="17"/>
     </row>
-    <row r="655" spans="1:17" ht="45.95" customHeight="1">
+    <row r="655" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="36" t="s">
         <v>70</v>
       </c>
@@ -33061,7 +33165,7 @@
       <c r="P655" s="16"/>
       <c r="Q655" s="17"/>
     </row>
-    <row r="656" spans="1:17" ht="45.95" customHeight="1">
+    <row r="656" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="36" t="s">
         <v>70</v>
       </c>
@@ -33090,7 +33194,7 @@
       <c r="P656" s="16"/>
       <c r="Q656" s="17"/>
     </row>
-    <row r="657" spans="1:17" ht="45.95" customHeight="1">
+    <row r="657" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="36" t="s">
         <v>70</v>
       </c>
@@ -33119,7 +33223,7 @@
       <c r="P657" s="16"/>
       <c r="Q657" s="17"/>
     </row>
-    <row r="658" spans="1:17" ht="45.95" customHeight="1">
+    <row r="658" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="36" t="s">
         <v>70</v>
       </c>
@@ -33148,7 +33252,7 @@
       <c r="P658" s="16"/>
       <c r="Q658" s="17"/>
     </row>
-    <row r="659" spans="1:17" ht="45.95" customHeight="1">
+    <row r="659" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="36" t="s">
         <v>70</v>
       </c>
@@ -33177,7 +33281,7 @@
       <c r="P659" s="16"/>
       <c r="Q659" s="17"/>
     </row>
-    <row r="660" spans="1:17" ht="45.95" customHeight="1">
+    <row r="660" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="36" t="s">
         <v>70</v>
       </c>
@@ -33206,7 +33310,7 @@
       <c r="P660" s="16"/>
       <c r="Q660" s="17"/>
     </row>
-    <row r="661" spans="1:17" ht="45.95" customHeight="1">
+    <row r="661" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="36" t="s">
         <v>70</v>
       </c>
@@ -33235,7 +33339,7 @@
       <c r="P661" s="16"/>
       <c r="Q661" s="17"/>
     </row>
-    <row r="662" spans="1:17" ht="45.95" customHeight="1">
+    <row r="662" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="36" t="s">
         <v>2546</v>
       </c>
@@ -33268,7 +33372,7 @@
       <c r="P662" s="16"/>
       <c r="Q662" s="17"/>
     </row>
-    <row r="663" spans="1:17" ht="45.95" customHeight="1">
+    <row r="663" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33293,7 +33397,7 @@
       <c r="P663" s="16"/>
       <c r="Q663" s="17"/>
     </row>
-    <row r="664" spans="1:17" ht="45.95" customHeight="1">
+    <row r="664" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33318,7 +33422,7 @@
       <c r="P664" s="16"/>
       <c r="Q664" s="17"/>
     </row>
-    <row r="665" spans="1:17" ht="45.95" customHeight="1">
+    <row r="665" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33343,7 +33447,7 @@
       <c r="P665" s="16"/>
       <c r="Q665" s="17"/>
     </row>
-    <row r="666" spans="1:17" ht="45.95" customHeight="1">
+    <row r="666" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33368,7 +33472,7 @@
       <c r="P666" s="16"/>
       <c r="Q666" s="17"/>
     </row>
-    <row r="667" spans="1:17" ht="45.95" customHeight="1">
+    <row r="667" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33393,7 +33497,7 @@
       <c r="P667" s="16"/>
       <c r="Q667" s="17"/>
     </row>
-    <row r="668" spans="1:17" ht="45.95" customHeight="1">
+    <row r="668" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33418,7 +33522,7 @@
       <c r="P668" s="16"/>
       <c r="Q668" s="17"/>
     </row>
-    <row r="669" spans="1:17" ht="45.95" customHeight="1">
+    <row r="669" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33443,7 +33547,7 @@
       <c r="P669" s="16"/>
       <c r="Q669" s="17"/>
     </row>
-    <row r="670" spans="1:17" ht="45.95" customHeight="1">
+    <row r="670" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33468,7 +33572,7 @@
       <c r="P670" s="16"/>
       <c r="Q670" s="17"/>
     </row>
-    <row r="671" spans="1:17" ht="45.95" customHeight="1">
+    <row r="671" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33493,7 +33597,7 @@
       <c r="P671" s="16"/>
       <c r="Q671" s="17"/>
     </row>
-    <row r="672" spans="1:17" ht="45.95" customHeight="1">
+    <row r="672" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33518,7 +33622,7 @@
       <c r="P672" s="16"/>
       <c r="Q672" s="17"/>
     </row>
-    <row r="673" spans="1:17" ht="45.95" customHeight="1">
+    <row r="673" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33543,7 +33647,7 @@
       <c r="P673" s="16"/>
       <c r="Q673" s="17"/>
     </row>
-    <row r="674" spans="1:17" ht="45.95" customHeight="1">
+    <row r="674" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33568,7 +33672,7 @@
       <c r="P674" s="16"/>
       <c r="Q674" s="17"/>
     </row>
-    <row r="675" spans="1:17" ht="45.95" customHeight="1">
+    <row r="675" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33593,7 +33697,7 @@
       <c r="P675" s="16"/>
       <c r="Q675" s="17"/>
     </row>
-    <row r="676" spans="1:17" ht="45.95" customHeight="1">
+    <row r="676" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33618,7 +33722,7 @@
       <c r="P676" s="16"/>
       <c r="Q676" s="17"/>
     </row>
-    <row r="677" spans="1:17" ht="45.95" customHeight="1">
+    <row r="677" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33643,7 +33747,7 @@
       <c r="P677" s="16"/>
       <c r="Q677" s="17"/>
     </row>
-    <row r="678" spans="1:17" ht="45.95" customHeight="1">
+    <row r="678" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33668,7 +33772,7 @@
       <c r="P678" s="16"/>
       <c r="Q678" s="17"/>
     </row>
-    <row r="679" spans="1:17" ht="45.95" customHeight="1">
+    <row r="679" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33693,7 +33797,7 @@
       <c r="P679" s="16"/>
       <c r="Q679" s="17"/>
     </row>
-    <row r="680" spans="1:17" ht="45.95" customHeight="1">
+    <row r="680" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33718,7 +33822,7 @@
       <c r="P680" s="16"/>
       <c r="Q680" s="17"/>
     </row>
-    <row r="681" spans="1:17" ht="45.95" customHeight="1">
+    <row r="681" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33743,7 +33847,7 @@
       <c r="P681" s="16"/>
       <c r="Q681" s="17"/>
     </row>
-    <row r="682" spans="1:17" ht="45.95" customHeight="1">
+    <row r="682" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="36" t="s">
         <v>2591</v>
       </c>
@@ -33768,7 +33872,7 @@
       <c r="P682" s="16"/>
       <c r="Q682" s="17"/>
     </row>
-    <row r="683" spans="1:17" ht="45.95" customHeight="1">
+    <row r="683" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="36" t="s">
         <v>2596</v>
       </c>
@@ -33805,7 +33909,7 @@
       <c r="P683" s="16"/>
       <c r="Q683" s="17"/>
     </row>
-    <row r="684" spans="1:17" ht="45.95" customHeight="1">
+    <row r="684" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="36" t="s">
         <v>2596</v>
       </c>
@@ -33844,7 +33948,7 @@
       <c r="P684" s="16"/>
       <c r="Q684" s="17"/>
     </row>
-    <row r="685" spans="1:17" ht="45.95" customHeight="1">
+    <row r="685" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="36" t="s">
         <v>2596</v>
       </c>
@@ -33885,7 +33989,7 @@
       <c r="P685" s="16"/>
       <c r="Q685" s="17"/>
     </row>
-    <row r="686" spans="1:17" ht="45.95" customHeight="1">
+    <row r="686" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="36" t="s">
         <v>2596</v>
       </c>
@@ -33914,7 +34018,7 @@
       <c r="P686" s="16"/>
       <c r="Q686" s="17"/>
     </row>
-    <row r="687" spans="1:17" ht="45.95" customHeight="1">
+    <row r="687" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="36" t="s">
         <v>2596</v>
       </c>
@@ -33947,7 +34051,7 @@
       <c r="P687" s="16"/>
       <c r="Q687" s="17"/>
     </row>
-    <row r="688" spans="1:17" ht="45.95" customHeight="1">
+    <row r="688" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="36" t="s">
         <v>2633</v>
       </c>
@@ -33978,7 +34082,7 @@
       <c r="P688" s="16"/>
       <c r="Q688" s="17"/>
     </row>
-    <row r="689" spans="1:17" ht="45.95" customHeight="1">
+    <row r="689" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34005,7 +34109,7 @@
       <c r="P689" s="16"/>
       <c r="Q689" s="17"/>
     </row>
-    <row r="690" spans="1:17" ht="45.95" customHeight="1">
+    <row r="690" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34042,7 +34146,7 @@
       <c r="P690" s="16"/>
       <c r="Q690" s="17"/>
     </row>
-    <row r="691" spans="1:17" ht="45.95" customHeight="1">
+    <row r="691" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34073,7 +34177,7 @@
       <c r="P691" s="16"/>
       <c r="Q691" s="17"/>
     </row>
-    <row r="692" spans="1:17" ht="45.95" customHeight="1">
+    <row r="692" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34102,7 +34206,7 @@
       <c r="P692" s="16"/>
       <c r="Q692" s="17"/>
     </row>
-    <row r="693" spans="1:17" ht="45.95" customHeight="1">
+    <row r="693" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34133,7 +34237,7 @@
       <c r="P693" s="16"/>
       <c r="Q693" s="17"/>
     </row>
-    <row r="694" spans="1:17" ht="45.95" customHeight="1">
+    <row r="694" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34162,7 +34266,7 @@
       <c r="P694" s="16"/>
       <c r="Q694" s="17"/>
     </row>
-    <row r="695" spans="1:17" ht="45.95" customHeight="1">
+    <row r="695" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34193,7 +34297,7 @@
       <c r="P695" s="16"/>
       <c r="Q695" s="17"/>
     </row>
-    <row r="696" spans="1:17" ht="45.95" customHeight="1">
+    <row r="696" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34228,7 +34332,7 @@
       <c r="P696" s="16"/>
       <c r="Q696" s="17"/>
     </row>
-    <row r="697" spans="1:17" ht="45.95" customHeight="1">
+    <row r="697" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34261,7 +34365,7 @@
       <c r="P697" s="16"/>
       <c r="Q697" s="17"/>
     </row>
-    <row r="698" spans="1:17" ht="45.95" customHeight="1">
+    <row r="698" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34290,7 +34394,7 @@
       <c r="P698" s="16"/>
       <c r="Q698" s="17"/>
     </row>
-    <row r="699" spans="1:17" ht="45.95" customHeight="1">
+    <row r="699" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34321,7 +34425,7 @@
       <c r="P699" s="16"/>
       <c r="Q699" s="17"/>
     </row>
-    <row r="700" spans="1:17" ht="45.95" customHeight="1">
+    <row r="700" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="36" t="s">
         <v>2633</v>
       </c>
@@ -34352,7 +34456,7 @@
       <c r="P700" s="16"/>
       <c r="Q700" s="17"/>
     </row>
-    <row r="701" spans="1:17" ht="45.95" customHeight="1">
+    <row r="701" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="20"/>
       <c r="B701" s="42" t="s">
         <v>2697</v>
@@ -34381,7 +34485,7 @@
       <c r="P701" s="16"/>
       <c r="Q701" s="17"/>
     </row>
-    <row r="702" spans="1:17" ht="45.95" customHeight="1">
+    <row r="702" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="20"/>
       <c r="B702" s="42" t="s">
         <v>2701</v>
@@ -34408,7 +34512,7 @@
       <c r="P702" s="16"/>
       <c r="Q702" s="17"/>
     </row>
-    <row r="703" spans="1:17" ht="45.95" customHeight="1">
+    <row r="703" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="20"/>
       <c r="B703" s="42" t="s">
         <v>2705</v>
@@ -34435,7 +34539,7 @@
       <c r="P703" s="16"/>
       <c r="Q703" s="17"/>
     </row>
-    <row r="704" spans="1:17" ht="45.95" customHeight="1">
+    <row r="704" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="20"/>
       <c r="B704" s="42" t="s">
         <v>2701</v>
@@ -34462,7 +34566,7 @@
       <c r="P704" s="16"/>
       <c r="Q704" s="17"/>
     </row>
-    <row r="705" spans="1:19" ht="45.95" customHeight="1">
+    <row r="705" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="20"/>
       <c r="B705" s="42" t="s">
         <v>2714</v>
@@ -34493,7 +34597,7 @@
       <c r="P705" s="16"/>
       <c r="Q705" s="17"/>
     </row>
-    <row r="706" spans="1:19" ht="45.95" customHeight="1">
+    <row r="706" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="20"/>
       <c r="B706" s="42" t="s">
         <v>2719</v>
@@ -34522,7 +34626,7 @@
       <c r="P706" s="16"/>
       <c r="Q706" s="17"/>
     </row>
-    <row r="707" spans="1:19" ht="45.95" customHeight="1">
+    <row r="707" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="20"/>
       <c r="B707" s="42" t="s">
         <v>2724</v>
@@ -34555,7 +34659,7 @@
       <c r="P707" s="16"/>
       <c r="Q707" s="17"/>
     </row>
-    <row r="708" spans="1:19" ht="45.95" customHeight="1">
+    <row r="708" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="20"/>
       <c r="B708" s="42" t="s">
         <v>2730</v>
@@ -34582,7 +34686,7 @@
       <c r="P708" s="16"/>
       <c r="Q708" s="17"/>
     </row>
-    <row r="709" spans="1:19" ht="45.95" customHeight="1">
+    <row r="709" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="20"/>
       <c r="B709" s="42" t="s">
         <v>2733</v>
@@ -34611,7 +34715,7 @@
       <c r="P709" s="16"/>
       <c r="Q709" s="17"/>
     </row>
-    <row r="710" spans="1:19" ht="45.95" customHeight="1">
+    <row r="710" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="20"/>
       <c r="B710" s="42" t="s">
         <v>2737</v>
@@ -34640,7 +34744,7 @@
       <c r="P710" s="16"/>
       <c r="Q710" s="17"/>
     </row>
-    <row r="711" spans="1:19" ht="45.95" customHeight="1">
+    <row r="711" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="20"/>
       <c r="B711" s="42" t="s">
         <v>2741</v>
@@ -34669,7 +34773,7 @@
       <c r="P711" s="16"/>
       <c r="Q711" s="17"/>
     </row>
-    <row r="712" spans="1:19" ht="45.95" customHeight="1">
+    <row r="712" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="20"/>
       <c r="B712" s="42" t="s">
         <v>2745</v>
@@ -34698,7 +34802,7 @@
       <c r="P712" s="16"/>
       <c r="Q712" s="17"/>
     </row>
-    <row r="713" spans="1:19" ht="45.95" customHeight="1">
+    <row r="713" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="20"/>
       <c r="B713" s="42" t="s">
         <v>2749</v>
@@ -34735,7 +34839,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="714" spans="1:19" ht="45.95" customHeight="1">
+    <row r="714" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="20"/>
       <c r="B714" s="42" t="s">
         <v>2757</v>
@@ -34764,7 +34868,7 @@
       <c r="P714" s="16"/>
       <c r="Q714" s="17"/>
     </row>
-    <row r="715" spans="1:19" ht="45.95" customHeight="1">
+    <row r="715" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="20"/>
       <c r="B715" s="42" t="s">
         <v>2762</v>
@@ -34785,7 +34889,7 @@
       <c r="P715" s="16"/>
       <c r="Q715" s="17"/>
     </row>
-    <row r="716" spans="1:19" ht="45.95" customHeight="1">
+    <row r="716" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="20"/>
       <c r="B716" s="42" t="s">
         <v>2763</v>
@@ -34820,7 +34924,7 @@
       <c r="P716" s="16"/>
       <c r="Q716" s="17"/>
     </row>
-    <row r="717" spans="1:19" ht="45.95" customHeight="1">
+    <row r="717" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="20"/>
       <c r="B717" s="42" t="s">
         <v>2771</v>
@@ -34849,7 +34953,7 @@
       <c r="P717" s="16"/>
       <c r="Q717" s="17"/>
     </row>
-    <row r="718" spans="1:19" ht="45.95" customHeight="1">
+    <row r="718" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="20"/>
       <c r="B718" s="42" t="s">
         <v>2776</v>
@@ -34878,7 +34982,7 @@
       <c r="P718" s="16"/>
       <c r="Q718" s="17"/>
     </row>
-    <row r="719" spans="1:19" ht="45.95" customHeight="1">
+    <row r="719" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="20"/>
       <c r="B719" s="42" t="s">
         <v>2781</v>
@@ -34909,7 +35013,7 @@
       <c r="P719" s="16"/>
       <c r="Q719" s="17"/>
     </row>
-    <row r="720" spans="1:19" ht="45.95" customHeight="1">
+    <row r="720" spans="1:19" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="20"/>
       <c r="B720" s="42" t="s">
         <v>2786</v>
@@ -34938,7 +35042,7 @@
       <c r="P720" s="16"/>
       <c r="Q720" s="17"/>
     </row>
-    <row r="721" spans="1:18" ht="45.95" customHeight="1">
+    <row r="721" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="20"/>
       <c r="B721" s="42" t="s">
         <v>2791</v>
@@ -34971,7 +35075,7 @@
       <c r="P721" s="16"/>
       <c r="Q721" s="17"/>
     </row>
-    <row r="722" spans="1:18" ht="45.95" customHeight="1">
+    <row r="722" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="20"/>
       <c r="B722" s="42" t="s">
         <v>2798</v>
@@ -34998,7 +35102,7 @@
       <c r="P722" s="16"/>
       <c r="Q722" s="17"/>
     </row>
-    <row r="723" spans="1:18" ht="45.95" customHeight="1">
+    <row r="723" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="20"/>
       <c r="B723" s="42" t="s">
         <v>2802</v>
@@ -35029,7 +35133,7 @@
       <c r="P723" s="16"/>
       <c r="Q723" s="17"/>
     </row>
-    <row r="724" spans="1:18" ht="45.95" customHeight="1">
+    <row r="724" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="20"/>
       <c r="B724" s="42" t="s">
         <v>2808</v>
@@ -35060,7 +35164,7 @@
       <c r="P724" s="16"/>
       <c r="Q724" s="17"/>
     </row>
-    <row r="725" spans="1:18" ht="45.95" customHeight="1">
+    <row r="725" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="20"/>
       <c r="B725" s="42" t="s">
         <v>2813</v>
@@ -35081,7 +35185,7 @@
       <c r="P725" s="16"/>
       <c r="Q725" s="17"/>
     </row>
-    <row r="726" spans="1:18" ht="45.95" customHeight="1">
+    <row r="726" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="20"/>
       <c r="B726" s="42" t="s">
         <v>2814</v>
@@ -35112,7 +35216,7 @@
       <c r="P726" s="16"/>
       <c r="Q726" s="17"/>
     </row>
-    <row r="727" spans="1:18" ht="45.95" customHeight="1">
+    <row r="727" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="20"/>
       <c r="B727" s="42" t="s">
         <v>2821</v>
@@ -35148,7 +35252,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="728" spans="1:18" ht="45.95" customHeight="1">
+    <row r="728" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="20"/>
       <c r="B728" s="42" t="s">
         <v>2829</v>
@@ -35178,7 +35282,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="729" spans="1:18" ht="45.95" customHeight="1">
+    <row r="729" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="20"/>
       <c r="B729" s="42" t="s">
         <v>2834</v>
@@ -35203,7 +35307,7 @@
       <c r="P729" s="16"/>
       <c r="Q729" s="17"/>
     </row>
-    <row r="730" spans="1:18" ht="45.95" customHeight="1">
+    <row r="730" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="20"/>
       <c r="B730" s="42" t="s">
         <v>2837</v>
@@ -35230,7 +35334,7 @@
       <c r="P730" s="16"/>
       <c r="Q730" s="17"/>
     </row>
-    <row r="731" spans="1:18" ht="45.95" customHeight="1">
+    <row r="731" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="20"/>
       <c r="B731" s="42" t="s">
         <v>2841</v>
@@ -35257,7 +35361,7 @@
       <c r="P731" s="16"/>
       <c r="Q731" s="17"/>
     </row>
-    <row r="732" spans="1:18" ht="45.95" customHeight="1">
+    <row r="732" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="20"/>
       <c r="B732" s="42" t="s">
         <v>2845</v>
@@ -35294,7 +35398,7 @@
       <c r="P732" s="16"/>
       <c r="Q732" s="17"/>
     </row>
-    <row r="733" spans="1:18" ht="45.95" customHeight="1">
+    <row r="733" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="20"/>
       <c r="B733" s="42" t="s">
         <v>2850</v>
@@ -35323,7 +35427,7 @@
       <c r="P733" s="16"/>
       <c r="Q733" s="17"/>
     </row>
-    <row r="734" spans="1:18" ht="45.95" customHeight="1">
+    <row r="734" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="20"/>
       <c r="B734" s="42" t="s">
         <v>2858</v>
@@ -35354,7 +35458,7 @@
       <c r="P734" s="16"/>
       <c r="Q734" s="17"/>
     </row>
-    <row r="735" spans="1:18" ht="45.95" customHeight="1">
+    <row r="735" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="20"/>
       <c r="B735" s="42" t="s">
         <v>2863</v>
@@ -35387,7 +35491,7 @@
       <c r="P735" s="16"/>
       <c r="Q735" s="17"/>
     </row>
-    <row r="736" spans="1:18" ht="45.95" customHeight="1">
+    <row r="736" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="20"/>
       <c r="B736" s="42" t="s">
         <v>2870</v>
@@ -35420,7 +35524,7 @@
       <c r="P736" s="16"/>
       <c r="Q736" s="17"/>
     </row>
-    <row r="737" spans="1:18" ht="45.95" customHeight="1">
+    <row r="737" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="20"/>
       <c r="B737" s="42" t="s">
         <v>2877</v>
@@ -35447,7 +35551,7 @@
       <c r="P737" s="16"/>
       <c r="Q737" s="17"/>
     </row>
-    <row r="738" spans="1:18" ht="45.95" customHeight="1">
+    <row r="738" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="20"/>
       <c r="B738" s="42" t="s">
         <v>2881</v>
@@ -35476,7 +35580,7 @@
       <c r="P738" s="16"/>
       <c r="Q738" s="17"/>
     </row>
-    <row r="739" spans="1:18" ht="45.95" customHeight="1">
+    <row r="739" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="20"/>
       <c r="B739" s="42" t="s">
         <v>2886</v>
@@ -35499,7 +35603,7 @@
       <c r="P739" s="16"/>
       <c r="Q739" s="17"/>
     </row>
-    <row r="740" spans="1:18" ht="45.95" customHeight="1">
+    <row r="740" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="20"/>
       <c r="B740" s="42" t="s">
         <v>2888</v>
@@ -35528,7 +35632,7 @@
       <c r="P740" s="16"/>
       <c r="Q740" s="17"/>
     </row>
-    <row r="741" spans="1:18" ht="45.95" customHeight="1">
+    <row r="741" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="20"/>
       <c r="B741" s="42" t="s">
         <v>2893</v>
@@ -35561,7 +35665,7 @@
       <c r="P741" s="16"/>
       <c r="Q741" s="17"/>
     </row>
-    <row r="742" spans="1:18" ht="45.95" customHeight="1">
+    <row r="742" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="20"/>
       <c r="B742" s="42" t="s">
         <v>2900</v>
@@ -35588,7 +35692,7 @@
       <c r="P742" s="16"/>
       <c r="Q742" s="17"/>
     </row>
-    <row r="743" spans="1:18" ht="45.95" customHeight="1">
+    <row r="743" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="20"/>
       <c r="B743" s="42" t="s">
         <v>2904</v>
@@ -35615,7 +35719,7 @@
       <c r="P743" s="16"/>
       <c r="Q743" s="17"/>
     </row>
-    <row r="744" spans="1:18" ht="45.95" customHeight="1">
+    <row r="744" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="20"/>
       <c r="B744" s="42" t="s">
         <v>2908</v>
@@ -35644,7 +35748,7 @@
       <c r="P744" s="16"/>
       <c r="Q744" s="17"/>
     </row>
-    <row r="745" spans="1:18" ht="45.95" customHeight="1">
+    <row r="745" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="20"/>
       <c r="B745" s="42" t="s">
         <v>2913</v>
@@ -35673,7 +35777,7 @@
       <c r="P745" s="16"/>
       <c r="Q745" s="17"/>
     </row>
-    <row r="746" spans="1:18" ht="45.95" customHeight="1">
+    <row r="746" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="20"/>
       <c r="B746" s="42" t="s">
         <v>2918</v>
@@ -35702,7 +35806,7 @@
       <c r="P746" s="16"/>
       <c r="Q746" s="17"/>
     </row>
-    <row r="747" spans="1:18" ht="45.95" customHeight="1">
+    <row r="747" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="20"/>
       <c r="B747" s="42" t="s">
         <v>2921</v>
@@ -35727,7 +35831,7 @@
       <c r="P747" s="16"/>
       <c r="Q747" s="17"/>
     </row>
-    <row r="748" spans="1:18" ht="45.95" customHeight="1">
+    <row r="748" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="20"/>
       <c r="B748" s="42" t="s">
         <v>2925</v>
@@ -35765,7 +35869,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="749" spans="1:18" ht="45.95" customHeight="1">
+    <row r="749" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="20"/>
       <c r="B749" s="42" t="s">
         <v>2934</v>
@@ -35794,7 +35898,7 @@
       <c r="P749" s="16"/>
       <c r="Q749" s="17"/>
     </row>
-    <row r="750" spans="1:18" ht="45.95" customHeight="1">
+    <row r="750" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="20"/>
       <c r="B750" s="42" t="s">
         <v>2938</v>
@@ -35829,7 +35933,7 @@
       <c r="P750" s="16"/>
       <c r="Q750" s="17"/>
     </row>
-    <row r="751" spans="1:18" ht="45.95" customHeight="1">
+    <row r="751" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="20"/>
       <c r="B751" s="42" t="s">
         <v>2946</v>
@@ -35854,7 +35958,7 @@
       <c r="P751" s="16"/>
       <c r="Q751" s="17"/>
     </row>
-    <row r="752" spans="1:18" ht="45.95" customHeight="1">
+    <row r="752" spans="1:18" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="20"/>
       <c r="B752" s="42" t="s">
         <v>2948</v>
@@ -35879,7 +35983,7 @@
       <c r="P752" s="16"/>
       <c r="Q752" s="17"/>
     </row>
-    <row r="753" spans="1:17" ht="45.95" customHeight="1">
+    <row r="753" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="20"/>
       <c r="B753" s="42" t="s">
         <v>2950</v>
@@ -35904,7 +36008,7 @@
       <c r="P753" s="16"/>
       <c r="Q753" s="17"/>
     </row>
-    <row r="754" spans="1:17" ht="45.95" customHeight="1">
+    <row r="754" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="20"/>
       <c r="B754" s="42" t="s">
         <v>2952</v>
@@ -35933,7 +36037,7 @@
       <c r="P754" s="16"/>
       <c r="Q754" s="17"/>
     </row>
-    <row r="755" spans="1:17" ht="45.95" customHeight="1">
+    <row r="755" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="20"/>
       <c r="B755" s="42" t="s">
         <v>2954</v>
@@ -35960,7 +36064,7 @@
       <c r="P755" s="16"/>
       <c r="Q755" s="17"/>
     </row>
-    <row r="756" spans="1:17" ht="45.95" customHeight="1">
+    <row r="756" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="20"/>
       <c r="B756" s="42" t="s">
         <v>2956</v>
@@ -35989,7 +36093,7 @@
       <c r="P756" s="16"/>
       <c r="Q756" s="17"/>
     </row>
-    <row r="757" spans="1:17" ht="45.95" customHeight="1">
+    <row r="757" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="20"/>
       <c r="B757" s="42" t="s">
         <v>2958</v>
@@ -36012,7 +36116,7 @@
       <c r="P757" s="16"/>
       <c r="Q757" s="17"/>
     </row>
-    <row r="758" spans="1:17" ht="45.95" customHeight="1">
+    <row r="758" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="20"/>
       <c r="B758" s="42" t="s">
         <v>2960</v>
@@ -36039,7 +36143,7 @@
       <c r="P758" s="16"/>
       <c r="Q758" s="17"/>
     </row>
-    <row r="759" spans="1:17" ht="45.95" customHeight="1">
+    <row r="759" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="20"/>
       <c r="B759" s="42" t="s">
         <v>2962</v>
@@ -36064,7 +36168,7 @@
       <c r="P759" s="16"/>
       <c r="Q759" s="17"/>
     </row>
-    <row r="760" spans="1:17" ht="45.95" customHeight="1">
+    <row r="760" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="20"/>
       <c r="B760" s="42" t="s">
         <v>2964</v>
@@ -36091,7 +36195,7 @@
       <c r="P760" s="16"/>
       <c r="Q760" s="17"/>
     </row>
-    <row r="761" spans="1:17" ht="45.95" customHeight="1">
+    <row r="761" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="20"/>
       <c r="B761" s="42" t="s">
         <v>2966</v>
@@ -36122,18 +36226,26 @@
       <c r="P761" s="16"/>
       <c r="Q761" s="17"/>
     </row>
-    <row r="762" spans="1:17" ht="45.95" customHeight="1">
+    <row r="762" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="20"/>
-      <c r="B762" s="35"/>
+      <c r="B762" s="35" t="s">
+        <v>2988</v>
+      </c>
       <c r="C762" s="48"/>
       <c r="D762" s="14"/>
       <c r="E762" s="14"/>
       <c r="F762" s="14"/>
-      <c r="G762" s="34"/>
-      <c r="H762" s="15"/>
+      <c r="G762" s="34" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H762" s="37" t="s">
+        <v>2990</v>
+      </c>
       <c r="I762" s="14"/>
       <c r="J762" s="14"/>
-      <c r="K762" s="14"/>
+      <c r="K762" s="34" t="s">
+        <v>2989</v>
+      </c>
       <c r="L762" s="14"/>
       <c r="M762" s="14"/>
       <c r="N762" s="14"/>
@@ -36141,18 +36253,26 @@
       <c r="P762" s="16"/>
       <c r="Q762" s="17"/>
     </row>
-    <row r="763" spans="1:17" ht="45.95" customHeight="1">
+    <row r="763" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="20"/>
-      <c r="B763" s="35"/>
-      <c r="C763" s="48"/>
+      <c r="B763" s="35" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C763" s="48" t="s">
+        <v>2994</v>
+      </c>
       <c r="D763" s="14"/>
       <c r="E763" s="14"/>
       <c r="F763" s="14"/>
       <c r="G763" s="34"/>
-      <c r="H763" s="15"/>
+      <c r="H763" s="37" t="s">
+        <v>2995</v>
+      </c>
       <c r="I763" s="14"/>
       <c r="J763" s="14"/>
-      <c r="K763" s="14"/>
+      <c r="K763" s="34" t="s">
+        <v>2993</v>
+      </c>
       <c r="L763" s="14"/>
       <c r="M763" s="14"/>
       <c r="N763" s="14"/>
@@ -36160,18 +36280,26 @@
       <c r="P763" s="16"/>
       <c r="Q763" s="17"/>
     </row>
-    <row r="764" spans="1:17" ht="45.95" customHeight="1">
+    <row r="764" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="20"/>
-      <c r="B764" s="35"/>
+      <c r="B764" s="35" t="s">
+        <v>2996</v>
+      </c>
       <c r="C764" s="48"/>
       <c r="D764" s="14"/>
       <c r="E764" s="14"/>
       <c r="F764" s="14"/>
       <c r="G764" s="34"/>
-      <c r="H764" s="15"/>
+      <c r="H764" s="37" t="s">
+        <v>2998</v>
+      </c>
       <c r="I764" s="14"/>
-      <c r="J764" s="14"/>
-      <c r="K764" s="14"/>
+      <c r="J764" s="34" t="s">
+        <v>2999</v>
+      </c>
+      <c r="K764" s="34" t="s">
+        <v>2997</v>
+      </c>
       <c r="L764" s="14"/>
       <c r="M764" s="14"/>
       <c r="N764" s="14"/>
@@ -36179,18 +36307,24 @@
       <c r="P764" s="16"/>
       <c r="Q764" s="17"/>
     </row>
-    <row r="765" spans="1:17" ht="45.95" customHeight="1">
+    <row r="765" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="20"/>
-      <c r="B765" s="35"/>
+      <c r="B765" s="35" t="s">
+        <v>3000</v>
+      </c>
       <c r="C765" s="48"/>
       <c r="D765" s="14"/>
       <c r="E765" s="14"/>
       <c r="F765" s="14"/>
       <c r="G765" s="34"/>
-      <c r="H765" s="15"/>
+      <c r="H765" s="37" t="s">
+        <v>3002</v>
+      </c>
       <c r="I765" s="14"/>
       <c r="J765" s="14"/>
-      <c r="K765" s="14"/>
+      <c r="K765" s="34" t="s">
+        <v>3001</v>
+      </c>
       <c r="L765" s="14"/>
       <c r="M765" s="14"/>
       <c r="N765" s="14"/>
@@ -36198,18 +36332,26 @@
       <c r="P765" s="16"/>
       <c r="Q765" s="17"/>
     </row>
-    <row r="766" spans="1:17" ht="45.95" customHeight="1">
+    <row r="766" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="20"/>
-      <c r="B766" s="35"/>
-      <c r="C766" s="48"/>
+      <c r="B766" s="35" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C766" s="48" t="s">
+        <v>3006</v>
+      </c>
       <c r="D766" s="14"/>
       <c r="E766" s="14"/>
       <c r="F766" s="14"/>
       <c r="G766" s="34"/>
-      <c r="H766" s="15"/>
+      <c r="H766" s="37" t="s">
+        <v>3005</v>
+      </c>
       <c r="I766" s="14"/>
       <c r="J766" s="14"/>
-      <c r="K766" s="14"/>
+      <c r="K766" s="34" t="s">
+        <v>3004</v>
+      </c>
       <c r="L766" s="14"/>
       <c r="M766" s="14"/>
       <c r="N766" s="14"/>
@@ -36217,18 +36359,26 @@
       <c r="P766" s="16"/>
       <c r="Q766" s="17"/>
     </row>
-    <row r="767" spans="1:17" ht="45.95" customHeight="1">
+    <row r="767" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="20"/>
-      <c r="B767" s="35"/>
+      <c r="B767" s="35" t="s">
+        <v>3007</v>
+      </c>
       <c r="C767" s="48"/>
       <c r="D767" s="14"/>
       <c r="E767" s="14"/>
       <c r="F767" s="14"/>
-      <c r="G767" s="34"/>
-      <c r="H767" s="15"/>
+      <c r="G767" s="34" t="s">
+        <v>3009</v>
+      </c>
+      <c r="H767" s="37" t="s">
+        <v>3008</v>
+      </c>
       <c r="I767" s="14"/>
       <c r="J767" s="14"/>
-      <c r="K767" s="14"/>
+      <c r="K767" s="34" t="s">
+        <v>3010</v>
+      </c>
       <c r="L767" s="14"/>
       <c r="M767" s="14"/>
       <c r="N767" s="14"/>
@@ -36236,7 +36386,7 @@
       <c r="P767" s="16"/>
       <c r="Q767" s="17"/>
     </row>
-    <row r="768" spans="1:17" ht="45.95" customHeight="1">
+    <row r="768" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="20"/>
       <c r="B768" s="35"/>
       <c r="C768" s="48"/>
@@ -36255,7 +36405,7 @@
       <c r="P768" s="16"/>
       <c r="Q768" s="17"/>
     </row>
-    <row r="769" spans="1:17" ht="45.95" customHeight="1">
+    <row r="769" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="20"/>
       <c r="B769" s="35"/>
       <c r="C769" s="48"/>
@@ -36274,7 +36424,7 @@
       <c r="P769" s="16"/>
       <c r="Q769" s="17"/>
     </row>
-    <row r="770" spans="1:17" ht="45.95" customHeight="1">
+    <row r="770" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="20"/>
       <c r="B770" s="35"/>
       <c r="C770" s="48"/>
@@ -36293,7 +36443,7 @@
       <c r="P770" s="16"/>
       <c r="Q770" s="17"/>
     </row>
-    <row r="771" spans="1:17" ht="45.95" customHeight="1">
+    <row r="771" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="20"/>
       <c r="B771" s="35"/>
       <c r="C771" s="48"/>
@@ -36312,7 +36462,7 @@
       <c r="P771" s="16"/>
       <c r="Q771" s="17"/>
     </row>
-    <row r="772" spans="1:17" ht="45.95" customHeight="1">
+    <row r="772" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="20"/>
       <c r="B772" s="35"/>
       <c r="C772" s="48"/>
@@ -36331,7 +36481,7 @@
       <c r="P772" s="16"/>
       <c r="Q772" s="17"/>
     </row>
-    <row r="773" spans="1:17" ht="45.95" customHeight="1">
+    <row r="773" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="20"/>
       <c r="B773" s="35"/>
       <c r="C773" s="48"/>
@@ -36350,7 +36500,7 @@
       <c r="P773" s="16"/>
       <c r="Q773" s="17"/>
     </row>
-    <row r="774" spans="1:17" ht="45.95" customHeight="1">
+    <row r="774" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="20"/>
       <c r="B774" s="35"/>
       <c r="C774" s="48"/>
@@ -36369,7 +36519,7 @@
       <c r="P774" s="16"/>
       <c r="Q774" s="17"/>
     </row>
-    <row r="775" spans="1:17" ht="45.95" customHeight="1">
+    <row r="775" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="20"/>
       <c r="B775" s="35"/>
       <c r="C775" s="48"/>
@@ -36388,7 +36538,7 @@
       <c r="P775" s="16"/>
       <c r="Q775" s="17"/>
     </row>
-    <row r="776" spans="1:17" ht="45.95" customHeight="1">
+    <row r="776" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="20"/>
       <c r="B776" s="35"/>
       <c r="C776" s="48"/>
@@ -36407,7 +36557,7 @@
       <c r="P776" s="16"/>
       <c r="Q776" s="17"/>
     </row>
-    <row r="777" spans="1:17" ht="45.95" customHeight="1">
+    <row r="777" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="20"/>
       <c r="B777" s="35"/>
       <c r="C777" s="48"/>
@@ -36426,7 +36576,7 @@
       <c r="P777" s="16"/>
       <c r="Q777" s="17"/>
     </row>
-    <row r="778" spans="1:17" ht="45.95" customHeight="1">
+    <row r="778" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="20"/>
       <c r="B778" s="35"/>
       <c r="C778" s="48"/>
@@ -36445,7 +36595,7 @@
       <c r="P778" s="16"/>
       <c r="Q778" s="17"/>
     </row>
-    <row r="779" spans="1:17" ht="45.95" customHeight="1">
+    <row r="779" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="20"/>
       <c r="B779" s="35"/>
       <c r="C779" s="48"/>
@@ -36464,7 +36614,7 @@
       <c r="P779" s="16"/>
       <c r="Q779" s="17"/>
     </row>
-    <row r="780" spans="1:17" ht="45.95" customHeight="1">
+    <row r="780" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="20"/>
       <c r="B780" s="35"/>
       <c r="C780" s="48"/>
@@ -36483,7 +36633,7 @@
       <c r="P780" s="16"/>
       <c r="Q780" s="17"/>
     </row>
-    <row r="781" spans="1:17" ht="45.95" customHeight="1">
+    <row r="781" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="20"/>
       <c r="B781" s="13"/>
       <c r="C781" s="45"/>
@@ -36502,7 +36652,7 @@
       <c r="P781" s="16"/>
       <c r="Q781" s="17"/>
     </row>
-    <row r="782" spans="1:17" ht="45.95" customHeight="1">
+    <row r="782" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="20"/>
       <c r="B782" s="35"/>
       <c r="C782" s="48"/>
@@ -36521,7 +36671,7 @@
       <c r="P782" s="16"/>
       <c r="Q782" s="17"/>
     </row>
-    <row r="783" spans="1:17" ht="45.95" customHeight="1">
+    <row r="783" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="20"/>
       <c r="B783" s="35"/>
       <c r="C783" s="48"/>
@@ -36540,7 +36690,7 @@
       <c r="P783" s="16"/>
       <c r="Q783" s="17"/>
     </row>
-    <row r="784" spans="1:17" ht="45.95" customHeight="1">
+    <row r="784" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="20"/>
       <c r="B784" s="35"/>
       <c r="C784" s="48"/>
@@ -36559,7 +36709,7 @@
       <c r="P784" s="16"/>
       <c r="Q784" s="17"/>
     </row>
-    <row r="785" spans="1:17" ht="45.95" customHeight="1">
+    <row r="785" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="20"/>
       <c r="B785" s="35"/>
       <c r="C785" s="48"/>
@@ -36578,7 +36728,7 @@
       <c r="P785" s="16"/>
       <c r="Q785" s="17"/>
     </row>
-    <row r="786" spans="1:17" ht="45.95" customHeight="1">
+    <row r="786" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="20"/>
       <c r="B786" s="35"/>
       <c r="C786" s="48"/>
@@ -36597,7 +36747,7 @@
       <c r="P786" s="16"/>
       <c r="Q786" s="17"/>
     </row>
-    <row r="787" spans="1:17" ht="45.95" customHeight="1">
+    <row r="787" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="20"/>
       <c r="B787" s="35"/>
       <c r="C787" s="48"/>
@@ -36616,7 +36766,7 @@
       <c r="P787" s="16"/>
       <c r="Q787" s="17"/>
     </row>
-    <row r="788" spans="1:17" ht="45.95" customHeight="1">
+    <row r="788" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="20"/>
       <c r="B788" s="35"/>
       <c r="C788" s="48"/>
@@ -36635,7 +36785,7 @@
       <c r="P788" s="16"/>
       <c r="Q788" s="17"/>
     </row>
-    <row r="789" spans="1:17" ht="45.95" customHeight="1">
+    <row r="789" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="20"/>
       <c r="B789" s="35"/>
       <c r="C789" s="48"/>
@@ -36654,7 +36804,7 @@
       <c r="P789" s="16"/>
       <c r="Q789" s="17"/>
     </row>
-    <row r="790" spans="1:17" ht="45.95" customHeight="1">
+    <row r="790" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="20"/>
       <c r="B790" s="35"/>
       <c r="C790" s="48"/>
@@ -36673,7 +36823,7 @@
       <c r="P790" s="16"/>
       <c r="Q790" s="17"/>
     </row>
-    <row r="791" spans="1:17" ht="45.95" customHeight="1">
+    <row r="791" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="20"/>
       <c r="B791" s="35"/>
       <c r="C791" s="48"/>
@@ -36692,7 +36842,7 @@
       <c r="P791" s="16"/>
       <c r="Q791" s="17"/>
     </row>
-    <row r="792" spans="1:17" ht="45.95" customHeight="1">
+    <row r="792" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="20"/>
       <c r="B792" s="35"/>
       <c r="C792" s="48"/>
@@ -36711,7 +36861,7 @@
       <c r="P792" s="16"/>
       <c r="Q792" s="17"/>
     </row>
-    <row r="793" spans="1:17" ht="45.95" customHeight="1">
+    <row r="793" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="20"/>
       <c r="B793" s="13"/>
       <c r="C793" s="45"/>
@@ -36730,7 +36880,7 @@
       <c r="P793" s="16"/>
       <c r="Q793" s="17"/>
     </row>
-    <row r="794" spans="1:17" ht="45.95" customHeight="1">
+    <row r="794" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="20"/>
       <c r="B794" s="35"/>
       <c r="C794" s="48"/>
@@ -36749,7 +36899,7 @@
       <c r="P794" s="16"/>
       <c r="Q794" s="17"/>
     </row>
-    <row r="795" spans="1:17" ht="45.95" customHeight="1">
+    <row r="795" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="20"/>
       <c r="B795" s="35"/>
       <c r="C795" s="48"/>
@@ -36768,7 +36918,7 @@
       <c r="P795" s="16"/>
       <c r="Q795" s="17"/>
     </row>
-    <row r="796" spans="1:17" ht="45.95" customHeight="1">
+    <row r="796" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="20"/>
       <c r="B796" s="35"/>
       <c r="C796" s="48"/>
@@ -36787,7 +36937,7 @@
       <c r="P796" s="16"/>
       <c r="Q796" s="17"/>
     </row>
-    <row r="797" spans="1:17" ht="45.95" customHeight="1">
+    <row r="797" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="20"/>
       <c r="B797" s="35"/>
       <c r="C797" s="48"/>
@@ -36806,7 +36956,7 @@
       <c r="P797" s="16"/>
       <c r="Q797" s="17"/>
     </row>
-    <row r="798" spans="1:17" ht="45.95" customHeight="1">
+    <row r="798" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="20"/>
       <c r="B798" s="35"/>
       <c r="C798" s="48"/>
@@ -36825,7 +36975,7 @@
       <c r="P798" s="16"/>
       <c r="Q798" s="17"/>
     </row>
-    <row r="799" spans="1:17" ht="45.95" customHeight="1">
+    <row r="799" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="20"/>
       <c r="B799" s="35"/>
       <c r="C799" s="48"/>
@@ -36844,7 +36994,7 @@
       <c r="P799" s="16"/>
       <c r="Q799" s="17"/>
     </row>
-    <row r="800" spans="1:17" ht="45.95" customHeight="1">
+    <row r="800" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="20"/>
       <c r="B800" s="35"/>
       <c r="C800" s="48"/>
@@ -36863,7 +37013,7 @@
       <c r="P800" s="16"/>
       <c r="Q800" s="17"/>
     </row>
-    <row r="801" spans="1:17" ht="45.95" customHeight="1">
+    <row r="801" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="20"/>
       <c r="B801" s="35"/>
       <c r="C801" s="48"/>
@@ -36882,7 +37032,7 @@
       <c r="P801" s="16"/>
       <c r="Q801" s="17"/>
     </row>
-    <row r="802" spans="1:17" ht="45.95" customHeight="1">
+    <row r="802" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="20"/>
       <c r="B802" s="35"/>
       <c r="C802" s="48"/>
@@ -36901,7 +37051,7 @@
       <c r="P802" s="16"/>
       <c r="Q802" s="17"/>
     </row>
-    <row r="803" spans="1:17" ht="45.95" customHeight="1">
+    <row r="803" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="20"/>
       <c r="B803" s="35"/>
       <c r="C803" s="48"/>
@@ -36920,7 +37070,7 @@
       <c r="P803" s="16"/>
       <c r="Q803" s="17"/>
     </row>
-    <row r="804" spans="1:17" ht="45.95" customHeight="1">
+    <row r="804" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="20"/>
       <c r="B804" s="35"/>
       <c r="C804" s="48"/>
@@ -36939,7 +37089,7 @@
       <c r="P804" s="16"/>
       <c r="Q804" s="17"/>
     </row>
-    <row r="805" spans="1:17" ht="45.95" customHeight="1">
+    <row r="805" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="20"/>
       <c r="B805" s="35"/>
       <c r="C805" s="48"/>
@@ -36958,7 +37108,7 @@
       <c r="P805" s="16"/>
       <c r="Q805" s="17"/>
     </row>
-    <row r="806" spans="1:17" ht="45.95" customHeight="1">
+    <row r="806" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="20"/>
       <c r="B806" s="35"/>
       <c r="C806" s="48"/>
@@ -36977,7 +37127,7 @@
       <c r="P806" s="16"/>
       <c r="Q806" s="17"/>
     </row>
-    <row r="807" spans="1:17" ht="45.95" customHeight="1">
+    <row r="807" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="20"/>
       <c r="B807" s="35"/>
       <c r="C807" s="48"/>
@@ -36996,7 +37146,7 @@
       <c r="P807" s="16"/>
       <c r="Q807" s="17"/>
     </row>
-    <row r="808" spans="1:17" ht="45.95" customHeight="1">
+    <row r="808" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="20"/>
       <c r="B808" s="35"/>
       <c r="C808" s="48"/>
@@ -37015,7 +37165,7 @@
       <c r="P808" s="16"/>
       <c r="Q808" s="17"/>
     </row>
-    <row r="809" spans="1:17" ht="45.95" customHeight="1">
+    <row r="809" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="20"/>
       <c r="B809" s="35"/>
       <c r="C809" s="48"/>
@@ -37034,7 +37184,7 @@
       <c r="P809" s="16"/>
       <c r="Q809" s="17"/>
     </row>
-    <row r="810" spans="1:17" ht="45.95" customHeight="1">
+    <row r="810" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="20"/>
       <c r="B810" s="35"/>
       <c r="C810" s="48"/>
@@ -37053,7 +37203,7 @@
       <c r="P810" s="16"/>
       <c r="Q810" s="17"/>
     </row>
-    <row r="811" spans="1:17" ht="45.95" customHeight="1">
+    <row r="811" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="20"/>
       <c r="B811" s="35"/>
       <c r="C811" s="48"/>
@@ -37072,7 +37222,7 @@
       <c r="P811" s="16"/>
       <c r="Q811" s="17"/>
     </row>
-    <row r="812" spans="1:17" ht="45.95" customHeight="1">
+    <row r="812" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="20"/>
       <c r="B812" s="35"/>
       <c r="C812" s="48"/>
@@ -37091,7 +37241,7 @@
       <c r="P812" s="16"/>
       <c r="Q812" s="17"/>
     </row>
-    <row r="813" spans="1:17" ht="45.95" customHeight="1">
+    <row r="813" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="20"/>
       <c r="B813" s="35"/>
       <c r="C813" s="48"/>
@@ -37110,7 +37260,7 @@
       <c r="P813" s="16"/>
       <c r="Q813" s="17"/>
     </row>
-    <row r="814" spans="1:17" ht="45.95" customHeight="1">
+    <row r="814" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="20"/>
       <c r="B814" s="35"/>
       <c r="C814" s="48"/>
@@ -37129,7 +37279,7 @@
       <c r="P814" s="16"/>
       <c r="Q814" s="17"/>
     </row>
-    <row r="815" spans="1:17" ht="45.95" customHeight="1">
+    <row r="815" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="20"/>
       <c r="B815" s="35"/>
       <c r="C815" s="48"/>
@@ -37148,7 +37298,7 @@
       <c r="P815" s="16"/>
       <c r="Q815" s="17"/>
     </row>
-    <row r="816" spans="1:17" ht="45.95" customHeight="1">
+    <row r="816" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="20"/>
       <c r="B816" s="35"/>
       <c r="C816" s="48"/>
@@ -37167,7 +37317,7 @@
       <c r="P816" s="16"/>
       <c r="Q816" s="17"/>
     </row>
-    <row r="817" spans="1:17" ht="45.95" customHeight="1">
+    <row r="817" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="20"/>
       <c r="B817" s="35"/>
       <c r="C817" s="48"/>
@@ -37186,7 +37336,7 @@
       <c r="P817" s="16"/>
       <c r="Q817" s="17"/>
     </row>
-    <row r="818" spans="1:17" ht="45.95" customHeight="1">
+    <row r="818" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="20"/>
       <c r="B818" s="35"/>
       <c r="C818" s="48"/>
@@ -37205,7 +37355,7 @@
       <c r="P818" s="16"/>
       <c r="Q818" s="17"/>
     </row>
-    <row r="819" spans="1:17" ht="45.95" customHeight="1">
+    <row r="819" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="20"/>
       <c r="B819" s="35"/>
       <c r="C819" s="48"/>
@@ -37224,7 +37374,7 @@
       <c r="P819" s="16"/>
       <c r="Q819" s="17"/>
     </row>
-    <row r="820" spans="1:17" ht="45.95" customHeight="1">
+    <row r="820" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="20"/>
       <c r="B820" s="35"/>
       <c r="C820" s="48"/>
@@ -37243,7 +37393,7 @@
       <c r="P820" s="16"/>
       <c r="Q820" s="17"/>
     </row>
-    <row r="821" spans="1:17" ht="45.95" customHeight="1">
+    <row r="821" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="20"/>
       <c r="B821" s="35"/>
       <c r="C821" s="48"/>
@@ -37262,7 +37412,7 @@
       <c r="P821" s="16"/>
       <c r="Q821" s="17"/>
     </row>
-    <row r="822" spans="1:17" ht="45.95" customHeight="1">
+    <row r="822" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="20"/>
       <c r="B822" s="35"/>
       <c r="C822" s="48"/>
@@ -37281,7 +37431,7 @@
       <c r="P822" s="16"/>
       <c r="Q822" s="17"/>
     </row>
-    <row r="823" spans="1:17" ht="45.95" customHeight="1">
+    <row r="823" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="20"/>
       <c r="B823" s="35"/>
       <c r="C823" s="48"/>
@@ -37300,7 +37450,7 @@
       <c r="P823" s="16"/>
       <c r="Q823" s="17"/>
     </row>
-    <row r="824" spans="1:17" ht="45.95" customHeight="1">
+    <row r="824" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="20"/>
       <c r="B824" s="35"/>
       <c r="C824" s="48"/>
@@ -37319,7 +37469,7 @@
       <c r="P824" s="16"/>
       <c r="Q824" s="17"/>
     </row>
-    <row r="825" spans="1:17" ht="45.95" customHeight="1">
+    <row r="825" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="20"/>
       <c r="B825" s="35"/>
       <c r="C825" s="48"/>
@@ -37338,7 +37488,7 @@
       <c r="P825" s="16"/>
       <c r="Q825" s="17"/>
     </row>
-    <row r="826" spans="1:17" ht="45.95" customHeight="1">
+    <row r="826" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="20"/>
       <c r="B826" s="35"/>
       <c r="C826" s="48"/>
@@ -37357,7 +37507,7 @@
       <c r="P826" s="16"/>
       <c r="Q826" s="17"/>
     </row>
-    <row r="827" spans="1:17" ht="45.95" customHeight="1">
+    <row r="827" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="20"/>
       <c r="B827" s="35"/>
       <c r="C827" s="48"/>
@@ -37376,7 +37526,7 @@
       <c r="P827" s="16"/>
       <c r="Q827" s="17"/>
     </row>
-    <row r="828" spans="1:17" ht="45.95" customHeight="1">
+    <row r="828" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="20"/>
       <c r="B828" s="13"/>
       <c r="C828" s="45"/>
@@ -37395,7 +37545,7 @@
       <c r="P828" s="16"/>
       <c r="Q828" s="17"/>
     </row>
-    <row r="829" spans="1:17" ht="45.95" customHeight="1">
+    <row r="829" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="20"/>
       <c r="B829" s="35"/>
       <c r="C829" s="48"/>
@@ -37414,7 +37564,7 @@
       <c r="P829" s="16"/>
       <c r="Q829" s="17"/>
     </row>
-    <row r="830" spans="1:17" ht="45.95" customHeight="1">
+    <row r="830" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="20"/>
       <c r="B830" s="35"/>
       <c r="C830" s="48"/>
@@ -37433,7 +37583,7 @@
       <c r="P830" s="16"/>
       <c r="Q830" s="17"/>
     </row>
-    <row r="831" spans="1:17" ht="45.95" customHeight="1">
+    <row r="831" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="20"/>
       <c r="B831" s="35"/>
       <c r="C831" s="48"/>
@@ -37452,7 +37602,7 @@
       <c r="P831" s="16"/>
       <c r="Q831" s="17"/>
     </row>
-    <row r="832" spans="1:17" ht="45.95" customHeight="1">
+    <row r="832" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="20"/>
       <c r="B832" s="35"/>
       <c r="C832" s="48"/>
@@ -37471,7 +37621,7 @@
       <c r="P832" s="16"/>
       <c r="Q832" s="17"/>
     </row>
-    <row r="833" spans="1:17" ht="45.95" customHeight="1">
+    <row r="833" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="20"/>
       <c r="B833" s="35"/>
       <c r="C833" s="48"/>
@@ -37490,7 +37640,7 @@
       <c r="P833" s="16"/>
       <c r="Q833" s="17"/>
     </row>
-    <row r="834" spans="1:17" ht="45.95" customHeight="1">
+    <row r="834" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="20"/>
       <c r="B834" s="35"/>
       <c r="C834" s="48"/>
@@ -37509,7 +37659,7 @@
       <c r="P834" s="16"/>
       <c r="Q834" s="17"/>
     </row>
-    <row r="835" spans="1:17" ht="45.95" customHeight="1">
+    <row r="835" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="20"/>
       <c r="B835" s="35"/>
       <c r="C835" s="48"/>
@@ -37528,7 +37678,7 @@
       <c r="P835" s="16"/>
       <c r="Q835" s="17"/>
     </row>
-    <row r="836" spans="1:17" ht="45.95" customHeight="1">
+    <row r="836" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="20"/>
       <c r="B836" s="35"/>
       <c r="C836" s="48"/>
@@ -37547,7 +37697,7 @@
       <c r="P836" s="16"/>
       <c r="Q836" s="17"/>
     </row>
-    <row r="837" spans="1:17" ht="45.95" customHeight="1">
+    <row r="837" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="20"/>
       <c r="B837" s="35"/>
       <c r="C837" s="48"/>
@@ -37566,7 +37716,7 @@
       <c r="P837" s="16"/>
       <c r="Q837" s="17"/>
     </row>
-    <row r="838" spans="1:17" ht="45.95" customHeight="1">
+    <row r="838" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="20"/>
       <c r="B838" s="35"/>
       <c r="C838" s="48"/>
@@ -37585,7 +37735,7 @@
       <c r="P838" s="16"/>
       <c r="Q838" s="17"/>
     </row>
-    <row r="839" spans="1:17" ht="45.95" customHeight="1">
+    <row r="839" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="20"/>
       <c r="B839" s="35"/>
       <c r="C839" s="48"/>
@@ -37604,7 +37754,7 @@
       <c r="P839" s="16"/>
       <c r="Q839" s="17"/>
     </row>
-    <row r="840" spans="1:17" ht="45.95" customHeight="1">
+    <row r="840" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="20"/>
       <c r="B840" s="13"/>
       <c r="C840" s="45"/>
@@ -37623,7 +37773,7 @@
       <c r="P840" s="16"/>
       <c r="Q840" s="17"/>
     </row>
-    <row r="841" spans="1:17" ht="45.95" customHeight="1">
+    <row r="841" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="20"/>
       <c r="B841" s="35"/>
       <c r="C841" s="48"/>
@@ -37642,7 +37792,7 @@
       <c r="P841" s="16"/>
       <c r="Q841" s="17"/>
     </row>
-    <row r="842" spans="1:17" ht="45.95" customHeight="1">
+    <row r="842" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="20"/>
       <c r="B842" s="35"/>
       <c r="C842" s="48"/>
@@ -37661,7 +37811,7 @@
       <c r="P842" s="16"/>
       <c r="Q842" s="17"/>
     </row>
-    <row r="843" spans="1:17" ht="45.95" customHeight="1">
+    <row r="843" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="20"/>
       <c r="B843" s="35"/>
       <c r="C843" s="48"/>
@@ -37680,7 +37830,7 @@
       <c r="P843" s="16"/>
       <c r="Q843" s="17"/>
     </row>
-    <row r="844" spans="1:17" ht="45.95" customHeight="1">
+    <row r="844" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="20"/>
       <c r="B844" s="35"/>
       <c r="C844" s="48"/>
@@ -37699,7 +37849,7 @@
       <c r="P844" s="16"/>
       <c r="Q844" s="17"/>
     </row>
-    <row r="845" spans="1:17" ht="45.95" customHeight="1">
+    <row r="845" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="20"/>
       <c r="B845" s="35"/>
       <c r="C845" s="48"/>
@@ -37718,7 +37868,7 @@
       <c r="P845" s="16"/>
       <c r="Q845" s="17"/>
     </row>
-    <row r="846" spans="1:17" ht="45.95" customHeight="1">
+    <row r="846" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="20"/>
       <c r="B846" s="35"/>
       <c r="C846" s="48"/>
@@ -37737,7 +37887,7 @@
       <c r="P846" s="16"/>
       <c r="Q846" s="17"/>
     </row>
-    <row r="847" spans="1:17" ht="45.95" customHeight="1">
+    <row r="847" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="20"/>
       <c r="B847" s="35"/>
       <c r="C847" s="48"/>
@@ -37756,7 +37906,7 @@
       <c r="P847" s="16"/>
       <c r="Q847" s="17"/>
     </row>
-    <row r="848" spans="1:17" ht="45.95" customHeight="1">
+    <row r="848" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="20"/>
       <c r="B848" s="35"/>
       <c r="C848" s="48"/>
@@ -37775,7 +37925,7 @@
       <c r="P848" s="16"/>
       <c r="Q848" s="17"/>
     </row>
-    <row r="849" spans="1:17" ht="45.95" customHeight="1">
+    <row r="849" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="20"/>
       <c r="B849" s="35"/>
       <c r="C849" s="48"/>
@@ -37794,7 +37944,7 @@
       <c r="P849" s="16"/>
       <c r="Q849" s="17"/>
     </row>
-    <row r="850" spans="1:17" ht="45.95" customHeight="1">
+    <row r="850" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="20"/>
       <c r="B850" s="35"/>
       <c r="C850" s="48"/>
@@ -37813,7 +37963,7 @@
       <c r="P850" s="16"/>
       <c r="Q850" s="17"/>
     </row>
-    <row r="851" spans="1:17" ht="45.95" customHeight="1">
+    <row r="851" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="20"/>
       <c r="B851" s="35"/>
       <c r="C851" s="48"/>
@@ -37832,7 +37982,7 @@
       <c r="P851" s="16"/>
       <c r="Q851" s="17"/>
     </row>
-    <row r="852" spans="1:17" ht="45.95" customHeight="1">
+    <row r="852" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="20"/>
       <c r="B852" s="35"/>
       <c r="C852" s="48"/>
@@ -37851,7 +38001,7 @@
       <c r="P852" s="16"/>
       <c r="Q852" s="17"/>
     </row>
-    <row r="853" spans="1:17" ht="45.95" customHeight="1">
+    <row r="853" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="20"/>
       <c r="B853" s="35"/>
       <c r="C853" s="48"/>
@@ -37870,7 +38020,7 @@
       <c r="P853" s="16"/>
       <c r="Q853" s="17"/>
     </row>
-    <row r="854" spans="1:17" ht="45.95" customHeight="1">
+    <row r="854" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="20"/>
       <c r="B854" s="35"/>
       <c r="C854" s="48"/>
@@ -37889,7 +38039,7 @@
       <c r="P854" s="16"/>
       <c r="Q854" s="17"/>
     </row>
-    <row r="855" spans="1:17" ht="45.95" customHeight="1">
+    <row r="855" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="20"/>
       <c r="B855" s="35"/>
       <c r="C855" s="48"/>
@@ -37908,7 +38058,7 @@
       <c r="P855" s="16"/>
       <c r="Q855" s="17"/>
     </row>
-    <row r="856" spans="1:17" ht="45.95" customHeight="1">
+    <row r="856" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="20"/>
       <c r="B856" s="35"/>
       <c r="C856" s="48"/>
@@ -37927,7 +38077,7 @@
       <c r="P856" s="16"/>
       <c r="Q856" s="17"/>
     </row>
-    <row r="857" spans="1:17" ht="45.95" customHeight="1">
+    <row r="857" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="20"/>
       <c r="B857" s="35"/>
       <c r="C857" s="48"/>
@@ -37946,7 +38096,7 @@
       <c r="P857" s="16"/>
       <c r="Q857" s="17"/>
     </row>
-    <row r="858" spans="1:17" ht="45.95" customHeight="1">
+    <row r="858" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="20"/>
       <c r="B858" s="35"/>
       <c r="C858" s="48"/>
@@ -37965,7 +38115,7 @@
       <c r="P858" s="16"/>
       <c r="Q858" s="17"/>
     </row>
-    <row r="859" spans="1:17" ht="45.95" customHeight="1">
+    <row r="859" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="20"/>
       <c r="B859" s="35"/>
       <c r="C859" s="48"/>
@@ -37984,7 +38134,7 @@
       <c r="P859" s="16"/>
       <c r="Q859" s="17"/>
     </row>
-    <row r="860" spans="1:17" ht="45.95" customHeight="1">
+    <row r="860" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="20"/>
       <c r="B860" s="35"/>
       <c r="C860" s="48"/>
@@ -38003,7 +38153,7 @@
       <c r="P860" s="16"/>
       <c r="Q860" s="17"/>
     </row>
-    <row r="861" spans="1:17" ht="45.95" customHeight="1">
+    <row r="861" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="20"/>
       <c r="B861" s="35"/>
       <c r="C861" s="48"/>
@@ -38022,7 +38172,7 @@
       <c r="P861" s="16"/>
       <c r="Q861" s="17"/>
     </row>
-    <row r="862" spans="1:17" ht="45.95" customHeight="1">
+    <row r="862" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="20"/>
       <c r="B862" s="35"/>
       <c r="C862" s="48"/>
@@ -38041,7 +38191,7 @@
       <c r="P862" s="16"/>
       <c r="Q862" s="17"/>
     </row>
-    <row r="863" spans="1:17" ht="45.95" customHeight="1">
+    <row r="863" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="20"/>
       <c r="B863" s="35"/>
       <c r="C863" s="48"/>
@@ -38060,7 +38210,7 @@
       <c r="P863" s="16"/>
       <c r="Q863" s="17"/>
     </row>
-    <row r="864" spans="1:17" ht="45.95" customHeight="1">
+    <row r="864" spans="1:17" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="20"/>
       <c r="B864" s="13"/>
       <c r="C864" s="45"/>
@@ -38087,20 +38237,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.875" style="33" customWidth="1"/>
     <col min="2" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>396</v>
       </c>
@@ -38108,7 +38258,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>539</v>
       </c>
@@ -38116,7 +38266,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>597</v>
       </c>
@@ -38124,7 +38274,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>2233</v>
       </c>
@@ -38132,7 +38282,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>677</v>
       </c>
@@ -38140,7 +38290,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>1182</v>
       </c>
@@ -38148,7 +38298,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>1130</v>
       </c>
@@ -38156,7 +38306,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>1147</v>
       </c>
@@ -38164,12 +38314,12 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>1163</v>
       </c>
@@ -38177,7 +38327,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>1451</v>
       </c>
@@ -38188,13 +38338,13 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="33" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>2025</v>
       </c>
@@ -38202,7 +38352,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="60" t="s">
         <v>2238</v>
       </c>
@@ -38210,7 +38360,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="60" t="s">
         <v>2551</v>
       </c>
@@ -38218,7 +38368,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="s">
         <v>2615</v>
       </c>

--- a/reporters.xlsx
+++ b/reporters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="397"/>
@@ -11,8 +11,8 @@
     <sheet name="keyword_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="3011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="3045">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12793,12 +12793,146 @@
     <t>greggzoroya</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Justin Abrotsky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JustinAbrotsky</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USATGerryAhern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editor In Chief @golfweek, VP Content USA TODAY SMG. Past: President APSE, ME investigations Yahoo Sports http://www.usatoday.com/staff/2791/gerry-ahern/ …</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLA.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin Allen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByKevinAllen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hockey writer for USA TODAY since 1986.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam_amick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBA Insider, USA TODAY Sports; via Sports Illustrated, FanHouse, The Sacramento Bee. E-mail: amick.sam@gmail.com. Podcasts: https://art19.com/shows/nba-a-to-z …</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nancy Armour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nrarmour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Columnist for USA TODAY Sports, writing about a little bit of everything. Aunt of the three greatest boys ever; runner; Starbucks junkie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicole Auerbach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nicoleauerbach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheAthleticCFB and @TheAthleticCBB senior writer | @BigTenNetwork college football analyst (fridays, 12-1pm ET) | nicole@theathletic.com | IG: nicoleaue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel Axon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RachelAxon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olympics &amp; investigative reporter for @usatodaysports. Runner. Reader. Dog lover. Practitioner of sarcasm. RTs are not endorsements. Email: raxon@usatoday.com.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raxon@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rachel-axon-60024279</t>
+  </si>
+  <si>
+    <t>nicole@theathletic.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nicoleauerbach/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>narmour@usatoday.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nrarmour/</t>
+  </si>
+  <si>
+    <t>Sam Amick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam